--- a/data/DIA.MI.xlsx
+++ b/data/DIA.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="1693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="1694">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,73 +38,73 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0384101867676</t>
+    <t xml:space="preserve">43.0384140014648</t>
   </si>
   <si>
     <t xml:space="preserve">DIA.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8513069152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5922470092773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.4761199951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3689270019531</t>
+    <t xml:space="preserve">43.8512954711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5922508239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.4761238098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3689308166504</t>
   </si>
   <si>
     <t xml:space="preserve">42.6900329589844</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0116195678711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2612609863281</t>
+    <t xml:space="preserve">43.0116119384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2612571716309</t>
   </si>
   <si>
     <t xml:space="preserve">41.8146209716797</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5104179382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.7779273986816</t>
+    <t xml:space="preserve">40.5104141235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.7779235839844</t>
   </si>
   <si>
     <t xml:space="preserve">38.563060760498</t>
   </si>
   <si>
-    <t xml:space="preserve">38.3218727111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1253509521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.4563446044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.769474029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7878150939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5917663574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8950080871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3242607116699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.6190490722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5475883483887</t>
+    <t xml:space="preserve">38.3218803405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.125358581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.4563484191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7694778442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7878189086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5917739868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8950119018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3242645263672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.6190528869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5475845336914</t>
   </si>
   <si>
     <t xml:space="preserve">42.4131126403809</t>
@@ -113,43 +113,43 @@
     <t xml:space="preserve">41.7610206604004</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9208488464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2414894104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5005302429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.0811653137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.0990333557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8935775756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6354827880859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9123954772949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0106582641602</t>
+    <t xml:space="preserve">39.9208526611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2414817810059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5005264282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.081169128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.0990295410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8935813903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6354789733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9124031066895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0106620788574</t>
   </si>
   <si>
     <t xml:space="preserve">41.930736541748</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0920143127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.475643157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1366767883301</t>
+    <t xml:space="preserve">43.0920104980469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.4756393432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1366729736328</t>
   </si>
   <si>
     <t xml:space="preserve">43.7619743347168</t>
@@ -158,31 +158,31 @@
     <t xml:space="preserve">43.4493217468262</t>
   </si>
   <si>
-    <t xml:space="preserve">43.7798385620117</t>
+    <t xml:space="preserve">43.7798347473145</t>
   </si>
   <si>
     <t xml:space="preserve">43.1009483337402</t>
   </si>
   <si>
-    <t xml:space="preserve">42.3416519165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1902694702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.252799987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3064002990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2786407470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8677368164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5193557739258</t>
+    <t xml:space="preserve">42.3416557312012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1902732849121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2528038024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.306396484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2786445617676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8677291870117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5193519592285</t>
   </si>
   <si>
     <t xml:space="preserve">41.6895523071289</t>
@@ -191,7 +191,7 @@
     <t xml:space="preserve">41.0910568237305</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6712112426758</t>
+    <t xml:space="preserve">40.671215057373</t>
   </si>
   <si>
     <t xml:space="preserve">40.1263046264648</t>
@@ -200,34 +200,34 @@
     <t xml:space="preserve">40.6265487670898</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8052101135254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3496322631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6444091796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9838676452637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.664192199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.3341522216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.8701248168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.450756072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.9594573974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.272102355957</t>
+    <t xml:space="preserve">40.8052062988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3496246337891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6444129943848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9838600158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6641845703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.3341484069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.8701210021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.4507637023926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.9594535827637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.2720947265625</t>
   </si>
   <si>
     <t xml:space="preserve">47.4333648681641</t>
@@ -236,334 +236,334 @@
     <t xml:space="preserve">46.4954223632812</t>
   </si>
   <si>
-    <t xml:space="preserve">46.0041160583496</t>
+    <t xml:space="preserve">46.0041122436523</t>
   </si>
   <si>
     <t xml:space="preserve">45.7807960510254</t>
   </si>
   <si>
-    <t xml:space="preserve">45.468147277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.5128173828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.9147872924805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.3788185119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2894973754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.8254585266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.5574722290039</t>
+    <t xml:space="preserve">45.4681510925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.512809753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.914794921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.3788146972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2894859313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.8254623413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.5574760437012</t>
   </si>
   <si>
     <t xml:space="preserve">45.4234809875488</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3614273071289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.2274284362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.4060974121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8973960876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.7634048461914</t>
+    <t xml:space="preserve">46.3614311218262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.2274360656738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.4060859680176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.897403717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.7634086608887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8527412414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.2100486755371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.6740760803223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.5847473144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.0285720825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.119026184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.7120056152344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.5260467529297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.7974014282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.7471160888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.2044219970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.1993560791016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.2898025512695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.8777313232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.7018928527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.6063842773438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.7923316955566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.3350372314453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.6114387512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.1642532348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.3451499938965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.2145347595215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.5311088562012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.7069473266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.9732398986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.7622833251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.5864448547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.6266098022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.5209846496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.3802604675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.0586280822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.7521743774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.566219329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.4707107543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.656665802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.2395286560059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.872673034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.917896270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.601318359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.510871887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.2344741821289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.4605941772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.6465492248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.4204216003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.9229545593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.6968269348145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.5159301757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.8325004577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.2796936035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.2695808410645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.7721099853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.8574981689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.0383949279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.0785675048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.8122749328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.7319374084473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.3249130249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.3299751281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0535659790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.2847557067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.9128379821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.4153633117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0987968444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0083465576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.5510482788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.737003326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.1038475036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.1089172363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.9280090332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.6414909362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.1841812133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.3650817871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.1892433166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.0032844543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.2746353149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.958065032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.8625564575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.3701438903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.8274421691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.3752021789551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.787281036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.5560989379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.6516036987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.340087890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.2547035217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.4355964660645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.903018951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.3100433349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.1291465759277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.9884071350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.2597541809082</t>
   </si>
   <si>
     <t xml:space="preserve">46.8527336120605</t>
   </si>
   <si>
-    <t xml:space="preserve">47.2100524902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.674072265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.5847511291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.0285758972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.119026184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.7120056152344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.5260467529297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7973937988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.7471160888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.204418182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.1993560791016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.2898101806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.8777275085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.7018890380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.6063766479492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.7923355102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.3350372314453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.6114387512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.1642532348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.3451461791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.2145347595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.5311050415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7069473266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.9732360839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.7622871398926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.5864524841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.6266136169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.5209922790527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.380256652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.0586280822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7521667480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.5662155151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.4707069396973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.6566696166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.2395248413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.8726615905762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.917896270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.6013298034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.5108795166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.2344703674316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.4605865478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.646541595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.4204216003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.9229545593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.6968307495117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.5159339904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.8325119018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.2796936035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.2695770263672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.7721099853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.8575019836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.0383911132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.0785713195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.8122749328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.7319374084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.3249168395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.3299713134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0535736083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.2847518920898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.9128379821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.4153671264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0987892150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0083465576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.5510368347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.737003326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.1038513183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.1089134216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.9280090332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.6414909362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.1841850280762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.3650856018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.1892471313477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.003288269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.2746391296387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.958065032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.8625564575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.3701438903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.827449798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.3752021789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.7872772216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.5560989379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.6516075134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.3400917053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.2546997070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.4355964660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.9030151367188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.3100395202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.1291389465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.988410949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.2597541809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8527374267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.3552627563477</t>
+    <t xml:space="preserve">46.3552589416504</t>
   </si>
   <si>
     <t xml:space="preserve">46.7170639038086</t>
   </si>
   <si>
-    <t xml:space="preserve">47.1693115234375</t>
+    <t xml:space="preserve">47.1693077087402</t>
   </si>
   <si>
     <t xml:space="preserve">47.033634185791</t>
@@ -572,13 +572,13 @@
     <t xml:space="preserve">46.5813865661621</t>
   </si>
   <si>
-    <t xml:space="preserve">46.0386924743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.2648162841797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.1240844726562</t>
+    <t xml:space="preserve">46.0386962890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.264820098877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.124080657959</t>
   </si>
   <si>
     <t xml:space="preserve">46.8979568481445</t>
@@ -587,7 +587,7 @@
     <t xml:space="preserve">47.8476753234863</t>
   </si>
   <si>
-    <t xml:space="preserve">48.0737991333008</t>
+    <t xml:space="preserve">48.073802947998</t>
   </si>
   <si>
     <t xml:space="preserve">49.8375587463379</t>
@@ -599,13 +599,13 @@
     <t xml:space="preserve">52.8223876953125</t>
   </si>
   <si>
-    <t xml:space="preserve">51.1490783691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.4757652282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.2445907592773</t>
+    <t xml:space="preserve">51.1490821838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.4757690429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.2445869445801</t>
   </si>
   <si>
     <t xml:space="preserve">51.4656524658203</t>
@@ -614,142 +614,142 @@
     <t xml:space="preserve">51.7822227478027</t>
   </si>
   <si>
-    <t xml:space="preserve">52.867618560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.1389579772949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.0434608459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.088680267334</t>
+    <t xml:space="preserve">52.8676147460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.1389694213867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.0434532165527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.0886764526367</t>
   </si>
   <si>
     <t xml:space="preserve">54.133903503418</t>
   </si>
   <si>
-    <t xml:space="preserve">54.3600273132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.5912094116211</t>
+    <t xml:space="preserve">54.3600234985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.5912055969238</t>
   </si>
   <si>
     <t xml:space="preserve">53.9530067443848</t>
   </si>
   <si>
-    <t xml:space="preserve">54.5409240722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.4906463623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.3046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.0333404541016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.2142372131348</t>
+    <t xml:space="preserve">54.5409317016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.4906425476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.3046836853027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.0333366394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.2142448425293</t>
   </si>
   <si>
     <t xml:space="preserve">56.9830589294434</t>
   </si>
   <si>
-    <t xml:space="preserve">56.8473854064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.3499145507812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.5257453918457</t>
+    <t xml:space="preserve">56.8473777770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.3499069213867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.525749206543</t>
   </si>
   <si>
     <t xml:space="preserve">57.2544059753418</t>
   </si>
   <si>
-    <t xml:space="preserve">57.7066459655762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.7971000671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.1588973999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.0684471130371</t>
+    <t xml:space="preserve">57.7066535949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.7971038818359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.1589012145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.0684432983398</t>
   </si>
   <si>
     <t xml:space="preserve">58.7920379638672</t>
   </si>
   <si>
-    <t xml:space="preserve">59.6513061523438</t>
+    <t xml:space="preserve">59.6512985229492</t>
   </si>
   <si>
     <t xml:space="preserve">59.7869873046875</t>
   </si>
   <si>
-    <t xml:space="preserve">59.5156364440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.8372688293457</t>
+    <t xml:space="preserve">59.5156440734863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.8372650146484</t>
   </si>
   <si>
     <t xml:space="preserve">57.8875465393066</t>
   </si>
   <si>
-    <t xml:space="preserve">58.1136703491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.3347434997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.7819290161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.6965370178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.0583343505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.0532646179199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.2291107177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.2190017700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.9527130126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.4100189208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.6813583374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.6310768127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.4954032897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.178840637207</t>
+    <t xml:space="preserve">58.1136741638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.3347358703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.781925201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.6965408325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.0583305358887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.0532760620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.2291221618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.2189865112305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.9527053833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.4100151062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.6813507080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.6310844421387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.4953994750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.1788330078125</t>
   </si>
   <si>
     <t xml:space="preserve">63.5406341552734</t>
   </si>
   <si>
-    <t xml:space="preserve">63.3145179748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.6412048339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.9628372192383</t>
+    <t xml:space="preserve">63.314510345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.6411933898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.962833404541</t>
   </si>
   <si>
     <t xml:space="preserve">61.7316436767578</t>
@@ -758,34 +758,34 @@
     <t xml:space="preserve">62.4638214111328</t>
   </si>
   <si>
-    <t xml:space="preserve">62.7384033203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.8756713867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.1044769287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.3332710266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.2807731628418</t>
+    <t xml:space="preserve">62.7383995056152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.8756637573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.1044807434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.3332786560059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.2807846069336</t>
   </si>
   <si>
     <t xml:space="preserve">64.2484970092773</t>
   </si>
   <si>
-    <t xml:space="preserve">64.5688323974609</t>
+    <t xml:space="preserve">64.5688400268555</t>
   </si>
   <si>
     <t xml:space="preserve">64.2942657470703</t>
   </si>
   <si>
-    <t xml:space="preserve">65.3925094604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.8891525268555</t>
+    <t xml:space="preserve">65.3925323486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.8891677856445</t>
   </si>
   <si>
     <t xml:space="preserve">65.6670913696289</t>
@@ -794,61 +794,61 @@
     <t xml:space="preserve">66.353515625</t>
   </si>
   <si>
-    <t xml:space="preserve">63.973934173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.8366432189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.3467712402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.7061157226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.2552490234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.1179656982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.9806900024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.5365447998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.8689231872559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.4045753479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.5485992431641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.9537086486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.5943641662598</t>
+    <t xml:space="preserve">63.9739379882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.8366622924805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.3467636108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.7061233520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.255241394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.1179580688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.9806671142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.5365524291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.8689270019531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.4045791625977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.5486030578613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.9537048339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.5943565368652</t>
   </si>
   <si>
     <t xml:space="preserve">61.3197975158691</t>
   </si>
   <si>
-    <t xml:space="preserve">60.4503326416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.4113121032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.2350158691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.1959991455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.0196914672852</t>
+    <t xml:space="preserve">60.4503440856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.4113273620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.2350273132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.1959838867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.0197067260742</t>
   </si>
   <si>
     <t xml:space="preserve">64.3857879638672</t>
@@ -857,19 +857,19 @@
     <t xml:space="preserve">64.2027359008789</t>
   </si>
   <si>
-    <t xml:space="preserve">63.9281845092773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.0856857299805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.6348266601562</t>
+    <t xml:space="preserve">63.9281730651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.0857009887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.6348190307617</t>
   </si>
   <si>
     <t xml:space="preserve">66.8568954467773</t>
   </si>
   <si>
-    <t xml:space="preserve">67.3602523803711</t>
+    <t xml:space="preserve">67.3602600097656</t>
   </si>
   <si>
     <t xml:space="preserve">67.1772155761719</t>
@@ -878,13 +878,13 @@
     <t xml:space="preserve">66.8111190795898</t>
   </si>
   <si>
-    <t xml:space="preserve">66.719596862793</t>
+    <t xml:space="preserve">66.7196044921875</t>
   </si>
   <si>
     <t xml:space="preserve">66.4450302124023</t>
   </si>
   <si>
-    <t xml:space="preserve">65.8501281738281</t>
+    <t xml:space="preserve">65.8501358032227</t>
   </si>
   <si>
     <t xml:space="preserve">66.0331802368164</t>
@@ -893,10 +893,10 @@
     <t xml:space="preserve">65.5755844116211</t>
   </si>
   <si>
-    <t xml:space="preserve">65.621337890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.4840621948242</t>
+    <t xml:space="preserve">65.6213302612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.4840469360352</t>
   </si>
   <si>
     <t xml:space="preserve">65.3010025024414</t>
@@ -917,16 +917,16 @@
     <t xml:space="preserve">67.1314544677734</t>
   </si>
   <si>
-    <t xml:space="preserve">67.4517669677734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.3144912719727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.7263412475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.9026336669922</t>
+    <t xml:space="preserve">67.4517593383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.3144836425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.7263336181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.9026412963867</t>
   </si>
   <si>
     <t xml:space="preserve">67.2229690551758</t>
@@ -935,19 +935,19 @@
     <t xml:space="preserve">67.9551467895508</t>
   </si>
   <si>
-    <t xml:space="preserve">67.5433120727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.2754821777344</t>
+    <t xml:space="preserve">67.5432968139648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.2754669189453</t>
   </si>
   <si>
     <t xml:space="preserve">69.4195022583008</t>
   </si>
   <si>
-    <t xml:space="preserve">69.0076446533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.7331008911133</t>
+    <t xml:space="preserve">69.0076522827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.7330856323242</t>
   </si>
   <si>
     <t xml:space="preserve">68.8246002197266</t>
@@ -962,31 +962,31 @@
     <t xml:space="preserve">71.2041854858398</t>
   </si>
   <si>
-    <t xml:space="preserve">71.2957153320312</t>
+    <t xml:space="preserve">71.2957000732422</t>
   </si>
   <si>
     <t xml:space="preserve">72.897331237793</t>
   </si>
   <si>
-    <t xml:space="preserve">72.3024444580078</t>
+    <t xml:space="preserve">72.3024520874023</t>
   </si>
   <si>
     <t xml:space="preserve">72.4397277832031</t>
   </si>
   <si>
-    <t xml:space="preserve">71.7533111572266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.0736465454102</t>
+    <t xml:space="preserve">71.7533264160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.0736389160156</t>
   </si>
   <si>
     <t xml:space="preserve">73.7210388183594</t>
   </si>
   <si>
-    <t xml:space="preserve">71.7990798950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.1584243774414</t>
+    <t xml:space="preserve">71.799072265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.1584167480469</t>
   </si>
   <si>
     <t xml:space="preserve">71.2499389648438</t>
@@ -998,7 +998,7 @@
     <t xml:space="preserve">71.6617889404297</t>
   </si>
   <si>
-    <t xml:space="preserve">71.7075347900391</t>
+    <t xml:space="preserve">71.7075576782227</t>
   </si>
   <si>
     <t xml:space="preserve">71.3872222900391</t>
@@ -1010,52 +1010,52 @@
     <t xml:space="preserve">72.2566833496094</t>
   </si>
   <si>
-    <t xml:space="preserve">71.3414459228516</t>
+    <t xml:space="preserve">71.3414611816406</t>
   </si>
   <si>
     <t xml:space="preserve">72.4854888916016</t>
   </si>
   <si>
-    <t xml:space="preserve">71.8906097412109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.6160278320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.9416656494141</t>
+    <t xml:space="preserve">71.8906021118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.6160430908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.9416580200195</t>
   </si>
   <si>
     <t xml:space="preserve">66.3992767333984</t>
   </si>
   <si>
-    <t xml:space="preserve">68.3212432861328</t>
+    <t xml:space="preserve">68.3212280273438</t>
   </si>
   <si>
     <t xml:space="preserve">68.6873245239258</t>
   </si>
   <si>
-    <t xml:space="preserve">70.1516799926758</t>
+    <t xml:space="preserve">70.1516647338867</t>
   </si>
   <si>
     <t xml:space="preserve">70.9296188354492</t>
   </si>
   <si>
-    <t xml:space="preserve">70.6550445556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.8771133422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.1839447021484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.236457824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.9228820800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.0601501464844</t>
+    <t xml:space="preserve">70.6550369262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.8771057128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.183952331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.2364654541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.9228744506836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.0601654052734</t>
   </si>
   <si>
     <t xml:space="preserve">70.8380889892578</t>
@@ -1064,121 +1064,118 @@
     <t xml:space="preserve">71.06689453125</t>
   </si>
   <si>
-    <t xml:space="preserve">72.8058166503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.5379943847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.7923431396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.3737487792969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.2822113037109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.1381912231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.5042724609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.2889633178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.263427734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.7142868041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.5312423706055</t>
+    <t xml:space="preserve">72.8058090209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.5380020141602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.7923202514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.3737411499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.2822189331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.13818359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.504280090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.2889556884766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.2634353637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.7142944335938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.5312576293945</t>
   </si>
   <si>
     <t xml:space="preserve">72.8515701293945</t>
   </si>
   <si>
-    <t xml:space="preserve">72.9430999755859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.6227722167969</t>
+    <t xml:space="preserve">72.9430923461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.6227645874023</t>
   </si>
   <si>
     <t xml:space="preserve">72.3939590454102</t>
   </si>
   <si>
-    <t xml:space="preserve">72.3482055664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.5770263671875</t>
+    <t xml:space="preserve">72.3481979370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.5770111083984</t>
   </si>
   <si>
     <t xml:space="preserve">72.1651611328125</t>
   </si>
   <si>
-    <t xml:space="preserve">70.7008056640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.6685485839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.9618835449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.8178634643555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.6536102294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.1637268066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.0654678344727</t>
+    <t xml:space="preserve">70.700813293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.6685333251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.9618988037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.8178558349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.6536140441895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.1637191772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.0654602050781</t>
   </si>
   <si>
     <t xml:space="preserve">64.4315490722656</t>
   </si>
   <si>
-    <t xml:space="preserve">63.8824157714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.7451362609863</t>
+    <t xml:space="preserve">63.8824234008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.7451324462891</t>
   </si>
   <si>
     <t xml:space="preserve">63.5620880126953</t>
   </si>
   <si>
-    <t xml:space="preserve">62.692626953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.7316474914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.7706642150879</t>
+    <t xml:space="preserve">62.6926193237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.7706604003906</t>
   </si>
   <si>
     <t xml:space="preserve">60.4960975646973</t>
   </si>
   <si>
-    <t xml:space="preserve">61.6401214599609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.6011161804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.6145782470703</t>
+    <t xml:space="preserve">61.6401176452637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.6011009216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.6145935058594</t>
   </si>
   <si>
     <t xml:space="preserve">68.4127578735352</t>
   </si>
   <si>
-    <t xml:space="preserve">67.5890502929688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.0789413452148</t>
+    <t xml:space="preserve">67.5890579223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.0789489746094</t>
   </si>
   <si>
     <t xml:space="preserve">65.7128601074219</t>
@@ -1187,34 +1184,34 @@
     <t xml:space="preserve">66.4907989501953</t>
   </si>
   <si>
-    <t xml:space="preserve">66.1247100830078</t>
+    <t xml:space="preserve">66.1247024536133</t>
   </si>
   <si>
     <t xml:space="preserve">67.2687301635742</t>
   </si>
   <si>
-    <t xml:space="preserve">69.1449279785156</t>
+    <t xml:space="preserve">69.1449432373047</t>
   </si>
   <si>
     <t xml:space="preserve">71.0211334228516</t>
   </si>
   <si>
-    <t xml:space="preserve">69.7398223876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.7465744018555</t>
+    <t xml:space="preserve">69.7398300170898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.74658203125</t>
   </si>
   <si>
     <t xml:space="preserve">71.5245056152344</t>
   </si>
   <si>
-    <t xml:space="preserve">72.0278701782227</t>
+    <t xml:space="preserve">72.0278854370117</t>
   </si>
   <si>
     <t xml:space="preserve">71.9821243286133</t>
   </si>
   <si>
-    <t xml:space="preserve">73.5837478637695</t>
+    <t xml:space="preserve">73.5837631225586</t>
   </si>
   <si>
     <t xml:space="preserve">74.6362609863281</t>
@@ -1223,303 +1220,306 @@
     <t xml:space="preserve">73.4007110595703</t>
   </si>
   <si>
-    <t xml:space="preserve">74.4074554443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.1328887939453</t>
+    <t xml:space="preserve">74.4074630737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.1328964233398</t>
   </si>
   <si>
     <t xml:space="preserve">74.3159332275391</t>
   </si>
   <si>
-    <t xml:space="preserve">75.6429977416992</t>
+    <t xml:space="preserve">75.6430053710938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.4989776611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.1463928222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.74755859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.6377029418945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.8862915039062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.8285522460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.7649230957031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.1001434326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.2447280883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.3949737548828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.0771255493164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.9268798828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.6205444335938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.3893203735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.7592697143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.2968368530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.2679672241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.163948059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.4587860107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.3374176025391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.0137023925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.3663024902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.1177062988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.7766418457031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.4529342651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.7883377075195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.9097137451172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.5108871459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.9907073974609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.1120529174805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.3606338500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.0658187866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.1756744384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.1583099365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.3721618652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.6033782958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.6958618164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.9270858764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.8230819702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.3143997192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.5456085205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.2507934570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.7420959472656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.4820098876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.4010391235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.938591003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.2622985839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.5050277709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.5512771606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.9038696289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.6609344482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.7881469726562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.0829849243164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.2505874633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.481803894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.371955871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.5280532836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.0482482910156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.3257217407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.1986846923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.7073745727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.6263961791992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.9501113891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.7188949584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.3026809692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.8113784790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.9212188720703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.7536087036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.4125366210938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.6841583251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.9616165161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.036735534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.314208984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.8864898681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.6496200561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.8982086181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.3200454711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.106201171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.9674530029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.7940063476562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.4414291381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.4991683959961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.2794799804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.1175231933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.3776168823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.2677536010742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.7128219604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.7937927246094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.5278625488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.8515548706055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.470085144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.8400421142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.2099990844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.4123458862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.7590637207031</t>
   </si>
   <si>
     <t xml:space="preserve">74.4989700317383</t>
   </si>
   <si>
-    <t xml:space="preserve">75.1463928222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.7475738525391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.6377105712891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.8862991333008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.8285446166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.7649230957031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.1001510620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.2447357177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.3949737548828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.0771255493164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.926887512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.6205444335938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.3893203735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.75927734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.2968292236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.2679443359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.163948059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.4587936401367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.3374176025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.0137100219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.3662948608398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.1177215576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.7766342163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.4529266357422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.7883529663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.9097213745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.5108871459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.9906997680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.112060546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.3606414794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.0658187866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.1756744384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.1582946777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.3721466064453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.6033782958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.6958618164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.9270782470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.8230819702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.3143997192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.5456237792969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.2507934570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.7421035766602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.4820098876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.4010391235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.938591003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.2622985839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.5050354003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.55126953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.9038696289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.6609268188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.7881469726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.0829849243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.2505798339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.4818115234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.3719482421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.5280609130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.0482406616211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.3257141113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.1986923217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.7073745727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.6263885498047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.9500961303711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.718879699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.3026885986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.8113784790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.9212188720703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.7536087036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.4125518798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.6841583251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.9616088867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.0367279052734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.3142013549805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.8864898681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.6496124267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.8982086181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.320068359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.1062088012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.9674682617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.7940139770508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.4414215087891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.4991760253906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.2794723510742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.1175155639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.3776092529297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.2677612304688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.7128295898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.7938003540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.5278549194336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.8515701293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.470100402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.8400573730469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.2099990844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.4123458862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.7590789794922</t>
-  </si>
-  <si>
     <t xml:space="preserve">74.7764358520508</t>
   </si>
   <si>
@@ -1535,19 +1535,19 @@
     <t xml:space="preserve">77.5048370361328</t>
   </si>
   <si>
-    <t xml:space="preserve">80.9731292724609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.302490234375</t>
+    <t xml:space="preserve">80.9731216430664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.3024826049805</t>
   </si>
   <si>
     <t xml:space="preserve">77.0886306762695</t>
   </si>
   <si>
-    <t xml:space="preserve">73.9902801513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.4468765258789</t>
+    <t xml:space="preserve">73.9902877807617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.4468841552734</t>
   </si>
   <si>
     <t xml:space="preserve">71.5856094360352</t>
@@ -1556,43 +1556,43 @@
     <t xml:space="preserve">72.0018005371094</t>
   </si>
   <si>
-    <t xml:space="preserve">72.8804321289062</t>
+    <t xml:space="preserve">72.8804473876953</t>
   </si>
   <si>
     <t xml:space="preserve">74.0365447998047</t>
   </si>
   <si>
-    <t xml:space="preserve">73.2503967285156</t>
+    <t xml:space="preserve">73.2503890991211</t>
   </si>
   <si>
     <t xml:space="preserve">71.95556640625</t>
   </si>
   <si>
-    <t xml:space="preserve">71.7705764770508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.4583969116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.3658981323242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.73583984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.233024597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.6548767089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.2560653686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.7936019897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.4699020385742</t>
+    <t xml:space="preserve">71.7705917358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.4583892822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.3659057617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.7358551025391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.2330322265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.6548843383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.2560348510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.7936172485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.4698944091797</t>
   </si>
   <si>
     <t xml:space="preserve">68.4410171508789</t>
@@ -1604,7 +1604,7 @@
     <t xml:space="preserve">66.3600463867188</t>
   </si>
   <si>
-    <t xml:space="preserve">64.8339920043945</t>
+    <t xml:space="preserve">64.8339996337891</t>
   </si>
   <si>
     <t xml:space="preserve">65.2501983642578</t>
@@ -1613,7 +1613,7 @@
     <t xml:space="preserve">65.111457824707</t>
   </si>
   <si>
-    <t xml:space="preserve">65.6201324462891</t>
+    <t xml:space="preserve">65.6201248168945</t>
   </si>
   <si>
     <t xml:space="preserve">67.0074615478516</t>
@@ -1622,7 +1622,7 @@
     <t xml:space="preserve">65.7744827270508</t>
   </si>
   <si>
-    <t xml:space="preserve">67.0548782348633</t>
+    <t xml:space="preserve">67.0548706054688</t>
   </si>
   <si>
     <t xml:space="preserve">67.5291061401367</t>
@@ -1640,10 +1640,10 @@
     <t xml:space="preserve">70.0898971557617</t>
   </si>
   <si>
-    <t xml:space="preserve">70.5166931152344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.6548156738281</t>
+    <t xml:space="preserve">70.5167007446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.6548233032227</t>
   </si>
   <si>
     <t xml:space="preserve">71.0383377075195</t>
@@ -1652,31 +1652,31 @@
     <t xml:space="preserve">70.6589660644531</t>
   </si>
   <si>
-    <t xml:space="preserve">71.7970809936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.5042877197266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.9785079956055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.2073516845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.0650787353516</t>
+    <t xml:space="preserve">71.7970886230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.5042953491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.9785003662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.2073440551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.0650863647461</t>
   </si>
   <si>
     <t xml:space="preserve">75.9228210449219</t>
   </si>
   <si>
-    <t xml:space="preserve">75.5434341430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.0176696777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.2547607421875</t>
+    <t xml:space="preserve">75.5434417724609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.0176544189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.254768371582</t>
   </si>
   <si>
     <t xml:space="preserve">75.6382827758789</t>
@@ -1685,106 +1685,106 @@
     <t xml:space="preserve">77.5351715087891</t>
   </si>
   <si>
-    <t xml:space="preserve">77.1083679199219</t>
+    <t xml:space="preserve">77.1083602905273</t>
   </si>
   <si>
     <t xml:space="preserve">75.8279724121094</t>
   </si>
   <si>
-    <t xml:space="preserve">77.8671188354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.9619750976562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.7165908813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.6217346191406</t>
+    <t xml:space="preserve">77.8671112060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.9619598388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.7165985107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.6217422485352</t>
   </si>
   <si>
     <t xml:space="preserve">80.7124481201172</t>
   </si>
   <si>
-    <t xml:space="preserve">80.2856521606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.6176147460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.2382278442383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.4279251098633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.8072891235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.0444107055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.0485382080078</t>
+    <t xml:space="preserve">80.2856597900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.6176071166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.2382431030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.4279174804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.8072967529297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.0444030761719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.0485458374023</t>
   </si>
   <si>
     <t xml:space="preserve">80.9021453857422</t>
   </si>
   <si>
-    <t xml:space="preserve">81.7083129882812</t>
+    <t xml:space="preserve">81.7083206176758</t>
   </si>
   <si>
     <t xml:space="preserve">81.3289337158203</t>
   </si>
   <si>
-    <t xml:space="preserve">81.8031539916992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.0835571289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.7516098022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.4196395874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.3722305297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.2773742675781</t>
+    <t xml:space="preserve">81.8031616210938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.0835494995117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.7516021728516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.4196548461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.3722229003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.2773818969727</t>
   </si>
   <si>
     <t xml:space="preserve">83.2732543945312</t>
   </si>
   <si>
-    <t xml:space="preserve">82.1825332641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.3763580322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.9969787597656</t>
+    <t xml:space="preserve">82.1825408935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.3763656616211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.9969940185547</t>
   </si>
   <si>
     <t xml:space="preserve">83.3206634521484</t>
   </si>
   <si>
-    <t xml:space="preserve">83.5577850341797</t>
+    <t xml:space="preserve">83.5577774047852</t>
   </si>
   <si>
     <t xml:space="preserve">84.0794219970703</t>
   </si>
   <si>
-    <t xml:space="preserve">84.316535949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.9845809936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.7433242797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.0319900512695</t>
+    <t xml:space="preserve">84.3165283203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.9845733642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.7433319091797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.0319976806641</t>
   </si>
   <si>
     <t xml:space="preserve">85.1227111816406</t>
@@ -1796,7 +1796,7 @@
     <t xml:space="preserve">85.8814697265625</t>
   </si>
   <si>
-    <t xml:space="preserve">86.877326965332</t>
+    <t xml:space="preserve">86.8773345947266</t>
   </si>
   <si>
     <t xml:space="preserve">87.9680328369141</t>
@@ -1808,40 +1808,40 @@
     <t xml:space="preserve">86.9247512817383</t>
   </si>
   <si>
-    <t xml:space="preserve">86.7824783325195</t>
+    <t xml:space="preserve">86.7824859619141</t>
   </si>
   <si>
     <t xml:space="preserve">86.3082504272461</t>
   </si>
   <si>
-    <t xml:space="preserve">86.2134170532227</t>
+    <t xml:space="preserve">86.2134246826172</t>
   </si>
   <si>
     <t xml:space="preserve">86.7350540161133</t>
   </si>
   <si>
-    <t xml:space="preserve">83.130973815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.7598724365234</t>
+    <t xml:space="preserve">83.130989074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.7598648071289</t>
   </si>
   <si>
     <t xml:space="preserve">81.2815093994141</t>
   </si>
   <si>
-    <t xml:space="preserve">82.6093292236328</t>
+    <t xml:space="preserve">82.6093368530273</t>
   </si>
   <si>
     <t xml:space="preserve">82.8938674926758</t>
   </si>
   <si>
-    <t xml:space="preserve">84.8855895996094</t>
+    <t xml:space="preserve">84.8856048583984</t>
   </si>
   <si>
     <t xml:space="preserve">85.2649688720703</t>
   </si>
   <si>
-    <t xml:space="preserve">85.3598251342773</t>
+    <t xml:space="preserve">85.3598175048828</t>
   </si>
   <si>
     <t xml:space="preserve">86.4031066894531</t>
@@ -1850,13 +1850,13 @@
     <t xml:space="preserve">89.2958602905273</t>
   </si>
   <si>
-    <t xml:space="preserve">90.6236724853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.4257125854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.378288269043</t>
+    <t xml:space="preserve">90.6236801147461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92.4257049560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92.3782958984375</t>
   </si>
   <si>
     <t xml:space="preserve">92.85693359375</t>
@@ -1865,19 +1865,19 @@
     <t xml:space="preserve">92.3304214477539</t>
   </si>
   <si>
-    <t xml:space="preserve">93.3355865478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.7133407592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91.9953842163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91.7560501098633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.3201217651367</t>
+    <t xml:space="preserve">93.335578918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92.7133483886719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91.9953765869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91.7560577392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.3201141357422</t>
   </si>
   <si>
     <t xml:space="preserve">89.4585571289062</t>
@@ -1886,16 +1886,16 @@
     <t xml:space="preserve">89.9372024536133</t>
   </si>
   <si>
-    <t xml:space="preserve">87.6397323608398</t>
+    <t xml:space="preserve">87.6397247314453</t>
   </si>
   <si>
     <t xml:space="preserve">91.2295455932617</t>
   </si>
   <si>
-    <t xml:space="preserve">92.5218963623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93.1441345214844</t>
+    <t xml:space="preserve">92.5218887329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93.1441268920898</t>
   </si>
   <si>
     <t xml:space="preserve">94.2928771972656</t>
@@ -1910,76 +1910,76 @@
     <t xml:space="preserve">95.0108337402344</t>
   </si>
   <si>
-    <t xml:space="preserve">98.3134765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.0792999267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.610961914062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102.621276855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.9408721923828</t>
+    <t xml:space="preserve">98.3134689331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.0793151855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.610969543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102.621269226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.9408798217773</t>
   </si>
   <si>
     <t xml:space="preserve">100.515235900879</t>
   </si>
   <si>
-    <t xml:space="preserve">98.1220092773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.8878555297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.1647262573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.5476531982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.7390975952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.5049438476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.2177505493164</t>
+    <t xml:space="preserve">98.1220169067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.8878631591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.1647415161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.5476608276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.7391052246094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.5049285888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.2177581787109</t>
   </si>
   <si>
     <t xml:space="preserve">100.802436828613</t>
   </si>
   <si>
-    <t xml:space="preserve">99.5579528808594</t>
+    <t xml:space="preserve">99.5579605102539</t>
   </si>
   <si>
     <t xml:space="preserve">98.6006622314453</t>
   </si>
   <si>
-    <t xml:space="preserve">99.4622268676758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.4092102050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.792121887207</t>
+    <t xml:space="preserve">99.4622192382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.4092178344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.7921142578125</t>
   </si>
   <si>
     <t xml:space="preserve">97.4519195556641</t>
   </si>
   <si>
-    <t xml:space="preserve">96.9732818603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.0690078735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.6860809326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.0262908935547</t>
+    <t xml:space="preserve">96.973274230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.0690002441406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.6860961914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.0262985229492</t>
   </si>
   <si>
     <t xml:space="preserve">103.387107849121</t>
@@ -1988,34 +1988,34 @@
     <t xml:space="preserve">101.759719848633</t>
   </si>
   <si>
-    <t xml:space="preserve">100.419509887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.099922180176</t>
+    <t xml:space="preserve">100.41951751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.099914550781</t>
   </si>
   <si>
     <t xml:space="preserve">101.951171875</t>
   </si>
   <si>
-    <t xml:space="preserve">101.376800537109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101.185348510742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.653678894043</t>
+    <t xml:space="preserve">101.376808166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101.185333251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.6536712646484</t>
   </si>
   <si>
     <t xml:space="preserve">101.472534179688</t>
   </si>
   <si>
-    <t xml:space="preserve">103.674308776855</t>
+    <t xml:space="preserve">103.674301147461</t>
   </si>
   <si>
     <t xml:space="preserve">103.482833862305</t>
   </si>
   <si>
-    <t xml:space="preserve">105.110237121582</t>
+    <t xml:space="preserve">105.110229492188</t>
   </si>
   <si>
     <t xml:space="preserve">104.344398498535</t>
@@ -2024,55 +2024,55 @@
     <t xml:space="preserve">101.281074523926</t>
   </si>
   <si>
-    <t xml:space="preserve">102.429824829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.004180908203</t>
+    <t xml:space="preserve">102.429817199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.004196166992</t>
   </si>
   <si>
     <t xml:space="preserve">105.014495849609</t>
   </si>
   <si>
-    <t xml:space="preserve">104.823043823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104.248664855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101.663986206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.8451461791992</t>
+    <t xml:space="preserve">104.823036193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104.248672485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101.66397857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.8451309204102</t>
   </si>
   <si>
     <t xml:space="preserve">97.9305648803711</t>
   </si>
   <si>
-    <t xml:space="preserve">99.3664932250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.323783874512</t>
+    <t xml:space="preserve">99.3665084838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.323776245117</t>
   </si>
   <si>
     <t xml:space="preserve">102.23836517334</t>
   </si>
   <si>
-    <t xml:space="preserve">101.568252563477</t>
+    <t xml:space="preserve">101.568260192871</t>
   </si>
   <si>
     <t xml:space="preserve">100.993881225586</t>
   </si>
   <si>
-    <t xml:space="preserve">102.142639160156</t>
+    <t xml:space="preserve">102.142631530762</t>
   </si>
   <si>
     <t xml:space="preserve">100.898162841797</t>
   </si>
   <si>
-    <t xml:space="preserve">95.6330795288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.9202651977539</t>
+    <t xml:space="preserve">95.6330718994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.9202575683594</t>
   </si>
   <si>
     <t xml:space="preserve">95.058708190918</t>
@@ -2093,7 +2093,7 @@
     <t xml:space="preserve">92.8090667724609</t>
   </si>
   <si>
-    <t xml:space="preserve">93.5270385742188</t>
+    <t xml:space="preserve">93.5270309448242</t>
   </si>
   <si>
     <t xml:space="preserve">92.4740219116211</t>
@@ -2105,10 +2105,10 @@
     <t xml:space="preserve">92.9048080444336</t>
   </si>
   <si>
-    <t xml:space="preserve">93.1919860839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94.3407287597656</t>
+    <t xml:space="preserve">93.1919784545898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94.3407363891602</t>
   </si>
   <si>
     <t xml:space="preserve">96.5903625488281</t>
@@ -2120,37 +2120,37 @@
     <t xml:space="preserve">100.13232421875</t>
   </si>
   <si>
-    <t xml:space="preserve">99.1750335693359</t>
+    <t xml:space="preserve">99.1750259399414</t>
   </si>
   <si>
     <t xml:space="preserve">102.046897888184</t>
   </si>
   <si>
-    <t xml:space="preserve">104.440116882324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105.971778869629</t>
+    <t xml:space="preserve">104.440124511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105.971786499023</t>
   </si>
   <si>
     <t xml:space="preserve">107.311988830566</t>
   </si>
   <si>
-    <t xml:space="preserve">109.609474182129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.035110473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.471038818359</t>
+    <t xml:space="preserve">109.609481811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.035102844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.471046447754</t>
   </si>
   <si>
     <t xml:space="preserve">114.013000488281</t>
   </si>
   <si>
-    <t xml:space="preserve">115.257476806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.683097839355</t>
+    <t xml:space="preserve">115.257484436035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.68310546875</t>
   </si>
   <si>
     <t xml:space="preserve">114.970283508301</t>
@@ -2159,25 +2159,25 @@
     <t xml:space="preserve">116.119041442871</t>
   </si>
   <si>
-    <t xml:space="preserve">113.247169494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.406219482422</t>
+    <t xml:space="preserve">113.247161865234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.406227111816</t>
   </si>
   <si>
     <t xml:space="preserve">117.45923614502</t>
   </si>
   <si>
-    <t xml:space="preserve">118.703720092773</t>
+    <t xml:space="preserve">118.703712463379</t>
   </si>
   <si>
     <t xml:space="preserve">118.512260437012</t>
   </si>
   <si>
-    <t xml:space="preserve">116.78914642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.831855773926</t>
+    <t xml:space="preserve">116.789138793945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.831840515137</t>
   </si>
   <si>
     <t xml:space="preserve">114.874565124512</t>
@@ -2186,22 +2186,22 @@
     <t xml:space="preserve">111.045402526855</t>
   </si>
   <si>
-    <t xml:space="preserve">112.672798156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.00269317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.715507507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.57706451416</t>
+    <t xml:space="preserve">112.672805786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.002708435059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.71549987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.577056884766</t>
   </si>
   <si>
     <t xml:space="preserve">113.151443481445</t>
   </si>
   <si>
-    <t xml:space="preserve">112.481338500977</t>
+    <t xml:space="preserve">112.481346130371</t>
   </si>
   <si>
     <t xml:space="preserve">111.524055480957</t>
@@ -2216,13 +2216,13 @@
     <t xml:space="preserve">113.342903137207</t>
   </si>
   <si>
-    <t xml:space="preserve">113.725814819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.395927429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.289878845215</t>
+    <t xml:space="preserve">113.72582244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.395919799805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.289886474609</t>
   </si>
   <si>
     <t xml:space="preserve">110.853958129883</t>
@@ -2231,7 +2231,7 @@
     <t xml:space="preserve">108.843643188477</t>
   </si>
   <si>
-    <t xml:space="preserve">111.90697479248</t>
+    <t xml:space="preserve">111.906959533691</t>
   </si>
   <si>
     <t xml:space="preserve">109.418022155762</t>
@@ -2240,7 +2240,7 @@
     <t xml:space="preserve">109.2265625</t>
   </si>
   <si>
-    <t xml:space="preserve">110.183853149414</t>
+    <t xml:space="preserve">110.18384552002</t>
   </si>
   <si>
     <t xml:space="preserve">107.790634155273</t>
@@ -2249,22 +2249,22 @@
     <t xml:space="preserve">110.566764831543</t>
   </si>
   <si>
-    <t xml:space="preserve">110.662490844727</t>
+    <t xml:space="preserve">110.662498474121</t>
   </si>
   <si>
     <t xml:space="preserve">108.36499786377</t>
   </si>
   <si>
-    <t xml:space="preserve">106.258972167969</t>
+    <t xml:space="preserve">106.258964538574</t>
   </si>
   <si>
     <t xml:space="preserve">107.120529174805</t>
   </si>
   <si>
-    <t xml:space="preserve">109.130828857422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.800918579102</t>
+    <t xml:space="preserve">109.130844116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.800933837891</t>
   </si>
   <si>
     <t xml:space="preserve">109.705200195312</t>
@@ -2276,22 +2276,22 @@
     <t xml:space="preserve">115.736129760742</t>
   </si>
   <si>
-    <t xml:space="preserve">115.927574157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.332595825195</t>
+    <t xml:space="preserve">115.927581787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.332611083984</t>
   </si>
   <si>
     <t xml:space="preserve">105.876052856445</t>
   </si>
   <si>
-    <t xml:space="preserve">100.036590576172</t>
+    <t xml:space="preserve">100.036605834961</t>
   </si>
   <si>
     <t xml:space="preserve">108.173545837402</t>
   </si>
   <si>
-    <t xml:space="preserve">104.918762207031</t>
+    <t xml:space="preserve">104.918769836426</t>
   </si>
   <si>
     <t xml:space="preserve">103.195648193359</t>
@@ -2300,16 +2300,16 @@
     <t xml:space="preserve">101.089614868164</t>
   </si>
   <si>
-    <t xml:space="preserve">109.51375579834</t>
+    <t xml:space="preserve">109.513748168945</t>
   </si>
   <si>
     <t xml:space="preserve">106.833343505859</t>
   </si>
   <si>
-    <t xml:space="preserve">111.811241149902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.279571533203</t>
+    <t xml:space="preserve">111.811248779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.279579162598</t>
   </si>
   <si>
     <t xml:space="preserve">107.886360168457</t>
@@ -2324,22 +2324,22 @@
     <t xml:space="preserve">115.544662475586</t>
   </si>
   <si>
-    <t xml:space="preserve">113.055709838867</t>
+    <t xml:space="preserve">113.055717468262</t>
   </si>
   <si>
     <t xml:space="preserve">119.565277099609</t>
   </si>
   <si>
-    <t xml:space="preserve">123.873062133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">127.702224731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.02033996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">143.401733398438</t>
+    <t xml:space="preserve">123.873069763184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127.702217102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.020324707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143.401748657227</t>
   </si>
   <si>
     <t xml:space="preserve">143.688934326172</t>
@@ -2348,16 +2348,16 @@
     <t xml:space="preserve">138.328125</t>
   </si>
   <si>
-    <t xml:space="preserve">146.943710327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146.082153320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.952529907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152.304534912109</t>
+    <t xml:space="preserve">146.943725585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146.082138061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.952514648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152.30451965332</t>
   </si>
   <si>
     <t xml:space="preserve">155.655029296875</t>
@@ -2366,16 +2366,16 @@
     <t xml:space="preserve">159.771362304688</t>
   </si>
   <si>
-    <t xml:space="preserve">159.962829589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.272109985352</t>
+    <t xml:space="preserve">159.962844848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.272094726562</t>
   </si>
   <si>
     <t xml:space="preserve">148.666839599609</t>
   </si>
   <si>
-    <t xml:space="preserve">148.76252746582</t>
+    <t xml:space="preserve">148.762557983398</t>
   </si>
   <si>
     <t xml:space="preserve">148.379638671875</t>
@@ -2390,16 +2390,16 @@
     <t xml:space="preserve">149.528381347656</t>
   </si>
   <si>
-    <t xml:space="preserve">155.559295654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153.644729614258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.132171630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">169.439971923828</t>
+    <t xml:space="preserve">155.559326171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">153.644714355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.132186889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">169.439987182617</t>
   </si>
   <si>
     <t xml:space="preserve">176.332458496094</t>
@@ -2411,13 +2411,13 @@
     <t xml:space="preserve">171.546005249023</t>
   </si>
   <si>
-    <t xml:space="preserve">181.118896484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">182.74626159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">194.13801574707</t>
+    <t xml:space="preserve">181.118881225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">182.746292114258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">194.138000488281</t>
   </si>
   <si>
     <t xml:space="preserve">200.456115722656</t>
@@ -2426,16 +2426,16 @@
     <t xml:space="preserve">188.585754394531</t>
   </si>
   <si>
-    <t xml:space="preserve">165.61083984375</t>
+    <t xml:space="preserve">165.610809326172</t>
   </si>
   <si>
     <t xml:space="preserve">174.034957885742</t>
   </si>
   <si>
-    <t xml:space="preserve">180.448791503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">173.747772216797</t>
+    <t xml:space="preserve">180.448806762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173.747787475586</t>
   </si>
   <si>
     <t xml:space="preserve">171.258819580078</t>
@@ -2444,25 +2444,25 @@
     <t xml:space="preserve">166.089462280273</t>
   </si>
   <si>
-    <t xml:space="preserve">166.759567260742</t>
+    <t xml:space="preserve">166.759582519531</t>
   </si>
   <si>
     <t xml:space="preserve">158.909820556641</t>
   </si>
   <si>
-    <t xml:space="preserve">152.783157348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154.602005004883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156.995254516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160.632949829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">159.867111206055</t>
+    <t xml:space="preserve">152.783172607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154.602020263672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.995223999023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160.632934570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159.867095947266</t>
   </si>
   <si>
     <t xml:space="preserve">163.57373046875</t>
@@ -2480,28 +2480,28 @@
     <t xml:space="preserve">161.16682434082</t>
   </si>
   <si>
-    <t xml:space="preserve">164.343963623047</t>
+    <t xml:space="preserve">164.343933105469</t>
   </si>
   <si>
     <t xml:space="preserve">169.254043579102</t>
   </si>
   <si>
-    <t xml:space="preserve">166.558319091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.017868041992</t>
+    <t xml:space="preserve">166.558303833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.017883300781</t>
   </si>
   <si>
     <t xml:space="preserve">163.38117980957</t>
   </si>
   <si>
-    <t xml:space="preserve">164.055114746094</t>
+    <t xml:space="preserve">164.055130004883</t>
   </si>
   <si>
     <t xml:space="preserve">164.632781982422</t>
   </si>
   <si>
-    <t xml:space="preserve">164.921615600586</t>
+    <t xml:space="preserve">164.921630859375</t>
   </si>
   <si>
     <t xml:space="preserve">164.729064941406</t>
@@ -2510,76 +2510,76 @@
     <t xml:space="preserve">168.195007324219</t>
   </si>
   <si>
-    <t xml:space="preserve">171.853515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.527435302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.114166259766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166.462036132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">167.23225402832</t>
+    <t xml:space="preserve">171.853530883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.527465820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.114181518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.462020874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">167.232223510742</t>
   </si>
   <si>
     <t xml:space="preserve">166.750869750977</t>
   </si>
   <si>
-    <t xml:space="preserve">171.468414306641</t>
+    <t xml:space="preserve">171.46842956543</t>
   </si>
   <si>
     <t xml:space="preserve">171.564682006836</t>
   </si>
   <si>
-    <t xml:space="preserve">174.164138793945</t>
+    <t xml:space="preserve">174.164154052734</t>
   </si>
   <si>
     <t xml:space="preserve">171.66096496582</t>
   </si>
   <si>
-    <t xml:space="preserve">168.483856201172</t>
+    <t xml:space="preserve">168.483825683594</t>
   </si>
   <si>
     <t xml:space="preserve">162.99609375</t>
   </si>
   <si>
-    <t xml:space="preserve">156.641845703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.247695922852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166.847137451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161.263107299805</t>
+    <t xml:space="preserve">156.641830444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.247680664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.847152709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161.263092041016</t>
   </si>
   <si>
     <t xml:space="preserve">159.818954467773</t>
   </si>
   <si>
-    <t xml:space="preserve">154.620025634766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151.731719970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148.650894165039</t>
+    <t xml:space="preserve">154.620040893555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151.731750488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148.65087890625</t>
   </si>
   <si>
     <t xml:space="preserve">152.69450378418</t>
   </si>
   <si>
-    <t xml:space="preserve">147.110458374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151.635467529297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154.234924316406</t>
+    <t xml:space="preserve">147.110473632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151.635452270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154.234939575195</t>
   </si>
   <si>
     <t xml:space="preserve">153.560989379883</t>
@@ -2588,31 +2588,31 @@
     <t xml:space="preserve">150.28759765625</t>
   </si>
   <si>
-    <t xml:space="preserve">156.73811340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153.175888061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156.160446166992</t>
+    <t xml:space="preserve">156.738098144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">153.175903320312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.160461425781</t>
   </si>
   <si>
     <t xml:space="preserve">156.834396362305</t>
   </si>
   <si>
-    <t xml:space="preserve">156.930648803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.412063598633</t>
+    <t xml:space="preserve">156.9306640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.412033081055</t>
   </si>
   <si>
     <t xml:space="preserve">157.797149658203</t>
   </si>
   <si>
-    <t xml:space="preserve">161.455642700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147.495574951172</t>
+    <t xml:space="preserve">161.455657958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147.495559692383</t>
   </si>
   <si>
     <t xml:space="preserve">140.371109008789</t>
@@ -2621,19 +2621,19 @@
     <t xml:space="preserve">145.858871459961</t>
   </si>
   <si>
-    <t xml:space="preserve">146.436538696289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145.377502441406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137.290267944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136.520065307617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">139.119522094727</t>
+    <t xml:space="preserve">146.4365234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145.377487182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137.290283203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136.520050048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">139.119506835938</t>
   </si>
   <si>
     <t xml:space="preserve">138.926971435547</t>
@@ -2642,31 +2642,31 @@
     <t xml:space="preserve">146.629089355469</t>
   </si>
   <si>
-    <t xml:space="preserve">145.088653564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148.939727783203</t>
+    <t xml:space="preserve">145.088668823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148.939697265625</t>
   </si>
   <si>
     <t xml:space="preserve">149.613632202148</t>
   </si>
   <si>
-    <t xml:space="preserve">151.154083251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154.908843994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152.309371948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163.092361450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">162.707244873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.151397705078</t>
+    <t xml:space="preserve">151.154098510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154.90885925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152.30940246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163.092346191406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162.707260131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.151412963867</t>
   </si>
   <si>
     <t xml:space="preserve">163.862564086914</t>
@@ -2675,73 +2675,73 @@
     <t xml:space="preserve">165.499267578125</t>
   </si>
   <si>
-    <t xml:space="preserve">170.216827392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">177.148712158203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">177.533828735352</t>
+    <t xml:space="preserve">170.216812133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">177.148727416992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">177.533813476562</t>
   </si>
   <si>
     <t xml:space="preserve">179.940734863281</t>
   </si>
   <si>
-    <t xml:space="preserve">175.70458984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180.999771118164</t>
+    <t xml:space="preserve">175.704574584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180.999786376953</t>
   </si>
   <si>
     <t xml:space="preserve">183.021606445312</t>
   </si>
   <si>
-    <t xml:space="preserve">180.518402099609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">184.17692565918</t>
+    <t xml:space="preserve">180.518417358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">184.176895141602</t>
   </si>
   <si>
     <t xml:space="preserve">181.962554931641</t>
   </si>
   <si>
-    <t xml:space="preserve">187.354049682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">186.39128112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">183.984359741211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">187.642852783203</t>
+    <t xml:space="preserve">187.354019165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">186.391265869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">183.984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">187.642868041992</t>
   </si>
   <si>
     <t xml:space="preserve">185.428512573242</t>
   </si>
   <si>
-    <t xml:space="preserve">183.888092041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">181.577453613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180.32585144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">181.481170654297</t>
+    <t xml:space="preserve">183.888076782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181.577438354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180.325866699219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181.481155395508</t>
   </si>
   <si>
     <t xml:space="preserve">178.785415649414</t>
   </si>
   <si>
-    <t xml:space="preserve">180.13330078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">186.96891784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.264129638672</t>
+    <t xml:space="preserve">180.133285522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">186.968933105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.264114379883</t>
   </si>
   <si>
     <t xml:space="preserve">193.708267211914</t>
@@ -2753,7 +2753,7 @@
     <t xml:space="preserve">165.980651855469</t>
   </si>
   <si>
-    <t xml:space="preserve">167.328521728516</t>
+    <t xml:space="preserve">167.328536987305</t>
   </si>
   <si>
     <t xml:space="preserve">167.039688110352</t>
@@ -2762,43 +2762,43 @@
     <t xml:space="preserve">166.173217773438</t>
   </si>
   <si>
-    <t xml:space="preserve">158.95246887207</t>
+    <t xml:space="preserve">158.952484130859</t>
   </si>
   <si>
     <t xml:space="preserve">162.899810791016</t>
   </si>
   <si>
-    <t xml:space="preserve">166.365768432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170.024276733398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.788101196289</t>
+    <t xml:space="preserve">166.365753173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170.024291992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.7880859375</t>
   </si>
   <si>
     <t xml:space="preserve">163.670028686523</t>
   </si>
   <si>
-    <t xml:space="preserve">162.129577636719</t>
+    <t xml:space="preserve">162.129592895508</t>
   </si>
   <si>
     <t xml:space="preserve">164.825332641602</t>
   </si>
   <si>
-    <t xml:space="preserve">162.225875854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161.359390258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160.492874145508</t>
+    <t xml:space="preserve">162.225891113281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161.359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160.492889404297</t>
   </si>
   <si>
     <t xml:space="preserve">160.878005981445</t>
   </si>
   <si>
-    <t xml:space="preserve">165.306732177734</t>
+    <t xml:space="preserve">165.306716918945</t>
   </si>
   <si>
     <t xml:space="preserve">161.070556640625</t>
@@ -2807,25 +2807,25 @@
     <t xml:space="preserve">161.648193359375</t>
   </si>
   <si>
-    <t xml:space="preserve">163.76628112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163.284927368164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.775360107422</t>
+    <t xml:space="preserve">163.766296386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163.284896850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.775344848633</t>
   </si>
   <si>
     <t xml:space="preserve">154.812576293945</t>
   </si>
   <si>
-    <t xml:space="preserve">153.464706420898</t>
+    <t xml:space="preserve">153.464691162109</t>
   </si>
   <si>
     <t xml:space="preserve">157.604598999023</t>
   </si>
   <si>
-    <t xml:space="preserve">156.449295043945</t>
+    <t xml:space="preserve">156.449279785156</t>
   </si>
   <si>
     <t xml:space="preserve">156.545562744141</t>
@@ -2834,10 +2834,10 @@
     <t xml:space="preserve">160.011505126953</t>
   </si>
   <si>
-    <t xml:space="preserve">173.008850097656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.142364501953</t>
+    <t xml:space="preserve">173.008834838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.142349243164</t>
   </si>
   <si>
     <t xml:space="preserve">181.288619995117</t>
@@ -2846,13 +2846,13 @@
     <t xml:space="preserve">171.083312988281</t>
   </si>
   <si>
-    <t xml:space="preserve">173.87532043457</t>
+    <t xml:space="preserve">173.875335693359</t>
   </si>
   <si>
     <t xml:space="preserve">173.297668457031</t>
   </si>
   <si>
-    <t xml:space="preserve">172.720001220703</t>
+    <t xml:space="preserve">172.720016479492</t>
   </si>
   <si>
     <t xml:space="preserve">169.927993774414</t>
@@ -2861,46 +2861,46 @@
     <t xml:space="preserve">169.63916015625</t>
   </si>
   <si>
-    <t xml:space="preserve">172.431198120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">176.089660644531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175.415756225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">177.630126953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">178.689147949219</t>
+    <t xml:space="preserve">172.431167602539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176.08967590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">175.415740966797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">177.630111694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">178.689163208008</t>
   </si>
   <si>
     <t xml:space="preserve">178.400329589844</t>
   </si>
   <si>
-    <t xml:space="preserve">179.459365844727</t>
+    <t xml:space="preserve">179.459350585938</t>
   </si>
   <si>
     <t xml:space="preserve">176.667343139648</t>
   </si>
   <si>
-    <t xml:space="preserve">158.182250976562</t>
+    <t xml:space="preserve">158.182266235352</t>
   </si>
   <si>
     <t xml:space="preserve">153.753540039062</t>
   </si>
   <si>
-    <t xml:space="preserve">157.989715576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156.353012084961</t>
+    <t xml:space="preserve">157.989700317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.352996826172</t>
   </si>
   <si>
     <t xml:space="preserve">157.893432617188</t>
   </si>
   <si>
-    <t xml:space="preserve">159.14501953125</t>
+    <t xml:space="preserve">159.145034790039</t>
   </si>
   <si>
     <t xml:space="preserve">155.967895507812</t>
@@ -2912,7 +2912,7 @@
     <t xml:space="preserve">150.961532592773</t>
   </si>
   <si>
-    <t xml:space="preserve">149.035995483398</t>
+    <t xml:space="preserve">149.036010742188</t>
   </si>
   <si>
     <t xml:space="preserve">134.401977539062</t>
@@ -2921,19 +2921,19 @@
     <t xml:space="preserve">136.808883666992</t>
   </si>
   <si>
-    <t xml:space="preserve">140.467391967773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136.712600708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.883346557617</t>
+    <t xml:space="preserve">140.467376708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136.712615966797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.883361816406</t>
   </si>
   <si>
     <t xml:space="preserve">137.77165222168</t>
   </si>
   <si>
-    <t xml:space="preserve">134.979629516602</t>
+    <t xml:space="preserve">134.979614257812</t>
   </si>
   <si>
     <t xml:space="preserve">135.74983215332</t>
@@ -2942,40 +2942,40 @@
     <t xml:space="preserve">134.787078857422</t>
   </si>
   <si>
-    <t xml:space="preserve">137.001419067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.824295043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.187606811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.572723388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131.706237792969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.54638671875</t>
+    <t xml:space="preserve">137.001434326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.824310302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.187622070312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.572708129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131.70622253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.546371459961</t>
   </si>
   <si>
     <t xml:space="preserve">137.193984985352</t>
   </si>
   <si>
-    <t xml:space="preserve">134.931488037109</t>
+    <t xml:space="preserve">134.93147277832</t>
   </si>
   <si>
     <t xml:space="preserve">147.351150512695</t>
   </si>
   <si>
-    <t xml:space="preserve">145.425628662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">143.596374511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150.095016479492</t>
+    <t xml:space="preserve">145.42561340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143.59635925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150.095031738281</t>
   </si>
   <si>
     <t xml:space="preserve">149.950622558594</t>
@@ -2984,19 +2984,19 @@
     <t xml:space="preserve">148.169494628906</t>
   </si>
   <si>
-    <t xml:space="preserve">146.869781494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146.725357055664</t>
+    <t xml:space="preserve">146.869766235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146.725341796875</t>
   </si>
   <si>
     <t xml:space="preserve">138.734420776367</t>
   </si>
   <si>
-    <t xml:space="preserve">138.541854858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135.027755737305</t>
+    <t xml:space="preserve">138.541839599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.027770996094</t>
   </si>
   <si>
     <t xml:space="preserve">135.990539550781</t>
@@ -3011,10 +3011,10 @@
     <t xml:space="preserve">133.34294128418</t>
   </si>
   <si>
-    <t xml:space="preserve">135.55729675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137.338394165039</t>
+    <t xml:space="preserve">135.557281494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137.338409423828</t>
   </si>
   <si>
     <t xml:space="preserve">133.102233886719</t>
@@ -3023,10 +3023,10 @@
     <t xml:space="preserve">129.973251342773</t>
   </si>
   <si>
-    <t xml:space="preserve">133.150390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.861541748047</t>
+    <t xml:space="preserve">133.150375366211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.861557006836</t>
   </si>
   <si>
     <t xml:space="preserve">136.375625610352</t>
@@ -3047,16 +3047,16 @@
     <t xml:space="preserve">139.60661315918</t>
   </si>
   <si>
-    <t xml:space="preserve">139.558120727539</t>
+    <t xml:space="preserve">139.558135986328</t>
   </si>
   <si>
     <t xml:space="preserve">139.848983764648</t>
   </si>
   <si>
-    <t xml:space="preserve">140.236770629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137.716110229492</t>
+    <t xml:space="preserve">140.236785888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137.716125488281</t>
   </si>
   <si>
     <t xml:space="preserve">134.759155273438</t>
@@ -3071,19 +3071,19 @@
     <t xml:space="preserve">137.958480834961</t>
   </si>
   <si>
-    <t xml:space="preserve">139.267303466797</t>
+    <t xml:space="preserve">139.267288208008</t>
   </si>
   <si>
     <t xml:space="preserve">140.430694580078</t>
   </si>
   <si>
-    <t xml:space="preserve">140.963882446289</t>
+    <t xml:space="preserve">140.963897705078</t>
   </si>
   <si>
     <t xml:space="preserve">145.035766601562</t>
   </si>
   <si>
-    <t xml:space="preserve">146.150665283203</t>
+    <t xml:space="preserve">146.150680541992</t>
   </si>
   <si>
     <t xml:space="preserve">145.859817504883</t>
@@ -3092,7 +3092,7 @@
     <t xml:space="preserve">148.138137817383</t>
   </si>
   <si>
-    <t xml:space="preserve">147.653396606445</t>
+    <t xml:space="preserve">147.653381347656</t>
   </si>
   <si>
     <t xml:space="preserve">149.204559326172</t>
@@ -3107,7 +3107,7 @@
     <t xml:space="preserve">145.22966003418</t>
   </si>
   <si>
-    <t xml:space="preserve">149.883224487305</t>
+    <t xml:space="preserve">149.883209228516</t>
   </si>
   <si>
     <t xml:space="preserve">151.337448120117</t>
@@ -3119,7 +3119,7 @@
     <t xml:space="preserve">155.021499633789</t>
   </si>
   <si>
-    <t xml:space="preserve">154.633728027344</t>
+    <t xml:space="preserve">154.633712768555</t>
   </si>
   <si>
     <t xml:space="preserve">152.694732666016</t>
@@ -3128,10 +3128,10 @@
     <t xml:space="preserve">153.470336914062</t>
   </si>
   <si>
-    <t xml:space="preserve">151.822204589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.845581054688</t>
+    <t xml:space="preserve">151.822189331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.845565795898</t>
   </si>
   <si>
     <t xml:space="preserve">158.317779541016</t>
@@ -3149,25 +3149,25 @@
     <t xml:space="preserve">157.445236206055</t>
   </si>
   <si>
-    <t xml:space="preserve">157.008972167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.639129638672</t>
+    <t xml:space="preserve">157.00895690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.639144897461</t>
   </si>
   <si>
     <t xml:space="preserve">158.075408935547</t>
   </si>
   <si>
-    <t xml:space="preserve">160.935409545898</t>
+    <t xml:space="preserve">160.935394287109</t>
   </si>
   <si>
     <t xml:space="preserve">162.195739746094</t>
   </si>
   <si>
-    <t xml:space="preserve">164.280120849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.734375</t>
+    <t xml:space="preserve">164.280151367188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.734359741211</t>
   </si>
   <si>
     <t xml:space="preserve">167.091659545898</t>
@@ -3179,7 +3179,7 @@
     <t xml:space="preserve">162.971328735352</t>
   </si>
   <si>
-    <t xml:space="preserve">164.425582885742</t>
+    <t xml:space="preserve">164.425567626953</t>
   </si>
   <si>
     <t xml:space="preserve">167.188613891602</t>
@@ -3191,10 +3191,10 @@
     <t xml:space="preserve">171.06657409668</t>
   </si>
   <si>
-    <t xml:space="preserve">166.703872680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170.290985107422</t>
+    <t xml:space="preserve">166.703857421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170.290969848633</t>
   </si>
   <si>
     <t xml:space="preserve">171.018096923828</t>
@@ -3203,13 +3203,13 @@
     <t xml:space="preserve">168.158096313477</t>
   </si>
   <si>
-    <t xml:space="preserve">170.824188232422</t>
+    <t xml:space="preserve">170.824203491211</t>
   </si>
   <si>
     <t xml:space="preserve">170.484893798828</t>
   </si>
   <si>
-    <t xml:space="preserve">171.212005615234</t>
+    <t xml:space="preserve">171.212020874023</t>
   </si>
   <si>
     <t xml:space="preserve">173.344879150391</t>
@@ -3218,25 +3218,25 @@
     <t xml:space="preserve">172.423873901367</t>
   </si>
   <si>
-    <t xml:space="preserve">173.538787841797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">178.289260864258</t>
+    <t xml:space="preserve">173.538772583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">178.289276123047</t>
   </si>
   <si>
     <t xml:space="preserve">179.210296630859</t>
   </si>
   <si>
-    <t xml:space="preserve">179.404205322266</t>
+    <t xml:space="preserve">179.404190063477</t>
   </si>
   <si>
     <t xml:space="preserve">182.409606933594</t>
   </si>
   <si>
-    <t xml:space="preserve">181.827911376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180.325210571289</t>
+    <t xml:space="preserve">181.827926635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180.325225830078</t>
   </si>
   <si>
     <t xml:space="preserve">179.743515014648</t>
@@ -3248,22 +3248,22 @@
     <t xml:space="preserve">183.669952392578</t>
   </si>
   <si>
-    <t xml:space="preserve">185.075698852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">187.354019165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.443832397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">194.867553710938</t>
+    <t xml:space="preserve">185.075714111328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">187.35400390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.44384765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">194.867568969727</t>
   </si>
   <si>
     <t xml:space="preserve">195.740097045898</t>
   </si>
   <si>
-    <t xml:space="preserve">198.066879272461</t>
+    <t xml:space="preserve">198.06689453125</t>
   </si>
   <si>
     <t xml:space="preserve">194.09196472168</t>
@@ -3272,25 +3272,25 @@
     <t xml:space="preserve">199.424163818359</t>
   </si>
   <si>
-    <t xml:space="preserve">199.327224731445</t>
+    <t xml:space="preserve">199.327239990234</t>
   </si>
   <si>
     <t xml:space="preserve">199.908905029297</t>
   </si>
   <si>
-    <t xml:space="preserve">190.698760986328</t>
+    <t xml:space="preserve">190.698745727539</t>
   </si>
   <si>
     <t xml:space="preserve">195.643157958984</t>
   </si>
   <si>
-    <t xml:space="preserve">192.783157348633</t>
+    <t xml:space="preserve">192.783172607422</t>
   </si>
   <si>
     <t xml:space="preserve">194.479766845703</t>
   </si>
   <si>
-    <t xml:space="preserve">196.418762207031</t>
+    <t xml:space="preserve">196.418746948242</t>
   </si>
   <si>
     <t xml:space="preserve">198.35774230957</t>
@@ -3299,10 +3299,10 @@
     <t xml:space="preserve">197.000442504883</t>
   </si>
   <si>
-    <t xml:space="preserve">189.874710083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">182.845901489258</t>
+    <t xml:space="preserve">189.87467956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">182.845886230469</t>
   </si>
   <si>
     <t xml:space="preserve">177.222839355469</t>
@@ -3311,10 +3311,10 @@
     <t xml:space="preserve">176.301834106445</t>
   </si>
   <si>
-    <t xml:space="preserve">175.817092895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">169.806228637695</t>
+    <t xml:space="preserve">175.817077636719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">169.806243896484</t>
   </si>
   <si>
     <t xml:space="preserve">166.60693359375</t>
@@ -3329,13 +3329,13 @@
     <t xml:space="preserve">165.491989135742</t>
   </si>
   <si>
-    <t xml:space="preserve">166.84928894043</t>
+    <t xml:space="preserve">166.849304199219</t>
   </si>
   <si>
     <t xml:space="preserve">164.183197021484</t>
   </si>
   <si>
-    <t xml:space="preserve">168.642837524414</t>
+    <t xml:space="preserve">168.642852783203</t>
   </si>
   <si>
     <t xml:space="preserve">173.05403137207</t>
@@ -3344,13 +3344,13 @@
     <t xml:space="preserve">173.441818237305</t>
   </si>
   <si>
-    <t xml:space="preserve">174.605224609375</t>
+    <t xml:space="preserve">174.605209350586</t>
   </si>
   <si>
     <t xml:space="preserve">173.87809753418</t>
   </si>
   <si>
-    <t xml:space="preserve">175.962493896484</t>
+    <t xml:space="preserve">175.962509155273</t>
   </si>
   <si>
     <t xml:space="preserve">179.985870361328</t>
@@ -3362,28 +3362,28 @@
     <t xml:space="preserve">183.13671875</t>
   </si>
   <si>
-    <t xml:space="preserve">185.221145629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185.172668457031</t>
+    <t xml:space="preserve">185.221130371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">185.172653198242</t>
   </si>
   <si>
     <t xml:space="preserve">181.634033203125</t>
   </si>
   <si>
-    <t xml:space="preserve">189.486907958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">189.389953613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">191.135025024414</t>
+    <t xml:space="preserve">189.486892700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">189.389938354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191.135009765625</t>
   </si>
   <si>
     <t xml:space="preserve">191.619766235352</t>
   </si>
   <si>
-    <t xml:space="preserve">188.808242797852</t>
+    <t xml:space="preserve">188.808258056641</t>
   </si>
   <si>
     <t xml:space="preserve">187.160110473633</t>
@@ -3395,13 +3395,13 @@
     <t xml:space="preserve">178.483184814453</t>
   </si>
   <si>
-    <t xml:space="preserve">177.804534912109</t>
+    <t xml:space="preserve">177.80451965332</t>
   </si>
   <si>
     <t xml:space="preserve">179.355728149414</t>
   </si>
   <si>
-    <t xml:space="preserve">182.264175415039</t>
+    <t xml:space="preserve">182.264190673828</t>
   </si>
   <si>
     <t xml:space="preserve">183.185195922852</t>
@@ -3416,16 +3416,16 @@
     <t xml:space="preserve">178.870971679688</t>
   </si>
   <si>
-    <t xml:space="preserve">178.046905517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">173.829635620117</t>
+    <t xml:space="preserve">178.046890258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173.829620361328</t>
   </si>
   <si>
     <t xml:space="preserve">172.036056518555</t>
   </si>
   <si>
-    <t xml:space="preserve">181.585540771484</t>
+    <t xml:space="preserve">181.585556030273</t>
   </si>
   <si>
     <t xml:space="preserve">179.452667236328</t>
@@ -3434,31 +3434,31 @@
     <t xml:space="preserve">182.991302490234</t>
   </si>
   <si>
-    <t xml:space="preserve">177.319793701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.472320556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171.308929443359</t>
+    <t xml:space="preserve">177.319778442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.47233581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171.308944702148</t>
   </si>
   <si>
     <t xml:space="preserve">167.043197631836</t>
   </si>
   <si>
-    <t xml:space="preserve">169.612350463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.569274902344</t>
+    <t xml:space="preserve">169.612335205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.569290161133</t>
   </si>
   <si>
     <t xml:space="preserve">174.508270263672</t>
   </si>
   <si>
-    <t xml:space="preserve">175.138427734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170.921157836914</t>
+    <t xml:space="preserve">175.138442993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170.921142578125</t>
   </si>
   <si>
     <t xml:space="preserve">174.993026733398</t>
@@ -3467,7 +3467,7 @@
     <t xml:space="preserve">172.714706420898</t>
   </si>
   <si>
-    <t xml:space="preserve">154.003540039062</t>
+    <t xml:space="preserve">154.003555297852</t>
   </si>
   <si>
     <t xml:space="preserve">155.651672363281</t>
@@ -3479,7 +3479,7 @@
     <t xml:space="preserve">156.912033081055</t>
   </si>
   <si>
-    <t xml:space="preserve">156.718109130859</t>
+    <t xml:space="preserve">156.718124389648</t>
   </si>
   <si>
     <t xml:space="preserve">161.27473449707</t>
@@ -3494,28 +3494,28 @@
     <t xml:space="preserve">158.220825195312</t>
   </si>
   <si>
-    <t xml:space="preserve">154.100479125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.603210449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150.077102661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">143.581527709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145.617446899414</t>
+    <t xml:space="preserve">154.100494384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.60319519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150.077117919922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143.58154296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145.617462158203</t>
   </si>
   <si>
     <t xml:space="preserve">149.495422363281</t>
   </si>
   <si>
-    <t xml:space="preserve">143.193740844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141.642547607422</t>
+    <t xml:space="preserve">143.193725585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141.642562866211</t>
   </si>
   <si>
     <t xml:space="preserve">143.726943969727</t>
@@ -3527,40 +3527,40 @@
     <t xml:space="preserve">140.72151184082</t>
   </si>
   <si>
-    <t xml:space="preserve">142.515090942383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130.590362548828</t>
+    <t xml:space="preserve">142.515075683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.590347290039</t>
   </si>
   <si>
     <t xml:space="preserve">128.505950927734</t>
   </si>
   <si>
-    <t xml:space="preserve">130.63883972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130.978164672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.723236083984</t>
+    <t xml:space="preserve">130.638824462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.978134155273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.723220825195</t>
   </si>
   <si>
     <t xml:space="preserve">132.820175170898</t>
   </si>
   <si>
-    <t xml:space="preserve">133.69270324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129.330001831055</t>
+    <t xml:space="preserve">133.692718505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129.330017089844</t>
   </si>
   <si>
     <t xml:space="preserve">127.584938049316</t>
   </si>
   <si>
-    <t xml:space="preserve">122.05884552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120.943923950195</t>
+    <t xml:space="preserve">122.058837890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120.943916320801</t>
   </si>
   <si>
     <t xml:space="preserve">123.852394104004</t>
@@ -3578,10 +3578,10 @@
     <t xml:space="preserve">118.568672180176</t>
   </si>
   <si>
-    <t xml:space="preserve">118.035453796387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.065956115723</t>
+    <t xml:space="preserve">118.035461425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.065963745117</t>
   </si>
   <si>
     <t xml:space="preserve">113.721221923828</t>
@@ -3590,13 +3590,13 @@
     <t xml:space="preserve">113.866645812988</t>
   </si>
   <si>
-    <t xml:space="preserve">117.696128845215</t>
+    <t xml:space="preserve">117.696136474609</t>
   </si>
   <si>
     <t xml:space="preserve">121.671043395996</t>
   </si>
   <si>
-    <t xml:space="preserve">124.676467895508</t>
+    <t xml:space="preserve">124.676475524902</t>
   </si>
   <si>
     <t xml:space="preserve">124.434097290039</t>
@@ -3605,10 +3605,10 @@
     <t xml:space="preserve">129.572387695312</t>
   </si>
   <si>
-    <t xml:space="preserve">128.748336791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125.355102539062</t>
+    <t xml:space="preserve">128.748321533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.355110168457</t>
   </si>
   <si>
     <t xml:space="preserve">124.72492980957</t>
@@ -3617,25 +3617,25 @@
     <t xml:space="preserve">121.62255859375</t>
   </si>
   <si>
-    <t xml:space="preserve">123.803924560547</t>
+    <t xml:space="preserve">123.803916931152</t>
   </si>
   <si>
     <t xml:space="preserve">119.004943847656</t>
   </si>
   <si>
-    <t xml:space="preserve">122.349678039551</t>
+    <t xml:space="preserve">122.349685668945</t>
   </si>
   <si>
     <t xml:space="preserve">117.017486572266</t>
   </si>
   <si>
-    <t xml:space="preserve">119.101898193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.416130065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.401885986328</t>
+    <t xml:space="preserve">119.101890563965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.416122436523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.401870727539</t>
   </si>
   <si>
     <t xml:space="preserve">133.98356628418</t>
@@ -3647,13 +3647,13 @@
     <t xml:space="preserve">128.215087890625</t>
   </si>
   <si>
-    <t xml:space="preserve">126.857810974121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125.791374206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">127.051727294922</t>
+    <t xml:space="preserve">126.857818603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.791381835938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127.051719665527</t>
   </si>
   <si>
     <t xml:space="preserve">135.534759521484</t>
@@ -3665,25 +3665,25 @@
     <t xml:space="preserve">137.570678710938</t>
   </si>
   <si>
-    <t xml:space="preserve">141.109329223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141.400161743164</t>
+    <t xml:space="preserve">141.109313964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141.400177001953</t>
   </si>
   <si>
     <t xml:space="preserve">143.920837402344</t>
   </si>
   <si>
-    <t xml:space="preserve">140.818481445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137.910003662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136.988983154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.322891235352</t>
+    <t xml:space="preserve">140.818466186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137.910018920898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136.988998413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.322906494141</t>
   </si>
   <si>
     <t xml:space="preserve">130.687301635742</t>
@@ -3692,7 +3692,7 @@
     <t xml:space="preserve">130.735778808594</t>
   </si>
   <si>
-    <t xml:space="preserve">130.202560424805</t>
+    <t xml:space="preserve">130.202545166016</t>
   </si>
   <si>
     <t xml:space="preserve">130.05712890625</t>
@@ -3710,7 +3710,7 @@
     <t xml:space="preserve">120.216804504395</t>
   </si>
   <si>
-    <t xml:space="preserve">116.726638793945</t>
+    <t xml:space="preserve">116.72664642334</t>
   </si>
   <si>
     <t xml:space="preserve">120.168327331543</t>
@@ -3731,7 +3731,7 @@
     <t xml:space="preserve">116.290367126465</t>
   </si>
   <si>
-    <t xml:space="preserve">116.969017028809</t>
+    <t xml:space="preserve">116.969009399414</t>
   </si>
   <si>
     <t xml:space="preserve">110.667327880859</t>
@@ -3740,10 +3740,10 @@
     <t xml:space="preserve">107.952751159668</t>
   </si>
   <si>
-    <t xml:space="preserve">111.055130004883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.534439086914</t>
+    <t xml:space="preserve">111.055122375488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.534446716309</t>
   </si>
   <si>
     <t xml:space="preserve">115.466300964355</t>
@@ -3755,7 +3755,7 @@
     <t xml:space="preserve">114.884605407715</t>
   </si>
   <si>
-    <t xml:space="preserve">111.976135253906</t>
+    <t xml:space="preserve">111.976142883301</t>
   </si>
   <si>
     <t xml:space="preserve">114.496810913086</t>
@@ -3773,7 +3773,7 @@
     <t xml:space="preserve">113.362937927246</t>
   </si>
   <si>
-    <t xml:space="preserve">114.830101013184</t>
+    <t xml:space="preserve">114.830108642578</t>
   </si>
   <si>
     <t xml:space="preserve">118.791442871094</t>
@@ -3782,19 +3782,19 @@
     <t xml:space="preserve">119.91626739502</t>
   </si>
   <si>
-    <t xml:space="preserve">119.818458557129</t>
+    <t xml:space="preserve">119.818466186523</t>
   </si>
   <si>
     <t xml:space="preserve">118.253486633301</t>
   </si>
   <si>
-    <t xml:space="preserve">121.334541320801</t>
+    <t xml:space="preserve">121.334533691406</t>
   </si>
   <si>
     <t xml:space="preserve">117.764434814453</t>
   </si>
   <si>
-    <t xml:space="preserve">119.769546508789</t>
+    <t xml:space="preserve">119.769554138184</t>
   </si>
   <si>
     <t xml:space="preserve">119.231597900391</t>
@@ -3806,7 +3806,7 @@
     <t xml:space="preserve">116.541793823242</t>
   </si>
   <si>
-    <t xml:space="preserve">113.216217041016</t>
+    <t xml:space="preserve">113.21622467041</t>
   </si>
   <si>
     <t xml:space="preserve">112.335914611816</t>
@@ -3818,7 +3818,7 @@
     <t xml:space="preserve">114.096519470215</t>
   </si>
   <si>
-    <t xml:space="preserve">111.30891418457</t>
+    <t xml:space="preserve">111.308906555176</t>
   </si>
   <si>
     <t xml:space="preserve">116.150550842285</t>
@@ -3833,22 +3833,22 @@
     <t xml:space="preserve">114.976821899414</t>
   </si>
   <si>
-    <t xml:space="preserve">121.725769042969</t>
+    <t xml:space="preserve">121.725776672363</t>
   </si>
   <si>
     <t xml:space="preserve">124.953536987305</t>
   </si>
   <si>
-    <t xml:space="preserve">124.366676330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124.171043395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.410453796387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.459350585938</t>
+    <t xml:space="preserve">124.366668701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.171051025391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.410461425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.459358215332</t>
   </si>
   <si>
     <t xml:space="preserve">123.584182739258</t>
@@ -3872,16 +3872,16 @@
     <t xml:space="preserve">133.218566894531</t>
   </si>
   <si>
-    <t xml:space="preserve">127.203201293945</t>
+    <t xml:space="preserve">127.203193664551</t>
   </si>
   <si>
     <t xml:space="preserve">129.599563598633</t>
   </si>
   <si>
-    <t xml:space="preserve">126.567405700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129.550643920898</t>
+    <t xml:space="preserve">126.567413330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129.550659179688</t>
   </si>
   <si>
     <t xml:space="preserve">129.306121826172</t>
@@ -3905,19 +3905,19 @@
     <t xml:space="preserve">130.430969238281</t>
   </si>
   <si>
-    <t xml:space="preserve">127.545516967773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131.898132324219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.631713867188</t>
+    <t xml:space="preserve">127.545532226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131.89811706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.631698608398</t>
   </si>
   <si>
     <t xml:space="preserve">132.533889770508</t>
   </si>
   <si>
-    <t xml:space="preserve">130.284225463867</t>
+    <t xml:space="preserve">130.284240722656</t>
   </si>
   <si>
     <t xml:space="preserve">131.800308227539</t>
@@ -3929,16 +3929,16 @@
     <t xml:space="preserve">133.903228759766</t>
   </si>
   <si>
-    <t xml:space="preserve">132.582809448242</t>
+    <t xml:space="preserve">132.582794189453</t>
   </si>
   <si>
     <t xml:space="preserve">133.609817504883</t>
   </si>
   <si>
-    <t xml:space="preserve">136.837554931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.587936401367</t>
+    <t xml:space="preserve">136.83757019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.587921142578</t>
   </si>
   <si>
     <t xml:space="preserve">133.463088989258</t>
@@ -3947,28 +3947,28 @@
     <t xml:space="preserve">132.484985351562</t>
   </si>
   <si>
-    <t xml:space="preserve">133.707611083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.169647216797</t>
+    <t xml:space="preserve">133.707626342773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.169662475586</t>
   </si>
   <si>
     <t xml:space="preserve">134.001052856445</t>
   </si>
   <si>
-    <t xml:space="preserve">128.132400512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129.501739501953</t>
+    <t xml:space="preserve">128.132385253906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129.501754760742</t>
   </si>
   <si>
     <t xml:space="preserve">128.083480834961</t>
   </si>
   <si>
-    <t xml:space="preserve">127.496635437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130.822204589844</t>
+    <t xml:space="preserve">127.496620178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.822189331055</t>
   </si>
   <si>
     <t xml:space="preserve">129.697387695312</t>
@@ -3983,16 +3983,16 @@
     <t xml:space="preserve">130.773284912109</t>
   </si>
   <si>
-    <t xml:space="preserve">131.653610229492</t>
+    <t xml:space="preserve">131.653594970703</t>
   </si>
   <si>
     <t xml:space="preserve">133.658706665039</t>
   </si>
   <si>
-    <t xml:space="preserve">126.714141845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125.051345825195</t>
+    <t xml:space="preserve">126.714134216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.05135345459</t>
   </si>
   <si>
     <t xml:space="preserve">122.94841003418</t>
@@ -4010,19 +4010,19 @@
     <t xml:space="preserve">113.900894165039</t>
   </si>
   <si>
-    <t xml:space="preserve">113.06950378418</t>
+    <t xml:space="preserve">113.069496154785</t>
   </si>
   <si>
     <t xml:space="preserve">112.23811340332</t>
   </si>
   <si>
-    <t xml:space="preserve">109.15705871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.28702545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.504524230957</t>
+    <t xml:space="preserve">109.157066345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.287017822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.504531860352</t>
   </si>
   <si>
     <t xml:space="preserve">115.270248413086</t>
@@ -4031,16 +4031,16 @@
     <t xml:space="preserve">112.727165222168</t>
   </si>
   <si>
-    <t xml:space="preserve">109.890640258789</t>
+    <t xml:space="preserve">109.890647888184</t>
   </si>
   <si>
     <t xml:space="preserve">110.526420593262</t>
   </si>
   <si>
-    <t xml:space="preserve">116.443984985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125.344779968262</t>
+    <t xml:space="preserve">116.443992614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.344772338867</t>
   </si>
   <si>
     <t xml:space="preserve">123.241844177246</t>
@@ -4049,7 +4049,7 @@
     <t xml:space="preserve">126.176177978516</t>
   </si>
   <si>
-    <t xml:space="preserve">127.252105712891</t>
+    <t xml:space="preserve">127.252098083496</t>
   </si>
   <si>
     <t xml:space="preserve">133.267471313477</t>
@@ -4064,16 +4064,16 @@
     <t xml:space="preserve">126.273994445801</t>
   </si>
   <si>
-    <t xml:space="preserve">129.403945922852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128.279098510742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.518516540527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.877624511719</t>
+    <t xml:space="preserve">129.403930664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128.279113769531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.518524169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.877616882324</t>
   </si>
   <si>
     <t xml:space="preserve">126.371795654297</t>
@@ -4082,7 +4082,7 @@
     <t xml:space="preserve">126.616317749023</t>
   </si>
   <si>
-    <t xml:space="preserve">130.235321044922</t>
+    <t xml:space="preserve">130.235336303711</t>
   </si>
   <si>
     <t xml:space="preserve">133.756530761719</t>
@@ -4091,7 +4091,7 @@
     <t xml:space="preserve">135.223693847656</t>
   </si>
   <si>
-    <t xml:space="preserve">132.436065673828</t>
+    <t xml:space="preserve">132.436080932617</t>
   </si>
   <si>
     <t xml:space="preserve">129.941909790039</t>
@@ -4103,7 +4103,7 @@
     <t xml:space="preserve">129.844085693359</t>
   </si>
   <si>
-    <t xml:space="preserve">128.670364379883</t>
+    <t xml:space="preserve">128.670349121094</t>
   </si>
   <si>
     <t xml:space="preserve">126.07836151123</t>
@@ -4112,25 +4112,25 @@
     <t xml:space="preserve">128.865982055664</t>
   </si>
   <si>
-    <t xml:space="preserve">130.968902587891</t>
+    <t xml:space="preserve">130.96891784668</t>
   </si>
   <si>
     <t xml:space="preserve">129.795181274414</t>
   </si>
   <si>
-    <t xml:space="preserve">126.860847473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131.16455078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.365295410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136.152893066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131.506866455078</t>
+    <t xml:space="preserve">126.860855102539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131.164535522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.365280151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136.152908325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131.506881713867</t>
   </si>
   <si>
     <t xml:space="preserve">126.665229797363</t>
@@ -4139,7 +4139,7 @@
     <t xml:space="preserve">121.823593139648</t>
   </si>
   <si>
-    <t xml:space="preserve">125.002449035645</t>
+    <t xml:space="preserve">125.00244140625</t>
   </si>
   <si>
     <t xml:space="preserve">123.339653015137</t>
@@ -4148,7 +4148,7 @@
     <t xml:space="preserve">125.100257873535</t>
   </si>
   <si>
-    <t xml:space="preserve">124.611206054688</t>
+    <t xml:space="preserve">124.611198425293</t>
   </si>
   <si>
     <t xml:space="preserve">124.219955444336</t>
@@ -4160,19 +4160,19 @@
     <t xml:space="preserve">126.469612121582</t>
   </si>
   <si>
-    <t xml:space="preserve">127.007583618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124.415573120117</t>
+    <t xml:space="preserve">127.00757598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.415580749512</t>
   </si>
   <si>
     <t xml:space="preserve">123.730903625488</t>
   </si>
   <si>
-    <t xml:space="preserve">124.806816101074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.437461853027</t>
+    <t xml:space="preserve">124.806823730469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.437469482422</t>
   </si>
   <si>
     <t xml:space="preserve">123.779815673828</t>
@@ -4190,7 +4190,7 @@
     <t xml:space="preserve">122.557174682617</t>
   </si>
   <si>
-    <t xml:space="preserve">122.01921081543</t>
+    <t xml:space="preserve">122.019203186035</t>
   </si>
   <si>
     <t xml:space="preserve">120.9921875</t>
@@ -4217,7 +4217,7 @@
     <t xml:space="preserve">119.280494689941</t>
   </si>
   <si>
-    <t xml:space="preserve">118.400207519531</t>
+    <t xml:space="preserve">118.400199890137</t>
   </si>
   <si>
     <t xml:space="preserve">115.710403442383</t>
@@ -4226,10 +4226,10 @@
     <t xml:space="preserve">113.851997375488</t>
   </si>
   <si>
-    <t xml:space="preserve">114.683387756348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.754188537598</t>
+    <t xml:space="preserve">114.683380126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.754180908203</t>
   </si>
   <si>
     <t xml:space="preserve">113.998710632324</t>
@@ -4241,7 +4241,7 @@
     <t xml:space="preserve">110.819854736328</t>
   </si>
   <si>
-    <t xml:space="preserve">112.482635498047</t>
+    <t xml:space="preserve">112.482643127441</t>
   </si>
   <si>
     <t xml:space="preserve">111.651245117188</t>
@@ -4250,16 +4250,16 @@
     <t xml:space="preserve">108.570198059082</t>
   </si>
   <si>
-    <t xml:space="preserve">107.543174743652</t>
+    <t xml:space="preserve">107.543182373047</t>
   </si>
   <si>
     <t xml:space="preserve">110.03736114502</t>
   </si>
   <si>
-    <t xml:space="preserve">110.232978820801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.499397277832</t>
+    <t xml:space="preserve">110.232986450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.499404907227</t>
   </si>
   <si>
     <t xml:space="preserve">109.10816192627</t>
@@ -4280,22 +4280,22 @@
     <t xml:space="preserve">105.000091552734</t>
   </si>
   <si>
-    <t xml:space="preserve">103.386207580566</t>
+    <t xml:space="preserve">103.386215209961</t>
   </si>
   <si>
     <t xml:space="preserve">98.9847183227539</t>
   </si>
   <si>
-    <t xml:space="preserve">100.20735168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.8380126953125</t>
+    <t xml:space="preserve">100.207359313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.838005065918</t>
   </si>
   <si>
     <t xml:space="preserve">96.3438262939453</t>
   </si>
   <si>
-    <t xml:space="preserve">99.8161239624023</t>
+    <t xml:space="preserve">99.8161163330078</t>
   </si>
   <si>
     <t xml:space="preserve">95.8547668457031</t>
@@ -4307,46 +4307,46 @@
     <t xml:space="preserve">95.8743286132812</t>
   </si>
   <si>
-    <t xml:space="preserve">96.2851333618164</t>
+    <t xml:space="preserve">96.2851409912109</t>
   </si>
   <si>
     <t xml:space="preserve">94.9353485107422</t>
   </si>
   <si>
-    <t xml:space="preserve">94.8766632080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.4393081665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.0089416503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.9306869506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.1896514892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94.7201538085938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.1700973510742</t>
+    <t xml:space="preserve">94.8766555786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.4393157958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.0089340209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.9306945800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.1896591186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94.7201614379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.1700897216797</t>
   </si>
   <si>
     <t xml:space="preserve">95.2483367919922</t>
   </si>
   <si>
-    <t xml:space="preserve">95.0331649780273</t>
+    <t xml:space="preserve">95.0331573486328</t>
   </si>
   <si>
     <t xml:space="preserve">96.7546310424805</t>
   </si>
   <si>
-    <t xml:space="preserve">97.1849975585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.3852767944336</t>
+    <t xml:space="preserve">97.1850051879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.3852691650391</t>
   </si>
   <si>
     <t xml:space="preserve">94.3484802246094</t>
@@ -4355,7 +4355,7 @@
     <t xml:space="preserve">96.3242645263672</t>
   </si>
   <si>
-    <t xml:space="preserve">95.5808944702148</t>
+    <t xml:space="preserve">95.5809020996094</t>
   </si>
   <si>
     <t xml:space="preserve">95.8156433105469</t>
@@ -4367,16 +4367,16 @@
     <t xml:space="preserve">102.16357421875</t>
   </si>
   <si>
-    <t xml:space="preserve">99.9628219604492</t>
+    <t xml:space="preserve">99.9628295898438</t>
   </si>
   <si>
     <t xml:space="preserve">102.457008361816</t>
   </si>
   <si>
-    <t xml:space="preserve">103.288398742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102.750450134277</t>
+    <t xml:space="preserve">103.28840637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102.750442504883</t>
   </si>
   <si>
     <t xml:space="preserve">99.3270645141602</t>
@@ -5091,6 +5091,9 @@
   </si>
   <si>
     <t xml:space="preserve">99.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.5</t>
   </si>
 </sst>
 </file>
@@ -19802,7 +19805,7 @@
         <v>67.4499969482422</v>
       </c>
       <c r="G553" t="s">
-        <v>380</v>
+        <v>246</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -19828,7 +19831,7 @@
         <v>66.4000015258789</v>
       </c>
       <c r="G554" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -19854,7 +19857,7 @@
         <v>66.0999984741211</v>
       </c>
       <c r="G555" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -19880,7 +19883,7 @@
         <v>67.3499984741211</v>
       </c>
       <c r="G556" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -19906,7 +19909,7 @@
         <v>68.4000015258789</v>
       </c>
       <c r="G557" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -19932,7 +19935,7 @@
         <v>70.5999984741211</v>
       </c>
       <c r="G558" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -19984,7 +19987,7 @@
         <v>74.75</v>
       </c>
       <c r="G560" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -20010,7 +20013,7 @@
         <v>73.8499984741211</v>
       </c>
       <c r="G561" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -20114,7 +20117,7 @@
         <v>72.1999969482422</v>
       </c>
       <c r="G565" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -20140,7 +20143,7 @@
         <v>71.8000030517578</v>
       </c>
       <c r="G566" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -20218,7 +20221,7 @@
         <v>72.6500015258789</v>
       </c>
       <c r="G569" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -20296,7 +20299,7 @@
         <v>72.6500015258789</v>
       </c>
       <c r="G572" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -20426,7 +20429,7 @@
         <v>72.25</v>
       </c>
       <c r="G577" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -20452,7 +20455,7 @@
         <v>73.8499984741211</v>
       </c>
       <c r="G578" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -20556,7 +20559,7 @@
         <v>73.5</v>
       </c>
       <c r="G582" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -20582,7 +20585,7 @@
         <v>73.5</v>
       </c>
       <c r="G583" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -20634,7 +20637,7 @@
         <v>75.5500030517578</v>
       </c>
       <c r="G585" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -20660,7 +20663,7 @@
         <v>77.5999984741211</v>
       </c>
       <c r="G586" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -20686,7 +20689,7 @@
         <v>74.75</v>
       </c>
       <c r="G587" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -20738,7 +20741,7 @@
         <v>76.1999969482422</v>
       </c>
       <c r="G589" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -20790,7 +20793,7 @@
         <v>77.3000030517578</v>
       </c>
       <c r="G591" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -20816,7 +20819,7 @@
         <v>78.1500015258789</v>
       </c>
       <c r="G592" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -20894,7 +20897,7 @@
         <v>78.6999969482422</v>
       </c>
       <c r="G595" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -20946,7 +20949,7 @@
         <v>78.6500015258789</v>
       </c>
       <c r="G597" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -21024,7 +21027,7 @@
         <v>80.4000015258789</v>
       </c>
       <c r="G600" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -21050,7 +21053,7 @@
         <v>81.5500030517578</v>
       </c>
       <c r="G601" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -21076,7 +21079,7 @@
         <v>80.1999969482422</v>
       </c>
       <c r="G602" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -21102,7 +21105,7 @@
         <v>81.3000030517578</v>
       </c>
       <c r="G603" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -21128,7 +21131,7 @@
         <v>81</v>
       </c>
       <c r="G604" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -21154,7 +21157,7 @@
         <v>81.1999969482422</v>
       </c>
       <c r="G605" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -21180,7 +21183,7 @@
         <v>82.6500015258789</v>
       </c>
       <c r="G606" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -21206,7 +21209,7 @@
         <v>81.4000015258789</v>
       </c>
       <c r="G607" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -21232,7 +21235,7 @@
         <v>81.25</v>
       </c>
       <c r="G608" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -21258,7 +21261,7 @@
         <v>81.9000015258789</v>
       </c>
       <c r="G609" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -21284,7 +21287,7 @@
         <v>80.6999969482422</v>
       </c>
       <c r="G610" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -21310,7 +21313,7 @@
         <v>82.0500030517578</v>
       </c>
       <c r="G611" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -21336,7 +21339,7 @@
         <v>84.1500015258789</v>
       </c>
       <c r="G612" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -21362,7 +21365,7 @@
         <v>83</v>
       </c>
       <c r="G613" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -21388,7 +21391,7 @@
         <v>81.1999969482422</v>
       </c>
       <c r="G614" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -21414,7 +21417,7 @@
         <v>84.5999984741211</v>
       </c>
       <c r="G615" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -21440,7 +21443,7 @@
         <v>82.5999984741211</v>
       </c>
       <c r="G616" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -21466,7 +21469,7 @@
         <v>85.5</v>
       </c>
       <c r="G617" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -21492,7 +21495,7 @@
         <v>87.5</v>
       </c>
       <c r="G618" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -21518,7 +21521,7 @@
         <v>88.25</v>
       </c>
       <c r="G619" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -21544,7 +21547,7 @@
         <v>88</v>
       </c>
       <c r="G620" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -21570,7 +21573,7 @@
         <v>88.4000015258789</v>
       </c>
       <c r="G621" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -21596,7 +21599,7 @@
         <v>87.9000015258789</v>
       </c>
       <c r="G622" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -21622,7 +21625,7 @@
         <v>88.9499969482422</v>
       </c>
       <c r="G623" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -21648,7 +21651,7 @@
         <v>91</v>
       </c>
       <c r="G624" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -21674,7 +21677,7 @@
         <v>92.4000015258789</v>
       </c>
       <c r="G625" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -21700,7 +21703,7 @@
         <v>93.3499984741211</v>
       </c>
       <c r="G626" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -21726,7 +21729,7 @@
         <v>93</v>
       </c>
       <c r="G627" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -21752,7 +21755,7 @@
         <v>92.3000030517578</v>
       </c>
       <c r="G628" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -21778,7 +21781,7 @@
         <v>90.9499969482422</v>
       </c>
       <c r="G629" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -21804,7 +21807,7 @@
         <v>89.5</v>
       </c>
       <c r="G630" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -21830,7 +21833,7 @@
         <v>89.1500015258789</v>
       </c>
       <c r="G631" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -21856,7 +21859,7 @@
         <v>96</v>
       </c>
       <c r="G632" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -21882,7 +21885,7 @@
         <v>95.0500030517578</v>
       </c>
       <c r="G633" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -21908,7 +21911,7 @@
         <v>95.6999969482422</v>
       </c>
       <c r="G634" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -21934,7 +21937,7 @@
         <v>97.3000030517578</v>
       </c>
       <c r="G635" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -21960,7 +21963,7 @@
         <v>96.3499984741211</v>
       </c>
       <c r="G636" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -21986,7 +21989,7 @@
         <v>97.6999969482422</v>
       </c>
       <c r="G637" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -22012,7 +22015,7 @@
         <v>96.3000030517578</v>
       </c>
       <c r="G638" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -22038,7 +22041,7 @@
         <v>97.5</v>
       </c>
       <c r="G639" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -22064,7 +22067,7 @@
         <v>96.4000015258789</v>
       </c>
       <c r="G640" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -22090,7 +22093,7 @@
         <v>95.5500030517578</v>
       </c>
       <c r="G641" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -22116,7 +22119,7 @@
         <v>96</v>
       </c>
       <c r="G642" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -22142,7 +22145,7 @@
         <v>95.8000030517578</v>
       </c>
       <c r="G643" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -22168,7 +22171,7 @@
         <v>95.9000015258789</v>
       </c>
       <c r="G644" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -22194,7 +22197,7 @@
         <v>96.1500015258789</v>
       </c>
       <c r="G645" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -22220,7 +22223,7 @@
         <v>98.1999969482422</v>
       </c>
       <c r="G646" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -22246,7 +22249,7 @@
         <v>97.6500015258789</v>
       </c>
       <c r="G647" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -22272,7 +22275,7 @@
         <v>97.9000015258789</v>
       </c>
       <c r="G648" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -22298,7 +22301,7 @@
         <v>96.5</v>
       </c>
       <c r="G649" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -22324,7 +22327,7 @@
         <v>95.9499969482422</v>
       </c>
       <c r="G650" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -22350,7 +22353,7 @@
         <v>96.75</v>
       </c>
       <c r="G651" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -22376,7 +22379,7 @@
         <v>96.4000015258789</v>
       </c>
       <c r="G652" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -22402,7 +22405,7 @@
         <v>94.5</v>
       </c>
       <c r="G653" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -22428,7 +22431,7 @@
         <v>94</v>
       </c>
       <c r="G654" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -22454,7 +22457,7 @@
         <v>94.3499984741211</v>
       </c>
       <c r="G655" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -22480,7 +22483,7 @@
         <v>92.4499969482422</v>
       </c>
       <c r="G656" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -22506,7 +22509,7 @@
         <v>93</v>
       </c>
       <c r="G657" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -22532,7 +22535,7 @@
         <v>92.5</v>
       </c>
       <c r="G658" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -22558,7 +22561,7 @@
         <v>91.8000030517578</v>
       </c>
       <c r="G659" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -22584,7 +22587,7 @@
         <v>93</v>
       </c>
       <c r="G660" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -22610,7 +22613,7 @@
         <v>85.0500030517578</v>
       </c>
       <c r="G661" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -22636,7 +22639,7 @@
         <v>87.3499984741211</v>
       </c>
       <c r="G662" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -22662,7 +22665,7 @@
         <v>87.5</v>
       </c>
       <c r="G663" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -22688,7 +22691,7 @@
         <v>88.75</v>
       </c>
       <c r="G664" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -22714,7 +22717,7 @@
         <v>87.8499984741211</v>
       </c>
       <c r="G665" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -22740,7 +22743,7 @@
         <v>88.0999984741211</v>
       </c>
       <c r="G666" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -22766,7 +22769,7 @@
         <v>87.8499984741211</v>
       </c>
       <c r="G667" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -22792,7 +22795,7 @@
         <v>86.9000015258789</v>
       </c>
       <c r="G668" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -22818,7 +22821,7 @@
         <v>88.1500015258789</v>
       </c>
       <c r="G669" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -22844,7 +22847,7 @@
         <v>86.5500030517578</v>
       </c>
       <c r="G670" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -22870,7 +22873,7 @@
         <v>86.8499984741211</v>
       </c>
       <c r="G671" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -22896,7 +22899,7 @@
         <v>93.1999969482422</v>
       </c>
       <c r="G672" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -22922,7 +22925,7 @@
         <v>93.75</v>
       </c>
       <c r="G673" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -22948,7 +22951,7 @@
         <v>91.5</v>
       </c>
       <c r="G674" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -22974,7 +22977,7 @@
         <v>91.8499984741211</v>
       </c>
       <c r="G675" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -23000,7 +23003,7 @@
         <v>91.5999984741211</v>
       </c>
       <c r="G676" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -23026,7 +23029,7 @@
         <v>91.1500015258789</v>
       </c>
       <c r="G677" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -23052,7 +23055,7 @@
         <v>91.6999969482422</v>
       </c>
       <c r="G678" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -23078,7 +23081,7 @@
         <v>92.9000015258789</v>
       </c>
       <c r="G679" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -23104,7 +23107,7 @@
         <v>93.8000030517578</v>
       </c>
       <c r="G680" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -23130,7 +23133,7 @@
         <v>93.8000030517578</v>
       </c>
       <c r="G681" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -23156,7 +23159,7 @@
         <v>92.4499969482422</v>
       </c>
       <c r="G682" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -23182,7 +23185,7 @@
         <v>92.3499984741211</v>
       </c>
       <c r="G683" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -23208,7 +23211,7 @@
         <v>89.4000015258789</v>
       </c>
       <c r="G684" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -23234,7 +23237,7 @@
         <v>89.6999969482422</v>
       </c>
       <c r="G685" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -23260,7 +23263,7 @@
         <v>87.9000015258789</v>
       </c>
       <c r="G686" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -23286,7 +23289,7 @@
         <v>88.9499969482422</v>
       </c>
       <c r="G687" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -23312,7 +23315,7 @@
         <v>88.4000015258789</v>
       </c>
       <c r="G688" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -23338,7 +23341,7 @@
         <v>88.6999969482422</v>
       </c>
       <c r="G689" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -23364,7 +23367,7 @@
         <v>89.5</v>
       </c>
       <c r="G690" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -23390,7 +23393,7 @@
         <v>89</v>
       </c>
       <c r="G691" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -23416,7 +23419,7 @@
         <v>90.6999969482422</v>
       </c>
       <c r="G692" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -23442,7 +23445,7 @@
         <v>93.75</v>
       </c>
       <c r="G693" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -23468,7 +23471,7 @@
         <v>95.8499984741211</v>
       </c>
       <c r="G694" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -23494,7 +23497,7 @@
         <v>97.1999969482422</v>
       </c>
       <c r="G695" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -23520,7 +23523,7 @@
         <v>92.25</v>
       </c>
       <c r="G696" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -23546,7 +23549,7 @@
         <v>91.5</v>
       </c>
       <c r="G697" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -23572,7 +23575,7 @@
         <v>93.0999984741211</v>
       </c>
       <c r="G698" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -23598,7 +23601,7 @@
         <v>92.9499969482422</v>
       </c>
       <c r="G699" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -23624,7 +23627,7 @@
         <v>91</v>
       </c>
       <c r="G700" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -23650,7 +23653,7 @@
         <v>90.5999984741211</v>
       </c>
       <c r="G701" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -23676,7 +23679,7 @@
         <v>91.3000030517578</v>
       </c>
       <c r="G702" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -23702,7 +23705,7 @@
         <v>91</v>
       </c>
       <c r="G703" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -23728,7 +23731,7 @@
         <v>90.5999984741211</v>
       </c>
       <c r="G704" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -23754,7 +23757,7 @@
         <v>89.1999969482422</v>
       </c>
       <c r="G705" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -23780,7 +23783,7 @@
         <v>86.8000030517578</v>
       </c>
       <c r="G706" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -23806,7 +23809,7 @@
         <v>82.3000030517578</v>
       </c>
       <c r="G707" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -23832,7 +23835,7 @@
         <v>81.5</v>
       </c>
       <c r="G708" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -23858,7 +23861,7 @@
         <v>80.3000030517578</v>
       </c>
       <c r="G709" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -23884,7 +23887,7 @@
         <v>79.6999969482422</v>
       </c>
       <c r="G710" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -23910,7 +23913,7 @@
         <v>81.9499969482422</v>
       </c>
       <c r="G711" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -23936,7 +23939,7 @@
         <v>79.5</v>
       </c>
       <c r="G712" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -23962,7 +23965,7 @@
         <v>79.8499984741211</v>
       </c>
       <c r="G713" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -23988,7 +23991,7 @@
         <v>81.5999984741211</v>
       </c>
       <c r="G714" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -24014,7 +24017,7 @@
         <v>82</v>
       </c>
       <c r="G715" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -24040,7 +24043,7 @@
         <v>82.4000015258789</v>
       </c>
       <c r="G716" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -24066,7 +24069,7 @@
         <v>83.6999969482422</v>
       </c>
       <c r="G717" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -24092,7 +24095,7 @@
         <v>79.75</v>
       </c>
       <c r="G718" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -24118,7 +24121,7 @@
         <v>80.5500030517578</v>
       </c>
       <c r="G719" t="s">
-        <v>407</v>
+        <v>501</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -24274,7 +24277,7 @@
         <v>86.9000015258789</v>
       </c>
       <c r="G725" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -24300,7 +24303,7 @@
         <v>86.5500030517578</v>
       </c>
       <c r="G726" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -24352,7 +24355,7 @@
         <v>86.8499984741211</v>
       </c>
       <c r="G728" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -24378,7 +24381,7 @@
         <v>81.5999984741211</v>
       </c>
       <c r="G729" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -24482,7 +24485,7 @@
         <v>82.3000030517578</v>
       </c>
       <c r="G733" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -24508,7 +24511,7 @@
         <v>81.5999984741211</v>
       </c>
       <c r="G734" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -24560,7 +24563,7 @@
         <v>81.1999969482422</v>
       </c>
       <c r="G736" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -61150,7 +61153,7 @@
     </row>
     <row r="2144">
       <c r="A2144" s="1" t="n">
-        <v>45447.6495023148</v>
+        <v>45447.2916666667</v>
       </c>
       <c r="B2144" t="n">
         <v>95242</v>
@@ -61171,6 +61174,32 @@
         <v>1692</v>
       </c>
       <c r="H2144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" s="1" t="n">
+        <v>45448.6495833333</v>
+      </c>
+      <c r="B2145" t="n">
+        <v>74454</v>
+      </c>
+      <c r="C2145" t="n">
+        <v>101.150001525879</v>
+      </c>
+      <c r="D2145" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2145" t="n">
+        <v>100.699996948242</v>
+      </c>
+      <c r="F2145" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="G2145" t="s">
+        <v>1693</v>
+      </c>
+      <c r="H2145" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DIA.MI.xlsx
+++ b/data/DIA.MI.xlsx
@@ -38,76 +38,76 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0384140014648</t>
+    <t xml:space="preserve">43.0384101867676</t>
   </si>
   <si>
     <t xml:space="preserve">DIA.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8512954711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5922508239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.4761238098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3689308166504</t>
+    <t xml:space="preserve">43.8512992858887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5922431945801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.4761161804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3689346313477</t>
   </si>
   <si>
     <t xml:space="preserve">42.6900329589844</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0116119384766</t>
+    <t xml:space="preserve">43.0116195678711</t>
   </si>
   <si>
     <t xml:space="preserve">42.2612571716309</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8146209716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5104141235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.7779235839844</t>
+    <t xml:space="preserve">41.8146133422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5104179382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.7779273986816</t>
   </si>
   <si>
     <t xml:space="preserve">38.563060760498</t>
   </si>
   <si>
-    <t xml:space="preserve">38.3218803405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.125358581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.4563484191895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7694778442383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7878189086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5917739868164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8950119018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3242645263672</t>
+    <t xml:space="preserve">38.3218727111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1253547668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.4563446044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7694702148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7878150939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5917663574219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8950080871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3242607116699</t>
   </si>
   <si>
     <t xml:space="preserve">43.6190528869629</t>
   </si>
   <si>
-    <t xml:space="preserve">43.5475845336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.4131126403809</t>
+    <t xml:space="preserve">43.5475883483887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.4131164550781</t>
   </si>
   <si>
     <t xml:space="preserve">41.7610206604004</t>
@@ -116,10 +116,10 @@
     <t xml:space="preserve">39.9208526611328</t>
   </si>
   <si>
-    <t xml:space="preserve">38.2414817810059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5005264282227</t>
+    <t xml:space="preserve">38.2414855957031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5005302429199</t>
   </si>
   <si>
     <t xml:space="preserve">39.081169128418</t>
@@ -128,37 +128,37 @@
     <t xml:space="preserve">39.0990295410156</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8935813903809</t>
+    <t xml:space="preserve">38.8935775756836</t>
   </si>
   <si>
     <t xml:space="preserve">40.6354789733887</t>
   </si>
   <si>
-    <t xml:space="preserve">40.9124031066895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0106620788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.930736541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0920104980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.4756393432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1366729736328</t>
+    <t xml:space="preserve">40.9123954772949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0106582641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9307403564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0920143127441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.4756507873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1366806030273</t>
   </si>
   <si>
     <t xml:space="preserve">43.7619743347168</t>
   </si>
   <si>
-    <t xml:space="preserve">43.4493217468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.7798347473145</t>
+    <t xml:space="preserve">43.4493293762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.7798385620117</t>
   </si>
   <si>
     <t xml:space="preserve">43.1009483337402</t>
@@ -170,37 +170,37 @@
     <t xml:space="preserve">43.1902732849121</t>
   </si>
   <si>
-    <t xml:space="preserve">43.2528038024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.306396484375</t>
+    <t xml:space="preserve">43.252799987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3064002990723</t>
   </si>
   <si>
     <t xml:space="preserve">41.2786445617676</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8677291870117</t>
+    <t xml:space="preserve">40.8677368164062</t>
   </si>
   <si>
     <t xml:space="preserve">40.5193519592285</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6895523071289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0910568237305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.671215057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1263046264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6265487670898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8052062988281</t>
+    <t xml:space="preserve">41.6895561218262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0910530090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6712112426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1263084411621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6265525817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8052024841309</t>
   </si>
   <si>
     <t xml:space="preserve">40.3496246337891</t>
@@ -212,10 +212,10 @@
     <t xml:space="preserve">40.9838600158691</t>
   </si>
   <si>
-    <t xml:space="preserve">44.6641845703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.3341484069824</t>
+    <t xml:space="preserve">44.664192199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.3341522216797</t>
   </si>
   <si>
     <t xml:space="preserve">45.8701210021973</t>
@@ -227,10 +227,10 @@
     <t xml:space="preserve">45.9594535827637</t>
   </si>
   <si>
-    <t xml:space="preserve">46.2720947265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.4333648681641</t>
+    <t xml:space="preserve">46.2720985412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.4333686828613</t>
   </si>
   <si>
     <t xml:space="preserve">46.4954223632812</t>
@@ -239,88 +239,88 @@
     <t xml:space="preserve">46.0041122436523</t>
   </si>
   <si>
-    <t xml:space="preserve">45.7807960510254</t>
+    <t xml:space="preserve">45.7807998657227</t>
   </si>
   <si>
     <t xml:space="preserve">45.4681510925293</t>
   </si>
   <si>
-    <t xml:space="preserve">45.512809753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.914794921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.3788146972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2894859313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.8254623413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.5574760437012</t>
+    <t xml:space="preserve">45.5128173828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.9147872924805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.3788185119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2894897460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.8254585266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.5574722290039</t>
   </si>
   <si>
     <t xml:space="preserve">45.4234809875488</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3614311218262</t>
+    <t xml:space="preserve">46.3614273071289</t>
   </si>
   <si>
     <t xml:space="preserve">46.2274360656738</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4060859680176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.897403717041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.7634086608887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8527412414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.2100486755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.6740760803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.5847473144531</t>
+    <t xml:space="preserve">46.4060974121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8973999023438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.7634048461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8527450561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.2100524902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.6740837097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.5847549438477</t>
   </si>
   <si>
     <t xml:space="preserve">48.0285720825195</t>
   </si>
   <si>
-    <t xml:space="preserve">48.119026184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.7120056152344</t>
+    <t xml:space="preserve">48.1190299987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.7120094299316</t>
   </si>
   <si>
     <t xml:space="preserve">48.5260467529297</t>
   </si>
   <si>
-    <t xml:space="preserve">48.7974014282227</t>
+    <t xml:space="preserve">48.7973976135254</t>
   </si>
   <si>
     <t xml:space="preserve">49.7471160888672</t>
   </si>
   <si>
-    <t xml:space="preserve">49.2044219970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.1993560791016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.2898025512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.8777313232422</t>
+    <t xml:space="preserve">49.204418182373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.1993598937988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.2898063659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.8777275085449</t>
   </si>
   <si>
     <t xml:space="preserve">49.7018928527832</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">50.6063842773438</t>
   </si>
   <si>
-    <t xml:space="preserve">49.7923316955566</t>
+    <t xml:space="preserve">49.7923431396484</t>
   </si>
   <si>
     <t xml:space="preserve">50.3350372314453</t>
@@ -344,10 +344,10 @@
     <t xml:space="preserve">48.3451499938965</t>
   </si>
   <si>
-    <t xml:space="preserve">47.2145347595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.5311088562012</t>
+    <t xml:space="preserve">47.2145309448242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.5311050415039</t>
   </si>
   <si>
     <t xml:space="preserve">48.7069473266602</t>
@@ -356,31 +356,31 @@
     <t xml:space="preserve">49.9732398986816</t>
   </si>
   <si>
-    <t xml:space="preserve">46.7622833251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.5864448547363</t>
+    <t xml:space="preserve">46.7622909545898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.5864486694336</t>
   </si>
   <si>
     <t xml:space="preserve">46.6266098022461</t>
   </si>
   <si>
-    <t xml:space="preserve">49.5209846496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.3802604675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.0586280822754</t>
+    <t xml:space="preserve">49.52099609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.380256652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.0586318969727</t>
   </si>
   <si>
     <t xml:space="preserve">48.7521743774414</t>
   </si>
   <si>
-    <t xml:space="preserve">49.566219329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.4707107543945</t>
+    <t xml:space="preserve">49.5662117004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.4707069396973</t>
   </si>
   <si>
     <t xml:space="preserve">49.656665802002</t>
@@ -395,13 +395,13 @@
     <t xml:space="preserve">51.917896270752</t>
   </si>
   <si>
-    <t xml:space="preserve">51.601318359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.510871887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.2344741821289</t>
+    <t xml:space="preserve">51.6013221740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.5108757019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.2344665527344</t>
   </si>
   <si>
     <t xml:space="preserve">52.4605941772461</t>
@@ -410,103 +410,103 @@
     <t xml:space="preserve">51.6465492248535</t>
   </si>
   <si>
-    <t xml:space="preserve">51.4204216003418</t>
+    <t xml:space="preserve">51.4204292297363</t>
   </si>
   <si>
     <t xml:space="preserve">50.9229545593262</t>
   </si>
   <si>
-    <t xml:space="preserve">50.6968269348145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.5159301757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.8325004577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.2796936035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.2695808410645</t>
+    <t xml:space="preserve">50.696834564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.5159378051758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.8325042724609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.2796897888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.2695693969727</t>
   </si>
   <si>
     <t xml:space="preserve">53.7721099853516</t>
   </si>
   <si>
-    <t xml:space="preserve">54.8574981689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.0383949279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.0785675048828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.8122749328613</t>
+    <t xml:space="preserve">54.8575057983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.0383987426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.0785636901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.8122711181641</t>
   </si>
   <si>
     <t xml:space="preserve">52.7319374084473</t>
   </si>
   <si>
-    <t xml:space="preserve">52.3249130249023</t>
+    <t xml:space="preserve">52.3249168395996</t>
   </si>
   <si>
     <t xml:space="preserve">51.3299751281738</t>
   </si>
   <si>
-    <t xml:space="preserve">52.0535659790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.2847557067871</t>
+    <t xml:space="preserve">52.0535697937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.2847480773926</t>
   </si>
   <si>
     <t xml:space="preserve">52.9128379821777</t>
   </si>
   <si>
-    <t xml:space="preserve">52.4153633117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0987968444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0083465576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.5510482788086</t>
+    <t xml:space="preserve">52.4153671264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0988006591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0083427429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.5510444641113</t>
   </si>
   <si>
     <t xml:space="preserve">51.737003326416</t>
   </si>
   <si>
-    <t xml:space="preserve">51.1038475036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.1089172363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.9280090332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.6414909362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.1841812133789</t>
+    <t xml:space="preserve">51.1038513183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.1089096069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.9280052185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.6414947509766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.1841888427734</t>
   </si>
   <si>
     <t xml:space="preserve">53.3650817871094</t>
   </si>
   <si>
-    <t xml:space="preserve">52.1892433166504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.0032844543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.2746353149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.958065032959</t>
+    <t xml:space="preserve">52.1892471313477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.003288269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.2746391296387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.9580612182617</t>
   </si>
   <si>
     <t xml:space="preserve">53.8625564575195</t>
@@ -515,10 +515,10 @@
     <t xml:space="preserve">52.3701438903809</t>
   </si>
   <si>
-    <t xml:space="preserve">51.8274421691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.3752021789551</t>
+    <t xml:space="preserve">51.8274459838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.3751983642578</t>
   </si>
   <si>
     <t xml:space="preserve">50.787281036377</t>
@@ -530,37 +530,37 @@
     <t xml:space="preserve">50.6516036987305</t>
   </si>
   <si>
-    <t xml:space="preserve">49.340087890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.2547035217285</t>
+    <t xml:space="preserve">49.3400955200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.2546997070312</t>
   </si>
   <si>
     <t xml:space="preserve">48.4355964660645</t>
   </si>
   <si>
-    <t xml:space="preserve">45.903018951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.3100433349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.1291465759277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.9884071350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.2597541809082</t>
+    <t xml:space="preserve">45.9030227661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.3100395202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.1291389465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.988410949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.2597618103027</t>
   </si>
   <si>
     <t xml:space="preserve">46.8527336120605</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3552589416504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.7170639038086</t>
+    <t xml:space="preserve">46.3552665710449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.7170677185059</t>
   </si>
   <si>
     <t xml:space="preserve">47.1693077087402</t>
@@ -575,13 +575,13 @@
     <t xml:space="preserve">46.0386962890625</t>
   </si>
   <si>
-    <t xml:space="preserve">46.264820098877</t>
+    <t xml:space="preserve">46.2648239135742</t>
   </si>
   <si>
     <t xml:space="preserve">47.124080657959</t>
   </si>
   <si>
-    <t xml:space="preserve">46.8979568481445</t>
+    <t xml:space="preserve">46.8979606628418</t>
   </si>
   <si>
     <t xml:space="preserve">47.8476753234863</t>
@@ -590,25 +590,25 @@
     <t xml:space="preserve">48.073802947998</t>
   </si>
   <si>
-    <t xml:space="preserve">49.8375587463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.0134048461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.8223876953125</t>
+    <t xml:space="preserve">49.8375625610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.0134010314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.822395324707</t>
   </si>
   <si>
     <t xml:space="preserve">51.1490821838379</t>
   </si>
   <si>
-    <t xml:space="preserve">49.4757690429688</t>
+    <t xml:space="preserve">49.4757652282715</t>
   </si>
   <si>
     <t xml:space="preserve">50.2445869445801</t>
   </si>
   <si>
-    <t xml:space="preserve">51.4656524658203</t>
+    <t xml:space="preserve">51.465648651123</t>
   </si>
   <si>
     <t xml:space="preserve">51.7822227478027</t>
@@ -617,16 +617,16 @@
     <t xml:space="preserve">52.8676147460938</t>
   </si>
   <si>
-    <t xml:space="preserve">53.1389694213867</t>
+    <t xml:space="preserve">53.1389656066895</t>
   </si>
   <si>
     <t xml:space="preserve">54.0434532165527</t>
   </si>
   <si>
-    <t xml:space="preserve">54.0886764526367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.133903503418</t>
+    <t xml:space="preserve">54.088680267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.1339073181152</t>
   </si>
   <si>
     <t xml:space="preserve">54.3600234985352</t>
@@ -635,109 +635,109 @@
     <t xml:space="preserve">53.5912055969238</t>
   </si>
   <si>
-    <t xml:space="preserve">53.9530067443848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.5409317016602</t>
+    <t xml:space="preserve">53.953010559082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.5409278869629</t>
   </si>
   <si>
     <t xml:space="preserve">55.4906425476074</t>
   </si>
   <si>
-    <t xml:space="preserve">56.3046836853027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.0333366394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.2142448425293</t>
+    <t xml:space="preserve">56.3046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.0333442687988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.214241027832</t>
   </si>
   <si>
     <t xml:space="preserve">56.9830589294434</t>
   </si>
   <si>
-    <t xml:space="preserve">56.8473777770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.3499069213867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.525749206543</t>
+    <t xml:space="preserve">56.8473815917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.349910736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.5257453918457</t>
   </si>
   <si>
     <t xml:space="preserve">57.2544059753418</t>
   </si>
   <si>
-    <t xml:space="preserve">57.7066535949707</t>
+    <t xml:space="preserve">57.7066497802734</t>
   </si>
   <si>
     <t xml:space="preserve">57.7971038818359</t>
   </si>
   <si>
-    <t xml:space="preserve">58.1589012145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.0684432983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.7920379638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.6512985229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.7869873046875</t>
+    <t xml:space="preserve">58.1589050292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.0684394836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.7920455932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.6513061523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.7869911193848</t>
   </si>
   <si>
     <t xml:space="preserve">59.5156440734863</t>
   </si>
   <si>
-    <t xml:space="preserve">58.8372650146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.8875465393066</t>
+    <t xml:space="preserve">58.837272644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.8875503540039</t>
   </si>
   <si>
     <t xml:space="preserve">58.1136741638184</t>
   </si>
   <si>
-    <t xml:space="preserve">59.3347358703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.781925201416</t>
+    <t xml:space="preserve">59.3347434997559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.7819213867188</t>
   </si>
   <si>
     <t xml:space="preserve">59.6965408325195</t>
   </si>
   <si>
-    <t xml:space="preserve">60.0583305358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.0532760620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.2291221618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.2189865112305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.9527053833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.4100151062012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.6813507080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.6310844421387</t>
+    <t xml:space="preserve">60.0583343505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.0532722473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.2291297912598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.2190017700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.952709197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.410026550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.6813621520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.6310768127441</t>
   </si>
   <si>
     <t xml:space="preserve">63.4953994750977</t>
   </si>
   <si>
-    <t xml:space="preserve">63.1788330078125</t>
+    <t xml:space="preserve">63.178825378418</t>
   </si>
   <si>
     <t xml:space="preserve">63.5406341552734</t>
@@ -746,421 +746,424 @@
     <t xml:space="preserve">63.314510345459</t>
   </si>
   <si>
-    <t xml:space="preserve">61.6411933898926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.962833404541</t>
+    <t xml:space="preserve">61.6411972045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.9628257751465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.7316474914551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.4638252258301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.7383918762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.8756675720215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.1044692993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.3332710266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.2807884216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.2484970092773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.56884765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.2942657470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.3925247192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.88916015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.6670913696289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.353515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.973934173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.8366546630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.3467636108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.7061080932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.255256652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.1179656982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.9806823730469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.5365600585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.8689346313477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.4045791625977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.5485992431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.9537124633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.5943641662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.3197937011719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.4503440856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.411319732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.2350196838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.1960067749023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.0196838378906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.3857803344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.2027435302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.928165435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.0857009887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.6348190307617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.8568801879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.3602523803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.1772003173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.8111114501953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.7196044921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.4450302124023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.8501281738281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.0331802368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.5755767822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.621337890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.4840545654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.3010025024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.7976379394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.1112213134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.2619781494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.307746887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.1314468383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.451774597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.3144989013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.7263412475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.9026489257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.2229690551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.9551544189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.5432968139648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.2754669189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.4194946289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.0076522827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.7330856323242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.8246078491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.0534057617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.0143966674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.2041778564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.2957153320312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.897331237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.3024444580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.4397277832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.7533111572266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.0736541748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.7210388183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.7990646362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.1584320068359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.2499389648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.4329833984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.6618041992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.7075500488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.3872222900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.4787445068359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.2566909790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.3414688110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.485481262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.8906021118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.6160278320312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.9416656494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.3992767333984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.3212432861328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.6873321533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.1516723632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.9296264648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.6550521850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.8771133422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.183952331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.236457824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.9228820800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.0601577758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.8380889892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.0668869018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.8058166503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.5379867553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.7923278808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.3737411499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.2822189331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.1381912231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.5042877197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.2889556884766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.263427734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.7142944335938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.53125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.8515701293945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.9430999755859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.6227722167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.3939666748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.3482055664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.5770263671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.165153503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.7008056640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.6685409545898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.9618835449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.81787109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.653621673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.1637268066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.0654602050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.4315414428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.8824234008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.7451248168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.5620803833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.692626953125</t>
   </si>
   <si>
     <t xml:space="preserve">61.7316436767578</t>
   </si>
   <si>
-    <t xml:space="preserve">62.4638214111328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.7383995056152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.8756637573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.1044807434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.3332786560059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.2807846069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.2484970092773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.5688400268555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.2942657470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.3925323486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.8891677856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.6670913696289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.353515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.9739379882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.8366622924805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.3467636108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.7061233520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.255241394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.1179580688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.9806671142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.5365524291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.8689270019531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.4045791625977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.5486030578613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.9537048339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.5943565368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.3197975158691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.4503440856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.4113273620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.2350273132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.1959838867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.0197067260742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.3857879638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.2027359008789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.9281730651855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.0857009887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.6348190307617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.8568954467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.3602600097656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.1772155761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.8111190795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.7196044921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.4450302124023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.8501358032227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.0331802368164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.5755844116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.6213302612305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.4840469360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.3010025024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.7976379394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.111213684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.2619857788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.307746887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.1314544677734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.4517593383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.3144836425781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.7263336181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.9026412963867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.2229690551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.9551467895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.5432968139648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.2754669189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.4195022583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.0076522827148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.7330856323242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.8246002197266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.0534133911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.0143966674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.2041854858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.2957000732422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.897331237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.3024520874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.4397277832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.7533264160156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.0736389160156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.7210388183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.799072265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.1584167480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.2499389648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.4329986572266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.6617889404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.7075576782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.3872222900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.4787521362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.2566833496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.3414611816406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.4854888916016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.8906021118164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.6160430908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.9416580200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.3992767333984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.3212280273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.6873245239258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.1516647338867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.9296188354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.6550369262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.8771057128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.183952331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.2364654541016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.9228744506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.0601654052734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.8380889892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.06689453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.8058090209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.5380020141602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.7923202514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.3737411499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.2822189331055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.13818359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.504280090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.2889556884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.2634353637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.7142944335938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.5312576293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.8515701293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.9430923461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.6227645874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.3939590454102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.3481979370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.5770111083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.1651611328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.700813293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.6685333251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.9618988037109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.8178558349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.6536140441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.1637191772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.0654602050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.4315490722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.8824234008789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.7451324462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.5620880126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.6926193237305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.7706604003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.4960975646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.6401176452637</t>
+    <t xml:space="preserve">60.7706642150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.4961013793945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.6401329040527</t>
   </si>
   <si>
     <t xml:space="preserve">62.6011009216309</t>
@@ -1169,16 +1172,16 @@
     <t xml:space="preserve">64.6145935058594</t>
   </si>
   <si>
-    <t xml:space="preserve">68.4127578735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.5890579223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.0789489746094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.7128601074219</t>
+    <t xml:space="preserve">68.4127655029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.5890502929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.0789413452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.7128677368164</t>
   </si>
   <si>
     <t xml:space="preserve">66.4907989501953</t>
@@ -1190,10 +1193,10 @@
     <t xml:space="preserve">67.2687301635742</t>
   </si>
   <si>
-    <t xml:space="preserve">69.1449432373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.0211334228516</t>
+    <t xml:space="preserve">69.1449356079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.0211181640625</t>
   </si>
   <si>
     <t xml:space="preserve">69.7398300170898</t>
@@ -1205,13 +1208,13 @@
     <t xml:space="preserve">71.5245056152344</t>
   </si>
   <si>
-    <t xml:space="preserve">72.0278854370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.9821243286133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.5837631225586</t>
+    <t xml:space="preserve">72.0278778076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.9821166992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.5837554931641</t>
   </si>
   <si>
     <t xml:space="preserve">74.6362609863281</t>
@@ -1223,13 +1226,13 @@
     <t xml:space="preserve">74.4074630737305</t>
   </si>
   <si>
-    <t xml:space="preserve">74.1328964233398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.3159332275391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.6430053710938</t>
+    <t xml:space="preserve">74.1328887939453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.3159255981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.6429977416992</t>
   </si>
   <si>
     <t xml:space="preserve">74.4989776611328</t>
@@ -1241,13 +1244,13 @@
     <t xml:space="preserve">75.74755859375</t>
   </si>
   <si>
-    <t xml:space="preserve">74.6377029418945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.8862915039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.8285522460938</t>
+    <t xml:space="preserve">74.6376953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.8862991333008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.8285369873047</t>
   </si>
   <si>
     <t xml:space="preserve">76.7649230957031</t>
@@ -1256,49 +1259,49 @@
     <t xml:space="preserve">75.1001434326172</t>
   </si>
   <si>
-    <t xml:space="preserve">78.2447280883789</t>
+    <t xml:space="preserve">78.2447357177734</t>
   </si>
   <si>
     <t xml:space="preserve">76.3949737548828</t>
   </si>
   <si>
-    <t xml:space="preserve">79.0771255493164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.9268798828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.6205444335938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.3893203735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.7592697143555</t>
+    <t xml:space="preserve">79.0771179199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.926887512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.6205368041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.3893051147461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.7592620849609</t>
   </si>
   <si>
     <t xml:space="preserve">81.2968368530273</t>
   </si>
   <si>
-    <t xml:space="preserve">82.2679672241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.163948059082</t>
+    <t xml:space="preserve">82.2679443359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.1639556884766</t>
   </si>
   <si>
     <t xml:space="preserve">85.4587860107422</t>
   </si>
   <si>
-    <t xml:space="preserve">86.3374176025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.0137023925781</t>
+    <t xml:space="preserve">86.3374252319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.0137176513672</t>
   </si>
   <si>
     <t xml:space="preserve">85.3663024902344</t>
   </si>
   <si>
-    <t xml:space="preserve">84.1177062988281</t>
+    <t xml:space="preserve">84.1176986694336</t>
   </si>
   <si>
     <t xml:space="preserve">82.7766418457031</t>
@@ -1307,34 +1310,34 @@
     <t xml:space="preserve">82.4529342651367</t>
   </si>
   <si>
-    <t xml:space="preserve">88.7883377075195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.9097137451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.5108871459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.9907073974609</t>
+    <t xml:space="preserve">88.7883453369141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.9097213745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.5108795166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.9906997680664</t>
   </si>
   <si>
     <t xml:space="preserve">89.1120529174805</t>
   </si>
   <si>
-    <t xml:space="preserve">90.3606338500977</t>
+    <t xml:space="preserve">90.3606414794922</t>
   </si>
   <si>
     <t xml:space="preserve">89.0658187866211</t>
   </si>
   <si>
-    <t xml:space="preserve">90.1756744384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.1583099365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.3721618652344</t>
+    <t xml:space="preserve">90.175666809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.1582946777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.3721694946289</t>
   </si>
   <si>
     <t xml:space="preserve">88.6033782958984</t>
@@ -1343,25 +1346,25 @@
     <t xml:space="preserve">88.6958618164062</t>
   </si>
   <si>
-    <t xml:space="preserve">88.9270858764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.8230819702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.3143997192383</t>
+    <t xml:space="preserve">88.9270782470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.8230743408203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.3143920898438</t>
   </si>
   <si>
     <t xml:space="preserve">90.5456085205078</t>
   </si>
   <si>
-    <t xml:space="preserve">89.2507934570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.7420959472656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.4820098876953</t>
+    <t xml:space="preserve">89.2507858276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.7421035766602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.4820022583008</t>
   </si>
   <si>
     <t xml:space="preserve">87.4010391235352</t>
@@ -1370,16 +1373,16 @@
     <t xml:space="preserve">86.938591003418</t>
   </si>
   <si>
-    <t xml:space="preserve">87.2622985839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.5050277709961</t>
+    <t xml:space="preserve">87.2623062133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.5050201416016</t>
   </si>
   <si>
     <t xml:space="preserve">85.5512771606445</t>
   </si>
   <si>
-    <t xml:space="preserve">84.9038696289062</t>
+    <t xml:space="preserve">84.9038619995117</t>
   </si>
   <si>
     <t xml:space="preserve">78.6609344482422</t>
@@ -1388,13 +1391,13 @@
     <t xml:space="preserve">80.7881469726562</t>
   </si>
   <si>
-    <t xml:space="preserve">82.0829849243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.2505874633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.481803894043</t>
+    <t xml:space="preserve">82.0829772949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.2505950927734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.4818115234375</t>
   </si>
   <si>
     <t xml:space="preserve">80.371955871582</t>
@@ -1403,178 +1406,175 @@
     <t xml:space="preserve">81.5280532836914</t>
   </si>
   <si>
-    <t xml:space="preserve">80.0482482910156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.3257217407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.1986846923828</t>
+    <t xml:space="preserve">80.0482559204102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.3257141113281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.1986770629883</t>
   </si>
   <si>
     <t xml:space="preserve">86.7073745727539</t>
   </si>
   <si>
-    <t xml:space="preserve">84.6263961791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.9501113891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.7188949584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.3026809692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.8113784790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.9212188720703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.7536087036133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.4125366210938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.6841583251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.9616165161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.036735534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.314208984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.8864898681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.6496200561523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.8982086181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.3200454711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.106201171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.9674530029297</t>
+    <t xml:space="preserve">84.6263885498047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.9501037597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.7188873291016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.3026885986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.8113708496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.9212265014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.7536239624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.4125518798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.6841506958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.9616088867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.0367279052734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.3141937255859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.8864822387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.6496276855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.8982009887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.3200531005859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.1062088012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.9674606323242</t>
   </si>
   <si>
     <t xml:space="preserve">83.7940063476562</t>
   </si>
   <si>
-    <t xml:space="preserve">84.4414291381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.4991683959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.2794799804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.1175231933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.3776168823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.2677536010742</t>
+    <t xml:space="preserve">84.4414215087891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.4991607666016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.2794723510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.1175155639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.3776092529297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.2677612304688</t>
   </si>
   <si>
     <t xml:space="preserve">73.7128219604492</t>
   </si>
   <si>
-    <t xml:space="preserve">75.7937927246094</t>
+    <t xml:space="preserve">75.7938003540039</t>
   </si>
   <si>
     <t xml:space="preserve">73.5278625488281</t>
   </si>
   <si>
-    <t xml:space="preserve">73.8515548706055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.470085144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.8400421142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.2099990844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.4123458862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.7590637207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.4989700317383</t>
+    <t xml:space="preserve">73.8515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.470100402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.8400497436523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.2100067138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.4123382568359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.7590789794922</t>
   </si>
   <si>
     <t xml:space="preserve">74.7764358520508</t>
   </si>
   <si>
-    <t xml:space="preserve">73.2041473388672</t>
+    <t xml:space="preserve">73.2041549682617</t>
   </si>
   <si>
     <t xml:space="preserve">74.9151763916016</t>
   </si>
   <si>
-    <t xml:space="preserve">76.025032043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.5048370361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.9731216430664</t>
+    <t xml:space="preserve">76.025016784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.5048294067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.9731292724609</t>
   </si>
   <si>
     <t xml:space="preserve">76.3024826049805</t>
   </si>
   <si>
-    <t xml:space="preserve">77.0886306762695</t>
+    <t xml:space="preserve">77.0886459350586</t>
   </si>
   <si>
     <t xml:space="preserve">73.9902877807617</t>
   </si>
   <si>
-    <t xml:space="preserve">71.4468841552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.5856094360352</t>
+    <t xml:space="preserve">71.4468612670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.5856170654297</t>
   </si>
   <si>
     <t xml:space="preserve">72.0018005371094</t>
   </si>
   <si>
-    <t xml:space="preserve">72.8804473876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.0365447998047</t>
+    <t xml:space="preserve">72.8804397583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.0365295410156</t>
   </si>
   <si>
     <t xml:space="preserve">73.2503890991211</t>
   </si>
   <si>
-    <t xml:space="preserve">71.95556640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.7705917358398</t>
+    <t xml:space="preserve">71.9555587768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.7705764770508</t>
   </si>
   <si>
     <t xml:space="preserve">69.4583892822266</t>
   </si>
   <si>
-    <t xml:space="preserve">69.3659057617188</t>
+    <t xml:space="preserve">69.3658981323242</t>
   </si>
   <si>
     <t xml:space="preserve">69.7358551025391</t>
@@ -1583,13 +1583,13 @@
     <t xml:space="preserve">72.2330322265625</t>
   </si>
   <si>
-    <t xml:space="preserve">67.6548843383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.2560348510742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.7936172485352</t>
+    <t xml:space="preserve">67.6548767089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.2560501098633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.7936096191406</t>
   </si>
   <si>
     <t xml:space="preserve">67.4698944091797</t>
@@ -1598,91 +1598,91 @@
     <t xml:space="preserve">68.4410171508789</t>
   </si>
   <si>
-    <t xml:space="preserve">67.7011184692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.3600463867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.8339996337891</t>
+    <t xml:space="preserve">67.7011108398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.3600387573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.833984375</t>
   </si>
   <si>
     <t xml:space="preserve">65.2501983642578</t>
   </si>
   <si>
-    <t xml:space="preserve">65.111457824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.6201248168945</t>
+    <t xml:space="preserve">65.1114654541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.6201477050781</t>
   </si>
   <si>
     <t xml:space="preserve">67.0074615478516</t>
   </si>
   <si>
-    <t xml:space="preserve">65.7744827270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.0548706054688</t>
+    <t xml:space="preserve">65.7744750976562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.0548782348633</t>
   </si>
   <si>
     <t xml:space="preserve">67.5291061401367</t>
   </si>
   <si>
-    <t xml:space="preserve">67.1497192382812</t>
+    <t xml:space="preserve">67.1497344970703</t>
   </si>
   <si>
     <t xml:space="preserve">70.8960723876953</t>
   </si>
   <si>
-    <t xml:space="preserve">70.3744201660156</t>
+    <t xml:space="preserve">70.3744277954102</t>
   </si>
   <si>
     <t xml:space="preserve">70.0898971557617</t>
   </si>
   <si>
-    <t xml:space="preserve">70.5167007446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.6548233032227</t>
+    <t xml:space="preserve">70.5166854858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.6548156738281</t>
   </si>
   <si>
     <t xml:space="preserve">71.0383377075195</t>
   </si>
   <si>
-    <t xml:space="preserve">70.6589660644531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.7970886230469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.5042953491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.9785003662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.2073440551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.0650863647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.9228210449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.5434417724609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.0176544189453</t>
+    <t xml:space="preserve">70.6589584350586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.7970962524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.5042877197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.9785079956055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.2073516845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.0650787353516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.9228134155273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.5434341430664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.0176620483398</t>
   </si>
   <si>
     <t xml:space="preserve">76.254768371582</t>
   </si>
   <si>
-    <t xml:space="preserve">75.6382827758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.5351715087891</t>
+    <t xml:space="preserve">75.6382904052734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.5351791381836</t>
   </si>
   <si>
     <t xml:space="preserve">77.1083602905273</t>
@@ -1691,13 +1691,13 @@
     <t xml:space="preserve">75.8279724121094</t>
   </si>
   <si>
-    <t xml:space="preserve">77.8671112060547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.9619598388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.7165985107422</t>
+    <t xml:space="preserve">77.8671264648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.9619750976562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.7165832519531</t>
   </si>
   <si>
     <t xml:space="preserve">79.6217422485352</t>
@@ -1706,19 +1706,19 @@
     <t xml:space="preserve">80.7124481201172</t>
   </si>
   <si>
-    <t xml:space="preserve">80.2856597900391</t>
+    <t xml:space="preserve">80.2856521606445</t>
   </si>
   <si>
     <t xml:space="preserve">80.6176071166992</t>
   </si>
   <si>
-    <t xml:space="preserve">80.2382431030273</t>
+    <t xml:space="preserve">80.2382278442383</t>
   </si>
   <si>
     <t xml:space="preserve">80.4279174804688</t>
   </si>
   <si>
-    <t xml:space="preserve">80.8072967529297</t>
+    <t xml:space="preserve">80.8073043823242</t>
   </si>
   <si>
     <t xml:space="preserve">81.0444030761719</t>
@@ -1727,19 +1727,19 @@
     <t xml:space="preserve">80.0485458374023</t>
   </si>
   <si>
-    <t xml:space="preserve">80.9021453857422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.7083206176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.3289337158203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.8031616210938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.0835494995117</t>
+    <t xml:space="preserve">80.9021377563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.7083129882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.3289260864258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.8031539916992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.0835571289062</t>
   </si>
   <si>
     <t xml:space="preserve">82.7516021728516</t>
@@ -1751,52 +1751,52 @@
     <t xml:space="preserve">82.3722229003906</t>
   </si>
   <si>
-    <t xml:space="preserve">82.2773818969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.2732543945312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.1825408935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.3763656616211</t>
+    <t xml:space="preserve">82.2773742675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.2732467651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.1825332641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.3763580322266</t>
   </si>
   <si>
     <t xml:space="preserve">80.9969940185547</t>
   </si>
   <si>
-    <t xml:space="preserve">83.3206634521484</t>
+    <t xml:space="preserve">83.320671081543</t>
   </si>
   <si>
     <t xml:space="preserve">83.5577774047852</t>
   </si>
   <si>
-    <t xml:space="preserve">84.0794219970703</t>
+    <t xml:space="preserve">84.0794296264648</t>
   </si>
   <si>
     <t xml:space="preserve">84.3165283203125</t>
   </si>
   <si>
-    <t xml:space="preserve">83.9845733642578</t>
+    <t xml:space="preserve">83.9845809936523</t>
   </si>
   <si>
     <t xml:space="preserve">84.7433319091797</t>
   </si>
   <si>
-    <t xml:space="preserve">84.0319976806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.1227111816406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.0752792358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.8814697265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.8773345947266</t>
+    <t xml:space="preserve">84.0319900512695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.1227035522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.0752868652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.881462097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.8773193359375</t>
   </si>
   <si>
     <t xml:space="preserve">87.9680328369141</t>
@@ -1805,19 +1805,19 @@
     <t xml:space="preserve">87.2566986083984</t>
   </si>
   <si>
-    <t xml:space="preserve">86.9247512817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.7824859619141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.3082504272461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.2134246826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.7350540161133</t>
+    <t xml:space="preserve">86.9247589111328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.7824783325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.3082580566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.2134170532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.7350616455078</t>
   </si>
   <si>
     <t xml:space="preserve">83.130989074707</t>
@@ -1826,22 +1826,22 @@
     <t xml:space="preserve">80.7598648071289</t>
   </si>
   <si>
-    <t xml:space="preserve">81.2815093994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.6093368530273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.8938674926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.8856048583984</t>
+    <t xml:space="preserve">81.2815170288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.6093292236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.8938751220703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.8855972290039</t>
   </si>
   <si>
     <t xml:space="preserve">85.2649688720703</t>
   </si>
   <si>
-    <t xml:space="preserve">85.3598175048828</t>
+    <t xml:space="preserve">85.3598098754883</t>
   </si>
   <si>
     <t xml:space="preserve">86.4031066894531</t>
@@ -1850,16 +1850,16 @@
     <t xml:space="preserve">89.2958602905273</t>
   </si>
   <si>
-    <t xml:space="preserve">90.6236801147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.4257049560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.3782958984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.85693359375</t>
+    <t xml:space="preserve">90.6236724853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92.4257125854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92.378288269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92.8569412231445</t>
   </si>
   <si>
     <t xml:space="preserve">92.3304214477539</t>
@@ -1868,16 +1868,16 @@
     <t xml:space="preserve">93.335578918457</t>
   </si>
   <si>
-    <t xml:space="preserve">92.7133483886719</t>
+    <t xml:space="preserve">92.7133407592773</t>
   </si>
   <si>
     <t xml:space="preserve">91.9953765869141</t>
   </si>
   <si>
-    <t xml:space="preserve">91.7560577392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.3201141357422</t>
+    <t xml:space="preserve">91.7560653686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.3201293945312</t>
   </si>
   <si>
     <t xml:space="preserve">89.4585571289062</t>
@@ -1886,10 +1886,10 @@
     <t xml:space="preserve">89.9372024536133</t>
   </si>
   <si>
-    <t xml:space="preserve">87.6397247314453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91.2295455932617</t>
+    <t xml:space="preserve">87.6397171020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91.2295608520508</t>
   </si>
   <si>
     <t xml:space="preserve">92.5218887329102</t>
@@ -1898,13 +1898,13 @@
     <t xml:space="preserve">93.1441268920898</t>
   </si>
   <si>
-    <t xml:space="preserve">94.2928771972656</t>
+    <t xml:space="preserve">94.2928695678711</t>
   </si>
   <si>
     <t xml:space="preserve">96.7818145751953</t>
   </si>
   <si>
-    <t xml:space="preserve">97.6433715820312</t>
+    <t xml:space="preserve">97.6433792114258</t>
   </si>
   <si>
     <t xml:space="preserve">95.0108337402344</t>
@@ -1913,7 +1913,7 @@
     <t xml:space="preserve">98.3134689331055</t>
   </si>
   <si>
-    <t xml:space="preserve">99.0793151855469</t>
+    <t xml:space="preserve">99.0793075561523</t>
   </si>
   <si>
     <t xml:space="preserve">100.610969543457</t>
@@ -1922,10 +1922,10 @@
     <t xml:space="preserve">102.621269226074</t>
   </si>
   <si>
-    <t xml:space="preserve">99.9408798217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.515235900879</t>
+    <t xml:space="preserve">99.9408645629883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.515243530273</t>
   </si>
   <si>
     <t xml:space="preserve">98.1220169067383</t>
@@ -1934,28 +1934,28 @@
     <t xml:space="preserve">98.8878631591797</t>
   </si>
   <si>
-    <t xml:space="preserve">97.1647415161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.5476608276367</t>
+    <t xml:space="preserve">97.1647262573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.5476455688477</t>
   </si>
   <si>
     <t xml:space="preserve">97.7391052246094</t>
   </si>
   <si>
-    <t xml:space="preserve">98.5049285888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.2177581787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.802436828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.5579605102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.6006622314453</t>
+    <t xml:space="preserve">98.5049362182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.2177505493164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.802429199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.5579528808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.6006698608398</t>
   </si>
   <si>
     <t xml:space="preserve">99.4622192382812</t>
@@ -1964,25 +1964,25 @@
     <t xml:space="preserve">98.4092178344727</t>
   </si>
   <si>
-    <t xml:space="preserve">98.7921142578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.4519195556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.973274230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.0690002441406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.6860961914062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.0262985229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.387107849121</t>
+    <t xml:space="preserve">98.792121887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.4519348144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.9732818603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.0690078735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.6860885620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.0262908935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.387100219727</t>
   </si>
   <si>
     <t xml:space="preserve">101.759719848633</t>
@@ -1991,31 +1991,31 @@
     <t xml:space="preserve">100.41951751709</t>
   </si>
   <si>
-    <t xml:space="preserve">103.099914550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101.951171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101.376808166504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101.185333251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.6536712646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101.472534179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.674301147461</t>
+    <t xml:space="preserve">103.099922180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101.951179504395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101.376800537109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101.185340881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.653678894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101.472526550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.674285888672</t>
   </si>
   <si>
     <t xml:space="preserve">103.482833862305</t>
   </si>
   <si>
-    <t xml:space="preserve">105.110229492188</t>
+    <t xml:space="preserve">105.110221862793</t>
   </si>
   <si>
     <t xml:space="preserve">104.344398498535</t>
@@ -2027,7 +2027,7 @@
     <t xml:space="preserve">102.429817199707</t>
   </si>
   <si>
-    <t xml:space="preserve">103.004196166992</t>
+    <t xml:space="preserve">103.004188537598</t>
   </si>
   <si>
     <t xml:space="preserve">105.014495849609</t>
@@ -2039,22 +2039,22 @@
     <t xml:space="preserve">104.248672485352</t>
   </si>
   <si>
-    <t xml:space="preserve">101.66397857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.8451309204102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.9305648803711</t>
+    <t xml:space="preserve">101.663986206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.8451461791992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.9305725097656</t>
   </si>
   <si>
     <t xml:space="preserve">99.3665084838867</t>
   </si>
   <si>
-    <t xml:space="preserve">100.323776245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102.23836517334</t>
+    <t xml:space="preserve">100.323791503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102.238357543945</t>
   </si>
   <si>
     <t xml:space="preserve">101.568260192871</t>
@@ -2063,13 +2063,13 @@
     <t xml:space="preserve">100.993881225586</t>
   </si>
   <si>
-    <t xml:space="preserve">102.142631530762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.898162841797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.6330718994141</t>
+    <t xml:space="preserve">102.142623901367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.898155212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.6330642700195</t>
   </si>
   <si>
     <t xml:space="preserve">95.9202575683594</t>
@@ -2078,37 +2078,37 @@
     <t xml:space="preserve">95.058708190918</t>
   </si>
   <si>
-    <t xml:space="preserve">95.2980194091797</t>
+    <t xml:space="preserve">95.2980270385742</t>
   </si>
   <si>
     <t xml:space="preserve">95.4894866943359</t>
   </si>
   <si>
-    <t xml:space="preserve">95.8245391845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.7288055419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.8090667724609</t>
+    <t xml:space="preserve">95.8245315551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.7287979125977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92.8090744018555</t>
   </si>
   <si>
     <t xml:space="preserve">93.5270309448242</t>
   </si>
   <si>
-    <t xml:space="preserve">92.4740219116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93.4791793823242</t>
+    <t xml:space="preserve">92.4740295410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93.4791717529297</t>
   </si>
   <si>
     <t xml:space="preserve">92.9048080444336</t>
   </si>
   <si>
-    <t xml:space="preserve">93.1919784545898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94.3407363891602</t>
+    <t xml:space="preserve">93.1919937133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94.3407440185547</t>
   </si>
   <si>
     <t xml:space="preserve">96.5903625488281</t>
@@ -2120,7 +2120,7 @@
     <t xml:space="preserve">100.13232421875</t>
   </si>
   <si>
-    <t xml:space="preserve">99.1750259399414</t>
+    <t xml:space="preserve">99.1750411987305</t>
   </si>
   <si>
     <t xml:space="preserve">102.046897888184</t>
@@ -2132,13 +2132,13 @@
     <t xml:space="preserve">105.971786499023</t>
   </si>
   <si>
-    <t xml:space="preserve">107.311988830566</t>
+    <t xml:space="preserve">107.311973571777</t>
   </si>
   <si>
     <t xml:space="preserve">109.609481811523</t>
   </si>
   <si>
-    <t xml:space="preserve">109.035102844238</t>
+    <t xml:space="preserve">109.035110473633</t>
   </si>
   <si>
     <t xml:space="preserve">110.471046447754</t>
@@ -2147,22 +2147,22 @@
     <t xml:space="preserve">114.013000488281</t>
   </si>
   <si>
-    <t xml:space="preserve">115.257484436035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.68310546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.970283508301</t>
+    <t xml:space="preserve">115.257476806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.683113098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.970291137695</t>
   </si>
   <si>
     <t xml:space="preserve">116.119041442871</t>
   </si>
   <si>
-    <t xml:space="preserve">113.247161865234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.406227111816</t>
+    <t xml:space="preserve">113.247177124023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.406219482422</t>
   </si>
   <si>
     <t xml:space="preserve">117.45923614502</t>
@@ -2174,40 +2174,40 @@
     <t xml:space="preserve">118.512260437012</t>
   </si>
   <si>
-    <t xml:space="preserve">116.789138793945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.831840515137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.874565124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.045402526855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.672805786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.002708435059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.71549987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.577056884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.151443481445</t>
+    <t xml:space="preserve">116.789131164551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.831848144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.874557495117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.04541015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.672798156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.002700805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.715515136719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.577072143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.15145111084</t>
   </si>
   <si>
     <t xml:space="preserve">112.481346130371</t>
   </si>
   <si>
-    <t xml:space="preserve">111.524055480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.236862182617</t>
+    <t xml:space="preserve">111.524047851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.236877441406</t>
   </si>
   <si>
     <t xml:space="preserve">109.896667480469</t>
@@ -2231,82 +2231,82 @@
     <t xml:space="preserve">108.843643188477</t>
   </si>
   <si>
-    <t xml:space="preserve">111.906959533691</t>
+    <t xml:space="preserve">111.906967163086</t>
   </si>
   <si>
     <t xml:space="preserve">109.418022155762</t>
   </si>
   <si>
-    <t xml:space="preserve">109.2265625</t>
+    <t xml:space="preserve">109.226554870605</t>
   </si>
   <si>
     <t xml:space="preserve">110.18384552002</t>
   </si>
   <si>
-    <t xml:space="preserve">107.790634155273</t>
+    <t xml:space="preserve">107.790626525879</t>
   </si>
   <si>
     <t xml:space="preserve">110.566764831543</t>
   </si>
   <si>
-    <t xml:space="preserve">110.662498474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.36499786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106.258964538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107.120529174805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.130844116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.800933837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.705200195312</t>
+    <t xml:space="preserve">110.662490844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.365005493164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106.258972167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107.120536804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.130836486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.800941467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.705207824707</t>
   </si>
   <si>
     <t xml:space="preserve">111.619781494141</t>
   </si>
   <si>
-    <t xml:space="preserve">115.736129760742</t>
+    <t xml:space="preserve">115.736122131348</t>
   </si>
   <si>
     <t xml:space="preserve">115.927581787109</t>
   </si>
   <si>
-    <t xml:space="preserve">111.332611083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105.876052856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.036605834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.173545837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104.918769836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.195648193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101.089614868164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.513748168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106.833343505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.811248779297</t>
+    <t xml:space="preserve">111.332595825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105.87606048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.036598205566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.173553466797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104.918762207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.195655822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101.08960723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.51375579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106.833335876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.811241149902</t>
   </si>
   <si>
     <t xml:space="preserve">110.279579162598</t>
@@ -2315,43 +2315,43 @@
     <t xml:space="preserve">107.886360168457</t>
   </si>
   <si>
-    <t xml:space="preserve">105.780326843262</t>
+    <t xml:space="preserve">105.780334472656</t>
   </si>
   <si>
     <t xml:space="preserve">103.865753173828</t>
   </si>
   <si>
-    <t xml:space="preserve">115.544662475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.055717468262</t>
+    <t xml:space="preserve">115.54467010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.055709838867</t>
   </si>
   <si>
     <t xml:space="preserve">119.565277099609</t>
   </si>
   <si>
-    <t xml:space="preserve">123.873069763184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">127.702217102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.020324707031</t>
+    <t xml:space="preserve">123.873054504395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127.702201843262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.02033996582</t>
   </si>
   <si>
     <t xml:space="preserve">143.401748657227</t>
   </si>
   <si>
-    <t xml:space="preserve">143.688934326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138.328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146.943725585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146.082138061523</t>
+    <t xml:space="preserve">143.68896484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138.328140258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146.943710327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146.082153320312</t>
   </si>
   <si>
     <t xml:space="preserve">157.952514648438</t>
@@ -2363,16 +2363,16 @@
     <t xml:space="preserve">155.655029296875</t>
   </si>
   <si>
-    <t xml:space="preserve">159.771362304688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">159.962844848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.272094726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148.666839599609</t>
+    <t xml:space="preserve">159.771377563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159.962829589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.272109985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148.66682434082</t>
   </si>
   <si>
     <t xml:space="preserve">148.762557983398</t>
@@ -2387,19 +2387,19 @@
     <t xml:space="preserve">148.188186645508</t>
   </si>
   <si>
-    <t xml:space="preserve">149.528381347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.559326171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153.644714355469</t>
+    <t xml:space="preserve">149.528396606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.559310913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">153.644744873047</t>
   </si>
   <si>
     <t xml:space="preserve">165.132186889648</t>
   </si>
   <si>
-    <t xml:space="preserve">169.439987182617</t>
+    <t xml:space="preserve">169.439971923828</t>
   </si>
   <si>
     <t xml:space="preserve">176.332458496094</t>
@@ -2411,49 +2411,49 @@
     <t xml:space="preserve">171.546005249023</t>
   </si>
   <si>
-    <t xml:space="preserve">181.118881225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">182.746292114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">194.138000488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200.456115722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">188.585754394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.610809326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">174.034957885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180.448806762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">173.747787475586</t>
+    <t xml:space="preserve">181.118896484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">182.746276855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">194.13801574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200.456100463867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">188.585739135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.610824584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">174.034973144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180.448791503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173.747756958008</t>
   </si>
   <si>
     <t xml:space="preserve">171.258819580078</t>
   </si>
   <si>
-    <t xml:space="preserve">166.089462280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166.759582519531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">158.909820556641</t>
+    <t xml:space="preserve">166.089447021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.759552001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158.909805297852</t>
   </si>
   <si>
     <t xml:space="preserve">152.783172607422</t>
   </si>
   <si>
-    <t xml:space="preserve">154.602020263672</t>
+    <t xml:space="preserve">154.602035522461</t>
   </si>
   <si>
     <t xml:space="preserve">156.995223999023</t>
@@ -2462,28 +2462,28 @@
     <t xml:space="preserve">160.632934570312</t>
   </si>
   <si>
-    <t xml:space="preserve">159.867095947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163.57373046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.440231323242</t>
+    <t xml:space="preserve">159.867080688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163.573745727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.440246582031</t>
   </si>
   <si>
     <t xml:space="preserve">163.958847045898</t>
   </si>
   <si>
-    <t xml:space="preserve">163.18864440918</t>
+    <t xml:space="preserve">163.188629150391</t>
   </si>
   <si>
     <t xml:space="preserve">161.16682434082</t>
   </si>
   <si>
-    <t xml:space="preserve">164.343933105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">169.254043579102</t>
+    <t xml:space="preserve">164.343948364258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">169.254058837891</t>
   </si>
   <si>
     <t xml:space="preserve">166.558303833008</t>
@@ -2492,7 +2492,7 @@
     <t xml:space="preserve">165.017883300781</t>
   </si>
   <si>
-    <t xml:space="preserve">163.38117980957</t>
+    <t xml:space="preserve">163.381195068359</t>
   </si>
   <si>
     <t xml:space="preserve">164.055130004883</t>
@@ -2501,37 +2501,37 @@
     <t xml:space="preserve">164.632781982422</t>
   </si>
   <si>
-    <t xml:space="preserve">164.921630859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.729064941406</t>
+    <t xml:space="preserve">164.921615600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.729049682617</t>
   </si>
   <si>
     <t xml:space="preserve">168.195007324219</t>
   </si>
   <si>
-    <t xml:space="preserve">171.853530883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.527465820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.114181518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166.462020874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">167.232223510742</t>
+    <t xml:space="preserve">171.853515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.527450561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.114151000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.462036132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">167.23225402832</t>
   </si>
   <si>
     <t xml:space="preserve">166.750869750977</t>
   </si>
   <si>
-    <t xml:space="preserve">171.46842956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171.564682006836</t>
+    <t xml:space="preserve">171.468414306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171.564697265625</t>
   </si>
   <si>
     <t xml:space="preserve">174.164154052734</t>
@@ -2546,7 +2546,7 @@
     <t xml:space="preserve">162.99609375</t>
   </si>
   <si>
-    <t xml:space="preserve">156.641830444336</t>
+    <t xml:space="preserve">156.641845703125</t>
   </si>
   <si>
     <t xml:space="preserve">164.247680664062</t>
@@ -2555,16 +2555,16 @@
     <t xml:space="preserve">166.847152709961</t>
   </si>
   <si>
-    <t xml:space="preserve">161.263092041016</t>
+    <t xml:space="preserve">161.263107299805</t>
   </si>
   <si>
     <t xml:space="preserve">159.818954467773</t>
   </si>
   <si>
-    <t xml:space="preserve">154.620040893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151.731750488281</t>
+    <t xml:space="preserve">154.620010375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151.731735229492</t>
   </si>
   <si>
     <t xml:space="preserve">148.65087890625</t>
@@ -2576,25 +2576,25 @@
     <t xml:space="preserve">147.110473632812</t>
   </si>
   <si>
-    <t xml:space="preserve">151.635452270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154.234939575195</t>
+    <t xml:space="preserve">151.635467529297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154.234924316406</t>
   </si>
   <si>
     <t xml:space="preserve">153.560989379883</t>
   </si>
   <si>
-    <t xml:space="preserve">150.28759765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156.738098144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153.175903320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156.160461425781</t>
+    <t xml:space="preserve">150.287582397461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.73811340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">153.175888061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.160430908203</t>
   </si>
   <si>
     <t xml:space="preserve">156.834396362305</t>
@@ -2603,10 +2603,10 @@
     <t xml:space="preserve">156.9306640625</t>
   </si>
   <si>
-    <t xml:space="preserve">157.412033081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.797149658203</t>
+    <t xml:space="preserve">157.412063598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.797164916992</t>
   </si>
   <si>
     <t xml:space="preserve">161.455657958984</t>
@@ -2624,34 +2624,34 @@
     <t xml:space="preserve">146.4365234375</t>
   </si>
   <si>
-    <t xml:space="preserve">145.377487182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137.290283203125</t>
+    <t xml:space="preserve">145.377502441406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137.290267944336</t>
   </si>
   <si>
     <t xml:space="preserve">136.520050048828</t>
   </si>
   <si>
-    <t xml:space="preserve">139.119506835938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138.926971435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146.629089355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145.088668823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148.939697265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149.613632202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151.154098510742</t>
+    <t xml:space="preserve">139.119522094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138.926956176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146.62907409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145.088638305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148.939712524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149.613647460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151.154083251953</t>
   </si>
   <si>
     <t xml:space="preserve">154.90885925293</t>
@@ -2663,10 +2663,10 @@
     <t xml:space="preserve">163.092346191406</t>
   </si>
   <si>
-    <t xml:space="preserve">162.707260131836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.151412963867</t>
+    <t xml:space="preserve">162.707244873047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.151397705078</t>
   </si>
   <si>
     <t xml:space="preserve">163.862564086914</t>
@@ -2678,25 +2678,25 @@
     <t xml:space="preserve">170.216812133789</t>
   </si>
   <si>
-    <t xml:space="preserve">177.148727416992</t>
+    <t xml:space="preserve">177.148712158203</t>
   </si>
   <si>
     <t xml:space="preserve">177.533813476562</t>
   </si>
   <si>
-    <t xml:space="preserve">179.940734863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175.704574584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180.999786376953</t>
+    <t xml:space="preserve">179.940719604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">175.70458984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180.999771118164</t>
   </si>
   <si>
     <t xml:space="preserve">183.021606445312</t>
   </si>
   <si>
-    <t xml:space="preserve">180.518417358398</t>
+    <t xml:space="preserve">180.518402099609</t>
   </si>
   <si>
     <t xml:space="preserve">184.176895141602</t>
@@ -2705,556 +2705,556 @@
     <t xml:space="preserve">181.962554931641</t>
   </si>
   <si>
+    <t xml:space="preserve">187.354049682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">186.39128112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">183.984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">187.642852783203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">185.428512573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">183.888092041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181.577453613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180.32585144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181.481155395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">178.785415649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180.13330078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">186.968933105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.264129638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">193.708297729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161.744476318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.980667114258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">167.328536987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">167.039688110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.173217773438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158.95246887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162.899810791016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.365783691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170.024261474609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.788101196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163.670013427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162.129592895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.825332641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162.225860595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161.359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160.492889404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160.878005981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.306716918945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161.070556640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161.648223876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163.766311645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163.284912109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.775344848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154.812576293945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">153.464721679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.604598999023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.449295043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.545547485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160.011505126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173.008834838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.142349243164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181.288635253906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171.083297729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173.875335693359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173.297668457031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.720001220703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">169.927993774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">169.63916015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.431182861328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176.089691162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">175.415740966797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">177.630096435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">178.689163208008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">178.400314331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179.459350585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176.667343139648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158.182266235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">153.753524780273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.989700317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.352996826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.893417358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159.14501953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.967910766602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152.116851806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150.961517333984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149.035995483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.401992797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136.808898925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140.467376708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136.712615966797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.883361816406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137.77165222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.979614257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.74983215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.787078857422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137.001434326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.824310302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.187606811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.572708129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131.70622253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.54638671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137.194000244141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.931488037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147.351150512695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145.425628662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143.59635925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150.095031738281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149.950622558594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148.169509887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146.869781494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146.725357055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138.734420776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138.541839599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.027755737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.990539550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.605438232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.9423828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.342926025391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.557281494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137.338394165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.102233886719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129.973236083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.150360107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.861557006836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136.375640869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138.638137817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138.78254699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138.734085083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138.491714477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">139.606628417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">139.558120727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">139.848983764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140.236770629883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137.716110229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.759155273438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.662200927734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137.0859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137.958480834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">139.267288208008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140.430694580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140.963897705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145.035766601562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146.150680541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145.859817504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148.138122558594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147.653381347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149.204559326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148.719818115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149.107620239258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145.22966003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149.883209228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151.337448120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152.210006713867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.021514892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154.633728027344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152.694747924805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">153.470336914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151.822204589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.845581054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158.317779541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154.342864990234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.748626708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.105911254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.445236206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.00895690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.639129638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158.075408935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160.935394287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162.195739746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.280136108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">167.091659545898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163.795394897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162.971328735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.425567626953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">167.188613891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.928283691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171.06657409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.703872680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170.290985107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171.018096923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">168.158096313477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170.824203491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170.484878540039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171.212005615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173.344879150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.423858642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173.538772583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">178.289260864258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179.210296630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179.404205322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">182.409591674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181.827926635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180.325210571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179.743499755859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180.08283996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">183.669952392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">185.075698852539</t>
+  </si>
+  <si>
     <t xml:space="preserve">187.354019165039</t>
   </si>
   <si>
-    <t xml:space="preserve">186.391265869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">183.984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">187.642868041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185.428512573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">183.888076782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">181.577438354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180.325866699219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">181.481155395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">178.785415649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180.133285522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">186.968933105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.264114379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">193.708267211914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161.744491577148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.980651855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">167.328536987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">167.039688110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166.173217773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">158.952484130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">162.899810791016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166.365753173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170.024291992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.7880859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163.670028686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">162.129592895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.825332641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">162.225891113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161.359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160.492889404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160.878005981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.306716918945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161.070556640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161.648193359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163.766296386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163.284896850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.775344848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154.812576293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153.464691162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.604598999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156.449279785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156.545562744141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160.011505126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">173.008834838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.142349243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">181.288619995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171.083312988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">173.875335693359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">173.297668457031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.720016479492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">169.927993774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">169.63916015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.431167602539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">176.08967590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175.415740966797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">177.630111694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">178.689163208008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">178.400329589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179.459350585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">176.667343139648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">158.182266235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153.753540039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.989700317383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156.352996826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.893432617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">159.145034790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.967895507812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152.116836547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150.961532592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149.036010742188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.401977539062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136.808883666992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140.467376708984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136.712615966797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.883361816406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137.77165222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.979614257812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135.74983215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.787078857422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137.001434326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.824310302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.187622070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.572708129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131.70622253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.546371459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137.193984985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.93147277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147.351150512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145.42561340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">143.59635925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150.095031738281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149.950622558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148.169494628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146.869766235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146.725341796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138.734420776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138.541839599609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135.027770996094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135.990539550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135.605422973633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135.9423828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.34294128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135.557281494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137.338409423828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.102233886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129.973251342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.150375366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.861557006836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136.375625610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138.638122558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138.78254699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138.734069824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138.491714477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">139.60661315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">139.558135986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">139.848983764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140.236785888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137.716125488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.759155273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.662200927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137.0859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137.958480834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">139.267288208008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140.430694580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140.963897705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145.035766601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146.150680541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145.859817504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148.138137817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147.653381347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149.204559326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148.719818115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149.107620239258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145.22966003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149.883209228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151.337448120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152.209991455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.021499633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154.633712768555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152.694732666016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153.470336914062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151.822189331055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.845565795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">158.317779541016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154.342864990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.748626708984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.105911254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.445236206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.00895690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.639144897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">158.075408935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160.935394287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">162.195739746094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.280151367188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.734359741211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">167.091659545898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163.795394897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">162.971328735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.425567626953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">167.188613891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.928268432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171.06657409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166.703857421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170.290969848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171.018096923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">168.158096313477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170.824203491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170.484893798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171.212020874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">173.344879150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.423873901367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">173.538772583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">178.289276123047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179.210296630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179.404190063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">182.409606933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">181.827926635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180.325225830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179.743515014648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180.08283996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">183.669952392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185.075714111328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">187.35400390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.44384765625</t>
+    <t xml:space="preserve">192.443832397461</t>
   </si>
   <si>
     <t xml:space="preserve">194.867568969727</t>
@@ -3263,7 +3263,7 @@
     <t xml:space="preserve">195.740097045898</t>
   </si>
   <si>
-    <t xml:space="preserve">198.06689453125</t>
+    <t xml:space="preserve">198.066879272461</t>
   </si>
   <si>
     <t xml:space="preserve">194.09196472168</t>
@@ -3278,7 +3278,7 @@
     <t xml:space="preserve">199.908905029297</t>
   </si>
   <si>
-    <t xml:space="preserve">190.698745727539</t>
+    <t xml:space="preserve">190.698760986328</t>
   </si>
   <si>
     <t xml:space="preserve">195.643157958984</t>
@@ -3287,10 +3287,10 @@
     <t xml:space="preserve">192.783172607422</t>
   </si>
   <si>
-    <t xml:space="preserve">194.479766845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">196.418746948242</t>
+    <t xml:space="preserve">194.479782104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">196.418762207031</t>
   </si>
   <si>
     <t xml:space="preserve">198.35774230957</t>
@@ -3299,10 +3299,10 @@
     <t xml:space="preserve">197.000442504883</t>
   </si>
   <si>
-    <t xml:space="preserve">189.87467956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">182.845886230469</t>
+    <t xml:space="preserve">189.874710083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">182.845901489258</t>
   </si>
   <si>
     <t xml:space="preserve">177.222839355469</t>
@@ -3311,13 +3311,13 @@
     <t xml:space="preserve">176.301834106445</t>
   </si>
   <si>
-    <t xml:space="preserve">175.817077636719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">169.806243896484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166.60693359375</t>
+    <t xml:space="preserve">175.817092895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">169.806228637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.606918334961</t>
   </si>
   <si>
     <t xml:space="preserve">167.576416015625</t>
@@ -3326,7 +3326,7 @@
     <t xml:space="preserve">164.861846923828</t>
   </si>
   <si>
-    <t xml:space="preserve">165.491989135742</t>
+    <t xml:space="preserve">165.492004394531</t>
   </si>
   <si>
     <t xml:space="preserve">166.849304199219</t>
@@ -3335,7 +3335,7 @@
     <t xml:space="preserve">164.183197021484</t>
   </si>
   <si>
-    <t xml:space="preserve">168.642852783203</t>
+    <t xml:space="preserve">168.642837524414</t>
   </si>
   <si>
     <t xml:space="preserve">173.05403137207</t>
@@ -3344,13 +3344,13 @@
     <t xml:space="preserve">173.441818237305</t>
   </si>
   <si>
-    <t xml:space="preserve">174.605209350586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">173.87809753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175.962509155273</t>
+    <t xml:space="preserve">174.605224609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173.878112792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">175.962493896484</t>
   </si>
   <si>
     <t xml:space="preserve">179.985870361328</t>
@@ -3365,19 +3365,19 @@
     <t xml:space="preserve">185.221130371094</t>
   </si>
   <si>
-    <t xml:space="preserve">185.172653198242</t>
+    <t xml:space="preserve">185.172668457031</t>
   </si>
   <si>
     <t xml:space="preserve">181.634033203125</t>
   </si>
   <si>
-    <t xml:space="preserve">189.486892700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">189.389938354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">191.135009765625</t>
+    <t xml:space="preserve">189.486907958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">189.389953613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191.135025024414</t>
   </si>
   <si>
     <t xml:space="preserve">191.619766235352</t>
@@ -3386,19 +3386,19 @@
     <t xml:space="preserve">188.808258056641</t>
   </si>
   <si>
-    <t xml:space="preserve">187.160110473633</t>
+    <t xml:space="preserve">187.160125732422</t>
   </si>
   <si>
     <t xml:space="preserve">176.931991577148</t>
   </si>
   <si>
-    <t xml:space="preserve">178.483184814453</t>
+    <t xml:space="preserve">178.483169555664</t>
   </si>
   <si>
     <t xml:space="preserve">177.80451965332</t>
   </si>
   <si>
-    <t xml:space="preserve">179.355728149414</t>
+    <t xml:space="preserve">179.355712890625</t>
   </si>
   <si>
     <t xml:space="preserve">182.264190673828</t>
@@ -3413,13 +3413,13 @@
     <t xml:space="preserve">178.143859863281</t>
   </si>
   <si>
-    <t xml:space="preserve">178.870971679688</t>
+    <t xml:space="preserve">178.870956420898</t>
   </si>
   <si>
     <t xml:space="preserve">178.046890258789</t>
   </si>
   <si>
-    <t xml:space="preserve">173.829620361328</t>
+    <t xml:space="preserve">173.829635620117</t>
   </si>
   <si>
     <t xml:space="preserve">172.036056518555</t>
@@ -3437,7 +3437,7 @@
     <t xml:space="preserve">177.319778442383</t>
   </si>
   <si>
-    <t xml:space="preserve">172.47233581543</t>
+    <t xml:space="preserve">172.472320556641</t>
   </si>
   <si>
     <t xml:space="preserve">171.308944702148</t>
@@ -3449,25 +3449,25 @@
     <t xml:space="preserve">169.612335205078</t>
   </si>
   <si>
-    <t xml:space="preserve">172.569290161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">174.508270263672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175.138442993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170.921142578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">174.993026733398</t>
+    <t xml:space="preserve">172.569274902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">174.508255004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">175.138427734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170.921157836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">174.993011474609</t>
   </si>
   <si>
     <t xml:space="preserve">172.714706420898</t>
   </si>
   <si>
-    <t xml:space="preserve">154.003555297852</t>
+    <t xml:space="preserve">154.003540039062</t>
   </si>
   <si>
     <t xml:space="preserve">155.651672363281</t>
@@ -3476,16 +3476,16 @@
     <t xml:space="preserve">155.36083984375</t>
   </si>
   <si>
-    <t xml:space="preserve">156.912033081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156.718124389648</t>
+    <t xml:space="preserve">156.912017822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.718109130859</t>
   </si>
   <si>
     <t xml:space="preserve">161.27473449707</t>
   </si>
   <si>
-    <t xml:space="preserve">159.965911865234</t>
+    <t xml:space="preserve">159.965896606445</t>
   </si>
   <si>
     <t xml:space="preserve">162.341156005859</t>
@@ -3494,22 +3494,22 @@
     <t xml:space="preserve">158.220825195312</t>
   </si>
   <si>
-    <t xml:space="preserve">154.100494384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.60319519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150.077117919922</t>
+    <t xml:space="preserve">154.100479125977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.603210449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150.077102661133</t>
   </si>
   <si>
     <t xml:space="preserve">143.58154296875</t>
   </si>
   <si>
-    <t xml:space="preserve">145.617462158203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149.495422363281</t>
+    <t xml:space="preserve">145.617446899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149.495407104492</t>
   </si>
   <si>
     <t xml:space="preserve">143.193725585938</t>
@@ -3527,19 +3527,19 @@
     <t xml:space="preserve">140.72151184082</t>
   </si>
   <si>
-    <t xml:space="preserve">142.515075683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130.590347290039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128.505950927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130.638824462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130.978134155273</t>
+    <t xml:space="preserve">142.515090942383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.590362548828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128.505935668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.63883972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.978164672852</t>
   </si>
   <si>
     <t xml:space="preserve">132.723220825195</t>
@@ -3548,19 +3548,19 @@
     <t xml:space="preserve">132.820175170898</t>
   </si>
   <si>
-    <t xml:space="preserve">133.692718505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129.330017089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">127.584938049316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.058837890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120.943916320801</t>
+    <t xml:space="preserve">133.69270324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129.330001831055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127.584945678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.05884552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120.943923950195</t>
   </si>
   <si>
     <t xml:space="preserve">123.852394104004</t>
@@ -3572,16 +3572,16 @@
     <t xml:space="preserve">119.441207885742</t>
   </si>
   <si>
-    <t xml:space="preserve">116.096473693848</t>
+    <t xml:space="preserve">116.096466064453</t>
   </si>
   <si>
     <t xml:space="preserve">118.568672180176</t>
   </si>
   <si>
-    <t xml:space="preserve">118.035461425781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.065963745117</t>
+    <t xml:space="preserve">118.035446166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.065956115723</t>
   </si>
   <si>
     <t xml:space="preserve">113.721221923828</t>
@@ -3590,13 +3590,13 @@
     <t xml:space="preserve">113.866645812988</t>
   </si>
   <si>
-    <t xml:space="preserve">117.696136474609</t>
+    <t xml:space="preserve">117.696128845215</t>
   </si>
   <si>
     <t xml:space="preserve">121.671043395996</t>
   </si>
   <si>
-    <t xml:space="preserve">124.676475524902</t>
+    <t xml:space="preserve">124.676467895508</t>
   </si>
   <si>
     <t xml:space="preserve">124.434097290039</t>
@@ -3608,10 +3608,10 @@
     <t xml:space="preserve">128.748321533203</t>
   </si>
   <si>
-    <t xml:space="preserve">125.355110168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124.72492980957</t>
+    <t xml:space="preserve">125.355102539062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.724922180176</t>
   </si>
   <si>
     <t xml:space="preserve">121.62255859375</t>
@@ -3623,22 +3623,22 @@
     <t xml:space="preserve">119.004943847656</t>
   </si>
   <si>
-    <t xml:space="preserve">122.349685668945</t>
+    <t xml:space="preserve">122.349678039551</t>
   </si>
   <si>
     <t xml:space="preserve">117.017486572266</t>
   </si>
   <si>
-    <t xml:space="preserve">119.101890563965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.416122436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.401870727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.98356628418</t>
+    <t xml:space="preserve">119.101898193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.416130065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.401885986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.983551025391</t>
   </si>
   <si>
     <t xml:space="preserve">128.312057495117</t>
@@ -3647,16 +3647,16 @@
     <t xml:space="preserve">128.215087890625</t>
   </si>
   <si>
-    <t xml:space="preserve">126.857818603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125.791381835938</t>
+    <t xml:space="preserve">126.85782623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.791366577148</t>
   </si>
   <si>
     <t xml:space="preserve">127.051719665527</t>
   </si>
   <si>
-    <t xml:space="preserve">135.534759521484</t>
+    <t xml:space="preserve">135.534744262695</t>
   </si>
   <si>
     <t xml:space="preserve">137.473739624023</t>
@@ -3674,25 +3674,25 @@
     <t xml:space="preserve">143.920837402344</t>
   </si>
   <si>
-    <t xml:space="preserve">140.818466186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137.910018920898</t>
+    <t xml:space="preserve">140.818481445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137.910003662109</t>
   </si>
   <si>
     <t xml:space="preserve">136.988998413086</t>
   </si>
   <si>
-    <t xml:space="preserve">134.322906494141</t>
+    <t xml:space="preserve">134.322891235352</t>
   </si>
   <si>
     <t xml:space="preserve">130.687301635742</t>
   </si>
   <si>
-    <t xml:space="preserve">130.735778808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130.202545166016</t>
+    <t xml:space="preserve">130.735794067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.202560424805</t>
   </si>
   <si>
     <t xml:space="preserve">130.05712890625</t>
@@ -3701,16 +3701,16 @@
     <t xml:space="preserve">128.069686889648</t>
   </si>
   <si>
-    <t xml:space="preserve">126.130699157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.543579101562</t>
+    <t xml:space="preserve">126.130706787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.543586730957</t>
   </si>
   <si>
     <t xml:space="preserve">120.216804504395</t>
   </si>
   <si>
-    <t xml:space="preserve">116.72664642334</t>
+    <t xml:space="preserve">116.726638793945</t>
   </si>
   <si>
     <t xml:space="preserve">120.168327331543</t>
@@ -3722,16 +3722,16 @@
     <t xml:space="preserve">119.683586120605</t>
   </si>
   <si>
-    <t xml:space="preserve">119.150367736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.854103088379</t>
+    <t xml:space="preserve">119.150375366211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.854095458984</t>
   </si>
   <si>
     <t xml:space="preserve">116.290367126465</t>
   </si>
   <si>
-    <t xml:space="preserve">116.969009399414</t>
+    <t xml:space="preserve">116.969017028809</t>
   </si>
   <si>
     <t xml:space="preserve">110.667327880859</t>
@@ -3749,13 +3749,13 @@
     <t xml:space="preserve">115.466300964355</t>
   </si>
   <si>
-    <t xml:space="preserve">116.338844299316</t>
+    <t xml:space="preserve">116.338836669922</t>
   </si>
   <si>
     <t xml:space="preserve">114.884605407715</t>
   </si>
   <si>
-    <t xml:space="preserve">111.976142883301</t>
+    <t xml:space="preserve">111.976135253906</t>
   </si>
   <si>
     <t xml:space="preserve">114.496810913086</t>
@@ -19805,7 +19805,7 @@
         <v>67.4499969482422</v>
       </c>
       <c r="G553" t="s">
-        <v>246</v>
+        <v>380</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -19831,7 +19831,7 @@
         <v>66.4000015258789</v>
       </c>
       <c r="G554" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -19857,7 +19857,7 @@
         <v>66.0999984741211</v>
       </c>
       <c r="G555" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -19883,7 +19883,7 @@
         <v>67.3499984741211</v>
       </c>
       <c r="G556" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -19909,7 +19909,7 @@
         <v>68.4000015258789</v>
       </c>
       <c r="G557" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -19935,7 +19935,7 @@
         <v>70.5999984741211</v>
       </c>
       <c r="G558" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -19987,7 +19987,7 @@
         <v>74.75</v>
       </c>
       <c r="G560" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -20013,7 +20013,7 @@
         <v>73.8499984741211</v>
       </c>
       <c r="G561" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -20117,7 +20117,7 @@
         <v>72.1999969482422</v>
       </c>
       <c r="G565" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -20143,7 +20143,7 @@
         <v>71.8000030517578</v>
       </c>
       <c r="G566" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -20221,7 +20221,7 @@
         <v>72.6500015258789</v>
       </c>
       <c r="G569" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -20299,7 +20299,7 @@
         <v>72.6500015258789</v>
       </c>
       <c r="G572" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -20429,7 +20429,7 @@
         <v>72.25</v>
       </c>
       <c r="G577" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -20455,7 +20455,7 @@
         <v>73.8499984741211</v>
       </c>
       <c r="G578" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -20559,7 +20559,7 @@
         <v>73.5</v>
       </c>
       <c r="G582" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -20585,7 +20585,7 @@
         <v>73.5</v>
       </c>
       <c r="G583" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -20637,7 +20637,7 @@
         <v>75.5500030517578</v>
       </c>
       <c r="G585" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -20663,7 +20663,7 @@
         <v>77.5999984741211</v>
       </c>
       <c r="G586" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -20689,7 +20689,7 @@
         <v>74.75</v>
       </c>
       <c r="G587" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -20741,7 +20741,7 @@
         <v>76.1999969482422</v>
       </c>
       <c r="G589" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -20793,7 +20793,7 @@
         <v>77.3000030517578</v>
       </c>
       <c r="G591" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -20819,7 +20819,7 @@
         <v>78.1500015258789</v>
       </c>
       <c r="G592" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -20897,7 +20897,7 @@
         <v>78.6999969482422</v>
       </c>
       <c r="G595" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -20949,7 +20949,7 @@
         <v>78.6500015258789</v>
       </c>
       <c r="G597" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -21027,7 +21027,7 @@
         <v>80.4000015258789</v>
       </c>
       <c r="G600" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -21053,7 +21053,7 @@
         <v>81.5500030517578</v>
       </c>
       <c r="G601" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -21079,7 +21079,7 @@
         <v>80.1999969482422</v>
       </c>
       <c r="G602" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -21105,7 +21105,7 @@
         <v>81.3000030517578</v>
       </c>
       <c r="G603" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -21131,7 +21131,7 @@
         <v>81</v>
       </c>
       <c r="G604" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -21157,7 +21157,7 @@
         <v>81.1999969482422</v>
       </c>
       <c r="G605" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -21183,7 +21183,7 @@
         <v>82.6500015258789</v>
       </c>
       <c r="G606" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -21209,7 +21209,7 @@
         <v>81.4000015258789</v>
       </c>
       <c r="G607" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -21235,7 +21235,7 @@
         <v>81.25</v>
       </c>
       <c r="G608" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -21261,7 +21261,7 @@
         <v>81.9000015258789</v>
       </c>
       <c r="G609" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -21287,7 +21287,7 @@
         <v>80.6999969482422</v>
       </c>
       <c r="G610" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -21313,7 +21313,7 @@
         <v>82.0500030517578</v>
       </c>
       <c r="G611" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -21339,7 +21339,7 @@
         <v>84.1500015258789</v>
       </c>
       <c r="G612" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -21365,7 +21365,7 @@
         <v>83</v>
       </c>
       <c r="G613" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -21391,7 +21391,7 @@
         <v>81.1999969482422</v>
       </c>
       <c r="G614" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -21417,7 +21417,7 @@
         <v>84.5999984741211</v>
       </c>
       <c r="G615" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -21443,7 +21443,7 @@
         <v>82.5999984741211</v>
       </c>
       <c r="G616" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -21469,7 +21469,7 @@
         <v>85.5</v>
       </c>
       <c r="G617" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -21495,7 +21495,7 @@
         <v>87.5</v>
       </c>
       <c r="G618" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -21521,7 +21521,7 @@
         <v>88.25</v>
       </c>
       <c r="G619" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -21547,7 +21547,7 @@
         <v>88</v>
       </c>
       <c r="G620" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -21573,7 +21573,7 @@
         <v>88.4000015258789</v>
       </c>
       <c r="G621" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -21599,7 +21599,7 @@
         <v>87.9000015258789</v>
       </c>
       <c r="G622" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -21625,7 +21625,7 @@
         <v>88.9499969482422</v>
       </c>
       <c r="G623" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -21651,7 +21651,7 @@
         <v>91</v>
       </c>
       <c r="G624" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -21677,7 +21677,7 @@
         <v>92.4000015258789</v>
       </c>
       <c r="G625" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -21703,7 +21703,7 @@
         <v>93.3499984741211</v>
       </c>
       <c r="G626" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -21729,7 +21729,7 @@
         <v>93</v>
       </c>
       <c r="G627" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -21755,7 +21755,7 @@
         <v>92.3000030517578</v>
       </c>
       <c r="G628" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -21781,7 +21781,7 @@
         <v>90.9499969482422</v>
       </c>
       <c r="G629" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -21807,7 +21807,7 @@
         <v>89.5</v>
       </c>
       <c r="G630" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -21833,7 +21833,7 @@
         <v>89.1500015258789</v>
       </c>
       <c r="G631" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -21859,7 +21859,7 @@
         <v>96</v>
       </c>
       <c r="G632" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -21885,7 +21885,7 @@
         <v>95.0500030517578</v>
       </c>
       <c r="G633" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -21911,7 +21911,7 @@
         <v>95.6999969482422</v>
       </c>
       <c r="G634" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -21937,7 +21937,7 @@
         <v>97.3000030517578</v>
       </c>
       <c r="G635" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -21963,7 +21963,7 @@
         <v>96.3499984741211</v>
       </c>
       <c r="G636" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -21989,7 +21989,7 @@
         <v>97.6999969482422</v>
       </c>
       <c r="G637" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -22015,7 +22015,7 @@
         <v>96.3000030517578</v>
       </c>
       <c r="G638" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -22041,7 +22041,7 @@
         <v>97.5</v>
       </c>
       <c r="G639" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -22067,7 +22067,7 @@
         <v>96.4000015258789</v>
       </c>
       <c r="G640" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -22093,7 +22093,7 @@
         <v>95.5500030517578</v>
       </c>
       <c r="G641" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -22119,7 +22119,7 @@
         <v>96</v>
       </c>
       <c r="G642" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -22145,7 +22145,7 @@
         <v>95.8000030517578</v>
       </c>
       <c r="G643" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -22171,7 +22171,7 @@
         <v>95.9000015258789</v>
       </c>
       <c r="G644" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -22197,7 +22197,7 @@
         <v>96.1500015258789</v>
       </c>
       <c r="G645" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -22223,7 +22223,7 @@
         <v>98.1999969482422</v>
       </c>
       <c r="G646" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -22249,7 +22249,7 @@
         <v>97.6500015258789</v>
       </c>
       <c r="G647" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -22275,7 +22275,7 @@
         <v>97.9000015258789</v>
       </c>
       <c r="G648" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -22301,7 +22301,7 @@
         <v>96.5</v>
       </c>
       <c r="G649" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -22327,7 +22327,7 @@
         <v>95.9499969482422</v>
       </c>
       <c r="G650" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -22353,7 +22353,7 @@
         <v>96.75</v>
       </c>
       <c r="G651" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -22379,7 +22379,7 @@
         <v>96.4000015258789</v>
       </c>
       <c r="G652" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -22405,7 +22405,7 @@
         <v>94.5</v>
       </c>
       <c r="G653" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -22431,7 +22431,7 @@
         <v>94</v>
       </c>
       <c r="G654" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -22457,7 +22457,7 @@
         <v>94.3499984741211</v>
       </c>
       <c r="G655" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -22483,7 +22483,7 @@
         <v>92.4499969482422</v>
       </c>
       <c r="G656" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -22509,7 +22509,7 @@
         <v>93</v>
       </c>
       <c r="G657" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -22535,7 +22535,7 @@
         <v>92.5</v>
       </c>
       <c r="G658" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -22561,7 +22561,7 @@
         <v>91.8000030517578</v>
       </c>
       <c r="G659" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -22587,7 +22587,7 @@
         <v>93</v>
       </c>
       <c r="G660" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -22613,7 +22613,7 @@
         <v>85.0500030517578</v>
       </c>
       <c r="G661" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -22639,7 +22639,7 @@
         <v>87.3499984741211</v>
       </c>
       <c r="G662" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -22665,7 +22665,7 @@
         <v>87.5</v>
       </c>
       <c r="G663" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -22691,7 +22691,7 @@
         <v>88.75</v>
       </c>
       <c r="G664" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -22717,7 +22717,7 @@
         <v>87.8499984741211</v>
       </c>
       <c r="G665" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -22743,7 +22743,7 @@
         <v>88.0999984741211</v>
       </c>
       <c r="G666" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -22769,7 +22769,7 @@
         <v>87.8499984741211</v>
       </c>
       <c r="G667" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -22795,7 +22795,7 @@
         <v>86.9000015258789</v>
       </c>
       <c r="G668" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -22821,7 +22821,7 @@
         <v>88.1500015258789</v>
       </c>
       <c r="G669" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -22847,7 +22847,7 @@
         <v>86.5500030517578</v>
       </c>
       <c r="G670" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -22873,7 +22873,7 @@
         <v>86.8499984741211</v>
       </c>
       <c r="G671" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -22899,7 +22899,7 @@
         <v>93.1999969482422</v>
       </c>
       <c r="G672" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -22925,7 +22925,7 @@
         <v>93.75</v>
       </c>
       <c r="G673" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -22951,7 +22951,7 @@
         <v>91.5</v>
       </c>
       <c r="G674" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -22977,7 +22977,7 @@
         <v>91.8499984741211</v>
       </c>
       <c r="G675" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -23003,7 +23003,7 @@
         <v>91.5999984741211</v>
       </c>
       <c r="G676" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -23029,7 +23029,7 @@
         <v>91.1500015258789</v>
       </c>
       <c r="G677" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -23055,7 +23055,7 @@
         <v>91.6999969482422</v>
       </c>
       <c r="G678" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -23081,7 +23081,7 @@
         <v>92.9000015258789</v>
       </c>
       <c r="G679" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -23107,7 +23107,7 @@
         <v>93.8000030517578</v>
       </c>
       <c r="G680" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -23133,7 +23133,7 @@
         <v>93.8000030517578</v>
       </c>
       <c r="G681" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -23159,7 +23159,7 @@
         <v>92.4499969482422</v>
       </c>
       <c r="G682" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -23185,7 +23185,7 @@
         <v>92.3499984741211</v>
       </c>
       <c r="G683" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -23211,7 +23211,7 @@
         <v>89.4000015258789</v>
       </c>
       <c r="G684" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -23237,7 +23237,7 @@
         <v>89.6999969482422</v>
       </c>
       <c r="G685" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -23263,7 +23263,7 @@
         <v>87.9000015258789</v>
       </c>
       <c r="G686" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -23289,7 +23289,7 @@
         <v>88.9499969482422</v>
       </c>
       <c r="G687" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -23315,7 +23315,7 @@
         <v>88.4000015258789</v>
       </c>
       <c r="G688" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -23341,7 +23341,7 @@
         <v>88.6999969482422</v>
       </c>
       <c r="G689" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -23367,7 +23367,7 @@
         <v>89.5</v>
       </c>
       <c r="G690" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -23393,7 +23393,7 @@
         <v>89</v>
       </c>
       <c r="G691" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -23419,7 +23419,7 @@
         <v>90.6999969482422</v>
       </c>
       <c r="G692" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -23445,7 +23445,7 @@
         <v>93.75</v>
       </c>
       <c r="G693" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -23471,7 +23471,7 @@
         <v>95.8499984741211</v>
       </c>
       <c r="G694" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -23497,7 +23497,7 @@
         <v>97.1999969482422</v>
       </c>
       <c r="G695" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -23523,7 +23523,7 @@
         <v>92.25</v>
       </c>
       <c r="G696" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -23549,7 +23549,7 @@
         <v>91.5</v>
       </c>
       <c r="G697" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -23575,7 +23575,7 @@
         <v>93.0999984741211</v>
       </c>
       <c r="G698" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -23601,7 +23601,7 @@
         <v>92.9499969482422</v>
       </c>
       <c r="G699" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -23627,7 +23627,7 @@
         <v>91</v>
       </c>
       <c r="G700" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -23653,7 +23653,7 @@
         <v>90.5999984741211</v>
       </c>
       <c r="G701" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -23679,7 +23679,7 @@
         <v>91.3000030517578</v>
       </c>
       <c r="G702" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -23705,7 +23705,7 @@
         <v>91</v>
       </c>
       <c r="G703" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -23731,7 +23731,7 @@
         <v>90.5999984741211</v>
       </c>
       <c r="G704" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -23757,7 +23757,7 @@
         <v>89.1999969482422</v>
       </c>
       <c r="G705" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -23783,7 +23783,7 @@
         <v>86.8000030517578</v>
       </c>
       <c r="G706" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -23809,7 +23809,7 @@
         <v>82.3000030517578</v>
       </c>
       <c r="G707" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -23835,7 +23835,7 @@
         <v>81.5</v>
       </c>
       <c r="G708" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -23861,7 +23861,7 @@
         <v>80.3000030517578</v>
       </c>
       <c r="G709" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -23887,7 +23887,7 @@
         <v>79.6999969482422</v>
       </c>
       <c r="G710" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -23913,7 +23913,7 @@
         <v>81.9499969482422</v>
       </c>
       <c r="G711" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -23939,7 +23939,7 @@
         <v>79.5</v>
       </c>
       <c r="G712" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -23965,7 +23965,7 @@
         <v>79.8499984741211</v>
       </c>
       <c r="G713" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -23991,7 +23991,7 @@
         <v>81.5999984741211</v>
       </c>
       <c r="G714" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -24017,7 +24017,7 @@
         <v>82</v>
       </c>
       <c r="G715" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -24043,7 +24043,7 @@
         <v>82.4000015258789</v>
       </c>
       <c r="G716" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -24069,7 +24069,7 @@
         <v>83.6999969482422</v>
       </c>
       <c r="G717" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -24095,7 +24095,7 @@
         <v>79.75</v>
       </c>
       <c r="G718" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -24121,7 +24121,7 @@
         <v>80.5500030517578</v>
       </c>
       <c r="G719" t="s">
-        <v>501</v>
+        <v>407</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -24277,7 +24277,7 @@
         <v>86.9000015258789</v>
       </c>
       <c r="G725" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -24303,7 +24303,7 @@
         <v>86.5500030517578</v>
       </c>
       <c r="G726" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -24355,7 +24355,7 @@
         <v>86.8499984741211</v>
       </c>
       <c r="G728" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -24381,7 +24381,7 @@
         <v>81.5999984741211</v>
       </c>
       <c r="G729" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -24485,7 +24485,7 @@
         <v>82.3000030517578</v>
       </c>
       <c r="G733" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -24511,7 +24511,7 @@
         <v>81.5999984741211</v>
       </c>
       <c r="G734" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -24563,7 +24563,7 @@
         <v>81.1999969482422</v>
       </c>
       <c r="G736" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>

--- a/data/DIA.MI.xlsx
+++ b/data/DIA.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="1694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="1695">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0384101867676</t>
+    <t xml:space="preserve">43.0384178161621</t>
   </si>
   <si>
     <t xml:space="preserve">DIA.MI</t>
@@ -47,37 +47,37 @@
     <t xml:space="preserve">43.8512992858887</t>
   </si>
   <si>
-    <t xml:space="preserve">43.5922431945801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.4761161804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3689346313477</t>
+    <t xml:space="preserve">43.5922508239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.4761238098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3689270019531</t>
   </si>
   <si>
     <t xml:space="preserve">42.6900329589844</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0116195678711</t>
+    <t xml:space="preserve">43.0116157531738</t>
   </si>
   <si>
     <t xml:space="preserve">42.2612571716309</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8146133422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5104179382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.7779273986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.563060760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.3218727111816</t>
+    <t xml:space="preserve">41.8146171569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5104217529297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.7779235839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5630531311035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.3218803405762</t>
   </si>
   <si>
     <t xml:space="preserve">38.1253547668457</t>
@@ -89,52 +89,52 @@
     <t xml:space="preserve">40.7694702148438</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7878150939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5917663574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8950080871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3242607116699</t>
+    <t xml:space="preserve">41.7878189086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5917739868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8950119018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3242645263672</t>
   </si>
   <si>
     <t xml:space="preserve">43.6190528869629</t>
   </si>
   <si>
-    <t xml:space="preserve">43.5475883483887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.4131164550781</t>
+    <t xml:space="preserve">43.5475807189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.4131126403809</t>
   </si>
   <si>
     <t xml:space="preserve">41.7610206604004</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9208526611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2414855957031</t>
+    <t xml:space="preserve">39.9208564758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2414817810059</t>
   </si>
   <si>
     <t xml:space="preserve">38.5005302429199</t>
   </si>
   <si>
-    <t xml:space="preserve">39.081169128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.0990295410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8935775756836</t>
+    <t xml:space="preserve">39.0811653137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.0990333557129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8935813903809</t>
   </si>
   <si>
     <t xml:space="preserve">40.6354789733887</t>
   </si>
   <si>
-    <t xml:space="preserve">40.9123954772949</t>
+    <t xml:space="preserve">40.9123916625977</t>
   </si>
   <si>
     <t xml:space="preserve">41.0106582641602</t>
@@ -143,22 +143,22 @@
     <t xml:space="preserve">41.9307403564453</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0920143127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.4756507873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1366806030273</t>
+    <t xml:space="preserve">43.0920104980469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.4756469726562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1366691589355</t>
   </si>
   <si>
     <t xml:space="preserve">43.7619743347168</t>
   </si>
   <si>
-    <t xml:space="preserve">43.4493293762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.7798385620117</t>
+    <t xml:space="preserve">43.4493255615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.779842376709</t>
   </si>
   <si>
     <t xml:space="preserve">43.1009483337402</t>
@@ -170,37 +170,37 @@
     <t xml:space="preserve">43.1902732849121</t>
   </si>
   <si>
-    <t xml:space="preserve">43.252799987793</t>
+    <t xml:space="preserve">43.2527961730957</t>
   </si>
   <si>
     <t xml:space="preserve">43.3064002990723</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2786445617676</t>
+    <t xml:space="preserve">41.278636932373</t>
   </si>
   <si>
     <t xml:space="preserve">40.8677368164062</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5193519592285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6895561218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0910530090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6712112426758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1263084411621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6265525817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8052024841309</t>
+    <t xml:space="preserve">40.5193557739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6895523071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0910606384277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6712074279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1263122558594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6265487670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8051986694336</t>
   </si>
   <si>
     <t xml:space="preserve">40.3496246337891</t>
@@ -215,19 +215,19 @@
     <t xml:space="preserve">44.664192199707</t>
   </si>
   <si>
-    <t xml:space="preserve">45.3341522216797</t>
+    <t xml:space="preserve">45.3341484069824</t>
   </si>
   <si>
     <t xml:space="preserve">45.8701210021973</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4507637023926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.9594535827637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.2720985412598</t>
+    <t xml:space="preserve">46.4507522583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.9594497680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.2721061706543</t>
   </si>
   <si>
     <t xml:space="preserve">47.4333686828613</t>
@@ -236,31 +236,31 @@
     <t xml:space="preserve">46.4954223632812</t>
   </si>
   <si>
-    <t xml:space="preserve">46.0041122436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.7807998657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4681510925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.5128173828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.9147872924805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.3788185119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2894897460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.8254585266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.5574722290039</t>
+    <t xml:space="preserve">46.0041160583496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.7807960510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4681434631348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.5128135681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.9147911071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.3788108825684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2894859313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.8254547119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.5574760437012</t>
   </si>
   <si>
     <t xml:space="preserve">45.4234809875488</t>
@@ -269,118 +269,118 @@
     <t xml:space="preserve">46.3614273071289</t>
   </si>
   <si>
-    <t xml:space="preserve">46.2274360656738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.4060974121094</t>
+    <t xml:space="preserve">46.2274322509766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.4060935974121</t>
   </si>
   <si>
     <t xml:space="preserve">46.8973999023438</t>
   </si>
   <si>
-    <t xml:space="preserve">46.7634048461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8527450561523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.2100524902344</t>
+    <t xml:space="preserve">46.7634124755859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8527374267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.2100486755371</t>
   </si>
   <si>
     <t xml:space="preserve">46.6740837097168</t>
   </si>
   <si>
-    <t xml:space="preserve">46.5847549438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.0285720825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.1190299987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.7120094299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.5260467529297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7973976135254</t>
+    <t xml:space="preserve">46.5847473144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.0285758972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.119026184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.7120056152344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.526050567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.7973937988281</t>
   </si>
   <si>
     <t xml:space="preserve">49.7471160888672</t>
   </si>
   <si>
-    <t xml:space="preserve">49.204418182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.1993598937988</t>
+    <t xml:space="preserve">49.2044219970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.1993560791016</t>
   </si>
   <si>
     <t xml:space="preserve">50.2898063659668</t>
   </si>
   <si>
-    <t xml:space="preserve">50.8777275085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.7018928527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.6063842773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.7923431396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.3350372314453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.6114387512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.1642532348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.3451499938965</t>
+    <t xml:space="preserve">50.8777313232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.7018966674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.6063804626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.7923393249512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.335033416748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.6114349365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.164249420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.3451538085938</t>
   </si>
   <si>
     <t xml:space="preserve">47.2145309448242</t>
   </si>
   <si>
-    <t xml:space="preserve">47.5311050415039</t>
+    <t xml:space="preserve">47.5311012268066</t>
   </si>
   <si>
     <t xml:space="preserve">48.7069473266602</t>
   </si>
   <si>
-    <t xml:space="preserve">49.9732398986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.7622909545898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.5864486694336</t>
+    <t xml:space="preserve">49.9732284545898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.7622871398926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.5864448547363</t>
   </si>
   <si>
     <t xml:space="preserve">46.6266098022461</t>
   </si>
   <si>
-    <t xml:space="preserve">49.52099609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.380256652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.0586318969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7521743774414</t>
+    <t xml:space="preserve">49.5209846496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.3802604675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.0586280822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.7521705627441</t>
   </si>
   <si>
     <t xml:space="preserve">49.5662117004395</t>
   </si>
   <si>
-    <t xml:space="preserve">50.4707069396973</t>
+    <t xml:space="preserve">50.4707107543945</t>
   </si>
   <si>
     <t xml:space="preserve">49.656665802002</t>
@@ -392,121 +392,121 @@
     <t xml:space="preserve">51.872673034668</t>
   </si>
   <si>
-    <t xml:space="preserve">51.917896270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.6013221740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.5108757019043</t>
+    <t xml:space="preserve">51.9178924560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.6013259887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.5108680725098</t>
   </si>
   <si>
     <t xml:space="preserve">52.2344665527344</t>
   </si>
   <si>
-    <t xml:space="preserve">52.4605941772461</t>
+    <t xml:space="preserve">52.4605903625488</t>
   </si>
   <si>
     <t xml:space="preserve">51.6465492248535</t>
   </si>
   <si>
-    <t xml:space="preserve">51.4204292297363</t>
+    <t xml:space="preserve">51.4204216003418</t>
   </si>
   <si>
     <t xml:space="preserve">50.9229545593262</t>
   </si>
   <si>
-    <t xml:space="preserve">50.696834564209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.5159378051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.8325042724609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.2796897888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.2695693969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.7721099853516</t>
+    <t xml:space="preserve">50.6968269348145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.515926361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.8325080871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.2796974182129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.2695808410645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.7721061706543</t>
   </si>
   <si>
     <t xml:space="preserve">54.8575057983398</t>
   </si>
   <si>
-    <t xml:space="preserve">55.0383987426758</t>
+    <t xml:space="preserve">55.0383911132812</t>
   </si>
   <si>
     <t xml:space="preserve">56.0785636901855</t>
   </si>
   <si>
-    <t xml:space="preserve">54.8122711181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.7319374084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.3249168395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.3299751281738</t>
+    <t xml:space="preserve">54.8122749328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.7319412231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.3249206542969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.3299713134766</t>
   </si>
   <si>
     <t xml:space="preserve">52.0535697937012</t>
   </si>
   <si>
-    <t xml:space="preserve">51.2847480773926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.9128379821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.4153671264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0988006591797</t>
+    <t xml:space="preserve">51.2847557067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.912841796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.4153709411621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0987930297852</t>
   </si>
   <si>
     <t xml:space="preserve">52.0083427429199</t>
   </si>
   <si>
-    <t xml:space="preserve">52.5510444641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.737003326416</t>
+    <t xml:space="preserve">52.5510368347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.7369995117188</t>
   </si>
   <si>
     <t xml:space="preserve">51.1038513183594</t>
   </si>
   <si>
-    <t xml:space="preserve">50.1089096069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.9280052185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.6414947509766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.1841888427734</t>
+    <t xml:space="preserve">50.1089172363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.9280128479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.641487121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.1841812133789</t>
   </si>
   <si>
     <t xml:space="preserve">53.3650817871094</t>
   </si>
   <si>
-    <t xml:space="preserve">52.1892471313477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.003288269043</t>
+    <t xml:space="preserve">52.1892433166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.0032844543457</t>
   </si>
   <si>
     <t xml:space="preserve">53.2746391296387</t>
   </si>
   <si>
-    <t xml:space="preserve">52.9580612182617</t>
+    <t xml:space="preserve">52.958065032959</t>
   </si>
   <si>
     <t xml:space="preserve">53.8625564575195</t>
@@ -518,7 +518,7 @@
     <t xml:space="preserve">51.8274459838867</t>
   </si>
   <si>
-    <t xml:space="preserve">51.3751983642578</t>
+    <t xml:space="preserve">51.3752021789551</t>
   </si>
   <si>
     <t xml:space="preserve">50.787281036377</t>
@@ -530,16 +530,16 @@
     <t xml:space="preserve">50.6516036987305</t>
   </si>
   <si>
-    <t xml:space="preserve">49.3400955200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.2546997070312</t>
+    <t xml:space="preserve">49.3400917053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.2547035217285</t>
   </si>
   <si>
     <t xml:space="preserve">48.4355964660645</t>
   </si>
   <si>
-    <t xml:space="preserve">45.9030227661133</t>
+    <t xml:space="preserve">45.9030151367188</t>
   </si>
   <si>
     <t xml:space="preserve">46.3100395202637</t>
@@ -554,28 +554,28 @@
     <t xml:space="preserve">47.2597618103027</t>
   </si>
   <si>
-    <t xml:space="preserve">46.8527336120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.3552665710449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.7170677185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.1693077087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.033634185791</t>
+    <t xml:space="preserve">46.8527412414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.3552627563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.7170639038086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.1693115234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.0336303710938</t>
   </si>
   <si>
     <t xml:space="preserve">46.5813865661621</t>
   </si>
   <si>
-    <t xml:space="preserve">46.0386962890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.2648239135742</t>
+    <t xml:space="preserve">46.0386924743652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.264820098877</t>
   </si>
   <si>
     <t xml:space="preserve">47.124080657959</t>
@@ -584,7 +584,7 @@
     <t xml:space="preserve">46.8979606628418</t>
   </si>
   <si>
-    <t xml:space="preserve">47.8476753234863</t>
+    <t xml:space="preserve">47.8476829528809</t>
   </si>
   <si>
     <t xml:space="preserve">48.073802947998</t>
@@ -599,19 +599,19 @@
     <t xml:space="preserve">52.822395324707</t>
   </si>
   <si>
-    <t xml:space="preserve">51.1490821838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.4757652282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.2445869445801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.465648651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.7822227478027</t>
+    <t xml:space="preserve">51.1490745544434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.4757614135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.2445831298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.4656524658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.7822265625</t>
   </si>
   <si>
     <t xml:space="preserve">52.8676147460938</t>
@@ -623,7 +623,7 @@
     <t xml:space="preserve">54.0434532165527</t>
   </si>
   <si>
-    <t xml:space="preserve">54.088680267334</t>
+    <t xml:space="preserve">54.0886726379395</t>
   </si>
   <si>
     <t xml:space="preserve">54.1339073181152</t>
@@ -635,19 +635,19 @@
     <t xml:space="preserve">53.5912055969238</t>
   </si>
   <si>
-    <t xml:space="preserve">53.953010559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.5409278869629</t>
+    <t xml:space="preserve">53.9530067443848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.5409240722656</t>
   </si>
   <si>
     <t xml:space="preserve">55.4906425476074</t>
   </si>
   <si>
-    <t xml:space="preserve">56.3046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.0333442687988</t>
+    <t xml:space="preserve">56.3046913146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.033332824707</t>
   </si>
   <si>
     <t xml:space="preserve">56.214241027832</t>
@@ -662,82 +662,82 @@
     <t xml:space="preserve">56.349910736084</t>
   </si>
   <si>
-    <t xml:space="preserve">57.5257453918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2544059753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.7066497802734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.7971038818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.1589050292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.0684394836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.7920455932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.6513061523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.7869911193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.5156440734863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.837272644043</t>
+    <t xml:space="preserve">57.5257530212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2544021606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.7066535949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.7971000671387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.1589012145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.0684432983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.7920417785645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.6513137817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.7869834899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.5156402587891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.8372688293457</t>
   </si>
   <si>
     <t xml:space="preserve">57.8875503540039</t>
   </si>
   <si>
-    <t xml:space="preserve">58.1136741638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.3347434997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.7819213867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.6965408325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.0583343505859</t>
+    <t xml:space="preserve">58.1136779785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.3347396850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.7819290161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.6965293884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.0583305358887</t>
   </si>
   <si>
     <t xml:space="preserve">61.0532722473145</t>
   </si>
   <si>
-    <t xml:space="preserve">62.2291297912598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.2190017700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.952709197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.410026550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.6813621520996</t>
+    <t xml:space="preserve">62.2291145324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.2190093994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.9527053833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.4100189208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.6813697814941</t>
   </si>
   <si>
     <t xml:space="preserve">63.6310768127441</t>
   </si>
   <si>
-    <t xml:space="preserve">63.4953994750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.178825378418</t>
+    <t xml:space="preserve">63.4954071044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.1788444519043</t>
   </si>
   <si>
     <t xml:space="preserve">63.5406341552734</t>
@@ -755,34 +755,34 @@
     <t xml:space="preserve">61.7316474914551</t>
   </si>
   <si>
-    <t xml:space="preserve">62.4638252258301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.7383918762207</t>
+    <t xml:space="preserve">62.4638214111328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.738395690918</t>
   </si>
   <si>
     <t xml:space="preserve">62.8756675720215</t>
   </si>
   <si>
-    <t xml:space="preserve">63.1044692993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.3332710266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.2807884216309</t>
+    <t xml:space="preserve">63.1044845581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.3332748413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.2807807922363</t>
   </si>
   <si>
     <t xml:space="preserve">64.2484970092773</t>
   </si>
   <si>
-    <t xml:space="preserve">64.56884765625</t>
+    <t xml:space="preserve">64.5688323974609</t>
   </si>
   <si>
     <t xml:space="preserve">64.2942657470703</t>
   </si>
   <si>
-    <t xml:space="preserve">65.3925247192383</t>
+    <t xml:space="preserve">65.3925323486328</t>
   </si>
   <si>
     <t xml:space="preserve">64.88916015625</t>
@@ -794,19 +794,19 @@
     <t xml:space="preserve">66.353515625</t>
   </si>
   <si>
-    <t xml:space="preserve">63.973934173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.8366546630859</t>
+    <t xml:space="preserve">63.9739379882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.8366470336914</t>
   </si>
   <si>
     <t xml:space="preserve">65.3467636108398</t>
   </si>
   <si>
-    <t xml:space="preserve">64.7061080932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.255256652832</t>
+    <t xml:space="preserve">64.7061157226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.255241394043</t>
   </si>
   <si>
     <t xml:space="preserve">65.1179656982422</t>
@@ -818,73 +818,73 @@
     <t xml:space="preserve">66.5365600585938</t>
   </si>
   <si>
-    <t xml:space="preserve">61.8689346313477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.4045791625977</t>
+    <t xml:space="preserve">61.8689231872559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.4045677185059</t>
   </si>
   <si>
     <t xml:space="preserve">61.5485992431641</t>
   </si>
   <si>
-    <t xml:space="preserve">60.9537124633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.5943641662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.3197937011719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.4503440856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.411319732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.2350196838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.1960067749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.0196838378906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.3857803344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.2027435302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.928165435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.0857009887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.6348190307617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.8568801879883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.3602523803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.1772003173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.8111114501953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.7196044921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.4450302124023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.8501281738281</t>
+    <t xml:space="preserve">60.9537048339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.594367980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.3197975158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.4503364562988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.4113273620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.2350273132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.1959953308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.0196914672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.3857879638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.2027359008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.9281806945801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.0856857299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.6348114013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.8568878173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.3602600097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.1772155761719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.8111267089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.719596862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.4450378417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.8501434326172</t>
   </si>
   <si>
     <t xml:space="preserve">66.0331802368164</t>
@@ -893,7 +893,7 @@
     <t xml:space="preserve">65.5755767822266</t>
   </si>
   <si>
-    <t xml:space="preserve">65.621337890625</t>
+    <t xml:space="preserve">65.6213302612305</t>
   </si>
   <si>
     <t xml:space="preserve">65.4840545654297</t>
@@ -905,10 +905,10 @@
     <t xml:space="preserve">64.7976379394531</t>
   </si>
   <si>
-    <t xml:space="preserve">64.1112213134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.2619781494141</t>
+    <t xml:space="preserve">64.1112289428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.2619934082031</t>
   </si>
   <si>
     <t xml:space="preserve">66.307746887207</t>
@@ -926,82 +926,82 @@
     <t xml:space="preserve">67.7263412475586</t>
   </si>
   <si>
-    <t xml:space="preserve">66.9026489257812</t>
+    <t xml:space="preserve">66.9026260375977</t>
   </si>
   <si>
     <t xml:space="preserve">67.2229690551758</t>
   </si>
   <si>
-    <t xml:space="preserve">67.9551544189453</t>
+    <t xml:space="preserve">67.9551467895508</t>
   </si>
   <si>
     <t xml:space="preserve">67.5432968139648</t>
   </si>
   <si>
-    <t xml:space="preserve">68.2754669189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.4194946289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.0076522827148</t>
+    <t xml:space="preserve">68.2754745483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.4195022583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.0076446533203</t>
   </si>
   <si>
     <t xml:space="preserve">68.7330856323242</t>
   </si>
   <si>
-    <t xml:space="preserve">68.8246078491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.0534057617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.0143966674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.2041778564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.2957153320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.897331237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.3024444580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.4397277832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.7533111572266</t>
+    <t xml:space="preserve">68.8246002197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.0534133911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.0143814086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.2041854858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.2957077026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.8973388671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.3024520874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.4397354125977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.7533187866211</t>
   </si>
   <si>
     <t xml:space="preserve">72.0736541748047</t>
   </si>
   <si>
-    <t xml:space="preserve">73.7210388183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.7990646362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.1584320068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.2499389648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.4329833984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.6618041992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.7075500488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.3872222900391</t>
+    <t xml:space="preserve">73.7210464477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.799072265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.1584243774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.2499542236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.4329986572266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.6617889404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.7075424194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.3872299194336</t>
   </si>
   <si>
     <t xml:space="preserve">71.4787445068359</t>
@@ -1010,19 +1010,19 @@
     <t xml:space="preserve">72.2566909790039</t>
   </si>
   <si>
-    <t xml:space="preserve">71.3414688110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.485481262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.8906021118164</t>
+    <t xml:space="preserve">71.3414611816406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.4854888916016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.8905944824219</t>
   </si>
   <si>
     <t xml:space="preserve">71.6160278320312</t>
   </si>
   <si>
-    <t xml:space="preserve">65.9416656494141</t>
+    <t xml:space="preserve">65.9416580200195</t>
   </si>
   <si>
     <t xml:space="preserve">66.3992767333984</t>
@@ -1031,19 +1031,19 @@
     <t xml:space="preserve">68.3212432861328</t>
   </si>
   <si>
-    <t xml:space="preserve">68.6873321533203</t>
+    <t xml:space="preserve">68.6873092651367</t>
   </si>
   <si>
     <t xml:space="preserve">70.1516723632812</t>
   </si>
   <si>
-    <t xml:space="preserve">70.9296264648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.6550521850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.8771133422852</t>
+    <t xml:space="preserve">70.9296112060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.655029296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.8771057128906</t>
   </si>
   <si>
     <t xml:space="preserve">68.183952331543</t>
@@ -1064,7 +1064,7 @@
     <t xml:space="preserve">71.0668869018555</t>
   </si>
   <si>
-    <t xml:space="preserve">72.8058166503906</t>
+    <t xml:space="preserve">72.8058242797852</t>
   </si>
   <si>
     <t xml:space="preserve">73.5379867553711</t>
@@ -1073,10 +1073,10 @@
     <t xml:space="preserve">70.7923278808594</t>
   </si>
   <si>
-    <t xml:space="preserve">69.3737411499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.2822189331055</t>
+    <t xml:space="preserve">69.3737487792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.2822113037109</t>
   </si>
   <si>
     <t xml:space="preserve">68.1381912231445</t>
@@ -1091,19 +1091,19 @@
     <t xml:space="preserve">73.263427734375</t>
   </si>
   <si>
-    <t xml:space="preserve">72.7142944335938</t>
+    <t xml:space="preserve">72.7142868041992</t>
   </si>
   <si>
     <t xml:space="preserve">72.53125</t>
   </si>
   <si>
-    <t xml:space="preserve">72.8515701293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.9430999755859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.6227722167969</t>
+    <t xml:space="preserve">72.8515853881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.9430923461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.6227645874023</t>
   </si>
   <si>
     <t xml:space="preserve">72.3939666748047</t>
@@ -1112,25 +1112,25 @@
     <t xml:space="preserve">72.3482055664062</t>
   </si>
   <si>
-    <t xml:space="preserve">72.5770263671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.165153503418</t>
+    <t xml:space="preserve">72.577018737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.1651611328125</t>
   </si>
   <si>
     <t xml:space="preserve">70.7008056640625</t>
   </si>
   <si>
-    <t xml:space="preserve">72.6685409545898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.9618835449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.81787109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.653621673584</t>
+    <t xml:space="preserve">72.6685333251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.9618911743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.8178634643555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.6536064147949</t>
   </si>
   <si>
     <t xml:space="preserve">65.1637268066406</t>
@@ -1139,79 +1139,79 @@
     <t xml:space="preserve">64.0654602050781</t>
   </si>
   <si>
-    <t xml:space="preserve">64.4315414428711</t>
+    <t xml:space="preserve">64.4315567016602</t>
   </si>
   <si>
     <t xml:space="preserve">63.8824234008789</t>
   </si>
   <si>
-    <t xml:space="preserve">63.7451248168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.5620803833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.692626953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.7316436767578</t>
+    <t xml:space="preserve">63.7451324462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.5620880126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.6926231384277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.7316398620605</t>
   </si>
   <si>
     <t xml:space="preserve">60.7706642150879</t>
   </si>
   <si>
-    <t xml:space="preserve">60.4961013793945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.6401329040527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.6011009216309</t>
+    <t xml:space="preserve">60.4960975646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.6401214599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.6011085510254</t>
   </si>
   <si>
     <t xml:space="preserve">64.6145935058594</t>
   </si>
   <si>
-    <t xml:space="preserve">68.4127655029297</t>
+    <t xml:space="preserve">68.4127502441406</t>
   </si>
   <si>
     <t xml:space="preserve">67.5890502929688</t>
   </si>
   <si>
-    <t xml:space="preserve">66.0789413452148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.7128677368164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.4907989501953</t>
+    <t xml:space="preserve">66.0789260864258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.7128601074219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.4907913208008</t>
   </si>
   <si>
     <t xml:space="preserve">66.1247024536133</t>
   </si>
   <si>
-    <t xml:space="preserve">67.2687301635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.1449356079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.0211181640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.7398300170898</t>
+    <t xml:space="preserve">67.2687377929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.1449432373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.0211410522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.7398223876953</t>
   </si>
   <si>
     <t xml:space="preserve">70.74658203125</t>
   </si>
   <si>
-    <t xml:space="preserve">71.5245056152344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.0278778076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.9821166992188</t>
+    <t xml:space="preserve">71.5245132446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.0278854370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.9821243286133</t>
   </si>
   <si>
     <t xml:space="preserve">73.5837554931641</t>
@@ -1223,10 +1223,10 @@
     <t xml:space="preserve">73.4007110595703</t>
   </si>
   <si>
-    <t xml:space="preserve">74.4074630737305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.1328887939453</t>
+    <t xml:space="preserve">74.4074554443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.1328964233398</t>
   </si>
   <si>
     <t xml:space="preserve">74.3159255981445</t>
@@ -1235,22 +1235,22 @@
     <t xml:space="preserve">75.6429977416992</t>
   </si>
   <si>
-    <t xml:space="preserve">74.4989776611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.1463928222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.74755859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.6376953125</t>
+    <t xml:space="preserve">74.4989852905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.1464004516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.7475662231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.6377105712891</t>
   </si>
   <si>
     <t xml:space="preserve">75.8862991333008</t>
   </si>
   <si>
-    <t xml:space="preserve">77.8285369873047</t>
+    <t xml:space="preserve">77.8285446166992</t>
   </si>
   <si>
     <t xml:space="preserve">76.7649230957031</t>
@@ -1265,34 +1265,34 @@
     <t xml:space="preserve">76.3949737548828</t>
   </si>
   <si>
-    <t xml:space="preserve">79.0771179199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.926887512207</t>
+    <t xml:space="preserve">79.0771331787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.9268798828125</t>
   </si>
   <si>
     <t xml:space="preserve">81.6205368041992</t>
   </si>
   <si>
-    <t xml:space="preserve">81.3893051147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.7592620849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.2968368530273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.2679443359375</t>
+    <t xml:space="preserve">81.3893203735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.7592697143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.2968292236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.2679595947266</t>
   </si>
   <si>
     <t xml:space="preserve">84.1639556884766</t>
   </si>
   <si>
-    <t xml:space="preserve">85.4587860107422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.3374252319336</t>
+    <t xml:space="preserve">85.4587936401367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.3374176025391</t>
   </si>
   <si>
     <t xml:space="preserve">86.0137176513672</t>
@@ -1301,7 +1301,7 @@
     <t xml:space="preserve">85.3663024902344</t>
   </si>
   <si>
-    <t xml:space="preserve">84.1176986694336</t>
+    <t xml:space="preserve">84.1177139282227</t>
   </si>
   <si>
     <t xml:space="preserve">82.7766418457031</t>
@@ -1310,7 +1310,7 @@
     <t xml:space="preserve">82.4529342651367</t>
   </si>
   <si>
-    <t xml:space="preserve">88.7883453369141</t>
+    <t xml:space="preserve">88.7883529663086</t>
   </si>
   <si>
     <t xml:space="preserve">87.9097213745117</t>
@@ -1319,10 +1319,10 @@
     <t xml:space="preserve">88.5108795166016</t>
   </si>
   <si>
-    <t xml:space="preserve">89.9906997680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.1120529174805</t>
+    <t xml:space="preserve">89.9906921386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.112060546875</t>
   </si>
   <si>
     <t xml:space="preserve">90.3606414794922</t>
@@ -1331,13 +1331,13 @@
     <t xml:space="preserve">89.0658187866211</t>
   </si>
   <si>
-    <t xml:space="preserve">90.175666809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.1582946777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.3721694946289</t>
+    <t xml:space="preserve">90.1756591796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.1583099365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.3721542358398</t>
   </si>
   <si>
     <t xml:space="preserve">88.6033782958984</t>
@@ -1346,25 +1346,25 @@
     <t xml:space="preserve">88.6958618164062</t>
   </si>
   <si>
-    <t xml:space="preserve">88.9270782470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.8230743408203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.3143920898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.5456085205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.2507858276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.7421035766602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.4820022583008</t>
+    <t xml:space="preserve">88.9270858764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.8230819702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.3143997192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.5456237792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.2507934570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.7420959472656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.4820175170898</t>
   </si>
   <si>
     <t xml:space="preserve">87.4010391235352</t>
@@ -1373,19 +1373,19 @@
     <t xml:space="preserve">86.938591003418</t>
   </si>
   <si>
-    <t xml:space="preserve">87.2623062133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.5050201416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.5512771606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.9038619995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.6609344482422</t>
+    <t xml:space="preserve">87.2622909545898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.5050277709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.55126953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.9038543701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.6609268188477</t>
   </si>
   <si>
     <t xml:space="preserve">80.7881469726562</t>
@@ -1394,55 +1394,55 @@
     <t xml:space="preserve">82.0829772949219</t>
   </si>
   <si>
-    <t xml:space="preserve">81.2505950927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.4818115234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.371955871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.5280532836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.0482559204102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.3257141113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.1986770629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.7073745727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.6263885498047</t>
+    <t xml:space="preserve">81.2505874633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.481803894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.3719635009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.5280609130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.0482482910156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.3257064819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.1986846923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.7073669433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.6263961791992</t>
   </si>
   <si>
     <t xml:space="preserve">84.9501037597656</t>
   </si>
   <si>
-    <t xml:space="preserve">84.7188873291016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.3026885986328</t>
+    <t xml:space="preserve">84.718879699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.3026962280273</t>
   </si>
   <si>
     <t xml:space="preserve">84.8113708496094</t>
   </si>
   <si>
-    <t xml:space="preserve">85.9212265014648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.7536239624023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.4125518798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.6841506958008</t>
+    <t xml:space="preserve">85.9212341308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.7536163330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.4125366210938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.6841583251953</t>
   </si>
   <si>
     <t xml:space="preserve">82.9616088867188</t>
@@ -1451,13 +1451,13 @@
     <t xml:space="preserve">82.0367279052734</t>
   </si>
   <si>
-    <t xml:space="preserve">82.3141937255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.8864822387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.6496276855469</t>
+    <t xml:space="preserve">82.314208984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.8864898681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.6496124267578</t>
   </si>
   <si>
     <t xml:space="preserve">89.8982009887695</t>
@@ -1466,43 +1466,43 @@
     <t xml:space="preserve">85.3200531005859</t>
   </si>
   <si>
-    <t xml:space="preserve">86.1062088012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.9674606323242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.7940063476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.4414215087891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.4991607666016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.2794723510742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.1175155639648</t>
+    <t xml:space="preserve">86.106201171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.9674682617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.7939987182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.4414291381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.4991760253906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.2794647216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.1175231933594</t>
   </si>
   <si>
     <t xml:space="preserve">75.3776092529297</t>
   </si>
   <si>
-    <t xml:space="preserve">74.2677612304688</t>
+    <t xml:space="preserve">74.2677536010742</t>
   </si>
   <si>
     <t xml:space="preserve">73.7128219604492</t>
   </si>
   <si>
-    <t xml:space="preserve">75.7938003540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.5278625488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.8515625</t>
+    <t xml:space="preserve">75.7938079833984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.5278472900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.8515548706055</t>
   </si>
   <si>
     <t xml:space="preserve">75.470100402832</t>
@@ -1514,52 +1514,52 @@
     <t xml:space="preserve">76.2100067138672</t>
   </si>
   <si>
-    <t xml:space="preserve">77.4123382568359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.7590789794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.7764358520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.2041549682617</t>
+    <t xml:space="preserve">77.4123458862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.7590713500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.7764434814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.2041473388672</t>
   </si>
   <si>
     <t xml:space="preserve">74.9151763916016</t>
   </si>
   <si>
-    <t xml:space="preserve">76.025016784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.5048294067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.9731292724609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.3024826049805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.0886459350586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.9902877807617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.4468612670898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.5856170654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.0018005371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.8804397583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.0365295410156</t>
+    <t xml:space="preserve">76.0250244140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.5048370361328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.9731216430664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.3024978637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.0886383056641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.9903030395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.4468765258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.5856094360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.0018081665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.8804321289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.0365371704102</t>
   </si>
   <si>
     <t xml:space="preserve">73.2503890991211</t>
@@ -1568,109 +1568,109 @@
     <t xml:space="preserve">71.9555587768555</t>
   </si>
   <si>
-    <t xml:space="preserve">71.7705764770508</t>
+    <t xml:space="preserve">71.7705841064453</t>
   </si>
   <si>
     <t xml:space="preserve">69.4583892822266</t>
   </si>
   <si>
-    <t xml:space="preserve">69.3658981323242</t>
+    <t xml:space="preserve">69.3659057617188</t>
   </si>
   <si>
     <t xml:space="preserve">69.7358551025391</t>
   </si>
   <si>
-    <t xml:space="preserve">72.2330322265625</t>
+    <t xml:space="preserve">72.233024597168</t>
   </si>
   <si>
     <t xml:space="preserve">67.6548767089844</t>
   </si>
   <si>
-    <t xml:space="preserve">68.2560501098633</t>
+    <t xml:space="preserve">68.2560424804688</t>
   </si>
   <si>
     <t xml:space="preserve">67.7936096191406</t>
   </si>
   <si>
-    <t xml:space="preserve">67.4698944091797</t>
+    <t xml:space="preserve">67.4699020385742</t>
   </si>
   <si>
     <t xml:space="preserve">68.4410171508789</t>
   </si>
   <si>
-    <t xml:space="preserve">67.7011108398438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.3600387573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.833984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.2501983642578</t>
+    <t xml:space="preserve">67.7011260986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.3600463867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.8339996337891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.2501907348633</t>
   </si>
   <si>
     <t xml:space="preserve">65.1114654541016</t>
   </si>
   <si>
-    <t xml:space="preserve">65.6201477050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.0074615478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.7744750976562</t>
+    <t xml:space="preserve">65.6201400756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.007453918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.7744827270508</t>
   </si>
   <si>
     <t xml:space="preserve">67.0548782348633</t>
   </si>
   <si>
-    <t xml:space="preserve">67.5291061401367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.1497344970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.8960723876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.3744277954102</t>
+    <t xml:space="preserve">67.5290985107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.1497192382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.8960800170898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.3744201660156</t>
   </si>
   <si>
     <t xml:space="preserve">70.0898971557617</t>
   </si>
   <si>
-    <t xml:space="preserve">70.5166854858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.6548156738281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.0383377075195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.6589584350586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.7970962524414</t>
+    <t xml:space="preserve">70.5166931152344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.6548309326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.0383453369141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.6589660644531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.7970886230469</t>
   </si>
   <si>
     <t xml:space="preserve">73.5042877197266</t>
   </si>
   <si>
-    <t xml:space="preserve">73.9785079956055</t>
+    <t xml:space="preserve">73.9785003662109</t>
   </si>
   <si>
     <t xml:space="preserve">76.2073516845703</t>
   </si>
   <si>
-    <t xml:space="preserve">76.0650787353516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.9228134155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.5434341430664</t>
+    <t xml:space="preserve">76.0650939941406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.9228210449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.5434494018555</t>
   </si>
   <si>
     <t xml:space="preserve">76.0176620483398</t>
@@ -1679,13 +1679,13 @@
     <t xml:space="preserve">76.254768371582</t>
   </si>
   <si>
-    <t xml:space="preserve">75.6382904052734</t>
+    <t xml:space="preserve">75.6382827758789</t>
   </si>
   <si>
     <t xml:space="preserve">77.5351791381836</t>
   </si>
   <si>
-    <t xml:space="preserve">77.1083602905273</t>
+    <t xml:space="preserve">77.1083679199219</t>
   </si>
   <si>
     <t xml:space="preserve">75.8279724121094</t>
@@ -1694,31 +1694,31 @@
     <t xml:space="preserve">77.8671264648438</t>
   </si>
   <si>
-    <t xml:space="preserve">77.9619750976562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.7165832519531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.6217422485352</t>
+    <t xml:space="preserve">77.9619598388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.7165985107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.6217346191406</t>
   </si>
   <si>
     <t xml:space="preserve">80.7124481201172</t>
   </si>
   <si>
-    <t xml:space="preserve">80.2856521606445</t>
+    <t xml:space="preserve">80.2856597900391</t>
   </si>
   <si>
     <t xml:space="preserve">80.6176071166992</t>
   </si>
   <si>
-    <t xml:space="preserve">80.2382278442383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.4279174804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.8073043823242</t>
+    <t xml:space="preserve">80.2382354736328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.4279251098633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.8072891235352</t>
   </si>
   <si>
     <t xml:space="preserve">81.0444030761719</t>
@@ -1730,37 +1730,37 @@
     <t xml:space="preserve">80.9021377563477</t>
   </si>
   <si>
-    <t xml:space="preserve">81.7083129882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.3289260864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.8031539916992</t>
+    <t xml:space="preserve">81.7083206176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.3289413452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.8031616210938</t>
   </si>
   <si>
     <t xml:space="preserve">83.0835571289062</t>
   </si>
   <si>
-    <t xml:space="preserve">82.7516021728516</t>
+    <t xml:space="preserve">82.7516098022461</t>
   </si>
   <si>
     <t xml:space="preserve">82.4196548461914</t>
   </si>
   <si>
-    <t xml:space="preserve">82.3722229003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.2773742675781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.2732467651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.1825332641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.3763580322266</t>
+    <t xml:space="preserve">82.3722152709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.2773818969727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.2732543945312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.1825408935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.3763656616211</t>
   </si>
   <si>
     <t xml:space="preserve">80.9969940185547</t>
@@ -1769,10 +1769,10 @@
     <t xml:space="preserve">83.320671081543</t>
   </si>
   <si>
-    <t xml:space="preserve">83.5577774047852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.0794296264648</t>
+    <t xml:space="preserve">83.5577697753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.0794219970703</t>
   </si>
   <si>
     <t xml:space="preserve">84.3165283203125</t>
@@ -1784,64 +1784,64 @@
     <t xml:space="preserve">84.7433319091797</t>
   </si>
   <si>
-    <t xml:space="preserve">84.0319900512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.1227035522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.0752868652344</t>
+    <t xml:space="preserve">84.0319976806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.1227188110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.0752792358398</t>
   </si>
   <si>
     <t xml:space="preserve">85.881462097168</t>
   </si>
   <si>
-    <t xml:space="preserve">86.8773193359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.9680328369141</t>
+    <t xml:space="preserve">86.877326965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.9680404663086</t>
   </si>
   <si>
     <t xml:space="preserve">87.2566986083984</t>
   </si>
   <si>
-    <t xml:space="preserve">86.9247589111328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.7824783325195</t>
+    <t xml:space="preserve">86.9247512817383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.7824859619141</t>
   </si>
   <si>
     <t xml:space="preserve">86.3082580566406</t>
   </si>
   <si>
-    <t xml:space="preserve">86.2134170532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.7350616455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.130989074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.7598648071289</t>
+    <t xml:space="preserve">86.2134246826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.7350540161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.1309814453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.759880065918</t>
   </si>
   <si>
     <t xml:space="preserve">81.2815170288086</t>
   </si>
   <si>
-    <t xml:space="preserve">82.6093292236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.8938751220703</t>
+    <t xml:space="preserve">82.6093368530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.8938674926758</t>
   </si>
   <si>
     <t xml:space="preserve">84.8855972290039</t>
   </si>
   <si>
-    <t xml:space="preserve">85.2649688720703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.3598098754883</t>
+    <t xml:space="preserve">85.2649765014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.3598175048828</t>
   </si>
   <si>
     <t xml:space="preserve">86.4031066894531</t>
@@ -1853,10 +1853,10 @@
     <t xml:space="preserve">90.6236724853516</t>
   </si>
   <si>
-    <t xml:space="preserve">92.4257125854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.378288269043</t>
+    <t xml:space="preserve">92.4257049560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92.3782958984375</t>
   </si>
   <si>
     <t xml:space="preserve">92.8569412231445</t>
@@ -1868,7 +1868,7 @@
     <t xml:space="preserve">93.335578918457</t>
   </si>
   <si>
-    <t xml:space="preserve">92.7133407592773</t>
+    <t xml:space="preserve">92.7133483886719</t>
   </si>
   <si>
     <t xml:space="preserve">91.9953765869141</t>
@@ -1877,7 +1877,7 @@
     <t xml:space="preserve">91.7560653686523</t>
   </si>
   <si>
-    <t xml:space="preserve">90.3201293945312</t>
+    <t xml:space="preserve">90.3201217651367</t>
   </si>
   <si>
     <t xml:space="preserve">89.4585571289062</t>
@@ -1886,13 +1886,13 @@
     <t xml:space="preserve">89.9372024536133</t>
   </si>
   <si>
-    <t xml:space="preserve">87.6397171020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91.2295608520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.5218887329102</t>
+    <t xml:space="preserve">87.6397247314453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91.2295532226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92.5218811035156</t>
   </si>
   <si>
     <t xml:space="preserve">93.1441268920898</t>
@@ -1904,7 +1904,7 @@
     <t xml:space="preserve">96.7818145751953</t>
   </si>
   <si>
-    <t xml:space="preserve">97.6433792114258</t>
+    <t xml:space="preserve">97.6433715820312</t>
   </si>
   <si>
     <t xml:space="preserve">95.0108337402344</t>
@@ -1913,19 +1913,19 @@
     <t xml:space="preserve">98.3134689331055</t>
   </si>
   <si>
-    <t xml:space="preserve">99.0793075561523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.610969543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102.621269226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.9408645629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.515243530273</t>
+    <t xml:space="preserve">99.0793151855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.610977172852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102.621276855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.9408798217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.515235900879</t>
   </si>
   <si>
     <t xml:space="preserve">98.1220169067383</t>
@@ -1934,10 +1934,10 @@
     <t xml:space="preserve">98.8878631591797</t>
   </si>
   <si>
-    <t xml:space="preserve">97.1647262573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.5476455688477</t>
+    <t xml:space="preserve">97.1647415161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.5476608276367</t>
   </si>
   <si>
     <t xml:space="preserve">97.7391052246094</t>
@@ -1946,16 +1946,16 @@
     <t xml:space="preserve">98.5049362182617</t>
   </si>
   <si>
-    <t xml:space="preserve">98.2177505493164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.802429199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.5579528808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.6006698608398</t>
+    <t xml:space="preserve">98.2177581787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.802436828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.5579605102539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.6006622314453</t>
   </si>
   <si>
     <t xml:space="preserve">99.4622192382812</t>
@@ -1964,25 +1964,25 @@
     <t xml:space="preserve">98.4092178344727</t>
   </si>
   <si>
-    <t xml:space="preserve">98.792121887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.4519348144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.9732818603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.0690078735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.6860885620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.0262908935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.387100219727</t>
+    <t xml:space="preserve">98.7921142578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.4519195556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.973274230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.0690002441406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.6860961914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.0262985229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.387107849121</t>
   </si>
   <si>
     <t xml:space="preserve">101.759719848633</t>
@@ -1991,7 +1991,7 @@
     <t xml:space="preserve">100.41951751709</t>
   </si>
   <si>
-    <t xml:space="preserve">103.099922180176</t>
+    <t xml:space="preserve">103.099914550781</t>
   </si>
   <si>
     <t xml:space="preserve">101.951179504395</t>
@@ -2000,28 +2000,28 @@
     <t xml:space="preserve">101.376800537109</t>
   </si>
   <si>
-    <t xml:space="preserve">101.185340881348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.653678894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101.472526550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.674285888672</t>
+    <t xml:space="preserve">101.185333251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.6536712646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101.472534179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.674293518066</t>
   </si>
   <si>
     <t xml:space="preserve">103.482833862305</t>
   </si>
   <si>
-    <t xml:space="preserve">105.110221862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104.344398498535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101.281074523926</t>
+    <t xml:space="preserve">105.110229492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104.344390869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101.28108215332</t>
   </si>
   <si>
     <t xml:space="preserve">102.429817199707</t>
@@ -2030,7 +2030,7 @@
     <t xml:space="preserve">103.004188537598</t>
   </si>
   <si>
-    <t xml:space="preserve">105.014495849609</t>
+    <t xml:space="preserve">105.014488220215</t>
   </si>
   <si>
     <t xml:space="preserve">104.823036193848</t>
@@ -2039,22 +2039,22 @@
     <t xml:space="preserve">104.248672485352</t>
   </si>
   <si>
-    <t xml:space="preserve">101.663986206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.8451461791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.9305725097656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.3665084838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.323791503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102.238357543945</t>
+    <t xml:space="preserve">101.66397857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.8451385498047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.9305648803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.3665008544922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.323776245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102.23836517334</t>
   </si>
   <si>
     <t xml:space="preserve">101.568260192871</t>
@@ -2063,40 +2063,40 @@
     <t xml:space="preserve">100.993881225586</t>
   </si>
   <si>
-    <t xml:space="preserve">102.142623901367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.898155212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.6330642700195</t>
+    <t xml:space="preserve">102.142631530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.898162841797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.6330718994141</t>
   </si>
   <si>
     <t xml:space="preserve">95.9202575683594</t>
   </si>
   <si>
-    <t xml:space="preserve">95.058708190918</t>
+    <t xml:space="preserve">95.0587005615234</t>
   </si>
   <si>
     <t xml:space="preserve">95.2980270385742</t>
   </si>
   <si>
-    <t xml:space="preserve">95.4894866943359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.8245315551758</t>
+    <t xml:space="preserve">95.4894790649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.8245391845703</t>
   </si>
   <si>
     <t xml:space="preserve">95.7287979125977</t>
   </si>
   <si>
-    <t xml:space="preserve">92.8090744018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93.5270309448242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.4740295410156</t>
+    <t xml:space="preserve">92.8090667724609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93.5270385742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92.4740219116211</t>
   </si>
   <si>
     <t xml:space="preserve">93.4791717529297</t>
@@ -2105,10 +2105,10 @@
     <t xml:space="preserve">92.9048080444336</t>
   </si>
   <si>
-    <t xml:space="preserve">93.1919937133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94.3407440185547</t>
+    <t xml:space="preserve">93.1919784545898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94.3407363891602</t>
   </si>
   <si>
     <t xml:space="preserve">96.5903625488281</t>
@@ -2120,7 +2120,7 @@
     <t xml:space="preserve">100.13232421875</t>
   </si>
   <si>
-    <t xml:space="preserve">99.1750411987305</t>
+    <t xml:space="preserve">99.1750335693359</t>
   </si>
   <si>
     <t xml:space="preserve">102.046897888184</t>
@@ -2132,13 +2132,13 @@
     <t xml:space="preserve">105.971786499023</t>
   </si>
   <si>
-    <t xml:space="preserve">107.311973571777</t>
+    <t xml:space="preserve">107.311981201172</t>
   </si>
   <si>
     <t xml:space="preserve">109.609481811523</t>
   </si>
   <si>
-    <t xml:space="preserve">109.035110473633</t>
+    <t xml:space="preserve">109.035102844238</t>
   </si>
   <si>
     <t xml:space="preserve">110.471046447754</t>
@@ -2147,19 +2147,19 @@
     <t xml:space="preserve">114.013000488281</t>
   </si>
   <si>
-    <t xml:space="preserve">115.257476806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.683113098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.970291137695</t>
+    <t xml:space="preserve">115.257484436035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.68310546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.970283508301</t>
   </si>
   <si>
     <t xml:space="preserve">116.119041442871</t>
   </si>
   <si>
-    <t xml:space="preserve">113.247177124023</t>
+    <t xml:space="preserve">113.247169494629</t>
   </si>
   <si>
     <t xml:space="preserve">116.406219482422</t>
@@ -2174,16 +2174,16 @@
     <t xml:space="preserve">118.512260437012</t>
   </si>
   <si>
-    <t xml:space="preserve">116.789131164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.831848144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.874557495117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.04541015625</t>
+    <t xml:space="preserve">116.789138793945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.831840515137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.874565124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.045402526855</t>
   </si>
   <si>
     <t xml:space="preserve">112.672798156738</t>
@@ -2192,22 +2192,22 @@
     <t xml:space="preserve">112.002700805664</t>
   </si>
   <si>
-    <t xml:space="preserve">111.715515136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.577072143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.15145111084</t>
+    <t xml:space="preserve">111.71549987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.57706451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.151443481445</t>
   </si>
   <si>
     <t xml:space="preserve">112.481346130371</t>
   </si>
   <si>
-    <t xml:space="preserve">111.524047851562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.236877441406</t>
+    <t xml:space="preserve">111.524055480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.236862182617</t>
   </si>
   <si>
     <t xml:space="preserve">109.896667480469</t>
@@ -2237,13 +2237,13 @@
     <t xml:space="preserve">109.418022155762</t>
   </si>
   <si>
-    <t xml:space="preserve">109.226554870605</t>
+    <t xml:space="preserve">109.2265625</t>
   </si>
   <si>
     <t xml:space="preserve">110.18384552002</t>
   </si>
   <si>
-    <t xml:space="preserve">107.790626525879</t>
+    <t xml:space="preserve">107.790634155273</t>
   </si>
   <si>
     <t xml:space="preserve">110.566764831543</t>
@@ -2252,22 +2252,22 @@
     <t xml:space="preserve">110.662490844727</t>
   </si>
   <si>
-    <t xml:space="preserve">108.365005493164</t>
+    <t xml:space="preserve">108.36499786377</t>
   </si>
   <si>
     <t xml:space="preserve">106.258972167969</t>
   </si>
   <si>
-    <t xml:space="preserve">107.120536804199</t>
+    <t xml:space="preserve">107.120529174805</t>
   </si>
   <si>
     <t xml:space="preserve">109.130836486816</t>
   </si>
   <si>
-    <t xml:space="preserve">109.800941467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.705207824707</t>
+    <t xml:space="preserve">109.800933837891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.705200195312</t>
   </si>
   <si>
     <t xml:space="preserve">111.619781494141</t>
@@ -2279,34 +2279,34 @@
     <t xml:space="preserve">115.927581787109</t>
   </si>
   <si>
-    <t xml:space="preserve">111.332595825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105.87606048584</t>
+    <t xml:space="preserve">111.33260345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105.876052856445</t>
   </si>
   <si>
     <t xml:space="preserve">100.036598205566</t>
   </si>
   <si>
-    <t xml:space="preserve">108.173553466797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104.918762207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.195655822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101.08960723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.51375579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106.833335876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.811241149902</t>
+    <t xml:space="preserve">108.173545837402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104.918769836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.195648193359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101.089614868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.513748168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106.833343505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.811248779297</t>
   </si>
   <si>
     <t xml:space="preserve">110.279579162598</t>
@@ -2315,37 +2315,37 @@
     <t xml:space="preserve">107.886360168457</t>
   </si>
   <si>
-    <t xml:space="preserve">105.780334472656</t>
+    <t xml:space="preserve">105.780326843262</t>
   </si>
   <si>
     <t xml:space="preserve">103.865753173828</t>
   </si>
   <si>
-    <t xml:space="preserve">115.54467010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.055709838867</t>
+    <t xml:space="preserve">115.544662475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.055717468262</t>
   </si>
   <si>
     <t xml:space="preserve">119.565277099609</t>
   </si>
   <si>
-    <t xml:space="preserve">123.873054504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">127.702201843262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.02033996582</t>
+    <t xml:space="preserve">123.873069763184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127.70223236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.020324707031</t>
   </si>
   <si>
     <t xml:space="preserve">143.401748657227</t>
   </si>
   <si>
-    <t xml:space="preserve">143.68896484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138.328140258789</t>
+    <t xml:space="preserve">143.688934326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138.328125</t>
   </si>
   <si>
     <t xml:space="preserve">146.943710327148</t>
@@ -2360,25 +2360,25 @@
     <t xml:space="preserve">152.30451965332</t>
   </si>
   <si>
-    <t xml:space="preserve">155.655029296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">159.771377563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">159.962829589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.272109985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148.66682434082</t>
+    <t xml:space="preserve">155.655044555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159.771362304688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159.962844848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.272094726562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148.666839599609</t>
   </si>
   <si>
     <t xml:space="preserve">148.762557983398</t>
   </si>
   <si>
-    <t xml:space="preserve">148.379638671875</t>
+    <t xml:space="preserve">148.379653930664</t>
   </si>
   <si>
     <t xml:space="preserve">146.369338989258</t>
@@ -2387,19 +2387,19 @@
     <t xml:space="preserve">148.188186645508</t>
   </si>
   <si>
-    <t xml:space="preserve">149.528396606445</t>
+    <t xml:space="preserve">149.528381347656</t>
   </si>
   <si>
     <t xml:space="preserve">155.559310913086</t>
   </si>
   <si>
-    <t xml:space="preserve">153.644744873047</t>
+    <t xml:space="preserve">153.644714355469</t>
   </si>
   <si>
     <t xml:space="preserve">165.132186889648</t>
   </si>
   <si>
-    <t xml:space="preserve">169.439971923828</t>
+    <t xml:space="preserve">169.439987182617</t>
   </si>
   <si>
     <t xml:space="preserve">176.332458496094</t>
@@ -2408,19 +2408,19 @@
     <t xml:space="preserve">176.906829833984</t>
   </si>
   <si>
-    <t xml:space="preserve">171.546005249023</t>
+    <t xml:space="preserve">171.546020507812</t>
   </si>
   <si>
     <t xml:space="preserve">181.118896484375</t>
   </si>
   <si>
-    <t xml:space="preserve">182.746276855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">194.13801574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200.456100463867</t>
+    <t xml:space="preserve">182.746292114258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">194.138000488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200.456115722656</t>
   </si>
   <si>
     <t xml:space="preserve">188.585739135742</t>
@@ -2429,124 +2429,124 @@
     <t xml:space="preserve">165.610824584961</t>
   </si>
   <si>
-    <t xml:space="preserve">174.034973144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180.448791503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">173.747756958008</t>
+    <t xml:space="preserve">174.034957885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180.448806762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173.747772216797</t>
   </si>
   <si>
     <t xml:space="preserve">171.258819580078</t>
   </si>
   <si>
-    <t xml:space="preserve">166.089447021484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166.759552001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">158.909805297852</t>
+    <t xml:space="preserve">166.089477539062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.759582519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158.909820556641</t>
   </si>
   <si>
     <t xml:space="preserve">152.783172607422</t>
   </si>
   <si>
-    <t xml:space="preserve">154.602035522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156.995223999023</t>
+    <t xml:space="preserve">154.602020263672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.995239257812</t>
   </si>
   <si>
     <t xml:space="preserve">160.632934570312</t>
   </si>
   <si>
-    <t xml:space="preserve">159.867080688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163.573745727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.440246582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163.958847045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163.188629150391</t>
+    <t xml:space="preserve">159.867111206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163.57373046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.440231323242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163.958862304688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163.18864440918</t>
   </si>
   <si>
     <t xml:space="preserve">161.16682434082</t>
   </si>
   <si>
-    <t xml:space="preserve">164.343948364258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">169.254058837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166.558303833008</t>
+    <t xml:space="preserve">164.343933105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">169.254043579102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.558319091797</t>
   </si>
   <si>
     <t xml:space="preserve">165.017883300781</t>
   </si>
   <si>
-    <t xml:space="preserve">163.381195068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.055130004883</t>
+    <t xml:space="preserve">163.38117980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.055114746094</t>
   </si>
   <si>
     <t xml:space="preserve">164.632781982422</t>
   </si>
   <si>
-    <t xml:space="preserve">164.921615600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.729049682617</t>
+    <t xml:space="preserve">164.921630859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.729064941406</t>
   </si>
   <si>
     <t xml:space="preserve">168.195007324219</t>
   </si>
   <si>
-    <t xml:space="preserve">171.853515625</t>
+    <t xml:space="preserve">171.853530883789</t>
   </si>
   <si>
     <t xml:space="preserve">172.527450561523</t>
   </si>
   <si>
-    <t xml:space="preserve">165.114151000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166.462036132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">167.23225402832</t>
+    <t xml:space="preserve">165.114181518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.462020874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">167.232238769531</t>
   </si>
   <si>
     <t xml:space="preserve">166.750869750977</t>
   </si>
   <si>
-    <t xml:space="preserve">171.468414306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171.564697265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">174.164154052734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171.66096496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">168.483825683594</t>
+    <t xml:space="preserve">171.46842956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171.564682006836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">174.164138793945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171.660980224609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">168.483840942383</t>
   </si>
   <si>
     <t xml:space="preserve">162.99609375</t>
   </si>
   <si>
-    <t xml:space="preserve">156.641845703125</t>
+    <t xml:space="preserve">156.641830444336</t>
   </si>
   <si>
     <t xml:space="preserve">164.247680664062</t>
@@ -2555,16 +2555,16 @@
     <t xml:space="preserve">166.847152709961</t>
   </si>
   <si>
-    <t xml:space="preserve">161.263107299805</t>
+    <t xml:space="preserve">161.263092041016</t>
   </si>
   <si>
     <t xml:space="preserve">159.818954467773</t>
   </si>
   <si>
-    <t xml:space="preserve">154.620010375977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151.731735229492</t>
+    <t xml:space="preserve">154.620040893555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151.731750488281</t>
   </si>
   <si>
     <t xml:space="preserve">148.65087890625</t>
@@ -2576,7 +2576,7 @@
     <t xml:space="preserve">147.110473632812</t>
   </si>
   <si>
-    <t xml:space="preserve">151.635467529297</t>
+    <t xml:space="preserve">151.635452270508</t>
   </si>
   <si>
     <t xml:space="preserve">154.234924316406</t>
@@ -2585,37 +2585,37 @@
     <t xml:space="preserve">153.560989379883</t>
   </si>
   <si>
-    <t xml:space="preserve">150.287582397461</t>
+    <t xml:space="preserve">150.287612915039</t>
   </si>
   <si>
     <t xml:space="preserve">156.73811340332</t>
   </si>
   <si>
-    <t xml:space="preserve">153.175888061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156.160430908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156.834396362305</t>
+    <t xml:space="preserve">153.175903320312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.160446166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.834381103516</t>
   </si>
   <si>
     <t xml:space="preserve">156.9306640625</t>
   </si>
   <si>
-    <t xml:space="preserve">157.412063598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.797164916992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161.455657958984</t>
+    <t xml:space="preserve">157.412048339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.797134399414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161.455642700195</t>
   </si>
   <si>
     <t xml:space="preserve">147.495559692383</t>
   </si>
   <si>
-    <t xml:space="preserve">140.371109008789</t>
+    <t xml:space="preserve">140.371124267578</t>
   </si>
   <si>
     <t xml:space="preserve">145.858871459961</t>
@@ -2624,10 +2624,10 @@
     <t xml:space="preserve">146.4365234375</t>
   </si>
   <si>
-    <t xml:space="preserve">145.377502441406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137.290267944336</t>
+    <t xml:space="preserve">145.377487182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137.290283203125</t>
   </si>
   <si>
     <t xml:space="preserve">136.520050048828</t>
@@ -2636,25 +2636,25 @@
     <t xml:space="preserve">139.119522094727</t>
   </si>
   <si>
-    <t xml:space="preserve">138.926956176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146.62907409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145.088638305664</t>
+    <t xml:space="preserve">138.926971435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146.629089355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145.088653564453</t>
   </si>
   <si>
     <t xml:space="preserve">148.939712524414</t>
   </si>
   <si>
-    <t xml:space="preserve">149.613647460938</t>
+    <t xml:space="preserve">149.613632202148</t>
   </si>
   <si>
     <t xml:space="preserve">151.154083251953</t>
   </si>
   <si>
-    <t xml:space="preserve">154.90885925293</t>
+    <t xml:space="preserve">154.908843994141</t>
   </si>
   <si>
     <t xml:space="preserve">152.30940246582</t>
@@ -2669,13 +2669,13 @@
     <t xml:space="preserve">164.151397705078</t>
   </si>
   <si>
-    <t xml:space="preserve">163.862564086914</t>
+    <t xml:space="preserve">163.862579345703</t>
   </si>
   <si>
     <t xml:space="preserve">165.499267578125</t>
   </si>
   <si>
-    <t xml:space="preserve">170.216812133789</t>
+    <t xml:space="preserve">170.216827392578</t>
   </si>
   <si>
     <t xml:space="preserve">177.148712158203</t>
@@ -2684,13 +2684,13 @@
     <t xml:space="preserve">177.533813476562</t>
   </si>
   <si>
-    <t xml:space="preserve">179.940719604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175.70458984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180.999771118164</t>
+    <t xml:space="preserve">179.940734863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">175.704574584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180.999786376953</t>
   </si>
   <si>
     <t xml:space="preserve">183.021606445312</t>
@@ -2699,13 +2699,13 @@
     <t xml:space="preserve">180.518402099609</t>
   </si>
   <si>
-    <t xml:space="preserve">184.176895141602</t>
+    <t xml:space="preserve">184.176910400391</t>
   </si>
   <si>
     <t xml:space="preserve">181.962554931641</t>
   </si>
   <si>
-    <t xml:space="preserve">187.354049682617</t>
+    <t xml:space="preserve">187.354034423828</t>
   </si>
   <si>
     <t xml:space="preserve">186.39128112793</t>
@@ -2720,7 +2720,7 @@
     <t xml:space="preserve">185.428512573242</t>
   </si>
   <si>
-    <t xml:space="preserve">183.888092041016</t>
+    <t xml:space="preserve">183.888076782227</t>
   </si>
   <si>
     <t xml:space="preserve">181.577453613281</t>
@@ -2729,7 +2729,7 @@
     <t xml:space="preserve">180.32585144043</t>
   </si>
   <si>
-    <t xml:space="preserve">181.481155395508</t>
+    <t xml:space="preserve">181.481170654297</t>
   </si>
   <si>
     <t xml:space="preserve">178.785415649414</t>
@@ -2738,46 +2738,46 @@
     <t xml:space="preserve">180.13330078125</t>
   </si>
   <si>
-    <t xml:space="preserve">186.968933105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.264129638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">193.708297729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161.744476318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.980667114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">167.328536987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">167.039688110352</t>
+    <t xml:space="preserve">186.96891784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.264114379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">193.708267211914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161.744491577148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.98063659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">167.328521728516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">167.039703369141</t>
   </si>
   <si>
     <t xml:space="preserve">166.173217773438</t>
   </si>
   <si>
-    <t xml:space="preserve">158.95246887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">162.899810791016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166.365783691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170.024261474609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.788101196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163.670013427734</t>
+    <t xml:space="preserve">158.952499389648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162.899795532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.365753173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170.024291992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.7880859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163.670028686523</t>
   </si>
   <si>
     <t xml:space="preserve">162.129592895508</t>
@@ -2786,10 +2786,10 @@
     <t xml:space="preserve">164.825332641602</t>
   </si>
   <si>
-    <t xml:space="preserve">162.225860595703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161.359375</t>
+    <t xml:space="preserve">162.225891113281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161.359390258789</t>
   </si>
   <si>
     <t xml:space="preserve">160.492889404297</t>
@@ -2804,7 +2804,7 @@
     <t xml:space="preserve">161.070556640625</t>
   </si>
   <si>
-    <t xml:space="preserve">161.648223876953</t>
+    <t xml:space="preserve">161.648193359375</t>
   </si>
   <si>
     <t xml:space="preserve">163.766311645508</t>
@@ -2813,22 +2813,22 @@
     <t xml:space="preserve">163.284912109375</t>
   </si>
   <si>
-    <t xml:space="preserve">155.775344848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154.812576293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153.464721679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.604598999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156.449295043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156.545547485352</t>
+    <t xml:space="preserve">155.775360107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154.812591552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">153.464691162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.604583740234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.449279785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.545562744141</t>
   </si>
   <si>
     <t xml:space="preserve">160.011505126953</t>
@@ -2840,10 +2840,10 @@
     <t xml:space="preserve">172.142349243164</t>
   </si>
   <si>
-    <t xml:space="preserve">181.288635253906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171.083297729492</t>
+    <t xml:space="preserve">181.288619995117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171.083312988281</t>
   </si>
   <si>
     <t xml:space="preserve">173.875335693359</t>
@@ -2864,19 +2864,19 @@
     <t xml:space="preserve">172.431182861328</t>
   </si>
   <si>
-    <t xml:space="preserve">176.089691162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175.415740966797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">177.630096435547</t>
+    <t xml:space="preserve">176.08967590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">175.415725708008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">177.630111694336</t>
   </si>
   <si>
     <t xml:space="preserve">178.689163208008</t>
   </si>
   <si>
-    <t xml:space="preserve">178.400314331055</t>
+    <t xml:space="preserve">178.400329589844</t>
   </si>
   <si>
     <t xml:space="preserve">179.459350585938</t>
@@ -2888,22 +2888,22 @@
     <t xml:space="preserve">158.182266235352</t>
   </si>
   <si>
-    <t xml:space="preserve">153.753524780273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.989700317383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156.352996826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.893417358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">159.14501953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.967910766602</t>
+    <t xml:space="preserve">153.753540039062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.989715576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.352981567383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.893432617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159.145034790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.967895507812</t>
   </si>
   <si>
     <t xml:space="preserve">152.116851806641</t>
@@ -2912,25 +2912,25 @@
     <t xml:space="preserve">150.961517333984</t>
   </si>
   <si>
-    <t xml:space="preserve">149.035995483398</t>
+    <t xml:space="preserve">149.036010742188</t>
   </si>
   <si>
     <t xml:space="preserve">134.401992797852</t>
   </si>
   <si>
-    <t xml:space="preserve">136.808898925781</t>
+    <t xml:space="preserve">136.808883666992</t>
   </si>
   <si>
     <t xml:space="preserve">140.467376708984</t>
   </si>
   <si>
-    <t xml:space="preserve">136.712615966797</t>
+    <t xml:space="preserve">136.712600708008</t>
   </si>
   <si>
     <t xml:space="preserve">134.883361816406</t>
   </si>
   <si>
-    <t xml:space="preserve">137.77165222168</t>
+    <t xml:space="preserve">137.771667480469</t>
   </si>
   <si>
     <t xml:space="preserve">134.979614257812</t>
@@ -2939,7 +2939,7 @@
     <t xml:space="preserve">135.74983215332</t>
   </si>
   <si>
-    <t xml:space="preserve">134.787078857422</t>
+    <t xml:space="preserve">134.787063598633</t>
   </si>
   <si>
     <t xml:space="preserve">137.001434326172</t>
@@ -2948,7 +2948,7 @@
     <t xml:space="preserve">133.824310302734</t>
   </si>
   <si>
-    <t xml:space="preserve">132.187606811523</t>
+    <t xml:space="preserve">132.187622070312</t>
   </si>
   <si>
     <t xml:space="preserve">132.572708129883</t>
@@ -2957,22 +2957,22 @@
     <t xml:space="preserve">131.70622253418</t>
   </si>
   <si>
-    <t xml:space="preserve">134.54638671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137.194000244141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.931488037109</t>
+    <t xml:space="preserve">134.546371459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137.193984985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.93147277832</t>
   </si>
   <si>
     <t xml:space="preserve">147.351150512695</t>
   </si>
   <si>
-    <t xml:space="preserve">145.425628662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">143.59635925293</t>
+    <t xml:space="preserve">145.42561340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143.596343994141</t>
   </si>
   <si>
     <t xml:space="preserve">150.095031738281</t>
@@ -2981,13 +2981,13 @@
     <t xml:space="preserve">149.950622558594</t>
   </si>
   <si>
-    <t xml:space="preserve">148.169509887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146.869781494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146.725357055664</t>
+    <t xml:space="preserve">148.169494628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146.869766235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146.725341796875</t>
   </si>
   <si>
     <t xml:space="preserve">138.734420776367</t>
@@ -2996,16 +2996,16 @@
     <t xml:space="preserve">138.541839599609</t>
   </si>
   <si>
-    <t xml:space="preserve">135.027755737305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135.990539550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135.605438232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135.9423828125</t>
+    <t xml:space="preserve">135.027770996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.990524291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.605422973633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.942398071289</t>
   </si>
   <si>
     <t xml:space="preserve">133.342926025391</t>
@@ -3020,22 +3020,22 @@
     <t xml:space="preserve">133.102233886719</t>
   </si>
   <si>
-    <t xml:space="preserve">129.973236083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.150360107422</t>
+    <t xml:space="preserve">129.973251342773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.150375366211</t>
   </si>
   <si>
     <t xml:space="preserve">132.861557006836</t>
   </si>
   <si>
-    <t xml:space="preserve">136.375640869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138.638137817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138.78254699707</t>
+    <t xml:space="preserve">136.375625610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138.638122558594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138.782531738281</t>
   </si>
   <si>
     <t xml:space="preserve">138.734085083008</t>
@@ -3044,10 +3044,10 @@
     <t xml:space="preserve">138.491714477539</t>
   </si>
   <si>
-    <t xml:space="preserve">139.606628417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">139.558120727539</t>
+    <t xml:space="preserve">139.60661315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">139.558135986328</t>
   </si>
   <si>
     <t xml:space="preserve">139.848983764648</t>
@@ -3056,7 +3056,7 @@
     <t xml:space="preserve">140.236770629883</t>
   </si>
   <si>
-    <t xml:space="preserve">137.716110229492</t>
+    <t xml:space="preserve">137.716125488281</t>
   </si>
   <si>
     <t xml:space="preserve">134.759155273438</t>
@@ -3077,10 +3077,10 @@
     <t xml:space="preserve">140.430694580078</t>
   </si>
   <si>
-    <t xml:space="preserve">140.963897705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145.035766601562</t>
+    <t xml:space="preserve">140.963882446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145.035781860352</t>
   </si>
   <si>
     <t xml:space="preserve">146.150680541992</t>
@@ -3089,7 +3089,7 @@
     <t xml:space="preserve">145.859817504883</t>
   </si>
   <si>
-    <t xml:space="preserve">148.138122558594</t>
+    <t xml:space="preserve">148.138137817383</t>
   </si>
   <si>
     <t xml:space="preserve">147.653381347656</t>
@@ -3098,31 +3098,31 @@
     <t xml:space="preserve">149.204559326172</t>
   </si>
   <si>
-    <t xml:space="preserve">148.719818115234</t>
+    <t xml:space="preserve">148.719802856445</t>
   </si>
   <si>
     <t xml:space="preserve">149.107620239258</t>
   </si>
   <si>
-    <t xml:space="preserve">145.22966003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149.883209228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151.337448120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152.210006713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.021514892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154.633728027344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152.694747924805</t>
+    <t xml:space="preserve">145.229675292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149.883224487305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151.337463378906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152.209976196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.021499633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154.633712768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152.694732666016</t>
   </si>
   <si>
     <t xml:space="preserve">153.470336914062</t>
@@ -3134,7 +3134,7 @@
     <t xml:space="preserve">155.845581054688</t>
   </si>
   <si>
-    <t xml:space="preserve">158.317779541016</t>
+    <t xml:space="preserve">158.317794799805</t>
   </si>
   <si>
     <t xml:space="preserve">154.342864990234</t>
@@ -3143,16 +3143,16 @@
     <t xml:space="preserve">155.748626708984</t>
   </si>
   <si>
-    <t xml:space="preserve">157.105911254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.445236206055</t>
+    <t xml:space="preserve">157.105926513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.445220947266</t>
   </si>
   <si>
     <t xml:space="preserve">157.00895690918</t>
   </si>
   <si>
-    <t xml:space="preserve">157.639129638672</t>
+    <t xml:space="preserve">157.639144897461</t>
   </si>
   <si>
     <t xml:space="preserve">158.075408935547</t>
@@ -3164,37 +3164,37 @@
     <t xml:space="preserve">162.195739746094</t>
   </si>
   <si>
-    <t xml:space="preserve">164.280136108398</t>
+    <t xml:space="preserve">164.280151367188</t>
   </si>
   <si>
     <t xml:space="preserve">165.734375</t>
   </si>
   <si>
-    <t xml:space="preserve">167.091659545898</t>
+    <t xml:space="preserve">167.091674804688</t>
   </si>
   <si>
     <t xml:space="preserve">163.795394897461</t>
   </si>
   <si>
-    <t xml:space="preserve">162.971328735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.425567626953</t>
+    <t xml:space="preserve">162.971343994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.425582885742</t>
   </si>
   <si>
     <t xml:space="preserve">167.188613891602</t>
   </si>
   <si>
-    <t xml:space="preserve">165.928283691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171.06657409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166.703872680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170.290985107422</t>
+    <t xml:space="preserve">165.928268432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171.066558837891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.703857421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170.290969848633</t>
   </si>
   <si>
     <t xml:space="preserve">171.018096923828</t>
@@ -3206,16 +3206,16 @@
     <t xml:space="preserve">170.824203491211</t>
   </si>
   <si>
-    <t xml:space="preserve">170.484878540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171.212005615234</t>
+    <t xml:space="preserve">170.484893798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171.212020874023</t>
   </si>
   <si>
     <t xml:space="preserve">173.344879150391</t>
   </si>
   <si>
-    <t xml:space="preserve">172.423858642578</t>
+    <t xml:space="preserve">172.423873901367</t>
   </si>
   <si>
     <t xml:space="preserve">173.538772583008</t>
@@ -3227,7 +3227,7 @@
     <t xml:space="preserve">179.210296630859</t>
   </si>
   <si>
-    <t xml:space="preserve">179.404205322266</t>
+    <t xml:space="preserve">179.404190063477</t>
   </si>
   <si>
     <t xml:space="preserve">182.409591674805</t>
@@ -3239,7 +3239,7 @@
     <t xml:space="preserve">180.325210571289</t>
   </si>
   <si>
-    <t xml:space="preserve">179.743499755859</t>
+    <t xml:space="preserve">179.743515014648</t>
   </si>
   <si>
     <t xml:space="preserve">180.08283996582</t>
@@ -3251,13 +3251,13 @@
     <t xml:space="preserve">185.075698852539</t>
   </si>
   <si>
-    <t xml:space="preserve">187.354019165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.443832397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">194.867568969727</t>
+    <t xml:space="preserve">187.35400390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.44384765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">194.867553710938</t>
   </si>
   <si>
     <t xml:space="preserve">195.740097045898</t>
@@ -3278,7 +3278,7 @@
     <t xml:space="preserve">199.908905029297</t>
   </si>
   <si>
-    <t xml:space="preserve">190.698760986328</t>
+    <t xml:space="preserve">190.698745727539</t>
   </si>
   <si>
     <t xml:space="preserve">195.643157958984</t>
@@ -3290,7 +3290,7 @@
     <t xml:space="preserve">194.479782104492</t>
   </si>
   <si>
-    <t xml:space="preserve">196.418762207031</t>
+    <t xml:space="preserve">196.418746948242</t>
   </si>
   <si>
     <t xml:space="preserve">198.35774230957</t>
@@ -3299,7 +3299,7 @@
     <t xml:space="preserve">197.000442504883</t>
   </si>
   <si>
-    <t xml:space="preserve">189.874710083008</t>
+    <t xml:space="preserve">189.874694824219</t>
   </si>
   <si>
     <t xml:space="preserve">182.845901489258</t>
@@ -3311,13 +3311,13 @@
     <t xml:space="preserve">176.301834106445</t>
   </si>
   <si>
-    <t xml:space="preserve">175.817092895508</t>
+    <t xml:space="preserve">175.817077636719</t>
   </si>
   <si>
     <t xml:space="preserve">169.806228637695</t>
   </si>
   <si>
-    <t xml:space="preserve">166.606918334961</t>
+    <t xml:space="preserve">166.60693359375</t>
   </si>
   <si>
     <t xml:space="preserve">167.576416015625</t>
@@ -3326,22 +3326,22 @@
     <t xml:space="preserve">164.861846923828</t>
   </si>
   <si>
-    <t xml:space="preserve">165.492004394531</t>
+    <t xml:space="preserve">165.491989135742</t>
   </si>
   <si>
     <t xml:space="preserve">166.849304199219</t>
   </si>
   <si>
-    <t xml:space="preserve">164.183197021484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">168.642837524414</t>
+    <t xml:space="preserve">164.183212280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">168.642852783203</t>
   </si>
   <si>
     <t xml:space="preserve">173.05403137207</t>
   </si>
   <si>
-    <t xml:space="preserve">173.441818237305</t>
+    <t xml:space="preserve">173.441802978516</t>
   </si>
   <si>
     <t xml:space="preserve">174.605224609375</t>
@@ -3350,7 +3350,7 @@
     <t xml:space="preserve">173.878112792969</t>
   </si>
   <si>
-    <t xml:space="preserve">175.962493896484</t>
+    <t xml:space="preserve">175.962509155273</t>
   </si>
   <si>
     <t xml:space="preserve">179.985870361328</t>
@@ -3362,22 +3362,22 @@
     <t xml:space="preserve">183.13671875</t>
   </si>
   <si>
-    <t xml:space="preserve">185.221130371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185.172668457031</t>
+    <t xml:space="preserve">185.221145629883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">185.172653198242</t>
   </si>
   <si>
     <t xml:space="preserve">181.634033203125</t>
   </si>
   <si>
-    <t xml:space="preserve">189.486907958984</t>
+    <t xml:space="preserve">189.486877441406</t>
   </si>
   <si>
     <t xml:space="preserve">189.389953613281</t>
   </si>
   <si>
-    <t xml:space="preserve">191.135025024414</t>
+    <t xml:space="preserve">191.135009765625</t>
   </si>
   <si>
     <t xml:space="preserve">191.619766235352</t>
@@ -3392,13 +3392,13 @@
     <t xml:space="preserve">176.931991577148</t>
   </si>
   <si>
-    <t xml:space="preserve">178.483169555664</t>
+    <t xml:space="preserve">178.483184814453</t>
   </si>
   <si>
     <t xml:space="preserve">177.80451965332</t>
   </si>
   <si>
-    <t xml:space="preserve">179.355712890625</t>
+    <t xml:space="preserve">179.355728149414</t>
   </si>
   <si>
     <t xml:space="preserve">182.264190673828</t>
@@ -3413,22 +3413,22 @@
     <t xml:space="preserve">178.143859863281</t>
   </si>
   <si>
-    <t xml:space="preserve">178.870956420898</t>
+    <t xml:space="preserve">178.870971679688</t>
   </si>
   <si>
     <t xml:space="preserve">178.046890258789</t>
   </si>
   <si>
-    <t xml:space="preserve">173.829635620117</t>
+    <t xml:space="preserve">173.829620361328</t>
   </si>
   <si>
     <t xml:space="preserve">172.036056518555</t>
   </si>
   <si>
-    <t xml:space="preserve">181.585556030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179.452667236328</t>
+    <t xml:space="preserve">181.585540771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179.452682495117</t>
   </si>
   <si>
     <t xml:space="preserve">182.991302490234</t>
@@ -3449,10 +3449,10 @@
     <t xml:space="preserve">169.612335205078</t>
   </si>
   <si>
-    <t xml:space="preserve">172.569274902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">174.508255004883</t>
+    <t xml:space="preserve">172.569290161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">174.508270263672</t>
   </si>
   <si>
     <t xml:space="preserve">175.138427734375</t>
@@ -3464,19 +3464,19 @@
     <t xml:space="preserve">174.993011474609</t>
   </si>
   <si>
-    <t xml:space="preserve">172.714706420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154.003540039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.651672363281</t>
+    <t xml:space="preserve">172.714691162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154.003555297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.65168762207</t>
   </si>
   <si>
     <t xml:space="preserve">155.36083984375</t>
   </si>
   <si>
-    <t xml:space="preserve">156.912017822266</t>
+    <t xml:space="preserve">156.912033081055</t>
   </si>
   <si>
     <t xml:space="preserve">156.718109130859</t>
@@ -3485,7 +3485,7 @@
     <t xml:space="preserve">161.27473449707</t>
   </si>
   <si>
-    <t xml:space="preserve">159.965896606445</t>
+    <t xml:space="preserve">159.965911865234</t>
   </si>
   <si>
     <t xml:space="preserve">162.341156005859</t>
@@ -3494,13 +3494,13 @@
     <t xml:space="preserve">158.220825195312</t>
   </si>
   <si>
-    <t xml:space="preserve">154.100479125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.603210449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150.077102661133</t>
+    <t xml:space="preserve">154.100494384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.60319519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150.077117919922</t>
   </si>
   <si>
     <t xml:space="preserve">143.58154296875</t>
@@ -3527,19 +3527,19 @@
     <t xml:space="preserve">140.72151184082</t>
   </si>
   <si>
-    <t xml:space="preserve">142.515090942383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130.590362548828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128.505935668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130.63883972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130.978164672852</t>
+    <t xml:space="preserve">142.515075683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.590347290039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128.505950927734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.638824462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.978149414062</t>
   </si>
   <si>
     <t xml:space="preserve">132.723220825195</t>
@@ -3548,16 +3548,16 @@
     <t xml:space="preserve">132.820175170898</t>
   </si>
   <si>
-    <t xml:space="preserve">133.69270324707</t>
+    <t xml:space="preserve">133.692718505859</t>
   </si>
   <si>
     <t xml:space="preserve">129.330001831055</t>
   </si>
   <si>
-    <t xml:space="preserve">127.584945678711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.05884552002</t>
+    <t xml:space="preserve">127.584938049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.058837890625</t>
   </si>
   <si>
     <t xml:space="preserve">120.943923950195</t>
@@ -3572,25 +3572,25 @@
     <t xml:space="preserve">119.441207885742</t>
   </si>
   <si>
-    <t xml:space="preserve">116.096466064453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.568672180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.035446166992</t>
+    <t xml:space="preserve">116.096473693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.56867980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.035453796387</t>
   </si>
   <si>
     <t xml:space="preserve">117.065956115723</t>
   </si>
   <si>
-    <t xml:space="preserve">113.721221923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.866645812988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.696128845215</t>
+    <t xml:space="preserve">113.721229553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.866638183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.696136474609</t>
   </si>
   <si>
     <t xml:space="preserve">121.671043395996</t>
@@ -3605,19 +3605,19 @@
     <t xml:space="preserve">129.572387695312</t>
   </si>
   <si>
-    <t xml:space="preserve">128.748321533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125.355102539062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124.724922180176</t>
+    <t xml:space="preserve">128.748336791992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.355110168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.72492980957</t>
   </si>
   <si>
     <t xml:space="preserve">121.62255859375</t>
   </si>
   <si>
-    <t xml:space="preserve">123.803916931152</t>
+    <t xml:space="preserve">123.803909301758</t>
   </si>
   <si>
     <t xml:space="preserve">119.004943847656</t>
@@ -3629,7 +3629,7 @@
     <t xml:space="preserve">117.017486572266</t>
   </si>
   <si>
-    <t xml:space="preserve">119.101898193359</t>
+    <t xml:space="preserve">119.101890563965</t>
   </si>
   <si>
     <t xml:space="preserve">123.416130065918</t>
@@ -3647,25 +3647,25 @@
     <t xml:space="preserve">128.215087890625</t>
   </si>
   <si>
-    <t xml:space="preserve">126.85782623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125.791366577148</t>
+    <t xml:space="preserve">126.857833862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.791374206543</t>
   </si>
   <si>
     <t xml:space="preserve">127.051719665527</t>
   </si>
   <si>
-    <t xml:space="preserve">135.534744262695</t>
+    <t xml:space="preserve">135.534774780273</t>
   </si>
   <si>
     <t xml:space="preserve">137.473739624023</t>
   </si>
   <si>
-    <t xml:space="preserve">137.570678710938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141.109313964844</t>
+    <t xml:space="preserve">137.570663452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141.109329223633</t>
   </si>
   <si>
     <t xml:space="preserve">141.400177001953</t>
@@ -3677,13 +3677,13 @@
     <t xml:space="preserve">140.818481445312</t>
   </si>
   <si>
-    <t xml:space="preserve">137.910003662109</t>
+    <t xml:space="preserve">137.910018920898</t>
   </si>
   <si>
     <t xml:space="preserve">136.988998413086</t>
   </si>
   <si>
-    <t xml:space="preserve">134.322891235352</t>
+    <t xml:space="preserve">134.322906494141</t>
   </si>
   <si>
     <t xml:space="preserve">130.687301635742</t>
@@ -3695,7 +3695,7 @@
     <t xml:space="preserve">130.202560424805</t>
   </si>
   <si>
-    <t xml:space="preserve">130.05712890625</t>
+    <t xml:space="preserve">130.057113647461</t>
   </si>
   <si>
     <t xml:space="preserve">128.069686889648</t>
@@ -3707,10 +3707,10 @@
     <t xml:space="preserve">122.543586730957</t>
   </si>
   <si>
-    <t xml:space="preserve">120.216804504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.726638793945</t>
+    <t xml:space="preserve">120.216812133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.72664642334</t>
   </si>
   <si>
     <t xml:space="preserve">120.168327331543</t>
@@ -3719,16 +3719,16 @@
     <t xml:space="preserve">121.234771728516</t>
   </si>
   <si>
-    <t xml:space="preserve">119.683586120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119.150375366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.854095458984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.290367126465</t>
+    <t xml:space="preserve">119.683578491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.150367736816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.854103088379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.29035949707</t>
   </si>
   <si>
     <t xml:space="preserve">116.969017028809</t>
@@ -3740,22 +3740,22 @@
     <t xml:space="preserve">107.952751159668</t>
   </si>
   <si>
-    <t xml:space="preserve">111.055122375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.534446716309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.466300964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.338836669922</t>
+    <t xml:space="preserve">111.055130004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.534439086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.466293334961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.338844299316</t>
   </si>
   <si>
     <t xml:space="preserve">114.884605407715</t>
   </si>
   <si>
-    <t xml:space="preserve">111.976135253906</t>
+    <t xml:space="preserve">111.976142883301</t>
   </si>
   <si>
     <t xml:space="preserve">114.496810913086</t>
@@ -3773,7 +3773,7 @@
     <t xml:space="preserve">113.362937927246</t>
   </si>
   <si>
-    <t xml:space="preserve">114.830108642578</t>
+    <t xml:space="preserve">114.830101013184</t>
   </si>
   <si>
     <t xml:space="preserve">118.791442871094</t>
@@ -3782,19 +3782,19 @@
     <t xml:space="preserve">119.91626739502</t>
   </si>
   <si>
-    <t xml:space="preserve">119.818466186523</t>
+    <t xml:space="preserve">119.818458557129</t>
   </si>
   <si>
     <t xml:space="preserve">118.253486633301</t>
   </si>
   <si>
-    <t xml:space="preserve">121.334533691406</t>
+    <t xml:space="preserve">121.334541320801</t>
   </si>
   <si>
     <t xml:space="preserve">117.764434814453</t>
   </si>
   <si>
-    <t xml:space="preserve">119.769554138184</t>
+    <t xml:space="preserve">119.769546508789</t>
   </si>
   <si>
     <t xml:space="preserve">119.231597900391</t>
@@ -3806,7 +3806,7 @@
     <t xml:space="preserve">116.541793823242</t>
   </si>
   <si>
-    <t xml:space="preserve">113.21622467041</t>
+    <t xml:space="preserve">113.216217041016</t>
   </si>
   <si>
     <t xml:space="preserve">112.335914611816</t>
@@ -3818,7 +3818,7 @@
     <t xml:space="preserve">114.096519470215</t>
   </si>
   <si>
-    <t xml:space="preserve">111.308906555176</t>
+    <t xml:space="preserve">111.30891418457</t>
   </si>
   <si>
     <t xml:space="preserve">116.150550842285</t>
@@ -3833,22 +3833,22 @@
     <t xml:space="preserve">114.976821899414</t>
   </si>
   <si>
-    <t xml:space="preserve">121.725776672363</t>
+    <t xml:space="preserve">121.725769042969</t>
   </si>
   <si>
     <t xml:space="preserve">124.953536987305</t>
   </si>
   <si>
-    <t xml:space="preserve">124.366668701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124.171051025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.410461425781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.459358215332</t>
+    <t xml:space="preserve">124.366676330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.171043395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.410453796387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.459350585938</t>
   </si>
   <si>
     <t xml:space="preserve">123.584182739258</t>
@@ -3872,16 +3872,16 @@
     <t xml:space="preserve">133.218566894531</t>
   </si>
   <si>
-    <t xml:space="preserve">127.203193664551</t>
+    <t xml:space="preserve">127.203201293945</t>
   </si>
   <si>
     <t xml:space="preserve">129.599563598633</t>
   </si>
   <si>
-    <t xml:space="preserve">126.567413330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129.550659179688</t>
+    <t xml:space="preserve">126.567405700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129.550643920898</t>
   </si>
   <si>
     <t xml:space="preserve">129.306121826172</t>
@@ -3905,19 +3905,19 @@
     <t xml:space="preserve">130.430969238281</t>
   </si>
   <si>
-    <t xml:space="preserve">127.545532226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131.89811706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.631698608398</t>
+    <t xml:space="preserve">127.545516967773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131.898132324219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.631713867188</t>
   </si>
   <si>
     <t xml:space="preserve">132.533889770508</t>
   </si>
   <si>
-    <t xml:space="preserve">130.284240722656</t>
+    <t xml:space="preserve">130.284225463867</t>
   </si>
   <si>
     <t xml:space="preserve">131.800308227539</t>
@@ -3929,16 +3929,16 @@
     <t xml:space="preserve">133.903228759766</t>
   </si>
   <si>
-    <t xml:space="preserve">132.582794189453</t>
+    <t xml:space="preserve">132.582809448242</t>
   </si>
   <si>
     <t xml:space="preserve">133.609817504883</t>
   </si>
   <si>
-    <t xml:space="preserve">136.83757019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.587921142578</t>
+    <t xml:space="preserve">136.837554931641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.587936401367</t>
   </si>
   <si>
     <t xml:space="preserve">133.463088989258</t>
@@ -3947,28 +3947,28 @@
     <t xml:space="preserve">132.484985351562</t>
   </si>
   <si>
-    <t xml:space="preserve">133.707626342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.169662475586</t>
+    <t xml:space="preserve">133.707611083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.169647216797</t>
   </si>
   <si>
     <t xml:space="preserve">134.001052856445</t>
   </si>
   <si>
-    <t xml:space="preserve">128.132385253906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129.501754760742</t>
+    <t xml:space="preserve">128.132400512695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129.501739501953</t>
   </si>
   <si>
     <t xml:space="preserve">128.083480834961</t>
   </si>
   <si>
-    <t xml:space="preserve">127.496620178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130.822189331055</t>
+    <t xml:space="preserve">127.496635437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.822204589844</t>
   </si>
   <si>
     <t xml:space="preserve">129.697387695312</t>
@@ -3983,16 +3983,16 @@
     <t xml:space="preserve">130.773284912109</t>
   </si>
   <si>
-    <t xml:space="preserve">131.653594970703</t>
+    <t xml:space="preserve">131.653610229492</t>
   </si>
   <si>
     <t xml:space="preserve">133.658706665039</t>
   </si>
   <si>
-    <t xml:space="preserve">126.714134216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125.05135345459</t>
+    <t xml:space="preserve">126.714141845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.051345825195</t>
   </si>
   <si>
     <t xml:space="preserve">122.94841003418</t>
@@ -4010,19 +4010,19 @@
     <t xml:space="preserve">113.900894165039</t>
   </si>
   <si>
-    <t xml:space="preserve">113.069496154785</t>
+    <t xml:space="preserve">113.06950378418</t>
   </si>
   <si>
     <t xml:space="preserve">112.23811340332</t>
   </si>
   <si>
-    <t xml:space="preserve">109.157066345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.287017822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.504531860352</t>
+    <t xml:space="preserve">109.15705871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.28702545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.504524230957</t>
   </si>
   <si>
     <t xml:space="preserve">115.270248413086</t>
@@ -4031,16 +4031,16 @@
     <t xml:space="preserve">112.727165222168</t>
   </si>
   <si>
-    <t xml:space="preserve">109.890647888184</t>
+    <t xml:space="preserve">109.890640258789</t>
   </si>
   <si>
     <t xml:space="preserve">110.526420593262</t>
   </si>
   <si>
-    <t xml:space="preserve">116.443992614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125.344772338867</t>
+    <t xml:space="preserve">116.443984985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.344779968262</t>
   </si>
   <si>
     <t xml:space="preserve">123.241844177246</t>
@@ -4049,7 +4049,7 @@
     <t xml:space="preserve">126.176177978516</t>
   </si>
   <si>
-    <t xml:space="preserve">127.252098083496</t>
+    <t xml:space="preserve">127.252105712891</t>
   </si>
   <si>
     <t xml:space="preserve">133.267471313477</t>
@@ -4064,16 +4064,16 @@
     <t xml:space="preserve">126.273994445801</t>
   </si>
   <si>
-    <t xml:space="preserve">129.403930664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128.279113769531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.518524169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.877616882324</t>
+    <t xml:space="preserve">129.403945922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128.279098510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.518516540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.877624511719</t>
   </si>
   <si>
     <t xml:space="preserve">126.371795654297</t>
@@ -4082,7 +4082,7 @@
     <t xml:space="preserve">126.616317749023</t>
   </si>
   <si>
-    <t xml:space="preserve">130.235336303711</t>
+    <t xml:space="preserve">130.235321044922</t>
   </si>
   <si>
     <t xml:space="preserve">133.756530761719</t>
@@ -4091,7 +4091,7 @@
     <t xml:space="preserve">135.223693847656</t>
   </si>
   <si>
-    <t xml:space="preserve">132.436080932617</t>
+    <t xml:space="preserve">132.436065673828</t>
   </si>
   <si>
     <t xml:space="preserve">129.941909790039</t>
@@ -4103,7 +4103,7 @@
     <t xml:space="preserve">129.844085693359</t>
   </si>
   <si>
-    <t xml:space="preserve">128.670349121094</t>
+    <t xml:space="preserve">128.670364379883</t>
   </si>
   <si>
     <t xml:space="preserve">126.07836151123</t>
@@ -4112,25 +4112,25 @@
     <t xml:space="preserve">128.865982055664</t>
   </si>
   <si>
-    <t xml:space="preserve">130.96891784668</t>
+    <t xml:space="preserve">130.968902587891</t>
   </si>
   <si>
     <t xml:space="preserve">129.795181274414</t>
   </si>
   <si>
-    <t xml:space="preserve">126.860855102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131.164535522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.365280151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136.152908325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131.506881713867</t>
+    <t xml:space="preserve">126.860847473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131.16455078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.365295410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136.152893066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131.506866455078</t>
   </si>
   <si>
     <t xml:space="preserve">126.665229797363</t>
@@ -4139,7 +4139,7 @@
     <t xml:space="preserve">121.823593139648</t>
   </si>
   <si>
-    <t xml:space="preserve">125.00244140625</t>
+    <t xml:space="preserve">125.002449035645</t>
   </si>
   <si>
     <t xml:space="preserve">123.339653015137</t>
@@ -4148,7 +4148,7 @@
     <t xml:space="preserve">125.100257873535</t>
   </si>
   <si>
-    <t xml:space="preserve">124.611198425293</t>
+    <t xml:space="preserve">124.611206054688</t>
   </si>
   <si>
     <t xml:space="preserve">124.219955444336</t>
@@ -4160,19 +4160,19 @@
     <t xml:space="preserve">126.469612121582</t>
   </si>
   <si>
-    <t xml:space="preserve">127.00757598877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124.415580749512</t>
+    <t xml:space="preserve">127.007583618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.415573120117</t>
   </si>
   <si>
     <t xml:space="preserve">123.730903625488</t>
   </si>
   <si>
-    <t xml:space="preserve">124.806823730469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.437469482422</t>
+    <t xml:space="preserve">124.806816101074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.437461853027</t>
   </si>
   <si>
     <t xml:space="preserve">123.779815673828</t>
@@ -4190,7 +4190,7 @@
     <t xml:space="preserve">122.557174682617</t>
   </si>
   <si>
-    <t xml:space="preserve">122.019203186035</t>
+    <t xml:space="preserve">122.01921081543</t>
   </si>
   <si>
     <t xml:space="preserve">120.9921875</t>
@@ -4217,7 +4217,7 @@
     <t xml:space="preserve">119.280494689941</t>
   </si>
   <si>
-    <t xml:space="preserve">118.400199890137</t>
+    <t xml:space="preserve">118.400207519531</t>
   </si>
   <si>
     <t xml:space="preserve">115.710403442383</t>
@@ -4226,10 +4226,10 @@
     <t xml:space="preserve">113.851997375488</t>
   </si>
   <si>
-    <t xml:space="preserve">114.683380126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.754180908203</t>
+    <t xml:space="preserve">114.683387756348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.754188537598</t>
   </si>
   <si>
     <t xml:space="preserve">113.998710632324</t>
@@ -4241,7 +4241,7 @@
     <t xml:space="preserve">110.819854736328</t>
   </si>
   <si>
-    <t xml:space="preserve">112.482643127441</t>
+    <t xml:space="preserve">112.482635498047</t>
   </si>
   <si>
     <t xml:space="preserve">111.651245117188</t>
@@ -4250,16 +4250,16 @@
     <t xml:space="preserve">108.570198059082</t>
   </si>
   <si>
-    <t xml:space="preserve">107.543182373047</t>
+    <t xml:space="preserve">107.543174743652</t>
   </si>
   <si>
     <t xml:space="preserve">110.03736114502</t>
   </si>
   <si>
-    <t xml:space="preserve">110.232986450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.499404907227</t>
+    <t xml:space="preserve">110.232978820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.499397277832</t>
   </si>
   <si>
     <t xml:space="preserve">109.10816192627</t>
@@ -4280,22 +4280,22 @@
     <t xml:space="preserve">105.000091552734</t>
   </si>
   <si>
-    <t xml:space="preserve">103.386215209961</t>
+    <t xml:space="preserve">103.386207580566</t>
   </si>
   <si>
     <t xml:space="preserve">98.9847183227539</t>
   </si>
   <si>
-    <t xml:space="preserve">100.207359313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.838005065918</t>
+    <t xml:space="preserve">100.20735168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.8380126953125</t>
   </si>
   <si>
     <t xml:space="preserve">96.3438262939453</t>
   </si>
   <si>
-    <t xml:space="preserve">99.8161163330078</t>
+    <t xml:space="preserve">99.8161239624023</t>
   </si>
   <si>
     <t xml:space="preserve">95.8547668457031</t>
@@ -4307,46 +4307,46 @@
     <t xml:space="preserve">95.8743286132812</t>
   </si>
   <si>
-    <t xml:space="preserve">96.2851409912109</t>
+    <t xml:space="preserve">96.2851333618164</t>
   </si>
   <si>
     <t xml:space="preserve">94.9353485107422</t>
   </si>
   <si>
-    <t xml:space="preserve">94.8766555786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.4393157958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.0089340209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.9306945800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.1896591186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94.7201614379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.1700897216797</t>
+    <t xml:space="preserve">94.8766632080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.4393081665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.0089416503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.9306869506836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.1896514892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94.7201538085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.1700973510742</t>
   </si>
   <si>
     <t xml:space="preserve">95.2483367919922</t>
   </si>
   <si>
-    <t xml:space="preserve">95.0331573486328</t>
+    <t xml:space="preserve">95.0331649780273</t>
   </si>
   <si>
     <t xml:space="preserve">96.7546310424805</t>
   </si>
   <si>
-    <t xml:space="preserve">97.1850051879883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.3852691650391</t>
+    <t xml:space="preserve">97.1849975585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.3852767944336</t>
   </si>
   <si>
     <t xml:space="preserve">94.3484802246094</t>
@@ -4355,7 +4355,7 @@
     <t xml:space="preserve">96.3242645263672</t>
   </si>
   <si>
-    <t xml:space="preserve">95.5809020996094</t>
+    <t xml:space="preserve">95.5808944702148</t>
   </si>
   <si>
     <t xml:space="preserve">95.8156433105469</t>
@@ -4367,16 +4367,16 @@
     <t xml:space="preserve">102.16357421875</t>
   </si>
   <si>
-    <t xml:space="preserve">99.9628295898438</t>
+    <t xml:space="preserve">99.9628219604492</t>
   </si>
   <si>
     <t xml:space="preserve">102.457008361816</t>
   </si>
   <si>
-    <t xml:space="preserve">103.28840637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102.750442504883</t>
+    <t xml:space="preserve">103.288398742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102.750450134277</t>
   </si>
   <si>
     <t xml:space="preserve">99.3270645141602</t>
@@ -5094,6 +5094,9 @@
   </si>
   <si>
     <t xml:space="preserve">100.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.699996948242</t>
   </si>
 </sst>
 </file>
@@ -61179,7 +61182,7 @@
     </row>
     <row r="2145">
       <c r="A2145" s="1" t="n">
-        <v>45448.6495833333</v>
+        <v>45448.2916666667</v>
       </c>
       <c r="B2145" t="n">
         <v>74454</v>
@@ -61200,6 +61203,32 @@
         <v>1693</v>
       </c>
       <c r="H2145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" s="1" t="n">
+        <v>45449.6495833333</v>
+      </c>
+      <c r="B2146" t="n">
+        <v>66829</v>
+      </c>
+      <c r="C2146" t="n">
+        <v>101.199996948242</v>
+      </c>
+      <c r="D2146" t="n">
+        <v>100.099998474121</v>
+      </c>
+      <c r="E2146" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>100.699996948242</v>
+      </c>
+      <c r="G2146" t="s">
+        <v>1694</v>
+      </c>
+      <c r="H2146" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DIA.MI.xlsx
+++ b/data/DIA.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="1695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="1696">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,25 +38,25 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0384178161621</t>
+    <t xml:space="preserve">43.0384140014648</t>
   </si>
   <si>
     <t xml:space="preserve">DIA.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8512992858887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5922508239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.4761238098145</t>
+    <t xml:space="preserve">43.8513069152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5922470092773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.4761199951172</t>
   </si>
   <si>
     <t xml:space="preserve">43.3689270019531</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6900329589844</t>
+    <t xml:space="preserve">42.6900291442871</t>
   </si>
   <si>
     <t xml:space="preserve">43.0116157531738</t>
@@ -68,19 +68,19 @@
     <t xml:space="preserve">41.8146171569824</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5104217529297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.7779235839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5630531311035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.3218803405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1253547668457</t>
+    <t xml:space="preserve">40.5104179382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.7779312133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.563060760498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.3218765258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1253509521484</t>
   </si>
   <si>
     <t xml:space="preserve">39.4563446044922</t>
@@ -89,25 +89,25 @@
     <t xml:space="preserve">40.7694702148438</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7878189086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5917739868164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8950119018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3242645263672</t>
+    <t xml:space="preserve">41.7878150939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5917701721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8950157165527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3242607116699</t>
   </si>
   <si>
     <t xml:space="preserve">43.6190528869629</t>
   </si>
   <si>
-    <t xml:space="preserve">43.5475807189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.4131126403809</t>
+    <t xml:space="preserve">43.5475845336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.4131164550781</t>
   </si>
   <si>
     <t xml:space="preserve">41.7610206604004</t>
@@ -125,13 +125,13 @@
     <t xml:space="preserve">39.0811653137207</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0990333557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8935813903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6354789733887</t>
+    <t xml:space="preserve">39.0990295410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8935737609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6354827880859</t>
   </si>
   <si>
     <t xml:space="preserve">40.9123916625977</t>
@@ -143,25 +143,25 @@
     <t xml:space="preserve">41.9307403564453</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0920104980469</t>
+    <t xml:space="preserve">43.0920143127441</t>
   </si>
   <si>
     <t xml:space="preserve">42.4756469726562</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1366691589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.7619743347168</t>
+    <t xml:space="preserve">43.1366767883301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.7619781494141</t>
   </si>
   <si>
     <t xml:space="preserve">43.4493255615234</t>
   </si>
   <si>
-    <t xml:space="preserve">43.779842376709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1009483337402</t>
+    <t xml:space="preserve">43.7798347473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.100944519043</t>
   </si>
   <si>
     <t xml:space="preserve">42.3416557312012</t>
@@ -170,40 +170,40 @@
     <t xml:space="preserve">43.1902732849121</t>
   </si>
   <si>
-    <t xml:space="preserve">43.2527961730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3064002990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.278636932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8677368164062</t>
+    <t xml:space="preserve">43.252799987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.306396484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2786407470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.867733001709</t>
   </si>
   <si>
     <t xml:space="preserve">40.5193557739258</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6895523071289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0910606384277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6712074279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1263122558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6265487670898</t>
+    <t xml:space="preserve">41.6895561218262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0910568237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6712112426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1263084411621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6265525817871</t>
   </si>
   <si>
     <t xml:space="preserve">40.8051986694336</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3496246337891</t>
+    <t xml:space="preserve">40.3496322631836</t>
   </si>
   <si>
     <t xml:space="preserve">40.6444129943848</t>
@@ -212,88 +212,88 @@
     <t xml:space="preserve">40.9838600158691</t>
   </si>
   <si>
-    <t xml:space="preserve">44.664192199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.3341484069824</t>
+    <t xml:space="preserve">44.6641883850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.3341522216797</t>
   </si>
   <si>
     <t xml:space="preserve">45.8701210021973</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4507522583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.9594497680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.2721061706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.4333686828613</t>
+    <t xml:space="preserve">46.450756072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.9594573974609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.272102355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.4333724975586</t>
   </si>
   <si>
     <t xml:space="preserve">46.4954223632812</t>
   </si>
   <si>
-    <t xml:space="preserve">46.0041160583496</t>
+    <t xml:space="preserve">46.0041198730469</t>
   </si>
   <si>
     <t xml:space="preserve">45.7807960510254</t>
   </si>
   <si>
-    <t xml:space="preserve">45.4681434631348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.5128135681152</t>
+    <t xml:space="preserve">45.468147277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.512809753418</t>
   </si>
   <si>
     <t xml:space="preserve">45.9147911071777</t>
   </si>
   <si>
-    <t xml:space="preserve">45.3788108825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2894859313965</t>
+    <t xml:space="preserve">45.3788185119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.289493560791</t>
   </si>
   <si>
     <t xml:space="preserve">45.8254547119141</t>
   </si>
   <si>
-    <t xml:space="preserve">45.5574760437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4234809875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.3614273071289</t>
+    <t xml:space="preserve">45.5574722290039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4234771728516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.3614311218262</t>
   </si>
   <si>
     <t xml:space="preserve">46.2274322509766</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4060935974121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8973999023438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.7634124755859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8527374267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.2100486755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.6740837097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.5847473144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.0285758972168</t>
+    <t xml:space="preserve">46.4060974121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.897403717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.7634048461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8527336120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.2100524902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.6740798950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.5847549438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.0285797119141</t>
   </si>
   <si>
     <t xml:space="preserve">48.119026184082</t>
@@ -305,13 +305,13 @@
     <t xml:space="preserve">48.526050567627</t>
   </si>
   <si>
-    <t xml:space="preserve">48.7973937988281</t>
+    <t xml:space="preserve">48.7973976135254</t>
   </si>
   <si>
     <t xml:space="preserve">49.7471160888672</t>
   </si>
   <si>
-    <t xml:space="preserve">49.2044219970703</t>
+    <t xml:space="preserve">49.2044143676758</t>
   </si>
   <si>
     <t xml:space="preserve">50.1993560791016</t>
@@ -320,13 +320,13 @@
     <t xml:space="preserve">50.2898063659668</t>
   </si>
   <si>
-    <t xml:space="preserve">50.8777313232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.7018966674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.6063804626465</t>
+    <t xml:space="preserve">50.8777275085449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.7018852233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.6063766479492</t>
   </si>
   <si>
     <t xml:space="preserve">49.7923393249512</t>
@@ -341,34 +341,34 @@
     <t xml:space="preserve">48.164249420166</t>
   </si>
   <si>
-    <t xml:space="preserve">48.3451538085938</t>
+    <t xml:space="preserve">48.3451499938965</t>
   </si>
   <si>
     <t xml:space="preserve">47.2145309448242</t>
   </si>
   <si>
-    <t xml:space="preserve">47.5311012268066</t>
+    <t xml:space="preserve">47.5311050415039</t>
   </si>
   <si>
     <t xml:space="preserve">48.7069473266602</t>
   </si>
   <si>
-    <t xml:space="preserve">49.9732284545898</t>
+    <t xml:space="preserve">49.9732360839844</t>
   </si>
   <si>
     <t xml:space="preserve">46.7622871398926</t>
   </si>
   <si>
-    <t xml:space="preserve">45.5864448547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.6266098022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.5209846496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.3802604675293</t>
+    <t xml:space="preserve">45.5864486694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.6266136169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.5209922790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.3802642822266</t>
   </si>
   <si>
     <t xml:space="preserve">51.0586280822754</t>
@@ -377,40 +377,40 @@
     <t xml:space="preserve">48.7521705627441</t>
   </si>
   <si>
-    <t xml:space="preserve">49.5662117004395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.4707107543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.656665802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.2395286560059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.872673034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.9178924560547</t>
+    <t xml:space="preserve">49.5662155151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.470703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.6566619873047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.2395248413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.8726768493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.917896270752</t>
   </si>
   <si>
     <t xml:space="preserve">51.6013259887695</t>
   </si>
   <si>
-    <t xml:space="preserve">51.5108680725098</t>
+    <t xml:space="preserve">51.5108757019043</t>
   </si>
   <si>
     <t xml:space="preserve">52.2344665527344</t>
   </si>
   <si>
-    <t xml:space="preserve">52.4605903625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.6465492248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.4204216003418</t>
+    <t xml:space="preserve">52.4605941772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.6465454101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.4204254150391</t>
   </si>
   <si>
     <t xml:space="preserve">50.9229545593262</t>
@@ -419,40 +419,40 @@
     <t xml:space="preserve">50.6968269348145</t>
   </si>
   <si>
-    <t xml:space="preserve">50.515926361084</t>
+    <t xml:space="preserve">50.5159378051758</t>
   </si>
   <si>
     <t xml:space="preserve">50.8325080871582</t>
   </si>
   <si>
-    <t xml:space="preserve">52.2796974182129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.2695808410645</t>
+    <t xml:space="preserve">52.2796936035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.2695770263672</t>
   </si>
   <si>
     <t xml:space="preserve">53.7721061706543</t>
   </si>
   <si>
-    <t xml:space="preserve">54.8575057983398</t>
+    <t xml:space="preserve">54.8575019836426</t>
   </si>
   <si>
     <t xml:space="preserve">55.0383911132812</t>
   </si>
   <si>
-    <t xml:space="preserve">56.0785636901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.8122749328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.7319412231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.3249206542969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.3299713134766</t>
+    <t xml:space="preserve">56.0785598754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.8122711181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.7319374084473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.3249244689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.3299751281738</t>
   </si>
   <si>
     <t xml:space="preserve">52.0535697937012</t>
@@ -464,13 +464,13 @@
     <t xml:space="preserve">52.912841796875</t>
   </si>
   <si>
-    <t xml:space="preserve">52.4153709411621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0987930297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0083427429199</t>
+    <t xml:space="preserve">52.4153633117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0987892150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0083503723145</t>
   </si>
   <si>
     <t xml:space="preserve">52.5510368347168</t>
@@ -482,19 +482,19 @@
     <t xml:space="preserve">51.1038513183594</t>
   </si>
   <si>
-    <t xml:space="preserve">50.1089172363281</t>
+    <t xml:space="preserve">50.1089096069336</t>
   </si>
   <si>
     <t xml:space="preserve">49.9280128479004</t>
   </si>
   <si>
-    <t xml:space="preserve">52.641487121582</t>
+    <t xml:space="preserve">52.6414947509766</t>
   </si>
   <si>
     <t xml:space="preserve">53.1841812133789</t>
   </si>
   <si>
-    <t xml:space="preserve">53.3650817871094</t>
+    <t xml:space="preserve">53.3650856018066</t>
   </si>
   <si>
     <t xml:space="preserve">52.1892433166504</t>
@@ -506,46 +506,46 @@
     <t xml:space="preserve">53.2746391296387</t>
   </si>
   <si>
-    <t xml:space="preserve">52.958065032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.8625564575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.3701438903809</t>
+    <t xml:space="preserve">52.9580612182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.8625526428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.3701477050781</t>
   </si>
   <si>
     <t xml:space="preserve">51.8274459838867</t>
   </si>
   <si>
-    <t xml:space="preserve">51.3752021789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.787281036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.5560989379883</t>
+    <t xml:space="preserve">51.3751945495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.7872848510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.5561027526855</t>
   </si>
   <si>
     <t xml:space="preserve">50.6516036987305</t>
   </si>
   <si>
-    <t xml:space="preserve">49.3400917053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.2547035217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.4355964660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.9030151367188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.3100395202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.1291389465332</t>
+    <t xml:space="preserve">49.340087890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.2546997070312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.4356002807617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.903018951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.3100357055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.1291427612305</t>
   </si>
   <si>
     <t xml:space="preserve">46.988410949707</t>
@@ -554,28 +554,25 @@
     <t xml:space="preserve">47.2597618103027</t>
   </si>
   <si>
-    <t xml:space="preserve">46.8527412414551</t>
-  </si>
-  <si>
     <t xml:space="preserve">46.3552627563477</t>
   </si>
   <si>
-    <t xml:space="preserve">46.7170639038086</t>
+    <t xml:space="preserve">46.7170600891113</t>
   </si>
   <si>
     <t xml:space="preserve">47.1693115234375</t>
   </si>
   <si>
-    <t xml:space="preserve">47.0336303710938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.5813865661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.0386924743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.264820098877</t>
+    <t xml:space="preserve">47.0336380004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.5813903808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.0386962890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.2648162841797</t>
   </si>
   <si>
     <t xml:space="preserve">47.124080657959</t>
@@ -584,52 +581,52 @@
     <t xml:space="preserve">46.8979606628418</t>
   </si>
   <si>
-    <t xml:space="preserve">47.8476829528809</t>
+    <t xml:space="preserve">47.8476753234863</t>
   </si>
   <si>
     <t xml:space="preserve">48.073802947998</t>
   </si>
   <si>
-    <t xml:space="preserve">49.8375625610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.0134010314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.822395324707</t>
+    <t xml:space="preserve">49.8375587463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.0134048461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.8223915100098</t>
   </si>
   <si>
     <t xml:space="preserve">51.1490745544434</t>
   </si>
   <si>
-    <t xml:space="preserve">49.4757614135742</t>
+    <t xml:space="preserve">49.475772857666</t>
   </si>
   <si>
     <t xml:space="preserve">50.2445831298828</t>
   </si>
   <si>
-    <t xml:space="preserve">51.4656524658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.7822265625</t>
+    <t xml:space="preserve">51.465648651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.7822189331055</t>
   </si>
   <si>
     <t xml:space="preserve">52.8676147460938</t>
   </si>
   <si>
-    <t xml:space="preserve">53.1389656066895</t>
+    <t xml:space="preserve">53.1389579772949</t>
   </si>
   <si>
     <t xml:space="preserve">54.0434532165527</t>
   </si>
   <si>
-    <t xml:space="preserve">54.0886726379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.1339073181152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.3600234985352</t>
+    <t xml:space="preserve">54.088680267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.133903503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.3600273132324</t>
   </si>
   <si>
     <t xml:space="preserve">53.5912055969238</t>
@@ -644,103 +641,103 @@
     <t xml:space="preserve">55.4906425476074</t>
   </si>
   <si>
-    <t xml:space="preserve">56.3046913146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.033332824707</t>
+    <t xml:space="preserve">56.3046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.0333366394043</t>
   </si>
   <si>
     <t xml:space="preserve">56.214241027832</t>
   </si>
   <si>
-    <t xml:space="preserve">56.9830589294434</t>
+    <t xml:space="preserve">56.9830627441406</t>
   </si>
   <si>
     <t xml:space="preserve">56.8473815917969</t>
   </si>
   <si>
-    <t xml:space="preserve">56.349910736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.5257530212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2544021606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.7066535949707</t>
+    <t xml:space="preserve">56.3499069213867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.5257453918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2544059753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.706657409668</t>
   </si>
   <si>
     <t xml:space="preserve">57.7971000671387</t>
   </si>
   <si>
-    <t xml:space="preserve">58.1589012145996</t>
+    <t xml:space="preserve">58.1589050292969</t>
   </si>
   <si>
     <t xml:space="preserve">58.0684432983398</t>
   </si>
   <si>
-    <t xml:space="preserve">58.7920417785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.6513137817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.7869834899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.5156402587891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.8372688293457</t>
+    <t xml:space="preserve">58.7920455932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.651309967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.786979675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.5156440734863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.8372650146484</t>
   </si>
   <si>
     <t xml:space="preserve">57.8875503540039</t>
   </si>
   <si>
-    <t xml:space="preserve">58.1136779785156</t>
+    <t xml:space="preserve">58.1136703491211</t>
   </si>
   <si>
     <t xml:space="preserve">59.3347396850586</t>
   </si>
   <si>
-    <t xml:space="preserve">60.7819290161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.6965293884277</t>
+    <t xml:space="preserve">60.781925201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.6965408325195</t>
   </si>
   <si>
     <t xml:space="preserve">60.0583305358887</t>
   </si>
   <si>
-    <t xml:space="preserve">61.0532722473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.2291145324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.2190093994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.9527053833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.4100189208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.6813697814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.6310768127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.4954071044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.1788444519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.5406341552734</t>
+    <t xml:space="preserve">61.0532684326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.2291221618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.2190170288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.952709197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.410026550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.6813735961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.6310806274414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.4953956604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.178840637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.5406227111816</t>
   </si>
   <si>
     <t xml:space="preserve">63.314510345459</t>
@@ -749,7 +746,7 @@
     <t xml:space="preserve">61.6411972045898</t>
   </si>
   <si>
-    <t xml:space="preserve">60.9628257751465</t>
+    <t xml:space="preserve">60.9628219604492</t>
   </si>
   <si>
     <t xml:space="preserve">61.7316474914551</t>
@@ -758,19 +755,19 @@
     <t xml:space="preserve">62.4638214111328</t>
   </si>
   <si>
-    <t xml:space="preserve">62.738395690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.8756675720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.1044845581055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.3332748413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.2807807922363</t>
+    <t xml:space="preserve">62.7383842468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.875659942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.1044769287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.3332824707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.2807846069336</t>
   </si>
   <si>
     <t xml:space="preserve">64.2484970092773</t>
@@ -788,7 +785,7 @@
     <t xml:space="preserve">64.88916015625</t>
   </si>
   <si>
-    <t xml:space="preserve">65.6670913696289</t>
+    <t xml:space="preserve">65.6670989990234</t>
   </si>
   <si>
     <t xml:space="preserve">66.353515625</t>
@@ -797,79 +794,79 @@
     <t xml:space="preserve">63.9739379882812</t>
   </si>
   <si>
-    <t xml:space="preserve">63.8366470336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.3467636108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.7061157226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.255241394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.1179656982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.9806823730469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.5365600585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.8689231872559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.4045677185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.5485992431641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.9537048339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.594367980957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.3197975158691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.4503364562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.4113273620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.2350273132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.1959953308105</t>
+    <t xml:space="preserve">63.8366584777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.3467712402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.7061004638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.255256652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.1179580688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.9806900024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.5365447998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.8689308166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.4045753479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.5486106872559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.9537086486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.5943641662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.3197937011719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.4503402709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.4113159179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.2350158691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.1960029602051</t>
   </si>
   <si>
     <t xml:space="preserve">64.0196914672852</t>
   </si>
   <si>
-    <t xml:space="preserve">64.3857879638672</t>
+    <t xml:space="preserve">64.3857803344727</t>
   </si>
   <si>
     <t xml:space="preserve">64.2027359008789</t>
   </si>
   <si>
-    <t xml:space="preserve">63.9281806945801</t>
+    <t xml:space="preserve">63.9281692504883</t>
   </si>
   <si>
     <t xml:space="preserve">67.0856857299805</t>
   </si>
   <si>
-    <t xml:space="preserve">67.6348114013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.8568878173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.3602600097656</t>
+    <t xml:space="preserve">67.6348190307617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.8568725585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.3602447509766</t>
   </si>
   <si>
     <t xml:space="preserve">67.1772155761719</t>
@@ -878,19 +875,19 @@
     <t xml:space="preserve">66.8111267089844</t>
   </si>
   <si>
-    <t xml:space="preserve">66.719596862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.4450378417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.8501434326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.0331802368164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.5755767822266</t>
+    <t xml:space="preserve">66.7196044921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.4450225830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.8501281738281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.0331878662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.575569152832</t>
   </si>
   <si>
     <t xml:space="preserve">65.6213302612305</t>
@@ -899,64 +896,64 @@
     <t xml:space="preserve">65.4840545654297</t>
   </si>
   <si>
-    <t xml:space="preserve">65.3010025024414</t>
+    <t xml:space="preserve">65.3010101318359</t>
   </si>
   <si>
     <t xml:space="preserve">64.7976379394531</t>
   </si>
   <si>
-    <t xml:space="preserve">64.1112289428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.2619934082031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.307746887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.1314468383789</t>
+    <t xml:space="preserve">64.1112213134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.2620010375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.3077545166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.1314544677734</t>
   </si>
   <si>
     <t xml:space="preserve">67.451774597168</t>
   </si>
   <si>
-    <t xml:space="preserve">67.3144989013672</t>
+    <t xml:space="preserve">67.3144836425781</t>
   </si>
   <si>
     <t xml:space="preserve">67.7263412475586</t>
   </si>
   <si>
-    <t xml:space="preserve">66.9026260375977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.2229690551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.9551467895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.5432968139648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.2754745483398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.4195022583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.0076446533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.7330856323242</t>
+    <t xml:space="preserve">66.9026336669922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.2229614257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.9551544189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.5433044433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.2754669189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.4194946289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.0076599121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.7330780029297</t>
   </si>
   <si>
     <t xml:space="preserve">68.8246002197266</t>
   </si>
   <si>
-    <t xml:space="preserve">69.0534133911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.0143814086914</t>
+    <t xml:space="preserve">69.0534057617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.014404296875</t>
   </si>
   <si>
     <t xml:space="preserve">71.2041854858398</t>
@@ -968,46 +965,46 @@
     <t xml:space="preserve">72.8973388671875</t>
   </si>
   <si>
-    <t xml:space="preserve">72.3024520874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.4397354125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.7533187866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.0736541748047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.7210464477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.799072265625</t>
+    <t xml:space="preserve">72.3024444580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.4397201538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.7533264160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.0736465454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.7210388183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.7990798950195</t>
   </si>
   <si>
     <t xml:space="preserve">71.1584243774414</t>
   </si>
   <si>
-    <t xml:space="preserve">71.2499542236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.4329986572266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.6617889404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.7075424194336</t>
+    <t xml:space="preserve">71.2499389648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.4329833984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.6617965698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.7075500488281</t>
   </si>
   <si>
     <t xml:space="preserve">71.3872299194336</t>
   </si>
   <si>
-    <t xml:space="preserve">71.4787445068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.2566909790039</t>
+    <t xml:space="preserve">71.4787368774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.2566833496094</t>
   </si>
   <si>
     <t xml:space="preserve">71.3414611816406</t>
@@ -1025,28 +1022,28 @@
     <t xml:space="preserve">65.9416580200195</t>
   </si>
   <si>
-    <t xml:space="preserve">66.3992767333984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.3212432861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.6873092651367</t>
+    <t xml:space="preserve">66.3992614746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.3212280273438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.6873245239258</t>
   </si>
   <si>
     <t xml:space="preserve">70.1516723632812</t>
   </si>
   <si>
-    <t xml:space="preserve">70.9296112060547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.655029296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.8771057128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.183952331543</t>
+    <t xml:space="preserve">70.9296188354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.6550521850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.8770980834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.1839599609375</t>
   </si>
   <si>
     <t xml:space="preserve">69.236457824707</t>
@@ -1055,19 +1052,19 @@
     <t xml:space="preserve">69.9228820800781</t>
   </si>
   <si>
-    <t xml:space="preserve">70.0601577758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.8380889892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.0668869018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.8058242797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.5379867553711</t>
+    <t xml:space="preserve">70.0601501464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.8380966186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.0669021606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.8058166503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.5379943847656</t>
   </si>
   <si>
     <t xml:space="preserve">70.7923278808594</t>
@@ -1079,88 +1076,88 @@
     <t xml:space="preserve">69.2822113037109</t>
   </si>
   <si>
-    <t xml:space="preserve">68.1381912231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.5042877197266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.2889556884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.263427734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.7142868041992</t>
+    <t xml:space="preserve">68.13818359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.504280090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.2889709472656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.2634201049805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.7143020629883</t>
   </si>
   <si>
     <t xml:space="preserve">72.53125</t>
   </si>
   <si>
-    <t xml:space="preserve">72.8515853881836</t>
+    <t xml:space="preserve">72.8515777587891</t>
   </si>
   <si>
     <t xml:space="preserve">72.9430923461914</t>
   </si>
   <si>
-    <t xml:space="preserve">72.6227645874023</t>
+    <t xml:space="preserve">72.6227722167969</t>
   </si>
   <si>
     <t xml:space="preserve">72.3939666748047</t>
   </si>
   <si>
-    <t xml:space="preserve">72.3482055664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.577018737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.1651611328125</t>
+    <t xml:space="preserve">72.3481979370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.5770263671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.165168762207</t>
   </si>
   <si>
     <t xml:space="preserve">70.7008056640625</t>
   </si>
   <si>
-    <t xml:space="preserve">72.6685333251953</t>
+    <t xml:space="preserve">72.6685256958008</t>
   </si>
   <si>
     <t xml:space="preserve">68.9618911743164</t>
   </si>
   <si>
-    <t xml:space="preserve">67.8178634643555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.6536064147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.1637268066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.0654602050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.4315567016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.8824234008789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.7451324462891</t>
+    <t xml:space="preserve">67.8178558349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.6536102294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.1637115478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.0654678344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.4315490722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.8824119567871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.7451286315918</t>
   </si>
   <si>
     <t xml:space="preserve">63.5620880126953</t>
   </si>
   <si>
-    <t xml:space="preserve">62.6926231384277</t>
+    <t xml:space="preserve">62.692626953125</t>
   </si>
   <si>
     <t xml:space="preserve">61.7316398620605</t>
   </si>
   <si>
-    <t xml:space="preserve">60.7706642150879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.4960975646973</t>
+    <t xml:space="preserve">60.7706718444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.4960899353027</t>
   </si>
   <si>
     <t xml:space="preserve">61.6401214599609</t>
@@ -1169,13 +1166,13 @@
     <t xml:space="preserve">62.6011085510254</t>
   </si>
   <si>
-    <t xml:space="preserve">64.6145935058594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.4127502441406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.5890502929688</t>
+    <t xml:space="preserve">64.6145858764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.4127578735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.5890579223633</t>
   </si>
   <si>
     <t xml:space="preserve">66.0789260864258</t>
@@ -1187,16 +1184,16 @@
     <t xml:space="preserve">66.4907913208008</t>
   </si>
   <si>
-    <t xml:space="preserve">66.1247024536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.2687377929688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.1449432373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.0211410522461</t>
+    <t xml:space="preserve">66.1247100830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.2687301635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.1449279785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.021125793457</t>
   </si>
   <si>
     <t xml:space="preserve">69.7398223876953</t>
@@ -1205,13 +1202,13 @@
     <t xml:space="preserve">70.74658203125</t>
   </si>
   <si>
-    <t xml:space="preserve">71.5245132446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.0278854370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.9821243286133</t>
+    <t xml:space="preserve">71.5245056152344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.0278625488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.9821090698242</t>
   </si>
   <si>
     <t xml:space="preserve">73.5837554931641</t>
@@ -1220,31 +1217,31 @@
     <t xml:space="preserve">74.6362609863281</t>
   </si>
   <si>
-    <t xml:space="preserve">73.4007110595703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.4074554443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.1328964233398</t>
+    <t xml:space="preserve">73.4007034301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.4074630737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.1328887939453</t>
   </si>
   <si>
     <t xml:space="preserve">74.3159255981445</t>
   </si>
   <si>
-    <t xml:space="preserve">75.6429977416992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.4989852905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.1464004516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.7475662231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.6377105712891</t>
+    <t xml:space="preserve">75.6429901123047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.4989700317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.1463851928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.74755859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.6376953125</t>
   </si>
   <si>
     <t xml:space="preserve">75.8862991333008</t>
@@ -1262,25 +1259,25 @@
     <t xml:space="preserve">78.2447357177734</t>
   </si>
   <si>
-    <t xml:space="preserve">76.3949737548828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.0771331787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.9268798828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.6205368041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.3893203735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.7592697143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.2968292236328</t>
+    <t xml:space="preserve">76.3949813842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.0771179199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.9268646240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.6205444335938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.3893280029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.75927734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.2968444824219</t>
   </si>
   <si>
     <t xml:space="preserve">82.2679595947266</t>
@@ -1292,49 +1289,49 @@
     <t xml:space="preserve">85.4587936401367</t>
   </si>
   <si>
-    <t xml:space="preserve">86.3374176025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.0137176513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.3663024902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.1177139282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.7766418457031</t>
+    <t xml:space="preserve">86.3374252319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.0137100219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.3662948608398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.1177215576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.7766342163086</t>
   </si>
   <si>
     <t xml:space="preserve">82.4529342651367</t>
   </si>
   <si>
-    <t xml:space="preserve">88.7883529663086</t>
+    <t xml:space="preserve">88.7883605957031</t>
   </si>
   <si>
     <t xml:space="preserve">87.9097213745117</t>
   </si>
   <si>
-    <t xml:space="preserve">88.5108795166016</t>
+    <t xml:space="preserve">88.5108871459961</t>
   </si>
   <si>
     <t xml:space="preserve">89.9906921386719</t>
   </si>
   <si>
-    <t xml:space="preserve">89.112060546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.3606414794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.0658187866211</t>
+    <t xml:space="preserve">89.1120681762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.3606491088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.0658111572266</t>
   </si>
   <si>
     <t xml:space="preserve">90.1756591796875</t>
   </si>
   <si>
-    <t xml:space="preserve">89.1583099365234</t>
+    <t xml:space="preserve">89.1583023071289</t>
   </si>
   <si>
     <t xml:space="preserve">88.3721542358398</t>
@@ -1346,13 +1343,13 @@
     <t xml:space="preserve">88.6958618164062</t>
   </si>
   <si>
-    <t xml:space="preserve">88.9270858764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.8230819702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.3143997192383</t>
+    <t xml:space="preserve">88.9270782470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.8230743408203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.3144073486328</t>
   </si>
   <si>
     <t xml:space="preserve">90.5456237792969</t>
@@ -1370,91 +1367,91 @@
     <t xml:space="preserve">87.4010391235352</t>
   </si>
   <si>
-    <t xml:space="preserve">86.938591003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.2622909545898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.5050277709961</t>
+    <t xml:space="preserve">86.938606262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.2623062133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.5050201416016</t>
   </si>
   <si>
     <t xml:space="preserve">85.55126953125</t>
   </si>
   <si>
-    <t xml:space="preserve">84.9038543701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.6609268188477</t>
+    <t xml:space="preserve">84.9038619995117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.6609191894531</t>
   </si>
   <si>
     <t xml:space="preserve">80.7881469726562</t>
   </si>
   <si>
-    <t xml:space="preserve">82.0829772949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.2505874633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.481803894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.3719635009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.5280609130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.0482482910156</t>
+    <t xml:space="preserve">82.0829849243164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.2505798339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.4817962646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.371955871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.5280532836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.0482559204102</t>
   </si>
   <si>
     <t xml:space="preserve">80.3257064819336</t>
   </si>
   <si>
-    <t xml:space="preserve">86.1986846923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.7073669433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.6263961791992</t>
+    <t xml:space="preserve">86.1986923217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.7073745727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.6263885498047</t>
   </si>
   <si>
     <t xml:space="preserve">84.9501037597656</t>
   </si>
   <si>
-    <t xml:space="preserve">84.718879699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.3026962280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.8113708496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.9212341308594</t>
+    <t xml:space="preserve">84.7188873291016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.3026809692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.8113784790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.9212188720703</t>
   </si>
   <si>
     <t xml:space="preserve">86.7536163330078</t>
   </si>
   <si>
-    <t xml:space="preserve">85.4125366210938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.6841583251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.9616088867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.0367279052734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.314208984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.8864898681641</t>
+    <t xml:space="preserve">85.4125518798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.6841430664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.9616165161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.036735534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.3142013549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.8864974975586</t>
   </si>
   <si>
     <t xml:space="preserve">88.6496124267578</t>
@@ -1475,7 +1472,7 @@
     <t xml:space="preserve">83.7939987182617</t>
   </si>
   <si>
-    <t xml:space="preserve">84.4414291381836</t>
+    <t xml:space="preserve">84.4414215087891</t>
   </si>
   <si>
     <t xml:space="preserve">82.4991760253906</t>
@@ -1484,58 +1481,61 @@
     <t xml:space="preserve">80.2794647216797</t>
   </si>
   <si>
-    <t xml:space="preserve">76.1175231933594</t>
+    <t xml:space="preserve">76.1175079345703</t>
   </si>
   <si>
     <t xml:space="preserve">75.3776092529297</t>
   </si>
   <si>
-    <t xml:space="preserve">74.2677536010742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.7128219604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.7938079833984</t>
+    <t xml:space="preserve">74.2677612304688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.7128295898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.7938003540039</t>
   </si>
   <si>
     <t xml:space="preserve">73.5278472900391</t>
   </si>
   <si>
-    <t xml:space="preserve">73.8515548706055</t>
+    <t xml:space="preserve">73.8515625</t>
   </si>
   <si>
     <t xml:space="preserve">75.470100402832</t>
   </si>
   <si>
-    <t xml:space="preserve">75.8400497436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.2100067138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.4123458862305</t>
+    <t xml:space="preserve">75.8400650024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.2099990844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.4123306274414</t>
   </si>
   <si>
     <t xml:space="preserve">73.7590713500977</t>
   </si>
   <si>
-    <t xml:space="preserve">74.7764434814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.2041473388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.9151763916016</t>
+    <t xml:space="preserve">74.4989776611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.7764511108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.2041397094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.915168762207</t>
   </si>
   <si>
     <t xml:space="preserve">76.0250244140625</t>
   </si>
   <si>
-    <t xml:space="preserve">77.5048370361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.9731216430664</t>
+    <t xml:space="preserve">77.5048294067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.9731369018555</t>
   </si>
   <si>
     <t xml:space="preserve">76.3024978637695</t>
@@ -1544,76 +1544,76 @@
     <t xml:space="preserve">77.0886383056641</t>
   </si>
   <si>
-    <t xml:space="preserve">73.9903030395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.4468765258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.5856094360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.0018081665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.8804321289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.0365371704102</t>
+    <t xml:space="preserve">73.9902954101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.4468688964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.5856018066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.0017929077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.8804397583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.0365295410156</t>
   </si>
   <si>
     <t xml:space="preserve">73.2503890991211</t>
   </si>
   <si>
-    <t xml:space="preserve">71.9555587768555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.7705841064453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.4583892822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.3659057617188</t>
+    <t xml:space="preserve">71.95556640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.7705764770508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.458381652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.3658905029297</t>
   </si>
   <si>
     <t xml:space="preserve">69.7358551025391</t>
   </si>
   <si>
-    <t xml:space="preserve">72.233024597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.6548767089844</t>
+    <t xml:space="preserve">72.2330169677734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.6548690795898</t>
   </si>
   <si>
     <t xml:space="preserve">68.2560424804688</t>
   </si>
   <si>
-    <t xml:space="preserve">67.7936096191406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.4699020385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.4410171508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.7011260986328</t>
+    <t xml:space="preserve">67.7936019897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.4698944091797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.4410247802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.7011108398438</t>
   </si>
   <si>
     <t xml:space="preserve">66.3600463867188</t>
   </si>
   <si>
-    <t xml:space="preserve">64.8339996337891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.2501907348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.1114654541016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.6201400756836</t>
+    <t xml:space="preserve">64.833984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.2501831054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.111457824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.6201477050781</t>
   </si>
   <si>
     <t xml:space="preserve">67.007453918457</t>
@@ -1622,16 +1622,16 @@
     <t xml:space="preserve">65.7744827270508</t>
   </si>
   <si>
-    <t xml:space="preserve">67.0548782348633</t>
+    <t xml:space="preserve">67.0548706054688</t>
   </si>
   <si>
     <t xml:space="preserve">67.5290985107422</t>
   </si>
   <si>
-    <t xml:space="preserve">67.1497192382812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.8960800170898</t>
+    <t xml:space="preserve">67.1497268676758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.8960723876953</t>
   </si>
   <si>
     <t xml:space="preserve">70.3744201660156</t>
@@ -1640,13 +1640,13 @@
     <t xml:space="preserve">70.0898971557617</t>
   </si>
   <si>
-    <t xml:space="preserve">70.5166931152344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.6548309326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.0383453369141</t>
+    <t xml:space="preserve">70.5166854858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.6548233032227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.0383377075195</t>
   </si>
   <si>
     <t xml:space="preserve">70.6589660644531</t>
@@ -1658,16 +1658,16 @@
     <t xml:space="preserve">73.5042877197266</t>
   </si>
   <si>
-    <t xml:space="preserve">73.9785003662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.2073516845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.0650939941406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.9228210449219</t>
+    <t xml:space="preserve">73.9785079956055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.2073440551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.0650787353516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.9228134155273</t>
   </si>
   <si>
     <t xml:space="preserve">75.5434494018555</t>
@@ -1679,94 +1679,94 @@
     <t xml:space="preserve">76.254768371582</t>
   </si>
   <si>
-    <t xml:space="preserve">75.6382827758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.5351791381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.1083679199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.8279724121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.8671264648438</t>
+    <t xml:space="preserve">75.6382904052734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.5351638793945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.1083831787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.8279647827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.8671188354492</t>
   </si>
   <si>
     <t xml:space="preserve">77.9619598388672</t>
   </si>
   <si>
-    <t xml:space="preserve">79.7165985107422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.6217346191406</t>
+    <t xml:space="preserve">79.7165832519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.6217422485352</t>
   </si>
   <si>
     <t xml:space="preserve">80.7124481201172</t>
   </si>
   <si>
-    <t xml:space="preserve">80.2856597900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.6176071166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.2382354736328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.4279251098633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.8072891235352</t>
+    <t xml:space="preserve">80.2856521606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.6175994873047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.2382278442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.4279174804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.8073043823242</t>
   </si>
   <si>
     <t xml:space="preserve">81.0444030761719</t>
   </si>
   <si>
-    <t xml:space="preserve">80.0485458374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.9021377563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.7083206176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.3289413452148</t>
+    <t xml:space="preserve">80.0485534667969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.9021453857422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.7083129882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.3289337158203</t>
   </si>
   <si>
     <t xml:space="preserve">81.8031616210938</t>
   </si>
   <si>
-    <t xml:space="preserve">83.0835571289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.7516098022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.4196548461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.3722152709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.2773818969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.2732543945312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.1825408935547</t>
+    <t xml:space="preserve">83.0835647583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.7516021728516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.4196472167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.3722229003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.2773895263672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.2732467651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.1825332641602</t>
   </si>
   <si>
     <t xml:space="preserve">81.3763656616211</t>
   </si>
   <si>
-    <t xml:space="preserve">80.9969940185547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.320671081543</t>
+    <t xml:space="preserve">80.9969711303711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.3206558227539</t>
   </si>
   <si>
     <t xml:space="preserve">83.5577697753906</t>
@@ -1775,22 +1775,22 @@
     <t xml:space="preserve">84.0794219970703</t>
   </si>
   <si>
-    <t xml:space="preserve">84.3165283203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.9845809936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.7433319091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.0319976806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.1227188110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.0752792358398</t>
+    <t xml:space="preserve">84.316535949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.9845733642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.7433242797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.0320053100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.1227035522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.0752868652344</t>
   </si>
   <si>
     <t xml:space="preserve">85.881462097168</t>
@@ -1799,22 +1799,22 @@
     <t xml:space="preserve">86.877326965332</t>
   </si>
   <si>
-    <t xml:space="preserve">87.9680404663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.2566986083984</t>
+    <t xml:space="preserve">87.9680328369141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.2567138671875</t>
   </si>
   <si>
     <t xml:space="preserve">86.9247512817383</t>
   </si>
   <si>
-    <t xml:space="preserve">86.7824859619141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.3082580566406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.2134246826172</t>
+    <t xml:space="preserve">86.7824783325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.3082656860352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.2134094238281</t>
   </si>
   <si>
     <t xml:space="preserve">86.7350540161133</t>
@@ -1823,37 +1823,37 @@
     <t xml:space="preserve">83.1309814453125</t>
   </si>
   <si>
-    <t xml:space="preserve">80.759880065918</t>
+    <t xml:space="preserve">80.7598648071289</t>
   </si>
   <si>
     <t xml:space="preserve">81.2815170288086</t>
   </si>
   <si>
-    <t xml:space="preserve">82.6093368530273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.8938674926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.8855972290039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.2649765014648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.3598175048828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.4031066894531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.2958602905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.6236724853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.4257049560547</t>
+    <t xml:space="preserve">82.6093292236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.8938598632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.8855895996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.2649688720703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.3598251342773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.4030990600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.2958526611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.6236801147461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92.4257125854492</t>
   </si>
   <si>
     <t xml:space="preserve">92.3782958984375</t>
@@ -1862,46 +1862,46 @@
     <t xml:space="preserve">92.8569412231445</t>
   </si>
   <si>
-    <t xml:space="preserve">92.3304214477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93.335578918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.7133483886719</t>
+    <t xml:space="preserve">92.3304290771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93.3355865478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92.7133407592773</t>
   </si>
   <si>
     <t xml:space="preserve">91.9953765869141</t>
   </si>
   <si>
-    <t xml:space="preserve">91.7560653686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.3201217651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.4585571289062</t>
+    <t xml:space="preserve">91.7560577392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.3201293945312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.4585647583008</t>
   </si>
   <si>
     <t xml:space="preserve">89.9372024536133</t>
   </si>
   <si>
-    <t xml:space="preserve">87.6397247314453</t>
+    <t xml:space="preserve">87.6397171020508</t>
   </si>
   <si>
     <t xml:space="preserve">91.2295532226562</t>
   </si>
   <si>
-    <t xml:space="preserve">92.5218811035156</t>
+    <t xml:space="preserve">92.5218887329102</t>
   </si>
   <si>
     <t xml:space="preserve">93.1441268920898</t>
   </si>
   <si>
-    <t xml:space="preserve">94.2928695678711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.7818145751953</t>
+    <t xml:space="preserve">94.2928619384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.7818222045898</t>
   </si>
   <si>
     <t xml:space="preserve">97.6433715820312</t>
@@ -1910,25 +1910,25 @@
     <t xml:space="preserve">95.0108337402344</t>
   </si>
   <si>
-    <t xml:space="preserve">98.3134689331055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.0793151855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.610977172852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102.621276855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.9408798217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.515235900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.1220169067383</t>
+    <t xml:space="preserve">98.3134765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.0793075561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.610969543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102.621269226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.9408721923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.515243530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.1220245361328</t>
   </si>
   <si>
     <t xml:space="preserve">98.8878631591797</t>
@@ -1937,76 +1937,76 @@
     <t xml:space="preserve">97.1647415161133</t>
   </si>
   <si>
-    <t xml:space="preserve">97.5476608276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.7391052246094</t>
+    <t xml:space="preserve">97.5476531982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.7391128540039</t>
   </si>
   <si>
     <t xml:space="preserve">98.5049362182617</t>
   </si>
   <si>
-    <t xml:space="preserve">98.2177581787109</t>
+    <t xml:space="preserve">98.2177505493164</t>
   </si>
   <si>
     <t xml:space="preserve">100.802436828613</t>
   </si>
   <si>
-    <t xml:space="preserve">99.5579605102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.6006622314453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.4622192382812</t>
+    <t xml:space="preserve">99.5579528808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.6006698608398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.4622268676758</t>
   </si>
   <si>
     <t xml:space="preserve">98.4092178344727</t>
   </si>
   <si>
-    <t xml:space="preserve">98.7921142578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.4519195556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.973274230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.0690002441406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.6860961914062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.0262985229492</t>
+    <t xml:space="preserve">98.792121887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.4519348144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.9732818603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.0690078735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.6860885620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.0262908935547</t>
   </si>
   <si>
     <t xml:space="preserve">103.387107849121</t>
   </si>
   <si>
-    <t xml:space="preserve">101.759719848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.41951751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.099914550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101.951179504395</t>
+    <t xml:space="preserve">101.759712219238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.419509887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.099922180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101.951171875</t>
   </si>
   <si>
     <t xml:space="preserve">101.376800537109</t>
   </si>
   <si>
-    <t xml:space="preserve">101.185333251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.6536712646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101.472534179688</t>
+    <t xml:space="preserve">101.185340881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.653678894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101.472526550293</t>
   </si>
   <si>
     <t xml:space="preserve">103.674293518066</t>
@@ -2015,22 +2015,22 @@
     <t xml:space="preserve">103.482833862305</t>
   </si>
   <si>
-    <t xml:space="preserve">105.110229492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104.344390869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101.28108215332</t>
+    <t xml:space="preserve">105.110221862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104.344398498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101.281066894531</t>
   </si>
   <si>
     <t xml:space="preserve">102.429817199707</t>
   </si>
   <si>
-    <t xml:space="preserve">103.004188537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105.014488220215</t>
+    <t xml:space="preserve">103.004196166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105.014495849609</t>
   </si>
   <si>
     <t xml:space="preserve">104.823036193848</t>
@@ -2039,22 +2039,22 @@
     <t xml:space="preserve">104.248672485352</t>
   </si>
   <si>
-    <t xml:space="preserve">101.66397857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.8451385498047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.9305648803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.3665008544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.323776245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102.23836517334</t>
+    <t xml:space="preserve">101.663986206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.8451461791992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.9305725097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.3665084838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.323783874512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102.238357543945</t>
   </si>
   <si>
     <t xml:space="preserve">101.568260192871</t>
@@ -2066,37 +2066,37 @@
     <t xml:space="preserve">102.142631530762</t>
   </si>
   <si>
-    <t xml:space="preserve">100.898162841797</t>
+    <t xml:space="preserve">100.898155212402</t>
   </si>
   <si>
     <t xml:space="preserve">95.6330718994141</t>
   </si>
   <si>
-    <t xml:space="preserve">95.9202575683594</t>
+    <t xml:space="preserve">95.9202651977539</t>
   </si>
   <si>
     <t xml:space="preserve">95.0587005615234</t>
   </si>
   <si>
-    <t xml:space="preserve">95.2980270385742</t>
+    <t xml:space="preserve">95.2980194091797</t>
   </si>
   <si>
     <t xml:space="preserve">95.4894790649414</t>
   </si>
   <si>
-    <t xml:space="preserve">95.8245391845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.7287979125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.8090667724609</t>
+    <t xml:space="preserve">95.8245315551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.7287902832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92.8090744018555</t>
   </si>
   <si>
     <t xml:space="preserve">93.5270385742188</t>
   </si>
   <si>
-    <t xml:space="preserve">92.4740219116211</t>
+    <t xml:space="preserve">92.4740142822266</t>
   </si>
   <si>
     <t xml:space="preserve">93.4791717529297</t>
@@ -2105,13 +2105,13 @@
     <t xml:space="preserve">92.9048080444336</t>
   </si>
   <si>
-    <t xml:space="preserve">93.1919784545898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94.3407363891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.5903625488281</t>
+    <t xml:space="preserve">93.1919860839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94.3407287597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.5903701782227</t>
   </si>
   <si>
     <t xml:space="preserve">96.0159912109375</t>
@@ -2120,7 +2120,7 @@
     <t xml:space="preserve">100.13232421875</t>
   </si>
   <si>
-    <t xml:space="preserve">99.1750335693359</t>
+    <t xml:space="preserve">99.1750411987305</t>
   </si>
   <si>
     <t xml:space="preserve">102.046897888184</t>
@@ -2129,7 +2129,7 @@
     <t xml:space="preserve">104.440124511719</t>
   </si>
   <si>
-    <t xml:space="preserve">105.971786499023</t>
+    <t xml:space="preserve">105.971778869629</t>
   </si>
   <si>
     <t xml:space="preserve">107.311981201172</t>
@@ -2156,10 +2156,10 @@
     <t xml:space="preserve">114.970283508301</t>
   </si>
   <si>
-    <t xml:space="preserve">116.119041442871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.247169494629</t>
+    <t xml:space="preserve">116.119033813477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.247177124023</t>
   </si>
   <si>
     <t xml:space="preserve">116.406219482422</t>
@@ -2171,19 +2171,19 @@
     <t xml:space="preserve">118.703712463379</t>
   </si>
   <si>
-    <t xml:space="preserve">118.512260437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.789138793945</t>
+    <t xml:space="preserve">118.512268066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.789131164551</t>
   </si>
   <si>
     <t xml:space="preserve">115.831840515137</t>
   </si>
   <si>
-    <t xml:space="preserve">114.874565124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.045402526855</t>
+    <t xml:space="preserve">114.874557495117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.045417785645</t>
   </si>
   <si>
     <t xml:space="preserve">112.672798156738</t>
@@ -2192,10 +2192,10 @@
     <t xml:space="preserve">112.002700805664</t>
   </si>
   <si>
-    <t xml:space="preserve">111.71549987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.57706451416</t>
+    <t xml:space="preserve">111.715507507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.577072143555</t>
   </si>
   <si>
     <t xml:space="preserve">113.151443481445</t>
@@ -2204,10 +2204,10 @@
     <t xml:space="preserve">112.481346130371</t>
   </si>
   <si>
-    <t xml:space="preserve">111.524055480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.236862182617</t>
+    <t xml:space="preserve">111.524063110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.236869812012</t>
   </si>
   <si>
     <t xml:space="preserve">109.896667480469</t>
@@ -2219,10 +2219,10 @@
     <t xml:space="preserve">113.72582244873</t>
   </si>
   <si>
-    <t xml:space="preserve">114.395919799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.289886474609</t>
+    <t xml:space="preserve">114.39591217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.289894104004</t>
   </si>
   <si>
     <t xml:space="preserve">110.853958129883</t>
@@ -2231,7 +2231,7 @@
     <t xml:space="preserve">108.843643188477</t>
   </si>
   <si>
-    <t xml:space="preserve">111.906967163086</t>
+    <t xml:space="preserve">111.90697479248</t>
   </si>
   <si>
     <t xml:space="preserve">109.418022155762</t>
@@ -2240,22 +2240,22 @@
     <t xml:space="preserve">109.2265625</t>
   </si>
   <si>
-    <t xml:space="preserve">110.18384552002</t>
+    <t xml:space="preserve">110.183853149414</t>
   </si>
   <si>
     <t xml:space="preserve">107.790634155273</t>
   </si>
   <si>
-    <t xml:space="preserve">110.566764831543</t>
+    <t xml:space="preserve">110.566772460938</t>
   </si>
   <si>
     <t xml:space="preserve">110.662490844727</t>
   </si>
   <si>
-    <t xml:space="preserve">108.36499786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106.258972167969</t>
+    <t xml:space="preserve">108.364990234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106.258979797363</t>
   </si>
   <si>
     <t xml:space="preserve">107.120529174805</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">109.130836486816</t>
   </si>
   <si>
-    <t xml:space="preserve">109.800933837891</t>
+    <t xml:space="preserve">109.800926208496</t>
   </si>
   <si>
     <t xml:space="preserve">109.705200195312</t>
@@ -2279,19 +2279,19 @@
     <t xml:space="preserve">115.927581787109</t>
   </si>
   <si>
-    <t xml:space="preserve">111.33260345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105.876052856445</t>
+    <t xml:space="preserve">111.332595825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105.87606048584</t>
   </si>
   <si>
     <t xml:space="preserve">100.036598205566</t>
   </si>
   <si>
-    <t xml:space="preserve">108.173545837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104.918769836426</t>
+    <t xml:space="preserve">108.173553466797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104.91877746582</t>
   </si>
   <si>
     <t xml:space="preserve">103.195648193359</t>
@@ -2303,7 +2303,7 @@
     <t xml:space="preserve">109.513748168945</t>
   </si>
   <si>
-    <t xml:space="preserve">106.833343505859</t>
+    <t xml:space="preserve">106.833351135254</t>
   </si>
   <si>
     <t xml:space="preserve">111.811248779297</t>
@@ -2321,16 +2321,16 @@
     <t xml:space="preserve">103.865753173828</t>
   </si>
   <si>
-    <t xml:space="preserve">115.544662475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.055717468262</t>
+    <t xml:space="preserve">115.544654846191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.055709838867</t>
   </si>
   <si>
     <t xml:space="preserve">119.565277099609</t>
   </si>
   <si>
-    <t xml:space="preserve">123.873069763184</t>
+    <t xml:space="preserve">123.873062133789</t>
   </si>
   <si>
     <t xml:space="preserve">127.70223236084</t>
@@ -2357,7 +2357,7 @@
     <t xml:space="preserve">157.952514648438</t>
   </si>
   <si>
-    <t xml:space="preserve">152.30451965332</t>
+    <t xml:space="preserve">152.304534912109</t>
   </si>
   <si>
     <t xml:space="preserve">155.655044555664</t>
@@ -2366,40 +2366,40 @@
     <t xml:space="preserve">159.771362304688</t>
   </si>
   <si>
-    <t xml:space="preserve">159.962844848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.272094726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148.666839599609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148.762557983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148.379653930664</t>
+    <t xml:space="preserve">159.962829589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.272109985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148.666809082031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148.762542724609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148.379638671875</t>
   </si>
   <si>
     <t xml:space="preserve">146.369338989258</t>
   </si>
   <si>
-    <t xml:space="preserve">148.188186645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149.528381347656</t>
+    <t xml:space="preserve">148.188201904297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149.528396606445</t>
   </si>
   <si>
     <t xml:space="preserve">155.559310913086</t>
   </si>
   <si>
-    <t xml:space="preserve">153.644714355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.132186889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">169.439987182617</t>
+    <t xml:space="preserve">153.644729614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.132202148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">169.439971923828</t>
   </si>
   <si>
     <t xml:space="preserve">176.332458496094</t>
@@ -2411,19 +2411,19 @@
     <t xml:space="preserve">171.546020507812</t>
   </si>
   <si>
-    <t xml:space="preserve">181.118896484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">182.746292114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">194.138000488281</t>
+    <t xml:space="preserve">181.118881225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">182.746276855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">194.13801574707</t>
   </si>
   <si>
     <t xml:space="preserve">200.456115722656</t>
   </si>
   <si>
-    <t xml:space="preserve">188.585739135742</t>
+    <t xml:space="preserve">188.585723876953</t>
   </si>
   <si>
     <t xml:space="preserve">165.610824584961</t>
@@ -2432,7 +2432,7 @@
     <t xml:space="preserve">174.034957885742</t>
   </si>
   <si>
-    <t xml:space="preserve">180.448806762695</t>
+    <t xml:space="preserve">180.448791503906</t>
   </si>
   <si>
     <t xml:space="preserve">173.747772216797</t>
@@ -2441,28 +2441,28 @@
     <t xml:space="preserve">171.258819580078</t>
   </si>
   <si>
-    <t xml:space="preserve">166.089477539062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166.759582519531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">158.909820556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152.783172607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154.602020263672</t>
+    <t xml:space="preserve">166.089462280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.759567260742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158.909805297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152.783187866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154.602005004883</t>
   </si>
   <si>
     <t xml:space="preserve">156.995239257812</t>
   </si>
   <si>
-    <t xml:space="preserve">160.632934570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">159.867111206055</t>
+    <t xml:space="preserve">160.632919311523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159.867095947266</t>
   </si>
   <si>
     <t xml:space="preserve">163.57373046875</t>
@@ -2471,25 +2471,25 @@
     <t xml:space="preserve">164.440231323242</t>
   </si>
   <si>
-    <t xml:space="preserve">163.958862304688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163.18864440918</t>
+    <t xml:space="preserve">163.958847045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163.188629150391</t>
   </si>
   <si>
     <t xml:space="preserve">161.16682434082</t>
   </si>
   <si>
-    <t xml:space="preserve">164.343933105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">169.254043579102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166.558319091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.017883300781</t>
+    <t xml:space="preserve">164.343948364258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">169.254058837891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.558303833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.01789855957</t>
   </si>
   <si>
     <t xml:space="preserve">163.38117980957</t>
@@ -2504,22 +2504,22 @@
     <t xml:space="preserve">164.921630859375</t>
   </si>
   <si>
-    <t xml:space="preserve">164.729064941406</t>
+    <t xml:space="preserve">164.729080200195</t>
   </si>
   <si>
     <t xml:space="preserve">168.195007324219</t>
   </si>
   <si>
-    <t xml:space="preserve">171.853530883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.527450561523</t>
+    <t xml:space="preserve">171.853515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.527465820312</t>
   </si>
   <si>
     <t xml:space="preserve">165.114181518555</t>
   </si>
   <si>
-    <t xml:space="preserve">166.462020874023</t>
+    <t xml:space="preserve">166.462036132812</t>
   </si>
   <si>
     <t xml:space="preserve">167.232238769531</t>
@@ -2531,31 +2531,31 @@
     <t xml:space="preserve">171.46842956543</t>
   </si>
   <si>
-    <t xml:space="preserve">171.564682006836</t>
+    <t xml:space="preserve">171.564697265625</t>
   </si>
   <si>
     <t xml:space="preserve">174.164138793945</t>
   </si>
   <si>
-    <t xml:space="preserve">171.660980224609</t>
+    <t xml:space="preserve">171.66096496582</t>
   </si>
   <si>
     <t xml:space="preserve">168.483840942383</t>
   </si>
   <si>
-    <t xml:space="preserve">162.99609375</t>
+    <t xml:space="preserve">162.996078491211</t>
   </si>
   <si>
     <t xml:space="preserve">156.641830444336</t>
   </si>
   <si>
-    <t xml:space="preserve">164.247680664062</t>
+    <t xml:space="preserve">164.247665405273</t>
   </si>
   <si>
     <t xml:space="preserve">166.847152709961</t>
   </si>
   <si>
-    <t xml:space="preserve">161.263092041016</t>
+    <t xml:space="preserve">161.263107299805</t>
   </si>
   <si>
     <t xml:space="preserve">159.818954467773</t>
@@ -2570,31 +2570,31 @@
     <t xml:space="preserve">148.65087890625</t>
   </si>
   <si>
-    <t xml:space="preserve">152.69450378418</t>
+    <t xml:space="preserve">152.694519042969</t>
   </si>
   <si>
     <t xml:space="preserve">147.110473632812</t>
   </si>
   <si>
-    <t xml:space="preserve">151.635452270508</t>
+    <t xml:space="preserve">151.635467529297</t>
   </si>
   <si>
     <t xml:space="preserve">154.234924316406</t>
   </si>
   <si>
-    <t xml:space="preserve">153.560989379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150.287612915039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156.73811340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153.175903320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156.160446166992</t>
+    <t xml:space="preserve">153.561004638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150.287582397461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.738098144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">153.175888061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.160461425781</t>
   </si>
   <si>
     <t xml:space="preserve">156.834381103516</t>
@@ -2609,19 +2609,19 @@
     <t xml:space="preserve">157.797134399414</t>
   </si>
   <si>
-    <t xml:space="preserve">161.455642700195</t>
+    <t xml:space="preserve">161.455657958984</t>
   </si>
   <si>
     <t xml:space="preserve">147.495559692383</t>
   </si>
   <si>
-    <t xml:space="preserve">140.371124267578</t>
+    <t xml:space="preserve">140.371109008789</t>
   </si>
   <si>
     <t xml:space="preserve">145.858871459961</t>
   </si>
   <si>
-    <t xml:space="preserve">146.4365234375</t>
+    <t xml:space="preserve">146.436538696289</t>
   </si>
   <si>
     <t xml:space="preserve">145.377487182617</t>
@@ -2633,16 +2633,16 @@
     <t xml:space="preserve">136.520050048828</t>
   </si>
   <si>
-    <t xml:space="preserve">139.119522094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138.926971435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146.629089355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145.088653564453</t>
+    <t xml:space="preserve">139.119506835938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138.926956176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146.62907409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145.088668823242</t>
   </si>
   <si>
     <t xml:space="preserve">148.939712524414</t>
@@ -2654,7 +2654,7 @@
     <t xml:space="preserve">151.154083251953</t>
   </si>
   <si>
-    <t xml:space="preserve">154.908843994141</t>
+    <t xml:space="preserve">154.90885925293</t>
   </si>
   <si>
     <t xml:space="preserve">152.30940246582</t>
@@ -2663,13 +2663,13 @@
     <t xml:space="preserve">163.092346191406</t>
   </si>
   <si>
-    <t xml:space="preserve">162.707244873047</t>
+    <t xml:space="preserve">162.707260131836</t>
   </si>
   <si>
     <t xml:space="preserve">164.151397705078</t>
   </si>
   <si>
-    <t xml:space="preserve">163.862579345703</t>
+    <t xml:space="preserve">163.862564086914</t>
   </si>
   <si>
     <t xml:space="preserve">165.499267578125</t>
@@ -2678,19 +2678,19 @@
     <t xml:space="preserve">170.216827392578</t>
   </si>
   <si>
-    <t xml:space="preserve">177.148712158203</t>
+    <t xml:space="preserve">177.148727416992</t>
   </si>
   <si>
     <t xml:space="preserve">177.533813476562</t>
   </si>
   <si>
-    <t xml:space="preserve">179.940734863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175.704574584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180.999786376953</t>
+    <t xml:space="preserve">179.94075012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">175.704559326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180.999801635742</t>
   </si>
   <si>
     <t xml:space="preserve">183.021606445312</t>
@@ -2699,7 +2699,7 @@
     <t xml:space="preserve">180.518402099609</t>
   </si>
   <si>
-    <t xml:space="preserve">184.176910400391</t>
+    <t xml:space="preserve">184.176895141602</t>
   </si>
   <si>
     <t xml:space="preserve">181.962554931641</t>
@@ -2711,88 +2711,88 @@
     <t xml:space="preserve">186.39128112793</t>
   </si>
   <si>
-    <t xml:space="preserve">183.984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">187.642852783203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185.428512573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">183.888076782227</t>
+    <t xml:space="preserve">183.984359741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">187.642868041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">185.428497314453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">183.888092041016</t>
   </si>
   <si>
     <t xml:space="preserve">181.577453613281</t>
   </si>
   <si>
-    <t xml:space="preserve">180.32585144043</t>
+    <t xml:space="preserve">180.325866699219</t>
   </si>
   <si>
     <t xml:space="preserve">181.481170654297</t>
   </si>
   <si>
-    <t xml:space="preserve">178.785415649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180.13330078125</t>
+    <t xml:space="preserve">178.785430908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180.133316040039</t>
   </si>
   <si>
     <t xml:space="preserve">186.96891784668</t>
   </si>
   <si>
-    <t xml:space="preserve">192.264114379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">193.708267211914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161.744491577148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.98063659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">167.328521728516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">167.039703369141</t>
+    <t xml:space="preserve">192.264129638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">193.708282470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161.744476318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.980667114258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">167.328536987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">167.039688110352</t>
   </si>
   <si>
     <t xml:space="preserve">166.173217773438</t>
   </si>
   <si>
-    <t xml:space="preserve">158.952499389648</t>
+    <t xml:space="preserve">158.952484130859</t>
   </si>
   <si>
     <t xml:space="preserve">162.899795532227</t>
   </si>
   <si>
-    <t xml:space="preserve">166.365753173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170.024291992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.7880859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163.670028686523</t>
+    <t xml:space="preserve">166.365768432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170.024276733398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.788101196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163.670013427734</t>
   </si>
   <si>
     <t xml:space="preserve">162.129592895508</t>
   </si>
   <si>
-    <t xml:space="preserve">164.825332641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">162.225891113281</t>
+    <t xml:space="preserve">164.825347900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162.225875854492</t>
   </si>
   <si>
     <t xml:space="preserve">161.359390258789</t>
   </si>
   <si>
-    <t xml:space="preserve">160.492889404297</t>
+    <t xml:space="preserve">160.492874145508</t>
   </si>
   <si>
     <t xml:space="preserve">160.878005981445</t>
@@ -2807,25 +2807,25 @@
     <t xml:space="preserve">161.648193359375</t>
   </si>
   <si>
-    <t xml:space="preserve">163.766311645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163.284912109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.775360107422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154.812591552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153.464691162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.604583740234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156.449279785156</t>
+    <t xml:space="preserve">163.766296386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163.284896850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.775344848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154.812576293945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">153.464706420898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.604614257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.449295043945</t>
   </si>
   <si>
     <t xml:space="preserve">156.545562744141</t>
@@ -2834,7 +2834,7 @@
     <t xml:space="preserve">160.011505126953</t>
   </si>
   <si>
-    <t xml:space="preserve">173.008834838867</t>
+    <t xml:space="preserve">173.008819580078</t>
   </si>
   <si>
     <t xml:space="preserve">172.142349243164</t>
@@ -2843,7 +2843,7 @@
     <t xml:space="preserve">181.288619995117</t>
   </si>
   <si>
-    <t xml:space="preserve">171.083312988281</t>
+    <t xml:space="preserve">171.083297729492</t>
   </si>
   <si>
     <t xml:space="preserve">173.875335693359</t>
@@ -2867,79 +2867,79 @@
     <t xml:space="preserve">176.08967590332</t>
   </si>
   <si>
-    <t xml:space="preserve">175.415725708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">177.630111694336</t>
+    <t xml:space="preserve">175.415740966797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">177.630096435547</t>
   </si>
   <si>
     <t xml:space="preserve">178.689163208008</t>
   </si>
   <si>
-    <t xml:space="preserve">178.400329589844</t>
+    <t xml:space="preserve">178.400314331055</t>
   </si>
   <si>
     <t xml:space="preserve">179.459350585938</t>
   </si>
   <si>
-    <t xml:space="preserve">176.667343139648</t>
+    <t xml:space="preserve">176.667327880859</t>
   </si>
   <si>
     <t xml:space="preserve">158.182266235352</t>
   </si>
   <si>
-    <t xml:space="preserve">153.753540039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.989715576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156.352981567383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.893432617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">159.145034790039</t>
+    <t xml:space="preserve">153.753555297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.989700317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.353012084961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.893417358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159.14501953125</t>
   </si>
   <si>
     <t xml:space="preserve">155.967895507812</t>
   </si>
   <si>
-    <t xml:space="preserve">152.116851806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150.961517333984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149.036010742188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.401992797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136.808883666992</t>
+    <t xml:space="preserve">152.116836547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150.961547851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149.035995483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.401962280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136.808898925781</t>
   </si>
   <si>
     <t xml:space="preserve">140.467376708984</t>
   </si>
   <si>
-    <t xml:space="preserve">136.712600708008</t>
+    <t xml:space="preserve">136.712615966797</t>
   </si>
   <si>
     <t xml:space="preserve">134.883361816406</t>
   </si>
   <si>
-    <t xml:space="preserve">137.771667480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.979614257812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135.74983215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.787063598633</t>
+    <t xml:space="preserve">137.77165222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.979629516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.749847412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.787078857422</t>
   </si>
   <si>
     <t xml:space="preserve">137.001434326172</t>
@@ -2957,25 +2957,25 @@
     <t xml:space="preserve">131.70622253418</t>
   </si>
   <si>
-    <t xml:space="preserve">134.546371459961</t>
+    <t xml:space="preserve">134.54638671875</t>
   </si>
   <si>
     <t xml:space="preserve">137.193984985352</t>
   </si>
   <si>
-    <t xml:space="preserve">134.93147277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147.351150512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145.42561340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">143.596343994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150.095031738281</t>
+    <t xml:space="preserve">134.931488037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147.351165771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145.425628662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143.596374511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150.09504699707</t>
   </si>
   <si>
     <t xml:space="preserve">149.950622558594</t>
@@ -2990,16 +2990,16 @@
     <t xml:space="preserve">146.725341796875</t>
   </si>
   <si>
-    <t xml:space="preserve">138.734420776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138.541839599609</t>
+    <t xml:space="preserve">138.734436035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138.541854858398</t>
   </si>
   <si>
     <t xml:space="preserve">135.027770996094</t>
   </si>
   <si>
-    <t xml:space="preserve">135.990524291992</t>
+    <t xml:space="preserve">135.990539550781</t>
   </si>
   <si>
     <t xml:space="preserve">135.605422973633</t>
@@ -3014,7 +3014,7 @@
     <t xml:space="preserve">135.557281494141</t>
   </si>
   <si>
-    <t xml:space="preserve">137.338394165039</t>
+    <t xml:space="preserve">137.338409423828</t>
   </si>
   <si>
     <t xml:space="preserve">133.102233886719</t>
@@ -3026,25 +3026,25 @@
     <t xml:space="preserve">133.150375366211</t>
   </si>
   <si>
-    <t xml:space="preserve">132.861557006836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136.375625610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138.638122558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138.782531738281</t>
+    <t xml:space="preserve">132.861541748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136.375640869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138.638153076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138.78254699707</t>
   </si>
   <si>
     <t xml:space="preserve">138.734085083008</t>
   </si>
   <si>
-    <t xml:space="preserve">138.491714477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">139.60661315918</t>
+    <t xml:space="preserve">138.49169921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">139.606628417969</t>
   </si>
   <si>
     <t xml:space="preserve">139.558135986328</t>
@@ -3053,10 +3053,10 @@
     <t xml:space="preserve">139.848983764648</t>
   </si>
   <si>
-    <t xml:space="preserve">140.236770629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137.716125488281</t>
+    <t xml:space="preserve">140.236785888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137.716110229492</t>
   </si>
   <si>
     <t xml:space="preserve">134.759155273438</t>
@@ -3074,19 +3074,19 @@
     <t xml:space="preserve">139.267288208008</t>
   </si>
   <si>
-    <t xml:space="preserve">140.430694580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140.963882446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145.035781860352</t>
+    <t xml:space="preserve">140.430679321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140.963897705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145.035766601562</t>
   </si>
   <si>
     <t xml:space="preserve">146.150680541992</t>
   </si>
   <si>
-    <t xml:space="preserve">145.859817504883</t>
+    <t xml:space="preserve">145.859832763672</t>
   </si>
   <si>
     <t xml:space="preserve">148.138137817383</t>
@@ -3098,31 +3098,31 @@
     <t xml:space="preserve">149.204559326172</t>
   </si>
   <si>
-    <t xml:space="preserve">148.719802856445</t>
+    <t xml:space="preserve">148.719818115234</t>
   </si>
   <si>
     <t xml:space="preserve">149.107620239258</t>
   </si>
   <si>
-    <t xml:space="preserve">145.229675292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149.883224487305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151.337463378906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152.209976196289</t>
+    <t xml:space="preserve">145.22966003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149.883209228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151.337448120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152.209991455078</t>
   </si>
   <si>
     <t xml:space="preserve">155.021499633789</t>
   </si>
   <si>
-    <t xml:space="preserve">154.633712768555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152.694732666016</t>
+    <t xml:space="preserve">154.633728027344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152.694747924805</t>
   </si>
   <si>
     <t xml:space="preserve">153.470336914062</t>
@@ -3131,22 +3131,22 @@
     <t xml:space="preserve">151.822204589844</t>
   </si>
   <si>
-    <t xml:space="preserve">155.845581054688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">158.317794799805</t>
+    <t xml:space="preserve">155.845565795898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158.317779541016</t>
   </si>
   <si>
     <t xml:space="preserve">154.342864990234</t>
   </si>
   <si>
-    <t xml:space="preserve">155.748626708984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.105926513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.445220947266</t>
+    <t xml:space="preserve">155.748611450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.105911254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.445236206055</t>
   </si>
   <si>
     <t xml:space="preserve">157.00895690918</t>
@@ -3164,22 +3164,22 @@
     <t xml:space="preserve">162.195739746094</t>
   </si>
   <si>
-    <t xml:space="preserve">164.280151367188</t>
+    <t xml:space="preserve">164.280136108398</t>
   </si>
   <si>
     <t xml:space="preserve">165.734375</t>
   </si>
   <si>
-    <t xml:space="preserve">167.091674804688</t>
+    <t xml:space="preserve">167.091659545898</t>
   </si>
   <si>
     <t xml:space="preserve">163.795394897461</t>
   </si>
   <si>
-    <t xml:space="preserve">162.971343994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.425582885742</t>
+    <t xml:space="preserve">162.971328735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.425552368164</t>
   </si>
   <si>
     <t xml:space="preserve">167.188613891602</t>
@@ -3188,10 +3188,10 @@
     <t xml:space="preserve">165.928268432617</t>
   </si>
   <si>
-    <t xml:space="preserve">171.066558837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166.703857421875</t>
+    <t xml:space="preserve">171.06657409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.703872680664</t>
   </si>
   <si>
     <t xml:space="preserve">170.290969848633</t>
@@ -3209,7 +3209,7 @@
     <t xml:space="preserve">170.484893798828</t>
   </si>
   <si>
-    <t xml:space="preserve">171.212020874023</t>
+    <t xml:space="preserve">171.212005615234</t>
   </si>
   <si>
     <t xml:space="preserve">173.344879150391</t>
@@ -3221,7 +3221,7 @@
     <t xml:space="preserve">173.538772583008</t>
   </si>
   <si>
-    <t xml:space="preserve">178.289260864258</t>
+    <t xml:space="preserve">178.289276123047</t>
   </si>
   <si>
     <t xml:space="preserve">179.210296630859</t>
@@ -3230,46 +3230,46 @@
     <t xml:space="preserve">179.404190063477</t>
   </si>
   <si>
-    <t xml:space="preserve">182.409591674805</t>
+    <t xml:space="preserve">182.409606933594</t>
   </si>
   <si>
     <t xml:space="preserve">181.827926635742</t>
   </si>
   <si>
-    <t xml:space="preserve">180.325210571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179.743515014648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180.08283996582</t>
+    <t xml:space="preserve">180.325225830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179.743499755859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180.082824707031</t>
   </si>
   <si>
     <t xml:space="preserve">183.669952392578</t>
   </si>
   <si>
-    <t xml:space="preserve">185.075698852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">187.35400390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.44384765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">194.867553710938</t>
+    <t xml:space="preserve">185.075714111328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">187.354019165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.443832397461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">194.867568969727</t>
   </si>
   <si>
     <t xml:space="preserve">195.740097045898</t>
   </si>
   <si>
-    <t xml:space="preserve">198.066879272461</t>
+    <t xml:space="preserve">198.06689453125</t>
   </si>
   <si>
     <t xml:space="preserve">194.09196472168</t>
   </si>
   <si>
-    <t xml:space="preserve">199.424163818359</t>
+    <t xml:space="preserve">199.424179077148</t>
   </si>
   <si>
     <t xml:space="preserve">199.327239990234</t>
@@ -3281,7 +3281,7 @@
     <t xml:space="preserve">190.698745727539</t>
   </si>
   <si>
-    <t xml:space="preserve">195.643157958984</t>
+    <t xml:space="preserve">195.643173217773</t>
   </si>
   <si>
     <t xml:space="preserve">192.783172607422</t>
@@ -3290,7 +3290,7 @@
     <t xml:space="preserve">194.479782104492</t>
   </si>
   <si>
-    <t xml:space="preserve">196.418746948242</t>
+    <t xml:space="preserve">196.418762207031</t>
   </si>
   <si>
     <t xml:space="preserve">198.35774230957</t>
@@ -3302,7 +3302,7 @@
     <t xml:space="preserve">189.874694824219</t>
   </si>
   <si>
-    <t xml:space="preserve">182.845901489258</t>
+    <t xml:space="preserve">182.845886230469</t>
   </si>
   <si>
     <t xml:space="preserve">177.222839355469</t>
@@ -3311,7 +3311,7 @@
     <t xml:space="preserve">176.301834106445</t>
   </si>
   <si>
-    <t xml:space="preserve">175.817077636719</t>
+    <t xml:space="preserve">175.817092895508</t>
   </si>
   <si>
     <t xml:space="preserve">169.806228637695</t>
@@ -3326,13 +3326,13 @@
     <t xml:space="preserve">164.861846923828</t>
   </si>
   <si>
-    <t xml:space="preserve">165.491989135742</t>
+    <t xml:space="preserve">165.492004394531</t>
   </si>
   <si>
     <t xml:space="preserve">166.849304199219</t>
   </si>
   <si>
-    <t xml:space="preserve">164.183212280273</t>
+    <t xml:space="preserve">164.183197021484</t>
   </si>
   <si>
     <t xml:space="preserve">168.642852783203</t>
@@ -3341,7 +3341,7 @@
     <t xml:space="preserve">173.05403137207</t>
   </si>
   <si>
-    <t xml:space="preserve">173.441802978516</t>
+    <t xml:space="preserve">173.441818237305</t>
   </si>
   <si>
     <t xml:space="preserve">174.605224609375</t>
@@ -3350,34 +3350,34 @@
     <t xml:space="preserve">173.878112792969</t>
   </si>
   <si>
-    <t xml:space="preserve">175.962509155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179.985870361328</t>
+    <t xml:space="preserve">175.962493896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179.985885620117</t>
   </si>
   <si>
     <t xml:space="preserve">183.766906738281</t>
   </si>
   <si>
-    <t xml:space="preserve">183.13671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185.221145629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185.172653198242</t>
+    <t xml:space="preserve">183.136734008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">185.221130371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">185.172668457031</t>
   </si>
   <si>
     <t xml:space="preserve">181.634033203125</t>
   </si>
   <si>
-    <t xml:space="preserve">189.486877441406</t>
+    <t xml:space="preserve">189.486907958984</t>
   </si>
   <si>
     <t xml:space="preserve">189.389953613281</t>
   </si>
   <si>
-    <t xml:space="preserve">191.135009765625</t>
+    <t xml:space="preserve">191.135025024414</t>
   </si>
   <si>
     <t xml:space="preserve">191.619766235352</t>
@@ -3389,7 +3389,7 @@
     <t xml:space="preserve">187.160125732422</t>
   </si>
   <si>
-    <t xml:space="preserve">176.931991577148</t>
+    <t xml:space="preserve">176.931976318359</t>
   </si>
   <si>
     <t xml:space="preserve">178.483184814453</t>
@@ -3398,10 +3398,10 @@
     <t xml:space="preserve">177.80451965332</t>
   </si>
   <si>
-    <t xml:space="preserve">179.355728149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">182.264190673828</t>
+    <t xml:space="preserve">179.355712890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">182.264205932617</t>
   </si>
   <si>
     <t xml:space="preserve">183.185195922852</t>
@@ -3413,22 +3413,22 @@
     <t xml:space="preserve">178.143859863281</t>
   </si>
   <si>
-    <t xml:space="preserve">178.870971679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">178.046890258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">173.829620361328</t>
+    <t xml:space="preserve">178.870956420898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">178.046905517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173.829635620117</t>
   </si>
   <si>
     <t xml:space="preserve">172.036056518555</t>
   </si>
   <si>
-    <t xml:space="preserve">181.585540771484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179.452682495117</t>
+    <t xml:space="preserve">181.585556030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179.452667236328</t>
   </si>
   <si>
     <t xml:space="preserve">182.991302490234</t>
@@ -3437,7 +3437,7 @@
     <t xml:space="preserve">177.319778442383</t>
   </si>
   <si>
-    <t xml:space="preserve">172.472320556641</t>
+    <t xml:space="preserve">172.47233581543</t>
   </si>
   <si>
     <t xml:space="preserve">171.308944702148</t>
@@ -3455,7 +3455,7 @@
     <t xml:space="preserve">174.508270263672</t>
   </si>
   <si>
-    <t xml:space="preserve">175.138427734375</t>
+    <t xml:space="preserve">175.138442993164</t>
   </si>
   <si>
     <t xml:space="preserve">170.921157836914</t>
@@ -3464,19 +3464,19 @@
     <t xml:space="preserve">174.993011474609</t>
   </si>
   <si>
-    <t xml:space="preserve">172.714691162109</t>
+    <t xml:space="preserve">172.714706420898</t>
   </si>
   <si>
     <t xml:space="preserve">154.003555297852</t>
   </si>
   <si>
-    <t xml:space="preserve">155.65168762207</t>
+    <t xml:space="preserve">155.651672363281</t>
   </si>
   <si>
     <t xml:space="preserve">155.36083984375</t>
   </si>
   <si>
-    <t xml:space="preserve">156.912033081055</t>
+    <t xml:space="preserve">156.912017822266</t>
   </si>
   <si>
     <t xml:space="preserve">156.718109130859</t>
@@ -3497,13 +3497,13 @@
     <t xml:space="preserve">154.100494384766</t>
   </si>
   <si>
-    <t xml:space="preserve">155.60319519043</t>
+    <t xml:space="preserve">155.603210449219</t>
   </si>
   <si>
     <t xml:space="preserve">150.077117919922</t>
   </si>
   <si>
-    <t xml:space="preserve">143.58154296875</t>
+    <t xml:space="preserve">143.581527709961</t>
   </si>
   <si>
     <t xml:space="preserve">145.617446899414</t>
@@ -3527,7 +3527,7 @@
     <t xml:space="preserve">140.72151184082</t>
   </si>
   <si>
-    <t xml:space="preserve">142.515075683594</t>
+    <t xml:space="preserve">142.515090942383</t>
   </si>
   <si>
     <t xml:space="preserve">130.590347290039</t>
@@ -3536,7 +3536,7 @@
     <t xml:space="preserve">128.505950927734</t>
   </si>
   <si>
-    <t xml:space="preserve">130.638824462891</t>
+    <t xml:space="preserve">130.63883972168</t>
   </si>
   <si>
     <t xml:space="preserve">130.978149414062</t>
@@ -3551,10 +3551,10 @@
     <t xml:space="preserve">133.692718505859</t>
   </si>
   <si>
-    <t xml:space="preserve">129.330001831055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">127.584938049316</t>
+    <t xml:space="preserve">129.330017089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127.584930419922</t>
   </si>
   <si>
     <t xml:space="preserve">122.058837890625</t>
@@ -3569,25 +3569,25 @@
     <t xml:space="preserve">122.204261779785</t>
   </si>
   <si>
-    <t xml:space="preserve">119.441207885742</t>
+    <t xml:space="preserve">119.441215515137</t>
   </si>
   <si>
     <t xml:space="preserve">116.096473693848</t>
   </si>
   <si>
-    <t xml:space="preserve">118.56867980957</t>
+    <t xml:space="preserve">118.568672180176</t>
   </si>
   <si>
     <t xml:space="preserve">118.035453796387</t>
   </si>
   <si>
-    <t xml:space="preserve">117.065956115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.721229553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.866638183594</t>
+    <t xml:space="preserve">117.065963745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.721221923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.866645812988</t>
   </si>
   <si>
     <t xml:space="preserve">117.696136474609</t>
@@ -3599,16 +3599,16 @@
     <t xml:space="preserve">124.676467895508</t>
   </si>
   <si>
-    <t xml:space="preserve">124.434097290039</t>
+    <t xml:space="preserve">124.434089660645</t>
   </si>
   <si>
     <t xml:space="preserve">129.572387695312</t>
   </si>
   <si>
-    <t xml:space="preserve">128.748336791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125.355110168457</t>
+    <t xml:space="preserve">128.748321533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.355102539062</t>
   </si>
   <si>
     <t xml:space="preserve">124.72492980957</t>
@@ -3617,67 +3617,67 @@
     <t xml:space="preserve">121.62255859375</t>
   </si>
   <si>
-    <t xml:space="preserve">123.803909301758</t>
+    <t xml:space="preserve">123.803916931152</t>
   </si>
   <si>
     <t xml:space="preserve">119.004943847656</t>
   </si>
   <si>
-    <t xml:space="preserve">122.349678039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.017486572266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119.101890563965</t>
+    <t xml:space="preserve">122.349685668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.017478942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.101898193359</t>
   </si>
   <si>
     <t xml:space="preserve">123.416130065918</t>
   </si>
   <si>
-    <t xml:space="preserve">133.401885986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.983551025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128.312057495117</t>
+    <t xml:space="preserve">133.401870727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.98356628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128.312042236328</t>
   </si>
   <si>
     <t xml:space="preserve">128.215087890625</t>
   </si>
   <si>
-    <t xml:space="preserve">126.857833862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125.791374206543</t>
+    <t xml:space="preserve">126.85782623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.791381835938</t>
   </si>
   <si>
     <t xml:space="preserve">127.051719665527</t>
   </si>
   <si>
-    <t xml:space="preserve">135.534774780273</t>
+    <t xml:space="preserve">135.534744262695</t>
   </si>
   <si>
     <t xml:space="preserve">137.473739624023</t>
   </si>
   <si>
-    <t xml:space="preserve">137.570663452148</t>
+    <t xml:space="preserve">137.570693969727</t>
   </si>
   <si>
     <t xml:space="preserve">141.109329223633</t>
   </si>
   <si>
-    <t xml:space="preserve">141.400177001953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">143.920837402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140.818481445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137.910018920898</t>
+    <t xml:space="preserve">141.400161743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143.920852661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140.818466186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137.910003662109</t>
   </si>
   <si>
     <t xml:space="preserve">136.988998413086</t>
@@ -3695,7 +3695,7 @@
     <t xml:space="preserve">130.202560424805</t>
   </si>
   <si>
-    <t xml:space="preserve">130.057113647461</t>
+    <t xml:space="preserve">130.05712890625</t>
   </si>
   <si>
     <t xml:space="preserve">128.069686889648</t>
@@ -3704,10 +3704,10 @@
     <t xml:space="preserve">126.130706787109</t>
   </si>
   <si>
-    <t xml:space="preserve">122.543586730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120.216812133789</t>
+    <t xml:space="preserve">122.543579101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120.216804504395</t>
   </si>
   <si>
     <t xml:space="preserve">116.72664642334</t>
@@ -3719,40 +3719,40 @@
     <t xml:space="preserve">121.234771728516</t>
   </si>
   <si>
-    <t xml:space="preserve">119.683578491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119.150367736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.854103088379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.29035949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.969017028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.667327880859</t>
+    <t xml:space="preserve">119.683586120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.150375366211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.854095458984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.290367126465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.969009399414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.667320251465</t>
   </si>
   <si>
     <t xml:space="preserve">107.952751159668</t>
   </si>
   <si>
-    <t xml:space="preserve">111.055130004883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.534439086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.466293334961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.338844299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.884605407715</t>
+    <t xml:space="preserve">111.055122375488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.534446716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.466300964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.338836669922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.884613037109</t>
   </si>
   <si>
     <t xml:space="preserve">111.976142883301</t>
@@ -3773,7 +3773,7 @@
     <t xml:space="preserve">113.362937927246</t>
   </si>
   <si>
-    <t xml:space="preserve">114.830101013184</t>
+    <t xml:space="preserve">114.830108642578</t>
   </si>
   <si>
     <t xml:space="preserve">118.791442871094</t>
@@ -3782,19 +3782,19 @@
     <t xml:space="preserve">119.91626739502</t>
   </si>
   <si>
-    <t xml:space="preserve">119.818458557129</t>
+    <t xml:space="preserve">119.818466186523</t>
   </si>
   <si>
     <t xml:space="preserve">118.253486633301</t>
   </si>
   <si>
-    <t xml:space="preserve">121.334541320801</t>
+    <t xml:space="preserve">121.334533691406</t>
   </si>
   <si>
     <t xml:space="preserve">117.764434814453</t>
   </si>
   <si>
-    <t xml:space="preserve">119.769546508789</t>
+    <t xml:space="preserve">119.769554138184</t>
   </si>
   <si>
     <t xml:space="preserve">119.231597900391</t>
@@ -3806,7 +3806,7 @@
     <t xml:space="preserve">116.541793823242</t>
   </si>
   <si>
-    <t xml:space="preserve">113.216217041016</t>
+    <t xml:space="preserve">113.21622467041</t>
   </si>
   <si>
     <t xml:space="preserve">112.335914611816</t>
@@ -3818,7 +3818,7 @@
     <t xml:space="preserve">114.096519470215</t>
   </si>
   <si>
-    <t xml:space="preserve">111.30891418457</t>
+    <t xml:space="preserve">111.308906555176</t>
   </si>
   <si>
     <t xml:space="preserve">116.150550842285</t>
@@ -3833,22 +3833,22 @@
     <t xml:space="preserve">114.976821899414</t>
   </si>
   <si>
-    <t xml:space="preserve">121.725769042969</t>
+    <t xml:space="preserve">121.725776672363</t>
   </si>
   <si>
     <t xml:space="preserve">124.953536987305</t>
   </si>
   <si>
-    <t xml:space="preserve">124.366676330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124.171043395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.410453796387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.459350585938</t>
+    <t xml:space="preserve">124.366668701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.171051025391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.410461425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.459358215332</t>
   </si>
   <si>
     <t xml:space="preserve">123.584182739258</t>
@@ -3872,16 +3872,16 @@
     <t xml:space="preserve">133.218566894531</t>
   </si>
   <si>
-    <t xml:space="preserve">127.203201293945</t>
+    <t xml:space="preserve">127.203193664551</t>
   </si>
   <si>
     <t xml:space="preserve">129.599563598633</t>
   </si>
   <si>
-    <t xml:space="preserve">126.567405700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129.550643920898</t>
+    <t xml:space="preserve">126.567413330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129.550659179688</t>
   </si>
   <si>
     <t xml:space="preserve">129.306121826172</t>
@@ -3905,19 +3905,19 @@
     <t xml:space="preserve">130.430969238281</t>
   </si>
   <si>
-    <t xml:space="preserve">127.545516967773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131.898132324219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.631713867188</t>
+    <t xml:space="preserve">127.545532226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131.89811706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.631698608398</t>
   </si>
   <si>
     <t xml:space="preserve">132.533889770508</t>
   </si>
   <si>
-    <t xml:space="preserve">130.284225463867</t>
+    <t xml:space="preserve">130.284240722656</t>
   </si>
   <si>
     <t xml:space="preserve">131.800308227539</t>
@@ -3929,16 +3929,16 @@
     <t xml:space="preserve">133.903228759766</t>
   </si>
   <si>
-    <t xml:space="preserve">132.582809448242</t>
+    <t xml:space="preserve">132.582794189453</t>
   </si>
   <si>
     <t xml:space="preserve">133.609817504883</t>
   </si>
   <si>
-    <t xml:space="preserve">136.837554931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.587936401367</t>
+    <t xml:space="preserve">136.83757019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.587921142578</t>
   </si>
   <si>
     <t xml:space="preserve">133.463088989258</t>
@@ -3947,28 +3947,28 @@
     <t xml:space="preserve">132.484985351562</t>
   </si>
   <si>
-    <t xml:space="preserve">133.707611083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.169647216797</t>
+    <t xml:space="preserve">133.707626342773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.169662475586</t>
   </si>
   <si>
     <t xml:space="preserve">134.001052856445</t>
   </si>
   <si>
-    <t xml:space="preserve">128.132400512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129.501739501953</t>
+    <t xml:space="preserve">128.132385253906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129.501754760742</t>
   </si>
   <si>
     <t xml:space="preserve">128.083480834961</t>
   </si>
   <si>
-    <t xml:space="preserve">127.496635437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130.822204589844</t>
+    <t xml:space="preserve">127.496620178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.822189331055</t>
   </si>
   <si>
     <t xml:space="preserve">129.697387695312</t>
@@ -3983,16 +3983,16 @@
     <t xml:space="preserve">130.773284912109</t>
   </si>
   <si>
-    <t xml:space="preserve">131.653610229492</t>
+    <t xml:space="preserve">131.653594970703</t>
   </si>
   <si>
     <t xml:space="preserve">133.658706665039</t>
   </si>
   <si>
-    <t xml:space="preserve">126.714141845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125.051345825195</t>
+    <t xml:space="preserve">126.714134216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.05135345459</t>
   </si>
   <si>
     <t xml:space="preserve">122.94841003418</t>
@@ -4010,19 +4010,19 @@
     <t xml:space="preserve">113.900894165039</t>
   </si>
   <si>
-    <t xml:space="preserve">113.06950378418</t>
+    <t xml:space="preserve">113.069496154785</t>
   </si>
   <si>
     <t xml:space="preserve">112.23811340332</t>
   </si>
   <si>
-    <t xml:space="preserve">109.15705871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.28702545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.504524230957</t>
+    <t xml:space="preserve">109.157066345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.287017822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.504531860352</t>
   </si>
   <si>
     <t xml:space="preserve">115.270248413086</t>
@@ -4031,16 +4031,16 @@
     <t xml:space="preserve">112.727165222168</t>
   </si>
   <si>
-    <t xml:space="preserve">109.890640258789</t>
+    <t xml:space="preserve">109.890647888184</t>
   </si>
   <si>
     <t xml:space="preserve">110.526420593262</t>
   </si>
   <si>
-    <t xml:space="preserve">116.443984985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125.344779968262</t>
+    <t xml:space="preserve">116.443992614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.344772338867</t>
   </si>
   <si>
     <t xml:space="preserve">123.241844177246</t>
@@ -4049,7 +4049,7 @@
     <t xml:space="preserve">126.176177978516</t>
   </si>
   <si>
-    <t xml:space="preserve">127.252105712891</t>
+    <t xml:space="preserve">127.252098083496</t>
   </si>
   <si>
     <t xml:space="preserve">133.267471313477</t>
@@ -4064,16 +4064,16 @@
     <t xml:space="preserve">126.273994445801</t>
   </si>
   <si>
-    <t xml:space="preserve">129.403945922852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128.279098510742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.518516540527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.877624511719</t>
+    <t xml:space="preserve">129.403930664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128.279113769531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.518524169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.877616882324</t>
   </si>
   <si>
     <t xml:space="preserve">126.371795654297</t>
@@ -4082,7 +4082,7 @@
     <t xml:space="preserve">126.616317749023</t>
   </si>
   <si>
-    <t xml:space="preserve">130.235321044922</t>
+    <t xml:space="preserve">130.235336303711</t>
   </si>
   <si>
     <t xml:space="preserve">133.756530761719</t>
@@ -4091,7 +4091,7 @@
     <t xml:space="preserve">135.223693847656</t>
   </si>
   <si>
-    <t xml:space="preserve">132.436065673828</t>
+    <t xml:space="preserve">132.436080932617</t>
   </si>
   <si>
     <t xml:space="preserve">129.941909790039</t>
@@ -4103,7 +4103,7 @@
     <t xml:space="preserve">129.844085693359</t>
   </si>
   <si>
-    <t xml:space="preserve">128.670364379883</t>
+    <t xml:space="preserve">128.670349121094</t>
   </si>
   <si>
     <t xml:space="preserve">126.07836151123</t>
@@ -4112,25 +4112,25 @@
     <t xml:space="preserve">128.865982055664</t>
   </si>
   <si>
-    <t xml:space="preserve">130.968902587891</t>
+    <t xml:space="preserve">130.96891784668</t>
   </si>
   <si>
     <t xml:space="preserve">129.795181274414</t>
   </si>
   <si>
-    <t xml:space="preserve">126.860847473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131.16455078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.365295410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136.152893066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131.506866455078</t>
+    <t xml:space="preserve">126.860855102539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131.164535522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.365280151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136.152908325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131.506881713867</t>
   </si>
   <si>
     <t xml:space="preserve">126.665229797363</t>
@@ -4139,7 +4139,7 @@
     <t xml:space="preserve">121.823593139648</t>
   </si>
   <si>
-    <t xml:space="preserve">125.002449035645</t>
+    <t xml:space="preserve">125.00244140625</t>
   </si>
   <si>
     <t xml:space="preserve">123.339653015137</t>
@@ -4148,7 +4148,7 @@
     <t xml:space="preserve">125.100257873535</t>
   </si>
   <si>
-    <t xml:space="preserve">124.611206054688</t>
+    <t xml:space="preserve">124.611198425293</t>
   </si>
   <si>
     <t xml:space="preserve">124.219955444336</t>
@@ -4160,19 +4160,19 @@
     <t xml:space="preserve">126.469612121582</t>
   </si>
   <si>
-    <t xml:space="preserve">127.007583618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124.415573120117</t>
+    <t xml:space="preserve">127.00757598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.415580749512</t>
   </si>
   <si>
     <t xml:space="preserve">123.730903625488</t>
   </si>
   <si>
-    <t xml:space="preserve">124.806816101074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.437461853027</t>
+    <t xml:space="preserve">124.806823730469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.437469482422</t>
   </si>
   <si>
     <t xml:space="preserve">123.779815673828</t>
@@ -4190,7 +4190,7 @@
     <t xml:space="preserve">122.557174682617</t>
   </si>
   <si>
-    <t xml:space="preserve">122.01921081543</t>
+    <t xml:space="preserve">122.019203186035</t>
   </si>
   <si>
     <t xml:space="preserve">120.9921875</t>
@@ -4217,7 +4217,7 @@
     <t xml:space="preserve">119.280494689941</t>
   </si>
   <si>
-    <t xml:space="preserve">118.400207519531</t>
+    <t xml:space="preserve">118.400199890137</t>
   </si>
   <si>
     <t xml:space="preserve">115.710403442383</t>
@@ -4226,10 +4226,10 @@
     <t xml:space="preserve">113.851997375488</t>
   </si>
   <si>
-    <t xml:space="preserve">114.683387756348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.754188537598</t>
+    <t xml:space="preserve">114.683380126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.754180908203</t>
   </si>
   <si>
     <t xml:space="preserve">113.998710632324</t>
@@ -4241,7 +4241,7 @@
     <t xml:space="preserve">110.819854736328</t>
   </si>
   <si>
-    <t xml:space="preserve">112.482635498047</t>
+    <t xml:space="preserve">112.482643127441</t>
   </si>
   <si>
     <t xml:space="preserve">111.651245117188</t>
@@ -4250,16 +4250,16 @@
     <t xml:space="preserve">108.570198059082</t>
   </si>
   <si>
-    <t xml:space="preserve">107.543174743652</t>
+    <t xml:space="preserve">107.543182373047</t>
   </si>
   <si>
     <t xml:space="preserve">110.03736114502</t>
   </si>
   <si>
-    <t xml:space="preserve">110.232978820801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.499397277832</t>
+    <t xml:space="preserve">110.232986450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.499404907227</t>
   </si>
   <si>
     <t xml:space="preserve">109.10816192627</t>
@@ -4280,22 +4280,22 @@
     <t xml:space="preserve">105.000091552734</t>
   </si>
   <si>
-    <t xml:space="preserve">103.386207580566</t>
+    <t xml:space="preserve">103.386215209961</t>
   </si>
   <si>
     <t xml:space="preserve">98.9847183227539</t>
   </si>
   <si>
-    <t xml:space="preserve">100.20735168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.8380126953125</t>
+    <t xml:space="preserve">100.207359313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.838005065918</t>
   </si>
   <si>
     <t xml:space="preserve">96.3438262939453</t>
   </si>
   <si>
-    <t xml:space="preserve">99.8161239624023</t>
+    <t xml:space="preserve">99.8161163330078</t>
   </si>
   <si>
     <t xml:space="preserve">95.8547668457031</t>
@@ -4307,46 +4307,46 @@
     <t xml:space="preserve">95.8743286132812</t>
   </si>
   <si>
-    <t xml:space="preserve">96.2851333618164</t>
+    <t xml:space="preserve">96.2851409912109</t>
   </si>
   <si>
     <t xml:space="preserve">94.9353485107422</t>
   </si>
   <si>
-    <t xml:space="preserve">94.8766632080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.4393081665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.0089416503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.9306869506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.1896514892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94.7201538085938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.1700973510742</t>
+    <t xml:space="preserve">94.8766555786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.4393157958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.0089340209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.9306945800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.1896591186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94.7201614379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.1700897216797</t>
   </si>
   <si>
     <t xml:space="preserve">95.2483367919922</t>
   </si>
   <si>
-    <t xml:space="preserve">95.0331649780273</t>
+    <t xml:space="preserve">95.0331573486328</t>
   </si>
   <si>
     <t xml:space="preserve">96.7546310424805</t>
   </si>
   <si>
-    <t xml:space="preserve">97.1849975585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.3852767944336</t>
+    <t xml:space="preserve">97.1850051879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.3852691650391</t>
   </si>
   <si>
     <t xml:space="preserve">94.3484802246094</t>
@@ -4355,7 +4355,7 @@
     <t xml:space="preserve">96.3242645263672</t>
   </si>
   <si>
-    <t xml:space="preserve">95.5808944702148</t>
+    <t xml:space="preserve">95.5809020996094</t>
   </si>
   <si>
     <t xml:space="preserve">95.8156433105469</t>
@@ -4367,16 +4367,16 @@
     <t xml:space="preserve">102.16357421875</t>
   </si>
   <si>
-    <t xml:space="preserve">99.9628219604492</t>
+    <t xml:space="preserve">99.9628295898438</t>
   </si>
   <si>
     <t xml:space="preserve">102.457008361816</t>
   </si>
   <si>
-    <t xml:space="preserve">103.288398742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102.750450134277</t>
+    <t xml:space="preserve">103.28840637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102.750442504883</t>
   </si>
   <si>
     <t xml:space="preserve">99.3270645141602</t>
@@ -5097,6 +5097,9 @@
   </si>
   <si>
     <t xml:space="preserve">100.699996948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101.550003051758</t>
   </si>
 </sst>
 </file>
@@ -11384,7 +11387,7 @@
         <v>51.7999992370605</v>
       </c>
       <c r="G229" t="s">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -11436,7 +11439,7 @@
         <v>51.25</v>
       </c>
       <c r="G231" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -11462,7 +11465,7 @@
         <v>51.6500015258789</v>
       </c>
       <c r="G232" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -11488,7 +11491,7 @@
         <v>52.1500015258789</v>
       </c>
       <c r="G233" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -11514,7 +11517,7 @@
         <v>52</v>
       </c>
       <c r="G234" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -11540,7 +11543,7 @@
         <v>51.5</v>
       </c>
       <c r="G235" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -11566,7 +11569,7 @@
         <v>50.9000015258789</v>
       </c>
       <c r="G236" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -11592,7 +11595,7 @@
         <v>51.25</v>
       </c>
       <c r="G237" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -11618,7 +11621,7 @@
         <v>51.1500015258789</v>
       </c>
       <c r="G238" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -11644,7 +11647,7 @@
         <v>51.25</v>
       </c>
       <c r="G239" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -11696,7 +11699,7 @@
         <v>52.0999984741211</v>
       </c>
       <c r="G241" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -11722,7 +11725,7 @@
         <v>52.0999984741211</v>
       </c>
       <c r="G242" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -11748,7 +11751,7 @@
         <v>52.1500015258789</v>
       </c>
       <c r="G243" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -11800,7 +11803,7 @@
         <v>51.7999992370605</v>
       </c>
       <c r="G245" t="s">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -11826,7 +11829,7 @@
         <v>51.8499984741211</v>
       </c>
       <c r="G246" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -11852,7 +11855,7 @@
         <v>52.9000015258789</v>
       </c>
       <c r="G247" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -11878,7 +11881,7 @@
         <v>53.1500015258789</v>
       </c>
       <c r="G248" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -11930,7 +11933,7 @@
         <v>55.0999984741211</v>
       </c>
       <c r="G250" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -12034,7 +12037,7 @@
         <v>56.4000015258789</v>
       </c>
       <c r="G254" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -12242,7 +12245,7 @@
         <v>58.4000015258789</v>
       </c>
       <c r="G262" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -12320,7 +12323,7 @@
         <v>56.5499992370605</v>
       </c>
       <c r="G265" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -12606,7 +12609,7 @@
         <v>54.7000007629395</v>
       </c>
       <c r="G276" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -12632,7 +12635,7 @@
         <v>55.5499992370605</v>
       </c>
       <c r="G277" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -12736,7 +12739,7 @@
         <v>58.4000015258789</v>
       </c>
       <c r="G281" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -12866,7 +12869,7 @@
         <v>56.5499992370605</v>
       </c>
       <c r="G286" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -13022,7 +13025,7 @@
         <v>56.9000015258789</v>
       </c>
       <c r="G292" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -13074,7 +13077,7 @@
         <v>57.25</v>
       </c>
       <c r="G294" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -13152,7 +13155,7 @@
         <v>58.4500007629395</v>
       </c>
       <c r="G297" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -13178,7 +13181,7 @@
         <v>58.75</v>
       </c>
       <c r="G298" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -13204,7 +13207,7 @@
         <v>59.75</v>
       </c>
       <c r="G299" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -13256,7 +13259,7 @@
         <v>59.7999992370605</v>
       </c>
       <c r="G301" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -13282,7 +13285,7 @@
         <v>59.7999992370605</v>
       </c>
       <c r="G302" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -13308,7 +13311,7 @@
         <v>59.8499984741211</v>
       </c>
       <c r="G303" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -13334,7 +13337,7 @@
         <v>60.0999984741211</v>
       </c>
       <c r="G304" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -13386,7 +13389,7 @@
         <v>59.25</v>
       </c>
       <c r="G306" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -13412,7 +13415,7 @@
         <v>59.6500015258789</v>
       </c>
       <c r="G307" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -13464,7 +13467,7 @@
         <v>59.8499984741211</v>
       </c>
       <c r="G309" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -13490,7 +13493,7 @@
         <v>60.2999992370605</v>
       </c>
       <c r="G310" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -13516,7 +13519,7 @@
         <v>61.3499984741211</v>
       </c>
       <c r="G311" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -13542,7 +13545,7 @@
         <v>61.3499984741211</v>
       </c>
       <c r="G312" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -13568,7 +13571,7 @@
         <v>62.25</v>
       </c>
       <c r="G313" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -13594,7 +13597,7 @@
         <v>61.9500007629395</v>
       </c>
       <c r="G314" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -13620,7 +13623,7 @@
         <v>62.1500015258789</v>
       </c>
       <c r="G315" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -13646,7 +13649,7 @@
         <v>63</v>
       </c>
       <c r="G316" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -13672,7 +13675,7 @@
         <v>62.8499984741211</v>
       </c>
       <c r="G317" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -13698,7 +13701,7 @@
         <v>62.2999992370605</v>
       </c>
       <c r="G318" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -13724,7 +13727,7 @@
         <v>62.8499984741211</v>
       </c>
       <c r="G319" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -13750,7 +13753,7 @@
         <v>62.25</v>
       </c>
       <c r="G320" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -13776,7 +13779,7 @@
         <v>63.5999984741211</v>
       </c>
       <c r="G321" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -13802,7 +13805,7 @@
         <v>63.2999992370605</v>
       </c>
       <c r="G322" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -13828,7 +13831,7 @@
         <v>63.7999992370605</v>
       </c>
       <c r="G323" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -13854,7 +13857,7 @@
         <v>63.9000015258789</v>
       </c>
       <c r="G324" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -13880,7 +13883,7 @@
         <v>64.3000030517578</v>
       </c>
       <c r="G325" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -13906,7 +13909,7 @@
         <v>64.1999969482422</v>
       </c>
       <c r="G326" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -13932,7 +13935,7 @@
         <v>65</v>
       </c>
       <c r="G327" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -13958,7 +13961,7 @@
         <v>65.9499969482422</v>
       </c>
       <c r="G328" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -13984,7 +13987,7 @@
         <v>66.0999984741211</v>
       </c>
       <c r="G329" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -14010,7 +14013,7 @@
         <v>65.8000030517578</v>
       </c>
       <c r="G330" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -14036,7 +14039,7 @@
         <v>65.0500030517578</v>
       </c>
       <c r="G331" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -14062,7 +14065,7 @@
         <v>64</v>
       </c>
       <c r="G332" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -14088,7 +14091,7 @@
         <v>64.25</v>
       </c>
       <c r="G333" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -14114,7 +14117,7 @@
         <v>66.0999984741211</v>
       </c>
       <c r="G334" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -14140,7 +14143,7 @@
         <v>65.5999984741211</v>
       </c>
       <c r="G335" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -14166,7 +14169,7 @@
         <v>67.1999969482422</v>
       </c>
       <c r="G336" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -14192,7 +14195,7 @@
         <v>66</v>
       </c>
       <c r="G337" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -14218,7 +14221,7 @@
         <v>66.4000015258789</v>
       </c>
       <c r="G338" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -14244,7 +14247,7 @@
         <v>67.5</v>
       </c>
       <c r="G339" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -14270,7 +14273,7 @@
         <v>68.8000030517578</v>
       </c>
       <c r="G340" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -14296,7 +14299,7 @@
         <v>71</v>
       </c>
       <c r="G341" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -14322,7 +14325,7 @@
         <v>69.5999984741211</v>
       </c>
       <c r="G342" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -14348,7 +14351,7 @@
         <v>69</v>
       </c>
       <c r="G343" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -14374,7 +14377,7 @@
         <v>69.3000030517578</v>
       </c>
       <c r="G344" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -14400,7 +14403,7 @@
         <v>69.3000030517578</v>
       </c>
       <c r="G345" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -14426,7 +14429,7 @@
         <v>70.3499984741211</v>
       </c>
       <c r="G346" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -14452,7 +14455,7 @@
         <v>70.1999969482422</v>
       </c>
       <c r="G347" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -14478,7 +14481,7 @@
         <v>69.8499984741211</v>
       </c>
       <c r="G348" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -14504,7 +14507,7 @@
         <v>70.25</v>
       </c>
       <c r="G349" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -14530,7 +14533,7 @@
         <v>70</v>
       </c>
       <c r="G350" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -14556,7 +14559,7 @@
         <v>70</v>
       </c>
       <c r="G351" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -14582,7 +14585,7 @@
         <v>68.1500015258789</v>
       </c>
       <c r="G352" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -14608,7 +14611,7 @@
         <v>67.4000015258789</v>
       </c>
       <c r="G353" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -14634,7 +14637,7 @@
         <v>68.25</v>
       </c>
       <c r="G354" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -14660,7 +14663,7 @@
         <v>68.25</v>
       </c>
       <c r="G355" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -14686,7 +14689,7 @@
         <v>68.5500030517578</v>
       </c>
       <c r="G356" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -14712,7 +14715,7 @@
         <v>68.6999969482422</v>
       </c>
       <c r="G357" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -14738,7 +14741,7 @@
         <v>68.9499969482422</v>
       </c>
       <c r="G358" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -14764,7 +14767,7 @@
         <v>69.1999969482422</v>
       </c>
       <c r="G359" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -14790,7 +14793,7 @@
         <v>68.0500030517578</v>
       </c>
       <c r="G360" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -14816,7 +14819,7 @@
         <v>68.6999969482422</v>
       </c>
       <c r="G361" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -14842,7 +14845,7 @@
         <v>68.9499969482422</v>
       </c>
       <c r="G362" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -14868,7 +14871,7 @@
         <v>70.1999969482422</v>
       </c>
       <c r="G363" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -14894,7 +14897,7 @@
         <v>70.5500030517578</v>
       </c>
       <c r="G364" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -14920,7 +14923,7 @@
         <v>70.25</v>
       </c>
       <c r="G365" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -14946,7 +14949,7 @@
         <v>71.4499969482422</v>
       </c>
       <c r="G366" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -14972,7 +14975,7 @@
         <v>70.9000015258789</v>
       </c>
       <c r="G367" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -14998,7 +15001,7 @@
         <v>71.75</v>
       </c>
       <c r="G368" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -15024,7 +15027,7 @@
         <v>72.5</v>
       </c>
       <c r="G369" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -15050,7 +15053,7 @@
         <v>69.9000015258789</v>
       </c>
       <c r="G370" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -15076,7 +15079,7 @@
         <v>69.75</v>
       </c>
       <c r="G371" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -15102,7 +15105,7 @@
         <v>71.4000015258789</v>
       </c>
       <c r="G372" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -15128,7 +15131,7 @@
         <v>70.6999969482422</v>
       </c>
       <c r="G373" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -15154,7 +15157,7 @@
         <v>71.3000030517578</v>
       </c>
       <c r="G374" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -15180,7 +15183,7 @@
         <v>71.1500015258789</v>
       </c>
       <c r="G375" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -15206,7 +15209,7 @@
         <v>71</v>
       </c>
       <c r="G376" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -15232,7 +15235,7 @@
         <v>70.5500030517578</v>
       </c>
       <c r="G377" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -15258,7 +15261,7 @@
         <v>70.1999969482422</v>
       </c>
       <c r="G378" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -15284,7 +15287,7 @@
         <v>72.6999969482422</v>
       </c>
       <c r="G379" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -15310,7 +15313,7 @@
         <v>71.3000030517578</v>
       </c>
       <c r="G380" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -15336,7 +15339,7 @@
         <v>69.9000015258789</v>
       </c>
       <c r="G381" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -15362,7 +15365,7 @@
         <v>67.5999984741211</v>
       </c>
       <c r="G382" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -15388,7 +15391,7 @@
         <v>66</v>
       </c>
       <c r="G383" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -15414,7 +15417,7 @@
         <v>67.25</v>
       </c>
       <c r="G384" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -15440,7 +15443,7 @@
         <v>66.5999984741211</v>
       </c>
       <c r="G385" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -15466,7 +15469,7 @@
         <v>66.5999984741211</v>
       </c>
       <c r="G386" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -15492,7 +15495,7 @@
         <v>67.25</v>
       </c>
       <c r="G387" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -15518,7 +15521,7 @@
         <v>66.5999984741211</v>
       </c>
       <c r="G388" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -15544,7 +15547,7 @@
         <v>67.3000030517578</v>
       </c>
       <c r="G389" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -15570,7 +15573,7 @@
         <v>67</v>
       </c>
       <c r="G390" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -15596,7 +15599,7 @@
         <v>66.0500030517578</v>
       </c>
       <c r="G391" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -15622,7 +15625,7 @@
         <v>67</v>
       </c>
       <c r="G392" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -15648,7 +15651,7 @@
         <v>67.0999984741211</v>
       </c>
       <c r="G393" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -15674,7 +15677,7 @@
         <v>68</v>
       </c>
       <c r="G394" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -15700,7 +15703,7 @@
         <v>69.0500030517578</v>
       </c>
       <c r="G395" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -15726,7 +15729,7 @@
         <v>69.75</v>
       </c>
       <c r="G396" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -15752,7 +15755,7 @@
         <v>69.9499969482422</v>
       </c>
       <c r="G397" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -15778,7 +15781,7 @@
         <v>70.3499984741211</v>
       </c>
       <c r="G398" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -15804,7 +15807,7 @@
         <v>70.1500015258789</v>
       </c>
       <c r="G399" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -15830,7 +15833,7 @@
         <v>70.5500030517578</v>
       </c>
       <c r="G400" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -15856,7 +15859,7 @@
         <v>69.8499984741211</v>
       </c>
       <c r="G401" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -15882,7 +15885,7 @@
         <v>73.3000030517578</v>
       </c>
       <c r="G402" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -15908,7 +15911,7 @@
         <v>73.9000015258789</v>
       </c>
       <c r="G403" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -15934,7 +15937,7 @@
         <v>73.0500030517578</v>
       </c>
       <c r="G404" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -15960,7 +15963,7 @@
         <v>73.5999984741211</v>
       </c>
       <c r="G405" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -15986,7 +15989,7 @@
         <v>73.4000015258789</v>
       </c>
       <c r="G406" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -16012,7 +16015,7 @@
         <v>73</v>
       </c>
       <c r="G407" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -16038,7 +16041,7 @@
         <v>73.0500030517578</v>
       </c>
       <c r="G408" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -16064,7 +16067,7 @@
         <v>72.9000015258789</v>
       </c>
       <c r="G409" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -16090,7 +16093,7 @@
         <v>72.5999984741211</v>
       </c>
       <c r="G410" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -16116,7 +16119,7 @@
         <v>71.9499969482422</v>
       </c>
       <c r="G411" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -16142,7 +16145,7 @@
         <v>72.1500015258789</v>
       </c>
       <c r="G412" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -16168,7 +16171,7 @@
         <v>71.4000015258789</v>
       </c>
       <c r="G413" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -16194,7 +16197,7 @@
         <v>70.6999969482422</v>
       </c>
       <c r="G414" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -16220,7 +16223,7 @@
         <v>71.6500015258789</v>
       </c>
       <c r="G415" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -16246,7 +16249,7 @@
         <v>71.4000015258789</v>
       </c>
       <c r="G416" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -16272,7 +16275,7 @@
         <v>71.6999969482422</v>
       </c>
       <c r="G417" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -16298,7 +16301,7 @@
         <v>71.5500030517578</v>
       </c>
       <c r="G418" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -16324,7 +16327,7 @@
         <v>71.3499984741211</v>
       </c>
       <c r="G419" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -16350,7 +16353,7 @@
         <v>71.4000015258789</v>
       </c>
       <c r="G420" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -16376,7 +16379,7 @@
         <v>71.3499984741211</v>
       </c>
       <c r="G421" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -16402,7 +16405,7 @@
         <v>70.8000030517578</v>
       </c>
       <c r="G422" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -16428,7 +16431,7 @@
         <v>70.5500030517578</v>
       </c>
       <c r="G423" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -16454,7 +16457,7 @@
         <v>70.0500030517578</v>
       </c>
       <c r="G424" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -16480,7 +16483,7 @@
         <v>69.9499969482422</v>
       </c>
       <c r="G425" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -16506,7 +16509,7 @@
         <v>71.3499984741211</v>
       </c>
       <c r="G426" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -16532,7 +16535,7 @@
         <v>72.4000015258789</v>
       </c>
       <c r="G427" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -16558,7 +16561,7 @@
         <v>72.4499969482422</v>
       </c>
       <c r="G428" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -16584,7 +16587,7 @@
         <v>72.5</v>
       </c>
       <c r="G429" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -16610,7 +16613,7 @@
         <v>73</v>
       </c>
       <c r="G430" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -16636,7 +16639,7 @@
         <v>73.3499984741211</v>
       </c>
       <c r="G431" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -16662,7 +16665,7 @@
         <v>73.6999969482422</v>
       </c>
       <c r="G432" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -16688,7 +16691,7 @@
         <v>73.5500030517578</v>
       </c>
       <c r="G433" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -16714,7 +16717,7 @@
         <v>73.9000015258789</v>
       </c>
       <c r="G434" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -16740,7 +16743,7 @@
         <v>73</v>
       </c>
       <c r="G435" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -16766,7 +16769,7 @@
         <v>74</v>
       </c>
       <c r="G436" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -16792,7 +16795,7 @@
         <v>74</v>
       </c>
       <c r="G437" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -16818,7 +16821,7 @@
         <v>73.0999984741211</v>
       </c>
       <c r="G438" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -16844,7 +16847,7 @@
         <v>73.4499969482422</v>
       </c>
       <c r="G439" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -16870,7 +16873,7 @@
         <v>74</v>
       </c>
       <c r="G440" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -16896,7 +16899,7 @@
         <v>74.25</v>
       </c>
       <c r="G441" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -16922,7 +16925,7 @@
         <v>73.8000030517578</v>
       </c>
       <c r="G442" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -16948,7 +16951,7 @@
         <v>74.5999984741211</v>
       </c>
       <c r="G443" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -16974,7 +16977,7 @@
         <v>75.8499984741211</v>
       </c>
       <c r="G444" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -17000,7 +17003,7 @@
         <v>75.4000015258789</v>
       </c>
       <c r="G445" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -17026,7 +17029,7 @@
         <v>75.0999984741211</v>
       </c>
       <c r="G446" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -17052,7 +17055,7 @@
         <v>75.1999969482422</v>
       </c>
       <c r="G447" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -17078,7 +17081,7 @@
         <v>75.4499969482422</v>
       </c>
       <c r="G448" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -17104,7 +17107,7 @@
         <v>76.5</v>
       </c>
       <c r="G449" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -17130,7 +17133,7 @@
         <v>77.8000030517578</v>
       </c>
       <c r="G450" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -17156,7 +17159,7 @@
         <v>77.9000015258789</v>
       </c>
       <c r="G451" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -17182,7 +17185,7 @@
         <v>79.6500015258789</v>
       </c>
       <c r="G452" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -17208,7 +17211,7 @@
         <v>79</v>
       </c>
       <c r="G453" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -17234,7 +17237,7 @@
         <v>79.1500015258789</v>
       </c>
       <c r="G454" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -17260,7 +17263,7 @@
         <v>78.4000015258789</v>
       </c>
       <c r="G455" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -17286,7 +17289,7 @@
         <v>78.75</v>
       </c>
       <c r="G456" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -17312,7 +17315,7 @@
         <v>80.5500030517578</v>
       </c>
       <c r="G457" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -17338,7 +17341,7 @@
         <v>78.75</v>
       </c>
       <c r="G458" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -17364,7 +17367,7 @@
         <v>79</v>
       </c>
       <c r="G459" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -17390,7 +17393,7 @@
         <v>79</v>
       </c>
       <c r="G460" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -17416,7 +17419,7 @@
         <v>78.4499969482422</v>
       </c>
       <c r="G461" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -17442,7 +17445,7 @@
         <v>77.75</v>
       </c>
       <c r="G462" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -17468,7 +17471,7 @@
         <v>77.8499984741211</v>
       </c>
       <c r="G463" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -17494,7 +17497,7 @@
         <v>77.8000030517578</v>
       </c>
       <c r="G464" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -17520,7 +17523,7 @@
         <v>78.0500030517578</v>
       </c>
       <c r="G465" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -17546,7 +17549,7 @@
         <v>77.9000015258789</v>
       </c>
       <c r="G466" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -17572,7 +17575,7 @@
         <v>78.3000030517578</v>
       </c>
       <c r="G467" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -17598,7 +17601,7 @@
         <v>78.3499984741211</v>
       </c>
       <c r="G468" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -17624,7 +17627,7 @@
         <v>78</v>
       </c>
       <c r="G469" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -17650,7 +17653,7 @@
         <v>78.0999984741211</v>
       </c>
       <c r="G470" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -17676,7 +17679,7 @@
         <v>78.9499969482422</v>
       </c>
       <c r="G471" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -17702,7 +17705,7 @@
         <v>77.9499969482422</v>
       </c>
       <c r="G472" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -17728,7 +17731,7 @@
         <v>79.1999969482422</v>
       </c>
       <c r="G473" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -17754,7 +17757,7 @@
         <v>78.5500030517578</v>
       </c>
       <c r="G474" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -17780,7 +17783,7 @@
         <v>78.25</v>
       </c>
       <c r="G475" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -17806,7 +17809,7 @@
         <v>77.75</v>
       </c>
       <c r="G476" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -17832,7 +17835,7 @@
         <v>72.0500030517578</v>
       </c>
       <c r="G477" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -17858,7 +17861,7 @@
         <v>72.5500030517578</v>
       </c>
       <c r="G478" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -17884,7 +17887,7 @@
         <v>73.8000030517578</v>
       </c>
       <c r="G479" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -17910,7 +17913,7 @@
         <v>74.6500015258789</v>
       </c>
       <c r="G480" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -17936,7 +17939,7 @@
         <v>74</v>
       </c>
       <c r="G481" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -17962,7 +17965,7 @@
         <v>75.4000015258789</v>
       </c>
       <c r="G482" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -17988,7 +17991,7 @@
         <v>75.0500030517578</v>
       </c>
       <c r="G483" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -18014,7 +18017,7 @@
         <v>76.6500015258789</v>
       </c>
       <c r="G484" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -18040,7 +18043,7 @@
         <v>77.5</v>
       </c>
       <c r="G485" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -18066,7 +18069,7 @@
         <v>77.1999969482422</v>
       </c>
       <c r="G486" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -18092,7 +18095,7 @@
         <v>76.3499984741211</v>
       </c>
       <c r="G487" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -18118,7 +18121,7 @@
         <v>74.5</v>
       </c>
       <c r="G488" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -18144,7 +18147,7 @@
         <v>75.6500015258789</v>
       </c>
       <c r="G489" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -18170,7 +18173,7 @@
         <v>76.4000015258789</v>
       </c>
       <c r="G490" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -18196,7 +18199,7 @@
         <v>76.5500030517578</v>
       </c>
       <c r="G491" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -18222,7 +18225,7 @@
         <v>77.4000015258789</v>
       </c>
       <c r="G492" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -18248,7 +18251,7 @@
         <v>78.0500030517578</v>
       </c>
       <c r="G493" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -18274,7 +18277,7 @@
         <v>77.6500015258789</v>
       </c>
       <c r="G494" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -18300,7 +18303,7 @@
         <v>78.4000015258789</v>
       </c>
       <c r="G495" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -18326,7 +18329,7 @@
         <v>78.4499969482422</v>
       </c>
       <c r="G496" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -18352,7 +18355,7 @@
         <v>79.5500030517578</v>
       </c>
       <c r="G497" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -18378,7 +18381,7 @@
         <v>80.5500030517578</v>
       </c>
       <c r="G498" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -18404,7 +18407,7 @@
         <v>80.3499984741211</v>
       </c>
       <c r="G499" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -18430,7 +18433,7 @@
         <v>78.5500030517578</v>
       </c>
       <c r="G500" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -18456,7 +18459,7 @@
         <v>77.3499984741211</v>
       </c>
       <c r="G501" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -18482,7 +18485,7 @@
         <v>76.4000015258789</v>
       </c>
       <c r="G502" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -18508,7 +18511,7 @@
         <v>75.8000030517578</v>
       </c>
       <c r="G503" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -18534,7 +18537,7 @@
         <v>75.4000015258789</v>
       </c>
       <c r="G504" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -18560,7 +18563,7 @@
         <v>75.0500030517578</v>
       </c>
       <c r="G505" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -18586,7 +18589,7 @@
         <v>75.6999969482422</v>
       </c>
       <c r="G506" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -18612,7 +18615,7 @@
         <v>74.5999984741211</v>
       </c>
       <c r="G507" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -18638,7 +18641,7 @@
         <v>74.4499969482422</v>
       </c>
       <c r="G508" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -18664,7 +18667,7 @@
         <v>74.6500015258789</v>
       </c>
       <c r="G509" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -18690,7 +18693,7 @@
         <v>74.5999984741211</v>
       </c>
       <c r="G510" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -18716,7 +18719,7 @@
         <v>74</v>
       </c>
       <c r="G511" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -18742,7 +18745,7 @@
         <v>74.5</v>
       </c>
       <c r="G512" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -18768,7 +18771,7 @@
         <v>74.8499984741211</v>
       </c>
       <c r="G513" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -18794,7 +18797,7 @@
         <v>75.8499984741211</v>
       </c>
       <c r="G514" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -18820,7 +18823,7 @@
         <v>76.8000030517578</v>
       </c>
       <c r="G515" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -18846,7 +18849,7 @@
         <v>80.0500030517578</v>
       </c>
       <c r="G516" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -18872,7 +18875,7 @@
         <v>79.4499969482422</v>
       </c>
       <c r="G517" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -18898,7 +18901,7 @@
         <v>79.25</v>
       </c>
       <c r="G518" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -18924,7 +18927,7 @@
         <v>79.5999984741211</v>
       </c>
       <c r="G519" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -18950,7 +18953,7 @@
         <v>79.6999969482422</v>
       </c>
       <c r="G520" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -18976,7 +18979,7 @@
         <v>79.6500015258789</v>
       </c>
       <c r="G521" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -19002,7 +19005,7 @@
         <v>79.3499984741211</v>
       </c>
       <c r="G522" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -19028,7 +19031,7 @@
         <v>79.6500015258789</v>
       </c>
       <c r="G523" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -19054,7 +19057,7 @@
         <v>80.0500030517578</v>
       </c>
       <c r="G524" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -19080,7 +19083,7 @@
         <v>79.1500015258789</v>
       </c>
       <c r="G525" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -19106,7 +19109,7 @@
         <v>79.0999984741211</v>
       </c>
       <c r="G526" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -19132,7 +19135,7 @@
         <v>79.0500030517578</v>
       </c>
       <c r="G527" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -19158,7 +19161,7 @@
         <v>79</v>
       </c>
       <c r="G528" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -19184,7 +19187,7 @@
         <v>78.4000015258789</v>
       </c>
       <c r="G529" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -19210,7 +19213,7 @@
         <v>79.3000030517578</v>
       </c>
       <c r="G530" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -19236,7 +19239,7 @@
         <v>78.8499984741211</v>
       </c>
       <c r="G531" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -19262,7 +19265,7 @@
         <v>77.25</v>
       </c>
       <c r="G532" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -19288,7 +19291,7 @@
         <v>77.9499969482422</v>
       </c>
       <c r="G533" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -19314,7 +19317,7 @@
         <v>79.4000015258789</v>
       </c>
       <c r="G534" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -19340,7 +19343,7 @@
         <v>76.5500030517578</v>
       </c>
       <c r="G535" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -19366,7 +19369,7 @@
         <v>75.3499984741211</v>
       </c>
       <c r="G536" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -19392,7 +19395,7 @@
         <v>73.4499969482422</v>
       </c>
       <c r="G537" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -19418,7 +19421,7 @@
         <v>75.6999969482422</v>
       </c>
       <c r="G538" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -19444,7 +19447,7 @@
         <v>74.0999984741211</v>
       </c>
       <c r="G539" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -19470,7 +19473,7 @@
         <v>69.5500030517578</v>
       </c>
       <c r="G540" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -19496,7 +19499,7 @@
         <v>71.1999969482422</v>
       </c>
       <c r="G541" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -19522,7 +19525,7 @@
         <v>71</v>
       </c>
       <c r="G542" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -19548,7 +19551,7 @@
         <v>70</v>
       </c>
       <c r="G543" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -19574,7 +19577,7 @@
         <v>70.4000015258789</v>
       </c>
       <c r="G544" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -19600,7 +19603,7 @@
         <v>71.3000030517578</v>
       </c>
       <c r="G545" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -19626,7 +19629,7 @@
         <v>69.9000015258789</v>
       </c>
       <c r="G546" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -19652,7 +19655,7 @@
         <v>69.5500030517578</v>
       </c>
       <c r="G547" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -19678,7 +19681,7 @@
         <v>69.8000030517578</v>
       </c>
       <c r="G548" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -19704,7 +19707,7 @@
         <v>69.6500015258789</v>
       </c>
       <c r="G549" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -19730,7 +19733,7 @@
         <v>69.75</v>
       </c>
       <c r="G550" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -19756,7 +19759,7 @@
         <v>69.4499969482422</v>
       </c>
       <c r="G551" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -19782,7 +19785,7 @@
         <v>68.5</v>
       </c>
       <c r="G552" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -19808,7 +19811,7 @@
         <v>67.4499969482422</v>
       </c>
       <c r="G553" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -19834,7 +19837,7 @@
         <v>66.4000015258789</v>
       </c>
       <c r="G554" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -19860,7 +19863,7 @@
         <v>66.0999984741211</v>
       </c>
       <c r="G555" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -19886,7 +19889,7 @@
         <v>67.3499984741211</v>
       </c>
       <c r="G556" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -19912,7 +19915,7 @@
         <v>68.4000015258789</v>
       </c>
       <c r="G557" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -19938,7 +19941,7 @@
         <v>70.5999984741211</v>
       </c>
       <c r="G558" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -19964,7 +19967,7 @@
         <v>73.5500030517578</v>
       </c>
       <c r="G559" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -19990,7 +19993,7 @@
         <v>74.75</v>
       </c>
       <c r="G560" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -20016,7 +20019,7 @@
         <v>73.8499984741211</v>
       </c>
       <c r="G561" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -20042,7 +20045,7 @@
         <v>74</v>
       </c>
       <c r="G562" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -20068,7 +20071,7 @@
         <v>72.9000015258789</v>
       </c>
       <c r="G563" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -20094,7 +20097,7 @@
         <v>73.0500030517578</v>
       </c>
       <c r="G564" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -20120,7 +20123,7 @@
         <v>72.1999969482422</v>
       </c>
       <c r="G565" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -20146,7 +20149,7 @@
         <v>71.8000030517578</v>
       </c>
       <c r="G566" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -20172,7 +20175,7 @@
         <v>72.0500030517578</v>
       </c>
       <c r="G567" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -20198,7 +20201,7 @@
         <v>72.5</v>
       </c>
       <c r="G568" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -20224,7 +20227,7 @@
         <v>72.6500015258789</v>
       </c>
       <c r="G569" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -20250,7 +20253,7 @@
         <v>71.6500015258789</v>
       </c>
       <c r="G570" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -20276,7 +20279,7 @@
         <v>70.3499984741211</v>
       </c>
       <c r="G571" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -20302,7 +20305,7 @@
         <v>72.6500015258789</v>
       </c>
       <c r="G572" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -20328,7 +20331,7 @@
         <v>72.9000015258789</v>
       </c>
       <c r="G573" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -20354,7 +20357,7 @@
         <v>73.0999984741211</v>
       </c>
       <c r="G574" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -20380,7 +20383,7 @@
         <v>72.5</v>
       </c>
       <c r="G575" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -20406,7 +20409,7 @@
         <v>71.75</v>
       </c>
       <c r="G576" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -20432,7 +20435,7 @@
         <v>72.25</v>
       </c>
       <c r="G577" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -20458,7 +20461,7 @@
         <v>73.8499984741211</v>
       </c>
       <c r="G578" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -20484,7 +20487,7 @@
         <v>73.0500030517578</v>
       </c>
       <c r="G579" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -20510,7 +20513,7 @@
         <v>73</v>
       </c>
       <c r="G580" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -20536,7 +20539,7 @@
         <v>72.0500030517578</v>
       </c>
       <c r="G581" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -20562,7 +20565,7 @@
         <v>73.5</v>
       </c>
       <c r="G582" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -20588,7 +20591,7 @@
         <v>73.5</v>
       </c>
       <c r="G583" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -20614,7 +20617,7 @@
         <v>75.3499984741211</v>
       </c>
       <c r="G584" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -20640,7 +20643,7 @@
         <v>75.5500030517578</v>
       </c>
       <c r="G585" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -20666,7 +20669,7 @@
         <v>77.5999984741211</v>
       </c>
       <c r="G586" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -20692,7 +20695,7 @@
         <v>74.75</v>
       </c>
       <c r="G587" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -20718,7 +20721,7 @@
         <v>74.5999984741211</v>
       </c>
       <c r="G588" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -20744,7 +20747,7 @@
         <v>76.1999969482422</v>
       </c>
       <c r="G589" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -20770,7 +20773,7 @@
         <v>78.4000015258789</v>
       </c>
       <c r="G590" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -20796,7 +20799,7 @@
         <v>77.3000030517578</v>
       </c>
       <c r="G591" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -20822,7 +20825,7 @@
         <v>78.1500015258789</v>
       </c>
       <c r="G592" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -20848,7 +20851,7 @@
         <v>78.4000015258789</v>
       </c>
       <c r="G593" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -20874,7 +20877,7 @@
         <v>78.3499984741211</v>
       </c>
       <c r="G594" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -20900,7 +20903,7 @@
         <v>78.6999969482422</v>
       </c>
       <c r="G595" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -20926,7 +20929,7 @@
         <v>78</v>
       </c>
       <c r="G596" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -20952,7 +20955,7 @@
         <v>78.6500015258789</v>
       </c>
       <c r="G597" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -20978,7 +20981,7 @@
         <v>79.1500015258789</v>
       </c>
       <c r="G598" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -21004,7 +21007,7 @@
         <v>78.3000030517578</v>
       </c>
       <c r="G599" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -21030,7 +21033,7 @@
         <v>80.4000015258789</v>
       </c>
       <c r="G600" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -21056,7 +21059,7 @@
         <v>81.5500030517578</v>
       </c>
       <c r="G601" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -21082,7 +21085,7 @@
         <v>80.1999969482422</v>
       </c>
       <c r="G602" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -21108,7 +21111,7 @@
         <v>81.3000030517578</v>
       </c>
       <c r="G603" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -21134,7 +21137,7 @@
         <v>81</v>
       </c>
       <c r="G604" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -21160,7 +21163,7 @@
         <v>81.1999969482422</v>
       </c>
       <c r="G605" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -21186,7 +21189,7 @@
         <v>82.6500015258789</v>
       </c>
       <c r="G606" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -21212,7 +21215,7 @@
         <v>81.4000015258789</v>
       </c>
       <c r="G607" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -21238,7 +21241,7 @@
         <v>81.25</v>
       </c>
       <c r="G608" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -21264,7 +21267,7 @@
         <v>81.9000015258789</v>
       </c>
       <c r="G609" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -21290,7 +21293,7 @@
         <v>80.6999969482422</v>
       </c>
       <c r="G610" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -21316,7 +21319,7 @@
         <v>82.0500030517578</v>
       </c>
       <c r="G611" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -21342,7 +21345,7 @@
         <v>84.1500015258789</v>
       </c>
       <c r="G612" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -21368,7 +21371,7 @@
         <v>83</v>
       </c>
       <c r="G613" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -21394,7 +21397,7 @@
         <v>81.1999969482422</v>
       </c>
       <c r="G614" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -21420,7 +21423,7 @@
         <v>84.5999984741211</v>
       </c>
       <c r="G615" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -21446,7 +21449,7 @@
         <v>82.5999984741211</v>
       </c>
       <c r="G616" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -21472,7 +21475,7 @@
         <v>85.5</v>
       </c>
       <c r="G617" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -21498,7 +21501,7 @@
         <v>87.5</v>
       </c>
       <c r="G618" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -21524,7 +21527,7 @@
         <v>88.25</v>
       </c>
       <c r="G619" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -21550,7 +21553,7 @@
         <v>88</v>
       </c>
       <c r="G620" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -21576,7 +21579,7 @@
         <v>88.4000015258789</v>
       </c>
       <c r="G621" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -21602,7 +21605,7 @@
         <v>87.9000015258789</v>
       </c>
       <c r="G622" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -21628,7 +21631,7 @@
         <v>88.9499969482422</v>
       </c>
       <c r="G623" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -21654,7 +21657,7 @@
         <v>91</v>
       </c>
       <c r="G624" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -21680,7 +21683,7 @@
         <v>92.4000015258789</v>
       </c>
       <c r="G625" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -21706,7 +21709,7 @@
         <v>93.3499984741211</v>
       </c>
       <c r="G626" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -21732,7 +21735,7 @@
         <v>93</v>
       </c>
       <c r="G627" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -21758,7 +21761,7 @@
         <v>92.3000030517578</v>
       </c>
       <c r="G628" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -21784,7 +21787,7 @@
         <v>90.9499969482422</v>
       </c>
       <c r="G629" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -21810,7 +21813,7 @@
         <v>89.5</v>
       </c>
       <c r="G630" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -21836,7 +21839,7 @@
         <v>89.1500015258789</v>
       </c>
       <c r="G631" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -21862,7 +21865,7 @@
         <v>96</v>
       </c>
       <c r="G632" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -21888,7 +21891,7 @@
         <v>95.0500030517578</v>
       </c>
       <c r="G633" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -21914,7 +21917,7 @@
         <v>95.6999969482422</v>
       </c>
       <c r="G634" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -21940,7 +21943,7 @@
         <v>97.3000030517578</v>
       </c>
       <c r="G635" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -21966,7 +21969,7 @@
         <v>96.3499984741211</v>
       </c>
       <c r="G636" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -21992,7 +21995,7 @@
         <v>97.6999969482422</v>
       </c>
       <c r="G637" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -22018,7 +22021,7 @@
         <v>96.3000030517578</v>
       </c>
       <c r="G638" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -22044,7 +22047,7 @@
         <v>97.5</v>
       </c>
       <c r="G639" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -22070,7 +22073,7 @@
         <v>96.4000015258789</v>
       </c>
       <c r="G640" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -22096,7 +22099,7 @@
         <v>95.5500030517578</v>
       </c>
       <c r="G641" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -22122,7 +22125,7 @@
         <v>96</v>
       </c>
       <c r="G642" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -22148,7 +22151,7 @@
         <v>95.8000030517578</v>
       </c>
       <c r="G643" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -22174,7 +22177,7 @@
         <v>95.9000015258789</v>
       </c>
       <c r="G644" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -22200,7 +22203,7 @@
         <v>96.1500015258789</v>
       </c>
       <c r="G645" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -22226,7 +22229,7 @@
         <v>98.1999969482422</v>
       </c>
       <c r="G646" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -22252,7 +22255,7 @@
         <v>97.6500015258789</v>
       </c>
       <c r="G647" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -22278,7 +22281,7 @@
         <v>97.9000015258789</v>
       </c>
       <c r="G648" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -22304,7 +22307,7 @@
         <v>96.5</v>
       </c>
       <c r="G649" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -22330,7 +22333,7 @@
         <v>95.9499969482422</v>
       </c>
       <c r="G650" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -22356,7 +22359,7 @@
         <v>96.75</v>
       </c>
       <c r="G651" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -22382,7 +22385,7 @@
         <v>96.4000015258789</v>
       </c>
       <c r="G652" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -22408,7 +22411,7 @@
         <v>94.5</v>
       </c>
       <c r="G653" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -22434,7 +22437,7 @@
         <v>94</v>
       </c>
       <c r="G654" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -22460,7 +22463,7 @@
         <v>94.3499984741211</v>
       </c>
       <c r="G655" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -22486,7 +22489,7 @@
         <v>92.4499969482422</v>
       </c>
       <c r="G656" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -22512,7 +22515,7 @@
         <v>93</v>
       </c>
       <c r="G657" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -22538,7 +22541,7 @@
         <v>92.5</v>
       </c>
       <c r="G658" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -22564,7 +22567,7 @@
         <v>91.8000030517578</v>
       </c>
       <c r="G659" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -22590,7 +22593,7 @@
         <v>93</v>
       </c>
       <c r="G660" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -22616,7 +22619,7 @@
         <v>85.0500030517578</v>
       </c>
       <c r="G661" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -22642,7 +22645,7 @@
         <v>87.3499984741211</v>
       </c>
       <c r="G662" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -22668,7 +22671,7 @@
         <v>87.5</v>
       </c>
       <c r="G663" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -22694,7 +22697,7 @@
         <v>88.75</v>
       </c>
       <c r="G664" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -22720,7 +22723,7 @@
         <v>87.8499984741211</v>
       </c>
       <c r="G665" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -22746,7 +22749,7 @@
         <v>88.0999984741211</v>
       </c>
       <c r="G666" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -22772,7 +22775,7 @@
         <v>87.8499984741211</v>
       </c>
       <c r="G667" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -22798,7 +22801,7 @@
         <v>86.9000015258789</v>
       </c>
       <c r="G668" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -22824,7 +22827,7 @@
         <v>88.1500015258789</v>
       </c>
       <c r="G669" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -22850,7 +22853,7 @@
         <v>86.5500030517578</v>
       </c>
       <c r="G670" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -22876,7 +22879,7 @@
         <v>86.8499984741211</v>
       </c>
       <c r="G671" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -22902,7 +22905,7 @@
         <v>93.1999969482422</v>
       </c>
       <c r="G672" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -22928,7 +22931,7 @@
         <v>93.75</v>
       </c>
       <c r="G673" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -22954,7 +22957,7 @@
         <v>91.5</v>
       </c>
       <c r="G674" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -22980,7 +22983,7 @@
         <v>91.8499984741211</v>
       </c>
       <c r="G675" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -23006,7 +23009,7 @@
         <v>91.5999984741211</v>
       </c>
       <c r="G676" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -23032,7 +23035,7 @@
         <v>91.1500015258789</v>
       </c>
       <c r="G677" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -23058,7 +23061,7 @@
         <v>91.6999969482422</v>
       </c>
       <c r="G678" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -23084,7 +23087,7 @@
         <v>92.9000015258789</v>
       </c>
       <c r="G679" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -23110,7 +23113,7 @@
         <v>93.8000030517578</v>
       </c>
       <c r="G680" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -23136,7 +23139,7 @@
         <v>93.8000030517578</v>
       </c>
       <c r="G681" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -23162,7 +23165,7 @@
         <v>92.4499969482422</v>
       </c>
       <c r="G682" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -23188,7 +23191,7 @@
         <v>92.3499984741211</v>
       </c>
       <c r="G683" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -23214,7 +23217,7 @@
         <v>89.4000015258789</v>
       </c>
       <c r="G684" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -23240,7 +23243,7 @@
         <v>89.6999969482422</v>
       </c>
       <c r="G685" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -23266,7 +23269,7 @@
         <v>87.9000015258789</v>
       </c>
       <c r="G686" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -23292,7 +23295,7 @@
         <v>88.9499969482422</v>
       </c>
       <c r="G687" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -23318,7 +23321,7 @@
         <v>88.4000015258789</v>
       </c>
       <c r="G688" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -23344,7 +23347,7 @@
         <v>88.6999969482422</v>
       </c>
       <c r="G689" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -23370,7 +23373,7 @@
         <v>89.5</v>
       </c>
       <c r="G690" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -23396,7 +23399,7 @@
         <v>89</v>
       </c>
       <c r="G691" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -23422,7 +23425,7 @@
         <v>90.6999969482422</v>
       </c>
       <c r="G692" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -23448,7 +23451,7 @@
         <v>93.75</v>
       </c>
       <c r="G693" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -23474,7 +23477,7 @@
         <v>95.8499984741211</v>
       </c>
       <c r="G694" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -23500,7 +23503,7 @@
         <v>97.1999969482422</v>
       </c>
       <c r="G695" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -23526,7 +23529,7 @@
         <v>92.25</v>
       </c>
       <c r="G696" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -23552,7 +23555,7 @@
         <v>91.5</v>
       </c>
       <c r="G697" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -23578,7 +23581,7 @@
         <v>93.0999984741211</v>
       </c>
       <c r="G698" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -23604,7 +23607,7 @@
         <v>92.9499969482422</v>
       </c>
       <c r="G699" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -23630,7 +23633,7 @@
         <v>91</v>
       </c>
       <c r="G700" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -23656,7 +23659,7 @@
         <v>90.5999984741211</v>
       </c>
       <c r="G701" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -23682,7 +23685,7 @@
         <v>91.3000030517578</v>
       </c>
       <c r="G702" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -23708,7 +23711,7 @@
         <v>91</v>
       </c>
       <c r="G703" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -23734,7 +23737,7 @@
         <v>90.5999984741211</v>
       </c>
       <c r="G704" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -23760,7 +23763,7 @@
         <v>89.1999969482422</v>
       </c>
       <c r="G705" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -23786,7 +23789,7 @@
         <v>86.8000030517578</v>
       </c>
       <c r="G706" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -23812,7 +23815,7 @@
         <v>82.3000030517578</v>
       </c>
       <c r="G707" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -23838,7 +23841,7 @@
         <v>81.5</v>
       </c>
       <c r="G708" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -23864,7 +23867,7 @@
         <v>80.3000030517578</v>
       </c>
       <c r="G709" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -23890,7 +23893,7 @@
         <v>79.6999969482422</v>
       </c>
       <c r="G710" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -23916,7 +23919,7 @@
         <v>81.9499969482422</v>
       </c>
       <c r="G711" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -23942,7 +23945,7 @@
         <v>79.5</v>
       </c>
       <c r="G712" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -23968,7 +23971,7 @@
         <v>79.8499984741211</v>
       </c>
       <c r="G713" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -23994,7 +23997,7 @@
         <v>81.5999984741211</v>
       </c>
       <c r="G714" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -24020,7 +24023,7 @@
         <v>82</v>
       </c>
       <c r="G715" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -24046,7 +24049,7 @@
         <v>82.4000015258789</v>
       </c>
       <c r="G716" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -24072,7 +24075,7 @@
         <v>83.6999969482422</v>
       </c>
       <c r="G717" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -24098,7 +24101,7 @@
         <v>79.75</v>
       </c>
       <c r="G718" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -24124,7 +24127,7 @@
         <v>80.5500030517578</v>
       </c>
       <c r="G719" t="s">
-        <v>407</v>
+        <v>501</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -24280,7 +24283,7 @@
         <v>86.9000015258789</v>
       </c>
       <c r="G725" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -24306,7 +24309,7 @@
         <v>86.5500030517578</v>
       </c>
       <c r="G726" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -24358,7 +24361,7 @@
         <v>86.8499984741211</v>
       </c>
       <c r="G728" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -24384,7 +24387,7 @@
         <v>81.5999984741211</v>
       </c>
       <c r="G729" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -24488,7 +24491,7 @@
         <v>82.3000030517578</v>
       </c>
       <c r="G733" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -24514,7 +24517,7 @@
         <v>81.5999984741211</v>
       </c>
       <c r="G734" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -24566,7 +24569,7 @@
         <v>81.1999969482422</v>
       </c>
       <c r="G736" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -61208,7 +61211,7 @@
     </row>
     <row r="2146">
       <c r="A2146" s="1" t="n">
-        <v>45449.6495833333</v>
+        <v>45449.2916666667</v>
       </c>
       <c r="B2146" t="n">
         <v>66829</v>
@@ -61229,6 +61232,32 @@
         <v>1694</v>
       </c>
       <c r="H2146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" s="1" t="n">
+        <v>45450.6493402778</v>
+      </c>
+      <c r="B2147" t="n">
+        <v>90503</v>
+      </c>
+      <c r="C2147" t="n">
+        <v>101.949996948242</v>
+      </c>
+      <c r="D2147" t="n">
+        <v>100.25</v>
+      </c>
+      <c r="E2147" t="n">
+        <v>101.949996948242</v>
+      </c>
+      <c r="F2147" t="n">
+        <v>101.550003051758</v>
+      </c>
+      <c r="G2147" t="s">
+        <v>1695</v>
+      </c>
+      <c r="H2147" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DIA.MI.xlsx
+++ b/data/DIA.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="1700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="1701">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,10 +44,10 @@
     <t xml:space="preserve">DIA.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8513031005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5922508239746</t>
+    <t xml:space="preserve">43.8512992858887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5922470092773</t>
   </si>
   <si>
     <t xml:space="preserve">43.4761238098145</t>
@@ -56,37 +56,37 @@
     <t xml:space="preserve">43.3689270019531</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6900291442871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0116157531738</t>
+    <t xml:space="preserve">42.6900367736816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0116119384766</t>
   </si>
   <si>
     <t xml:space="preserve">42.2612571716309</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8146171569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5104179382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.7779273986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5630645751953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.3218688964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1253509521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.4563484191895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7694702148438</t>
+    <t xml:space="preserve">41.8146209716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5104217529297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.7779235839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5630569458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.3218727111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.125358581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.4563522338867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.769474029541</t>
   </si>
   <si>
     <t xml:space="preserve">41.7878150939941</t>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">41.8950080871582</t>
   </si>
   <si>
-    <t xml:space="preserve">43.3242607116699</t>
+    <t xml:space="preserve">43.3242683410645</t>
   </si>
   <si>
     <t xml:space="preserve">43.6190567016602</t>
@@ -110,73 +110,73 @@
     <t xml:space="preserve">42.4131126403809</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7610130310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9208602905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2414894104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5005302429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.0811653137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.0990333557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8935775756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6354827880859</t>
+    <t xml:space="preserve">41.7610206604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9208564758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2414779663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5005264282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.081169128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.0990371704102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8935737609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6354751586914</t>
   </si>
   <si>
     <t xml:space="preserve">40.9123954772949</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0106620788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9307441711426</t>
+    <t xml:space="preserve">41.0106582641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9307479858398</t>
   </si>
   <si>
     <t xml:space="preserve">43.0920104980469</t>
   </si>
   <si>
-    <t xml:space="preserve">42.4756507873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1366806030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.7619781494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.4493293762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.7798347473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.100944519043</t>
+    <t xml:space="preserve">42.4756393432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1366767883301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.7619705200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.4493255615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.7798385620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1009407043457</t>
   </si>
   <si>
     <t xml:space="preserve">42.3416519165039</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1902656555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2528038024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.306396484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2786483764648</t>
+    <t xml:space="preserve">43.1902732849121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.252799987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3064002990723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2786445617676</t>
   </si>
   <si>
     <t xml:space="preserve">40.867733001709</t>
@@ -185,19 +185,19 @@
     <t xml:space="preserve">40.5193557739258</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6895561218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0910530090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6712074279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1263084411621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6265525817871</t>
+    <t xml:space="preserve">41.6895523071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0910568237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6712112426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1263046264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6265487670898</t>
   </si>
   <si>
     <t xml:space="preserve">40.8052062988281</t>
@@ -206,121 +206,121 @@
     <t xml:space="preserve">40.3496284484863</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6444129943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9838600158691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.6641845703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.3341522216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.8701210021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.4507598876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.9594497680664</t>
+    <t xml:space="preserve">40.6444091796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9838638305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6641883850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.3341484069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.8701171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.4507637023926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.9594535827637</t>
   </si>
   <si>
     <t xml:space="preserve">46.2720985412598</t>
   </si>
   <si>
-    <t xml:space="preserve">47.4333686828613</t>
+    <t xml:space="preserve">47.4333724975586</t>
   </si>
   <si>
     <t xml:space="preserve">46.495418548584</t>
   </si>
   <si>
-    <t xml:space="preserve">46.0041236877441</t>
+    <t xml:space="preserve">46.0041160583496</t>
   </si>
   <si>
     <t xml:space="preserve">45.7807960510254</t>
   </si>
   <si>
-    <t xml:space="preserve">45.4681434631348</t>
+    <t xml:space="preserve">45.4681510925293</t>
   </si>
   <si>
     <t xml:space="preserve">45.5128135681152</t>
   </si>
   <si>
-    <t xml:space="preserve">45.9147911071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.3788223266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.289493560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.8254623413086</t>
+    <t xml:space="preserve">45.9147834777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.3788108825684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2894897460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.8254547119141</t>
   </si>
   <si>
     <t xml:space="preserve">45.5574760437012</t>
   </si>
   <si>
-    <t xml:space="preserve">45.4234771728516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.3614311218262</t>
+    <t xml:space="preserve">45.4234809875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.3614234924316</t>
   </si>
   <si>
     <t xml:space="preserve">46.2274360656738</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4060974121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8973960876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.7634048461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8527412414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.2100524902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.6740798950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.5847549438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.0285720825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.119026184082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.7120094299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.5260543823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7973937988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.7471084594727</t>
+    <t xml:space="preserve">46.4060935974121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8973999023438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.7634010314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8527336120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.2100486755371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.6740760803223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.5847511291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.0285835266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.1190299987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.7119979858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.526050567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.7973976135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.7471122741699</t>
   </si>
   <si>
     <t xml:space="preserve">49.204418182373</t>
   </si>
   <si>
-    <t xml:space="preserve">50.1993637084961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.2898063659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.8777313232422</t>
+    <t xml:space="preserve">50.1993598937988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.2898101806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.8777275085449</t>
   </si>
   <si>
     <t xml:space="preserve">49.7018928527832</t>
@@ -329,16 +329,16 @@
     <t xml:space="preserve">50.6063842773438</t>
   </si>
   <si>
-    <t xml:space="preserve">49.7923393249512</t>
+    <t xml:space="preserve">49.7923431396484</t>
   </si>
   <si>
     <t xml:space="preserve">50.335033416748</t>
   </si>
   <si>
-    <t xml:space="preserve">49.611442565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.1642532348633</t>
+    <t xml:space="preserve">49.6114387512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.164249420166</t>
   </si>
   <si>
     <t xml:space="preserve">48.3451499938965</t>
@@ -353,22 +353,22 @@
     <t xml:space="preserve">48.7069435119629</t>
   </si>
   <si>
-    <t xml:space="preserve">49.9732360839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.7622909545898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.5864486694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.6266174316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.5209884643555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.380256652832</t>
+    <t xml:space="preserve">49.9732398986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.7622947692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.5864448547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.6266098022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.5209922790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.3802604675293</t>
   </si>
   <si>
     <t xml:space="preserve">51.0586280822754</t>
@@ -377,43 +377,43 @@
     <t xml:space="preserve">48.7521705627441</t>
   </si>
   <si>
-    <t xml:space="preserve">49.5662155151367</t>
+    <t xml:space="preserve">49.566219329834</t>
   </si>
   <si>
     <t xml:space="preserve">50.4707069396973</t>
   </si>
   <si>
-    <t xml:space="preserve">49.656665802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.2395210266113</t>
+    <t xml:space="preserve">49.6566619873047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.2395248413086</t>
   </si>
   <si>
     <t xml:space="preserve">51.8726692199707</t>
   </si>
   <si>
-    <t xml:space="preserve">51.9179000854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.601318359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.5108757019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.2344665527344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.4605941772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.646541595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.4204254150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.9229507446289</t>
+    <t xml:space="preserve">51.917896270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.6013259887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.5108795166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.2344703674316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.4605865478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.6465492248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.4204216003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.9229545593262</t>
   </si>
   <si>
     <t xml:space="preserve">50.6968269348145</t>
@@ -431,37 +431,37 @@
     <t xml:space="preserve">54.2695770263672</t>
   </si>
   <si>
-    <t xml:space="preserve">53.772102355957</t>
+    <t xml:space="preserve">53.7721061706543</t>
   </si>
   <si>
     <t xml:space="preserve">54.8574981689453</t>
   </si>
   <si>
-    <t xml:space="preserve">55.0383949279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.0785636901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.8122749328613</t>
+    <t xml:space="preserve">55.038402557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.0785675048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.8122787475586</t>
   </si>
   <si>
     <t xml:space="preserve">52.7319374084473</t>
   </si>
   <si>
-    <t xml:space="preserve">52.3249168395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.3299789428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0535621643066</t>
+    <t xml:space="preserve">52.3249130249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.3299713134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0535736083984</t>
   </si>
   <si>
     <t xml:space="preserve">51.2847557067871</t>
   </si>
   <si>
-    <t xml:space="preserve">52.912841796875</t>
+    <t xml:space="preserve">52.9128379821777</t>
   </si>
   <si>
     <t xml:space="preserve">52.4153671264648</t>
@@ -470,52 +470,52 @@
     <t xml:space="preserve">52.0987930297852</t>
   </si>
   <si>
-    <t xml:space="preserve">52.0083427429199</t>
+    <t xml:space="preserve">52.0083503723145</t>
   </si>
   <si>
     <t xml:space="preserve">52.5510406494141</t>
   </si>
   <si>
-    <t xml:space="preserve">51.7369995117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.1038513183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.1089096069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.9280052185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.6414985656738</t>
+    <t xml:space="preserve">51.7369956970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.1038551330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.1089134216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.9280090332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.6414909362793</t>
   </si>
   <si>
     <t xml:space="preserve">53.1841850280762</t>
   </si>
   <si>
-    <t xml:space="preserve">53.3650856018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.1892433166504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.0032844543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.2746353149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.9580612182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.862548828125</t>
+    <t xml:space="preserve">53.3650817871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.1892395019531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.003288269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.2746391296387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.958065032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.8625526428223</t>
   </si>
   <si>
     <t xml:space="preserve">52.3701438903809</t>
   </si>
   <si>
-    <t xml:space="preserve">51.827449798584</t>
+    <t xml:space="preserve">51.8274421691895</t>
   </si>
   <si>
     <t xml:space="preserve">51.3752021789551</t>
@@ -530,22 +530,22 @@
     <t xml:space="preserve">50.6516075134277</t>
   </si>
   <si>
-    <t xml:space="preserve">49.3400955200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.2546997070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.4355964660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.903018951416</t>
+    <t xml:space="preserve">49.3400917053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.2547035217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.4355926513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.9030151367188</t>
   </si>
   <si>
     <t xml:space="preserve">46.3100395202637</t>
   </si>
   <si>
-    <t xml:space="preserve">46.1291427612305</t>
+    <t xml:space="preserve">46.1291389465332</t>
   </si>
   <si>
     <t xml:space="preserve">46.988410949707</t>
@@ -554,46 +554,43 @@
     <t xml:space="preserve">47.2597579956055</t>
   </si>
   <si>
-    <t xml:space="preserve">46.8527374267578</t>
-  </si>
-  <si>
     <t xml:space="preserve">46.3552627563477</t>
   </si>
   <si>
-    <t xml:space="preserve">46.7170639038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.1693115234375</t>
+    <t xml:space="preserve">46.7170600891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.1693077087402</t>
   </si>
   <si>
     <t xml:space="preserve">47.033634185791</t>
   </si>
   <si>
-    <t xml:space="preserve">46.5813941955566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.0386924743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.264820098877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.1240768432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8979530334473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.8476753234863</t>
+    <t xml:space="preserve">46.5813865661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.0386962890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.2648239135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.1240844726562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8979606628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.8476791381836</t>
   </si>
   <si>
     <t xml:space="preserve">48.073802947998</t>
   </si>
   <si>
-    <t xml:space="preserve">49.8375625610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.0134048461914</t>
+    <t xml:space="preserve">49.8375587463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.0134124755859</t>
   </si>
   <si>
     <t xml:space="preserve">52.8223876953125</t>
@@ -602,76 +599,76 @@
     <t xml:space="preserve">51.1490783691406</t>
   </si>
   <si>
-    <t xml:space="preserve">49.4757652282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.2445869445801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.465648651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.7822189331055</t>
+    <t xml:space="preserve">49.4757690429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.2445831298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.4656524658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.7822227478027</t>
   </si>
   <si>
     <t xml:space="preserve">52.8676147460938</t>
   </si>
   <si>
-    <t xml:space="preserve">53.1389617919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.0434532165527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.088680267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.1339073181152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.3600273132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.5912094116211</t>
+    <t xml:space="preserve">53.1389656066895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.04345703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.0886764526367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.133903503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.3600234985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.5912055969238</t>
   </si>
   <si>
     <t xml:space="preserve">53.9530067443848</t>
   </si>
   <si>
-    <t xml:space="preserve">54.5409240722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.4906463623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.3046875</t>
+    <t xml:space="preserve">54.5409278869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.4906387329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.3046913146973</t>
   </si>
   <si>
     <t xml:space="preserve">56.0333442687988</t>
   </si>
   <si>
-    <t xml:space="preserve">56.2142372131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9830551147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.8473854064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.349910736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.5257530212402</t>
+    <t xml:space="preserve">56.214241027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9830589294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.8473815917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.3499069213867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.525749206543</t>
   </si>
   <si>
     <t xml:space="preserve">57.2544021606445</t>
   </si>
   <si>
-    <t xml:space="preserve">57.7066535949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.7971038818359</t>
+    <t xml:space="preserve">57.7066497802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.7971000671387</t>
   </si>
   <si>
     <t xml:space="preserve">58.1589012145996</t>
@@ -683,13 +680,13 @@
     <t xml:space="preserve">58.7920417785645</t>
   </si>
   <si>
-    <t xml:space="preserve">59.6513137817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.786979675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.5156402587891</t>
+    <t xml:space="preserve">59.6513061523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.7869834899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.5156364440918</t>
   </si>
   <si>
     <t xml:space="preserve">58.8372688293457</t>
@@ -698,10 +695,10 @@
     <t xml:space="preserve">57.8875503540039</t>
   </si>
   <si>
-    <t xml:space="preserve">58.1136703491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.3347396850586</t>
+    <t xml:space="preserve">58.1136741638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.3347358703613</t>
   </si>
   <si>
     <t xml:space="preserve">60.781925201416</t>
@@ -713,175 +710,175 @@
     <t xml:space="preserve">60.0583343505859</t>
   </si>
   <si>
-    <t xml:space="preserve">61.0532836914062</t>
+    <t xml:space="preserve">61.0532684326172</t>
   </si>
   <si>
     <t xml:space="preserve">62.229118347168</t>
   </si>
   <si>
-    <t xml:space="preserve">64.2190017700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.9527130126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.4100189208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.6813659667969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.6310768127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.4954032897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.178840637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.5406341552734</t>
+    <t xml:space="preserve">64.218994140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.9526977539062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.4100112915039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.6813583374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.6310691833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.4954071044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.178825378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.5406265258789</t>
   </si>
   <si>
     <t xml:space="preserve">63.3145179748535</t>
   </si>
   <si>
-    <t xml:space="preserve">61.6411895751953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.9628219604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.7316398620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.4638175964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.7383880615234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.8756675720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.1044769287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.3332862854004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.2807807922363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.2484970092773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.5688247680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.2942733764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.3925247192383</t>
+    <t xml:space="preserve">61.6411933898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.962833404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.7316436767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.4638214111328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.7383918762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.8756637573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.1044731140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.3332786560059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.2807769775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.2485046386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.5688323974609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.2942657470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.3925323486328</t>
   </si>
   <si>
     <t xml:space="preserve">64.88916015625</t>
   </si>
   <si>
-    <t xml:space="preserve">65.6670837402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.353515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.9739418029785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.8366432189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.3467788696289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.7061080932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.2552490234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.1179580688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.9806900024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.5365447998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.8689308166504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.4045715332031</t>
+    <t xml:space="preserve">65.6670913696289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.3535079956055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.9739379882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.8366546630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.3467712402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.7061157226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.255241394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.1179733276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.9806823730469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.5365524291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.8689231872559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.4045791625977</t>
   </si>
   <si>
     <t xml:space="preserve">61.5486030578613</t>
   </si>
   <si>
-    <t xml:space="preserve">60.9537124633789</t>
+    <t xml:space="preserve">60.9537048339844</t>
   </si>
   <si>
     <t xml:space="preserve">61.5943603515625</t>
   </si>
   <si>
-    <t xml:space="preserve">61.3198013305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.4503402709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.4113159179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.2350158691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.1959991455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.0196838378906</t>
+    <t xml:space="preserve">61.3197937011719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.4503440856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.4113235473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.2350273132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.1960029602051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.0196914672852</t>
   </si>
   <si>
     <t xml:space="preserve">64.3857803344727</t>
   </si>
   <si>
-    <t xml:space="preserve">64.202751159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.9281768798828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.0857009887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.6348190307617</t>
+    <t xml:space="preserve">64.2027359008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.928165435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.085693359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.6348266601562</t>
   </si>
   <si>
     <t xml:space="preserve">66.8568878173828</t>
   </si>
   <si>
-    <t xml:space="preserve">67.3602447509766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.1772155761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.8111114501953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.7196044921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.4450225830078</t>
+    <t xml:space="preserve">67.3602523803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.1772079467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.8111190795898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.719596862793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.4450302124023</t>
   </si>
   <si>
     <t xml:space="preserve">65.8501358032227</t>
@@ -893,34 +890,34 @@
     <t xml:space="preserve">65.5755767822266</t>
   </si>
   <si>
-    <t xml:space="preserve">65.621337890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.4840469360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.3010025024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.7976303100586</t>
+    <t xml:space="preserve">65.6213302612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.4840545654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.3010101318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.7976379394531</t>
   </si>
   <si>
     <t xml:space="preserve">64.111213684082</t>
   </si>
   <si>
-    <t xml:space="preserve">66.2619781494141</t>
+    <t xml:space="preserve">66.2619934082031</t>
   </si>
   <si>
     <t xml:space="preserve">66.307746887207</t>
   </si>
   <si>
-    <t xml:space="preserve">67.1314392089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.451774597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.3144989013672</t>
+    <t xml:space="preserve">67.1314468383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.4517669677734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.3144912719727</t>
   </si>
   <si>
     <t xml:space="preserve">67.7263412475586</t>
@@ -929,16 +926,16 @@
     <t xml:space="preserve">66.9026412963867</t>
   </si>
   <si>
-    <t xml:space="preserve">67.2229614257812</t>
+    <t xml:space="preserve">67.2229690551758</t>
   </si>
   <si>
     <t xml:space="preserve">67.9551544189453</t>
   </si>
   <si>
-    <t xml:space="preserve">67.5432968139648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.2754745483398</t>
+    <t xml:space="preserve">67.5433044433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.2754669189453</t>
   </si>
   <si>
     <t xml:space="preserve">69.4195022583008</t>
@@ -947,19 +944,19 @@
     <t xml:space="preserve">69.0076522827148</t>
   </si>
   <si>
-    <t xml:space="preserve">68.7330856323242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.8246078491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.0534133911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.0143890380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.2041778564453</t>
+    <t xml:space="preserve">68.7330780029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.824592590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.0534057617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.014404296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.2041854858398</t>
   </si>
   <si>
     <t xml:space="preserve">71.2957077026367</t>
@@ -968,10 +965,10 @@
     <t xml:space="preserve">72.8973388671875</t>
   </si>
   <si>
-    <t xml:space="preserve">72.3024597167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.4397277832031</t>
+    <t xml:space="preserve">72.3024444580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.4397354125977</t>
   </si>
   <si>
     <t xml:space="preserve">71.7533187866211</t>
@@ -980,22 +977,22 @@
     <t xml:space="preserve">72.0736389160156</t>
   </si>
   <si>
-    <t xml:space="preserve">73.7210464477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.7990798950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.1584167480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.2499389648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.432991027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.6617965698242</t>
+    <t xml:space="preserve">73.7210388183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.7990646362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.1584243774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.2499465942383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.4329833984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.6617889404297</t>
   </si>
   <si>
     <t xml:space="preserve">71.7075500488281</t>
@@ -1007,7 +1004,7 @@
     <t xml:space="preserve">71.4787521362305</t>
   </si>
   <si>
-    <t xml:space="preserve">72.2566833496094</t>
+    <t xml:space="preserve">72.2566757202148</t>
   </si>
   <si>
     <t xml:space="preserve">71.3414611816406</t>
@@ -1028,46 +1025,46 @@
     <t xml:space="preserve">66.3992767333984</t>
   </si>
   <si>
-    <t xml:space="preserve">68.3212432861328</t>
+    <t xml:space="preserve">68.3212356567383</t>
   </si>
   <si>
     <t xml:space="preserve">68.6873245239258</t>
   </si>
   <si>
-    <t xml:space="preserve">70.1516723632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.9296188354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.6550445556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.8771209716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.1839447021484</t>
+    <t xml:space="preserve">70.1516799926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.9296035766602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.6550369262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.8771057128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.183952331543</t>
   </si>
   <si>
     <t xml:space="preserve">69.236457824707</t>
   </si>
   <si>
-    <t xml:space="preserve">69.9228744506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.0601577758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.8380966186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.06689453125</t>
+    <t xml:space="preserve">69.9228820800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.0601501464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.8380889892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.0669021606445</t>
   </si>
   <si>
     <t xml:space="preserve">72.8058166503906</t>
   </si>
   <si>
-    <t xml:space="preserve">73.5379867553711</t>
+    <t xml:space="preserve">73.5379943847656</t>
   </si>
   <si>
     <t xml:space="preserve">70.7923278808594</t>
@@ -1079,7 +1076,7 @@
     <t xml:space="preserve">69.2822113037109</t>
   </si>
   <si>
-    <t xml:space="preserve">68.1381912231445</t>
+    <t xml:space="preserve">68.13818359375</t>
   </si>
   <si>
     <t xml:space="preserve">68.504280090332</t>
@@ -1091,7 +1088,7 @@
     <t xml:space="preserve">73.2634353637695</t>
   </si>
   <si>
-    <t xml:space="preserve">72.7142868041992</t>
+    <t xml:space="preserve">72.7142944335938</t>
   </si>
   <si>
     <t xml:space="preserve">72.53125</t>
@@ -1100,37 +1097,37 @@
     <t xml:space="preserve">72.8515777587891</t>
   </si>
   <si>
-    <t xml:space="preserve">72.9430999755859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.6227798461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.3939819335938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.3482055664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.5770263671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.1651611328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.7008056640625</t>
+    <t xml:space="preserve">72.9430847167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.6227722167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.3939590454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.3482131958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.577018737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.165153503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.700813293457</t>
   </si>
   <si>
     <t xml:space="preserve">72.6685333251953</t>
   </si>
   <si>
-    <t xml:space="preserve">68.9618835449219</t>
+    <t xml:space="preserve">68.9618911743164</t>
   </si>
   <si>
     <t xml:space="preserve">67.8178634643555</t>
   </si>
   <si>
-    <t xml:space="preserve">63.6536102294922</t>
+    <t xml:space="preserve">63.653621673584</t>
   </si>
   <si>
     <t xml:space="preserve">65.1637191772461</t>
@@ -1139,37 +1136,37 @@
     <t xml:space="preserve">64.0654602050781</t>
   </si>
   <si>
-    <t xml:space="preserve">64.4315567016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.8824157714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.7451362609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.5620803833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.6926231384277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.7316436767578</t>
+    <t xml:space="preserve">64.4315490722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.8824234008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.7451438903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.5620956420898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.692626953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.7316360473633</t>
   </si>
   <si>
     <t xml:space="preserve">60.7706642150879</t>
   </si>
   <si>
-    <t xml:space="preserve">60.49609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.6401252746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.6011047363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.6145858764648</t>
+    <t xml:space="preserve">60.4960975646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.6401176452637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.6011123657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.6146011352539</t>
   </si>
   <si>
     <t xml:space="preserve">68.4127502441406</t>
@@ -1178,40 +1175,40 @@
     <t xml:space="preserve">67.5890502929688</t>
   </si>
   <si>
-    <t xml:space="preserve">66.0789413452148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.7128601074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.4907989501953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.1247100830078</t>
+    <t xml:space="preserve">66.0789489746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.7128524780273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.4907913208008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.1247024536133</t>
   </si>
   <si>
     <t xml:space="preserve">67.2687301635742</t>
   </si>
   <si>
-    <t xml:space="preserve">69.1449432373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.021125793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.7398300170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.74658203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.5245208740234</t>
+    <t xml:space="preserve">69.1449356079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.0211334228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.7398376464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.7465667724609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.5245056152344</t>
   </si>
   <si>
     <t xml:space="preserve">72.0278854370117</t>
   </si>
   <si>
-    <t xml:space="preserve">71.9821090698242</t>
+    <t xml:space="preserve">71.9821166992188</t>
   </si>
   <si>
     <t xml:space="preserve">73.5837554931641</t>
@@ -1223,37 +1220,37 @@
     <t xml:space="preserve">73.4007110595703</t>
   </si>
   <si>
-    <t xml:space="preserve">74.4074478149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.1328887939453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.3159332275391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.6429901123047</t>
+    <t xml:space="preserve">74.4074630737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.1328964233398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.3159255981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.6430053710938</t>
   </si>
   <si>
     <t xml:space="preserve">74.4989700317383</t>
   </si>
   <si>
-    <t xml:space="preserve">75.1463928222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.74755859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.6376953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.8863067626953</t>
+    <t xml:space="preserve">75.1464004516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.7475662231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.6377029418945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.8862991333008</t>
   </si>
   <si>
     <t xml:space="preserve">77.8285369873047</t>
   </si>
   <si>
-    <t xml:space="preserve">76.7649230957031</t>
+    <t xml:space="preserve">76.7649154663086</t>
   </si>
   <si>
     <t xml:space="preserve">75.1001434326172</t>
@@ -1265,28 +1262,28 @@
     <t xml:space="preserve">76.3949737548828</t>
   </si>
   <si>
-    <t xml:space="preserve">79.0771255493164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.926887512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.6205444335938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.3893280029297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.7592697143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.2968292236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.2679443359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.1639556884766</t>
+    <t xml:space="preserve">79.0771331787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.9268798828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.6205368041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.3893203735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.7592620849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.2968368530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.2679672241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.163948059082</t>
   </si>
   <si>
     <t xml:space="preserve">85.4587936401367</t>
@@ -1295,7 +1292,7 @@
     <t xml:space="preserve">86.3374176025391</t>
   </si>
   <si>
-    <t xml:space="preserve">86.0137176513672</t>
+    <t xml:space="preserve">86.0137100219727</t>
   </si>
   <si>
     <t xml:space="preserve">85.3663024902344</t>
@@ -1310,16 +1307,16 @@
     <t xml:space="preserve">82.4529342651367</t>
   </si>
   <si>
-    <t xml:space="preserve">88.7883529663086</t>
+    <t xml:space="preserve">88.7883453369141</t>
   </si>
   <si>
     <t xml:space="preserve">87.9097213745117</t>
   </si>
   <si>
-    <t xml:space="preserve">88.5108871459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.9907073974609</t>
+    <t xml:space="preserve">88.5108795166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.9906921386719</t>
   </si>
   <si>
     <t xml:space="preserve">89.112060546875</t>
@@ -1328,40 +1325,40 @@
     <t xml:space="preserve">90.3606414794922</t>
   </si>
   <si>
-    <t xml:space="preserve">89.0658111572266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.1756591796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.1583023071289</t>
+    <t xml:space="preserve">89.0658187866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.175666809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.1583099365234</t>
   </si>
   <si>
     <t xml:space="preserve">88.3721542358398</t>
   </si>
   <si>
-    <t xml:space="preserve">88.6033782958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.6958618164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.9270858764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.8230743408203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.3143920898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.5456161499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.2507858276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.7420959472656</t>
+    <t xml:space="preserve">88.603385925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.6958694458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.9270782470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.8230819702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.3144073486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.5456237792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.2507934570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.7421035766602</t>
   </si>
   <si>
     <t xml:space="preserve">89.4820098876953</t>
@@ -1370,28 +1367,28 @@
     <t xml:space="preserve">87.4010314941406</t>
   </si>
   <si>
-    <t xml:space="preserve">86.9385986328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.2622985839844</t>
+    <t xml:space="preserve">86.938591003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.2622909545898</t>
   </si>
   <si>
     <t xml:space="preserve">85.5050277709961</t>
   </si>
   <si>
-    <t xml:space="preserve">85.5512847900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.9038619995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.6609268188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.7881393432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.0829849243164</t>
+    <t xml:space="preserve">85.55126953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.9038696289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.6609344482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.7881546020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.0829772949219</t>
   </si>
   <si>
     <t xml:space="preserve">81.2505874633789</t>
@@ -1400,7 +1397,7 @@
     <t xml:space="preserve">81.481803894043</t>
   </si>
   <si>
-    <t xml:space="preserve">80.3719635009766</t>
+    <t xml:space="preserve">80.371955871582</t>
   </si>
   <si>
     <t xml:space="preserve">81.5280532836914</t>
@@ -1409,7 +1406,7 @@
     <t xml:space="preserve">80.0482482910156</t>
   </si>
   <si>
-    <t xml:space="preserve">80.3257064819336</t>
+    <t xml:space="preserve">80.3257141113281</t>
   </si>
   <si>
     <t xml:space="preserve">86.1986846923828</t>
@@ -1418,61 +1415,61 @@
     <t xml:space="preserve">86.7073669433594</t>
   </si>
   <si>
-    <t xml:space="preserve">84.6263885498047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.9501037597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.718879699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.3026962280273</t>
+    <t xml:space="preserve">84.6263961791992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.9501113891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.7188873291016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.3026885986328</t>
   </si>
   <si>
     <t xml:space="preserve">84.8113708496094</t>
   </si>
   <si>
-    <t xml:space="preserve">85.9212341308594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.7536163330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.4125442504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.6841506958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.9616088867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.036735534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.3141860961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.8864974975586</t>
+    <t xml:space="preserve">85.9212265014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.7536087036133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.4125366210938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.6841583251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.9616165161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.0367279052734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.3142013549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.8864822387695</t>
   </si>
   <si>
     <t xml:space="preserve">88.6496200561523</t>
   </si>
   <si>
-    <t xml:space="preserve">89.8982086181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.3200531005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.106201171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.9674682617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.7940139770508</t>
+    <t xml:space="preserve">89.8982009887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.3200607299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.1062088012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.9674606323242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.7940063476562</t>
   </si>
   <si>
     <t xml:space="preserve">84.4414291381836</t>
@@ -1481,46 +1478,49 @@
     <t xml:space="preserve">82.4991683959961</t>
   </si>
   <si>
-    <t xml:space="preserve">80.2794647216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.1175155639648</t>
+    <t xml:space="preserve">80.2794723510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.1175231933594</t>
   </si>
   <si>
     <t xml:space="preserve">75.3776092529297</t>
   </si>
   <si>
-    <t xml:space="preserve">74.2677536010742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.7128219604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.7938003540039</t>
+    <t xml:space="preserve">74.2677459716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.7128143310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.7937927246094</t>
   </si>
   <si>
     <t xml:space="preserve">73.5278625488281</t>
   </si>
   <si>
-    <t xml:space="preserve">73.8515701293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.470100402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.8400497436523</t>
+    <t xml:space="preserve">73.8515548706055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.4700927734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.8400421142578</t>
   </si>
   <si>
     <t xml:space="preserve">76.2099990844727</t>
   </si>
   <si>
-    <t xml:space="preserve">77.4123306274414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.7590789794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.7764282226562</t>
+    <t xml:space="preserve">77.412353515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.7590713500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.4989776611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.7764434814453</t>
   </si>
   <si>
     <t xml:space="preserve">73.2041473388672</t>
@@ -1529,13 +1529,13 @@
     <t xml:space="preserve">74.9151763916016</t>
   </si>
   <si>
-    <t xml:space="preserve">76.025032043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.5048370361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.9731292724609</t>
+    <t xml:space="preserve">76.0250244140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.5048294067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.9731216430664</t>
   </si>
   <si>
     <t xml:space="preserve">76.3024826049805</t>
@@ -1544,16 +1544,16 @@
     <t xml:space="preserve">77.0886306762695</t>
   </si>
   <si>
-    <t xml:space="preserve">73.9902877807617</t>
+    <t xml:space="preserve">73.9902801513672</t>
   </si>
   <si>
     <t xml:space="preserve">71.4468765258789</t>
   </si>
   <si>
-    <t xml:space="preserve">71.5856094360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.0018005371094</t>
+    <t xml:space="preserve">71.5856018066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.0018081665039</t>
   </si>
   <si>
     <t xml:space="preserve">72.8804397583008</t>
@@ -1562,58 +1562,58 @@
     <t xml:space="preserve">74.0365371704102</t>
   </si>
   <si>
-    <t xml:space="preserve">73.2503890991211</t>
+    <t xml:space="preserve">73.2503967285156</t>
   </si>
   <si>
     <t xml:space="preserve">71.95556640625</t>
   </si>
   <si>
-    <t xml:space="preserve">71.7705841064453</t>
+    <t xml:space="preserve">71.7705688476562</t>
   </si>
   <si>
     <t xml:space="preserve">69.458381652832</t>
   </si>
   <si>
-    <t xml:space="preserve">69.3658981323242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.7358551025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.2330169677734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.6548767089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.2560501098633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.7936019897461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.4698944091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.4410095214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.7011260986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.3600463867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.8339920043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.2501907348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.1114654541016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.6201400756836</t>
+    <t xml:space="preserve">69.3659133911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.7358474731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.233024597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.6548690795898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.2560424804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.7936096191406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.4698791503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.4410171508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.7011184692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.3600540161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.8339996337891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.2502059936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.1114730834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.6201324462891</t>
   </si>
   <si>
     <t xml:space="preserve">67.0074615478516</t>
@@ -1625,43 +1625,43 @@
     <t xml:space="preserve">67.0548706054688</t>
   </si>
   <si>
-    <t xml:space="preserve">67.5291061401367</t>
+    <t xml:space="preserve">67.5290985107422</t>
   </si>
   <si>
     <t xml:space="preserve">67.1497268676758</t>
   </si>
   <si>
-    <t xml:space="preserve">70.8960723876953</t>
+    <t xml:space="preserve">70.8960800170898</t>
   </si>
   <si>
     <t xml:space="preserve">70.3744201660156</t>
   </si>
   <si>
-    <t xml:space="preserve">70.0898895263672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.5166854858398</t>
+    <t xml:space="preserve">70.0898971557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.5166931152344</t>
   </si>
   <si>
     <t xml:space="preserve">71.6548233032227</t>
   </si>
   <si>
-    <t xml:space="preserve">71.0383377075195</t>
+    <t xml:space="preserve">71.0383453369141</t>
   </si>
   <si>
     <t xml:space="preserve">70.6589584350586</t>
   </si>
   <si>
-    <t xml:space="preserve">71.7971038818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.5042953491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.978515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.2073364257812</t>
+    <t xml:space="preserve">71.7970886230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.5042877197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.9785079956055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.2073516845703</t>
   </si>
   <si>
     <t xml:space="preserve">76.0650863647461</t>
@@ -1673,10 +1673,10 @@
     <t xml:space="preserve">75.5434341430664</t>
   </si>
   <si>
-    <t xml:space="preserve">76.0176696777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.2547607421875</t>
+    <t xml:space="preserve">76.0176620483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.254768371582</t>
   </si>
   <si>
     <t xml:space="preserve">75.6382827758789</t>
@@ -1700,13 +1700,13 @@
     <t xml:space="preserve">79.7165908813477</t>
   </si>
   <si>
-    <t xml:space="preserve">79.6217498779297</t>
+    <t xml:space="preserve">79.6217269897461</t>
   </si>
   <si>
     <t xml:space="preserve">80.7124481201172</t>
   </si>
   <si>
-    <t xml:space="preserve">80.2856597900391</t>
+    <t xml:space="preserve">80.2856521606445</t>
   </si>
   <si>
     <t xml:space="preserve">80.6176071166992</t>
@@ -1715,10 +1715,10 @@
     <t xml:space="preserve">80.2382278442383</t>
   </si>
   <si>
-    <t xml:space="preserve">80.4279174804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.8072891235352</t>
+    <t xml:space="preserve">80.4279251098633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.8072967529297</t>
   </si>
   <si>
     <t xml:space="preserve">81.0444030761719</t>
@@ -1730,28 +1730,28 @@
     <t xml:space="preserve">80.9021453857422</t>
   </si>
   <si>
-    <t xml:space="preserve">81.7083129882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.3289337158203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.8031616210938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.0835647583008</t>
+    <t xml:space="preserve">81.7083206176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.3289413452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.8031539916992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.0835571289062</t>
   </si>
   <si>
     <t xml:space="preserve">82.7516021728516</t>
   </si>
   <si>
-    <t xml:space="preserve">82.4196472167969</t>
+    <t xml:space="preserve">82.4196395874023</t>
   </si>
   <si>
     <t xml:space="preserve">82.3722229003906</t>
   </si>
   <si>
-    <t xml:space="preserve">82.2773666381836</t>
+    <t xml:space="preserve">82.2773818969727</t>
   </si>
   <si>
     <t xml:space="preserve">83.2732543945312</t>
@@ -1760,13 +1760,13 @@
     <t xml:space="preserve">82.1825332641602</t>
   </si>
   <si>
-    <t xml:space="preserve">81.3763732910156</t>
+    <t xml:space="preserve">81.3763656616211</t>
   </si>
   <si>
     <t xml:space="preserve">80.9969863891602</t>
   </si>
   <si>
-    <t xml:space="preserve">83.320671081543</t>
+    <t xml:space="preserve">83.3206634521484</t>
   </si>
   <si>
     <t xml:space="preserve">83.5577774047852</t>
@@ -1778,28 +1778,28 @@
     <t xml:space="preserve">84.3165283203125</t>
   </si>
   <si>
-    <t xml:space="preserve">83.9845809936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.7433319091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.0319900512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.1227035522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.0752868652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.8814697265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.8773193359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.9680328369141</t>
+    <t xml:space="preserve">83.9845733642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.7433242797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.0319976806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.1227188110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.0752792358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.881462097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.8773345947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.9680404663086</t>
   </si>
   <si>
     <t xml:space="preserve">87.256706237793</t>
@@ -1808,43 +1808,43 @@
     <t xml:space="preserve">86.9247512817383</t>
   </si>
   <si>
-    <t xml:space="preserve">86.7824783325195</t>
+    <t xml:space="preserve">86.7824859619141</t>
   </si>
   <si>
     <t xml:space="preserve">86.3082580566406</t>
   </si>
   <si>
-    <t xml:space="preserve">86.2134094238281</t>
+    <t xml:space="preserve">86.2134246826172</t>
   </si>
   <si>
     <t xml:space="preserve">86.7350540161133</t>
   </si>
   <si>
-    <t xml:space="preserve">83.130989074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.7598571777344</t>
+    <t xml:space="preserve">83.130973815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.7598724365234</t>
   </si>
   <si>
     <t xml:space="preserve">81.2815093994141</t>
   </si>
   <si>
-    <t xml:space="preserve">82.6093292236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.8938674926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.8856048583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.2649765014648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.3598175048828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.4030990600586</t>
+    <t xml:space="preserve">82.6093368530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.8938751220703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.8855895996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.2649688720703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.3598098754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.4031066894531</t>
   </si>
   <si>
     <t xml:space="preserve">89.2958602905273</t>
@@ -1856,28 +1856,28 @@
     <t xml:space="preserve">92.4257049560547</t>
   </si>
   <si>
-    <t xml:space="preserve">92.378288269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.8569488525391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.3304214477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93.3355865478516</t>
+    <t xml:space="preserve">92.3782958984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92.85693359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92.3304290771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93.335578918457</t>
   </si>
   <si>
     <t xml:space="preserve">92.7133407592773</t>
   </si>
   <si>
-    <t xml:space="preserve">91.9953842163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91.7560501098633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.3201217651367</t>
+    <t xml:space="preserve">91.9953765869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91.7560577392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.3201141357422</t>
   </si>
   <si>
     <t xml:space="preserve">89.4585647583008</t>
@@ -1886,19 +1886,19 @@
     <t xml:space="preserve">89.9372024536133</t>
   </si>
   <si>
-    <t xml:space="preserve">87.6397247314453</t>
+    <t xml:space="preserve">87.6397171020508</t>
   </si>
   <si>
     <t xml:space="preserve">91.2295532226562</t>
   </si>
   <si>
-    <t xml:space="preserve">92.5218811035156</t>
+    <t xml:space="preserve">92.5218887329102</t>
   </si>
   <si>
     <t xml:space="preserve">93.1441268920898</t>
   </si>
   <si>
-    <t xml:space="preserve">94.2928695678711</t>
+    <t xml:space="preserve">94.2928771972656</t>
   </si>
   <si>
     <t xml:space="preserve">96.7818145751953</t>
@@ -1907,37 +1907,37 @@
     <t xml:space="preserve">97.6433792114258</t>
   </si>
   <si>
-    <t xml:space="preserve">95.0108337402344</t>
+    <t xml:space="preserve">95.0108413696289</t>
   </si>
   <si>
     <t xml:space="preserve">98.3134765625</t>
   </si>
   <si>
-    <t xml:space="preserve">99.0793075561523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.610969543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102.621269226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.9408645629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.515243530273</t>
+    <t xml:space="preserve">99.0793151855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.610961914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102.621276855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.9408798217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.515235900879</t>
   </si>
   <si>
     <t xml:space="preserve">98.1220169067383</t>
   </si>
   <si>
-    <t xml:space="preserve">98.8878555297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.1647338867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.5476455688477</t>
+    <t xml:space="preserve">98.8878631591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.1647415161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.5476531982422</t>
   </si>
   <si>
     <t xml:space="preserve">97.7391052246094</t>
@@ -1946,25 +1946,25 @@
     <t xml:space="preserve">98.5049362182617</t>
   </si>
   <si>
-    <t xml:space="preserve">98.2177429199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.802429199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.5579528808594</t>
+    <t xml:space="preserve">98.2177505493164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.802436828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.5579605102539</t>
   </si>
   <si>
     <t xml:space="preserve">98.6006698608398</t>
   </si>
   <si>
-    <t xml:space="preserve">99.4622268676758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.4092102050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.792121887207</t>
+    <t xml:space="preserve">99.4622192382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.4092178344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.7921142578125</t>
   </si>
   <si>
     <t xml:space="preserve">97.4519271850586</t>
@@ -1973,7 +1973,7 @@
     <t xml:space="preserve">96.9732818603516</t>
   </si>
   <si>
-    <t xml:space="preserve">97.0690078735352</t>
+    <t xml:space="preserve">97.0690002441406</t>
   </si>
   <si>
     <t xml:space="preserve">96.6860885620117</t>
@@ -1982,16 +1982,16 @@
     <t xml:space="preserve">98.0262985229492</t>
   </si>
   <si>
-    <t xml:space="preserve">103.387100219727</t>
+    <t xml:space="preserve">103.387107849121</t>
   </si>
   <si>
     <t xml:space="preserve">101.759719848633</t>
   </si>
   <si>
-    <t xml:space="preserve">100.419509887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.099922180176</t>
+    <t xml:space="preserve">100.41951751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.099914550781</t>
   </si>
   <si>
     <t xml:space="preserve">101.951171875</t>
@@ -2003,16 +2003,16 @@
     <t xml:space="preserve">101.185340881348</t>
   </si>
   <si>
-    <t xml:space="preserve">99.6536865234375</t>
+    <t xml:space="preserve">99.653678894043</t>
   </si>
   <si>
     <t xml:space="preserve">101.472526550293</t>
   </si>
   <si>
-    <t xml:space="preserve">103.674293518066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.482833862305</t>
+    <t xml:space="preserve">103.674301147461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.482841491699</t>
   </si>
   <si>
     <t xml:space="preserve">105.110229492188</t>
@@ -2021,7 +2021,7 @@
     <t xml:space="preserve">104.344390869141</t>
   </si>
   <si>
-    <t xml:space="preserve">101.281074523926</t>
+    <t xml:space="preserve">101.28108215332</t>
   </si>
   <si>
     <t xml:space="preserve">102.429817199707</t>
@@ -2030,25 +2030,25 @@
     <t xml:space="preserve">103.004188537598</t>
   </si>
   <si>
-    <t xml:space="preserve">105.014503479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104.823043823242</t>
+    <t xml:space="preserve">105.014495849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104.823036193848</t>
   </si>
   <si>
     <t xml:space="preserve">104.248664855957</t>
   </si>
   <si>
-    <t xml:space="preserve">101.66397857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.8451385498047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.9305648803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.3665084838867</t>
+    <t xml:space="preserve">101.663986206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.8451461791992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.9305572509766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.3664932250977</t>
   </si>
   <si>
     <t xml:space="preserve">100.323783874512</t>
@@ -2057,28 +2057,28 @@
     <t xml:space="preserve">102.23836517334</t>
   </si>
   <si>
-    <t xml:space="preserve">101.568260192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.993881225586</t>
+    <t xml:space="preserve">101.568252563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.99388885498</t>
   </si>
   <si>
     <t xml:space="preserve">102.142631530762</t>
   </si>
   <si>
-    <t xml:space="preserve">100.898155212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.6330718994141</t>
+    <t xml:space="preserve">100.898162841797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.6330795288086</t>
   </si>
   <si>
     <t xml:space="preserve">95.9202651977539</t>
   </si>
   <si>
-    <t xml:space="preserve">95.058708190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.2980270385742</t>
+    <t xml:space="preserve">95.0587005615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.2980194091797</t>
   </si>
   <si>
     <t xml:space="preserve">95.4894866943359</t>
@@ -2090,7 +2090,7 @@
     <t xml:space="preserve">95.7288055419922</t>
   </si>
   <si>
-    <t xml:space="preserve">92.8090667724609</t>
+    <t xml:space="preserve">92.8090744018555</t>
   </si>
   <si>
     <t xml:space="preserve">93.5270385742188</t>
@@ -2102,34 +2102,34 @@
     <t xml:space="preserve">93.4791717529297</t>
   </si>
   <si>
-    <t xml:space="preserve">92.9048004150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93.1919937133789</t>
+    <t xml:space="preserve">92.9048080444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93.1919860839844</t>
   </si>
   <si>
     <t xml:space="preserve">94.3407363891602</t>
   </si>
   <si>
-    <t xml:space="preserve">96.5903549194336</t>
+    <t xml:space="preserve">96.5903625488281</t>
   </si>
   <si>
     <t xml:space="preserve">96.0159912109375</t>
   </si>
   <si>
-    <t xml:space="preserve">100.132316589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.1750411987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102.046897888184</t>
+    <t xml:space="preserve">100.132331848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.1750259399414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102.046890258789</t>
   </si>
   <si>
     <t xml:space="preserve">104.440124511719</t>
   </si>
   <si>
-    <t xml:space="preserve">105.971786499023</t>
+    <t xml:space="preserve">105.971778869629</t>
   </si>
   <si>
     <t xml:space="preserve">107.311988830566</t>
@@ -2138,16 +2138,16 @@
     <t xml:space="preserve">109.609474182129</t>
   </si>
   <si>
-    <t xml:space="preserve">109.035102844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.471038818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.013000488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.257484436035</t>
+    <t xml:space="preserve">109.035110473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.471046447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.013008117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.257476806641</t>
   </si>
   <si>
     <t xml:space="preserve">114.68310546875</t>
@@ -2156,7 +2156,7 @@
     <t xml:space="preserve">114.970283508301</t>
   </si>
   <si>
-    <t xml:space="preserve">116.119049072266</t>
+    <t xml:space="preserve">116.119041442871</t>
   </si>
   <si>
     <t xml:space="preserve">113.247169494629</t>
@@ -2165,7 +2165,7 @@
     <t xml:space="preserve">116.406219482422</t>
   </si>
   <si>
-    <t xml:space="preserve">117.459243774414</t>
+    <t xml:space="preserve">117.45923614502</t>
   </si>
   <si>
     <t xml:space="preserve">118.703720092773</t>
@@ -2180,22 +2180,22 @@
     <t xml:space="preserve">115.831848144531</t>
   </si>
   <si>
-    <t xml:space="preserve">114.874557495117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.04541015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.672798156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.002700805664</t>
+    <t xml:space="preserve">114.874565124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.045402526855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.672805786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.00269317627</t>
   </si>
   <si>
     <t xml:space="preserve">111.715507507324</t>
   </si>
   <si>
-    <t xml:space="preserve">112.577072143555</t>
+    <t xml:space="preserve">112.57706451416</t>
   </si>
   <si>
     <t xml:space="preserve">113.151443481445</t>
@@ -2213,10 +2213,10 @@
     <t xml:space="preserve">109.896667480469</t>
   </si>
   <si>
-    <t xml:space="preserve">113.342910766602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.72582244873</t>
+    <t xml:space="preserve">113.342903137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.725814819336</t>
   </si>
   <si>
     <t xml:space="preserve">114.395919799805</t>
@@ -2225,16 +2225,16 @@
     <t xml:space="preserve">112.289886474609</t>
   </si>
   <si>
-    <t xml:space="preserve">110.853950500488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.843643188477</t>
+    <t xml:space="preserve">110.853958129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.843650817871</t>
   </si>
   <si>
     <t xml:space="preserve">111.906967163086</t>
   </si>
   <si>
-    <t xml:space="preserve">109.418014526367</t>
+    <t xml:space="preserve">109.418029785156</t>
   </si>
   <si>
     <t xml:space="preserve">109.2265625</t>
@@ -2246,28 +2246,28 @@
     <t xml:space="preserve">107.790626525879</t>
   </si>
   <si>
-    <t xml:space="preserve">110.566757202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.662498474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.365005493164</t>
+    <t xml:space="preserve">110.566764831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.662490844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.36499786377</t>
   </si>
   <si>
     <t xml:space="preserve">106.258972167969</t>
   </si>
   <si>
-    <t xml:space="preserve">107.120536804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.130828857422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.800933837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.705200195312</t>
+    <t xml:space="preserve">107.120529174805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.130836486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.800926208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.705207824707</t>
   </si>
   <si>
     <t xml:space="preserve">111.619781494141</t>
@@ -2279,25 +2279,25 @@
     <t xml:space="preserve">115.927581787109</t>
   </si>
   <si>
-    <t xml:space="preserve">111.332595825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105.87606048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.036598205566</t>
+    <t xml:space="preserve">111.33260345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105.876052856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.036590576172</t>
   </si>
   <si>
     <t xml:space="preserve">108.173553466797</t>
   </si>
   <si>
-    <t xml:space="preserve">104.918769836426</t>
+    <t xml:space="preserve">104.91877746582</t>
   </si>
   <si>
     <t xml:space="preserve">103.195655822754</t>
   </si>
   <si>
-    <t xml:space="preserve">101.08960723877</t>
+    <t xml:space="preserve">101.089614868164</t>
   </si>
   <si>
     <t xml:space="preserve">109.513748168945</t>
@@ -2309,19 +2309,19 @@
     <t xml:space="preserve">111.811248779297</t>
   </si>
   <si>
-    <t xml:space="preserve">110.279571533203</t>
+    <t xml:space="preserve">110.279586791992</t>
   </si>
   <si>
     <t xml:space="preserve">107.886360168457</t>
   </si>
   <si>
-    <t xml:space="preserve">105.780334472656</t>
+    <t xml:space="preserve">105.780326843262</t>
   </si>
   <si>
     <t xml:space="preserve">103.865753173828</t>
   </si>
   <si>
-    <t xml:space="preserve">115.544662475586</t>
+    <t xml:space="preserve">115.544654846191</t>
   </si>
   <si>
     <t xml:space="preserve">113.055717468262</t>
@@ -2330,22 +2330,22 @@
     <t xml:space="preserve">119.565284729004</t>
   </si>
   <si>
-    <t xml:space="preserve">123.873054504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">127.702209472656</t>
+    <t xml:space="preserve">123.873062133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127.702201843262</t>
   </si>
   <si>
     <t xml:space="preserve">134.020324707031</t>
   </si>
   <si>
-    <t xml:space="preserve">143.401748657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">143.688949584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138.328109741211</t>
+    <t xml:space="preserve">143.401763916016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143.688934326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138.328125</t>
   </si>
   <si>
     <t xml:space="preserve">146.943710327148</t>
@@ -2357,46 +2357,46 @@
     <t xml:space="preserve">157.952529907227</t>
   </si>
   <si>
-    <t xml:space="preserve">152.304534912109</t>
+    <t xml:space="preserve">152.30451965332</t>
   </si>
   <si>
     <t xml:space="preserve">155.655029296875</t>
   </si>
   <si>
-    <t xml:space="preserve">159.771362304688</t>
+    <t xml:space="preserve">159.771377563477</t>
   </si>
   <si>
     <t xml:space="preserve">159.962829589844</t>
   </si>
   <si>
-    <t xml:space="preserve">155.272094726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148.666839599609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148.762542724609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148.379653930664</t>
+    <t xml:space="preserve">155.272109985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148.66682434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148.762557983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148.379638671875</t>
   </si>
   <si>
     <t xml:space="preserve">146.369338989258</t>
   </si>
   <si>
-    <t xml:space="preserve">148.188171386719</t>
+    <t xml:space="preserve">148.188186645508</t>
   </si>
   <si>
     <t xml:space="preserve">149.528396606445</t>
   </si>
   <si>
-    <t xml:space="preserve">155.559295654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153.644729614258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.132186889648</t>
+    <t xml:space="preserve">155.559310913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">153.644714355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.132171630859</t>
   </si>
   <si>
     <t xml:space="preserve">169.439971923828</t>
@@ -2408,31 +2408,31 @@
     <t xml:space="preserve">176.906829833984</t>
   </si>
   <si>
-    <t xml:space="preserve">171.546005249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">181.118881225586</t>
+    <t xml:space="preserve">171.546020507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181.118896484375</t>
   </si>
   <si>
     <t xml:space="preserve">182.746276855469</t>
   </si>
   <si>
-    <t xml:space="preserve">194.13801574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200.456115722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">188.585739135742</t>
+    <t xml:space="preserve">194.138000488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200.456100463867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">188.585754394531</t>
   </si>
   <si>
     <t xml:space="preserve">165.610824584961</t>
   </si>
   <si>
-    <t xml:space="preserve">174.034957885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180.448776245117</t>
+    <t xml:space="preserve">174.034973144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180.448806762695</t>
   </si>
   <si>
     <t xml:space="preserve">173.747772216797</t>
@@ -2450,13 +2450,13 @@
     <t xml:space="preserve">158.909820556641</t>
   </si>
   <si>
-    <t xml:space="preserve">152.783187866211</t>
+    <t xml:space="preserve">152.783157348633</t>
   </si>
   <si>
     <t xml:space="preserve">154.602020263672</t>
   </si>
   <si>
-    <t xml:space="preserve">156.995223999023</t>
+    <t xml:space="preserve">156.995239257812</t>
   </si>
   <si>
     <t xml:space="preserve">160.632934570312</t>
@@ -2465,34 +2465,34 @@
     <t xml:space="preserve">159.867111206055</t>
   </si>
   <si>
-    <t xml:space="preserve">163.573715209961</t>
+    <t xml:space="preserve">163.57373046875</t>
   </si>
   <si>
     <t xml:space="preserve">164.440231323242</t>
   </si>
   <si>
-    <t xml:space="preserve">163.958831787109</t>
+    <t xml:space="preserve">163.958847045898</t>
   </si>
   <si>
     <t xml:space="preserve">163.18864440918</t>
   </si>
   <si>
-    <t xml:space="preserve">161.16682434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.343948364258</t>
+    <t xml:space="preserve">161.166839599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.343963623047</t>
   </si>
   <si>
     <t xml:space="preserve">169.254043579102</t>
   </si>
   <si>
-    <t xml:space="preserve">166.558303833008</t>
+    <t xml:space="preserve">166.558319091797</t>
   </si>
   <si>
     <t xml:space="preserve">165.017883300781</t>
   </si>
   <si>
-    <t xml:space="preserve">163.381195068359</t>
+    <t xml:space="preserve">163.38117980957</t>
   </si>
   <si>
     <t xml:space="preserve">164.055130004883</t>
@@ -2501,25 +2501,25 @@
     <t xml:space="preserve">164.632781982422</t>
   </si>
   <si>
-    <t xml:space="preserve">164.921615600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.729049682617</t>
+    <t xml:space="preserve">164.921630859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.729064941406</t>
   </si>
   <si>
     <t xml:space="preserve">168.195007324219</t>
   </si>
   <si>
-    <t xml:space="preserve">171.853530883789</t>
+    <t xml:space="preserve">171.853515625</t>
   </si>
   <si>
     <t xml:space="preserve">172.527450561523</t>
   </si>
   <si>
-    <t xml:space="preserve">165.114166259766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166.462036132812</t>
+    <t xml:space="preserve">165.114181518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.462020874023</t>
   </si>
   <si>
     <t xml:space="preserve">167.232238769531</t>
@@ -2528,22 +2528,22 @@
     <t xml:space="preserve">166.750869750977</t>
   </si>
   <si>
-    <t xml:space="preserve">171.46842956543</t>
+    <t xml:space="preserve">171.468414306641</t>
   </si>
   <si>
     <t xml:space="preserve">171.564682006836</t>
   </si>
   <si>
-    <t xml:space="preserve">174.164169311523</t>
+    <t xml:space="preserve">174.164138793945</t>
   </si>
   <si>
     <t xml:space="preserve">171.66096496582</t>
   </si>
   <si>
-    <t xml:space="preserve">168.483856201172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">162.99609375</t>
+    <t xml:space="preserve">168.483840942383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162.996078491211</t>
   </si>
   <si>
     <t xml:space="preserve">156.641845703125</t>
@@ -2552,10 +2552,10 @@
     <t xml:space="preserve">164.247680664062</t>
   </si>
   <si>
-    <t xml:space="preserve">166.847152709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161.263107299805</t>
+    <t xml:space="preserve">166.847137451172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161.263092041016</t>
   </si>
   <si>
     <t xml:space="preserve">159.818969726562</t>
@@ -2573,7 +2573,7 @@
     <t xml:space="preserve">152.694519042969</t>
   </si>
   <si>
-    <t xml:space="preserve">147.110458374023</t>
+    <t xml:space="preserve">147.110473632812</t>
   </si>
   <si>
     <t xml:space="preserve">151.635452270508</t>
@@ -2582,25 +2582,25 @@
     <t xml:space="preserve">154.234924316406</t>
   </si>
   <si>
-    <t xml:space="preserve">153.561004638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150.287582397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156.73811340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153.175903320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156.160430908203</t>
+    <t xml:space="preserve">153.560989379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150.28759765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.738098144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">153.175888061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.160446166992</t>
   </si>
   <si>
     <t xml:space="preserve">156.834381103516</t>
   </si>
   <si>
-    <t xml:space="preserve">156.930648803711</t>
+    <t xml:space="preserve">156.9306640625</t>
   </si>
   <si>
     <t xml:space="preserve">157.412048339844</t>
@@ -2609,37 +2609,37 @@
     <t xml:space="preserve">157.797149658203</t>
   </si>
   <si>
-    <t xml:space="preserve">161.455657958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147.495574951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140.371109008789</t>
+    <t xml:space="preserve">161.455642700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147.495559692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140.371124267578</t>
   </si>
   <si>
     <t xml:space="preserve">145.858871459961</t>
   </si>
   <si>
-    <t xml:space="preserve">146.4365234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145.377502441406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137.290252685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136.520065307617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">139.119506835938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138.926971435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146.629089355469</t>
+    <t xml:space="preserve">146.436538696289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145.377487182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137.290267944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136.520050048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">139.119522094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138.926956176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146.62907409668</t>
   </si>
   <si>
     <t xml:space="preserve">145.088653564453</t>
@@ -2648,25 +2648,25 @@
     <t xml:space="preserve">148.939712524414</t>
   </si>
   <si>
-    <t xml:space="preserve">149.613632202148</t>
+    <t xml:space="preserve">149.613647460938</t>
   </si>
   <si>
     <t xml:space="preserve">151.154083251953</t>
   </si>
   <si>
-    <t xml:space="preserve">154.908843994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152.30940246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163.092346191406</t>
+    <t xml:space="preserve">154.90885925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152.309387207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163.092361450195</t>
   </si>
   <si>
     <t xml:space="preserve">162.707244873047</t>
   </si>
   <si>
-    <t xml:space="preserve">164.151412963867</t>
+    <t xml:space="preserve">164.151397705078</t>
   </si>
   <si>
     <t xml:space="preserve">163.862564086914</t>
@@ -2678,13 +2678,13 @@
     <t xml:space="preserve">170.216812133789</t>
   </si>
   <si>
-    <t xml:space="preserve">177.148727416992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">177.533813476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179.940734863281</t>
+    <t xml:space="preserve">177.148712158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">177.533828735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179.94075012207</t>
   </si>
   <si>
     <t xml:space="preserve">175.704574584961</t>
@@ -2693,73 +2693,73 @@
     <t xml:space="preserve">180.999786376953</t>
   </si>
   <si>
-    <t xml:space="preserve">183.021591186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180.51838684082</t>
+    <t xml:space="preserve">183.021621704102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180.518402099609</t>
   </si>
   <si>
     <t xml:space="preserve">184.176910400391</t>
   </si>
   <si>
-    <t xml:space="preserve">181.96257019043</t>
+    <t xml:space="preserve">181.962554931641</t>
   </si>
   <si>
     <t xml:space="preserve">187.354034423828</t>
   </si>
   <si>
-    <t xml:space="preserve">186.39128112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">183.984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">187.642868041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185.428497314453</t>
+    <t xml:space="preserve">186.391265869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">183.984359741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">187.642852783203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">185.428512573242</t>
   </si>
   <si>
     <t xml:space="preserve">183.888092041016</t>
   </si>
   <si>
-    <t xml:space="preserve">181.577453613281</t>
+    <t xml:space="preserve">181.57746887207</t>
   </si>
   <si>
     <t xml:space="preserve">180.32585144043</t>
   </si>
   <si>
-    <t xml:space="preserve">181.481155395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">178.785415649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180.13330078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">186.96891784668</t>
+    <t xml:space="preserve">181.481170654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">178.785430908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180.133285522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">186.968948364258</t>
   </si>
   <si>
     <t xml:space="preserve">192.264129638672</t>
   </si>
   <si>
-    <t xml:space="preserve">193.708267211914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161.744476318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.980651855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">167.328536987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">167.039688110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166.173202514648</t>
+    <t xml:space="preserve">193.708282470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161.744491577148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.980667114258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">167.328521728516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">167.039703369141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.173217773438</t>
   </si>
   <si>
     <t xml:space="preserve">158.952484130859</t>
@@ -2768,7 +2768,7 @@
     <t xml:space="preserve">162.899810791016</t>
   </si>
   <si>
-    <t xml:space="preserve">166.365783691406</t>
+    <t xml:space="preserve">166.365753173828</t>
   </si>
   <si>
     <t xml:space="preserve">170.024276733398</t>
@@ -2786,7 +2786,7 @@
     <t xml:space="preserve">164.825332641602</t>
   </si>
   <si>
-    <t xml:space="preserve">162.225860595703</t>
+    <t xml:space="preserve">162.225875854492</t>
   </si>
   <si>
     <t xml:space="preserve">161.359390258789</t>
@@ -2795,25 +2795,25 @@
     <t xml:space="preserve">160.492889404297</t>
   </si>
   <si>
-    <t xml:space="preserve">160.878021240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.306716918945</t>
+    <t xml:space="preserve">160.878005981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.306701660156</t>
   </si>
   <si>
     <t xml:space="preserve">161.070556640625</t>
   </si>
   <si>
-    <t xml:space="preserve">161.648208618164</t>
+    <t xml:space="preserve">161.648193359375</t>
   </si>
   <si>
     <t xml:space="preserve">163.766296386719</t>
   </si>
   <si>
-    <t xml:space="preserve">163.284927368164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.775344848633</t>
+    <t xml:space="preserve">163.284912109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.775360107422</t>
   </si>
   <si>
     <t xml:space="preserve">154.812576293945</t>
@@ -2822,7 +2822,7 @@
     <t xml:space="preserve">153.464706420898</t>
   </si>
   <si>
-    <t xml:space="preserve">157.604598999023</t>
+    <t xml:space="preserve">157.604583740234</t>
   </si>
   <si>
     <t xml:space="preserve">156.449279785156</t>
@@ -2837,7 +2837,7 @@
     <t xml:space="preserve">173.008850097656</t>
   </si>
   <si>
-    <t xml:space="preserve">172.142349243164</t>
+    <t xml:space="preserve">172.142364501953</t>
   </si>
   <si>
     <t xml:space="preserve">181.288619995117</t>
@@ -2846,16 +2846,16 @@
     <t xml:space="preserve">171.083312988281</t>
   </si>
   <si>
-    <t xml:space="preserve">173.87532043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">173.297668457031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.719985961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">169.927993774414</t>
+    <t xml:space="preserve">173.875335693359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173.297653198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.720001220703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">169.928009033203</t>
   </si>
   <si>
     <t xml:space="preserve">169.63916015625</t>
@@ -2864,22 +2864,22 @@
     <t xml:space="preserve">172.431182861328</t>
   </si>
   <si>
-    <t xml:space="preserve">176.08967590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175.415756225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">177.630111694336</t>
+    <t xml:space="preserve">176.089691162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">175.415725708008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">177.630126953125</t>
   </si>
   <si>
     <t xml:space="preserve">178.689147949219</t>
   </si>
   <si>
-    <t xml:space="preserve">178.400314331055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179.459365844727</t>
+    <t xml:space="preserve">178.400329589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179.459350585938</t>
   </si>
   <si>
     <t xml:space="preserve">176.667343139648</t>
@@ -2888,19 +2888,19 @@
     <t xml:space="preserve">158.182266235352</t>
   </si>
   <si>
-    <t xml:space="preserve">153.753524780273</t>
+    <t xml:space="preserve">153.753540039062</t>
   </si>
   <si>
     <t xml:space="preserve">157.989715576172</t>
   </si>
   <si>
-    <t xml:space="preserve">156.353012084961</t>
+    <t xml:space="preserve">156.352996826172</t>
   </si>
   <si>
     <t xml:space="preserve">157.893432617188</t>
   </si>
   <si>
-    <t xml:space="preserve">159.14501953125</t>
+    <t xml:space="preserve">159.145034790039</t>
   </si>
   <si>
     <t xml:space="preserve">155.967895507812</t>
@@ -2915,7 +2915,7 @@
     <t xml:space="preserve">149.035995483398</t>
   </si>
   <si>
-    <t xml:space="preserve">134.401992797852</t>
+    <t xml:space="preserve">134.401977539062</t>
   </si>
   <si>
     <t xml:space="preserve">136.808883666992</t>
@@ -2924,19 +2924,19 @@
     <t xml:space="preserve">140.467376708984</t>
   </si>
   <si>
-    <t xml:space="preserve">136.712615966797</t>
+    <t xml:space="preserve">136.712600708008</t>
   </si>
   <si>
     <t xml:space="preserve">134.883361816406</t>
   </si>
   <si>
-    <t xml:space="preserve">137.77165222168</t>
+    <t xml:space="preserve">137.771636962891</t>
   </si>
   <si>
     <t xml:space="preserve">134.979614257812</t>
   </si>
   <si>
-    <t xml:space="preserve">135.749847412109</t>
+    <t xml:space="preserve">135.74983215332</t>
   </si>
   <si>
     <t xml:space="preserve">134.787078857422</t>
@@ -2948,13 +2948,13 @@
     <t xml:space="preserve">133.824295043945</t>
   </si>
   <si>
-    <t xml:space="preserve">132.187622070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.572708129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131.70622253418</t>
+    <t xml:space="preserve">132.187606811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.572723388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131.706237792969</t>
   </si>
   <si>
     <t xml:space="preserve">134.54638671875</t>
@@ -2987,55 +2987,55 @@
     <t xml:space="preserve">146.869781494141</t>
   </si>
   <si>
-    <t xml:space="preserve">146.725357055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138.734436035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138.541839599609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135.027755737305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135.990524291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135.605438232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135.942398071289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.342926025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135.55729675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137.33837890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.102249145508</t>
+    <t xml:space="preserve">146.725341796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138.734420776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138.541854858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.027770996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.990539550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.605422973633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.9423828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.34294128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.557281494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137.338394165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.10221862793</t>
   </si>
   <si>
     <t xml:space="preserve">129.973251342773</t>
   </si>
   <si>
-    <t xml:space="preserve">133.150375366211</t>
+    <t xml:space="preserve">133.150390625</t>
   </si>
   <si>
     <t xml:space="preserve">132.861541748047</t>
   </si>
   <si>
-    <t xml:space="preserve">136.375625610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138.638137817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138.78254699707</t>
+    <t xml:space="preserve">136.375640869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138.638122558594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138.782531738281</t>
   </si>
   <si>
     <t xml:space="preserve">138.734069824219</t>
@@ -3047,16 +3047,16 @@
     <t xml:space="preserve">139.60661315918</t>
   </si>
   <si>
-    <t xml:space="preserve">139.558120727539</t>
+    <t xml:space="preserve">139.558135986328</t>
   </si>
   <si>
     <t xml:space="preserve">139.848983764648</t>
   </si>
   <si>
-    <t xml:space="preserve">140.236770629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137.716110229492</t>
+    <t xml:space="preserve">140.236785888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137.716125488281</t>
   </si>
   <si>
     <t xml:space="preserve">134.759155273438</t>
@@ -3071,19 +3071,19 @@
     <t xml:space="preserve">137.958480834961</t>
   </si>
   <si>
-    <t xml:space="preserve">139.267303466797</t>
+    <t xml:space="preserve">139.267288208008</t>
   </si>
   <si>
     <t xml:space="preserve">140.430694580078</t>
   </si>
   <si>
-    <t xml:space="preserve">140.963882446289</t>
+    <t xml:space="preserve">140.963897705078</t>
   </si>
   <si>
     <t xml:space="preserve">145.035766601562</t>
   </si>
   <si>
-    <t xml:space="preserve">146.150665283203</t>
+    <t xml:space="preserve">146.150680541992</t>
   </si>
   <si>
     <t xml:space="preserve">145.859817504883</t>
@@ -3092,7 +3092,7 @@
     <t xml:space="preserve">148.138137817383</t>
   </si>
   <si>
-    <t xml:space="preserve">147.653396606445</t>
+    <t xml:space="preserve">147.653381347656</t>
   </si>
   <si>
     <t xml:space="preserve">149.204559326172</t>
@@ -3107,7 +3107,7 @@
     <t xml:space="preserve">145.22966003418</t>
   </si>
   <si>
-    <t xml:space="preserve">149.883224487305</t>
+    <t xml:space="preserve">149.883209228516</t>
   </si>
   <si>
     <t xml:space="preserve">151.337448120117</t>
@@ -3119,7 +3119,7 @@
     <t xml:space="preserve">155.021499633789</t>
   </si>
   <si>
-    <t xml:space="preserve">154.633728027344</t>
+    <t xml:space="preserve">154.633712768555</t>
   </si>
   <si>
     <t xml:space="preserve">152.694732666016</t>
@@ -3128,10 +3128,10 @@
     <t xml:space="preserve">153.470336914062</t>
   </si>
   <si>
-    <t xml:space="preserve">151.822204589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.845581054688</t>
+    <t xml:space="preserve">151.822189331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.845565795898</t>
   </si>
   <si>
     <t xml:space="preserve">158.317779541016</t>
@@ -3149,25 +3149,25 @@
     <t xml:space="preserve">157.445236206055</t>
   </si>
   <si>
-    <t xml:space="preserve">157.008972167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.639129638672</t>
+    <t xml:space="preserve">157.00895690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.639144897461</t>
   </si>
   <si>
     <t xml:space="preserve">158.075408935547</t>
   </si>
   <si>
-    <t xml:space="preserve">160.935409545898</t>
+    <t xml:space="preserve">160.935394287109</t>
   </si>
   <si>
     <t xml:space="preserve">162.195739746094</t>
   </si>
   <si>
-    <t xml:space="preserve">164.280120849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.734375</t>
+    <t xml:space="preserve">164.280151367188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.734359741211</t>
   </si>
   <si>
     <t xml:space="preserve">167.091659545898</t>
@@ -3179,7 +3179,7 @@
     <t xml:space="preserve">162.971328735352</t>
   </si>
   <si>
-    <t xml:space="preserve">164.425582885742</t>
+    <t xml:space="preserve">164.425567626953</t>
   </si>
   <si>
     <t xml:space="preserve">167.188613891602</t>
@@ -3191,10 +3191,10 @@
     <t xml:space="preserve">171.06657409668</t>
   </si>
   <si>
-    <t xml:space="preserve">166.703872680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170.290985107422</t>
+    <t xml:space="preserve">166.703857421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170.290969848633</t>
   </si>
   <si>
     <t xml:space="preserve">171.018096923828</t>
@@ -3203,13 +3203,13 @@
     <t xml:space="preserve">168.158096313477</t>
   </si>
   <si>
-    <t xml:space="preserve">170.824188232422</t>
+    <t xml:space="preserve">170.824203491211</t>
   </si>
   <si>
     <t xml:space="preserve">170.484893798828</t>
   </si>
   <si>
-    <t xml:space="preserve">171.212005615234</t>
+    <t xml:space="preserve">171.212020874023</t>
   </si>
   <si>
     <t xml:space="preserve">173.344879150391</t>
@@ -3218,25 +3218,25 @@
     <t xml:space="preserve">172.423873901367</t>
   </si>
   <si>
-    <t xml:space="preserve">173.538787841797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">178.289260864258</t>
+    <t xml:space="preserve">173.538772583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">178.289276123047</t>
   </si>
   <si>
     <t xml:space="preserve">179.210296630859</t>
   </si>
   <si>
-    <t xml:space="preserve">179.404205322266</t>
+    <t xml:space="preserve">179.404190063477</t>
   </si>
   <si>
     <t xml:space="preserve">182.409606933594</t>
   </si>
   <si>
-    <t xml:space="preserve">181.827911376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180.325210571289</t>
+    <t xml:space="preserve">181.827926635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180.325225830078</t>
   </si>
   <si>
     <t xml:space="preserve">179.743515014648</t>
@@ -3248,22 +3248,22 @@
     <t xml:space="preserve">183.669952392578</t>
   </si>
   <si>
-    <t xml:space="preserve">185.075698852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">187.354019165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.443832397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">194.867553710938</t>
+    <t xml:space="preserve">185.075714111328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">187.35400390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.44384765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">194.867568969727</t>
   </si>
   <si>
     <t xml:space="preserve">195.740097045898</t>
   </si>
   <si>
-    <t xml:space="preserve">198.066879272461</t>
+    <t xml:space="preserve">198.06689453125</t>
   </si>
   <si>
     <t xml:space="preserve">194.09196472168</t>
@@ -3272,25 +3272,25 @@
     <t xml:space="preserve">199.424163818359</t>
   </si>
   <si>
-    <t xml:space="preserve">199.327224731445</t>
+    <t xml:space="preserve">199.327239990234</t>
   </si>
   <si>
     <t xml:space="preserve">199.908905029297</t>
   </si>
   <si>
-    <t xml:space="preserve">190.698760986328</t>
+    <t xml:space="preserve">190.698745727539</t>
   </si>
   <si>
     <t xml:space="preserve">195.643157958984</t>
   </si>
   <si>
-    <t xml:space="preserve">192.783157348633</t>
+    <t xml:space="preserve">192.783172607422</t>
   </si>
   <si>
     <t xml:space="preserve">194.479766845703</t>
   </si>
   <si>
-    <t xml:space="preserve">196.418762207031</t>
+    <t xml:space="preserve">196.418746948242</t>
   </si>
   <si>
     <t xml:space="preserve">198.35774230957</t>
@@ -3299,10 +3299,10 @@
     <t xml:space="preserve">197.000442504883</t>
   </si>
   <si>
-    <t xml:space="preserve">189.874710083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">182.845901489258</t>
+    <t xml:space="preserve">189.87467956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">182.845886230469</t>
   </si>
   <si>
     <t xml:space="preserve">177.222839355469</t>
@@ -3311,10 +3311,10 @@
     <t xml:space="preserve">176.301834106445</t>
   </si>
   <si>
-    <t xml:space="preserve">175.817092895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">169.806228637695</t>
+    <t xml:space="preserve">175.817077636719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">169.806243896484</t>
   </si>
   <si>
     <t xml:space="preserve">166.60693359375</t>
@@ -3329,13 +3329,13 @@
     <t xml:space="preserve">165.491989135742</t>
   </si>
   <si>
-    <t xml:space="preserve">166.84928894043</t>
+    <t xml:space="preserve">166.849304199219</t>
   </si>
   <si>
     <t xml:space="preserve">164.183197021484</t>
   </si>
   <si>
-    <t xml:space="preserve">168.642837524414</t>
+    <t xml:space="preserve">168.642852783203</t>
   </si>
   <si>
     <t xml:space="preserve">173.05403137207</t>
@@ -3344,13 +3344,13 @@
     <t xml:space="preserve">173.441818237305</t>
   </si>
   <si>
-    <t xml:space="preserve">174.605224609375</t>
+    <t xml:space="preserve">174.605209350586</t>
   </si>
   <si>
     <t xml:space="preserve">173.87809753418</t>
   </si>
   <si>
-    <t xml:space="preserve">175.962493896484</t>
+    <t xml:space="preserve">175.962509155273</t>
   </si>
   <si>
     <t xml:space="preserve">179.985870361328</t>
@@ -3362,28 +3362,28 @@
     <t xml:space="preserve">183.13671875</t>
   </si>
   <si>
-    <t xml:space="preserve">185.221145629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185.172668457031</t>
+    <t xml:space="preserve">185.221130371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">185.172653198242</t>
   </si>
   <si>
     <t xml:space="preserve">181.634033203125</t>
   </si>
   <si>
-    <t xml:space="preserve">189.486907958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">189.389953613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">191.135025024414</t>
+    <t xml:space="preserve">189.486892700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">189.389938354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191.135009765625</t>
   </si>
   <si>
     <t xml:space="preserve">191.619766235352</t>
   </si>
   <si>
-    <t xml:space="preserve">188.808242797852</t>
+    <t xml:space="preserve">188.808258056641</t>
   </si>
   <si>
     <t xml:space="preserve">187.160110473633</t>
@@ -3395,13 +3395,13 @@
     <t xml:space="preserve">178.483184814453</t>
   </si>
   <si>
-    <t xml:space="preserve">177.804534912109</t>
+    <t xml:space="preserve">177.80451965332</t>
   </si>
   <si>
     <t xml:space="preserve">179.355728149414</t>
   </si>
   <si>
-    <t xml:space="preserve">182.264175415039</t>
+    <t xml:space="preserve">182.264190673828</t>
   </si>
   <si>
     <t xml:space="preserve">183.185195922852</t>
@@ -3416,16 +3416,16 @@
     <t xml:space="preserve">178.870971679688</t>
   </si>
   <si>
-    <t xml:space="preserve">178.046905517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">173.829635620117</t>
+    <t xml:space="preserve">178.046890258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173.829620361328</t>
   </si>
   <si>
     <t xml:space="preserve">172.036056518555</t>
   </si>
   <si>
-    <t xml:space="preserve">181.585540771484</t>
+    <t xml:space="preserve">181.585556030273</t>
   </si>
   <si>
     <t xml:space="preserve">179.452667236328</t>
@@ -3434,31 +3434,31 @@
     <t xml:space="preserve">182.991302490234</t>
   </si>
   <si>
-    <t xml:space="preserve">177.319793701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.472320556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171.308929443359</t>
+    <t xml:space="preserve">177.319778442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.47233581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171.308944702148</t>
   </si>
   <si>
     <t xml:space="preserve">167.043197631836</t>
   </si>
   <si>
-    <t xml:space="preserve">169.612350463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.569274902344</t>
+    <t xml:space="preserve">169.612335205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.569290161133</t>
   </si>
   <si>
     <t xml:space="preserve">174.508270263672</t>
   </si>
   <si>
-    <t xml:space="preserve">175.138427734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170.921157836914</t>
+    <t xml:space="preserve">175.138442993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170.921142578125</t>
   </si>
   <si>
     <t xml:space="preserve">174.993026733398</t>
@@ -3467,7 +3467,7 @@
     <t xml:space="preserve">172.714706420898</t>
   </si>
   <si>
-    <t xml:space="preserve">154.003540039062</t>
+    <t xml:space="preserve">154.003555297852</t>
   </si>
   <si>
     <t xml:space="preserve">155.651672363281</t>
@@ -3479,7 +3479,7 @@
     <t xml:space="preserve">156.912033081055</t>
   </si>
   <si>
-    <t xml:space="preserve">156.718109130859</t>
+    <t xml:space="preserve">156.718124389648</t>
   </si>
   <si>
     <t xml:space="preserve">161.27473449707</t>
@@ -3494,28 +3494,28 @@
     <t xml:space="preserve">158.220825195312</t>
   </si>
   <si>
-    <t xml:space="preserve">154.100479125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.603210449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150.077102661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">143.581527709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145.617446899414</t>
+    <t xml:space="preserve">154.100494384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.60319519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150.077117919922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143.58154296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145.617462158203</t>
   </si>
   <si>
     <t xml:space="preserve">149.495422363281</t>
   </si>
   <si>
-    <t xml:space="preserve">143.193740844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141.642547607422</t>
+    <t xml:space="preserve">143.193725585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141.642562866211</t>
   </si>
   <si>
     <t xml:space="preserve">143.726943969727</t>
@@ -3527,40 +3527,40 @@
     <t xml:space="preserve">140.72151184082</t>
   </si>
   <si>
-    <t xml:space="preserve">142.515090942383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130.590362548828</t>
+    <t xml:space="preserve">142.515075683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.590347290039</t>
   </si>
   <si>
     <t xml:space="preserve">128.505950927734</t>
   </si>
   <si>
-    <t xml:space="preserve">130.63883972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130.978164672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.723236083984</t>
+    <t xml:space="preserve">130.638824462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.978134155273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.723220825195</t>
   </si>
   <si>
     <t xml:space="preserve">132.820175170898</t>
   </si>
   <si>
-    <t xml:space="preserve">133.69270324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129.330001831055</t>
+    <t xml:space="preserve">133.692718505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129.330017089844</t>
   </si>
   <si>
     <t xml:space="preserve">127.584938049316</t>
   </si>
   <si>
-    <t xml:space="preserve">122.05884552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120.943923950195</t>
+    <t xml:space="preserve">122.058837890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120.943916320801</t>
   </si>
   <si>
     <t xml:space="preserve">123.852394104004</t>
@@ -3578,10 +3578,10 @@
     <t xml:space="preserve">118.568672180176</t>
   </si>
   <si>
-    <t xml:space="preserve">118.035453796387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.065956115723</t>
+    <t xml:space="preserve">118.035461425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.065963745117</t>
   </si>
   <si>
     <t xml:space="preserve">113.721221923828</t>
@@ -3590,13 +3590,13 @@
     <t xml:space="preserve">113.866645812988</t>
   </si>
   <si>
-    <t xml:space="preserve">117.696128845215</t>
+    <t xml:space="preserve">117.696136474609</t>
   </si>
   <si>
     <t xml:space="preserve">121.671043395996</t>
   </si>
   <si>
-    <t xml:space="preserve">124.676467895508</t>
+    <t xml:space="preserve">124.676475524902</t>
   </si>
   <si>
     <t xml:space="preserve">124.434097290039</t>
@@ -3605,10 +3605,10 @@
     <t xml:space="preserve">129.572387695312</t>
   </si>
   <si>
-    <t xml:space="preserve">128.748336791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125.355102539062</t>
+    <t xml:space="preserve">128.748321533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.355110168457</t>
   </si>
   <si>
     <t xml:space="preserve">124.72492980957</t>
@@ -3617,25 +3617,25 @@
     <t xml:space="preserve">121.62255859375</t>
   </si>
   <si>
-    <t xml:space="preserve">123.803924560547</t>
+    <t xml:space="preserve">123.803916931152</t>
   </si>
   <si>
     <t xml:space="preserve">119.004943847656</t>
   </si>
   <si>
-    <t xml:space="preserve">122.349678039551</t>
+    <t xml:space="preserve">122.349685668945</t>
   </si>
   <si>
     <t xml:space="preserve">117.017486572266</t>
   </si>
   <si>
-    <t xml:space="preserve">119.101898193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.416130065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.401885986328</t>
+    <t xml:space="preserve">119.101890563965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.416122436523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.401870727539</t>
   </si>
   <si>
     <t xml:space="preserve">133.98356628418</t>
@@ -3647,13 +3647,13 @@
     <t xml:space="preserve">128.215087890625</t>
   </si>
   <si>
-    <t xml:space="preserve">126.857810974121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125.791374206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">127.051727294922</t>
+    <t xml:space="preserve">126.857818603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.791381835938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127.051719665527</t>
   </si>
   <si>
     <t xml:space="preserve">135.534759521484</t>
@@ -3665,25 +3665,25 @@
     <t xml:space="preserve">137.570678710938</t>
   </si>
   <si>
-    <t xml:space="preserve">141.109329223633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141.400161743164</t>
+    <t xml:space="preserve">141.109313964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141.400177001953</t>
   </si>
   <si>
     <t xml:space="preserve">143.920837402344</t>
   </si>
   <si>
-    <t xml:space="preserve">140.818481445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137.910003662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136.988983154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.322891235352</t>
+    <t xml:space="preserve">140.818466186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137.910018920898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136.988998413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.322906494141</t>
   </si>
   <si>
     <t xml:space="preserve">130.687301635742</t>
@@ -3692,7 +3692,7 @@
     <t xml:space="preserve">130.735778808594</t>
   </si>
   <si>
-    <t xml:space="preserve">130.202560424805</t>
+    <t xml:space="preserve">130.202545166016</t>
   </si>
   <si>
     <t xml:space="preserve">130.05712890625</t>
@@ -3710,7 +3710,7 @@
     <t xml:space="preserve">120.216804504395</t>
   </si>
   <si>
-    <t xml:space="preserve">116.726638793945</t>
+    <t xml:space="preserve">116.72664642334</t>
   </si>
   <si>
     <t xml:space="preserve">120.168327331543</t>
@@ -3731,7 +3731,7 @@
     <t xml:space="preserve">116.290367126465</t>
   </si>
   <si>
-    <t xml:space="preserve">116.969017028809</t>
+    <t xml:space="preserve">116.969009399414</t>
   </si>
   <si>
     <t xml:space="preserve">110.667327880859</t>
@@ -3740,10 +3740,10 @@
     <t xml:space="preserve">107.952751159668</t>
   </si>
   <si>
-    <t xml:space="preserve">111.055130004883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.534439086914</t>
+    <t xml:space="preserve">111.055122375488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.534446716309</t>
   </si>
   <si>
     <t xml:space="preserve">115.466300964355</t>
@@ -3755,7 +3755,7 @@
     <t xml:space="preserve">114.884605407715</t>
   </si>
   <si>
-    <t xml:space="preserve">111.976135253906</t>
+    <t xml:space="preserve">111.976142883301</t>
   </si>
   <si>
     <t xml:space="preserve">114.496810913086</t>
@@ -3773,7 +3773,7 @@
     <t xml:space="preserve">113.362937927246</t>
   </si>
   <si>
-    <t xml:space="preserve">114.830101013184</t>
+    <t xml:space="preserve">114.830108642578</t>
   </si>
   <si>
     <t xml:space="preserve">118.791442871094</t>
@@ -3782,19 +3782,19 @@
     <t xml:space="preserve">119.91626739502</t>
   </si>
   <si>
-    <t xml:space="preserve">119.818458557129</t>
+    <t xml:space="preserve">119.818466186523</t>
   </si>
   <si>
     <t xml:space="preserve">118.253486633301</t>
   </si>
   <si>
-    <t xml:space="preserve">121.334541320801</t>
+    <t xml:space="preserve">121.334533691406</t>
   </si>
   <si>
     <t xml:space="preserve">117.764434814453</t>
   </si>
   <si>
-    <t xml:space="preserve">119.769546508789</t>
+    <t xml:space="preserve">119.769554138184</t>
   </si>
   <si>
     <t xml:space="preserve">119.231597900391</t>
@@ -3806,7 +3806,7 @@
     <t xml:space="preserve">116.541793823242</t>
   </si>
   <si>
-    <t xml:space="preserve">113.216217041016</t>
+    <t xml:space="preserve">113.21622467041</t>
   </si>
   <si>
     <t xml:space="preserve">112.335914611816</t>
@@ -3818,7 +3818,7 @@
     <t xml:space="preserve">114.096519470215</t>
   </si>
   <si>
-    <t xml:space="preserve">111.30891418457</t>
+    <t xml:space="preserve">111.308906555176</t>
   </si>
   <si>
     <t xml:space="preserve">116.150550842285</t>
@@ -3833,22 +3833,22 @@
     <t xml:space="preserve">114.976821899414</t>
   </si>
   <si>
-    <t xml:space="preserve">121.725769042969</t>
+    <t xml:space="preserve">121.725776672363</t>
   </si>
   <si>
     <t xml:space="preserve">124.953536987305</t>
   </si>
   <si>
-    <t xml:space="preserve">124.366676330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124.171043395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.410453796387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.459350585938</t>
+    <t xml:space="preserve">124.366668701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.171051025391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.410461425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.459358215332</t>
   </si>
   <si>
     <t xml:space="preserve">123.584182739258</t>
@@ -3872,16 +3872,16 @@
     <t xml:space="preserve">133.218566894531</t>
   </si>
   <si>
-    <t xml:space="preserve">127.203201293945</t>
+    <t xml:space="preserve">127.203193664551</t>
   </si>
   <si>
     <t xml:space="preserve">129.599563598633</t>
   </si>
   <si>
-    <t xml:space="preserve">126.567405700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129.550643920898</t>
+    <t xml:space="preserve">126.567413330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129.550659179688</t>
   </si>
   <si>
     <t xml:space="preserve">129.306121826172</t>
@@ -3905,19 +3905,19 @@
     <t xml:space="preserve">130.430969238281</t>
   </si>
   <si>
-    <t xml:space="preserve">127.545516967773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131.898132324219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.631713867188</t>
+    <t xml:space="preserve">127.545532226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131.89811706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.631698608398</t>
   </si>
   <si>
     <t xml:space="preserve">132.533889770508</t>
   </si>
   <si>
-    <t xml:space="preserve">130.284225463867</t>
+    <t xml:space="preserve">130.284240722656</t>
   </si>
   <si>
     <t xml:space="preserve">131.800308227539</t>
@@ -3929,16 +3929,16 @@
     <t xml:space="preserve">133.903228759766</t>
   </si>
   <si>
-    <t xml:space="preserve">132.582809448242</t>
+    <t xml:space="preserve">132.582794189453</t>
   </si>
   <si>
     <t xml:space="preserve">133.609817504883</t>
   </si>
   <si>
-    <t xml:space="preserve">136.837554931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.587936401367</t>
+    <t xml:space="preserve">136.83757019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.587921142578</t>
   </si>
   <si>
     <t xml:space="preserve">133.463088989258</t>
@@ -3947,28 +3947,28 @@
     <t xml:space="preserve">132.484985351562</t>
   </si>
   <si>
-    <t xml:space="preserve">133.707611083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.169647216797</t>
+    <t xml:space="preserve">133.707626342773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.169662475586</t>
   </si>
   <si>
     <t xml:space="preserve">134.001052856445</t>
   </si>
   <si>
-    <t xml:space="preserve">128.132400512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129.501739501953</t>
+    <t xml:space="preserve">128.132385253906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129.501754760742</t>
   </si>
   <si>
     <t xml:space="preserve">128.083480834961</t>
   </si>
   <si>
-    <t xml:space="preserve">127.496635437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130.822204589844</t>
+    <t xml:space="preserve">127.496620178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.822189331055</t>
   </si>
   <si>
     <t xml:space="preserve">129.697387695312</t>
@@ -3983,16 +3983,16 @@
     <t xml:space="preserve">130.773284912109</t>
   </si>
   <si>
-    <t xml:space="preserve">131.653610229492</t>
+    <t xml:space="preserve">131.653594970703</t>
   </si>
   <si>
     <t xml:space="preserve">133.658706665039</t>
   </si>
   <si>
-    <t xml:space="preserve">126.714141845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125.051345825195</t>
+    <t xml:space="preserve">126.714134216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.05135345459</t>
   </si>
   <si>
     <t xml:space="preserve">122.94841003418</t>
@@ -4010,19 +4010,19 @@
     <t xml:space="preserve">113.900894165039</t>
   </si>
   <si>
-    <t xml:space="preserve">113.06950378418</t>
+    <t xml:space="preserve">113.069496154785</t>
   </si>
   <si>
     <t xml:space="preserve">112.23811340332</t>
   </si>
   <si>
-    <t xml:space="preserve">109.15705871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.28702545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.504524230957</t>
+    <t xml:space="preserve">109.157066345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.287017822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.504531860352</t>
   </si>
   <si>
     <t xml:space="preserve">115.270248413086</t>
@@ -4031,16 +4031,16 @@
     <t xml:space="preserve">112.727165222168</t>
   </si>
   <si>
-    <t xml:space="preserve">109.890640258789</t>
+    <t xml:space="preserve">109.890647888184</t>
   </si>
   <si>
     <t xml:space="preserve">110.526420593262</t>
   </si>
   <si>
-    <t xml:space="preserve">116.443984985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125.344779968262</t>
+    <t xml:space="preserve">116.443992614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.344772338867</t>
   </si>
   <si>
     <t xml:space="preserve">123.241844177246</t>
@@ -4049,7 +4049,7 @@
     <t xml:space="preserve">126.176177978516</t>
   </si>
   <si>
-    <t xml:space="preserve">127.252105712891</t>
+    <t xml:space="preserve">127.252098083496</t>
   </si>
   <si>
     <t xml:space="preserve">133.267471313477</t>
@@ -4064,16 +4064,16 @@
     <t xml:space="preserve">126.273994445801</t>
   </si>
   <si>
-    <t xml:space="preserve">129.403945922852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128.279098510742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.518516540527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.877624511719</t>
+    <t xml:space="preserve">129.403930664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128.279113769531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.518524169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.877616882324</t>
   </si>
   <si>
     <t xml:space="preserve">126.371795654297</t>
@@ -4082,7 +4082,7 @@
     <t xml:space="preserve">126.616317749023</t>
   </si>
   <si>
-    <t xml:space="preserve">130.235321044922</t>
+    <t xml:space="preserve">130.235336303711</t>
   </si>
   <si>
     <t xml:space="preserve">133.756530761719</t>
@@ -4091,7 +4091,7 @@
     <t xml:space="preserve">135.223693847656</t>
   </si>
   <si>
-    <t xml:space="preserve">132.436065673828</t>
+    <t xml:space="preserve">132.436080932617</t>
   </si>
   <si>
     <t xml:space="preserve">129.941909790039</t>
@@ -4103,7 +4103,7 @@
     <t xml:space="preserve">129.844085693359</t>
   </si>
   <si>
-    <t xml:space="preserve">128.670364379883</t>
+    <t xml:space="preserve">128.670349121094</t>
   </si>
   <si>
     <t xml:space="preserve">126.07836151123</t>
@@ -4112,25 +4112,25 @@
     <t xml:space="preserve">128.865982055664</t>
   </si>
   <si>
-    <t xml:space="preserve">130.968902587891</t>
+    <t xml:space="preserve">130.96891784668</t>
   </si>
   <si>
     <t xml:space="preserve">129.795181274414</t>
   </si>
   <si>
-    <t xml:space="preserve">126.860847473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131.16455078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.365295410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136.152893066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131.506866455078</t>
+    <t xml:space="preserve">126.860855102539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131.164535522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.365280151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136.152908325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131.506881713867</t>
   </si>
   <si>
     <t xml:space="preserve">126.665229797363</t>
@@ -4139,7 +4139,7 @@
     <t xml:space="preserve">121.823593139648</t>
   </si>
   <si>
-    <t xml:space="preserve">125.002449035645</t>
+    <t xml:space="preserve">125.00244140625</t>
   </si>
   <si>
     <t xml:space="preserve">123.339653015137</t>
@@ -4148,7 +4148,7 @@
     <t xml:space="preserve">125.100257873535</t>
   </si>
   <si>
-    <t xml:space="preserve">124.611206054688</t>
+    <t xml:space="preserve">124.611198425293</t>
   </si>
   <si>
     <t xml:space="preserve">124.219955444336</t>
@@ -4160,19 +4160,19 @@
     <t xml:space="preserve">126.469612121582</t>
   </si>
   <si>
-    <t xml:space="preserve">127.007583618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124.415573120117</t>
+    <t xml:space="preserve">127.00757598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.415580749512</t>
   </si>
   <si>
     <t xml:space="preserve">123.730903625488</t>
   </si>
   <si>
-    <t xml:space="preserve">124.806816101074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.437461853027</t>
+    <t xml:space="preserve">124.806823730469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.437469482422</t>
   </si>
   <si>
     <t xml:space="preserve">123.779815673828</t>
@@ -4190,7 +4190,7 @@
     <t xml:space="preserve">122.557174682617</t>
   </si>
   <si>
-    <t xml:space="preserve">122.01921081543</t>
+    <t xml:space="preserve">122.019203186035</t>
   </si>
   <si>
     <t xml:space="preserve">120.9921875</t>
@@ -4217,7 +4217,7 @@
     <t xml:space="preserve">119.280494689941</t>
   </si>
   <si>
-    <t xml:space="preserve">118.400207519531</t>
+    <t xml:space="preserve">118.400199890137</t>
   </si>
   <si>
     <t xml:space="preserve">115.710403442383</t>
@@ -4226,10 +4226,10 @@
     <t xml:space="preserve">113.851997375488</t>
   </si>
   <si>
-    <t xml:space="preserve">114.683387756348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.754188537598</t>
+    <t xml:space="preserve">114.683380126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.754180908203</t>
   </si>
   <si>
     <t xml:space="preserve">113.998710632324</t>
@@ -4241,7 +4241,7 @@
     <t xml:space="preserve">110.819854736328</t>
   </si>
   <si>
-    <t xml:space="preserve">112.482635498047</t>
+    <t xml:space="preserve">112.482643127441</t>
   </si>
   <si>
     <t xml:space="preserve">111.651245117188</t>
@@ -4250,16 +4250,16 @@
     <t xml:space="preserve">108.570198059082</t>
   </si>
   <si>
-    <t xml:space="preserve">107.543174743652</t>
+    <t xml:space="preserve">107.543182373047</t>
   </si>
   <si>
     <t xml:space="preserve">110.03736114502</t>
   </si>
   <si>
-    <t xml:space="preserve">110.232978820801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.499397277832</t>
+    <t xml:space="preserve">110.232986450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.499404907227</t>
   </si>
   <si>
     <t xml:space="preserve">109.10816192627</t>
@@ -4280,22 +4280,22 @@
     <t xml:space="preserve">105.000091552734</t>
   </si>
   <si>
-    <t xml:space="preserve">103.386207580566</t>
+    <t xml:space="preserve">103.386215209961</t>
   </si>
   <si>
     <t xml:space="preserve">98.9847183227539</t>
   </si>
   <si>
-    <t xml:space="preserve">100.20735168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.8380126953125</t>
+    <t xml:space="preserve">100.207359313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.838005065918</t>
   </si>
   <si>
     <t xml:space="preserve">96.3438262939453</t>
   </si>
   <si>
-    <t xml:space="preserve">99.8161239624023</t>
+    <t xml:space="preserve">99.8161163330078</t>
   </si>
   <si>
     <t xml:space="preserve">95.8547668457031</t>
@@ -4307,46 +4307,46 @@
     <t xml:space="preserve">95.8743286132812</t>
   </si>
   <si>
-    <t xml:space="preserve">96.2851333618164</t>
+    <t xml:space="preserve">96.2851409912109</t>
   </si>
   <si>
     <t xml:space="preserve">94.9353485107422</t>
   </si>
   <si>
-    <t xml:space="preserve">94.8766632080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.4393081665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.0089416503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.9306869506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.1896514892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94.7201538085938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.1700973510742</t>
+    <t xml:space="preserve">94.8766555786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.4393157958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.0089340209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.9306945800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.1896591186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94.7201614379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.1700897216797</t>
   </si>
   <si>
     <t xml:space="preserve">95.2483367919922</t>
   </si>
   <si>
-    <t xml:space="preserve">95.0331649780273</t>
+    <t xml:space="preserve">95.0331573486328</t>
   </si>
   <si>
     <t xml:space="preserve">96.7546310424805</t>
   </si>
   <si>
-    <t xml:space="preserve">97.1849975585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.3852767944336</t>
+    <t xml:space="preserve">97.1850051879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.3852691650391</t>
   </si>
   <si>
     <t xml:space="preserve">94.3484802246094</t>
@@ -4355,7 +4355,7 @@
     <t xml:space="preserve">96.3242645263672</t>
   </si>
   <si>
-    <t xml:space="preserve">95.5808944702148</t>
+    <t xml:space="preserve">95.5809020996094</t>
   </si>
   <si>
     <t xml:space="preserve">95.8156433105469</t>
@@ -4367,16 +4367,16 @@
     <t xml:space="preserve">102.16357421875</t>
   </si>
   <si>
-    <t xml:space="preserve">99.9628219604492</t>
+    <t xml:space="preserve">99.9628295898438</t>
   </si>
   <si>
     <t xml:space="preserve">102.457008361816</t>
   </si>
   <si>
-    <t xml:space="preserve">103.288398742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102.750450134277</t>
+    <t xml:space="preserve">103.28840637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102.750442504883</t>
   </si>
   <si>
     <t xml:space="preserve">99.3270645141602</t>
@@ -5112,6 +5112,9 @@
   </si>
   <si>
     <t xml:space="preserve">97.1600036621094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.379997253418</t>
   </si>
 </sst>
 </file>
@@ -11399,7 +11402,7 @@
         <v>51.7999992370605</v>
       </c>
       <c r="G229" t="s">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -11451,7 +11454,7 @@
         <v>51.25</v>
       </c>
       <c r="G231" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -11477,7 +11480,7 @@
         <v>51.6500015258789</v>
       </c>
       <c r="G232" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -11503,7 +11506,7 @@
         <v>52.1500015258789</v>
       </c>
       <c r="G233" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -11529,7 +11532,7 @@
         <v>52</v>
       </c>
       <c r="G234" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -11555,7 +11558,7 @@
         <v>51.5</v>
       </c>
       <c r="G235" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -11581,7 +11584,7 @@
         <v>50.9000015258789</v>
       </c>
       <c r="G236" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -11607,7 +11610,7 @@
         <v>51.25</v>
       </c>
       <c r="G237" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -11633,7 +11636,7 @@
         <v>51.1500015258789</v>
       </c>
       <c r="G238" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -11659,7 +11662,7 @@
         <v>51.25</v>
       </c>
       <c r="G239" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -11711,7 +11714,7 @@
         <v>52.0999984741211</v>
       </c>
       <c r="G241" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -11737,7 +11740,7 @@
         <v>52.0999984741211</v>
       </c>
       <c r="G242" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -11763,7 +11766,7 @@
         <v>52.1500015258789</v>
       </c>
       <c r="G243" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -11815,7 +11818,7 @@
         <v>51.7999992370605</v>
       </c>
       <c r="G245" t="s">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -11841,7 +11844,7 @@
         <v>51.8499984741211</v>
       </c>
       <c r="G246" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -11867,7 +11870,7 @@
         <v>52.9000015258789</v>
       </c>
       <c r="G247" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -11893,7 +11896,7 @@
         <v>53.1500015258789</v>
       </c>
       <c r="G248" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -11945,7 +11948,7 @@
         <v>55.0999984741211</v>
       </c>
       <c r="G250" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -12049,7 +12052,7 @@
         <v>56.4000015258789</v>
       </c>
       <c r="G254" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -12257,7 +12260,7 @@
         <v>58.4000015258789</v>
       </c>
       <c r="G262" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -12335,7 +12338,7 @@
         <v>56.5499992370605</v>
       </c>
       <c r="G265" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -12621,7 +12624,7 @@
         <v>54.7000007629395</v>
       </c>
       <c r="G276" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -12647,7 +12650,7 @@
         <v>55.5499992370605</v>
       </c>
       <c r="G277" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -12751,7 +12754,7 @@
         <v>58.4000015258789</v>
       </c>
       <c r="G281" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -12881,7 +12884,7 @@
         <v>56.5499992370605</v>
       </c>
       <c r="G286" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -13037,7 +13040,7 @@
         <v>56.9000015258789</v>
       </c>
       <c r="G292" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -13089,7 +13092,7 @@
         <v>57.25</v>
       </c>
       <c r="G294" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -13167,7 +13170,7 @@
         <v>58.4500007629395</v>
       </c>
       <c r="G297" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -13193,7 +13196,7 @@
         <v>58.75</v>
       </c>
       <c r="G298" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -13219,7 +13222,7 @@
         <v>59.75</v>
       </c>
       <c r="G299" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -13271,7 +13274,7 @@
         <v>59.7999992370605</v>
       </c>
       <c r="G301" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -13297,7 +13300,7 @@
         <v>59.7999992370605</v>
       </c>
       <c r="G302" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -13323,7 +13326,7 @@
         <v>59.8499984741211</v>
       </c>
       <c r="G303" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -13349,7 +13352,7 @@
         <v>60.0999984741211</v>
       </c>
       <c r="G304" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -13401,7 +13404,7 @@
         <v>59.25</v>
       </c>
       <c r="G306" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -13427,7 +13430,7 @@
         <v>59.6500015258789</v>
       </c>
       <c r="G307" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -13479,7 +13482,7 @@
         <v>59.8499984741211</v>
       </c>
       <c r="G309" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -13505,7 +13508,7 @@
         <v>60.2999992370605</v>
       </c>
       <c r="G310" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -13531,7 +13534,7 @@
         <v>61.3499984741211</v>
       </c>
       <c r="G311" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -13557,7 +13560,7 @@
         <v>61.3499984741211</v>
       </c>
       <c r="G312" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -13583,7 +13586,7 @@
         <v>62.25</v>
       </c>
       <c r="G313" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -13609,7 +13612,7 @@
         <v>61.9500007629395</v>
       </c>
       <c r="G314" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -13635,7 +13638,7 @@
         <v>62.1500015258789</v>
       </c>
       <c r="G315" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -13661,7 +13664,7 @@
         <v>63</v>
       </c>
       <c r="G316" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -13687,7 +13690,7 @@
         <v>62.8499984741211</v>
       </c>
       <c r="G317" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -13713,7 +13716,7 @@
         <v>62.2999992370605</v>
       </c>
       <c r="G318" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -13739,7 +13742,7 @@
         <v>62.8499984741211</v>
       </c>
       <c r="G319" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -13765,7 +13768,7 @@
         <v>62.25</v>
       </c>
       <c r="G320" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -13791,7 +13794,7 @@
         <v>63.5999984741211</v>
       </c>
       <c r="G321" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -13817,7 +13820,7 @@
         <v>63.2999992370605</v>
       </c>
       <c r="G322" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -13843,7 +13846,7 @@
         <v>63.7999992370605</v>
       </c>
       <c r="G323" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -13869,7 +13872,7 @@
         <v>63.9000015258789</v>
       </c>
       <c r="G324" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -13895,7 +13898,7 @@
         <v>64.3000030517578</v>
       </c>
       <c r="G325" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -13921,7 +13924,7 @@
         <v>64.1999969482422</v>
       </c>
       <c r="G326" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -13947,7 +13950,7 @@
         <v>65</v>
       </c>
       <c r="G327" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -13973,7 +13976,7 @@
         <v>65.9499969482422</v>
       </c>
       <c r="G328" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -13999,7 +14002,7 @@
         <v>66.0999984741211</v>
       </c>
       <c r="G329" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -14025,7 +14028,7 @@
         <v>65.8000030517578</v>
       </c>
       <c r="G330" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -14051,7 +14054,7 @@
         <v>65.0500030517578</v>
       </c>
       <c r="G331" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -14077,7 +14080,7 @@
         <v>64</v>
       </c>
       <c r="G332" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -14103,7 +14106,7 @@
         <v>64.25</v>
       </c>
       <c r="G333" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -14129,7 +14132,7 @@
         <v>66.0999984741211</v>
       </c>
       <c r="G334" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -14155,7 +14158,7 @@
         <v>65.5999984741211</v>
       </c>
       <c r="G335" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -14181,7 +14184,7 @@
         <v>67.1999969482422</v>
       </c>
       <c r="G336" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -14207,7 +14210,7 @@
         <v>66</v>
       </c>
       <c r="G337" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -14233,7 +14236,7 @@
         <v>66.4000015258789</v>
       </c>
       <c r="G338" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -14259,7 +14262,7 @@
         <v>67.5</v>
       </c>
       <c r="G339" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -14285,7 +14288,7 @@
         <v>68.8000030517578</v>
       </c>
       <c r="G340" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -14311,7 +14314,7 @@
         <v>71</v>
       </c>
       <c r="G341" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -14337,7 +14340,7 @@
         <v>69.5999984741211</v>
       </c>
       <c r="G342" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -14363,7 +14366,7 @@
         <v>69</v>
       </c>
       <c r="G343" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -14389,7 +14392,7 @@
         <v>69.3000030517578</v>
       </c>
       <c r="G344" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -14415,7 +14418,7 @@
         <v>69.3000030517578</v>
       </c>
       <c r="G345" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -14441,7 +14444,7 @@
         <v>70.3499984741211</v>
       </c>
       <c r="G346" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -14467,7 +14470,7 @@
         <v>70.1999969482422</v>
       </c>
       <c r="G347" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -14493,7 +14496,7 @@
         <v>69.8499984741211</v>
       </c>
       <c r="G348" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -14519,7 +14522,7 @@
         <v>70.25</v>
       </c>
       <c r="G349" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -14545,7 +14548,7 @@
         <v>70</v>
       </c>
       <c r="G350" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -14571,7 +14574,7 @@
         <v>70</v>
       </c>
       <c r="G351" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -14597,7 +14600,7 @@
         <v>68.1500015258789</v>
       </c>
       <c r="G352" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -14623,7 +14626,7 @@
         <v>67.4000015258789</v>
       </c>
       <c r="G353" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -14649,7 +14652,7 @@
         <v>68.25</v>
       </c>
       <c r="G354" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -14675,7 +14678,7 @@
         <v>68.25</v>
       </c>
       <c r="G355" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -14701,7 +14704,7 @@
         <v>68.5500030517578</v>
       </c>
       <c r="G356" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -14727,7 +14730,7 @@
         <v>68.6999969482422</v>
       </c>
       <c r="G357" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -14753,7 +14756,7 @@
         <v>68.9499969482422</v>
       </c>
       <c r="G358" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -14779,7 +14782,7 @@
         <v>69.1999969482422</v>
       </c>
       <c r="G359" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -14805,7 +14808,7 @@
         <v>68.0500030517578</v>
       </c>
       <c r="G360" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -14831,7 +14834,7 @@
         <v>68.6999969482422</v>
       </c>
       <c r="G361" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -14857,7 +14860,7 @@
         <v>68.9499969482422</v>
       </c>
       <c r="G362" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -14883,7 +14886,7 @@
         <v>70.1999969482422</v>
       </c>
       <c r="G363" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -14909,7 +14912,7 @@
         <v>70.5500030517578</v>
       </c>
       <c r="G364" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -14935,7 +14938,7 @@
         <v>70.25</v>
       </c>
       <c r="G365" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -14961,7 +14964,7 @@
         <v>71.4499969482422</v>
       </c>
       <c r="G366" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -14987,7 +14990,7 @@
         <v>70.9000015258789</v>
       </c>
       <c r="G367" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -15013,7 +15016,7 @@
         <v>71.75</v>
       </c>
       <c r="G368" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -15039,7 +15042,7 @@
         <v>72.5</v>
       </c>
       <c r="G369" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -15065,7 +15068,7 @@
         <v>69.9000015258789</v>
       </c>
       <c r="G370" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -15091,7 +15094,7 @@
         <v>69.75</v>
       </c>
       <c r="G371" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -15117,7 +15120,7 @@
         <v>71.4000015258789</v>
       </c>
       <c r="G372" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -15143,7 +15146,7 @@
         <v>70.6999969482422</v>
       </c>
       <c r="G373" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -15169,7 +15172,7 @@
         <v>71.3000030517578</v>
       </c>
       <c r="G374" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -15195,7 +15198,7 @@
         <v>71.1500015258789</v>
       </c>
       <c r="G375" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -15221,7 +15224,7 @@
         <v>71</v>
       </c>
       <c r="G376" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -15247,7 +15250,7 @@
         <v>70.5500030517578</v>
       </c>
       <c r="G377" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -15273,7 +15276,7 @@
         <v>70.1999969482422</v>
       </c>
       <c r="G378" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -15299,7 +15302,7 @@
         <v>72.6999969482422</v>
       </c>
       <c r="G379" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -15325,7 +15328,7 @@
         <v>71.3000030517578</v>
       </c>
       <c r="G380" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -15351,7 +15354,7 @@
         <v>69.9000015258789</v>
       </c>
       <c r="G381" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -15377,7 +15380,7 @@
         <v>67.5999984741211</v>
       </c>
       <c r="G382" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -15403,7 +15406,7 @@
         <v>66</v>
       </c>
       <c r="G383" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -15429,7 +15432,7 @@
         <v>67.25</v>
       </c>
       <c r="G384" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -15455,7 +15458,7 @@
         <v>66.5999984741211</v>
       </c>
       <c r="G385" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -15481,7 +15484,7 @@
         <v>66.5999984741211</v>
       </c>
       <c r="G386" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -15507,7 +15510,7 @@
         <v>67.25</v>
       </c>
       <c r="G387" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -15533,7 +15536,7 @@
         <v>66.5999984741211</v>
       </c>
       <c r="G388" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -15559,7 +15562,7 @@
         <v>67.3000030517578</v>
       </c>
       <c r="G389" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -15585,7 +15588,7 @@
         <v>67</v>
       </c>
       <c r="G390" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -15611,7 +15614,7 @@
         <v>66.0500030517578</v>
       </c>
       <c r="G391" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -15637,7 +15640,7 @@
         <v>67</v>
       </c>
       <c r="G392" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -15663,7 +15666,7 @@
         <v>67.0999984741211</v>
       </c>
       <c r="G393" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -15689,7 +15692,7 @@
         <v>68</v>
       </c>
       <c r="G394" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -15715,7 +15718,7 @@
         <v>69.0500030517578</v>
       </c>
       <c r="G395" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -15741,7 +15744,7 @@
         <v>69.75</v>
       </c>
       <c r="G396" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -15767,7 +15770,7 @@
         <v>69.9499969482422</v>
       </c>
       <c r="G397" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -15793,7 +15796,7 @@
         <v>70.3499984741211</v>
       </c>
       <c r="G398" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -15819,7 +15822,7 @@
         <v>70.1500015258789</v>
       </c>
       <c r="G399" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -15845,7 +15848,7 @@
         <v>70.5500030517578</v>
       </c>
       <c r="G400" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -15871,7 +15874,7 @@
         <v>69.8499984741211</v>
       </c>
       <c r="G401" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -15897,7 +15900,7 @@
         <v>73.3000030517578</v>
       </c>
       <c r="G402" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -15923,7 +15926,7 @@
         <v>73.9000015258789</v>
       </c>
       <c r="G403" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -15949,7 +15952,7 @@
         <v>73.0500030517578</v>
       </c>
       <c r="G404" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -15975,7 +15978,7 @@
         <v>73.5999984741211</v>
       </c>
       <c r="G405" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -16001,7 +16004,7 @@
         <v>73.4000015258789</v>
       </c>
       <c r="G406" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -16027,7 +16030,7 @@
         <v>73</v>
       </c>
       <c r="G407" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -16053,7 +16056,7 @@
         <v>73.0500030517578</v>
       </c>
       <c r="G408" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -16079,7 +16082,7 @@
         <v>72.9000015258789</v>
       </c>
       <c r="G409" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -16105,7 +16108,7 @@
         <v>72.5999984741211</v>
       </c>
       <c r="G410" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -16131,7 +16134,7 @@
         <v>71.9499969482422</v>
       </c>
       <c r="G411" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -16157,7 +16160,7 @@
         <v>72.1500015258789</v>
       </c>
       <c r="G412" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -16183,7 +16186,7 @@
         <v>71.4000015258789</v>
       </c>
       <c r="G413" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -16209,7 +16212,7 @@
         <v>70.6999969482422</v>
       </c>
       <c r="G414" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -16235,7 +16238,7 @@
         <v>71.6500015258789</v>
       </c>
       <c r="G415" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -16261,7 +16264,7 @@
         <v>71.4000015258789</v>
       </c>
       <c r="G416" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -16287,7 +16290,7 @@
         <v>71.6999969482422</v>
       </c>
       <c r="G417" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -16313,7 +16316,7 @@
         <v>71.5500030517578</v>
       </c>
       <c r="G418" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -16339,7 +16342,7 @@
         <v>71.3499984741211</v>
       </c>
       <c r="G419" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -16365,7 +16368,7 @@
         <v>71.4000015258789</v>
       </c>
       <c r="G420" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -16391,7 +16394,7 @@
         <v>71.3499984741211</v>
       </c>
       <c r="G421" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -16417,7 +16420,7 @@
         <v>70.8000030517578</v>
       </c>
       <c r="G422" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -16443,7 +16446,7 @@
         <v>70.5500030517578</v>
       </c>
       <c r="G423" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -16469,7 +16472,7 @@
         <v>70.0500030517578</v>
       </c>
       <c r="G424" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -16495,7 +16498,7 @@
         <v>69.9499969482422</v>
       </c>
       <c r="G425" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -16521,7 +16524,7 @@
         <v>71.3499984741211</v>
       </c>
       <c r="G426" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -16547,7 +16550,7 @@
         <v>72.4000015258789</v>
       </c>
       <c r="G427" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -16573,7 +16576,7 @@
         <v>72.4499969482422</v>
       </c>
       <c r="G428" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -16599,7 +16602,7 @@
         <v>72.5</v>
       </c>
       <c r="G429" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -16625,7 +16628,7 @@
         <v>73</v>
       </c>
       <c r="G430" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -16651,7 +16654,7 @@
         <v>73.3499984741211</v>
       </c>
       <c r="G431" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -16677,7 +16680,7 @@
         <v>73.6999969482422</v>
       </c>
       <c r="G432" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -16703,7 +16706,7 @@
         <v>73.5500030517578</v>
       </c>
       <c r="G433" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -16729,7 +16732,7 @@
         <v>73.9000015258789</v>
       </c>
       <c r="G434" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -16755,7 +16758,7 @@
         <v>73</v>
       </c>
       <c r="G435" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -16781,7 +16784,7 @@
         <v>74</v>
       </c>
       <c r="G436" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -16807,7 +16810,7 @@
         <v>74</v>
       </c>
       <c r="G437" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -16833,7 +16836,7 @@
         <v>73.0999984741211</v>
       </c>
       <c r="G438" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -16859,7 +16862,7 @@
         <v>73.4499969482422</v>
       </c>
       <c r="G439" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -16885,7 +16888,7 @@
         <v>74</v>
       </c>
       <c r="G440" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -16911,7 +16914,7 @@
         <v>74.25</v>
       </c>
       <c r="G441" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -16937,7 +16940,7 @@
         <v>73.8000030517578</v>
       </c>
       <c r="G442" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -16963,7 +16966,7 @@
         <v>74.5999984741211</v>
       </c>
       <c r="G443" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -16989,7 +16992,7 @@
         <v>75.8499984741211</v>
       </c>
       <c r="G444" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -17015,7 +17018,7 @@
         <v>75.4000015258789</v>
       </c>
       <c r="G445" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -17041,7 +17044,7 @@
         <v>75.0999984741211</v>
       </c>
       <c r="G446" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -17067,7 +17070,7 @@
         <v>75.1999969482422</v>
       </c>
       <c r="G447" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -17093,7 +17096,7 @@
         <v>75.4499969482422</v>
       </c>
       <c r="G448" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -17119,7 +17122,7 @@
         <v>76.5</v>
       </c>
       <c r="G449" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -17145,7 +17148,7 @@
         <v>77.8000030517578</v>
       </c>
       <c r="G450" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -17171,7 +17174,7 @@
         <v>77.9000015258789</v>
       </c>
       <c r="G451" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -17197,7 +17200,7 @@
         <v>79.6500015258789</v>
       </c>
       <c r="G452" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -17223,7 +17226,7 @@
         <v>79</v>
       </c>
       <c r="G453" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -17249,7 +17252,7 @@
         <v>79.1500015258789</v>
       </c>
       <c r="G454" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -17275,7 +17278,7 @@
         <v>78.4000015258789</v>
       </c>
       <c r="G455" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -17301,7 +17304,7 @@
         <v>78.75</v>
       </c>
       <c r="G456" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -17327,7 +17330,7 @@
         <v>80.5500030517578</v>
       </c>
       <c r="G457" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -17353,7 +17356,7 @@
         <v>78.75</v>
       </c>
       <c r="G458" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -17379,7 +17382,7 @@
         <v>79</v>
       </c>
       <c r="G459" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -17405,7 +17408,7 @@
         <v>79</v>
       </c>
       <c r="G460" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -17431,7 +17434,7 @@
         <v>78.4499969482422</v>
       </c>
       <c r="G461" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -17457,7 +17460,7 @@
         <v>77.75</v>
       </c>
       <c r="G462" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -17483,7 +17486,7 @@
         <v>77.8499984741211</v>
       </c>
       <c r="G463" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -17509,7 +17512,7 @@
         <v>77.8000030517578</v>
       </c>
       <c r="G464" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -17535,7 +17538,7 @@
         <v>78.0500030517578</v>
       </c>
       <c r="G465" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -17561,7 +17564,7 @@
         <v>77.9000015258789</v>
       </c>
       <c r="G466" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -17587,7 +17590,7 @@
         <v>78.3000030517578</v>
       </c>
       <c r="G467" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -17613,7 +17616,7 @@
         <v>78.3499984741211</v>
       </c>
       <c r="G468" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -17639,7 +17642,7 @@
         <v>78</v>
       </c>
       <c r="G469" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -17665,7 +17668,7 @@
         <v>78.0999984741211</v>
       </c>
       <c r="G470" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -17691,7 +17694,7 @@
         <v>78.9499969482422</v>
       </c>
       <c r="G471" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -17717,7 +17720,7 @@
         <v>77.9499969482422</v>
       </c>
       <c r="G472" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -17743,7 +17746,7 @@
         <v>79.1999969482422</v>
       </c>
       <c r="G473" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -17769,7 +17772,7 @@
         <v>78.5500030517578</v>
       </c>
       <c r="G474" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -17795,7 +17798,7 @@
         <v>78.25</v>
       </c>
       <c r="G475" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -17821,7 +17824,7 @@
         <v>77.75</v>
       </c>
       <c r="G476" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -17847,7 +17850,7 @@
         <v>72.0500030517578</v>
       </c>
       <c r="G477" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -17873,7 +17876,7 @@
         <v>72.5500030517578</v>
       </c>
       <c r="G478" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -17899,7 +17902,7 @@
         <v>73.8000030517578</v>
       </c>
       <c r="G479" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -17925,7 +17928,7 @@
         <v>74.6500015258789</v>
       </c>
       <c r="G480" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -17951,7 +17954,7 @@
         <v>74</v>
       </c>
       <c r="G481" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -17977,7 +17980,7 @@
         <v>75.4000015258789</v>
       </c>
       <c r="G482" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -18003,7 +18006,7 @@
         <v>75.0500030517578</v>
       </c>
       <c r="G483" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -18029,7 +18032,7 @@
         <v>76.6500015258789</v>
       </c>
       <c r="G484" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -18055,7 +18058,7 @@
         <v>77.5</v>
       </c>
       <c r="G485" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -18081,7 +18084,7 @@
         <v>77.1999969482422</v>
       </c>
       <c r="G486" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -18107,7 +18110,7 @@
         <v>76.3499984741211</v>
       </c>
       <c r="G487" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -18133,7 +18136,7 @@
         <v>74.5</v>
       </c>
       <c r="G488" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -18159,7 +18162,7 @@
         <v>75.6500015258789</v>
       </c>
       <c r="G489" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -18185,7 +18188,7 @@
         <v>76.4000015258789</v>
       </c>
       <c r="G490" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -18211,7 +18214,7 @@
         <v>76.5500030517578</v>
       </c>
       <c r="G491" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -18237,7 +18240,7 @@
         <v>77.4000015258789</v>
       </c>
       <c r="G492" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -18263,7 +18266,7 @@
         <v>78.0500030517578</v>
       </c>
       <c r="G493" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -18289,7 +18292,7 @@
         <v>77.6500015258789</v>
       </c>
       <c r="G494" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -18315,7 +18318,7 @@
         <v>78.4000015258789</v>
       </c>
       <c r="G495" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -18341,7 +18344,7 @@
         <v>78.4499969482422</v>
       </c>
       <c r="G496" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -18367,7 +18370,7 @@
         <v>79.5500030517578</v>
       </c>
       <c r="G497" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -18393,7 +18396,7 @@
         <v>80.5500030517578</v>
       </c>
       <c r="G498" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -18419,7 +18422,7 @@
         <v>80.3499984741211</v>
       </c>
       <c r="G499" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -18445,7 +18448,7 @@
         <v>78.5500030517578</v>
       </c>
       <c r="G500" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -18471,7 +18474,7 @@
         <v>77.3499984741211</v>
       </c>
       <c r="G501" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -18497,7 +18500,7 @@
         <v>76.4000015258789</v>
       </c>
       <c r="G502" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -18523,7 +18526,7 @@
         <v>75.8000030517578</v>
       </c>
       <c r="G503" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -18549,7 +18552,7 @@
         <v>75.4000015258789</v>
       </c>
       <c r="G504" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -18575,7 +18578,7 @@
         <v>75.0500030517578</v>
       </c>
       <c r="G505" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -18601,7 +18604,7 @@
         <v>75.6999969482422</v>
       </c>
       <c r="G506" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -18627,7 +18630,7 @@
         <v>74.5999984741211</v>
       </c>
       <c r="G507" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -18653,7 +18656,7 @@
         <v>74.4499969482422</v>
       </c>
       <c r="G508" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -18679,7 +18682,7 @@
         <v>74.6500015258789</v>
       </c>
       <c r="G509" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -18705,7 +18708,7 @@
         <v>74.5999984741211</v>
       </c>
       <c r="G510" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -18731,7 +18734,7 @@
         <v>74</v>
       </c>
       <c r="G511" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -18757,7 +18760,7 @@
         <v>74.5</v>
       </c>
       <c r="G512" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -18783,7 +18786,7 @@
         <v>74.8499984741211</v>
       </c>
       <c r="G513" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -18809,7 +18812,7 @@
         <v>75.8499984741211</v>
       </c>
       <c r="G514" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -18835,7 +18838,7 @@
         <v>76.8000030517578</v>
       </c>
       <c r="G515" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -18861,7 +18864,7 @@
         <v>80.0500030517578</v>
       </c>
       <c r="G516" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -18887,7 +18890,7 @@
         <v>79.4499969482422</v>
       </c>
       <c r="G517" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -18913,7 +18916,7 @@
         <v>79.25</v>
       </c>
       <c r="G518" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -18939,7 +18942,7 @@
         <v>79.5999984741211</v>
       </c>
       <c r="G519" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -18965,7 +18968,7 @@
         <v>79.6999969482422</v>
       </c>
       <c r="G520" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -18991,7 +18994,7 @@
         <v>79.6500015258789</v>
       </c>
       <c r="G521" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -19017,7 +19020,7 @@
         <v>79.3499984741211</v>
       </c>
       <c r="G522" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -19043,7 +19046,7 @@
         <v>79.6500015258789</v>
       </c>
       <c r="G523" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -19069,7 +19072,7 @@
         <v>80.0500030517578</v>
       </c>
       <c r="G524" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -19095,7 +19098,7 @@
         <v>79.1500015258789</v>
       </c>
       <c r="G525" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -19121,7 +19124,7 @@
         <v>79.0999984741211</v>
       </c>
       <c r="G526" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -19147,7 +19150,7 @@
         <v>79.0500030517578</v>
       </c>
       <c r="G527" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -19173,7 +19176,7 @@
         <v>79</v>
       </c>
       <c r="G528" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -19199,7 +19202,7 @@
         <v>78.4000015258789</v>
       </c>
       <c r="G529" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -19225,7 +19228,7 @@
         <v>79.3000030517578</v>
       </c>
       <c r="G530" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -19251,7 +19254,7 @@
         <v>78.8499984741211</v>
       </c>
       <c r="G531" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -19277,7 +19280,7 @@
         <v>77.25</v>
       </c>
       <c r="G532" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -19303,7 +19306,7 @@
         <v>77.9499969482422</v>
       </c>
       <c r="G533" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -19329,7 +19332,7 @@
         <v>79.4000015258789</v>
       </c>
       <c r="G534" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -19355,7 +19358,7 @@
         <v>76.5500030517578</v>
       </c>
       <c r="G535" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -19381,7 +19384,7 @@
         <v>75.3499984741211</v>
       </c>
       <c r="G536" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -19407,7 +19410,7 @@
         <v>73.4499969482422</v>
       </c>
       <c r="G537" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -19433,7 +19436,7 @@
         <v>75.6999969482422</v>
       </c>
       <c r="G538" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -19459,7 +19462,7 @@
         <v>74.0999984741211</v>
       </c>
       <c r="G539" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -19485,7 +19488,7 @@
         <v>69.5500030517578</v>
       </c>
       <c r="G540" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -19511,7 +19514,7 @@
         <v>71.1999969482422</v>
       </c>
       <c r="G541" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -19537,7 +19540,7 @@
         <v>71</v>
       </c>
       <c r="G542" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -19563,7 +19566,7 @@
         <v>70</v>
       </c>
       <c r="G543" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -19589,7 +19592,7 @@
         <v>70.4000015258789</v>
       </c>
       <c r="G544" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -19615,7 +19618,7 @@
         <v>71.3000030517578</v>
       </c>
       <c r="G545" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -19641,7 +19644,7 @@
         <v>69.9000015258789</v>
       </c>
       <c r="G546" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -19667,7 +19670,7 @@
         <v>69.5500030517578</v>
       </c>
       <c r="G547" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -19693,7 +19696,7 @@
         <v>69.8000030517578</v>
       </c>
       <c r="G548" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -19719,7 +19722,7 @@
         <v>69.6500015258789</v>
       </c>
       <c r="G549" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -19745,7 +19748,7 @@
         <v>69.75</v>
       </c>
       <c r="G550" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -19771,7 +19774,7 @@
         <v>69.4499969482422</v>
       </c>
       <c r="G551" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -19797,7 +19800,7 @@
         <v>68.5</v>
       </c>
       <c r="G552" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -19823,7 +19826,7 @@
         <v>67.4499969482422</v>
       </c>
       <c r="G553" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -19849,7 +19852,7 @@
         <v>66.4000015258789</v>
       </c>
       <c r="G554" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -19875,7 +19878,7 @@
         <v>66.0999984741211</v>
       </c>
       <c r="G555" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -19901,7 +19904,7 @@
         <v>67.3499984741211</v>
       </c>
       <c r="G556" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -19927,7 +19930,7 @@
         <v>68.4000015258789</v>
       </c>
       <c r="G557" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -19953,7 +19956,7 @@
         <v>70.5999984741211</v>
       </c>
       <c r="G558" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -19979,7 +19982,7 @@
         <v>73.5500030517578</v>
       </c>
       <c r="G559" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -20005,7 +20008,7 @@
         <v>74.75</v>
       </c>
       <c r="G560" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -20031,7 +20034,7 @@
         <v>73.8499984741211</v>
       </c>
       <c r="G561" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -20057,7 +20060,7 @@
         <v>74</v>
       </c>
       <c r="G562" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -20083,7 +20086,7 @@
         <v>72.9000015258789</v>
       </c>
       <c r="G563" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -20109,7 +20112,7 @@
         <v>73.0500030517578</v>
       </c>
       <c r="G564" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -20135,7 +20138,7 @@
         <v>72.1999969482422</v>
       </c>
       <c r="G565" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -20161,7 +20164,7 @@
         <v>71.8000030517578</v>
       </c>
       <c r="G566" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -20187,7 +20190,7 @@
         <v>72.0500030517578</v>
       </c>
       <c r="G567" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -20213,7 +20216,7 @@
         <v>72.5</v>
       </c>
       <c r="G568" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -20239,7 +20242,7 @@
         <v>72.6500015258789</v>
       </c>
       <c r="G569" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -20265,7 +20268,7 @@
         <v>71.6500015258789</v>
       </c>
       <c r="G570" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -20291,7 +20294,7 @@
         <v>70.3499984741211</v>
       </c>
       <c r="G571" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -20317,7 +20320,7 @@
         <v>72.6500015258789</v>
       </c>
       <c r="G572" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -20343,7 +20346,7 @@
         <v>72.9000015258789</v>
       </c>
       <c r="G573" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -20369,7 +20372,7 @@
         <v>73.0999984741211</v>
       </c>
       <c r="G574" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -20395,7 +20398,7 @@
         <v>72.5</v>
       </c>
       <c r="G575" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -20421,7 +20424,7 @@
         <v>71.75</v>
       </c>
       <c r="G576" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -20447,7 +20450,7 @@
         <v>72.25</v>
       </c>
       <c r="G577" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -20473,7 +20476,7 @@
         <v>73.8499984741211</v>
       </c>
       <c r="G578" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -20499,7 +20502,7 @@
         <v>73.0500030517578</v>
       </c>
       <c r="G579" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -20525,7 +20528,7 @@
         <v>73</v>
       </c>
       <c r="G580" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -20551,7 +20554,7 @@
         <v>72.0500030517578</v>
       </c>
       <c r="G581" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -20577,7 +20580,7 @@
         <v>73.5</v>
       </c>
       <c r="G582" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -20603,7 +20606,7 @@
         <v>73.5</v>
       </c>
       <c r="G583" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -20629,7 +20632,7 @@
         <v>75.3499984741211</v>
       </c>
       <c r="G584" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -20655,7 +20658,7 @@
         <v>75.5500030517578</v>
       </c>
       <c r="G585" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -20681,7 +20684,7 @@
         <v>77.5999984741211</v>
       </c>
       <c r="G586" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -20707,7 +20710,7 @@
         <v>74.75</v>
       </c>
       <c r="G587" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -20733,7 +20736,7 @@
         <v>74.5999984741211</v>
       </c>
       <c r="G588" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -20759,7 +20762,7 @@
         <v>76.1999969482422</v>
       </c>
       <c r="G589" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -20785,7 +20788,7 @@
         <v>78.4000015258789</v>
       </c>
       <c r="G590" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -20811,7 +20814,7 @@
         <v>77.3000030517578</v>
       </c>
       <c r="G591" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -20837,7 +20840,7 @@
         <v>78.1500015258789</v>
       </c>
       <c r="G592" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -20863,7 +20866,7 @@
         <v>78.4000015258789</v>
       </c>
       <c r="G593" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -20889,7 +20892,7 @@
         <v>78.3499984741211</v>
       </c>
       <c r="G594" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -20915,7 +20918,7 @@
         <v>78.6999969482422</v>
       </c>
       <c r="G595" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -20941,7 +20944,7 @@
         <v>78</v>
       </c>
       <c r="G596" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -20967,7 +20970,7 @@
         <v>78.6500015258789</v>
       </c>
       <c r="G597" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -20993,7 +20996,7 @@
         <v>79.1500015258789</v>
       </c>
       <c r="G598" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -21019,7 +21022,7 @@
         <v>78.3000030517578</v>
       </c>
       <c r="G599" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -21045,7 +21048,7 @@
         <v>80.4000015258789</v>
       </c>
       <c r="G600" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -21071,7 +21074,7 @@
         <v>81.5500030517578</v>
       </c>
       <c r="G601" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -21097,7 +21100,7 @@
         <v>80.1999969482422</v>
       </c>
       <c r="G602" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -21123,7 +21126,7 @@
         <v>81.3000030517578</v>
       </c>
       <c r="G603" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -21149,7 +21152,7 @@
         <v>81</v>
       </c>
       <c r="G604" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -21175,7 +21178,7 @@
         <v>81.1999969482422</v>
       </c>
       <c r="G605" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -21201,7 +21204,7 @@
         <v>82.6500015258789</v>
       </c>
       <c r="G606" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -21227,7 +21230,7 @@
         <v>81.4000015258789</v>
       </c>
       <c r="G607" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -21253,7 +21256,7 @@
         <v>81.25</v>
       </c>
       <c r="G608" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -21279,7 +21282,7 @@
         <v>81.9000015258789</v>
       </c>
       <c r="G609" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -21305,7 +21308,7 @@
         <v>80.6999969482422</v>
       </c>
       <c r="G610" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -21331,7 +21334,7 @@
         <v>82.0500030517578</v>
       </c>
       <c r="G611" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -21357,7 +21360,7 @@
         <v>84.1500015258789</v>
       </c>
       <c r="G612" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -21383,7 +21386,7 @@
         <v>83</v>
       </c>
       <c r="G613" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -21409,7 +21412,7 @@
         <v>81.1999969482422</v>
       </c>
       <c r="G614" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -21435,7 +21438,7 @@
         <v>84.5999984741211</v>
       </c>
       <c r="G615" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -21461,7 +21464,7 @@
         <v>82.5999984741211</v>
       </c>
       <c r="G616" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -21487,7 +21490,7 @@
         <v>85.5</v>
       </c>
       <c r="G617" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -21513,7 +21516,7 @@
         <v>87.5</v>
       </c>
       <c r="G618" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -21539,7 +21542,7 @@
         <v>88.25</v>
       </c>
       <c r="G619" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -21565,7 +21568,7 @@
         <v>88</v>
       </c>
       <c r="G620" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -21591,7 +21594,7 @@
         <v>88.4000015258789</v>
       </c>
       <c r="G621" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -21617,7 +21620,7 @@
         <v>87.9000015258789</v>
       </c>
       <c r="G622" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -21643,7 +21646,7 @@
         <v>88.9499969482422</v>
       </c>
       <c r="G623" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -21669,7 +21672,7 @@
         <v>91</v>
       </c>
       <c r="G624" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -21695,7 +21698,7 @@
         <v>92.4000015258789</v>
       </c>
       <c r="G625" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -21721,7 +21724,7 @@
         <v>93.3499984741211</v>
       </c>
       <c r="G626" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -21747,7 +21750,7 @@
         <v>93</v>
       </c>
       <c r="G627" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -21773,7 +21776,7 @@
         <v>92.3000030517578</v>
       </c>
       <c r="G628" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -21799,7 +21802,7 @@
         <v>90.9499969482422</v>
       </c>
       <c r="G629" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -21825,7 +21828,7 @@
         <v>89.5</v>
       </c>
       <c r="G630" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -21851,7 +21854,7 @@
         <v>89.1500015258789</v>
       </c>
       <c r="G631" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -21877,7 +21880,7 @@
         <v>96</v>
       </c>
       <c r="G632" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -21903,7 +21906,7 @@
         <v>95.0500030517578</v>
       </c>
       <c r="G633" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -21929,7 +21932,7 @@
         <v>95.6999969482422</v>
       </c>
       <c r="G634" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -21955,7 +21958,7 @@
         <v>97.3000030517578</v>
       </c>
       <c r="G635" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -21981,7 +21984,7 @@
         <v>96.3499984741211</v>
       </c>
       <c r="G636" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -22007,7 +22010,7 @@
         <v>97.6999969482422</v>
       </c>
       <c r="G637" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -22033,7 +22036,7 @@
         <v>96.3000030517578</v>
       </c>
       <c r="G638" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -22059,7 +22062,7 @@
         <v>97.5</v>
       </c>
       <c r="G639" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -22085,7 +22088,7 @@
         <v>96.4000015258789</v>
       </c>
       <c r="G640" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -22111,7 +22114,7 @@
         <v>95.5500030517578</v>
       </c>
       <c r="G641" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -22137,7 +22140,7 @@
         <v>96</v>
       </c>
       <c r="G642" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -22163,7 +22166,7 @@
         <v>95.8000030517578</v>
       </c>
       <c r="G643" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -22189,7 +22192,7 @@
         <v>95.9000015258789</v>
       </c>
       <c r="G644" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -22215,7 +22218,7 @@
         <v>96.1500015258789</v>
       </c>
       <c r="G645" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -22241,7 +22244,7 @@
         <v>98.1999969482422</v>
       </c>
       <c r="G646" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -22267,7 +22270,7 @@
         <v>97.6500015258789</v>
       </c>
       <c r="G647" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -22293,7 +22296,7 @@
         <v>97.9000015258789</v>
       </c>
       <c r="G648" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -22319,7 +22322,7 @@
         <v>96.5</v>
       </c>
       <c r="G649" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -22345,7 +22348,7 @@
         <v>95.9499969482422</v>
       </c>
       <c r="G650" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -22371,7 +22374,7 @@
         <v>96.75</v>
       </c>
       <c r="G651" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -22397,7 +22400,7 @@
         <v>96.4000015258789</v>
       </c>
       <c r="G652" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -22423,7 +22426,7 @@
         <v>94.5</v>
       </c>
       <c r="G653" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -22449,7 +22452,7 @@
         <v>94</v>
       </c>
       <c r="G654" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -22475,7 +22478,7 @@
         <v>94.3499984741211</v>
       </c>
       <c r="G655" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -22501,7 +22504,7 @@
         <v>92.4499969482422</v>
       </c>
       <c r="G656" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -22527,7 +22530,7 @@
         <v>93</v>
       </c>
       <c r="G657" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -22553,7 +22556,7 @@
         <v>92.5</v>
       </c>
       <c r="G658" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -22579,7 +22582,7 @@
         <v>91.8000030517578</v>
       </c>
       <c r="G659" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -22605,7 +22608,7 @@
         <v>93</v>
       </c>
       <c r="G660" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -22631,7 +22634,7 @@
         <v>85.0500030517578</v>
       </c>
       <c r="G661" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -22657,7 +22660,7 @@
         <v>87.3499984741211</v>
       </c>
       <c r="G662" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -22683,7 +22686,7 @@
         <v>87.5</v>
       </c>
       <c r="G663" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -22709,7 +22712,7 @@
         <v>88.75</v>
       </c>
       <c r="G664" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -22735,7 +22738,7 @@
         <v>87.8499984741211</v>
       </c>
       <c r="G665" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -22761,7 +22764,7 @@
         <v>88.0999984741211</v>
       </c>
       <c r="G666" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -22787,7 +22790,7 @@
         <v>87.8499984741211</v>
       </c>
       <c r="G667" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -22813,7 +22816,7 @@
         <v>86.9000015258789</v>
       </c>
       <c r="G668" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -22839,7 +22842,7 @@
         <v>88.1500015258789</v>
       </c>
       <c r="G669" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -22865,7 +22868,7 @@
         <v>86.5500030517578</v>
       </c>
       <c r="G670" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -22891,7 +22894,7 @@
         <v>86.8499984741211</v>
       </c>
       <c r="G671" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -22917,7 +22920,7 @@
         <v>93.1999969482422</v>
       </c>
       <c r="G672" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -22943,7 +22946,7 @@
         <v>93.75</v>
       </c>
       <c r="G673" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -22969,7 +22972,7 @@
         <v>91.5</v>
       </c>
       <c r="G674" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -22995,7 +22998,7 @@
         <v>91.8499984741211</v>
       </c>
       <c r="G675" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -23021,7 +23024,7 @@
         <v>91.5999984741211</v>
       </c>
       <c r="G676" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -23047,7 +23050,7 @@
         <v>91.1500015258789</v>
       </c>
       <c r="G677" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -23073,7 +23076,7 @@
         <v>91.6999969482422</v>
       </c>
       <c r="G678" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -23099,7 +23102,7 @@
         <v>92.9000015258789</v>
       </c>
       <c r="G679" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -23125,7 +23128,7 @@
         <v>93.8000030517578</v>
       </c>
       <c r="G680" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -23151,7 +23154,7 @@
         <v>93.8000030517578</v>
       </c>
       <c r="G681" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -23177,7 +23180,7 @@
         <v>92.4499969482422</v>
       </c>
       <c r="G682" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -23203,7 +23206,7 @@
         <v>92.3499984741211</v>
       </c>
       <c r="G683" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -23229,7 +23232,7 @@
         <v>89.4000015258789</v>
       </c>
       <c r="G684" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -23255,7 +23258,7 @@
         <v>89.6999969482422</v>
       </c>
       <c r="G685" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -23281,7 +23284,7 @@
         <v>87.9000015258789</v>
       </c>
       <c r="G686" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -23307,7 +23310,7 @@
         <v>88.9499969482422</v>
       </c>
       <c r="G687" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -23333,7 +23336,7 @@
         <v>88.4000015258789</v>
       </c>
       <c r="G688" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -23359,7 +23362,7 @@
         <v>88.6999969482422</v>
       </c>
       <c r="G689" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -23385,7 +23388,7 @@
         <v>89.5</v>
       </c>
       <c r="G690" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -23411,7 +23414,7 @@
         <v>89</v>
       </c>
       <c r="G691" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -23437,7 +23440,7 @@
         <v>90.6999969482422</v>
       </c>
       <c r="G692" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -23463,7 +23466,7 @@
         <v>93.75</v>
       </c>
       <c r="G693" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -23489,7 +23492,7 @@
         <v>95.8499984741211</v>
       </c>
       <c r="G694" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -23515,7 +23518,7 @@
         <v>97.1999969482422</v>
       </c>
       <c r="G695" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -23541,7 +23544,7 @@
         <v>92.25</v>
       </c>
       <c r="G696" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -23567,7 +23570,7 @@
         <v>91.5</v>
       </c>
       <c r="G697" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -23593,7 +23596,7 @@
         <v>93.0999984741211</v>
       </c>
       <c r="G698" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -23619,7 +23622,7 @@
         <v>92.9499969482422</v>
       </c>
       <c r="G699" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -23645,7 +23648,7 @@
         <v>91</v>
       </c>
       <c r="G700" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -23671,7 +23674,7 @@
         <v>90.5999984741211</v>
       </c>
       <c r="G701" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -23697,7 +23700,7 @@
         <v>91.3000030517578</v>
       </c>
       <c r="G702" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -23723,7 +23726,7 @@
         <v>91</v>
       </c>
       <c r="G703" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -23749,7 +23752,7 @@
         <v>90.5999984741211</v>
       </c>
       <c r="G704" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -23775,7 +23778,7 @@
         <v>89.1999969482422</v>
       </c>
       <c r="G705" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -23801,7 +23804,7 @@
         <v>86.8000030517578</v>
       </c>
       <c r="G706" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -23827,7 +23830,7 @@
         <v>82.3000030517578</v>
       </c>
       <c r="G707" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -23853,7 +23856,7 @@
         <v>81.5</v>
       </c>
       <c r="G708" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -23879,7 +23882,7 @@
         <v>80.3000030517578</v>
       </c>
       <c r="G709" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -23905,7 +23908,7 @@
         <v>79.6999969482422</v>
       </c>
       <c r="G710" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -23931,7 +23934,7 @@
         <v>81.9499969482422</v>
       </c>
       <c r="G711" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -23957,7 +23960,7 @@
         <v>79.5</v>
       </c>
       <c r="G712" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -23983,7 +23986,7 @@
         <v>79.8499984741211</v>
       </c>
       <c r="G713" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -24009,7 +24012,7 @@
         <v>81.5999984741211</v>
       </c>
       <c r="G714" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -24035,7 +24038,7 @@
         <v>82</v>
       </c>
       <c r="G715" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -24061,7 +24064,7 @@
         <v>82.4000015258789</v>
       </c>
       <c r="G716" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -24087,7 +24090,7 @@
         <v>83.6999969482422</v>
       </c>
       <c r="G717" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -24113,7 +24116,7 @@
         <v>79.75</v>
       </c>
       <c r="G718" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -24139,7 +24142,7 @@
         <v>80.5500030517578</v>
       </c>
       <c r="G719" t="s">
-        <v>407</v>
+        <v>501</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -24295,7 +24298,7 @@
         <v>86.9000015258789</v>
       </c>
       <c r="G725" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -24321,7 +24324,7 @@
         <v>86.5500030517578</v>
       </c>
       <c r="G726" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -24373,7 +24376,7 @@
         <v>86.8499984741211</v>
       </c>
       <c r="G728" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -24399,7 +24402,7 @@
         <v>81.5999984741211</v>
       </c>
       <c r="G729" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -24503,7 +24506,7 @@
         <v>82.3000030517578</v>
       </c>
       <c r="G733" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -24529,7 +24532,7 @@
         <v>81.5999984741211</v>
       </c>
       <c r="G734" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -24581,7 +24584,7 @@
         <v>81.1999969482422</v>
       </c>
       <c r="G736" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -61405,7 +61408,7 @@
     </row>
     <row r="2153">
       <c r="A2153" s="1" t="n">
-        <v>45460.6493402778</v>
+        <v>45460.2916666667</v>
       </c>
       <c r="B2153" t="n">
         <v>147224</v>
@@ -61426,6 +61429,32 @@
         <v>1699</v>
       </c>
       <c r="H2153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" s="1" t="n">
+        <v>45461.6494212963</v>
+      </c>
+      <c r="B2154" t="n">
+        <v>114056</v>
+      </c>
+      <c r="C2154" t="n">
+        <v>98.5400009155273</v>
+      </c>
+      <c r="D2154" t="n">
+        <v>96.8000030517578</v>
+      </c>
+      <c r="E2154" t="n">
+        <v>97.3000030517578</v>
+      </c>
+      <c r="F2154" t="n">
+        <v>98.379997253418</v>
+      </c>
+      <c r="G2154" t="s">
+        <v>1700</v>
+      </c>
+      <c r="H2154" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DIA.MI.xlsx
+++ b/data/DIA.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="1701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="1702">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,34 +38,34 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0384140014648</t>
+    <t xml:space="preserve">43.0384063720703</t>
   </si>
   <si>
     <t xml:space="preserve">DIA.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8513031005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5922470092773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.4761238098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3689231872559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6900329589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0116157531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2612609863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8146133422852</t>
+    <t xml:space="preserve">43.8513069152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5922508239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.4761161804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3689346313477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6900367736816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0116195678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2612648010254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8146209716797</t>
   </si>
   <si>
     <t xml:space="preserve">40.5104179382324</t>
@@ -74,40 +74,40 @@
     <t xml:space="preserve">39.7779273986816</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5630569458008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.3218765258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.125358581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.4563446044922</t>
+    <t xml:space="preserve">38.5630531311035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.3218727111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1253509521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.4563484191895</t>
   </si>
   <si>
     <t xml:space="preserve">40.7694702148438</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7878189086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5917663574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.89501953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3242683410645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.6190528869629</t>
+    <t xml:space="preserve">41.7878112792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5917701721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8950119018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3242645263672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.6190490722656</t>
   </si>
   <si>
     <t xml:space="preserve">43.5475845336914</t>
   </si>
   <si>
-    <t xml:space="preserve">42.4131088256836</t>
+    <t xml:space="preserve">42.4131126403809</t>
   </si>
   <si>
     <t xml:space="preserve">41.7610168457031</t>
@@ -116,13 +116,13 @@
     <t xml:space="preserve">39.9208488464355</t>
   </si>
   <si>
-    <t xml:space="preserve">38.2414894104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5005264282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.081169128418</t>
+    <t xml:space="preserve">38.2414817810059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5005302429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.0811653137207</t>
   </si>
   <si>
     <t xml:space="preserve">39.0990371704102</t>
@@ -131,43 +131,43 @@
     <t xml:space="preserve">38.8935775756836</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6354789733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9124031066895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0106582641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9307441711426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0920143127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.4756469726562</t>
+    <t xml:space="preserve">40.6354751586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9123992919922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0106658935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9307403564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0920104980469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.475643157959</t>
   </si>
   <si>
     <t xml:space="preserve">43.1366729736328</t>
   </si>
   <si>
-    <t xml:space="preserve">43.7619743347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.4493255615234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.7798385620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1009407043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3416519165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1902732849121</t>
+    <t xml:space="preserve">43.7619705200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.4493293762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.7798347473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1009483337402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3416557312012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1902694702148</t>
   </si>
   <si>
     <t xml:space="preserve">43.252799987793</t>
@@ -176,10 +176,10 @@
     <t xml:space="preserve">43.306396484375</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2786407470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8677368164062</t>
+    <t xml:space="preserve">41.2786483764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8677291870117</t>
   </si>
   <si>
     <t xml:space="preserve">40.5193519592285</t>
@@ -188,7 +188,7 @@
     <t xml:space="preserve">41.6895523071289</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0910530090332</t>
+    <t xml:space="preserve">41.0910568237305</t>
   </si>
   <si>
     <t xml:space="preserve">40.6712112426758</t>
@@ -197,34 +197,34 @@
     <t xml:space="preserve">40.1263084411621</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6265449523926</t>
+    <t xml:space="preserve">40.6265487670898</t>
   </si>
   <si>
     <t xml:space="preserve">40.8052024841309</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3496284484863</t>
+    <t xml:space="preserve">40.3496246337891</t>
   </si>
   <si>
     <t xml:space="preserve">40.6444129943848</t>
   </si>
   <si>
-    <t xml:space="preserve">40.9838638305664</t>
+    <t xml:space="preserve">40.9838562011719</t>
   </si>
   <si>
     <t xml:space="preserve">44.664192199707</t>
   </si>
   <si>
-    <t xml:space="preserve">45.334156036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.8701210021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.450756072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.9594497680664</t>
+    <t xml:space="preserve">45.3341522216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.8701248168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.4507598876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.9594535827637</t>
   </si>
   <si>
     <t xml:space="preserve">46.2720985412598</t>
@@ -233,10 +233,10 @@
     <t xml:space="preserve">47.4333686828613</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4954223632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.0041198730469</t>
+    <t xml:space="preserve">46.495418548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.0041160583496</t>
   </si>
   <si>
     <t xml:space="preserve">45.7807922363281</t>
@@ -245,10 +245,10 @@
     <t xml:space="preserve">45.4681434631348</t>
   </si>
   <si>
-    <t xml:space="preserve">45.512809753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.9147872924805</t>
+    <t xml:space="preserve">45.5128021240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.9147911071777</t>
   </si>
   <si>
     <t xml:space="preserve">45.3788185119629</t>
@@ -260,10 +260,10 @@
     <t xml:space="preserve">45.8254585266113</t>
   </si>
   <si>
-    <t xml:space="preserve">45.5574760437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4234848022461</t>
+    <t xml:space="preserve">45.5574684143066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4234809875488</t>
   </si>
   <si>
     <t xml:space="preserve">46.3614273071289</t>
@@ -272,25 +272,25 @@
     <t xml:space="preserve">46.2274322509766</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4061012268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8973960876465</t>
+    <t xml:space="preserve">46.4060974121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8973999023438</t>
   </si>
   <si>
     <t xml:space="preserve">46.7634086608887</t>
   </si>
   <si>
-    <t xml:space="preserve">46.8527374267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.2100524902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.6740798950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.5847549438477</t>
+    <t xml:space="preserve">46.8527336120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.2100486755371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.6740760803223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.5847511291504</t>
   </si>
   <si>
     <t xml:space="preserve">48.0285720825195</t>
@@ -302,19 +302,19 @@
     <t xml:space="preserve">47.7120018005371</t>
   </si>
   <si>
-    <t xml:space="preserve">48.5260543823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7973976135254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.7471084594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.2044219970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.1993675231934</t>
+    <t xml:space="preserve">48.526050567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.7973937988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.7471122741699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.204418182373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.1993598937988</t>
   </si>
   <si>
     <t xml:space="preserve">50.2898101806641</t>
@@ -326,85 +326,85 @@
     <t xml:space="preserve">49.7018890380859</t>
   </si>
   <si>
-    <t xml:space="preserve">50.6063804626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.7923355102539</t>
+    <t xml:space="preserve">50.6063842773438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.7923393249512</t>
   </si>
   <si>
     <t xml:space="preserve">50.3350372314453</t>
   </si>
   <si>
-    <t xml:space="preserve">49.6114311218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.1642532348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.3451538085938</t>
+    <t xml:space="preserve">49.611442565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.164249420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.3451499938965</t>
   </si>
   <si>
     <t xml:space="preserve">47.2145309448242</t>
   </si>
   <si>
-    <t xml:space="preserve">47.5311088562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7069435119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.9732322692871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.7622871398926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.5864486694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.6266174316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.5209884643555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.3802604675293</t>
+    <t xml:space="preserve">47.5311012268066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.7069396972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.9732360839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.7622833251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.5864410400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.6266136169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.5209922790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.380256652832</t>
   </si>
   <si>
     <t xml:space="preserve">51.0586318969727</t>
   </si>
   <si>
-    <t xml:space="preserve">48.7521705627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.5662117004395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.4707069396973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.6566619873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.2395286560059</t>
+    <t xml:space="preserve">48.7521667480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.5662155151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.4707107543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.6566696166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.2395248413086</t>
   </si>
   <si>
     <t xml:space="preserve">51.8726692199707</t>
   </si>
   <si>
-    <t xml:space="preserve">51.917896270752</t>
+    <t xml:space="preserve">51.9178924560547</t>
   </si>
   <si>
     <t xml:space="preserve">51.6013259887695</t>
   </si>
   <si>
-    <t xml:space="preserve">51.510871887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.2344665527344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.4605941772461</t>
+    <t xml:space="preserve">51.5108795166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.2344741821289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.4605903625488</t>
   </si>
   <si>
     <t xml:space="preserve">51.6465492248535</t>
@@ -413,7 +413,7 @@
     <t xml:space="preserve">51.4204254150391</t>
   </si>
   <si>
-    <t xml:space="preserve">50.9229545593262</t>
+    <t xml:space="preserve">50.9229507446289</t>
   </si>
   <si>
     <t xml:space="preserve">50.6968269348145</t>
@@ -425,16 +425,16 @@
     <t xml:space="preserve">50.8325080871582</t>
   </si>
   <si>
-    <t xml:space="preserve">52.2796936035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.2695808410645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.7721099853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.8574981689453</t>
+    <t xml:space="preserve">52.2796974182129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.2695770263672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.7721061706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.857494354248</t>
   </si>
   <si>
     <t xml:space="preserve">55.0383949279785</t>
@@ -443,43 +443,43 @@
     <t xml:space="preserve">56.0785598754883</t>
   </si>
   <si>
-    <t xml:space="preserve">54.8122711181641</t>
+    <t xml:space="preserve">54.8122673034668</t>
   </si>
   <si>
     <t xml:space="preserve">52.7319374084473</t>
   </si>
   <si>
-    <t xml:space="preserve">52.3249168395996</t>
+    <t xml:space="preserve">52.3249206542969</t>
   </si>
   <si>
     <t xml:space="preserve">51.3299751281738</t>
   </si>
   <si>
-    <t xml:space="preserve">52.0535659790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.2847518920898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.912841796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.4153709411621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0988006591797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0083427429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.5510406494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.7369956970215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.1038551330566</t>
+    <t xml:space="preserve">52.0535697937012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.2847557067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.9128303527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.4153633117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0987968444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0083541870117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.5510368347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.7369995117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.1038513183594</t>
   </si>
   <si>
     <t xml:space="preserve">50.1089134216309</t>
@@ -488,34 +488,34 @@
     <t xml:space="preserve">49.9280128479004</t>
   </si>
   <si>
-    <t xml:space="preserve">52.6414947509766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.1841850280762</t>
+    <t xml:space="preserve">52.6414909362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.1841812133789</t>
   </si>
   <si>
     <t xml:space="preserve">53.3650856018066</t>
   </si>
   <si>
-    <t xml:space="preserve">52.1892395019531</t>
+    <t xml:space="preserve">52.1892433166504</t>
   </si>
   <si>
     <t xml:space="preserve">53.0032844543457</t>
   </si>
   <si>
-    <t xml:space="preserve">53.2746353149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.9580688476562</t>
+    <t xml:space="preserve">53.2746391296387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.958065032959</t>
   </si>
   <si>
     <t xml:space="preserve">53.8625564575195</t>
   </si>
   <si>
-    <t xml:space="preserve">52.3701438903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.8274459838867</t>
+    <t xml:space="preserve">52.3701400756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.827449798584</t>
   </si>
   <si>
     <t xml:space="preserve">51.3751983642578</t>
@@ -524,16 +524,16 @@
     <t xml:space="preserve">50.7872848510742</t>
   </si>
   <si>
-    <t xml:space="preserve">51.5561027526855</t>
+    <t xml:space="preserve">51.5561065673828</t>
   </si>
   <si>
     <t xml:space="preserve">50.6516036987305</t>
   </si>
   <si>
-    <t xml:space="preserve">49.340087890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.2546997070312</t>
+    <t xml:space="preserve">49.3400917053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.254695892334</t>
   </si>
   <si>
     <t xml:space="preserve">48.4355964660645</t>
@@ -545,46 +545,46 @@
     <t xml:space="preserve">46.3100433349609</t>
   </si>
   <si>
-    <t xml:space="preserve">46.1291427612305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.9884071350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.2597579956055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.3552665710449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.7170639038086</t>
+    <t xml:space="preserve">46.1291389465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.988410949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.2597541809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.3552589416504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.7170600891113</t>
   </si>
   <si>
     <t xml:space="preserve">47.1693077087402</t>
   </si>
   <si>
-    <t xml:space="preserve">47.0336303710938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.5813903808594</t>
+    <t xml:space="preserve">47.0336380004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.5813865661621</t>
   </si>
   <si>
     <t xml:space="preserve">46.0386924743652</t>
   </si>
   <si>
-    <t xml:space="preserve">46.2648162841797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.124080657959</t>
+    <t xml:space="preserve">46.2648124694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.1240844726562</t>
   </si>
   <si>
     <t xml:space="preserve">46.8979568481445</t>
   </si>
   <si>
-    <t xml:space="preserve">47.8476791381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.0738067626953</t>
+    <t xml:space="preserve">47.8476867675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.073802947998</t>
   </si>
   <si>
     <t xml:space="preserve">49.8375587463379</t>
@@ -593,22 +593,22 @@
     <t xml:space="preserve">51.0134086608887</t>
   </si>
   <si>
-    <t xml:space="preserve">52.8223915100098</t>
+    <t xml:space="preserve">52.8223876953125</t>
   </si>
   <si>
     <t xml:space="preserve">51.1490783691406</t>
   </si>
   <si>
-    <t xml:space="preserve">49.4757690429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.2445869445801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.4656524658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.7822189331055</t>
+    <t xml:space="preserve">49.4757652282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.2445793151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.4656562805176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.7822227478027</t>
   </si>
   <si>
     <t xml:space="preserve">52.8676109313965</t>
@@ -617,124 +617,124 @@
     <t xml:space="preserve">53.1389617919922</t>
   </si>
   <si>
-    <t xml:space="preserve">54.04345703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.0886726379395</t>
+    <t xml:space="preserve">54.0434532165527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.0886764526367</t>
   </si>
   <si>
     <t xml:space="preserve">54.133903503418</t>
   </si>
   <si>
-    <t xml:space="preserve">54.3600234985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.5912094116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.9530067443848</t>
+    <t xml:space="preserve">54.3600196838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.5912017822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.953010559082</t>
   </si>
   <si>
     <t xml:space="preserve">54.5409240722656</t>
   </si>
   <si>
-    <t xml:space="preserve">55.4906425476074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.3046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.0333442687988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.2142448425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9830551147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.8473777770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.3499183654785</t>
+    <t xml:space="preserve">55.4906387329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.3046836853027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.0333404541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.214241027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9830627441406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.8473815917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.3499069213867</t>
   </si>
   <si>
     <t xml:space="preserve">57.525749206543</t>
   </si>
   <si>
-    <t xml:space="preserve">57.2544059753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.7066459655762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.7971000671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.1589012145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.0684471130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.7920417785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.6513137817383</t>
+    <t xml:space="preserve">57.2544097900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.706657409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.7971038818359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.1588973999023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.0684509277344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.792049407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.651309967041</t>
   </si>
   <si>
     <t xml:space="preserve">59.7869873046875</t>
   </si>
   <si>
-    <t xml:space="preserve">59.5156402587891</t>
+    <t xml:space="preserve">59.5156326293945</t>
   </si>
   <si>
     <t xml:space="preserve">58.8372764587402</t>
   </si>
   <si>
-    <t xml:space="preserve">57.8875503540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.1136741638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.3347320556641</t>
+    <t xml:space="preserve">57.8875465393066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.1136779785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.3347396850586</t>
   </si>
   <si>
     <t xml:space="preserve">60.781925201416</t>
   </si>
   <si>
-    <t xml:space="preserve">59.6965408325195</t>
+    <t xml:space="preserve">59.696533203125</t>
   </si>
   <si>
     <t xml:space="preserve">60.0583305358887</t>
   </si>
   <si>
-    <t xml:space="preserve">61.0532760620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.2291145324707</t>
+    <t xml:space="preserve">61.0532722473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.2291221618652</t>
   </si>
   <si>
     <t xml:space="preserve">64.218994140625</t>
   </si>
   <si>
-    <t xml:space="preserve">62.9527053833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.4100189208984</t>
+    <t xml:space="preserve">62.952709197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.4100151062012</t>
   </si>
   <si>
     <t xml:space="preserve">62.6813659667969</t>
   </si>
   <si>
-    <t xml:space="preserve">63.6310844421387</t>
+    <t xml:space="preserve">63.6310768127441</t>
   </si>
   <si>
     <t xml:space="preserve">63.4954032897949</t>
   </si>
   <si>
-    <t xml:space="preserve">63.1788215637207</t>
+    <t xml:space="preserve">63.1788330078125</t>
   </si>
   <si>
     <t xml:space="preserve">63.5406379699707</t>
@@ -743,85 +743,85 @@
     <t xml:space="preserve">63.3145065307617</t>
   </si>
   <si>
-    <t xml:space="preserve">61.6411972045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.9628219604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.7316360473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.4638137817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.7383842468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.8756675720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.1044654846191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.3332786560059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.2807731628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.2485046386719</t>
+    <t xml:space="preserve">61.6411933898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.9628257751465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.7316436767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.4638214111328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.7383880615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.875675201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.1044807434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.3332748413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.2807769775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.2484970092773</t>
   </si>
   <si>
     <t xml:space="preserve">64.5688323974609</t>
   </si>
   <si>
-    <t xml:space="preserve">64.2942733764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.3925399780273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.88916015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.6670989990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.3535079956055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.973934173584</t>
+    <t xml:space="preserve">64.2942657470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.3925170898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.8891677856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.6670913696289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.353515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.9739456176758</t>
   </si>
   <si>
     <t xml:space="preserve">63.8366546630859</t>
   </si>
   <si>
-    <t xml:space="preserve">65.3467788696289</t>
+    <t xml:space="preserve">65.3467712402344</t>
   </si>
   <si>
     <t xml:space="preserve">64.7061080932617</t>
   </si>
   <si>
-    <t xml:space="preserve">65.2552490234375</t>
+    <t xml:space="preserve">65.255241394043</t>
   </si>
   <si>
     <t xml:space="preserve">65.1179656982422</t>
   </si>
   <si>
-    <t xml:space="preserve">64.9806747436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.5365447998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.8689270019531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.4045829772949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.5486030578613</t>
+    <t xml:space="preserve">64.9806823730469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.5365524291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.8689231872559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.4045753479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.5485992431641</t>
   </si>
   <si>
     <t xml:space="preserve">60.9537048339844</t>
@@ -833,28 +833,28 @@
     <t xml:space="preserve">61.3197975158691</t>
   </si>
   <si>
-    <t xml:space="preserve">60.4503402709961</t>
+    <t xml:space="preserve">60.4503364562988</t>
   </si>
   <si>
     <t xml:space="preserve">61.4113159179688</t>
   </si>
   <si>
-    <t xml:space="preserve">62.2350120544434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.1960029602051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.0196838378906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.3857879638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.2027435302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.9281578063965</t>
+    <t xml:space="preserve">62.2350082397461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.1960067749023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.0196990966797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.3857803344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.2027282714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.9281730651855</t>
   </si>
   <si>
     <t xml:space="preserve">67.085693359375</t>
@@ -863,19 +863,19 @@
     <t xml:space="preserve">67.6348190307617</t>
   </si>
   <si>
-    <t xml:space="preserve">66.8568725585938</t>
+    <t xml:space="preserve">66.8568878173828</t>
   </si>
   <si>
     <t xml:space="preserve">67.3602523803711</t>
   </si>
   <si>
-    <t xml:space="preserve">67.1772003173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.8111114501953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.7196044921875</t>
+    <t xml:space="preserve">67.1772079467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.8111190795898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.719596862793</t>
   </si>
   <si>
     <t xml:space="preserve">66.4450302124023</t>
@@ -884,28 +884,28 @@
     <t xml:space="preserve">65.8501358032227</t>
   </si>
   <si>
-    <t xml:space="preserve">66.0331878662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.575569152832</t>
+    <t xml:space="preserve">66.0331954956055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.5755767822266</t>
   </si>
   <si>
     <t xml:space="preserve">65.6213302612305</t>
   </si>
   <si>
-    <t xml:space="preserve">65.4840545654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.3010101318359</t>
+    <t xml:space="preserve">65.4840469360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.3010025024414</t>
   </si>
   <si>
     <t xml:space="preserve">64.7976379394531</t>
   </si>
   <si>
-    <t xml:space="preserve">64.111213684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.2619934082031</t>
+    <t xml:space="preserve">64.1112213134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.2619857788086</t>
   </si>
   <si>
     <t xml:space="preserve">66.307746887207</t>
@@ -914,25 +914,25 @@
     <t xml:space="preserve">67.1314544677734</t>
   </si>
   <si>
-    <t xml:space="preserve">67.451774597168</t>
+    <t xml:space="preserve">67.4517822265625</t>
   </si>
   <si>
     <t xml:space="preserve">67.3144912719727</t>
   </si>
   <si>
-    <t xml:space="preserve">67.7263412475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.9026336669922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.2229614257812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.9551391601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.5433044433594</t>
+    <t xml:space="preserve">67.7263336181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.9026412963867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.2229690551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.9551467895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.5432891845703</t>
   </si>
   <si>
     <t xml:space="preserve">68.2754745483398</t>
@@ -941,46 +941,46 @@
     <t xml:space="preserve">69.4194946289062</t>
   </si>
   <si>
-    <t xml:space="preserve">69.0076446533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.7330932617188</t>
+    <t xml:space="preserve">69.0076522827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.7330856323242</t>
   </si>
   <si>
     <t xml:space="preserve">68.8246154785156</t>
   </si>
   <si>
-    <t xml:space="preserve">69.0534133911133</t>
+    <t xml:space="preserve">69.0534057617188</t>
   </si>
   <si>
     <t xml:space="preserve">70.0143890380859</t>
   </si>
   <si>
-    <t xml:space="preserve">71.2041778564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.2957000732422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.8973388671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.3024444580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.4397354125977</t>
+    <t xml:space="preserve">71.2042007446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.2957153320312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.897331237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.3024520874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.4397430419922</t>
   </si>
   <si>
     <t xml:space="preserve">71.7533111572266</t>
   </si>
   <si>
-    <t xml:space="preserve">72.0736312866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.7210464477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.7990570068359</t>
+    <t xml:space="preserve">72.0736465454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.7210388183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.799072265625</t>
   </si>
   <si>
     <t xml:space="preserve">71.1584167480469</t>
@@ -989,22 +989,22 @@
     <t xml:space="preserve">71.2499389648438</t>
   </si>
   <si>
-    <t xml:space="preserve">71.4329833984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.6617965698242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.7075347900391</t>
+    <t xml:space="preserve">71.432991027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.6617813110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.7075500488281</t>
   </si>
   <si>
     <t xml:space="preserve">71.3872222900391</t>
   </si>
   <si>
-    <t xml:space="preserve">71.4787521362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.2566757202148</t>
+    <t xml:space="preserve">71.4787445068359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.2566833496094</t>
   </si>
   <si>
     <t xml:space="preserve">71.3414611816406</t>
@@ -1013,37 +1013,37 @@
     <t xml:space="preserve">72.4854888916016</t>
   </si>
   <si>
-    <t xml:space="preserve">71.8906021118164</t>
+    <t xml:space="preserve">71.8905868530273</t>
   </si>
   <si>
     <t xml:space="preserve">71.6160202026367</t>
   </si>
   <si>
-    <t xml:space="preserve">65.9416656494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.3992767333984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.3212356567383</t>
+    <t xml:space="preserve">65.9416580200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.3992614746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.3212432861328</t>
   </si>
   <si>
     <t xml:space="preserve">68.6873321533203</t>
   </si>
   <si>
-    <t xml:space="preserve">70.1516799926758</t>
+    <t xml:space="preserve">70.1516723632812</t>
   </si>
   <si>
     <t xml:space="preserve">70.9296188354492</t>
   </si>
   <si>
-    <t xml:space="preserve">70.6550369262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.8771133422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.1839599609375</t>
+    <t xml:space="preserve">70.655029296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.8770980834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.183952331543</t>
   </si>
   <si>
     <t xml:space="preserve">69.236457824707</t>
@@ -1052,13 +1052,13 @@
     <t xml:space="preserve">69.9228744506836</t>
   </si>
   <si>
-    <t xml:space="preserve">70.0601577758789</t>
+    <t xml:space="preserve">70.0601654052734</t>
   </si>
   <si>
     <t xml:space="preserve">70.8380966186523</t>
   </si>
   <si>
-    <t xml:space="preserve">71.06689453125</t>
+    <t xml:space="preserve">71.0669021606445</t>
   </si>
   <si>
     <t xml:space="preserve">72.8058166503906</t>
@@ -1067,43 +1067,43 @@
     <t xml:space="preserve">73.5379943847656</t>
   </si>
   <si>
-    <t xml:space="preserve">70.7923355102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.3737335205078</t>
+    <t xml:space="preserve">70.7923278808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.3737411499023</t>
   </si>
   <si>
     <t xml:space="preserve">69.2822113037109</t>
   </si>
   <si>
-    <t xml:space="preserve">68.13818359375</t>
+    <t xml:space="preserve">68.1381912231445</t>
   </si>
   <si>
     <t xml:space="preserve">68.504280090332</t>
   </si>
   <si>
-    <t xml:space="preserve">70.2889556884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.2634353637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.7142944335938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.5312576293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.8515777587891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.9431076049805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.6227798461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.3939666748047</t>
+    <t xml:space="preserve">70.2889709472656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.263427734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.7142868041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.53125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.8515853881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.9430923461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.6227569580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.3939590454102</t>
   </si>
   <si>
     <t xml:space="preserve">72.3482131958008</t>
@@ -1112,25 +1112,25 @@
     <t xml:space="preserve">72.577018737793</t>
   </si>
   <si>
-    <t xml:space="preserve">72.165153503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.7008056640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.6685485839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.9618835449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.8178634643555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.6536064147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.1637115478516</t>
+    <t xml:space="preserve">72.165168762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.7008209228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.6685409545898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.9618911743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.8178787231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.6536102294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.1637268066406</t>
   </si>
   <si>
     <t xml:space="preserve">64.0654525756836</t>
@@ -1139,94 +1139,94 @@
     <t xml:space="preserve">64.4315490722656</t>
   </si>
   <si>
-    <t xml:space="preserve">63.8824157714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.7451324462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.5620880126953</t>
+    <t xml:space="preserve">63.8824195861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.7451362609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.562084197998</t>
   </si>
   <si>
     <t xml:space="preserve">62.6926345825195</t>
   </si>
   <si>
-    <t xml:space="preserve">61.7316436767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.7706642150879</t>
+    <t xml:space="preserve">61.7316474914551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.7706604003906</t>
   </si>
   <si>
     <t xml:space="preserve">60.4960975646973</t>
   </si>
   <si>
-    <t xml:space="preserve">61.6401176452637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.6011161804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.6145935058594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.4127655029297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.5890502929688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.0789489746094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.7128601074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.4907913208008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.1247024536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.2687225341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.1449432373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.0211334228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.7398300170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.7465591430664</t>
+    <t xml:space="preserve">61.6401214599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.6011047363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.6145858764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.4127502441406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.5890579223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.0789413452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.7128524780273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.4907836914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.1247100830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.2687301635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.1449356079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.021125793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.7398223876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.7465667724609</t>
   </si>
   <si>
     <t xml:space="preserve">71.5245056152344</t>
   </si>
   <si>
-    <t xml:space="preserve">72.0278701782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.9821243286133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.5837631225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.6362686157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.4007110595703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.4074554443359</t>
+    <t xml:space="preserve">72.0278778076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.9821319580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.5837554931641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.6362609863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.4007034301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.4074630737305</t>
   </si>
   <si>
     <t xml:space="preserve">74.1328811645508</t>
   </si>
   <si>
-    <t xml:space="preserve">74.3159332275391</t>
+    <t xml:space="preserve">74.3159408569336</t>
   </si>
   <si>
     <t xml:space="preserve">75.6429977416992</t>
@@ -1235,7 +1235,7 @@
     <t xml:space="preserve">74.4989700317383</t>
   </si>
   <si>
-    <t xml:space="preserve">75.1463851928711</t>
+    <t xml:space="preserve">75.1464004516602</t>
   </si>
   <si>
     <t xml:space="preserve">75.7475662231445</t>
@@ -1247,49 +1247,49 @@
     <t xml:space="preserve">75.8862991333008</t>
   </si>
   <si>
-    <t xml:space="preserve">77.8285522460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.7649230957031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.1001434326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.2447204589844</t>
+    <t xml:space="preserve">77.8285446166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.7649307250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.1001510620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.2447357177734</t>
   </si>
   <si>
     <t xml:space="preserve">76.3949813842773</t>
   </si>
   <si>
-    <t xml:space="preserve">79.0771179199219</t>
+    <t xml:space="preserve">79.0771255493164</t>
   </si>
   <si>
     <t xml:space="preserve">80.9268798828125</t>
   </si>
   <si>
-    <t xml:space="preserve">81.6205368041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.3893203735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.75927734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.2968368530273</t>
+    <t xml:space="preserve">81.6205444335938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.3893280029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.7592620849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.2968292236328</t>
   </si>
   <si>
     <t xml:space="preserve">82.267951965332</t>
   </si>
   <si>
-    <t xml:space="preserve">84.163948059082</t>
+    <t xml:space="preserve">84.1639556884766</t>
   </si>
   <si>
     <t xml:space="preserve">85.4587860107422</t>
   </si>
   <si>
-    <t xml:space="preserve">86.3374176025391</t>
+    <t xml:space="preserve">86.3374252319336</t>
   </si>
   <si>
     <t xml:space="preserve">86.0137176513672</t>
@@ -1301,25 +1301,25 @@
     <t xml:space="preserve">84.1177215576172</t>
   </si>
   <si>
-    <t xml:space="preserve">82.7766418457031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.4529418945312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.7883453369141</t>
+    <t xml:space="preserve">82.7766342163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.4529342651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.7883529663086</t>
   </si>
   <si>
     <t xml:space="preserve">87.9097213745117</t>
   </si>
   <si>
-    <t xml:space="preserve">88.5108871459961</t>
+    <t xml:space="preserve">88.5108795166016</t>
   </si>
   <si>
     <t xml:space="preserve">89.9906997680664</t>
   </si>
   <si>
-    <t xml:space="preserve">89.112060546875</t>
+    <t xml:space="preserve">89.1120529174805</t>
   </si>
   <si>
     <t xml:space="preserve">90.3606414794922</t>
@@ -1337,25 +1337,25 @@
     <t xml:space="preserve">88.3721542358398</t>
   </si>
   <si>
-    <t xml:space="preserve">88.603385925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.6958618164062</t>
+    <t xml:space="preserve">88.6033782958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.6958694458008</t>
   </si>
   <si>
     <t xml:space="preserve">88.9270858764648</t>
   </si>
   <si>
-    <t xml:space="preserve">90.8230743408203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.3143997192383</t>
+    <t xml:space="preserve">90.8230819702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.3144073486328</t>
   </si>
   <si>
     <t xml:space="preserve">90.5456237792969</t>
   </si>
   <si>
-    <t xml:space="preserve">89.2507934570312</t>
+    <t xml:space="preserve">89.2507858276367</t>
   </si>
   <si>
     <t xml:space="preserve">88.7421035766602</t>
@@ -1367,16 +1367,16 @@
     <t xml:space="preserve">87.4010391235352</t>
   </si>
   <si>
-    <t xml:space="preserve">86.9385986328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.2623062133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.5050354003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.5512771606445</t>
+    <t xml:space="preserve">86.938591003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.2622985839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.5050277709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.5512847900391</t>
   </si>
   <si>
     <t xml:space="preserve">84.9038619995117</t>
@@ -1385,37 +1385,37 @@
     <t xml:space="preserve">78.6609268188477</t>
   </si>
   <si>
-    <t xml:space="preserve">80.7881546020508</t>
+    <t xml:space="preserve">80.7881317138672</t>
   </si>
   <si>
     <t xml:space="preserve">82.0829772949219</t>
   </si>
   <si>
-    <t xml:space="preserve">81.2505798339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.4818115234375</t>
+    <t xml:space="preserve">81.2505874633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.481803894043</t>
   </si>
   <si>
     <t xml:space="preserve">80.371955871582</t>
   </si>
   <si>
-    <t xml:space="preserve">81.5280609130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.0482482910156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.3257064819336</t>
+    <t xml:space="preserve">81.5280532836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.0482559204102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.3257141113281</t>
   </si>
   <si>
     <t xml:space="preserve">86.1986846923828</t>
   </si>
   <si>
-    <t xml:space="preserve">86.7073745727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.6263809204102</t>
+    <t xml:space="preserve">86.7073822021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.6263961791992</t>
   </si>
   <si>
     <t xml:space="preserve">84.9500961303711</t>
@@ -1427,16 +1427,16 @@
     <t xml:space="preserve">84.3026885986328</t>
   </si>
   <si>
-    <t xml:space="preserve">84.8113784790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.9212265014648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.7536163330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.4125366210938</t>
+    <t xml:space="preserve">84.8113632202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.9212188720703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.7536239624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.4125518798828</t>
   </si>
   <si>
     <t xml:space="preserve">82.6841583251953</t>
@@ -1451,16 +1451,16 @@
     <t xml:space="preserve">82.3142013549805</t>
   </si>
   <si>
-    <t xml:space="preserve">83.8864974975586</t>
+    <t xml:space="preserve">83.8864898681641</t>
   </si>
   <si>
     <t xml:space="preserve">88.6496124267578</t>
   </si>
   <si>
-    <t xml:space="preserve">89.8982009887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.3200531005859</t>
+    <t xml:space="preserve">89.8982086181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.3200607299805</t>
   </si>
   <si>
     <t xml:space="preserve">86.106201171875</t>
@@ -1475,16 +1475,16 @@
     <t xml:space="preserve">84.4414215087891</t>
   </si>
   <si>
-    <t xml:space="preserve">82.4991836547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.2794723510742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.1175231933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.3776092529297</t>
+    <t xml:space="preserve">82.4991760253906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.2794799804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.1175155639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.3776168823242</t>
   </si>
   <si>
     <t xml:space="preserve">74.2677536010742</t>
@@ -1499,25 +1499,25 @@
     <t xml:space="preserve">73.5278549194336</t>
   </si>
   <si>
-    <t xml:space="preserve">73.8515701293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.470100402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.8400497436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.2099990844727</t>
+    <t xml:space="preserve">73.8515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.4700927734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.8400573730469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.2100067138672</t>
   </si>
   <si>
     <t xml:space="preserve">77.4123382568359</t>
   </si>
   <si>
-    <t xml:space="preserve">73.7590713500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.7764358520508</t>
+    <t xml:space="preserve">73.7590637207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.7764282226562</t>
   </si>
   <si>
     <t xml:space="preserve">73.2041473388672</t>
@@ -1526,16 +1526,16 @@
     <t xml:space="preserve">74.915168762207</t>
   </si>
   <si>
-    <t xml:space="preserve">76.025016784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.5048370361328</t>
+    <t xml:space="preserve">76.0250244140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.5048217773438</t>
   </si>
   <si>
     <t xml:space="preserve">80.9731292724609</t>
   </si>
   <si>
-    <t xml:space="preserve">76.3024826049805</t>
+    <t xml:space="preserve">76.3024978637695</t>
   </si>
   <si>
     <t xml:space="preserve">77.0886383056641</t>
@@ -1544,10 +1544,10 @@
     <t xml:space="preserve">73.9902877807617</t>
   </si>
   <si>
-    <t xml:space="preserve">71.4468688964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.5856018066406</t>
+    <t xml:space="preserve">71.4468765258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.5856094360352</t>
   </si>
   <si>
     <t xml:space="preserve">72.0018081665039</t>
@@ -1556,19 +1556,19 @@
     <t xml:space="preserve">72.8804397583008</t>
   </si>
   <si>
-    <t xml:space="preserve">74.0365447998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.2503814697266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.95556640625</t>
+    <t xml:space="preserve">74.0365295410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.2503967285156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.9555740356445</t>
   </si>
   <si>
     <t xml:space="preserve">71.7705764770508</t>
   </si>
   <si>
-    <t xml:space="preserve">69.4583969116211</t>
+    <t xml:space="preserve">69.4583892822266</t>
   </si>
   <si>
     <t xml:space="preserve">69.3658981323242</t>
@@ -1580,79 +1580,79 @@
     <t xml:space="preserve">72.233024597168</t>
   </si>
   <si>
-    <t xml:space="preserve">67.6548767089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.2560501098633</t>
+    <t xml:space="preserve">67.6548843383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.2560424804688</t>
   </si>
   <si>
     <t xml:space="preserve">67.7936096191406</t>
   </si>
   <si>
-    <t xml:space="preserve">67.4698944091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.4410247802734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.7011184692383</t>
+    <t xml:space="preserve">67.4698867797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.4410171508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.7011108398438</t>
   </si>
   <si>
     <t xml:space="preserve">66.3600387573242</t>
   </si>
   <si>
-    <t xml:space="preserve">64.833984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.2501907348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.111457824707</t>
+    <t xml:space="preserve">64.8339996337891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.2501983642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.1114501953125</t>
   </si>
   <si>
     <t xml:space="preserve">65.6201400756836</t>
   </si>
   <si>
-    <t xml:space="preserve">67.0074615478516</t>
+    <t xml:space="preserve">67.0074462890625</t>
   </si>
   <si>
     <t xml:space="preserve">65.7744827270508</t>
   </si>
   <si>
-    <t xml:space="preserve">67.0548706054688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.5291061401367</t>
+    <t xml:space="preserve">67.0548782348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.5290985107422</t>
   </si>
   <si>
     <t xml:space="preserve">67.1497268676758</t>
   </si>
   <si>
-    <t xml:space="preserve">70.8960647583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.3744201660156</t>
+    <t xml:space="preserve">70.8960723876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.3744125366211</t>
   </si>
   <si>
     <t xml:space="preserve">70.0899047851562</t>
   </si>
   <si>
-    <t xml:space="preserve">70.5166931152344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.6548233032227</t>
+    <t xml:space="preserve">70.5167007446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.6548309326172</t>
   </si>
   <si>
     <t xml:space="preserve">71.0383377075195</t>
   </si>
   <si>
-    <t xml:space="preserve">70.6589584350586</t>
+    <t xml:space="preserve">70.6589660644531</t>
   </si>
   <si>
     <t xml:space="preserve">71.7970962524414</t>
   </si>
   <si>
-    <t xml:space="preserve">73.5042877197266</t>
+    <t xml:space="preserve">73.504280090332</t>
   </si>
   <si>
     <t xml:space="preserve">73.9785079956055</t>
@@ -1661,19 +1661,19 @@
     <t xml:space="preserve">76.2073440551758</t>
   </si>
   <si>
-    <t xml:space="preserve">76.0650787353516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.9228286743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.5434417724609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.0176544189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.2547607421875</t>
+    <t xml:space="preserve">76.0650863647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.9228210449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.5434341430664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.0176620483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.254768371582</t>
   </si>
   <si>
     <t xml:space="preserve">75.6382827758789</t>
@@ -1682,7 +1682,7 @@
     <t xml:space="preserve">77.5351638793945</t>
   </si>
   <si>
-    <t xml:space="preserve">77.1083679199219</t>
+    <t xml:space="preserve">77.1083755493164</t>
   </si>
   <si>
     <t xml:space="preserve">75.8279724121094</t>
@@ -1694,43 +1694,43 @@
     <t xml:space="preserve">77.9619674682617</t>
   </si>
   <si>
-    <t xml:space="preserve">79.7165908813477</t>
+    <t xml:space="preserve">79.7165985107422</t>
   </si>
   <si>
     <t xml:space="preserve">79.6217346191406</t>
   </si>
   <si>
-    <t xml:space="preserve">80.7124557495117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.28564453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.6176071166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.2382202148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.4279327392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.8072967529297</t>
+    <t xml:space="preserve">80.7124404907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.2856521606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.6175994873047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.2382278442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.4279174804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.8072891235352</t>
   </si>
   <si>
     <t xml:space="preserve">81.0444030761719</t>
   </si>
   <si>
-    <t xml:space="preserve">80.0485458374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.9021377563477</t>
+    <t xml:space="preserve">80.0485382080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.9021453857422</t>
   </si>
   <si>
     <t xml:space="preserve">81.7083129882812</t>
   </si>
   <si>
-    <t xml:space="preserve">81.3289337158203</t>
+    <t xml:space="preserve">81.3289489746094</t>
   </si>
   <si>
     <t xml:space="preserve">81.8031539916992</t>
@@ -1739,7 +1739,7 @@
     <t xml:space="preserve">83.0835571289062</t>
   </si>
   <si>
-    <t xml:space="preserve">82.7516098022461</t>
+    <t xml:space="preserve">82.751594543457</t>
   </si>
   <si>
     <t xml:space="preserve">82.4196472167969</t>
@@ -1760,19 +1760,19 @@
     <t xml:space="preserve">81.3763656616211</t>
   </si>
   <si>
-    <t xml:space="preserve">80.9969787597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.3206634521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.5577774047852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.0794219970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.316535949707</t>
+    <t xml:space="preserve">80.9969863891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.3206558227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.5577697753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.0794296264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.3165283203125</t>
   </si>
   <si>
     <t xml:space="preserve">83.9845809936523</t>
@@ -1781,7 +1781,7 @@
     <t xml:space="preserve">84.7433242797852</t>
   </si>
   <si>
-    <t xml:space="preserve">84.0319900512695</t>
+    <t xml:space="preserve">84.0319976806641</t>
   </si>
   <si>
     <t xml:space="preserve">85.1227111816406</t>
@@ -1793,13 +1793,13 @@
     <t xml:space="preserve">85.881462097168</t>
   </si>
   <si>
-    <t xml:space="preserve">86.8773193359375</t>
+    <t xml:space="preserve">86.8773345947266</t>
   </si>
   <si>
     <t xml:space="preserve">87.9680328369141</t>
   </si>
   <si>
-    <t xml:space="preserve">87.2566986083984</t>
+    <t xml:space="preserve">87.2567138671875</t>
   </si>
   <si>
     <t xml:space="preserve">86.9247512817383</t>
@@ -1808,7 +1808,7 @@
     <t xml:space="preserve">86.7824783325195</t>
   </si>
   <si>
-    <t xml:space="preserve">86.3082580566406</t>
+    <t xml:space="preserve">86.3082656860352</t>
   </si>
   <si>
     <t xml:space="preserve">86.2134170532227</t>
@@ -1817,37 +1817,37 @@
     <t xml:space="preserve">86.7350616455078</t>
   </si>
   <si>
-    <t xml:space="preserve">83.1309814453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.7598648071289</t>
+    <t xml:space="preserve">83.130973815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.759880065918</t>
   </si>
   <si>
     <t xml:space="preserve">81.2815093994141</t>
   </si>
   <si>
-    <t xml:space="preserve">82.6093215942383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.8938751220703</t>
+    <t xml:space="preserve">82.6093368530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.8938674926758</t>
   </si>
   <si>
     <t xml:space="preserve">84.8855972290039</t>
   </si>
   <si>
-    <t xml:space="preserve">85.2649688720703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.3598175048828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.4030990600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.2958526611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.6236724853516</t>
+    <t xml:space="preserve">85.2649765014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.3598098754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.4031066894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.2958602905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.6236801147461</t>
   </si>
   <si>
     <t xml:space="preserve">92.4257049560547</t>
@@ -1862,58 +1862,58 @@
     <t xml:space="preserve">92.3304290771484</t>
   </si>
   <si>
-    <t xml:space="preserve">93.3355865478516</t>
+    <t xml:space="preserve">93.335578918457</t>
   </si>
   <si>
     <t xml:space="preserve">92.7133407592773</t>
   </si>
   <si>
-    <t xml:space="preserve">91.9953765869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91.7560577392578</t>
+    <t xml:space="preserve">91.9953842163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91.7560501098633</t>
   </si>
   <si>
     <t xml:space="preserve">90.3201217651367</t>
   </si>
   <si>
-    <t xml:space="preserve">89.4585571289062</t>
+    <t xml:space="preserve">89.4585647583008</t>
   </si>
   <si>
     <t xml:space="preserve">89.9372100830078</t>
   </si>
   <si>
-    <t xml:space="preserve">87.6397247314453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91.2295455932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.5218963623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93.1441345214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94.2928771972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.7818069458008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.6433715820312</t>
+    <t xml:space="preserve">87.6397171020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91.2295532226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92.5218887329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93.1441268920898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94.2928695678711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.7818145751953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.6433792114258</t>
   </si>
   <si>
     <t xml:space="preserve">95.0108337402344</t>
   </si>
   <si>
-    <t xml:space="preserve">98.3134765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.0792999267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.610961914062</t>
+    <t xml:space="preserve">98.3134841918945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.0793075561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.610969543457</t>
   </si>
   <si>
     <t xml:space="preserve">102.621269226074</t>
@@ -1922,28 +1922,28 @@
     <t xml:space="preserve">99.9408721923828</t>
   </si>
   <si>
-    <t xml:space="preserve">100.515243530273</t>
+    <t xml:space="preserve">100.515235900879</t>
   </si>
   <si>
     <t xml:space="preserve">98.1220169067383</t>
   </si>
   <si>
-    <t xml:space="preserve">98.8878555297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.1647262573242</t>
+    <t xml:space="preserve">98.8878631591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.1647338867188</t>
   </si>
   <si>
     <t xml:space="preserve">97.5476531982422</t>
   </si>
   <si>
-    <t xml:space="preserve">97.7391052246094</t>
+    <t xml:space="preserve">97.7390975952148</t>
   </si>
   <si>
     <t xml:space="preserve">98.5049438476562</t>
   </si>
   <si>
-    <t xml:space="preserve">98.2177581787109</t>
+    <t xml:space="preserve">98.2177505493164</t>
   </si>
   <si>
     <t xml:space="preserve">100.802436828613</t>
@@ -1958,31 +1958,31 @@
     <t xml:space="preserve">99.4622268676758</t>
   </si>
   <si>
-    <t xml:space="preserve">98.4092102050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.792121887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.4519271850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.9732818603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.0690155029297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.6860885620117</t>
+    <t xml:space="preserve">98.4092178344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.7921142578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.4519195556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.973274230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.0690078735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.6860961914062</t>
   </si>
   <si>
     <t xml:space="preserve">98.0262908935547</t>
   </si>
   <si>
-    <t xml:space="preserve">103.387107849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101.759712219238</t>
+    <t xml:space="preserve">103.387100219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101.759719848633</t>
   </si>
   <si>
     <t xml:space="preserve">100.419509887695</t>
@@ -1994,43 +1994,43 @@
     <t xml:space="preserve">101.951171875</t>
   </si>
   <si>
-    <t xml:space="preserve">101.376800537109</t>
+    <t xml:space="preserve">101.376792907715</t>
   </si>
   <si>
     <t xml:space="preserve">101.185348510742</t>
   </si>
   <si>
-    <t xml:space="preserve">99.6536865234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101.472534179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.674301147461</t>
+    <t xml:space="preserve">99.653678894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101.472518920898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.674293518066</t>
   </si>
   <si>
     <t xml:space="preserve">103.482833862305</t>
   </si>
   <si>
-    <t xml:space="preserve">105.110237121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104.344398498535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101.281074523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102.429824829102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.004180908203</t>
+    <t xml:space="preserve">105.110229492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104.344390869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101.28108215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102.429817199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.004188537598</t>
   </si>
   <si>
     <t xml:space="preserve">105.014495849609</t>
   </si>
   <si>
-    <t xml:space="preserve">104.823036193848</t>
+    <t xml:space="preserve">104.823043823242</t>
   </si>
   <si>
     <t xml:space="preserve">104.248664855957</t>
@@ -2045,49 +2045,49 @@
     <t xml:space="preserve">97.9305648803711</t>
   </si>
   <si>
-    <t xml:space="preserve">99.3664932250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.323783874512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102.23836517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101.568252563477</t>
+    <t xml:space="preserve">99.3665008544922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.323791503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102.238372802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101.568260192871</t>
   </si>
   <si>
     <t xml:space="preserve">100.993881225586</t>
   </si>
   <si>
-    <t xml:space="preserve">102.142631530762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.898162841797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.6330718994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.9202651977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.058708190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.2980194091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.4894866943359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.8245315551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.7288055419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.8090744018555</t>
+    <t xml:space="preserve">102.142639160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.898155212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.6330795288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.9202575683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.0587005615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.2980346679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.4894714355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.8245391845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.7288131713867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92.8090667724609</t>
   </si>
   <si>
     <t xml:space="preserve">93.5270385742188</t>
@@ -2108,52 +2108,52 @@
     <t xml:space="preserve">94.3407363891602</t>
   </si>
   <si>
-    <t xml:space="preserve">96.5903701782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.0159912109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.132331848145</t>
+    <t xml:space="preserve">96.5903625488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.015983581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.13232421875</t>
   </si>
   <si>
     <t xml:space="preserve">99.1750335693359</t>
   </si>
   <si>
-    <t xml:space="preserve">102.046905517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104.440124511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105.971786499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107.311988830566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.609474182129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.035110473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.471038818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.013008117676</t>
+    <t xml:space="preserve">102.046897888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104.440116882324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105.971778869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107.311981201172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.609481811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.035102844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.471046447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.01301574707</t>
   </si>
   <si>
     <t xml:space="preserve">115.257469177246</t>
   </si>
   <si>
-    <t xml:space="preserve">114.68310546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.970283508301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.119041442871</t>
+    <t xml:space="preserve">114.683113098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.970291137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.119033813477</t>
   </si>
   <si>
     <t xml:space="preserve">113.247177124023</t>
@@ -2168,10 +2168,10 @@
     <t xml:space="preserve">118.703712463379</t>
   </si>
   <si>
-    <t xml:space="preserve">118.512260437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.789138793945</t>
+    <t xml:space="preserve">118.512268066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.78914642334</t>
   </si>
   <si>
     <t xml:space="preserve">115.831855773926</t>
@@ -2180,16 +2180,16 @@
     <t xml:space="preserve">114.874565124512</t>
   </si>
   <si>
-    <t xml:space="preserve">111.045402526855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.672798156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.00269317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.715515136719</t>
+    <t xml:space="preserve">111.04541015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.672805786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.002700805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.715507507324</t>
   </si>
   <si>
     <t xml:space="preserve">112.57706451416</t>
@@ -2198,25 +2198,25 @@
     <t xml:space="preserve">113.15145111084</t>
   </si>
   <si>
-    <t xml:space="preserve">112.481346130371</t>
+    <t xml:space="preserve">112.481338500977</t>
   </si>
   <si>
     <t xml:space="preserve">111.524055480957</t>
   </si>
   <si>
-    <t xml:space="preserve">111.236869812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.896667480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.342903137207</t>
+    <t xml:space="preserve">111.236862182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.896659851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.342895507812</t>
   </si>
   <si>
     <t xml:space="preserve">113.725814819336</t>
   </si>
   <si>
-    <t xml:space="preserve">114.395927429199</t>
+    <t xml:space="preserve">114.39591217041</t>
   </si>
   <si>
     <t xml:space="preserve">112.289886474609</t>
@@ -2237,13 +2237,13 @@
     <t xml:space="preserve">109.226570129395</t>
   </si>
   <si>
-    <t xml:space="preserve">110.183860778809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107.790634155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.566772460938</t>
+    <t xml:space="preserve">110.183853149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107.790626525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.566764831543</t>
   </si>
   <si>
     <t xml:space="preserve">110.662490844727</t>
@@ -2258,7 +2258,7 @@
     <t xml:space="preserve">107.120529174805</t>
   </si>
   <si>
-    <t xml:space="preserve">109.130828857422</t>
+    <t xml:space="preserve">109.130844116211</t>
   </si>
   <si>
     <t xml:space="preserve">109.800926208496</t>
@@ -2267,49 +2267,49 @@
     <t xml:space="preserve">109.705207824707</t>
   </si>
   <si>
-    <t xml:space="preserve">111.619789123535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.736129760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.927574157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.332595825195</t>
+    <t xml:space="preserve">111.619781494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.736122131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.927581787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.33260345459</t>
   </si>
   <si>
     <t xml:space="preserve">105.876052856445</t>
   </si>
   <si>
-    <t xml:space="preserve">100.036590576172</t>
+    <t xml:space="preserve">100.036598205566</t>
   </si>
   <si>
     <t xml:space="preserve">108.173545837402</t>
   </si>
   <si>
-    <t xml:space="preserve">104.918762207031</t>
+    <t xml:space="preserve">104.918769836426</t>
   </si>
   <si>
     <t xml:space="preserve">103.195648193359</t>
   </si>
   <si>
-    <t xml:space="preserve">101.089614868164</t>
+    <t xml:space="preserve">101.089622497559</t>
   </si>
   <si>
     <t xml:space="preserve">109.51375579834</t>
   </si>
   <si>
-    <t xml:space="preserve">106.833343505859</t>
+    <t xml:space="preserve">106.833335876465</t>
   </si>
   <si>
     <t xml:space="preserve">111.811241149902</t>
   </si>
   <si>
-    <t xml:space="preserve">110.279571533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107.886360168457</t>
+    <t xml:space="preserve">110.279579162598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107.886352539062</t>
   </si>
   <si>
     <t xml:space="preserve">105.780326843262</t>
@@ -2318,25 +2318,25 @@
     <t xml:space="preserve">103.865753173828</t>
   </si>
   <si>
-    <t xml:space="preserve">115.54467010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.055709838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119.565277099609</t>
+    <t xml:space="preserve">115.544662475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.055717468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.565284729004</t>
   </si>
   <si>
     <t xml:space="preserve">123.873069763184</t>
   </si>
   <si>
-    <t xml:space="preserve">127.702217102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.02033996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">143.401733398438</t>
+    <t xml:space="preserve">127.702209472656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.020324707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143.401748657227</t>
   </si>
   <si>
     <t xml:space="preserve">143.688934326172</t>
@@ -2348,13 +2348,13 @@
     <t xml:space="preserve">146.943710327148</t>
   </si>
   <si>
-    <t xml:space="preserve">146.082138061523</t>
+    <t xml:space="preserve">146.082153320312</t>
   </si>
   <si>
     <t xml:space="preserve">157.952529907227</t>
   </si>
   <si>
-    <t xml:space="preserve">152.30451965332</t>
+    <t xml:space="preserve">152.304534912109</t>
   </si>
   <si>
     <t xml:space="preserve">155.655029296875</t>
@@ -2369,7 +2369,7 @@
     <t xml:space="preserve">155.272109985352</t>
   </si>
   <si>
-    <t xml:space="preserve">148.666839599609</t>
+    <t xml:space="preserve">148.66682434082</t>
   </si>
   <si>
     <t xml:space="preserve">148.762542724609</t>
@@ -2393,7 +2393,7 @@
     <t xml:space="preserve">153.644729614258</t>
   </si>
   <si>
-    <t xml:space="preserve">165.132186889648</t>
+    <t xml:space="preserve">165.132171630859</t>
   </si>
   <si>
     <t xml:space="preserve">169.439971923828</t>
@@ -2405,46 +2405,46 @@
     <t xml:space="preserve">176.906829833984</t>
   </si>
   <si>
-    <t xml:space="preserve">171.546005249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">181.118896484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">182.746276855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">194.138031005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200.456100463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">188.585754394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.610824584961</t>
+    <t xml:space="preserve">171.545989990234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181.118881225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">182.746292114258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">194.13801574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200.456115722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">188.585739135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.61083984375</t>
   </si>
   <si>
     <t xml:space="preserve">174.034973144531</t>
   </si>
   <si>
-    <t xml:space="preserve">180.448806762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">173.747756958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171.258819580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166.089462280273</t>
+    <t xml:space="preserve">180.448791503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173.747772216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171.258804321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.089477539062</t>
   </si>
   <si>
     <t xml:space="preserve">166.759567260742</t>
   </si>
   <si>
-    <t xml:space="preserve">158.909820556641</t>
+    <t xml:space="preserve">158.909805297852</t>
   </si>
   <si>
     <t xml:space="preserve">152.783172607422</t>
@@ -2456,10 +2456,10 @@
     <t xml:space="preserve">156.995239257812</t>
   </si>
   <si>
-    <t xml:space="preserve">160.632934570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">159.867095947266</t>
+    <t xml:space="preserve">160.632919311523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159.867111206055</t>
   </si>
   <si>
     <t xml:space="preserve">163.57373046875</t>
@@ -2474,10 +2474,10 @@
     <t xml:space="preserve">163.18864440918</t>
   </si>
   <si>
-    <t xml:space="preserve">161.16682434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.343963623047</t>
+    <t xml:space="preserve">161.166839599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.343948364258</t>
   </si>
   <si>
     <t xml:space="preserve">169.254043579102</t>
@@ -2489,10 +2489,10 @@
     <t xml:space="preserve">165.017883300781</t>
   </si>
   <si>
-    <t xml:space="preserve">163.381195068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.055114746094</t>
+    <t xml:space="preserve">163.38117980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.055130004883</t>
   </si>
   <si>
     <t xml:space="preserve">164.632781982422</t>
@@ -2510,13 +2510,13 @@
     <t xml:space="preserve">171.853515625</t>
   </si>
   <si>
-    <t xml:space="preserve">172.527450561523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.114151000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166.462036132812</t>
+    <t xml:space="preserve">172.527435302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.114181518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.462020874023</t>
   </si>
   <si>
     <t xml:space="preserve">167.23225402832</t>
@@ -2528,7 +2528,7 @@
     <t xml:space="preserve">171.468414306641</t>
   </si>
   <si>
-    <t xml:space="preserve">171.564697265625</t>
+    <t xml:space="preserve">171.564682006836</t>
   </si>
   <si>
     <t xml:space="preserve">174.164138793945</t>
@@ -2537,7 +2537,7 @@
     <t xml:space="preserve">171.66096496582</t>
   </si>
   <si>
-    <t xml:space="preserve">168.483840942383</t>
+    <t xml:space="preserve">168.483856201172</t>
   </si>
   <si>
     <t xml:space="preserve">162.99609375</t>
@@ -2546,13 +2546,13 @@
     <t xml:space="preserve">156.641845703125</t>
   </si>
   <si>
-    <t xml:space="preserve">164.247695922852</t>
+    <t xml:space="preserve">164.247680664062</t>
   </si>
   <si>
     <t xml:space="preserve">166.847137451172</t>
   </si>
   <si>
-    <t xml:space="preserve">161.263107299805</t>
+    <t xml:space="preserve">161.263092041016</t>
   </si>
   <si>
     <t xml:space="preserve">159.818954467773</t>
@@ -2564,10 +2564,10 @@
     <t xml:space="preserve">151.731735229492</t>
   </si>
   <si>
-    <t xml:space="preserve">148.65087890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152.694519042969</t>
+    <t xml:space="preserve">148.650863647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152.69450378418</t>
   </si>
   <si>
     <t xml:space="preserve">147.110473632812</t>
@@ -2579,7 +2579,7 @@
     <t xml:space="preserve">154.234924316406</t>
   </si>
   <si>
-    <t xml:space="preserve">153.560989379883</t>
+    <t xml:space="preserve">153.560974121094</t>
   </si>
   <si>
     <t xml:space="preserve">150.28759765625</t>
@@ -2588,28 +2588,28 @@
     <t xml:space="preserve">156.73811340332</t>
   </si>
   <si>
-    <t xml:space="preserve">153.175872802734</t>
+    <t xml:space="preserve">153.175888061523</t>
   </si>
   <si>
     <t xml:space="preserve">156.160446166992</t>
   </si>
   <si>
-    <t xml:space="preserve">156.834396362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156.930648803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.412063598633</t>
+    <t xml:space="preserve">156.834381103516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.9306640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.412033081055</t>
   </si>
   <si>
     <t xml:space="preserve">157.797149658203</t>
   </si>
   <si>
-    <t xml:space="preserve">161.455657958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147.495574951172</t>
+    <t xml:space="preserve">161.455642700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147.495559692383</t>
   </si>
   <si>
     <t xml:space="preserve">140.371124267578</t>
@@ -2618,13 +2618,13 @@
     <t xml:space="preserve">145.858871459961</t>
   </si>
   <si>
-    <t xml:space="preserve">146.436538696289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145.377487182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137.290267944336</t>
+    <t xml:space="preserve">146.4365234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145.377471923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137.290283203125</t>
   </si>
   <si>
     <t xml:space="preserve">136.520050048828</t>
@@ -2633,10 +2633,10 @@
     <t xml:space="preserve">139.119522094727</t>
   </si>
   <si>
-    <t xml:space="preserve">138.926956176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146.62907409668</t>
+    <t xml:space="preserve">138.926971435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146.629089355469</t>
   </si>
   <si>
     <t xml:space="preserve">145.088653564453</t>
@@ -2657,13 +2657,13 @@
     <t xml:space="preserve">152.309387207031</t>
   </si>
   <si>
-    <t xml:space="preserve">163.092361450195</t>
+    <t xml:space="preserve">163.092376708984</t>
   </si>
   <si>
     <t xml:space="preserve">162.707244873047</t>
   </si>
   <si>
-    <t xml:space="preserve">164.151397705078</t>
+    <t xml:space="preserve">164.151412963867</t>
   </si>
   <si>
     <t xml:space="preserve">163.862564086914</t>
@@ -2672,7 +2672,7 @@
     <t xml:space="preserve">165.499267578125</t>
   </si>
   <si>
-    <t xml:space="preserve">170.216827392578</t>
+    <t xml:space="preserve">170.216812133789</t>
   </si>
   <si>
     <t xml:space="preserve">177.148727416992</t>
@@ -2681,19 +2681,19 @@
     <t xml:space="preserve">177.533828735352</t>
   </si>
   <si>
-    <t xml:space="preserve">179.940719604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175.70458984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180.999771118164</t>
+    <t xml:space="preserve">179.940734863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">175.704574584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180.999786376953</t>
   </si>
   <si>
     <t xml:space="preserve">183.021606445312</t>
   </si>
   <si>
-    <t xml:space="preserve">180.518402099609</t>
+    <t xml:space="preserve">180.518417358398</t>
   </si>
   <si>
     <t xml:space="preserve">184.176910400391</t>
@@ -2702,25 +2702,25 @@
     <t xml:space="preserve">181.962554931641</t>
   </si>
   <si>
-    <t xml:space="preserve">187.354049682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">186.39128112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">183.984359741211</t>
+    <t xml:space="preserve">187.354034423828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">186.391265869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">183.984375</t>
   </si>
   <si>
     <t xml:space="preserve">187.642852783203</t>
   </si>
   <si>
-    <t xml:space="preserve">185.428512573242</t>
+    <t xml:space="preserve">185.428497314453</t>
   </si>
   <si>
     <t xml:space="preserve">183.888076782227</t>
   </si>
   <si>
-    <t xml:space="preserve">181.577453613281</t>
+    <t xml:space="preserve">181.57746887207</t>
   </si>
   <si>
     <t xml:space="preserve">180.325866699219</t>
@@ -2729,22 +2729,22 @@
     <t xml:space="preserve">181.481170654297</t>
   </si>
   <si>
-    <t xml:space="preserve">178.785415649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180.13330078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">186.968933105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.264129638672</t>
+    <t xml:space="preserve">178.785430908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180.133285522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">186.968948364258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.264114379883</t>
   </si>
   <si>
     <t xml:space="preserve">193.708282470703</t>
   </si>
   <si>
-    <t xml:space="preserve">161.744491577148</t>
+    <t xml:space="preserve">161.744476318359</t>
   </si>
   <si>
     <t xml:space="preserve">165.980651855469</t>
@@ -2753,7 +2753,7 @@
     <t xml:space="preserve">167.328521728516</t>
   </si>
   <si>
-    <t xml:space="preserve">167.039688110352</t>
+    <t xml:space="preserve">167.039703369141</t>
   </si>
   <si>
     <t xml:space="preserve">166.173233032227</t>
@@ -2762,7 +2762,7 @@
     <t xml:space="preserve">158.95246887207</t>
   </si>
   <si>
-    <t xml:space="preserve">162.899795532227</t>
+    <t xml:space="preserve">162.899810791016</t>
   </si>
   <si>
     <t xml:space="preserve">166.365768432617</t>
@@ -2774,19 +2774,19 @@
     <t xml:space="preserve">165.788101196289</t>
   </si>
   <si>
-    <t xml:space="preserve">163.670028686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">162.129577636719</t>
+    <t xml:space="preserve">163.670013427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162.129592895508</t>
   </si>
   <si>
     <t xml:space="preserve">164.825332641602</t>
   </si>
   <si>
-    <t xml:space="preserve">162.225875854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161.359375</t>
+    <t xml:space="preserve">162.225891113281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161.359390258789</t>
   </si>
   <si>
     <t xml:space="preserve">160.492889404297</t>
@@ -2798,7 +2798,7 @@
     <t xml:space="preserve">165.306716918945</t>
   </si>
   <si>
-    <t xml:space="preserve">161.070541381836</t>
+    <t xml:space="preserve">161.070556640625</t>
   </si>
   <si>
     <t xml:space="preserve">161.648193359375</t>
@@ -2831,37 +2831,37 @@
     <t xml:space="preserve">160.011505126953</t>
   </si>
   <si>
-    <t xml:space="preserve">173.008834838867</t>
+    <t xml:space="preserve">173.008850097656</t>
   </si>
   <si>
     <t xml:space="preserve">172.142364501953</t>
   </si>
   <si>
-    <t xml:space="preserve">181.288619995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171.083297729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">173.875335693359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">173.297668457031</t>
+    <t xml:space="preserve">181.288604736328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171.083312988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173.875350952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173.297653198242</t>
   </si>
   <si>
     <t xml:space="preserve">172.720001220703</t>
   </si>
   <si>
-    <t xml:space="preserve">169.928009033203</t>
+    <t xml:space="preserve">169.927993774414</t>
   </si>
   <si>
     <t xml:space="preserve">169.63916015625</t>
   </si>
   <si>
-    <t xml:space="preserve">172.431198120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">176.08967590332</t>
+    <t xml:space="preserve">172.431182861328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176.089691162109</t>
   </si>
   <si>
     <t xml:space="preserve">175.415740966797</t>
@@ -2882,7 +2882,7 @@
     <t xml:space="preserve">176.667343139648</t>
   </si>
   <si>
-    <t xml:space="preserve">158.182250976562</t>
+    <t xml:space="preserve">158.182266235352</t>
   </si>
   <si>
     <t xml:space="preserve">153.753540039062</t>
@@ -2897,28 +2897,28 @@
     <t xml:space="preserve">157.893432617188</t>
   </si>
   <si>
-    <t xml:space="preserve">159.14501953125</t>
+    <t xml:space="preserve">159.145034790039</t>
   </si>
   <si>
     <t xml:space="preserve">155.967895507812</t>
   </si>
   <si>
-    <t xml:space="preserve">152.116836547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150.961517333984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149.035980224609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.401992797852</t>
+    <t xml:space="preserve">152.116851806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150.961532592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149.035995483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.401977539062</t>
   </si>
   <si>
     <t xml:space="preserve">136.808883666992</t>
   </si>
   <si>
-    <t xml:space="preserve">140.467391967773</t>
+    <t xml:space="preserve">140.467376708984</t>
   </si>
   <si>
     <t xml:space="preserve">136.712600708008</t>
@@ -2927,10 +2927,10 @@
     <t xml:space="preserve">134.883346557617</t>
   </si>
   <si>
-    <t xml:space="preserve">137.77165222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.979614257812</t>
+    <t xml:space="preserve">137.771636962891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.979629516602</t>
   </si>
   <si>
     <t xml:space="preserve">135.74983215332</t>
@@ -2942,7 +2942,7 @@
     <t xml:space="preserve">137.001434326172</t>
   </si>
   <si>
-    <t xml:space="preserve">133.824310302734</t>
+    <t xml:space="preserve">133.824295043945</t>
   </si>
   <si>
     <t xml:space="preserve">132.187606811523</t>
@@ -2954,19 +2954,19 @@
     <t xml:space="preserve">131.706237792969</t>
   </si>
   <si>
-    <t xml:space="preserve">134.546401977539</t>
+    <t xml:space="preserve">134.54638671875</t>
   </si>
   <si>
     <t xml:space="preserve">137.193984985352</t>
   </si>
   <si>
-    <t xml:space="preserve">134.931503295898</t>
+    <t xml:space="preserve">134.931488037109</t>
   </si>
   <si>
     <t xml:space="preserve">147.351150512695</t>
   </si>
   <si>
-    <t xml:space="preserve">145.425628662109</t>
+    <t xml:space="preserve">145.42561340332</t>
   </si>
   <si>
     <t xml:space="preserve">143.59635925293</t>
@@ -2984,25 +2984,25 @@
     <t xml:space="preserve">146.869781494141</t>
   </si>
   <si>
-    <t xml:space="preserve">146.725357055664</t>
+    <t xml:space="preserve">146.725341796875</t>
   </si>
   <si>
     <t xml:space="preserve">138.734405517578</t>
   </si>
   <si>
-    <t xml:space="preserve">138.541854858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135.027755737305</t>
+    <t xml:space="preserve">138.541839599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.027770996094</t>
   </si>
   <si>
     <t xml:space="preserve">135.990539550781</t>
   </si>
   <si>
-    <t xml:space="preserve">135.605422973633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135.942367553711</t>
+    <t xml:space="preserve">135.605407714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.9423828125</t>
   </si>
   <si>
     <t xml:space="preserve">133.342926025391</t>
@@ -3017,16 +3017,16 @@
     <t xml:space="preserve">133.102233886719</t>
   </si>
   <si>
-    <t xml:space="preserve">129.973236083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.150390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.861557006836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136.375625610352</t>
+    <t xml:space="preserve">129.973251342773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.150375366211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.861541748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136.375640869141</t>
   </si>
   <si>
     <t xml:space="preserve">138.638122558594</t>
@@ -3041,10 +3041,10 @@
     <t xml:space="preserve">138.491714477539</t>
   </si>
   <si>
-    <t xml:space="preserve">139.606628417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">139.558120727539</t>
+    <t xml:space="preserve">139.60661315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">139.558135986328</t>
   </si>
   <si>
     <t xml:space="preserve">139.848983764648</t>
@@ -3053,7 +3053,7 @@
     <t xml:space="preserve">140.236770629883</t>
   </si>
   <si>
-    <t xml:space="preserve">137.716110229492</t>
+    <t xml:space="preserve">137.716125488281</t>
   </si>
   <si>
     <t xml:space="preserve">134.759155273438</t>
@@ -3074,10 +3074,10 @@
     <t xml:space="preserve">140.430694580078</t>
   </si>
   <si>
-    <t xml:space="preserve">140.963897705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145.035766601562</t>
+    <t xml:space="preserve">140.963882446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145.035781860352</t>
   </si>
   <si>
     <t xml:space="preserve">146.150680541992</t>
@@ -3086,7 +3086,7 @@
     <t xml:space="preserve">145.859817504883</t>
   </si>
   <si>
-    <t xml:space="preserve">148.138122558594</t>
+    <t xml:space="preserve">148.138137817383</t>
   </si>
   <si>
     <t xml:space="preserve">147.653381347656</t>
@@ -3095,31 +3095,31 @@
     <t xml:space="preserve">149.204559326172</t>
   </si>
   <si>
-    <t xml:space="preserve">148.719818115234</t>
+    <t xml:space="preserve">148.719802856445</t>
   </si>
   <si>
     <t xml:space="preserve">149.107620239258</t>
   </si>
   <si>
-    <t xml:space="preserve">145.22966003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149.883209228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151.337448120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152.210006713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.021514892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154.633728027344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152.694747924805</t>
+    <t xml:space="preserve">145.229675292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149.883224487305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151.337463378906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152.209976196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.021499633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154.633712768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152.694732666016</t>
   </si>
   <si>
     <t xml:space="preserve">153.470336914062</t>
@@ -3131,7 +3131,7 @@
     <t xml:space="preserve">155.845581054688</t>
   </si>
   <si>
-    <t xml:space="preserve">158.317779541016</t>
+    <t xml:space="preserve">158.317794799805</t>
   </si>
   <si>
     <t xml:space="preserve">154.342864990234</t>
@@ -3140,16 +3140,16 @@
     <t xml:space="preserve">155.748626708984</t>
   </si>
   <si>
-    <t xml:space="preserve">157.105911254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.445236206055</t>
+    <t xml:space="preserve">157.105926513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.445220947266</t>
   </si>
   <si>
     <t xml:space="preserve">157.00895690918</t>
   </si>
   <si>
-    <t xml:space="preserve">157.639129638672</t>
+    <t xml:space="preserve">157.639144897461</t>
   </si>
   <si>
     <t xml:space="preserve">158.075408935547</t>
@@ -3161,37 +3161,37 @@
     <t xml:space="preserve">162.195739746094</t>
   </si>
   <si>
-    <t xml:space="preserve">164.280136108398</t>
+    <t xml:space="preserve">164.280151367188</t>
   </si>
   <si>
     <t xml:space="preserve">165.734375</t>
   </si>
   <si>
-    <t xml:space="preserve">167.091659545898</t>
+    <t xml:space="preserve">167.091674804688</t>
   </si>
   <si>
     <t xml:space="preserve">163.795394897461</t>
   </si>
   <si>
-    <t xml:space="preserve">162.971328735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.425567626953</t>
+    <t xml:space="preserve">162.971343994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.425582885742</t>
   </si>
   <si>
     <t xml:space="preserve">167.188613891602</t>
   </si>
   <si>
-    <t xml:space="preserve">165.928283691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171.06657409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166.703872680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170.290985107422</t>
+    <t xml:space="preserve">165.928268432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171.066558837891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.703857421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170.290969848633</t>
   </si>
   <si>
     <t xml:space="preserve">171.018096923828</t>
@@ -3203,16 +3203,16 @@
     <t xml:space="preserve">170.824203491211</t>
   </si>
   <si>
-    <t xml:space="preserve">170.484878540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171.212005615234</t>
+    <t xml:space="preserve">170.484893798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171.212020874023</t>
   </si>
   <si>
     <t xml:space="preserve">173.344879150391</t>
   </si>
   <si>
-    <t xml:space="preserve">172.423858642578</t>
+    <t xml:space="preserve">172.423873901367</t>
   </si>
   <si>
     <t xml:space="preserve">173.538772583008</t>
@@ -3224,7 +3224,7 @@
     <t xml:space="preserve">179.210296630859</t>
   </si>
   <si>
-    <t xml:space="preserve">179.404205322266</t>
+    <t xml:space="preserve">179.404190063477</t>
   </si>
   <si>
     <t xml:space="preserve">182.409591674805</t>
@@ -3236,7 +3236,7 @@
     <t xml:space="preserve">180.325210571289</t>
   </si>
   <si>
-    <t xml:space="preserve">179.743499755859</t>
+    <t xml:space="preserve">179.743515014648</t>
   </si>
   <si>
     <t xml:space="preserve">180.08283996582</t>
@@ -3248,13 +3248,13 @@
     <t xml:space="preserve">185.075698852539</t>
   </si>
   <si>
-    <t xml:space="preserve">187.354019165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.443832397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">194.867568969727</t>
+    <t xml:space="preserve">187.35400390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.44384765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">194.867553710938</t>
   </si>
   <si>
     <t xml:space="preserve">195.740097045898</t>
@@ -3275,7 +3275,7 @@
     <t xml:space="preserve">199.908905029297</t>
   </si>
   <si>
-    <t xml:space="preserve">190.698760986328</t>
+    <t xml:space="preserve">190.698745727539</t>
   </si>
   <si>
     <t xml:space="preserve">195.643157958984</t>
@@ -3287,7 +3287,7 @@
     <t xml:space="preserve">194.479782104492</t>
   </si>
   <si>
-    <t xml:space="preserve">196.418762207031</t>
+    <t xml:space="preserve">196.418746948242</t>
   </si>
   <si>
     <t xml:space="preserve">198.35774230957</t>
@@ -3296,7 +3296,7 @@
     <t xml:space="preserve">197.000442504883</t>
   </si>
   <si>
-    <t xml:space="preserve">189.874710083008</t>
+    <t xml:space="preserve">189.874694824219</t>
   </si>
   <si>
     <t xml:space="preserve">182.845901489258</t>
@@ -3308,13 +3308,13 @@
     <t xml:space="preserve">176.301834106445</t>
   </si>
   <si>
-    <t xml:space="preserve">175.817092895508</t>
+    <t xml:space="preserve">175.817077636719</t>
   </si>
   <si>
     <t xml:space="preserve">169.806228637695</t>
   </si>
   <si>
-    <t xml:space="preserve">166.606918334961</t>
+    <t xml:space="preserve">166.60693359375</t>
   </si>
   <si>
     <t xml:space="preserve">167.576416015625</t>
@@ -3323,22 +3323,22 @@
     <t xml:space="preserve">164.861846923828</t>
   </si>
   <si>
-    <t xml:space="preserve">165.492004394531</t>
+    <t xml:space="preserve">165.491989135742</t>
   </si>
   <si>
     <t xml:space="preserve">166.849304199219</t>
   </si>
   <si>
-    <t xml:space="preserve">164.183197021484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">168.642837524414</t>
+    <t xml:space="preserve">164.183212280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">168.642852783203</t>
   </si>
   <si>
     <t xml:space="preserve">173.05403137207</t>
   </si>
   <si>
-    <t xml:space="preserve">173.441818237305</t>
+    <t xml:space="preserve">173.441802978516</t>
   </si>
   <si>
     <t xml:space="preserve">174.605224609375</t>
@@ -3347,7 +3347,7 @@
     <t xml:space="preserve">173.878112792969</t>
   </si>
   <si>
-    <t xml:space="preserve">175.962493896484</t>
+    <t xml:space="preserve">175.962509155273</t>
   </si>
   <si>
     <t xml:space="preserve">179.985870361328</t>
@@ -3359,22 +3359,22 @@
     <t xml:space="preserve">183.13671875</t>
   </si>
   <si>
-    <t xml:space="preserve">185.221130371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185.172668457031</t>
+    <t xml:space="preserve">185.221145629883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">185.172653198242</t>
   </si>
   <si>
     <t xml:space="preserve">181.634033203125</t>
   </si>
   <si>
-    <t xml:space="preserve">189.486907958984</t>
+    <t xml:space="preserve">189.486877441406</t>
   </si>
   <si>
     <t xml:space="preserve">189.389953613281</t>
   </si>
   <si>
-    <t xml:space="preserve">191.135025024414</t>
+    <t xml:space="preserve">191.135009765625</t>
   </si>
   <si>
     <t xml:space="preserve">191.619766235352</t>
@@ -3389,13 +3389,13 @@
     <t xml:space="preserve">176.931991577148</t>
   </si>
   <si>
-    <t xml:space="preserve">178.483169555664</t>
+    <t xml:space="preserve">178.483184814453</t>
   </si>
   <si>
     <t xml:space="preserve">177.80451965332</t>
   </si>
   <si>
-    <t xml:space="preserve">179.355712890625</t>
+    <t xml:space="preserve">179.355728149414</t>
   </si>
   <si>
     <t xml:space="preserve">182.264190673828</t>
@@ -3410,22 +3410,22 @@
     <t xml:space="preserve">178.143859863281</t>
   </si>
   <si>
-    <t xml:space="preserve">178.870956420898</t>
+    <t xml:space="preserve">178.870971679688</t>
   </si>
   <si>
     <t xml:space="preserve">178.046890258789</t>
   </si>
   <si>
-    <t xml:space="preserve">173.829635620117</t>
+    <t xml:space="preserve">173.829620361328</t>
   </si>
   <si>
     <t xml:space="preserve">172.036056518555</t>
   </si>
   <si>
-    <t xml:space="preserve">181.585556030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179.452667236328</t>
+    <t xml:space="preserve">181.585540771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179.452682495117</t>
   </si>
   <si>
     <t xml:space="preserve">182.991302490234</t>
@@ -3446,10 +3446,10 @@
     <t xml:space="preserve">169.612335205078</t>
   </si>
   <si>
-    <t xml:space="preserve">172.569274902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">174.508255004883</t>
+    <t xml:space="preserve">172.569290161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">174.508270263672</t>
   </si>
   <si>
     <t xml:space="preserve">175.138427734375</t>
@@ -3461,19 +3461,19 @@
     <t xml:space="preserve">174.993011474609</t>
   </si>
   <si>
-    <t xml:space="preserve">172.714706420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154.003540039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.651672363281</t>
+    <t xml:space="preserve">172.714691162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154.003555297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.65168762207</t>
   </si>
   <si>
     <t xml:space="preserve">155.36083984375</t>
   </si>
   <si>
-    <t xml:space="preserve">156.912017822266</t>
+    <t xml:space="preserve">156.912033081055</t>
   </si>
   <si>
     <t xml:space="preserve">156.718109130859</t>
@@ -3482,7 +3482,7 @@
     <t xml:space="preserve">161.27473449707</t>
   </si>
   <si>
-    <t xml:space="preserve">159.965896606445</t>
+    <t xml:space="preserve">159.965911865234</t>
   </si>
   <si>
     <t xml:space="preserve">162.341156005859</t>
@@ -3491,13 +3491,13 @@
     <t xml:space="preserve">158.220825195312</t>
   </si>
   <si>
-    <t xml:space="preserve">154.100479125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.603210449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150.077102661133</t>
+    <t xml:space="preserve">154.100494384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.60319519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150.077117919922</t>
   </si>
   <si>
     <t xml:space="preserve">143.58154296875</t>
@@ -3524,19 +3524,19 @@
     <t xml:space="preserve">140.72151184082</t>
   </si>
   <si>
-    <t xml:space="preserve">142.515090942383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130.590362548828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128.505935668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130.63883972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130.978164672852</t>
+    <t xml:space="preserve">142.515075683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.590347290039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128.505950927734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.638824462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.978149414062</t>
   </si>
   <si>
     <t xml:space="preserve">132.723220825195</t>
@@ -3545,16 +3545,16 @@
     <t xml:space="preserve">132.820175170898</t>
   </si>
   <si>
-    <t xml:space="preserve">133.69270324707</t>
+    <t xml:space="preserve">133.692718505859</t>
   </si>
   <si>
     <t xml:space="preserve">129.330001831055</t>
   </si>
   <si>
-    <t xml:space="preserve">127.584945678711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.05884552002</t>
+    <t xml:space="preserve">127.584938049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.058837890625</t>
   </si>
   <si>
     <t xml:space="preserve">120.943923950195</t>
@@ -3569,25 +3569,25 @@
     <t xml:space="preserve">119.441207885742</t>
   </si>
   <si>
-    <t xml:space="preserve">116.096466064453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.568672180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.035446166992</t>
+    <t xml:space="preserve">116.096473693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.56867980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.035453796387</t>
   </si>
   <si>
     <t xml:space="preserve">117.065956115723</t>
   </si>
   <si>
-    <t xml:space="preserve">113.721221923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.866645812988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.696128845215</t>
+    <t xml:space="preserve">113.721229553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.866638183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.696136474609</t>
   </si>
   <si>
     <t xml:space="preserve">121.671043395996</t>
@@ -3602,19 +3602,19 @@
     <t xml:space="preserve">129.572387695312</t>
   </si>
   <si>
-    <t xml:space="preserve">128.748321533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125.355102539062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124.724922180176</t>
+    <t xml:space="preserve">128.748336791992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.355110168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.72492980957</t>
   </si>
   <si>
     <t xml:space="preserve">121.62255859375</t>
   </si>
   <si>
-    <t xml:space="preserve">123.803916931152</t>
+    <t xml:space="preserve">123.803909301758</t>
   </si>
   <si>
     <t xml:space="preserve">119.004943847656</t>
@@ -3626,7 +3626,7 @@
     <t xml:space="preserve">117.017486572266</t>
   </si>
   <si>
-    <t xml:space="preserve">119.101898193359</t>
+    <t xml:space="preserve">119.101890563965</t>
   </si>
   <si>
     <t xml:space="preserve">123.416130065918</t>
@@ -3644,25 +3644,25 @@
     <t xml:space="preserve">128.215087890625</t>
   </si>
   <si>
-    <t xml:space="preserve">126.85782623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125.791366577148</t>
+    <t xml:space="preserve">126.857833862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.791374206543</t>
   </si>
   <si>
     <t xml:space="preserve">127.051719665527</t>
   </si>
   <si>
-    <t xml:space="preserve">135.534744262695</t>
+    <t xml:space="preserve">135.534774780273</t>
   </si>
   <si>
     <t xml:space="preserve">137.473739624023</t>
   </si>
   <si>
-    <t xml:space="preserve">137.570678710938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141.109313964844</t>
+    <t xml:space="preserve">137.570663452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141.109329223633</t>
   </si>
   <si>
     <t xml:space="preserve">141.400177001953</t>
@@ -3674,13 +3674,13 @@
     <t xml:space="preserve">140.818481445312</t>
   </si>
   <si>
-    <t xml:space="preserve">137.910003662109</t>
+    <t xml:space="preserve">137.910018920898</t>
   </si>
   <si>
     <t xml:space="preserve">136.988998413086</t>
   </si>
   <si>
-    <t xml:space="preserve">134.322891235352</t>
+    <t xml:space="preserve">134.322906494141</t>
   </si>
   <si>
     <t xml:space="preserve">130.687301635742</t>
@@ -3692,7 +3692,7 @@
     <t xml:space="preserve">130.202560424805</t>
   </si>
   <si>
-    <t xml:space="preserve">130.05712890625</t>
+    <t xml:space="preserve">130.057113647461</t>
   </si>
   <si>
     <t xml:space="preserve">128.069686889648</t>
@@ -3704,10 +3704,10 @@
     <t xml:space="preserve">122.543586730957</t>
   </si>
   <si>
-    <t xml:space="preserve">120.216804504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.726638793945</t>
+    <t xml:space="preserve">120.216812133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.72664642334</t>
   </si>
   <si>
     <t xml:space="preserve">120.168327331543</t>
@@ -3716,16 +3716,16 @@
     <t xml:space="preserve">121.234771728516</t>
   </si>
   <si>
-    <t xml:space="preserve">119.683586120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119.150375366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.854095458984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.290367126465</t>
+    <t xml:space="preserve">119.683578491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.150367736816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.854103088379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.29035949707</t>
   </si>
   <si>
     <t xml:space="preserve">116.969017028809</t>
@@ -3737,22 +3737,22 @@
     <t xml:space="preserve">107.952751159668</t>
   </si>
   <si>
-    <t xml:space="preserve">111.055122375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.534446716309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.466300964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.338836669922</t>
+    <t xml:space="preserve">111.055130004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.534439086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.466293334961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.338844299316</t>
   </si>
   <si>
     <t xml:space="preserve">114.884605407715</t>
   </si>
   <si>
-    <t xml:space="preserve">111.976135253906</t>
+    <t xml:space="preserve">111.976142883301</t>
   </si>
   <si>
     <t xml:space="preserve">114.496810913086</t>
@@ -3770,7 +3770,7 @@
     <t xml:space="preserve">113.362937927246</t>
   </si>
   <si>
-    <t xml:space="preserve">114.830108642578</t>
+    <t xml:space="preserve">114.830101013184</t>
   </si>
   <si>
     <t xml:space="preserve">118.791442871094</t>
@@ -3779,19 +3779,19 @@
     <t xml:space="preserve">119.91626739502</t>
   </si>
   <si>
-    <t xml:space="preserve">119.818466186523</t>
+    <t xml:space="preserve">119.818458557129</t>
   </si>
   <si>
     <t xml:space="preserve">118.253486633301</t>
   </si>
   <si>
-    <t xml:space="preserve">121.334533691406</t>
+    <t xml:space="preserve">121.334541320801</t>
   </si>
   <si>
     <t xml:space="preserve">117.764434814453</t>
   </si>
   <si>
-    <t xml:space="preserve">119.769554138184</t>
+    <t xml:space="preserve">119.769546508789</t>
   </si>
   <si>
     <t xml:space="preserve">119.231597900391</t>
@@ -3803,7 +3803,7 @@
     <t xml:space="preserve">116.541793823242</t>
   </si>
   <si>
-    <t xml:space="preserve">113.21622467041</t>
+    <t xml:space="preserve">113.216217041016</t>
   </si>
   <si>
     <t xml:space="preserve">112.335914611816</t>
@@ -3815,7 +3815,7 @@
     <t xml:space="preserve">114.096519470215</t>
   </si>
   <si>
-    <t xml:space="preserve">111.308906555176</t>
+    <t xml:space="preserve">111.30891418457</t>
   </si>
   <si>
     <t xml:space="preserve">116.150550842285</t>
@@ -3830,22 +3830,22 @@
     <t xml:space="preserve">114.976821899414</t>
   </si>
   <si>
-    <t xml:space="preserve">121.725776672363</t>
+    <t xml:space="preserve">121.725769042969</t>
   </si>
   <si>
     <t xml:space="preserve">124.953536987305</t>
   </si>
   <si>
-    <t xml:space="preserve">124.366668701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124.171051025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.410461425781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.459358215332</t>
+    <t xml:space="preserve">124.366676330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.171043395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.410453796387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.459350585938</t>
   </si>
   <si>
     <t xml:space="preserve">123.584182739258</t>
@@ -3869,16 +3869,16 @@
     <t xml:space="preserve">133.218566894531</t>
   </si>
   <si>
-    <t xml:space="preserve">127.203193664551</t>
+    <t xml:space="preserve">127.203201293945</t>
   </si>
   <si>
     <t xml:space="preserve">129.599563598633</t>
   </si>
   <si>
-    <t xml:space="preserve">126.567413330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129.550659179688</t>
+    <t xml:space="preserve">126.567405700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129.550643920898</t>
   </si>
   <si>
     <t xml:space="preserve">129.306121826172</t>
@@ -3902,19 +3902,19 @@
     <t xml:space="preserve">130.430969238281</t>
   </si>
   <si>
-    <t xml:space="preserve">127.545532226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131.89811706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.631698608398</t>
+    <t xml:space="preserve">127.545516967773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131.898132324219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.631713867188</t>
   </si>
   <si>
     <t xml:space="preserve">132.533889770508</t>
   </si>
   <si>
-    <t xml:space="preserve">130.284240722656</t>
+    <t xml:space="preserve">130.284225463867</t>
   </si>
   <si>
     <t xml:space="preserve">131.800308227539</t>
@@ -3926,16 +3926,16 @@
     <t xml:space="preserve">133.903228759766</t>
   </si>
   <si>
-    <t xml:space="preserve">132.582794189453</t>
+    <t xml:space="preserve">132.582809448242</t>
   </si>
   <si>
     <t xml:space="preserve">133.609817504883</t>
   </si>
   <si>
-    <t xml:space="preserve">136.83757019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.587921142578</t>
+    <t xml:space="preserve">136.837554931641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.587936401367</t>
   </si>
   <si>
     <t xml:space="preserve">133.463088989258</t>
@@ -3944,28 +3944,28 @@
     <t xml:space="preserve">132.484985351562</t>
   </si>
   <si>
-    <t xml:space="preserve">133.707626342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.169662475586</t>
+    <t xml:space="preserve">133.707611083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.169647216797</t>
   </si>
   <si>
     <t xml:space="preserve">134.001052856445</t>
   </si>
   <si>
-    <t xml:space="preserve">128.132385253906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129.501754760742</t>
+    <t xml:space="preserve">128.132400512695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129.501739501953</t>
   </si>
   <si>
     <t xml:space="preserve">128.083480834961</t>
   </si>
   <si>
-    <t xml:space="preserve">127.496620178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130.822189331055</t>
+    <t xml:space="preserve">127.496635437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.822204589844</t>
   </si>
   <si>
     <t xml:space="preserve">129.697387695312</t>
@@ -3980,16 +3980,16 @@
     <t xml:space="preserve">130.773284912109</t>
   </si>
   <si>
-    <t xml:space="preserve">131.653594970703</t>
+    <t xml:space="preserve">131.653610229492</t>
   </si>
   <si>
     <t xml:space="preserve">133.658706665039</t>
   </si>
   <si>
-    <t xml:space="preserve">126.714134216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125.05135345459</t>
+    <t xml:space="preserve">126.714141845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.051345825195</t>
   </si>
   <si>
     <t xml:space="preserve">122.94841003418</t>
@@ -4007,19 +4007,19 @@
     <t xml:space="preserve">113.900894165039</t>
   </si>
   <si>
-    <t xml:space="preserve">113.069496154785</t>
+    <t xml:space="preserve">113.06950378418</t>
   </si>
   <si>
     <t xml:space="preserve">112.23811340332</t>
   </si>
   <si>
-    <t xml:space="preserve">109.157066345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.287017822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.504531860352</t>
+    <t xml:space="preserve">109.15705871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.28702545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.504524230957</t>
   </si>
   <si>
     <t xml:space="preserve">115.270248413086</t>
@@ -4028,16 +4028,16 @@
     <t xml:space="preserve">112.727165222168</t>
   </si>
   <si>
-    <t xml:space="preserve">109.890647888184</t>
+    <t xml:space="preserve">109.890640258789</t>
   </si>
   <si>
     <t xml:space="preserve">110.526420593262</t>
   </si>
   <si>
-    <t xml:space="preserve">116.443992614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125.344772338867</t>
+    <t xml:space="preserve">116.443984985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.344779968262</t>
   </si>
   <si>
     <t xml:space="preserve">123.241844177246</t>
@@ -4046,7 +4046,7 @@
     <t xml:space="preserve">126.176177978516</t>
   </si>
   <si>
-    <t xml:space="preserve">127.252098083496</t>
+    <t xml:space="preserve">127.252105712891</t>
   </si>
   <si>
     <t xml:space="preserve">133.267471313477</t>
@@ -4061,16 +4061,16 @@
     <t xml:space="preserve">126.273994445801</t>
   </si>
   <si>
-    <t xml:space="preserve">129.403930664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128.279113769531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.518524169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.877616882324</t>
+    <t xml:space="preserve">129.403945922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128.279098510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.518516540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.877624511719</t>
   </si>
   <si>
     <t xml:space="preserve">126.371795654297</t>
@@ -4079,7 +4079,7 @@
     <t xml:space="preserve">126.616317749023</t>
   </si>
   <si>
-    <t xml:space="preserve">130.235336303711</t>
+    <t xml:space="preserve">130.235321044922</t>
   </si>
   <si>
     <t xml:space="preserve">133.756530761719</t>
@@ -4088,7 +4088,7 @@
     <t xml:space="preserve">135.223693847656</t>
   </si>
   <si>
-    <t xml:space="preserve">132.436080932617</t>
+    <t xml:space="preserve">132.436065673828</t>
   </si>
   <si>
     <t xml:space="preserve">129.941909790039</t>
@@ -4100,7 +4100,7 @@
     <t xml:space="preserve">129.844085693359</t>
   </si>
   <si>
-    <t xml:space="preserve">128.670349121094</t>
+    <t xml:space="preserve">128.670364379883</t>
   </si>
   <si>
     <t xml:space="preserve">126.07836151123</t>
@@ -4109,25 +4109,25 @@
     <t xml:space="preserve">128.865982055664</t>
   </si>
   <si>
-    <t xml:space="preserve">130.96891784668</t>
+    <t xml:space="preserve">130.968902587891</t>
   </si>
   <si>
     <t xml:space="preserve">129.795181274414</t>
   </si>
   <si>
-    <t xml:space="preserve">126.860855102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131.164535522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.365280151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136.152908325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131.506881713867</t>
+    <t xml:space="preserve">126.860847473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131.16455078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.365295410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136.152893066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131.506866455078</t>
   </si>
   <si>
     <t xml:space="preserve">126.665229797363</t>
@@ -4136,7 +4136,7 @@
     <t xml:space="preserve">121.823593139648</t>
   </si>
   <si>
-    <t xml:space="preserve">125.00244140625</t>
+    <t xml:space="preserve">125.002449035645</t>
   </si>
   <si>
     <t xml:space="preserve">123.339653015137</t>
@@ -4145,7 +4145,7 @@
     <t xml:space="preserve">125.100257873535</t>
   </si>
   <si>
-    <t xml:space="preserve">124.611198425293</t>
+    <t xml:space="preserve">124.611206054688</t>
   </si>
   <si>
     <t xml:space="preserve">124.219955444336</t>
@@ -4157,19 +4157,19 @@
     <t xml:space="preserve">126.469612121582</t>
   </si>
   <si>
-    <t xml:space="preserve">127.00757598877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124.415580749512</t>
+    <t xml:space="preserve">127.007583618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.415573120117</t>
   </si>
   <si>
     <t xml:space="preserve">123.730903625488</t>
   </si>
   <si>
-    <t xml:space="preserve">124.806823730469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.437469482422</t>
+    <t xml:space="preserve">124.806816101074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.437461853027</t>
   </si>
   <si>
     <t xml:space="preserve">123.779815673828</t>
@@ -4187,7 +4187,7 @@
     <t xml:space="preserve">122.557174682617</t>
   </si>
   <si>
-    <t xml:space="preserve">122.019203186035</t>
+    <t xml:space="preserve">122.01921081543</t>
   </si>
   <si>
     <t xml:space="preserve">120.9921875</t>
@@ -4214,7 +4214,7 @@
     <t xml:space="preserve">119.280494689941</t>
   </si>
   <si>
-    <t xml:space="preserve">118.400199890137</t>
+    <t xml:space="preserve">118.400207519531</t>
   </si>
   <si>
     <t xml:space="preserve">115.710403442383</t>
@@ -4223,10 +4223,10 @@
     <t xml:space="preserve">113.851997375488</t>
   </si>
   <si>
-    <t xml:space="preserve">114.683380126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.754180908203</t>
+    <t xml:space="preserve">114.683387756348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.754188537598</t>
   </si>
   <si>
     <t xml:space="preserve">113.998710632324</t>
@@ -4238,7 +4238,7 @@
     <t xml:space="preserve">110.819854736328</t>
   </si>
   <si>
-    <t xml:space="preserve">112.482643127441</t>
+    <t xml:space="preserve">112.482635498047</t>
   </si>
   <si>
     <t xml:space="preserve">111.651245117188</t>
@@ -4247,16 +4247,16 @@
     <t xml:space="preserve">108.570198059082</t>
   </si>
   <si>
-    <t xml:space="preserve">107.543182373047</t>
+    <t xml:space="preserve">107.543174743652</t>
   </si>
   <si>
     <t xml:space="preserve">110.03736114502</t>
   </si>
   <si>
-    <t xml:space="preserve">110.232986450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.499404907227</t>
+    <t xml:space="preserve">110.232978820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.499397277832</t>
   </si>
   <si>
     <t xml:space="preserve">109.10816192627</t>
@@ -4277,22 +4277,22 @@
     <t xml:space="preserve">105.000091552734</t>
   </si>
   <si>
-    <t xml:space="preserve">103.386215209961</t>
+    <t xml:space="preserve">103.386207580566</t>
   </si>
   <si>
     <t xml:space="preserve">98.9847183227539</t>
   </si>
   <si>
-    <t xml:space="preserve">100.207359313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.838005065918</t>
+    <t xml:space="preserve">100.20735168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.8380126953125</t>
   </si>
   <si>
     <t xml:space="preserve">96.3438262939453</t>
   </si>
   <si>
-    <t xml:space="preserve">99.8161163330078</t>
+    <t xml:space="preserve">99.8161239624023</t>
   </si>
   <si>
     <t xml:space="preserve">95.8547668457031</t>
@@ -4304,46 +4304,46 @@
     <t xml:space="preserve">95.8743286132812</t>
   </si>
   <si>
-    <t xml:space="preserve">96.2851409912109</t>
+    <t xml:space="preserve">96.2851333618164</t>
   </si>
   <si>
     <t xml:space="preserve">94.9353485107422</t>
   </si>
   <si>
-    <t xml:space="preserve">94.8766555786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.4393157958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.0089340209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.9306945800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.1896591186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94.7201614379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.1700897216797</t>
+    <t xml:space="preserve">94.8766632080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.4393081665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.0089416503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.9306869506836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.1896514892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94.7201538085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.1700973510742</t>
   </si>
   <si>
     <t xml:space="preserve">95.2483367919922</t>
   </si>
   <si>
-    <t xml:space="preserve">95.0331573486328</t>
+    <t xml:space="preserve">95.0331649780273</t>
   </si>
   <si>
     <t xml:space="preserve">96.7546310424805</t>
   </si>
   <si>
-    <t xml:space="preserve">97.1850051879883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.3852691650391</t>
+    <t xml:space="preserve">97.1849975585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.3852767944336</t>
   </si>
   <si>
     <t xml:space="preserve">94.3484802246094</t>
@@ -4352,7 +4352,7 @@
     <t xml:space="preserve">96.3242645263672</t>
   </si>
   <si>
-    <t xml:space="preserve">95.5809020996094</t>
+    <t xml:space="preserve">95.5808944702148</t>
   </si>
   <si>
     <t xml:space="preserve">95.8156433105469</t>
@@ -4364,16 +4364,16 @@
     <t xml:space="preserve">102.16357421875</t>
   </si>
   <si>
-    <t xml:space="preserve">99.9628295898438</t>
+    <t xml:space="preserve">99.9628219604492</t>
   </si>
   <si>
     <t xml:space="preserve">102.457008361816</t>
   </si>
   <si>
-    <t xml:space="preserve">103.28840637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102.750442504883</t>
+    <t xml:space="preserve">103.288398742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102.750450134277</t>
   </si>
   <si>
     <t xml:space="preserve">99.3270645141602</t>
@@ -5115,6 +5115,9 @@
   </si>
   <si>
     <t xml:space="preserve">96.8000030517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.3199996948242</t>
   </si>
 </sst>
 </file>
@@ -61460,7 +61463,7 @@
     </row>
     <row r="2155">
       <c r="A2155" s="1" t="n">
-        <v>45462.6493865741</v>
+        <v>45462.2916666667</v>
       </c>
       <c r="B2155" t="n">
         <v>110367</v>
@@ -61481,6 +61484,32 @@
         <v>1700</v>
       </c>
       <c r="H2155" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" s="1" t="n">
+        <v>45463.6496296296</v>
+      </c>
+      <c r="B2156" t="n">
+        <v>100555</v>
+      </c>
+      <c r="C2156" t="n">
+        <v>98.5800018310547</v>
+      </c>
+      <c r="D2156" t="n">
+        <v>96.6999969482422</v>
+      </c>
+      <c r="E2156" t="n">
+        <v>96.8000030517578</v>
+      </c>
+      <c r="F2156" t="n">
+        <v>97.3199996948242</v>
+      </c>
+      <c r="G2156" t="s">
+        <v>1701</v>
+      </c>
+      <c r="H2156" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DIA.MI.xlsx
+++ b/data/DIA.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="1707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="1708">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -53,55 +53,55 @@
     <t xml:space="preserve">43.4761199951172</t>
   </si>
   <si>
-    <t xml:space="preserve">43.3689308166504</t>
+    <t xml:space="preserve">43.3689270019531</t>
   </si>
   <si>
     <t xml:space="preserve">42.6900329589844</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0116157531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2612533569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8146133422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5104217529297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.7779273986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.563060760498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.3218765258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1253547668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.4563446044922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7694778442383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7878112792969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5917701721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8950157165527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3242645263672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.6190528869629</t>
+    <t xml:space="preserve">43.0116119384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2612571716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8146171569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5104141235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.7779312133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5630531311035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.3218841552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1253509521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.4563407897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.769474029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7878189086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5917739868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8950119018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3242683410645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.6190490722656</t>
   </si>
   <si>
     <t xml:space="preserve">43.5475883483887</t>
@@ -110,10 +110,10 @@
     <t xml:space="preserve">42.4131126403809</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7610168457031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9208526611328</t>
+    <t xml:space="preserve">41.7610206604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9208488464355</t>
   </si>
   <si>
     <t xml:space="preserve">38.2414817810059</t>
@@ -122,7 +122,7 @@
     <t xml:space="preserve">38.5005302429199</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0811614990234</t>
+    <t xml:space="preserve">39.081169128418</t>
   </si>
   <si>
     <t xml:space="preserve">39.0990295410156</t>
@@ -137,19 +137,19 @@
     <t xml:space="preserve">40.9123954772949</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0106620788574</t>
+    <t xml:space="preserve">41.0106582641602</t>
   </si>
   <si>
     <t xml:space="preserve">41.9307441711426</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0920181274414</t>
+    <t xml:space="preserve">43.0920066833496</t>
   </si>
   <si>
     <t xml:space="preserve">42.475643157959</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1366767883301</t>
+    <t xml:space="preserve">43.1366729736328</t>
   </si>
   <si>
     <t xml:space="preserve">43.7619743347168</t>
@@ -158,31 +158,31 @@
     <t xml:space="preserve">43.4493217468262</t>
   </si>
   <si>
-    <t xml:space="preserve">43.7798347473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1009368896484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3416557312012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1902770996094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2527961730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3064002990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.278636932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8677368164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5193557739258</t>
+    <t xml:space="preserve">43.779842376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.100944519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3416519165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1902694702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.252799987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3063926696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2786483764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.867733001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5193519592285</t>
   </si>
   <si>
     <t xml:space="preserve">41.6895523071289</t>
@@ -191,13 +191,13 @@
     <t xml:space="preserve">41.0910530090332</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6712112426758</t>
+    <t xml:space="preserve">40.671215057373</t>
   </si>
   <si>
     <t xml:space="preserve">40.1263084411621</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6265487670898</t>
+    <t xml:space="preserve">40.6265449523926</t>
   </si>
   <si>
     <t xml:space="preserve">40.8052024841309</t>
@@ -206,91 +206,91 @@
     <t xml:space="preserve">40.3496284484863</t>
   </si>
   <si>
-    <t xml:space="preserve">40.644416809082</t>
+    <t xml:space="preserve">40.6444206237793</t>
   </si>
   <si>
     <t xml:space="preserve">40.9838638305664</t>
   </si>
   <si>
-    <t xml:space="preserve">44.664192199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.334156036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.8701171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.450756072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.9594497680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.2720985412598</t>
+    <t xml:space="preserve">44.6641883850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.3341522216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.8701210021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.4507598876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.9594535827637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.2720947265625</t>
   </si>
   <si>
     <t xml:space="preserve">47.4333686828613</t>
   </si>
   <si>
-    <t xml:space="preserve">46.495418548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.0041198730469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.7807960510254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4681549072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.5128173828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.914794921875</t>
+    <t xml:space="preserve">46.4954223632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.0041122436523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.7807922363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.468147277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.5128059387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.9147911071777</t>
   </si>
   <si>
     <t xml:space="preserve">45.3788185119629</t>
   </si>
   <si>
-    <t xml:space="preserve">45.2894897460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.8254623413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.5574722290039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4234733581543</t>
+    <t xml:space="preserve">45.2894859313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.8254585266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.5574760437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4234809875488</t>
   </si>
   <si>
     <t xml:space="preserve">46.3614349365234</t>
   </si>
   <si>
-    <t xml:space="preserve">46.2274360656738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.4060935974121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8973960876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.7634086608887</t>
+    <t xml:space="preserve">46.2274322509766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.4060974121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.897403717041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.7634010314941</t>
   </si>
   <si>
     <t xml:space="preserve">46.8527374267578</t>
   </si>
   <si>
-    <t xml:space="preserve">47.2100486755371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.6740760803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.5847511291504</t>
+    <t xml:space="preserve">47.2100448608398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.6740798950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.5847549438477</t>
   </si>
   <si>
     <t xml:space="preserve">48.0285758972168</t>
@@ -302,109 +302,109 @@
     <t xml:space="preserve">47.7120018005371</t>
   </si>
   <si>
-    <t xml:space="preserve">48.526050567627</t>
+    <t xml:space="preserve">48.5260467529297</t>
   </si>
   <si>
     <t xml:space="preserve">48.7974014282227</t>
   </si>
   <si>
-    <t xml:space="preserve">49.7471122741699</t>
+    <t xml:space="preserve">49.7471160888672</t>
   </si>
   <si>
     <t xml:space="preserve">49.204418182373</t>
   </si>
   <si>
-    <t xml:space="preserve">50.1993598937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.2898101806641</t>
+    <t xml:space="preserve">50.1993560791016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.2897987365723</t>
   </si>
   <si>
     <t xml:space="preserve">50.8777275085449</t>
   </si>
   <si>
-    <t xml:space="preserve">49.7018928527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.6063804626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.7923355102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.3350410461426</t>
+    <t xml:space="preserve">49.7018852233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.6063842773438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.7923393249512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.3350372314453</t>
   </si>
   <si>
     <t xml:space="preserve">49.6114349365234</t>
   </si>
   <si>
-    <t xml:space="preserve">48.164249420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.3451499938965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.2145309448242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.5311050415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7069396972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.9732360839844</t>
+    <t xml:space="preserve">48.1642456054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.3451461791992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.2145347595215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.5311088562012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.7069435119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.9732437133789</t>
   </si>
   <si>
     <t xml:space="preserve">46.7622871398926</t>
   </si>
   <si>
-    <t xml:space="preserve">45.5864486694336</t>
+    <t xml:space="preserve">45.5864448547363</t>
   </si>
   <si>
     <t xml:space="preserve">46.6266136169434</t>
   </si>
   <si>
-    <t xml:space="preserve">49.5209922790527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.380256652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.0586242675781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7521705627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.5662117004395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.4707107543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.6566619873047</t>
+    <t xml:space="preserve">49.5209884643555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.3802642822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.0586280822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.7521743774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.5662155151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.4707069396973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.656665802002</t>
   </si>
   <si>
     <t xml:space="preserve">51.2395286560059</t>
   </si>
   <si>
-    <t xml:space="preserve">51.8726692199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.917896270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.6013221740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.5108757019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.2344741821289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.4605941772461</t>
+    <t xml:space="preserve">51.872673034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.9179000854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.6013259887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.5108795166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.2344703674316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.4605979919434</t>
   </si>
   <si>
     <t xml:space="preserve">51.646541595459</t>
@@ -416,46 +416,46 @@
     <t xml:space="preserve">50.9229545593262</t>
   </si>
   <si>
-    <t xml:space="preserve">50.6968269348145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.5159339904785</t>
+    <t xml:space="preserve">50.6968307495117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.515926361084</t>
   </si>
   <si>
     <t xml:space="preserve">50.8325080871582</t>
   </si>
   <si>
-    <t xml:space="preserve">52.2796897888184</t>
+    <t xml:space="preserve">52.2796936035156</t>
   </si>
   <si>
     <t xml:space="preserve">54.2695808410645</t>
   </si>
   <si>
-    <t xml:space="preserve">53.7721061706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.8574981689453</t>
+    <t xml:space="preserve">53.7721099853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.8575019836426</t>
   </si>
   <si>
     <t xml:space="preserve">55.0383911132812</t>
   </si>
   <si>
-    <t xml:space="preserve">56.0785636901855</t>
+    <t xml:space="preserve">56.0785675048828</t>
   </si>
   <si>
     <t xml:space="preserve">54.8122711181641</t>
   </si>
   <si>
-    <t xml:space="preserve">52.7319374084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.3249168395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.3299751281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0535736083984</t>
+    <t xml:space="preserve">52.73193359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.3249130249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.3299789428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0535621643066</t>
   </si>
   <si>
     <t xml:space="preserve">51.2847480773926</t>
@@ -464,58 +464,58 @@
     <t xml:space="preserve">52.9128379821777</t>
   </si>
   <si>
-    <t xml:space="preserve">52.4153709411621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0987968444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0083503723145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.5510406494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.7369995117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.1038513183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.1089134216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.9280090332031</t>
+    <t xml:space="preserve">52.4153671264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0987930297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0083427429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.5510368347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.737003326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.1038589477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.1089096069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.9280128479004</t>
   </si>
   <si>
     <t xml:space="preserve">52.6414947509766</t>
   </si>
   <si>
-    <t xml:space="preserve">53.1841850280762</t>
+    <t xml:space="preserve">53.1841812133789</t>
   </si>
   <si>
     <t xml:space="preserve">53.3650856018066</t>
   </si>
   <si>
-    <t xml:space="preserve">52.1892471313477</t>
+    <t xml:space="preserve">52.1892433166504</t>
   </si>
   <si>
     <t xml:space="preserve">53.0032844543457</t>
   </si>
   <si>
-    <t xml:space="preserve">53.2746353149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.958065032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.8625564575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.3701477050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.8274459838867</t>
+    <t xml:space="preserve">53.2746391296387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.9580612182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.8625526428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.3701438903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.827449798584</t>
   </si>
   <si>
     <t xml:space="preserve">51.3751983642578</t>
@@ -524,37 +524,40 @@
     <t xml:space="preserve">50.787281036377</t>
   </si>
   <si>
-    <t xml:space="preserve">51.5560989379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.651611328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.340087890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.2547035217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.4356002807617</t>
+    <t xml:space="preserve">51.556095123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.6516075134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.3400917053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.254695892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.4355964660645</t>
   </si>
   <si>
     <t xml:space="preserve">45.903018951416</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3100433349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.1291389465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.9884071350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.2597579956055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.3552665710449</t>
+    <t xml:space="preserve">46.3100395202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.129150390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.988410949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.2597618103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8527336120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.3552627563477</t>
   </si>
   <si>
     <t xml:space="preserve">46.7170639038086</t>
@@ -566,31 +569,31 @@
     <t xml:space="preserve">47.033634185791</t>
   </si>
   <si>
-    <t xml:space="preserve">46.5813941955566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.038703918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.2648239135742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.124080657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8979606628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.8476676940918</t>
+    <t xml:space="preserve">46.5813865661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.0386962890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.2648124694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.1240844726562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8979644775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.8476791381836</t>
   </si>
   <si>
     <t xml:space="preserve">48.0738067626953</t>
   </si>
   <si>
-    <t xml:space="preserve">49.8375587463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.0134010314941</t>
+    <t xml:space="preserve">49.8375625610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.0134048461914</t>
   </si>
   <si>
     <t xml:space="preserve">52.8223915100098</t>
@@ -599,16 +602,16 @@
     <t xml:space="preserve">51.1490821838379</t>
   </si>
   <si>
-    <t xml:space="preserve">49.4757652282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.2445869445801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.465648651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.7822227478027</t>
+    <t xml:space="preserve">49.4757690429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.2445831298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.4656524658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.7822265625</t>
   </si>
   <si>
     <t xml:space="preserve">52.867618560791</t>
@@ -617,28 +620,28 @@
     <t xml:space="preserve">53.1389617919922</t>
   </si>
   <si>
-    <t xml:space="preserve">54.0434608459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.0886840820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.133903503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.3600273132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.5912055969238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.9530029296875</t>
+    <t xml:space="preserve">54.0434532165527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.0886764526367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.1338996887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.3600234985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.5912132263184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.9530067443848</t>
   </si>
   <si>
     <t xml:space="preserve">54.5409240722656</t>
   </si>
   <si>
-    <t xml:space="preserve">55.4906425476074</t>
+    <t xml:space="preserve">55.4906387329102</t>
   </si>
   <si>
     <t xml:space="preserve">56.3046913146973</t>
@@ -650,7 +653,7 @@
     <t xml:space="preserve">56.214241027832</t>
   </si>
   <si>
-    <t xml:space="preserve">56.9830627441406</t>
+    <t xml:space="preserve">56.9830513000488</t>
   </si>
   <si>
     <t xml:space="preserve">56.8473777770996</t>
@@ -659,28 +662,28 @@
     <t xml:space="preserve">56.349910736084</t>
   </si>
   <si>
-    <t xml:space="preserve">57.5257530212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2544059753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.7066535949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.7970962524414</t>
+    <t xml:space="preserve">57.525749206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2544021606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.7066459655762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.7971000671387</t>
   </si>
   <si>
     <t xml:space="preserve">58.1589012145996</t>
   </si>
   <si>
-    <t xml:space="preserve">58.0684471130371</t>
+    <t xml:space="preserve">58.0684509277344</t>
   </si>
   <si>
     <t xml:space="preserve">58.7920417785645</t>
   </si>
   <si>
-    <t xml:space="preserve">59.651309967041</t>
+    <t xml:space="preserve">59.6513061523438</t>
   </si>
   <si>
     <t xml:space="preserve">59.7869834899902</t>
@@ -689,10 +692,10 @@
     <t xml:space="preserve">59.5156402587891</t>
   </si>
   <si>
-    <t xml:space="preserve">58.8372688293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.8875465393066</t>
+    <t xml:space="preserve">58.837272644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.8875503540039</t>
   </si>
   <si>
     <t xml:space="preserve">58.1136703491211</t>
@@ -701,148 +704,148 @@
     <t xml:space="preserve">59.3347396850586</t>
   </si>
   <si>
-    <t xml:space="preserve">60.7819175720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.6965370178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.0583381652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.0532684326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.229118347168</t>
+    <t xml:space="preserve">60.781925201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.6965293884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.0583419799805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.053279876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.229133605957</t>
   </si>
   <si>
     <t xml:space="preserve">64.2190017700195</t>
   </si>
   <si>
-    <t xml:space="preserve">62.952709197998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.4100151062012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.6813697814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.6310729980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.4954109191895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.178825378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.5406188964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.314510345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.6411972045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.9628295898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.7316474914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.4638214111328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.7383804321289</t>
+    <t xml:space="preserve">62.9527130126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.4100189208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.6813583374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.6310691833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.4954032897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.178840637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.5406303405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.3145065307617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.6412086486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.9628257751465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.7316436767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.4638175964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.7383995056152</t>
   </si>
   <si>
     <t xml:space="preserve">62.8756637573242</t>
   </si>
   <si>
-    <t xml:space="preserve">63.1044692993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.3332672119141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.2807846069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.2484970092773</t>
+    <t xml:space="preserve">63.1044769287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.3332748413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.2807807922363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.2485046386719</t>
   </si>
   <si>
     <t xml:space="preserve">64.5688323974609</t>
   </si>
   <si>
-    <t xml:space="preserve">64.2942581176758</t>
+    <t xml:space="preserve">64.2942657470703</t>
   </si>
   <si>
     <t xml:space="preserve">65.3925170898438</t>
   </si>
   <si>
-    <t xml:space="preserve">64.8891677856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.6670913696289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.3535079956055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.9739303588867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.8366584777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.3467788696289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.7061080932617</t>
+    <t xml:space="preserve">64.8891525268555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.6670989990234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.3534927368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.973934173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.8366470336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.3467712402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.7061157226562</t>
   </si>
   <si>
     <t xml:space="preserve">65.255256652832</t>
   </si>
   <si>
-    <t xml:space="preserve">65.1179580688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.9806900024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.5365447998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.8689270019531</t>
+    <t xml:space="preserve">65.1179656982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.9806823730469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.5365524291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.8689193725586</t>
   </si>
   <si>
     <t xml:space="preserve">60.4045715332031</t>
   </si>
   <si>
-    <t xml:space="preserve">61.5485992431641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.9537086486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.5943641662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.3198013305664</t>
+    <t xml:space="preserve">61.5486068725586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.9537048339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.594367980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.3197975158691</t>
   </si>
   <si>
     <t xml:space="preserve">60.4503364562988</t>
   </si>
   <si>
-    <t xml:space="preserve">61.4113159179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.2350158691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.1960029602051</t>
+    <t xml:space="preserve">61.4113082885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.2350196838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.1960105895996</t>
   </si>
   <si>
     <t xml:space="preserve">64.0196914672852</t>
@@ -854,7 +857,7 @@
     <t xml:space="preserve">64.2027435302734</t>
   </si>
   <si>
-    <t xml:space="preserve">63.9281692504883</t>
+    <t xml:space="preserve">63.9281806945801</t>
   </si>
   <si>
     <t xml:space="preserve">67.085693359375</t>
@@ -872,13 +875,13 @@
     <t xml:space="preserve">67.1772079467773</t>
   </si>
   <si>
-    <t xml:space="preserve">66.8111267089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.719596862793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.4450302124023</t>
+    <t xml:space="preserve">66.8111190795898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.7196044921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.4450378417969</t>
   </si>
   <si>
     <t xml:space="preserve">65.8501358032227</t>
@@ -887,49 +890,49 @@
     <t xml:space="preserve">66.0331878662109</t>
   </si>
   <si>
-    <t xml:space="preserve">65.575569152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.621337890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.4840545654297</t>
+    <t xml:space="preserve">65.5755767822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.6213150024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.4840698242188</t>
   </si>
   <si>
     <t xml:space="preserve">65.3010025024414</t>
   </si>
   <si>
-    <t xml:space="preserve">64.7976379394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.1112213134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.2619857788086</t>
+    <t xml:space="preserve">64.7976303100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.1112289428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.2619934082031</t>
   </si>
   <si>
     <t xml:space="preserve">66.307746887207</t>
   </si>
   <si>
-    <t xml:space="preserve">67.1314544677734</t>
+    <t xml:space="preserve">67.1314392089844</t>
   </si>
   <si>
     <t xml:space="preserve">67.451774597168</t>
   </si>
   <si>
-    <t xml:space="preserve">67.3144989013672</t>
+    <t xml:space="preserve">67.3144912719727</t>
   </si>
   <si>
     <t xml:space="preserve">67.7263412475586</t>
   </si>
   <si>
-    <t xml:space="preserve">66.9026336669922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.2229690551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.9551467895508</t>
+    <t xml:space="preserve">66.9026489257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.2229614257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.9551391601562</t>
   </si>
   <si>
     <t xml:space="preserve">67.5432968139648</t>
@@ -941,28 +944,28 @@
     <t xml:space="preserve">69.4194946289062</t>
   </si>
   <si>
-    <t xml:space="preserve">69.0076599121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.7330856323242</t>
+    <t xml:space="preserve">69.0076522827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.7330780029297</t>
   </si>
   <si>
     <t xml:space="preserve">68.8246002197266</t>
   </si>
   <si>
-    <t xml:space="preserve">69.0534133911133</t>
+    <t xml:space="preserve">69.0534057617188</t>
   </si>
   <si>
     <t xml:space="preserve">70.014404296875</t>
   </si>
   <si>
-    <t xml:space="preserve">71.2041931152344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.2957077026367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.8973388671875</t>
+    <t xml:space="preserve">71.2041854858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.2957000732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.897346496582</t>
   </si>
   <si>
     <t xml:space="preserve">72.3024444580078</t>
@@ -974,37 +977,37 @@
     <t xml:space="preserve">71.7533111572266</t>
   </si>
   <si>
-    <t xml:space="preserve">72.0736465454102</t>
+    <t xml:space="preserve">72.0736312866211</t>
   </si>
   <si>
     <t xml:space="preserve">73.7210388183594</t>
   </si>
   <si>
-    <t xml:space="preserve">71.799072265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.1584320068359</t>
+    <t xml:space="preserve">71.7990646362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.1584243774414</t>
   </si>
   <si>
     <t xml:space="preserve">71.2499389648438</t>
   </si>
   <si>
-    <t xml:space="preserve">71.4329833984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.6617889404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.7075500488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.3872146606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.4787445068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.2566833496094</t>
+    <t xml:space="preserve">71.4329986572266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.6618041992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.7075576782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.3872299194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.478759765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.2566757202148</t>
   </si>
   <si>
     <t xml:space="preserve">71.3414611816406</t>
@@ -1019,64 +1022,64 @@
     <t xml:space="preserve">71.6160354614258</t>
   </si>
   <si>
-    <t xml:space="preserve">65.9416580200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.3992767333984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.3212203979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.6873168945312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.1516723632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.9296188354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.6550369262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.8771057128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.183952331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.2364501953125</t>
+    <t xml:space="preserve">65.9416656494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.3992691040039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.3212356567383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.6873321533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.1516876220703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.9296112060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.6550445556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.8771209716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.1839447021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.236457824707</t>
   </si>
   <si>
     <t xml:space="preserve">69.9228820800781</t>
   </si>
   <si>
-    <t xml:space="preserve">70.0601501464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.8381042480469</t>
+    <t xml:space="preserve">70.0601577758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.8380966186523</t>
   </si>
   <si>
     <t xml:space="preserve">71.06689453125</t>
   </si>
   <si>
-    <t xml:space="preserve">72.8058242797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.5379943847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.7923278808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.3737487792969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.2822265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.1381912231445</t>
+    <t xml:space="preserve">72.8058166503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.5379791259766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.7923202514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.3737411499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.2822189331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.13818359375</t>
   </si>
   <si>
     <t xml:space="preserve">68.504280090332</t>
@@ -1085,91 +1088,91 @@
     <t xml:space="preserve">70.2889633178711</t>
   </si>
   <si>
-    <t xml:space="preserve">73.2634201049805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.7142944335938</t>
+    <t xml:space="preserve">73.2634353637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.7142868041992</t>
   </si>
   <si>
     <t xml:space="preserve">72.53125</t>
   </si>
   <si>
-    <t xml:space="preserve">72.8515777587891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.9430847167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.6227722167969</t>
+    <t xml:space="preserve">72.8515853881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.9430923461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.6227798461914</t>
   </si>
   <si>
     <t xml:space="preserve">72.3939666748047</t>
   </si>
   <si>
-    <t xml:space="preserve">72.3482055664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.577018737793</t>
+    <t xml:space="preserve">72.3482131958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.5770111083984</t>
   </si>
   <si>
     <t xml:space="preserve">72.1651611328125</t>
   </si>
   <si>
-    <t xml:space="preserve">70.7008209228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.6685409545898</t>
+    <t xml:space="preserve">70.7008056640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.6685333251953</t>
   </si>
   <si>
     <t xml:space="preserve">68.9618911743164</t>
   </si>
   <si>
-    <t xml:space="preserve">67.8178558349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.6536026000977</t>
+    <t xml:space="preserve">67.8178634643555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.6536140441895</t>
   </si>
   <si>
     <t xml:space="preserve">65.1637115478516</t>
   </si>
   <si>
-    <t xml:space="preserve">64.0654602050781</t>
+    <t xml:space="preserve">64.0654525756836</t>
   </si>
   <si>
     <t xml:space="preserve">64.4315490722656</t>
   </si>
   <si>
-    <t xml:space="preserve">63.8824119567871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.7451362609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.5620803833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.692626953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.7316398620605</t>
+    <t xml:space="preserve">63.8824195861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.7451286315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.5620880126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.6926307678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.7316360473633</t>
   </si>
   <si>
     <t xml:space="preserve">60.7706680297852</t>
   </si>
   <si>
-    <t xml:space="preserve">60.4960975646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.6401214599609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.6011047363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.6145782470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.4127731323242</t>
+    <t xml:space="preserve">60.49609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.6401252746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.6010971069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.6145858764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.4127655029297</t>
   </si>
   <si>
     <t xml:space="preserve">67.5890579223633</t>
@@ -1178,61 +1181,61 @@
     <t xml:space="preserve">66.0789413452148</t>
   </si>
   <si>
-    <t xml:space="preserve">65.7128677368164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.4908065795898</t>
+    <t xml:space="preserve">65.7128753662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.4907913208008</t>
   </si>
   <si>
     <t xml:space="preserve">66.1247100830078</t>
   </si>
   <si>
-    <t xml:space="preserve">67.2687301635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.1449356079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.0211181640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.7398147583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.7465744018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.5245132446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.0278625488281</t>
+    <t xml:space="preserve">67.2687377929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.1449432373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.021125793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.7398223876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.74658203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.5245056152344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.0278701782227</t>
   </si>
   <si>
     <t xml:space="preserve">71.9821166992188</t>
   </si>
   <si>
-    <t xml:space="preserve">73.5837478637695</t>
+    <t xml:space="preserve">73.5837631225586</t>
   </si>
   <si>
     <t xml:space="preserve">74.6362762451172</t>
   </si>
   <si>
-    <t xml:space="preserve">73.4007034301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.4074554443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.1328887939453</t>
+    <t xml:space="preserve">73.4006958007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.4074630737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.1328811645508</t>
   </si>
   <si>
     <t xml:space="preserve">74.3159255981445</t>
   </si>
   <si>
-    <t xml:space="preserve">75.6429977416992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.4989700317383</t>
+    <t xml:space="preserve">75.6430053710938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.4989776611328</t>
   </si>
   <si>
     <t xml:space="preserve">75.1463928222656</t>
@@ -1244,67 +1247,67 @@
     <t xml:space="preserve">74.6377029418945</t>
   </si>
   <si>
-    <t xml:space="preserve">75.8862991333008</t>
+    <t xml:space="preserve">75.8862915039062</t>
   </si>
   <si>
     <t xml:space="preserve">77.8285446166992</t>
   </si>
   <si>
-    <t xml:space="preserve">76.7649307250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.1001434326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.2447357177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.3949813842773</t>
+    <t xml:space="preserve">76.7649230957031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.1001358032227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.2447280883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.3949890136719</t>
   </si>
   <si>
     <t xml:space="preserve">79.0771255493164</t>
   </si>
   <si>
-    <t xml:space="preserve">80.926872253418</t>
+    <t xml:space="preserve">80.9268798828125</t>
   </si>
   <si>
     <t xml:space="preserve">81.6205368041992</t>
   </si>
   <si>
-    <t xml:space="preserve">81.3893280029297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.7592697143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.2968444824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.267951965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.1639556884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.4587936401367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.3374176025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.0137252807617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.3662948608398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.1177139282227</t>
+    <t xml:space="preserve">81.3893203735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.75927734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.2968292236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.2679443359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.1639633178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.4587860107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.3374252319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.0137176513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.3663101196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.1177062988281</t>
   </si>
   <si>
     <t xml:space="preserve">82.7766418457031</t>
   </si>
   <si>
-    <t xml:space="preserve">82.4529266357422</t>
+    <t xml:space="preserve">82.4529418945312</t>
   </si>
   <si>
     <t xml:space="preserve">88.7883529663086</t>
@@ -1316,10 +1319,10 @@
     <t xml:space="preserve">88.5108795166016</t>
   </si>
   <si>
-    <t xml:space="preserve">89.9906921386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.112060546875</t>
+    <t xml:space="preserve">89.9906997680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.1120529174805</t>
   </si>
   <si>
     <t xml:space="preserve">90.3606491088867</t>
@@ -1328,13 +1331,13 @@
     <t xml:space="preserve">89.0658187866211</t>
   </si>
   <si>
-    <t xml:space="preserve">90.1756744384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.1582946777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.3721542358398</t>
+    <t xml:space="preserve">90.175666809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.1583099365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.3721618652344</t>
   </si>
   <si>
     <t xml:space="preserve">88.603385925293</t>
@@ -1343,49 +1346,49 @@
     <t xml:space="preserve">88.6958618164062</t>
   </si>
   <si>
-    <t xml:space="preserve">88.9270782470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.8230895996094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.3143997192383</t>
+    <t xml:space="preserve">88.9270935058594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.8230667114258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.3144073486328</t>
   </si>
   <si>
     <t xml:space="preserve">90.5456237792969</t>
   </si>
   <si>
-    <t xml:space="preserve">89.2507858276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.7420959472656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.4820022583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.4010238647461</t>
+    <t xml:space="preserve">89.2507934570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.7421035766602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.4820175170898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.4010391235352</t>
   </si>
   <si>
     <t xml:space="preserve">86.938591003418</t>
   </si>
   <si>
-    <t xml:space="preserve">87.2622909545898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.5050277709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.5512771606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.9038619995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.6609268188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.7881393432617</t>
+    <t xml:space="preserve">87.2622985839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.5050201416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.55126953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.9038696289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.6609344482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.7881546020508</t>
   </si>
   <si>
     <t xml:space="preserve">82.0829772949219</t>
@@ -1397,67 +1400,67 @@
     <t xml:space="preserve">81.481803894043</t>
   </si>
   <si>
-    <t xml:space="preserve">80.371955871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.5280456542969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.0482635498047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.3257141113281</t>
+    <t xml:space="preserve">80.3719482421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.5280532836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.0482482910156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.3257064819336</t>
   </si>
   <si>
     <t xml:space="preserve">86.1986846923828</t>
   </si>
   <si>
-    <t xml:space="preserve">86.7073822021484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.6263961791992</t>
+    <t xml:space="preserve">86.7073669433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.6264038085938</t>
   </si>
   <si>
     <t xml:space="preserve">84.9501113891602</t>
   </si>
   <si>
-    <t xml:space="preserve">84.718879699707</t>
+    <t xml:space="preserve">84.7188873291016</t>
   </si>
   <si>
     <t xml:space="preserve">84.3026885986328</t>
   </si>
   <si>
-    <t xml:space="preserve">84.8113632202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.9212188720703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.7536239624023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.4125366210938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.6841583251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.9616165161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.0367431640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.314208984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.8864974975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.6496124267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.8982086181641</t>
+    <t xml:space="preserve">84.8113708496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.9212265014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.7536163330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.4125442504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.6841506958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.9616088867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.0367279052734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.3142013549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.8864898681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.6496047973633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.898193359375</t>
   </si>
   <si>
     <t xml:space="preserve">85.3200531005859</t>
@@ -1469,31 +1472,31 @@
     <t xml:space="preserve">85.9674606323242</t>
   </si>
   <si>
-    <t xml:space="preserve">83.7940139770508</t>
+    <t xml:space="preserve">83.7939987182617</t>
   </si>
   <si>
     <t xml:space="preserve">84.4414138793945</t>
   </si>
   <si>
-    <t xml:space="preserve">82.4991760253906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.2794647216797</t>
+    <t xml:space="preserve">82.4991683959961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.2794723510742</t>
   </si>
   <si>
     <t xml:space="preserve">76.1175155639648</t>
   </si>
   <si>
-    <t xml:space="preserve">75.3776092529297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.2677688598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.7128219604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.7938079833984</t>
+    <t xml:space="preserve">75.3776168823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.2677536010742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.7128295898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.7937927246094</t>
   </si>
   <si>
     <t xml:space="preserve">73.5278549194336</t>
@@ -1502,10 +1505,10 @@
     <t xml:space="preserve">73.8515548706055</t>
   </si>
   <si>
-    <t xml:space="preserve">75.470100402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.8400497436523</t>
+    <t xml:space="preserve">75.4700927734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.8400421142578</t>
   </si>
   <si>
     <t xml:space="preserve">76.2099990844727</t>
@@ -1514,40 +1517,37 @@
     <t xml:space="preserve">77.4123306274414</t>
   </si>
   <si>
-    <t xml:space="preserve">73.7590637207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.4989776611328</t>
+    <t xml:space="preserve">73.7590789794922</t>
   </si>
   <si>
     <t xml:space="preserve">74.7764358520508</t>
   </si>
   <si>
-    <t xml:space="preserve">73.2041473388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.9151763916016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.025032043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.5048370361328</t>
+    <t xml:space="preserve">73.2041549682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.915168762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.025016784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.5048294067383</t>
   </si>
   <si>
     <t xml:space="preserve">80.9731369018555</t>
   </si>
   <si>
-    <t xml:space="preserve">76.302490234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.0886383056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.9902954101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.4468765258789</t>
+    <t xml:space="preserve">76.3024978637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.0886306762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.9903030395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.4468688964844</t>
   </si>
   <si>
     <t xml:space="preserve">71.5856094360352</t>
@@ -1559,145 +1559,145 @@
     <t xml:space="preserve">72.8804397583008</t>
   </si>
   <si>
-    <t xml:space="preserve">74.0365295410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.2503890991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.95556640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.7705688476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.4583892822266</t>
+    <t xml:space="preserve">74.0365371704102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.2503814697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.9555587768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.7705764770508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.458381652832</t>
   </si>
   <si>
     <t xml:space="preserve">69.3659057617188</t>
   </si>
   <si>
-    <t xml:space="preserve">69.7358551025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.2330169677734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.6548690795898</t>
+    <t xml:space="preserve">69.7358474731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.2330322265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.6548767089844</t>
   </si>
   <si>
     <t xml:space="preserve">68.2560501098633</t>
   </si>
   <si>
-    <t xml:space="preserve">67.7936096191406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.4698944091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.4410247802734</t>
+    <t xml:space="preserve">67.7936019897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.4698867797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.4410171508789</t>
   </si>
   <si>
     <t xml:space="preserve">67.7011108398438</t>
   </si>
   <si>
-    <t xml:space="preserve">66.3600311279297</t>
+    <t xml:space="preserve">66.3600387573242</t>
   </si>
   <si>
     <t xml:space="preserve">64.8339920043945</t>
   </si>
   <si>
-    <t xml:space="preserve">65.2501907348633</t>
+    <t xml:space="preserve">65.2501983642578</t>
   </si>
   <si>
     <t xml:space="preserve">65.111457824707</t>
   </si>
   <si>
-    <t xml:space="preserve">65.6201400756836</t>
+    <t xml:space="preserve">65.6201324462891</t>
   </si>
   <si>
     <t xml:space="preserve">67.007453918457</t>
   </si>
   <si>
-    <t xml:space="preserve">65.7744827270508</t>
+    <t xml:space="preserve">65.7744750976562</t>
   </si>
   <si>
     <t xml:space="preserve">67.0548782348633</t>
   </si>
   <si>
-    <t xml:space="preserve">67.5290985107422</t>
+    <t xml:space="preserve">67.5290908813477</t>
   </si>
   <si>
     <t xml:space="preserve">67.1497268676758</t>
   </si>
   <si>
-    <t xml:space="preserve">70.8960800170898</t>
+    <t xml:space="preserve">70.8960723876953</t>
   </si>
   <si>
     <t xml:space="preserve">70.3744201660156</t>
   </si>
   <si>
-    <t xml:space="preserve">70.0898895263672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.5167007446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.6548233032227</t>
+    <t xml:space="preserve">70.0899047851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.5166854858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.6548309326172</t>
   </si>
   <si>
     <t xml:space="preserve">71.0383377075195</t>
   </si>
   <si>
-    <t xml:space="preserve">70.6589660644531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.7971038818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.5042953491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.9785003662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.2073516845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.0650863647461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.9228134155273</t>
+    <t xml:space="preserve">70.6589584350586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.7970886230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.5042877197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.9785079956055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.2073440551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.0650787353516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.9228210449219</t>
   </si>
   <si>
     <t xml:space="preserve">75.5434494018555</t>
   </si>
   <si>
-    <t xml:space="preserve">76.0176620483398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.2547607421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.6382827758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.5351638793945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.1083755493164</t>
+    <t xml:space="preserve">76.0176544189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.254768371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.6382904052734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.5351791381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.1083831787109</t>
   </si>
   <si>
     <t xml:space="preserve">75.8279724121094</t>
   </si>
   <si>
-    <t xml:space="preserve">77.8671112060547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.9619674682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.7165832519531</t>
+    <t xml:space="preserve">77.8671188354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.9619598388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.7165908813477</t>
   </si>
   <si>
     <t xml:space="preserve">79.6217346191406</t>
@@ -1706,22 +1706,22 @@
     <t xml:space="preserve">80.7124481201172</t>
   </si>
   <si>
-    <t xml:space="preserve">80.28564453125</t>
+    <t xml:space="preserve">80.2856521606445</t>
   </si>
   <si>
     <t xml:space="preserve">80.6176071166992</t>
   </si>
   <si>
-    <t xml:space="preserve">80.2382354736328</t>
+    <t xml:space="preserve">80.2382202148438</t>
   </si>
   <si>
     <t xml:space="preserve">80.4279174804688</t>
   </si>
   <si>
-    <t xml:space="preserve">80.8072967529297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.0443954467773</t>
+    <t xml:space="preserve">80.8072891235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.0444030761719</t>
   </si>
   <si>
     <t xml:space="preserve">80.0485458374023</t>
@@ -1730,22 +1730,22 @@
     <t xml:space="preserve">80.9021377563477</t>
   </si>
   <si>
-    <t xml:space="preserve">81.7083206176758</t>
+    <t xml:space="preserve">81.7083129882812</t>
   </si>
   <si>
     <t xml:space="preserve">81.3289413452148</t>
   </si>
   <si>
-    <t xml:space="preserve">81.8031692504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.0835571289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.7516098022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.4196472167969</t>
+    <t xml:space="preserve">81.8031616210938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.0835647583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.7516021728516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.4196395874023</t>
   </si>
   <si>
     <t xml:space="preserve">82.3722229003906</t>
@@ -1754,16 +1754,16 @@
     <t xml:space="preserve">82.2773818969727</t>
   </si>
   <si>
-    <t xml:space="preserve">83.2732467651367</t>
+    <t xml:space="preserve">83.2732543945312</t>
   </si>
   <si>
     <t xml:space="preserve">82.1825408935547</t>
   </si>
   <si>
-    <t xml:space="preserve">81.3763656616211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.9969863891602</t>
+    <t xml:space="preserve">81.3763732910156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.9969787597656</t>
   </si>
   <si>
     <t xml:space="preserve">83.3206558227539</t>
@@ -1772,28 +1772,28 @@
     <t xml:space="preserve">83.5577697753906</t>
   </si>
   <si>
-    <t xml:space="preserve">84.0794219970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.316535949707</t>
+    <t xml:space="preserve">84.0794296264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.3165435791016</t>
   </si>
   <si>
     <t xml:space="preserve">83.9845809936523</t>
   </si>
   <si>
-    <t xml:space="preserve">84.7433319091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.0320053100586</t>
+    <t xml:space="preserve">84.7433242797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.0319976806641</t>
   </si>
   <si>
     <t xml:space="preserve">85.1227035522461</t>
   </si>
   <si>
-    <t xml:space="preserve">85.0752868652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.881462097168</t>
+    <t xml:space="preserve">85.0752792358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.8814697265625</t>
   </si>
   <si>
     <t xml:space="preserve">86.877326965332</t>
@@ -1814,22 +1814,22 @@
     <t xml:space="preserve">86.3082656860352</t>
   </si>
   <si>
-    <t xml:space="preserve">86.2134094238281</t>
+    <t xml:space="preserve">86.2134170532227</t>
   </si>
   <si>
     <t xml:space="preserve">86.7350540161133</t>
   </si>
   <si>
-    <t xml:space="preserve">83.130989074707</t>
+    <t xml:space="preserve">83.1309814453125</t>
   </si>
   <si>
     <t xml:space="preserve">80.7598724365234</t>
   </si>
   <si>
-    <t xml:space="preserve">81.2815093994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.6093292236328</t>
+    <t xml:space="preserve">81.2815170288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.6093368530273</t>
   </si>
   <si>
     <t xml:space="preserve">82.8938674926758</t>
@@ -1838,13 +1838,13 @@
     <t xml:space="preserve">84.8855972290039</t>
   </si>
   <si>
-    <t xml:space="preserve">85.2649688720703</t>
+    <t xml:space="preserve">85.2649765014648</t>
   </si>
   <si>
     <t xml:space="preserve">85.3598175048828</t>
   </si>
   <si>
-    <t xml:space="preserve">86.4031066894531</t>
+    <t xml:space="preserve">86.4030914306641</t>
   </si>
   <si>
     <t xml:space="preserve">89.2958526611328</t>
@@ -1853,16 +1853,16 @@
     <t xml:space="preserve">90.6236801147461</t>
   </si>
   <si>
-    <t xml:space="preserve">92.4257125854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.378303527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.8569412231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.3304290771484</t>
+    <t xml:space="preserve">92.4257049560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92.378288269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92.8569488525391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92.3304214477539</t>
   </si>
   <si>
     <t xml:space="preserve">93.3355865478516</t>
@@ -1886,16 +1886,16 @@
     <t xml:space="preserve">89.9371948242188</t>
   </si>
   <si>
-    <t xml:space="preserve">87.6397171020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91.2295532226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.5218887329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93.1441268920898</t>
+    <t xml:space="preserve">87.6397247314453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91.2295608520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92.5218963623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93.1441345214844</t>
   </si>
   <si>
     <t xml:space="preserve">94.2928695678711</t>
@@ -1904,7 +1904,7 @@
     <t xml:space="preserve">96.7818145751953</t>
   </si>
   <si>
-    <t xml:space="preserve">97.6433715820312</t>
+    <t xml:space="preserve">97.6433792114258</t>
   </si>
   <si>
     <t xml:space="preserve">95.0108413696289</t>
@@ -1919,10 +1919,10 @@
     <t xml:space="preserve">100.610969543457</t>
   </si>
   <si>
-    <t xml:space="preserve">102.621269226074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.9408721923828</t>
+    <t xml:space="preserve">102.62126159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.9408798217773</t>
   </si>
   <si>
     <t xml:space="preserve">100.515243530273</t>
@@ -1943,13 +1943,13 @@
     <t xml:space="preserve">97.7391128540039</t>
   </si>
   <si>
-    <t xml:space="preserve">98.5049362182617</t>
+    <t xml:space="preserve">98.5049438476562</t>
   </si>
   <si>
     <t xml:space="preserve">98.2177505493164</t>
   </si>
   <si>
-    <t xml:space="preserve">100.802429199219</t>
+    <t xml:space="preserve">100.802436828613</t>
   </si>
   <si>
     <t xml:space="preserve">99.5579528808594</t>
@@ -1964,7 +1964,7 @@
     <t xml:space="preserve">98.4092178344727</t>
   </si>
   <si>
-    <t xml:space="preserve">98.792121887207</t>
+    <t xml:space="preserve">98.7921142578125</t>
   </si>
   <si>
     <t xml:space="preserve">97.4519348144531</t>
@@ -1985,7 +1985,7 @@
     <t xml:space="preserve">103.387107849121</t>
   </si>
   <si>
-    <t xml:space="preserve">101.759719848633</t>
+    <t xml:space="preserve">101.759727478027</t>
   </si>
   <si>
     <t xml:space="preserve">100.419509887695</t>
@@ -1994,13 +1994,13 @@
     <t xml:space="preserve">103.099914550781</t>
   </si>
   <si>
-    <t xml:space="preserve">101.951179504395</t>
+    <t xml:space="preserve">101.951171875</t>
   </si>
   <si>
     <t xml:space="preserve">101.376808166504</t>
   </si>
   <si>
-    <t xml:space="preserve">101.185340881348</t>
+    <t xml:space="preserve">101.185333251953</t>
   </si>
   <si>
     <t xml:space="preserve">99.653678894043</t>
@@ -2021,7 +2021,7 @@
     <t xml:space="preserve">104.344390869141</t>
   </si>
   <si>
-    <t xml:space="preserve">101.281059265137</t>
+    <t xml:space="preserve">101.281066894531</t>
   </si>
   <si>
     <t xml:space="preserve">102.429824829102</t>
@@ -2033,40 +2033,40 @@
     <t xml:space="preserve">105.014488220215</t>
   </si>
   <si>
-    <t xml:space="preserve">104.823028564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104.248672485352</t>
+    <t xml:space="preserve">104.823036193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104.248664855957</t>
   </si>
   <si>
     <t xml:space="preserve">101.663986206055</t>
   </si>
   <si>
-    <t xml:space="preserve">99.8451385498047</t>
+    <t xml:space="preserve">99.8451461791992</t>
   </si>
   <si>
     <t xml:space="preserve">97.9305725097656</t>
   </si>
   <si>
-    <t xml:space="preserve">99.3665084838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.323776245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102.23836517334</t>
+    <t xml:space="preserve">99.3665008544922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.323783874512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102.238372802734</t>
   </si>
   <si>
     <t xml:space="preserve">101.568267822266</t>
   </si>
   <si>
-    <t xml:space="preserve">100.993881225586</t>
+    <t xml:space="preserve">100.993873596191</t>
   </si>
   <si>
     <t xml:space="preserve">102.142631530762</t>
   </si>
   <si>
-    <t xml:space="preserve">100.898155212402</t>
+    <t xml:space="preserve">100.898162841797</t>
   </si>
   <si>
     <t xml:space="preserve">95.6330718994141</t>
@@ -2075,13 +2075,13 @@
     <t xml:space="preserve">95.9202575683594</t>
   </si>
   <si>
-    <t xml:space="preserve">95.0587005615234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.2980270385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.4894866943359</t>
+    <t xml:space="preserve">95.058708190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.2980346679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.4894790649414</t>
   </si>
   <si>
     <t xml:space="preserve">95.8245315551758</t>
@@ -2093,13 +2093,13 @@
     <t xml:space="preserve">92.8090744018555</t>
   </si>
   <si>
-    <t xml:space="preserve">93.5270462036133</t>
+    <t xml:space="preserve">93.5270385742188</t>
   </si>
   <si>
     <t xml:space="preserve">92.4740142822266</t>
   </si>
   <si>
-    <t xml:space="preserve">93.4791717529297</t>
+    <t xml:space="preserve">93.4791793823242</t>
   </si>
   <si>
     <t xml:space="preserve">92.9048080444336</t>
@@ -2108,13 +2108,13 @@
     <t xml:space="preserve">93.1919860839844</t>
   </si>
   <si>
-    <t xml:space="preserve">94.3407287597656</t>
+    <t xml:space="preserve">94.3407363891602</t>
   </si>
   <si>
     <t xml:space="preserve">96.5903625488281</t>
   </si>
   <si>
-    <t xml:space="preserve">96.015983581543</t>
+    <t xml:space="preserve">96.0159912109375</t>
   </si>
   <si>
     <t xml:space="preserve">100.13232421875</t>
@@ -2123,13 +2123,13 @@
     <t xml:space="preserve">99.1750411987305</t>
   </si>
   <si>
-    <t xml:space="preserve">102.046905517578</t>
+    <t xml:space="preserve">102.046897888184</t>
   </si>
   <si>
     <t xml:space="preserve">104.440116882324</t>
   </si>
   <si>
-    <t xml:space="preserve">105.971786499023</t>
+    <t xml:space="preserve">105.971778869629</t>
   </si>
   <si>
     <t xml:space="preserve">107.311981201172</t>
@@ -2138,37 +2138,37 @@
     <t xml:space="preserve">109.609481811523</t>
   </si>
   <si>
-    <t xml:space="preserve">109.035102844238</t>
+    <t xml:space="preserve">109.035110473633</t>
   </si>
   <si>
     <t xml:space="preserve">110.471046447754</t>
   </si>
   <si>
-    <t xml:space="preserve">114.013000488281</t>
+    <t xml:space="preserve">114.012992858887</t>
   </si>
   <si>
     <t xml:space="preserve">115.257484436035</t>
   </si>
   <si>
-    <t xml:space="preserve">114.68310546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.970291137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.119033813477</t>
+    <t xml:space="preserve">114.683113098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.970283508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.119041442871</t>
   </si>
   <si>
     <t xml:space="preserve">113.247177124023</t>
   </si>
   <si>
-    <t xml:space="preserve">116.406227111816</t>
+    <t xml:space="preserve">116.406219482422</t>
   </si>
   <si>
     <t xml:space="preserve">117.459228515625</t>
   </si>
   <si>
-    <t xml:space="preserve">118.703712463379</t>
+    <t xml:space="preserve">118.703720092773</t>
   </si>
   <si>
     <t xml:space="preserve">118.512260437012</t>
@@ -2183,16 +2183,16 @@
     <t xml:space="preserve">114.874565124512</t>
   </si>
   <si>
-    <t xml:space="preserve">111.045417785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.672798156738</t>
+    <t xml:space="preserve">111.04541015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.672790527344</t>
   </si>
   <si>
     <t xml:space="preserve">112.00269317627</t>
   </si>
   <si>
-    <t xml:space="preserve">111.715507507324</t>
+    <t xml:space="preserve">111.71549987793</t>
   </si>
   <si>
     <t xml:space="preserve">112.577072143555</t>
@@ -2204,13 +2204,13 @@
     <t xml:space="preserve">112.481338500977</t>
   </si>
   <si>
-    <t xml:space="preserve">111.524055480957</t>
+    <t xml:space="preserve">111.524063110352</t>
   </si>
   <si>
     <t xml:space="preserve">111.236869812012</t>
   </si>
   <si>
-    <t xml:space="preserve">109.896667480469</t>
+    <t xml:space="preserve">109.896675109863</t>
   </si>
   <si>
     <t xml:space="preserve">113.342895507812</t>
@@ -2237,31 +2237,31 @@
     <t xml:space="preserve">109.418022155762</t>
   </si>
   <si>
-    <t xml:space="preserve">109.2265625</t>
+    <t xml:space="preserve">109.226554870605</t>
   </si>
   <si>
     <t xml:space="preserve">110.183853149414</t>
   </si>
   <si>
-    <t xml:space="preserve">107.790634155273</t>
+    <t xml:space="preserve">107.790626525879</t>
   </si>
   <si>
     <t xml:space="preserve">110.566772460938</t>
   </si>
   <si>
-    <t xml:space="preserve">110.662490844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.36499786377</t>
+    <t xml:space="preserve">110.662498474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.364990234375</t>
   </si>
   <si>
     <t xml:space="preserve">106.258979797363</t>
   </si>
   <si>
-    <t xml:space="preserve">107.120529174805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.130836486816</t>
+    <t xml:space="preserve">107.120536804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.130828857422</t>
   </si>
   <si>
     <t xml:space="preserve">109.800926208496</t>
@@ -2276,13 +2276,13 @@
     <t xml:space="preserve">115.736122131348</t>
   </si>
   <si>
-    <t xml:space="preserve">115.927589416504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.332595825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105.87606048584</t>
+    <t xml:space="preserve">115.927581787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.33260345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105.876052856445</t>
   </si>
   <si>
     <t xml:space="preserve">100.036598205566</t>
@@ -2294,16 +2294,16 @@
     <t xml:space="preserve">104.918769836426</t>
   </si>
   <si>
-    <t xml:space="preserve">103.195648193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101.089614868164</t>
+    <t xml:space="preserve">103.195655822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101.08960723877</t>
   </si>
   <si>
     <t xml:space="preserve">109.513748168945</t>
   </si>
   <si>
-    <t xml:space="preserve">106.833351135254</t>
+    <t xml:space="preserve">106.833343505859</t>
   </si>
   <si>
     <t xml:space="preserve">111.811248779297</t>
@@ -2312,10 +2312,10 @@
     <t xml:space="preserve">110.279579162598</t>
   </si>
   <si>
-    <t xml:space="preserve">107.886367797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105.780326843262</t>
+    <t xml:space="preserve">107.886360168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105.780334472656</t>
   </si>
   <si>
     <t xml:space="preserve">103.865753173828</t>
@@ -2330,28 +2330,28 @@
     <t xml:space="preserve">119.565284729004</t>
   </si>
   <si>
-    <t xml:space="preserve">123.873069763184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">127.70223236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.02033996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">143.401748657227</t>
+    <t xml:space="preserve">123.873062133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127.702217102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.020324707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143.401763916016</t>
   </si>
   <si>
     <t xml:space="preserve">143.688934326172</t>
   </si>
   <si>
-    <t xml:space="preserve">138.328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146.943725585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146.082153320312</t>
+    <t xml:space="preserve">138.328140258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146.943710327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146.082168579102</t>
   </si>
   <si>
     <t xml:space="preserve">157.952514648438</t>
@@ -2363,13 +2363,13 @@
     <t xml:space="preserve">155.655044555664</t>
   </si>
   <si>
-    <t xml:space="preserve">159.771362304688</t>
+    <t xml:space="preserve">159.771377563477</t>
   </si>
   <si>
     <t xml:space="preserve">159.962829589844</t>
   </si>
   <si>
-    <t xml:space="preserve">155.272109985352</t>
+    <t xml:space="preserve">155.272094726562</t>
   </si>
   <si>
     <t xml:space="preserve">148.66682434082</t>
@@ -2396,52 +2396,52 @@
     <t xml:space="preserve">153.644729614258</t>
   </si>
   <si>
-    <t xml:space="preserve">165.132202148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">169.439971923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">176.332458496094</t>
+    <t xml:space="preserve">165.132186889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">169.439987182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176.332443237305</t>
   </si>
   <si>
     <t xml:space="preserve">176.906845092773</t>
   </si>
   <si>
-    <t xml:space="preserve">171.546020507812</t>
+    <t xml:space="preserve">171.546005249023</t>
   </si>
   <si>
     <t xml:space="preserve">181.118881225586</t>
   </si>
   <si>
-    <t xml:space="preserve">182.746276855469</t>
+    <t xml:space="preserve">182.74626159668</t>
   </si>
   <si>
     <t xml:space="preserve">194.13801574707</t>
   </si>
   <si>
-    <t xml:space="preserve">200.456115722656</t>
+    <t xml:space="preserve">200.456100463867</t>
   </si>
   <si>
     <t xml:space="preserve">188.585739135742</t>
   </si>
   <si>
-    <t xml:space="preserve">165.610809326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">174.034957885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180.448776245117</t>
+    <t xml:space="preserve">165.610824584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">174.034973144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180.448791503906</t>
   </si>
   <si>
     <t xml:space="preserve">173.747787475586</t>
   </si>
   <si>
-    <t xml:space="preserve">171.258819580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166.089462280273</t>
+    <t xml:space="preserve">171.258804321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.089477539062</t>
   </si>
   <si>
     <t xml:space="preserve">166.759552001953</t>
@@ -2453,7 +2453,7 @@
     <t xml:space="preserve">152.783187866211</t>
   </si>
   <si>
-    <t xml:space="preserve">154.601989746094</t>
+    <t xml:space="preserve">154.602005004883</t>
   </si>
   <si>
     <t xml:space="preserve">156.995239257812</t>
@@ -2462,7 +2462,7 @@
     <t xml:space="preserve">160.632934570312</t>
   </si>
   <si>
-    <t xml:space="preserve">159.867111206055</t>
+    <t xml:space="preserve">159.867095947266</t>
   </si>
   <si>
     <t xml:space="preserve">163.57373046875</t>
@@ -2471,7 +2471,7 @@
     <t xml:space="preserve">164.440231323242</t>
   </si>
   <si>
-    <t xml:space="preserve">163.958847045898</t>
+    <t xml:space="preserve">163.958862304688</t>
   </si>
   <si>
     <t xml:space="preserve">163.188629150391</t>
@@ -2495,7 +2495,7 @@
     <t xml:space="preserve">163.38117980957</t>
   </si>
   <si>
-    <t xml:space="preserve">164.055114746094</t>
+    <t xml:space="preserve">164.055099487305</t>
   </si>
   <si>
     <t xml:space="preserve">164.632781982422</t>
@@ -2513,7 +2513,7 @@
     <t xml:space="preserve">171.853515625</t>
   </si>
   <si>
-    <t xml:space="preserve">172.527465820312</t>
+    <t xml:space="preserve">172.527450561523</t>
   </si>
   <si>
     <t xml:space="preserve">165.114181518555</t>
@@ -2522,7 +2522,7 @@
     <t xml:space="preserve">166.462036132812</t>
   </si>
   <si>
-    <t xml:space="preserve">167.232238769531</t>
+    <t xml:space="preserve">167.23225402832</t>
   </si>
   <si>
     <t xml:space="preserve">166.750854492188</t>
@@ -2534,13 +2534,13 @@
     <t xml:space="preserve">171.564697265625</t>
   </si>
   <si>
-    <t xml:space="preserve">174.164154052734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171.660949707031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">168.483825683594</t>
+    <t xml:space="preserve">174.164138793945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171.66096496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">168.483840942383</t>
   </si>
   <si>
     <t xml:space="preserve">162.996078491211</t>
@@ -2579,43 +2579,43 @@
     <t xml:space="preserve">151.635452270508</t>
   </si>
   <si>
-    <t xml:space="preserve">154.234924316406</t>
+    <t xml:space="preserve">154.234909057617</t>
   </si>
   <si>
     <t xml:space="preserve">153.560989379883</t>
   </si>
   <si>
-    <t xml:space="preserve">150.287582397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156.738098144531</t>
+    <t xml:space="preserve">150.28759765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.73811340332</t>
   </si>
   <si>
     <t xml:space="preserve">153.175888061523</t>
   </si>
   <si>
-    <t xml:space="preserve">156.160461425781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156.834396362305</t>
+    <t xml:space="preserve">156.160446166992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.834381103516</t>
   </si>
   <si>
     <t xml:space="preserve">156.9306640625</t>
   </si>
   <si>
-    <t xml:space="preserve">157.412048339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.797149658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161.455673217773</t>
+    <t xml:space="preserve">157.412063598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.797134399414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161.455657958984</t>
   </si>
   <si>
     <t xml:space="preserve">147.495574951172</t>
   </si>
   <si>
-    <t xml:space="preserve">140.37109375</t>
+    <t xml:space="preserve">140.371109008789</t>
   </si>
   <si>
     <t xml:space="preserve">145.858871459961</t>
@@ -2633,7 +2633,7 @@
     <t xml:space="preserve">136.520050048828</t>
   </si>
   <si>
-    <t xml:space="preserve">139.119506835938</t>
+    <t xml:space="preserve">139.119522094727</t>
   </si>
   <si>
     <t xml:space="preserve">138.926971435547</t>
@@ -2642,19 +2642,19 @@
     <t xml:space="preserve">146.62907409668</t>
   </si>
   <si>
-    <t xml:space="preserve">145.088668823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148.939712524414</t>
+    <t xml:space="preserve">145.088653564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148.939727783203</t>
   </si>
   <si>
     <t xml:space="preserve">149.613632202148</t>
   </si>
   <si>
-    <t xml:space="preserve">151.154083251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154.90885925293</t>
+    <t xml:space="preserve">151.154067993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154.908843994141</t>
   </si>
   <si>
     <t xml:space="preserve">152.30940246582</t>
@@ -2663,22 +2663,22 @@
     <t xml:space="preserve">163.092346191406</t>
   </si>
   <si>
-    <t xml:space="preserve">162.707275390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.151397705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163.862564086914</t>
+    <t xml:space="preserve">162.707260131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.151382446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163.862579345703</t>
   </si>
   <si>
     <t xml:space="preserve">165.499267578125</t>
   </si>
   <si>
-    <t xml:space="preserve">170.216827392578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">177.148727416992</t>
+    <t xml:space="preserve">170.216842651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">177.148712158203</t>
   </si>
   <si>
     <t xml:space="preserve">177.533813476562</t>
@@ -2696,25 +2696,25 @@
     <t xml:space="preserve">183.021606445312</t>
   </si>
   <si>
-    <t xml:space="preserve">180.518402099609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">184.176895141602</t>
+    <t xml:space="preserve">180.51838684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">184.176910400391</t>
   </si>
   <si>
     <t xml:space="preserve">181.962539672852</t>
   </si>
   <si>
-    <t xml:space="preserve">187.354034423828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">186.391265869141</t>
+    <t xml:space="preserve">187.354049682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">186.39128112793</t>
   </si>
   <si>
     <t xml:space="preserve">183.984375</t>
   </si>
   <si>
-    <t xml:space="preserve">187.642868041992</t>
+    <t xml:space="preserve">187.642852783203</t>
   </si>
   <si>
     <t xml:space="preserve">185.428497314453</t>
@@ -2723,22 +2723,22 @@
     <t xml:space="preserve">183.888076782227</t>
   </si>
   <si>
-    <t xml:space="preserve">181.577453613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180.325866699219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">181.481155395508</t>
+    <t xml:space="preserve">181.57746887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180.32585144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181.481170654297</t>
   </si>
   <si>
     <t xml:space="preserve">178.785415649414</t>
   </si>
   <si>
-    <t xml:space="preserve">180.13330078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">186.968933105469</t>
+    <t xml:space="preserve">180.133316040039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">186.96891784668</t>
   </si>
   <si>
     <t xml:space="preserve">192.264129638672</t>
@@ -2750,22 +2750,22 @@
     <t xml:space="preserve">161.744491577148</t>
   </si>
   <si>
-    <t xml:space="preserve">165.980651855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">167.328536987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">167.039688110352</t>
+    <t xml:space="preserve">165.98063659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">167.328521728516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">167.039703369141</t>
   </si>
   <si>
     <t xml:space="preserve">166.173217773438</t>
   </si>
   <si>
-    <t xml:space="preserve">158.952484130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">162.899810791016</t>
+    <t xml:space="preserve">158.952499389648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162.899795532227</t>
   </si>
   <si>
     <t xml:space="preserve">166.365768432617</t>
@@ -2789,7 +2789,7 @@
     <t xml:space="preserve">162.225875854492</t>
   </si>
   <si>
-    <t xml:space="preserve">161.359390258789</t>
+    <t xml:space="preserve">161.359405517578</t>
   </si>
   <si>
     <t xml:space="preserve">160.492889404297</t>
@@ -2807,22 +2807,22 @@
     <t xml:space="preserve">161.648193359375</t>
   </si>
   <si>
-    <t xml:space="preserve">163.766296386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163.284912109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.775344848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154.812576293945</t>
+    <t xml:space="preserve">163.766311645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163.284927368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.775360107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154.812591552734</t>
   </si>
   <si>
     <t xml:space="preserve">153.464706420898</t>
   </si>
   <si>
-    <t xml:space="preserve">157.604614257812</t>
+    <t xml:space="preserve">157.604598999023</t>
   </si>
   <si>
     <t xml:space="preserve">156.449295043945</t>
@@ -2852,7 +2852,7 @@
     <t xml:space="preserve">173.297668457031</t>
   </si>
   <si>
-    <t xml:space="preserve">172.720016479492</t>
+    <t xml:space="preserve">172.720001220703</t>
   </si>
   <si>
     <t xml:space="preserve">169.927993774414</t>
@@ -2861,13 +2861,13 @@
     <t xml:space="preserve">169.63916015625</t>
   </si>
   <si>
-    <t xml:space="preserve">172.431167602539</t>
+    <t xml:space="preserve">172.431182861328</t>
   </si>
   <si>
     <t xml:space="preserve">176.08967590332</t>
   </si>
   <si>
-    <t xml:space="preserve">175.415740966797</t>
+    <t xml:space="preserve">175.415725708008</t>
   </si>
   <si>
     <t xml:space="preserve">177.630111694336</t>
@@ -2891,10 +2891,10 @@
     <t xml:space="preserve">153.753540039062</t>
   </si>
   <si>
-    <t xml:space="preserve">157.989700317383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156.353012084961</t>
+    <t xml:space="preserve">157.989715576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.352996826172</t>
   </si>
   <si>
     <t xml:space="preserve">157.893417358398</t>
@@ -2906,16 +2906,16 @@
     <t xml:space="preserve">155.967895507812</t>
   </si>
   <si>
-    <t xml:space="preserve">152.116836547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150.961532592773</t>
+    <t xml:space="preserve">152.116851806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150.961517333984</t>
   </si>
   <si>
     <t xml:space="preserve">149.035995483398</t>
   </si>
   <si>
-    <t xml:space="preserve">134.401962280273</t>
+    <t xml:space="preserve">134.401977539062</t>
   </si>
   <si>
     <t xml:space="preserve">136.808883666992</t>
@@ -2924,13 +2924,13 @@
     <t xml:space="preserve">140.467376708984</t>
   </si>
   <si>
-    <t xml:space="preserve">136.712615966797</t>
+    <t xml:space="preserve">136.712600708008</t>
   </si>
   <si>
     <t xml:space="preserve">134.883361816406</t>
   </si>
   <si>
-    <t xml:space="preserve">137.771636962891</t>
+    <t xml:space="preserve">137.77165222168</t>
   </si>
   <si>
     <t xml:space="preserve">134.979629516602</t>
@@ -2939,7 +2939,7 @@
     <t xml:space="preserve">135.749847412109</t>
   </si>
   <si>
-    <t xml:space="preserve">134.787094116211</t>
+    <t xml:space="preserve">134.787078857422</t>
   </si>
   <si>
     <t xml:space="preserve">137.001434326172</t>
@@ -2972,7 +2972,7 @@
     <t xml:space="preserve">145.425628662109</t>
   </si>
   <si>
-    <t xml:space="preserve">143.596374511719</t>
+    <t xml:space="preserve">143.59635925293</t>
   </si>
   <si>
     <t xml:space="preserve">150.095031738281</t>
@@ -2999,22 +2999,22 @@
     <t xml:space="preserve">135.027770996094</t>
   </si>
   <si>
-    <t xml:space="preserve">135.990539550781</t>
+    <t xml:space="preserve">135.990524291992</t>
   </si>
   <si>
     <t xml:space="preserve">135.605422973633</t>
   </si>
   <si>
-    <t xml:space="preserve">135.9423828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.34294128418</t>
+    <t xml:space="preserve">135.942398071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.342926025391</t>
   </si>
   <si>
     <t xml:space="preserve">135.55729675293</t>
   </si>
   <si>
-    <t xml:space="preserve">137.338409423828</t>
+    <t xml:space="preserve">137.338394165039</t>
   </si>
   <si>
     <t xml:space="preserve">133.102233886719</t>
@@ -3035,10 +3035,10 @@
     <t xml:space="preserve">138.638137817383</t>
   </si>
   <si>
-    <t xml:space="preserve">138.78254699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138.734069824219</t>
+    <t xml:space="preserve">138.782531738281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138.734085083008</t>
   </si>
   <si>
     <t xml:space="preserve">138.491714477539</t>
@@ -3053,7 +3053,7 @@
     <t xml:space="preserve">139.848983764648</t>
   </si>
   <si>
-    <t xml:space="preserve">140.236785888672</t>
+    <t xml:space="preserve">140.236770629883</t>
   </si>
   <si>
     <t xml:space="preserve">137.716125488281</t>
@@ -3077,10 +3077,10 @@
     <t xml:space="preserve">140.430694580078</t>
   </si>
   <si>
-    <t xml:space="preserve">140.963897705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145.035766601562</t>
+    <t xml:space="preserve">140.963882446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145.035781860352</t>
   </si>
   <si>
     <t xml:space="preserve">146.150680541992</t>
@@ -3098,22 +3098,22 @@
     <t xml:space="preserve">149.204559326172</t>
   </si>
   <si>
-    <t xml:space="preserve">148.719818115234</t>
+    <t xml:space="preserve">148.719802856445</t>
   </si>
   <si>
     <t xml:space="preserve">149.107620239258</t>
   </si>
   <si>
-    <t xml:space="preserve">145.22966003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149.883209228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151.337448120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152.209991455078</t>
+    <t xml:space="preserve">145.229675292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149.883224487305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151.337463378906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152.209976196289</t>
   </si>
   <si>
     <t xml:space="preserve">155.021499633789</t>
@@ -3128,13 +3128,13 @@
     <t xml:space="preserve">153.470336914062</t>
   </si>
   <si>
-    <t xml:space="preserve">151.822189331055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.845565795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">158.317779541016</t>
+    <t xml:space="preserve">151.822204589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.845581054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158.317794799805</t>
   </si>
   <si>
     <t xml:space="preserve">154.342864990234</t>
@@ -3143,10 +3143,10 @@
     <t xml:space="preserve">155.748626708984</t>
   </si>
   <si>
-    <t xml:space="preserve">157.105911254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.445236206055</t>
+    <t xml:space="preserve">157.105926513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.445220947266</t>
   </si>
   <si>
     <t xml:space="preserve">157.00895690918</t>
@@ -3167,19 +3167,19 @@
     <t xml:space="preserve">164.280151367188</t>
   </si>
   <si>
-    <t xml:space="preserve">165.734359741211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">167.091659545898</t>
+    <t xml:space="preserve">165.734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">167.091674804688</t>
   </si>
   <si>
     <t xml:space="preserve">163.795394897461</t>
   </si>
   <si>
-    <t xml:space="preserve">162.971328735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.425567626953</t>
+    <t xml:space="preserve">162.971343994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.425582885742</t>
   </si>
   <si>
     <t xml:space="preserve">167.188613891602</t>
@@ -3188,7 +3188,7 @@
     <t xml:space="preserve">165.928268432617</t>
   </si>
   <si>
-    <t xml:space="preserve">171.06657409668</t>
+    <t xml:space="preserve">171.066558837891</t>
   </si>
   <si>
     <t xml:space="preserve">166.703857421875</t>
@@ -3221,7 +3221,7 @@
     <t xml:space="preserve">173.538772583008</t>
   </si>
   <si>
-    <t xml:space="preserve">178.289276123047</t>
+    <t xml:space="preserve">178.289260864258</t>
   </si>
   <si>
     <t xml:space="preserve">179.210296630859</t>
@@ -3230,13 +3230,13 @@
     <t xml:space="preserve">179.404190063477</t>
   </si>
   <si>
-    <t xml:space="preserve">182.409606933594</t>
+    <t xml:space="preserve">182.409591674805</t>
   </si>
   <si>
     <t xml:space="preserve">181.827926635742</t>
   </si>
   <si>
-    <t xml:space="preserve">180.325225830078</t>
+    <t xml:space="preserve">180.325210571289</t>
   </si>
   <si>
     <t xml:space="preserve">179.743515014648</t>
@@ -3248,7 +3248,7 @@
     <t xml:space="preserve">183.669952392578</t>
   </si>
   <si>
-    <t xml:space="preserve">185.075714111328</t>
+    <t xml:space="preserve">185.075698852539</t>
   </si>
   <si>
     <t xml:space="preserve">187.35400390625</t>
@@ -3257,13 +3257,13 @@
     <t xml:space="preserve">192.44384765625</t>
   </si>
   <si>
-    <t xml:space="preserve">194.867568969727</t>
+    <t xml:space="preserve">194.867553710938</t>
   </si>
   <si>
     <t xml:space="preserve">195.740097045898</t>
   </si>
   <si>
-    <t xml:space="preserve">198.06689453125</t>
+    <t xml:space="preserve">198.066879272461</t>
   </si>
   <si>
     <t xml:space="preserve">194.09196472168</t>
@@ -3287,7 +3287,7 @@
     <t xml:space="preserve">192.783172607422</t>
   </si>
   <si>
-    <t xml:space="preserve">194.479766845703</t>
+    <t xml:space="preserve">194.479782104492</t>
   </si>
   <si>
     <t xml:space="preserve">196.418746948242</t>
@@ -3299,10 +3299,10 @@
     <t xml:space="preserve">197.000442504883</t>
   </si>
   <si>
-    <t xml:space="preserve">189.87467956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">182.845886230469</t>
+    <t xml:space="preserve">189.874694824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">182.845901489258</t>
   </si>
   <si>
     <t xml:space="preserve">177.222839355469</t>
@@ -3314,7 +3314,7 @@
     <t xml:space="preserve">175.817077636719</t>
   </si>
   <si>
-    <t xml:space="preserve">169.806243896484</t>
+    <t xml:space="preserve">169.806228637695</t>
   </si>
   <si>
     <t xml:space="preserve">166.60693359375</t>
@@ -3332,7 +3332,7 @@
     <t xml:space="preserve">166.849304199219</t>
   </si>
   <si>
-    <t xml:space="preserve">164.183197021484</t>
+    <t xml:space="preserve">164.183212280273</t>
   </si>
   <si>
     <t xml:space="preserve">168.642852783203</t>
@@ -3341,13 +3341,13 @@
     <t xml:space="preserve">173.05403137207</t>
   </si>
   <si>
-    <t xml:space="preserve">173.441818237305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">174.605209350586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">173.87809753418</t>
+    <t xml:space="preserve">173.441802978516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">174.605224609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173.878112792969</t>
   </si>
   <si>
     <t xml:space="preserve">175.962509155273</t>
@@ -3362,7 +3362,7 @@
     <t xml:space="preserve">183.13671875</t>
   </si>
   <si>
-    <t xml:space="preserve">185.221130371094</t>
+    <t xml:space="preserve">185.221145629883</t>
   </si>
   <si>
     <t xml:space="preserve">185.172653198242</t>
@@ -3371,10 +3371,10 @@
     <t xml:space="preserve">181.634033203125</t>
   </si>
   <si>
-    <t xml:space="preserve">189.486892700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">189.389938354492</t>
+    <t xml:space="preserve">189.486877441406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">189.389953613281</t>
   </si>
   <si>
     <t xml:space="preserve">191.135009765625</t>
@@ -3386,7 +3386,7 @@
     <t xml:space="preserve">188.808258056641</t>
   </si>
   <si>
-    <t xml:space="preserve">187.160110473633</t>
+    <t xml:space="preserve">187.160125732422</t>
   </si>
   <si>
     <t xml:space="preserve">176.931991577148</t>
@@ -3425,10 +3425,10 @@
     <t xml:space="preserve">172.036056518555</t>
   </si>
   <si>
-    <t xml:space="preserve">181.585556030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179.452667236328</t>
+    <t xml:space="preserve">181.585540771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179.452682495117</t>
   </si>
   <si>
     <t xml:space="preserve">182.991302490234</t>
@@ -3437,7 +3437,7 @@
     <t xml:space="preserve">177.319778442383</t>
   </si>
   <si>
-    <t xml:space="preserve">172.47233581543</t>
+    <t xml:space="preserve">172.472320556641</t>
   </si>
   <si>
     <t xml:space="preserve">171.308944702148</t>
@@ -3455,22 +3455,22 @@
     <t xml:space="preserve">174.508270263672</t>
   </si>
   <si>
-    <t xml:space="preserve">175.138442993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170.921142578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">174.993026733398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.714706420898</t>
+    <t xml:space="preserve">175.138427734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170.921157836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">174.993011474609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.714691162109</t>
   </si>
   <si>
     <t xml:space="preserve">154.003555297852</t>
   </si>
   <si>
-    <t xml:space="preserve">155.651672363281</t>
+    <t xml:space="preserve">155.65168762207</t>
   </si>
   <si>
     <t xml:space="preserve">155.36083984375</t>
@@ -3479,7 +3479,7 @@
     <t xml:space="preserve">156.912033081055</t>
   </si>
   <si>
-    <t xml:space="preserve">156.718124389648</t>
+    <t xml:space="preserve">156.718109130859</t>
   </si>
   <si>
     <t xml:space="preserve">161.27473449707</t>
@@ -3506,10 +3506,10 @@
     <t xml:space="preserve">143.58154296875</t>
   </si>
   <si>
-    <t xml:space="preserve">145.617462158203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149.495422363281</t>
+    <t xml:space="preserve">145.617446899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149.495407104492</t>
   </si>
   <si>
     <t xml:space="preserve">143.193725585938</t>
@@ -3539,7 +3539,7 @@
     <t xml:space="preserve">130.638824462891</t>
   </si>
   <si>
-    <t xml:space="preserve">130.978134155273</t>
+    <t xml:space="preserve">130.978149414062</t>
   </si>
   <si>
     <t xml:space="preserve">132.723220825195</t>
@@ -3551,7 +3551,7 @@
     <t xml:space="preserve">133.692718505859</t>
   </si>
   <si>
-    <t xml:space="preserve">129.330017089844</t>
+    <t xml:space="preserve">129.330001831055</t>
   </si>
   <si>
     <t xml:space="preserve">127.584938049316</t>
@@ -3560,7 +3560,7 @@
     <t xml:space="preserve">122.058837890625</t>
   </si>
   <si>
-    <t xml:space="preserve">120.943916320801</t>
+    <t xml:space="preserve">120.943923950195</t>
   </si>
   <si>
     <t xml:space="preserve">123.852394104004</t>
@@ -3575,19 +3575,19 @@
     <t xml:space="preserve">116.096473693848</t>
   </si>
   <si>
-    <t xml:space="preserve">118.568672180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.035461425781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.065963745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.721221923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.866645812988</t>
+    <t xml:space="preserve">118.56867980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.035453796387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.065956115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.721229553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.866638183594</t>
   </si>
   <si>
     <t xml:space="preserve">117.696136474609</t>
@@ -3596,7 +3596,7 @@
     <t xml:space="preserve">121.671043395996</t>
   </si>
   <si>
-    <t xml:space="preserve">124.676475524902</t>
+    <t xml:space="preserve">124.676467895508</t>
   </si>
   <si>
     <t xml:space="preserve">124.434097290039</t>
@@ -3605,7 +3605,7 @@
     <t xml:space="preserve">129.572387695312</t>
   </si>
   <si>
-    <t xml:space="preserve">128.748321533203</t>
+    <t xml:space="preserve">128.748336791992</t>
   </si>
   <si>
     <t xml:space="preserve">125.355110168457</t>
@@ -3617,13 +3617,13 @@
     <t xml:space="preserve">121.62255859375</t>
   </si>
   <si>
-    <t xml:space="preserve">123.803916931152</t>
+    <t xml:space="preserve">123.803909301758</t>
   </si>
   <si>
     <t xml:space="preserve">119.004943847656</t>
   </si>
   <si>
-    <t xml:space="preserve">122.349685668945</t>
+    <t xml:space="preserve">122.349678039551</t>
   </si>
   <si>
     <t xml:space="preserve">117.017486572266</t>
@@ -3632,13 +3632,13 @@
     <t xml:space="preserve">119.101890563965</t>
   </si>
   <si>
-    <t xml:space="preserve">123.416122436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.401870727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.98356628418</t>
+    <t xml:space="preserve">123.416130065918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.401885986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.983551025391</t>
   </si>
   <si>
     <t xml:space="preserve">128.312057495117</t>
@@ -3647,25 +3647,25 @@
     <t xml:space="preserve">128.215087890625</t>
   </si>
   <si>
-    <t xml:space="preserve">126.857818603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125.791381835938</t>
+    <t xml:space="preserve">126.857833862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.791374206543</t>
   </si>
   <si>
     <t xml:space="preserve">127.051719665527</t>
   </si>
   <si>
-    <t xml:space="preserve">135.534759521484</t>
+    <t xml:space="preserve">135.534774780273</t>
   </si>
   <si>
     <t xml:space="preserve">137.473739624023</t>
   </si>
   <si>
-    <t xml:space="preserve">137.570678710938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141.109313964844</t>
+    <t xml:space="preserve">137.570663452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141.109329223633</t>
   </si>
   <si>
     <t xml:space="preserve">141.400177001953</t>
@@ -3674,7 +3674,7 @@
     <t xml:space="preserve">143.920837402344</t>
   </si>
   <si>
-    <t xml:space="preserve">140.818466186523</t>
+    <t xml:space="preserve">140.818481445312</t>
   </si>
   <si>
     <t xml:space="preserve">137.910018920898</t>
@@ -3689,25 +3689,25 @@
     <t xml:space="preserve">130.687301635742</t>
   </si>
   <si>
-    <t xml:space="preserve">130.735778808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130.202545166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130.05712890625</t>
+    <t xml:space="preserve">130.735794067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.202560424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.057113647461</t>
   </si>
   <si>
     <t xml:space="preserve">128.069686889648</t>
   </si>
   <si>
-    <t xml:space="preserve">126.130699157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.543579101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120.216804504395</t>
+    <t xml:space="preserve">126.130706787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.543586730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120.216812133789</t>
   </si>
   <si>
     <t xml:space="preserve">116.72664642334</t>
@@ -3719,7 +3719,7 @@
     <t xml:space="preserve">121.234771728516</t>
   </si>
   <si>
-    <t xml:space="preserve">119.683586120605</t>
+    <t xml:space="preserve">119.683578491211</t>
   </si>
   <si>
     <t xml:space="preserve">119.150367736816</t>
@@ -3728,10 +3728,10 @@
     <t xml:space="preserve">115.854103088379</t>
   </si>
   <si>
-    <t xml:space="preserve">116.290367126465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.969009399414</t>
+    <t xml:space="preserve">116.29035949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.969017028809</t>
   </si>
   <si>
     <t xml:space="preserve">110.667327880859</t>
@@ -3740,13 +3740,13 @@
     <t xml:space="preserve">107.952751159668</t>
   </si>
   <si>
-    <t xml:space="preserve">111.055122375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.534446716309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.466300964355</t>
+    <t xml:space="preserve">111.055130004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.534439086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.466293334961</t>
   </si>
   <si>
     <t xml:space="preserve">116.338844299316</t>
@@ -3773,7 +3773,7 @@
     <t xml:space="preserve">113.362937927246</t>
   </si>
   <si>
-    <t xml:space="preserve">114.830108642578</t>
+    <t xml:space="preserve">114.830101013184</t>
   </si>
   <si>
     <t xml:space="preserve">118.791442871094</t>
@@ -3782,19 +3782,19 @@
     <t xml:space="preserve">119.91626739502</t>
   </si>
   <si>
-    <t xml:space="preserve">119.818466186523</t>
+    <t xml:space="preserve">119.818458557129</t>
   </si>
   <si>
     <t xml:space="preserve">118.253486633301</t>
   </si>
   <si>
-    <t xml:space="preserve">121.334533691406</t>
+    <t xml:space="preserve">121.334541320801</t>
   </si>
   <si>
     <t xml:space="preserve">117.764434814453</t>
   </si>
   <si>
-    <t xml:space="preserve">119.769554138184</t>
+    <t xml:space="preserve">119.769546508789</t>
   </si>
   <si>
     <t xml:space="preserve">119.231597900391</t>
@@ -3806,7 +3806,7 @@
     <t xml:space="preserve">116.541793823242</t>
   </si>
   <si>
-    <t xml:space="preserve">113.21622467041</t>
+    <t xml:space="preserve">113.216217041016</t>
   </si>
   <si>
     <t xml:space="preserve">112.335914611816</t>
@@ -3818,7 +3818,7 @@
     <t xml:space="preserve">114.096519470215</t>
   </si>
   <si>
-    <t xml:space="preserve">111.308906555176</t>
+    <t xml:space="preserve">111.30891418457</t>
   </si>
   <si>
     <t xml:space="preserve">116.150550842285</t>
@@ -3833,22 +3833,22 @@
     <t xml:space="preserve">114.976821899414</t>
   </si>
   <si>
-    <t xml:space="preserve">121.725776672363</t>
+    <t xml:space="preserve">121.725769042969</t>
   </si>
   <si>
     <t xml:space="preserve">124.953536987305</t>
   </si>
   <si>
-    <t xml:space="preserve">124.366668701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124.171051025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.410461425781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.459358215332</t>
+    <t xml:space="preserve">124.366676330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.171043395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.410453796387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.459350585938</t>
   </si>
   <si>
     <t xml:space="preserve">123.584182739258</t>
@@ -3872,16 +3872,16 @@
     <t xml:space="preserve">133.218566894531</t>
   </si>
   <si>
-    <t xml:space="preserve">127.203193664551</t>
+    <t xml:space="preserve">127.203201293945</t>
   </si>
   <si>
     <t xml:space="preserve">129.599563598633</t>
   </si>
   <si>
-    <t xml:space="preserve">126.567413330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129.550659179688</t>
+    <t xml:space="preserve">126.567405700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129.550643920898</t>
   </si>
   <si>
     <t xml:space="preserve">129.306121826172</t>
@@ -3905,19 +3905,19 @@
     <t xml:space="preserve">130.430969238281</t>
   </si>
   <si>
-    <t xml:space="preserve">127.545532226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131.89811706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.631698608398</t>
+    <t xml:space="preserve">127.545516967773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131.898132324219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.631713867188</t>
   </si>
   <si>
     <t xml:space="preserve">132.533889770508</t>
   </si>
   <si>
-    <t xml:space="preserve">130.284240722656</t>
+    <t xml:space="preserve">130.284225463867</t>
   </si>
   <si>
     <t xml:space="preserve">131.800308227539</t>
@@ -3929,16 +3929,16 @@
     <t xml:space="preserve">133.903228759766</t>
   </si>
   <si>
-    <t xml:space="preserve">132.582794189453</t>
+    <t xml:space="preserve">132.582809448242</t>
   </si>
   <si>
     <t xml:space="preserve">133.609817504883</t>
   </si>
   <si>
-    <t xml:space="preserve">136.83757019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.587921142578</t>
+    <t xml:space="preserve">136.837554931641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.587936401367</t>
   </si>
   <si>
     <t xml:space="preserve">133.463088989258</t>
@@ -3947,28 +3947,28 @@
     <t xml:space="preserve">132.484985351562</t>
   </si>
   <si>
-    <t xml:space="preserve">133.707626342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.169662475586</t>
+    <t xml:space="preserve">133.707611083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.169647216797</t>
   </si>
   <si>
     <t xml:space="preserve">134.001052856445</t>
   </si>
   <si>
-    <t xml:space="preserve">128.132385253906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129.501754760742</t>
+    <t xml:space="preserve">128.132400512695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129.501739501953</t>
   </si>
   <si>
     <t xml:space="preserve">128.083480834961</t>
   </si>
   <si>
-    <t xml:space="preserve">127.496620178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130.822189331055</t>
+    <t xml:space="preserve">127.496635437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.822204589844</t>
   </si>
   <si>
     <t xml:space="preserve">129.697387695312</t>
@@ -3983,16 +3983,16 @@
     <t xml:space="preserve">130.773284912109</t>
   </si>
   <si>
-    <t xml:space="preserve">131.653594970703</t>
+    <t xml:space="preserve">131.653610229492</t>
   </si>
   <si>
     <t xml:space="preserve">133.658706665039</t>
   </si>
   <si>
-    <t xml:space="preserve">126.714134216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125.05135345459</t>
+    <t xml:space="preserve">126.714141845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.051345825195</t>
   </si>
   <si>
     <t xml:space="preserve">122.94841003418</t>
@@ -4010,19 +4010,19 @@
     <t xml:space="preserve">113.900894165039</t>
   </si>
   <si>
-    <t xml:space="preserve">113.069496154785</t>
+    <t xml:space="preserve">113.06950378418</t>
   </si>
   <si>
     <t xml:space="preserve">112.23811340332</t>
   </si>
   <si>
-    <t xml:space="preserve">109.157066345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.287017822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.504531860352</t>
+    <t xml:space="preserve">109.15705871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.28702545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.504524230957</t>
   </si>
   <si>
     <t xml:space="preserve">115.270248413086</t>
@@ -4031,16 +4031,16 @@
     <t xml:space="preserve">112.727165222168</t>
   </si>
   <si>
-    <t xml:space="preserve">109.890647888184</t>
+    <t xml:space="preserve">109.890640258789</t>
   </si>
   <si>
     <t xml:space="preserve">110.526420593262</t>
   </si>
   <si>
-    <t xml:space="preserve">116.443992614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125.344772338867</t>
+    <t xml:space="preserve">116.443984985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.344779968262</t>
   </si>
   <si>
     <t xml:space="preserve">123.241844177246</t>
@@ -4049,7 +4049,7 @@
     <t xml:space="preserve">126.176177978516</t>
   </si>
   <si>
-    <t xml:space="preserve">127.252098083496</t>
+    <t xml:space="preserve">127.252105712891</t>
   </si>
   <si>
     <t xml:space="preserve">133.267471313477</t>
@@ -4064,16 +4064,16 @@
     <t xml:space="preserve">126.273994445801</t>
   </si>
   <si>
-    <t xml:space="preserve">129.403930664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128.279113769531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.518524169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.877616882324</t>
+    <t xml:space="preserve">129.403945922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128.279098510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.518516540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.877624511719</t>
   </si>
   <si>
     <t xml:space="preserve">126.371795654297</t>
@@ -4082,7 +4082,7 @@
     <t xml:space="preserve">126.616317749023</t>
   </si>
   <si>
-    <t xml:space="preserve">130.235336303711</t>
+    <t xml:space="preserve">130.235321044922</t>
   </si>
   <si>
     <t xml:space="preserve">133.756530761719</t>
@@ -4091,7 +4091,7 @@
     <t xml:space="preserve">135.223693847656</t>
   </si>
   <si>
-    <t xml:space="preserve">132.436080932617</t>
+    <t xml:space="preserve">132.436065673828</t>
   </si>
   <si>
     <t xml:space="preserve">129.941909790039</t>
@@ -4103,7 +4103,7 @@
     <t xml:space="preserve">129.844085693359</t>
   </si>
   <si>
-    <t xml:space="preserve">128.670349121094</t>
+    <t xml:space="preserve">128.670364379883</t>
   </si>
   <si>
     <t xml:space="preserve">126.07836151123</t>
@@ -4112,25 +4112,25 @@
     <t xml:space="preserve">128.865982055664</t>
   </si>
   <si>
-    <t xml:space="preserve">130.96891784668</t>
+    <t xml:space="preserve">130.968902587891</t>
   </si>
   <si>
     <t xml:space="preserve">129.795181274414</t>
   </si>
   <si>
-    <t xml:space="preserve">126.860855102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131.164535522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.365280151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136.152908325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131.506881713867</t>
+    <t xml:space="preserve">126.860847473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131.16455078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.365295410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136.152893066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131.506866455078</t>
   </si>
   <si>
     <t xml:space="preserve">126.665229797363</t>
@@ -4139,7 +4139,7 @@
     <t xml:space="preserve">121.823593139648</t>
   </si>
   <si>
-    <t xml:space="preserve">125.00244140625</t>
+    <t xml:space="preserve">125.002449035645</t>
   </si>
   <si>
     <t xml:space="preserve">123.339653015137</t>
@@ -4148,7 +4148,7 @@
     <t xml:space="preserve">125.100257873535</t>
   </si>
   <si>
-    <t xml:space="preserve">124.611198425293</t>
+    <t xml:space="preserve">124.611206054688</t>
   </si>
   <si>
     <t xml:space="preserve">124.219955444336</t>
@@ -4160,19 +4160,19 @@
     <t xml:space="preserve">126.469612121582</t>
   </si>
   <si>
-    <t xml:space="preserve">127.00757598877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124.415580749512</t>
+    <t xml:space="preserve">127.007583618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.415573120117</t>
   </si>
   <si>
     <t xml:space="preserve">123.730903625488</t>
   </si>
   <si>
-    <t xml:space="preserve">124.806823730469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.437469482422</t>
+    <t xml:space="preserve">124.806816101074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.437461853027</t>
   </si>
   <si>
     <t xml:space="preserve">123.779815673828</t>
@@ -4190,7 +4190,7 @@
     <t xml:space="preserve">122.557174682617</t>
   </si>
   <si>
-    <t xml:space="preserve">122.019203186035</t>
+    <t xml:space="preserve">122.01921081543</t>
   </si>
   <si>
     <t xml:space="preserve">120.9921875</t>
@@ -4217,7 +4217,7 @@
     <t xml:space="preserve">119.280494689941</t>
   </si>
   <si>
-    <t xml:space="preserve">118.400199890137</t>
+    <t xml:space="preserve">118.400207519531</t>
   </si>
   <si>
     <t xml:space="preserve">115.710403442383</t>
@@ -4226,10 +4226,10 @@
     <t xml:space="preserve">113.851997375488</t>
   </si>
   <si>
-    <t xml:space="preserve">114.683380126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.754180908203</t>
+    <t xml:space="preserve">114.683387756348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.754188537598</t>
   </si>
   <si>
     <t xml:space="preserve">113.998710632324</t>
@@ -4241,7 +4241,7 @@
     <t xml:space="preserve">110.819854736328</t>
   </si>
   <si>
-    <t xml:space="preserve">112.482643127441</t>
+    <t xml:space="preserve">112.482635498047</t>
   </si>
   <si>
     <t xml:space="preserve">111.651245117188</t>
@@ -4250,16 +4250,16 @@
     <t xml:space="preserve">108.570198059082</t>
   </si>
   <si>
-    <t xml:space="preserve">107.543182373047</t>
+    <t xml:space="preserve">107.543174743652</t>
   </si>
   <si>
     <t xml:space="preserve">110.03736114502</t>
   </si>
   <si>
-    <t xml:space="preserve">110.232986450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.499404907227</t>
+    <t xml:space="preserve">110.232978820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.499397277832</t>
   </si>
   <si>
     <t xml:space="preserve">109.10816192627</t>
@@ -4280,22 +4280,22 @@
     <t xml:space="preserve">105.000091552734</t>
   </si>
   <si>
-    <t xml:space="preserve">103.386215209961</t>
+    <t xml:space="preserve">103.386207580566</t>
   </si>
   <si>
     <t xml:space="preserve">98.9847183227539</t>
   </si>
   <si>
-    <t xml:space="preserve">100.207359313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.838005065918</t>
+    <t xml:space="preserve">100.20735168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.8380126953125</t>
   </si>
   <si>
     <t xml:space="preserve">96.3438262939453</t>
   </si>
   <si>
-    <t xml:space="preserve">99.8161163330078</t>
+    <t xml:space="preserve">99.8161239624023</t>
   </si>
   <si>
     <t xml:space="preserve">95.8547668457031</t>
@@ -4307,46 +4307,46 @@
     <t xml:space="preserve">95.8743286132812</t>
   </si>
   <si>
-    <t xml:space="preserve">96.2851409912109</t>
+    <t xml:space="preserve">96.2851333618164</t>
   </si>
   <si>
     <t xml:space="preserve">94.9353485107422</t>
   </si>
   <si>
-    <t xml:space="preserve">94.8766555786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.4393157958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.0089340209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.9306945800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.1896591186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94.7201614379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.1700897216797</t>
+    <t xml:space="preserve">94.8766632080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.4393081665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.0089416503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.9306869506836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.1896514892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94.7201538085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.1700973510742</t>
   </si>
   <si>
     <t xml:space="preserve">95.2483367919922</t>
   </si>
   <si>
-    <t xml:space="preserve">95.0331573486328</t>
+    <t xml:space="preserve">95.0331649780273</t>
   </si>
   <si>
     <t xml:space="preserve">96.7546310424805</t>
   </si>
   <si>
-    <t xml:space="preserve">97.1850051879883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.3852691650391</t>
+    <t xml:space="preserve">97.1849975585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.3852767944336</t>
   </si>
   <si>
     <t xml:space="preserve">94.3484802246094</t>
@@ -4355,7 +4355,7 @@
     <t xml:space="preserve">96.3242645263672</t>
   </si>
   <si>
-    <t xml:space="preserve">95.5809020996094</t>
+    <t xml:space="preserve">95.5808944702148</t>
   </si>
   <si>
     <t xml:space="preserve">95.8156433105469</t>
@@ -4367,16 +4367,16 @@
     <t xml:space="preserve">102.16357421875</t>
   </si>
   <si>
-    <t xml:space="preserve">99.9628295898438</t>
+    <t xml:space="preserve">99.9628219604492</t>
   </si>
   <si>
     <t xml:space="preserve">102.457008361816</t>
   </si>
   <si>
-    <t xml:space="preserve">103.28840637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102.750442504883</t>
+    <t xml:space="preserve">103.288398742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102.750450134277</t>
   </si>
   <si>
     <t xml:space="preserve">99.3270645141602</t>
@@ -5133,6 +5133,9 @@
   </si>
   <si>
     <t xml:space="preserve">93.2600021362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93.4800033569336</t>
   </si>
 </sst>
 </file>
@@ -11420,7 +11423,7 @@
         <v>51.7999992370605</v>
       </c>
       <c r="G229" t="s">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -11472,7 +11475,7 @@
         <v>51.25</v>
       </c>
       <c r="G231" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -11498,7 +11501,7 @@
         <v>51.6500015258789</v>
       </c>
       <c r="G232" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -11524,7 +11527,7 @@
         <v>52.1500015258789</v>
       </c>
       <c r="G233" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -11550,7 +11553,7 @@
         <v>52</v>
       </c>
       <c r="G234" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -11576,7 +11579,7 @@
         <v>51.5</v>
       </c>
       <c r="G235" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -11602,7 +11605,7 @@
         <v>50.9000015258789</v>
       </c>
       <c r="G236" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -11628,7 +11631,7 @@
         <v>51.25</v>
       </c>
       <c r="G237" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -11654,7 +11657,7 @@
         <v>51.1500015258789</v>
       </c>
       <c r="G238" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -11680,7 +11683,7 @@
         <v>51.25</v>
       </c>
       <c r="G239" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -11732,7 +11735,7 @@
         <v>52.0999984741211</v>
       </c>
       <c r="G241" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -11758,7 +11761,7 @@
         <v>52.0999984741211</v>
       </c>
       <c r="G242" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -11784,7 +11787,7 @@
         <v>52.1500015258789</v>
       </c>
       <c r="G243" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -11836,7 +11839,7 @@
         <v>51.7999992370605</v>
       </c>
       <c r="G245" t="s">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -11862,7 +11865,7 @@
         <v>51.8499984741211</v>
       </c>
       <c r="G246" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -11888,7 +11891,7 @@
         <v>52.9000015258789</v>
       </c>
       <c r="G247" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -11914,7 +11917,7 @@
         <v>53.1500015258789</v>
       </c>
       <c r="G248" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -11966,7 +11969,7 @@
         <v>55.0999984741211</v>
       </c>
       <c r="G250" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -12070,7 +12073,7 @@
         <v>56.4000015258789</v>
       </c>
       <c r="G254" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -12278,7 +12281,7 @@
         <v>58.4000015258789</v>
       </c>
       <c r="G262" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -12356,7 +12359,7 @@
         <v>56.5499992370605</v>
       </c>
       <c r="G265" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -12642,7 +12645,7 @@
         <v>54.7000007629395</v>
       </c>
       <c r="G276" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -12668,7 +12671,7 @@
         <v>55.5499992370605</v>
       </c>
       <c r="G277" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -12772,7 +12775,7 @@
         <v>58.4000015258789</v>
       </c>
       <c r="G281" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -12902,7 +12905,7 @@
         <v>56.5499992370605</v>
       </c>
       <c r="G286" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -13058,7 +13061,7 @@
         <v>56.9000015258789</v>
       </c>
       <c r="G292" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -13110,7 +13113,7 @@
         <v>57.25</v>
       </c>
       <c r="G294" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -13188,7 +13191,7 @@
         <v>58.4500007629395</v>
       </c>
       <c r="G297" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -13214,7 +13217,7 @@
         <v>58.75</v>
       </c>
       <c r="G298" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -13240,7 +13243,7 @@
         <v>59.75</v>
       </c>
       <c r="G299" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -13292,7 +13295,7 @@
         <v>59.7999992370605</v>
       </c>
       <c r="G301" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -13318,7 +13321,7 @@
         <v>59.7999992370605</v>
       </c>
       <c r="G302" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -13344,7 +13347,7 @@
         <v>59.8499984741211</v>
       </c>
       <c r="G303" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -13370,7 +13373,7 @@
         <v>60.0999984741211</v>
       </c>
       <c r="G304" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -13422,7 +13425,7 @@
         <v>59.25</v>
       </c>
       <c r="G306" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -13448,7 +13451,7 @@
         <v>59.6500015258789</v>
       </c>
       <c r="G307" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -13500,7 +13503,7 @@
         <v>59.8499984741211</v>
       </c>
       <c r="G309" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -13526,7 +13529,7 @@
         <v>60.2999992370605</v>
       </c>
       <c r="G310" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -13552,7 +13555,7 @@
         <v>61.3499984741211</v>
       </c>
       <c r="G311" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -13578,7 +13581,7 @@
         <v>61.3499984741211</v>
       </c>
       <c r="G312" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -13604,7 +13607,7 @@
         <v>62.25</v>
       </c>
       <c r="G313" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -13630,7 +13633,7 @@
         <v>61.9500007629395</v>
       </c>
       <c r="G314" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -13656,7 +13659,7 @@
         <v>62.1500015258789</v>
       </c>
       <c r="G315" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -13682,7 +13685,7 @@
         <v>63</v>
       </c>
       <c r="G316" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -13708,7 +13711,7 @@
         <v>62.8499984741211</v>
       </c>
       <c r="G317" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -13734,7 +13737,7 @@
         <v>62.2999992370605</v>
       </c>
       <c r="G318" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -13760,7 +13763,7 @@
         <v>62.8499984741211</v>
       </c>
       <c r="G319" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -13786,7 +13789,7 @@
         <v>62.25</v>
       </c>
       <c r="G320" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -13812,7 +13815,7 @@
         <v>63.5999984741211</v>
       </c>
       <c r="G321" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -13838,7 +13841,7 @@
         <v>63.2999992370605</v>
       </c>
       <c r="G322" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -13864,7 +13867,7 @@
         <v>63.7999992370605</v>
       </c>
       <c r="G323" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -13890,7 +13893,7 @@
         <v>63.9000015258789</v>
       </c>
       <c r="G324" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -13916,7 +13919,7 @@
         <v>64.3000030517578</v>
       </c>
       <c r="G325" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -13942,7 +13945,7 @@
         <v>64.1999969482422</v>
       </c>
       <c r="G326" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -13968,7 +13971,7 @@
         <v>65</v>
       </c>
       <c r="G327" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -13994,7 +13997,7 @@
         <v>65.9499969482422</v>
       </c>
       <c r="G328" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -14020,7 +14023,7 @@
         <v>66.0999984741211</v>
       </c>
       <c r="G329" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -14046,7 +14049,7 @@
         <v>65.8000030517578</v>
       </c>
       <c r="G330" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -14072,7 +14075,7 @@
         <v>65.0500030517578</v>
       </c>
       <c r="G331" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -14098,7 +14101,7 @@
         <v>64</v>
       </c>
       <c r="G332" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -14124,7 +14127,7 @@
         <v>64.25</v>
       </c>
       <c r="G333" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -14150,7 +14153,7 @@
         <v>66.0999984741211</v>
       </c>
       <c r="G334" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -14176,7 +14179,7 @@
         <v>65.5999984741211</v>
       </c>
       <c r="G335" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -14202,7 +14205,7 @@
         <v>67.1999969482422</v>
       </c>
       <c r="G336" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -14228,7 +14231,7 @@
         <v>66</v>
       </c>
       <c r="G337" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -14254,7 +14257,7 @@
         <v>66.4000015258789</v>
       </c>
       <c r="G338" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -14280,7 +14283,7 @@
         <v>67.5</v>
       </c>
       <c r="G339" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -14306,7 +14309,7 @@
         <v>68.8000030517578</v>
       </c>
       <c r="G340" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -14332,7 +14335,7 @@
         <v>71</v>
       </c>
       <c r="G341" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -14358,7 +14361,7 @@
         <v>69.5999984741211</v>
       </c>
       <c r="G342" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -14384,7 +14387,7 @@
         <v>69</v>
       </c>
       <c r="G343" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -14410,7 +14413,7 @@
         <v>69.3000030517578</v>
       </c>
       <c r="G344" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -14436,7 +14439,7 @@
         <v>69.3000030517578</v>
       </c>
       <c r="G345" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -14462,7 +14465,7 @@
         <v>70.3499984741211</v>
       </c>
       <c r="G346" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -14488,7 +14491,7 @@
         <v>70.1999969482422</v>
       </c>
       <c r="G347" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -14514,7 +14517,7 @@
         <v>69.8499984741211</v>
       </c>
       <c r="G348" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -14540,7 +14543,7 @@
         <v>70.25</v>
       </c>
       <c r="G349" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -14566,7 +14569,7 @@
         <v>70</v>
       </c>
       <c r="G350" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -14592,7 +14595,7 @@
         <v>70</v>
       </c>
       <c r="G351" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -14618,7 +14621,7 @@
         <v>68.1500015258789</v>
       </c>
       <c r="G352" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -14644,7 +14647,7 @@
         <v>67.4000015258789</v>
       </c>
       <c r="G353" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -14670,7 +14673,7 @@
         <v>68.25</v>
       </c>
       <c r="G354" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -14696,7 +14699,7 @@
         <v>68.25</v>
       </c>
       <c r="G355" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -14722,7 +14725,7 @@
         <v>68.5500030517578</v>
       </c>
       <c r="G356" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -14748,7 +14751,7 @@
         <v>68.6999969482422</v>
       </c>
       <c r="G357" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -14774,7 +14777,7 @@
         <v>68.9499969482422</v>
       </c>
       <c r="G358" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -14800,7 +14803,7 @@
         <v>69.1999969482422</v>
       </c>
       <c r="G359" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -14826,7 +14829,7 @@
         <v>68.0500030517578</v>
       </c>
       <c r="G360" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -14852,7 +14855,7 @@
         <v>68.6999969482422</v>
       </c>
       <c r="G361" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -14878,7 +14881,7 @@
         <v>68.9499969482422</v>
       </c>
       <c r="G362" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -14904,7 +14907,7 @@
         <v>70.1999969482422</v>
       </c>
       <c r="G363" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -14930,7 +14933,7 @@
         <v>70.5500030517578</v>
       </c>
       <c r="G364" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -14956,7 +14959,7 @@
         <v>70.25</v>
       </c>
       <c r="G365" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -14982,7 +14985,7 @@
         <v>71.4499969482422</v>
       </c>
       <c r="G366" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -15008,7 +15011,7 @@
         <v>70.9000015258789</v>
       </c>
       <c r="G367" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -15034,7 +15037,7 @@
         <v>71.75</v>
       </c>
       <c r="G368" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -15060,7 +15063,7 @@
         <v>72.5</v>
       </c>
       <c r="G369" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -15086,7 +15089,7 @@
         <v>69.9000015258789</v>
       </c>
       <c r="G370" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -15112,7 +15115,7 @@
         <v>69.75</v>
       </c>
       <c r="G371" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -15138,7 +15141,7 @@
         <v>71.4000015258789</v>
       </c>
       <c r="G372" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -15164,7 +15167,7 @@
         <v>70.6999969482422</v>
       </c>
       <c r="G373" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -15190,7 +15193,7 @@
         <v>71.3000030517578</v>
       </c>
       <c r="G374" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -15216,7 +15219,7 @@
         <v>71.1500015258789</v>
       </c>
       <c r="G375" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -15242,7 +15245,7 @@
         <v>71</v>
       </c>
       <c r="G376" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -15268,7 +15271,7 @@
         <v>70.5500030517578</v>
       </c>
       <c r="G377" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -15294,7 +15297,7 @@
         <v>70.1999969482422</v>
       </c>
       <c r="G378" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -15320,7 +15323,7 @@
         <v>72.6999969482422</v>
       </c>
       <c r="G379" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -15346,7 +15349,7 @@
         <v>71.3000030517578</v>
       </c>
       <c r="G380" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -15372,7 +15375,7 @@
         <v>69.9000015258789</v>
       </c>
       <c r="G381" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -15398,7 +15401,7 @@
         <v>67.5999984741211</v>
       </c>
       <c r="G382" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -15424,7 +15427,7 @@
         <v>66</v>
       </c>
       <c r="G383" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -15450,7 +15453,7 @@
         <v>67.25</v>
       </c>
       <c r="G384" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -15476,7 +15479,7 @@
         <v>66.5999984741211</v>
       </c>
       <c r="G385" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -15502,7 +15505,7 @@
         <v>66.5999984741211</v>
       </c>
       <c r="G386" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -15528,7 +15531,7 @@
         <v>67.25</v>
       </c>
       <c r="G387" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -15554,7 +15557,7 @@
         <v>66.5999984741211</v>
       </c>
       <c r="G388" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -15580,7 +15583,7 @@
         <v>67.3000030517578</v>
       </c>
       <c r="G389" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -15606,7 +15609,7 @@
         <v>67</v>
       </c>
       <c r="G390" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -15632,7 +15635,7 @@
         <v>66.0500030517578</v>
       </c>
       <c r="G391" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -15658,7 +15661,7 @@
         <v>67</v>
       </c>
       <c r="G392" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -15684,7 +15687,7 @@
         <v>67.0999984741211</v>
       </c>
       <c r="G393" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -15710,7 +15713,7 @@
         <v>68</v>
       </c>
       <c r="G394" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -15736,7 +15739,7 @@
         <v>69.0500030517578</v>
       </c>
       <c r="G395" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -15762,7 +15765,7 @@
         <v>69.75</v>
       </c>
       <c r="G396" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -15788,7 +15791,7 @@
         <v>69.9499969482422</v>
       </c>
       <c r="G397" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -15814,7 +15817,7 @@
         <v>70.3499984741211</v>
       </c>
       <c r="G398" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -15840,7 +15843,7 @@
         <v>70.1500015258789</v>
       </c>
       <c r="G399" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -15866,7 +15869,7 @@
         <v>70.5500030517578</v>
       </c>
       <c r="G400" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -15892,7 +15895,7 @@
         <v>69.8499984741211</v>
       </c>
       <c r="G401" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -15918,7 +15921,7 @@
         <v>73.3000030517578</v>
       </c>
       <c r="G402" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -15944,7 +15947,7 @@
         <v>73.9000015258789</v>
       </c>
       <c r="G403" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -15970,7 +15973,7 @@
         <v>73.0500030517578</v>
       </c>
       <c r="G404" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -15996,7 +15999,7 @@
         <v>73.5999984741211</v>
       </c>
       <c r="G405" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -16022,7 +16025,7 @@
         <v>73.4000015258789</v>
       </c>
       <c r="G406" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -16048,7 +16051,7 @@
         <v>73</v>
       </c>
       <c r="G407" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -16074,7 +16077,7 @@
         <v>73.0500030517578</v>
       </c>
       <c r="G408" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -16100,7 +16103,7 @@
         <v>72.9000015258789</v>
       </c>
       <c r="G409" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -16126,7 +16129,7 @@
         <v>72.5999984741211</v>
       </c>
       <c r="G410" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -16152,7 +16155,7 @@
         <v>71.9499969482422</v>
       </c>
       <c r="G411" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -16178,7 +16181,7 @@
         <v>72.1500015258789</v>
       </c>
       <c r="G412" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -16204,7 +16207,7 @@
         <v>71.4000015258789</v>
       </c>
       <c r="G413" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -16230,7 +16233,7 @@
         <v>70.6999969482422</v>
       </c>
       <c r="G414" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -16256,7 +16259,7 @@
         <v>71.6500015258789</v>
       </c>
       <c r="G415" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -16282,7 +16285,7 @@
         <v>71.4000015258789</v>
       </c>
       <c r="G416" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -16308,7 +16311,7 @@
         <v>71.6999969482422</v>
       </c>
       <c r="G417" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -16334,7 +16337,7 @@
         <v>71.5500030517578</v>
       </c>
       <c r="G418" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -16360,7 +16363,7 @@
         <v>71.3499984741211</v>
       </c>
       <c r="G419" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -16386,7 +16389,7 @@
         <v>71.4000015258789</v>
       </c>
       <c r="G420" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -16412,7 +16415,7 @@
         <v>71.3499984741211</v>
       </c>
       <c r="G421" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -16438,7 +16441,7 @@
         <v>70.8000030517578</v>
       </c>
       <c r="G422" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -16464,7 +16467,7 @@
         <v>70.5500030517578</v>
       </c>
       <c r="G423" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -16490,7 +16493,7 @@
         <v>70.0500030517578</v>
       </c>
       <c r="G424" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -16516,7 +16519,7 @@
         <v>69.9499969482422</v>
       </c>
       <c r="G425" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -16542,7 +16545,7 @@
         <v>71.3499984741211</v>
       </c>
       <c r="G426" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -16568,7 +16571,7 @@
         <v>72.4000015258789</v>
       </c>
       <c r="G427" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -16594,7 +16597,7 @@
         <v>72.4499969482422</v>
       </c>
       <c r="G428" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -16620,7 +16623,7 @@
         <v>72.5</v>
       </c>
       <c r="G429" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -16646,7 +16649,7 @@
         <v>73</v>
       </c>
       <c r="G430" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -16672,7 +16675,7 @@
         <v>73.3499984741211</v>
       </c>
       <c r="G431" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -16698,7 +16701,7 @@
         <v>73.6999969482422</v>
       </c>
       <c r="G432" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -16724,7 +16727,7 @@
         <v>73.5500030517578</v>
       </c>
       <c r="G433" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -16750,7 +16753,7 @@
         <v>73.9000015258789</v>
       </c>
       <c r="G434" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -16776,7 +16779,7 @@
         <v>73</v>
       </c>
       <c r="G435" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -16802,7 +16805,7 @@
         <v>74</v>
       </c>
       <c r="G436" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -16828,7 +16831,7 @@
         <v>74</v>
       </c>
       <c r="G437" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -16854,7 +16857,7 @@
         <v>73.0999984741211</v>
       </c>
       <c r="G438" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -16880,7 +16883,7 @@
         <v>73.4499969482422</v>
       </c>
       <c r="G439" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -16906,7 +16909,7 @@
         <v>74</v>
       </c>
       <c r="G440" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -16932,7 +16935,7 @@
         <v>74.25</v>
       </c>
       <c r="G441" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -16958,7 +16961,7 @@
         <v>73.8000030517578</v>
       </c>
       <c r="G442" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -16984,7 +16987,7 @@
         <v>74.5999984741211</v>
       </c>
       <c r="G443" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -17010,7 +17013,7 @@
         <v>75.8499984741211</v>
       </c>
       <c r="G444" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -17036,7 +17039,7 @@
         <v>75.4000015258789</v>
       </c>
       <c r="G445" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -17062,7 +17065,7 @@
         <v>75.0999984741211</v>
       </c>
       <c r="G446" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -17088,7 +17091,7 @@
         <v>75.1999969482422</v>
       </c>
       <c r="G447" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -17114,7 +17117,7 @@
         <v>75.4499969482422</v>
       </c>
       <c r="G448" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -17140,7 +17143,7 @@
         <v>76.5</v>
       </c>
       <c r="G449" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -17166,7 +17169,7 @@
         <v>77.8000030517578</v>
       </c>
       <c r="G450" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -17192,7 +17195,7 @@
         <v>77.9000015258789</v>
       </c>
       <c r="G451" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -17218,7 +17221,7 @@
         <v>79.6500015258789</v>
       </c>
       <c r="G452" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -17244,7 +17247,7 @@
         <v>79</v>
       </c>
       <c r="G453" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -17270,7 +17273,7 @@
         <v>79.1500015258789</v>
       </c>
       <c r="G454" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -17296,7 +17299,7 @@
         <v>78.4000015258789</v>
       </c>
       <c r="G455" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -17322,7 +17325,7 @@
         <v>78.75</v>
       </c>
       <c r="G456" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -17348,7 +17351,7 @@
         <v>80.5500030517578</v>
       </c>
       <c r="G457" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -17374,7 +17377,7 @@
         <v>78.75</v>
       </c>
       <c r="G458" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -17400,7 +17403,7 @@
         <v>79</v>
       </c>
       <c r="G459" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -17426,7 +17429,7 @@
         <v>79</v>
       </c>
       <c r="G460" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -17452,7 +17455,7 @@
         <v>78.4499969482422</v>
       </c>
       <c r="G461" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -17478,7 +17481,7 @@
         <v>77.75</v>
       </c>
       <c r="G462" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -17504,7 +17507,7 @@
         <v>77.8499984741211</v>
       </c>
       <c r="G463" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -17530,7 +17533,7 @@
         <v>77.8000030517578</v>
       </c>
       <c r="G464" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -17556,7 +17559,7 @@
         <v>78.0500030517578</v>
       </c>
       <c r="G465" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -17582,7 +17585,7 @@
         <v>77.9000015258789</v>
       </c>
       <c r="G466" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -17608,7 +17611,7 @@
         <v>78.3000030517578</v>
       </c>
       <c r="G467" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -17634,7 +17637,7 @@
         <v>78.3499984741211</v>
       </c>
       <c r="G468" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -17660,7 +17663,7 @@
         <v>78</v>
       </c>
       <c r="G469" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -17686,7 +17689,7 @@
         <v>78.0999984741211</v>
       </c>
       <c r="G470" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -17712,7 +17715,7 @@
         <v>78.9499969482422</v>
       </c>
       <c r="G471" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -17738,7 +17741,7 @@
         <v>77.9499969482422</v>
       </c>
       <c r="G472" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -17764,7 +17767,7 @@
         <v>79.1999969482422</v>
       </c>
       <c r="G473" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -17790,7 +17793,7 @@
         <v>78.5500030517578</v>
       </c>
       <c r="G474" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -17816,7 +17819,7 @@
         <v>78.25</v>
       </c>
       <c r="G475" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -17842,7 +17845,7 @@
         <v>77.75</v>
       </c>
       <c r="G476" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -17868,7 +17871,7 @@
         <v>72.0500030517578</v>
       </c>
       <c r="G477" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -17894,7 +17897,7 @@
         <v>72.5500030517578</v>
       </c>
       <c r="G478" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -17920,7 +17923,7 @@
         <v>73.8000030517578</v>
       </c>
       <c r="G479" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -17946,7 +17949,7 @@
         <v>74.6500015258789</v>
       </c>
       <c r="G480" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -17972,7 +17975,7 @@
         <v>74</v>
       </c>
       <c r="G481" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -17998,7 +18001,7 @@
         <v>75.4000015258789</v>
       </c>
       <c r="G482" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -18024,7 +18027,7 @@
         <v>75.0500030517578</v>
       </c>
       <c r="G483" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -18050,7 +18053,7 @@
         <v>76.6500015258789</v>
       </c>
       <c r="G484" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -18076,7 +18079,7 @@
         <v>77.5</v>
       </c>
       <c r="G485" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -18102,7 +18105,7 @@
         <v>77.1999969482422</v>
       </c>
       <c r="G486" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -18128,7 +18131,7 @@
         <v>76.3499984741211</v>
       </c>
       <c r="G487" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -18154,7 +18157,7 @@
         <v>74.5</v>
       </c>
       <c r="G488" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -18180,7 +18183,7 @@
         <v>75.6500015258789</v>
       </c>
       <c r="G489" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -18206,7 +18209,7 @@
         <v>76.4000015258789</v>
       </c>
       <c r="G490" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -18232,7 +18235,7 @@
         <v>76.5500030517578</v>
       </c>
       <c r="G491" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -18258,7 +18261,7 @@
         <v>77.4000015258789</v>
       </c>
       <c r="G492" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -18284,7 +18287,7 @@
         <v>78.0500030517578</v>
       </c>
       <c r="G493" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -18310,7 +18313,7 @@
         <v>77.6500015258789</v>
       </c>
       <c r="G494" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -18336,7 +18339,7 @@
         <v>78.4000015258789</v>
       </c>
       <c r="G495" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -18362,7 +18365,7 @@
         <v>78.4499969482422</v>
       </c>
       <c r="G496" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -18388,7 +18391,7 @@
         <v>79.5500030517578</v>
       </c>
       <c r="G497" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -18414,7 +18417,7 @@
         <v>80.5500030517578</v>
       </c>
       <c r="G498" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -18440,7 +18443,7 @@
         <v>80.3499984741211</v>
       </c>
       <c r="G499" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -18466,7 +18469,7 @@
         <v>78.5500030517578</v>
       </c>
       <c r="G500" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -18492,7 +18495,7 @@
         <v>77.3499984741211</v>
       </c>
       <c r="G501" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -18518,7 +18521,7 @@
         <v>76.4000015258789</v>
       </c>
       <c r="G502" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -18544,7 +18547,7 @@
         <v>75.8000030517578</v>
       </c>
       <c r="G503" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -18570,7 +18573,7 @@
         <v>75.4000015258789</v>
       </c>
       <c r="G504" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -18596,7 +18599,7 @@
         <v>75.0500030517578</v>
       </c>
       <c r="G505" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -18622,7 +18625,7 @@
         <v>75.6999969482422</v>
       </c>
       <c r="G506" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -18648,7 +18651,7 @@
         <v>74.5999984741211</v>
       </c>
       <c r="G507" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -18674,7 +18677,7 @@
         <v>74.4499969482422</v>
       </c>
       <c r="G508" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -18700,7 +18703,7 @@
         <v>74.6500015258789</v>
       </c>
       <c r="G509" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -18726,7 +18729,7 @@
         <v>74.5999984741211</v>
       </c>
       <c r="G510" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -18752,7 +18755,7 @@
         <v>74</v>
       </c>
       <c r="G511" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -18778,7 +18781,7 @@
         <v>74.5</v>
       </c>
       <c r="G512" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -18804,7 +18807,7 @@
         <v>74.8499984741211</v>
       </c>
       <c r="G513" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -18830,7 +18833,7 @@
         <v>75.8499984741211</v>
       </c>
       <c r="G514" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -18856,7 +18859,7 @@
         <v>76.8000030517578</v>
       </c>
       <c r="G515" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -18882,7 +18885,7 @@
         <v>80.0500030517578</v>
       </c>
       <c r="G516" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -18908,7 +18911,7 @@
         <v>79.4499969482422</v>
       </c>
       <c r="G517" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -18934,7 +18937,7 @@
         <v>79.25</v>
       </c>
       <c r="G518" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -18960,7 +18963,7 @@
         <v>79.5999984741211</v>
       </c>
       <c r="G519" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -18986,7 +18989,7 @@
         <v>79.6999969482422</v>
       </c>
       <c r="G520" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -19012,7 +19015,7 @@
         <v>79.6500015258789</v>
       </c>
       <c r="G521" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -19038,7 +19041,7 @@
         <v>79.3499984741211</v>
       </c>
       <c r="G522" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -19064,7 +19067,7 @@
         <v>79.6500015258789</v>
       </c>
       <c r="G523" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -19090,7 +19093,7 @@
         <v>80.0500030517578</v>
       </c>
       <c r="G524" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -19116,7 +19119,7 @@
         <v>79.1500015258789</v>
       </c>
       <c r="G525" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -19142,7 +19145,7 @@
         <v>79.0999984741211</v>
       </c>
       <c r="G526" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -19168,7 +19171,7 @@
         <v>79.0500030517578</v>
       </c>
       <c r="G527" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -19194,7 +19197,7 @@
         <v>79</v>
       </c>
       <c r="G528" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -19220,7 +19223,7 @@
         <v>78.4000015258789</v>
       </c>
       <c r="G529" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -19246,7 +19249,7 @@
         <v>79.3000030517578</v>
       </c>
       <c r="G530" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -19272,7 +19275,7 @@
         <v>78.8499984741211</v>
       </c>
       <c r="G531" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -19298,7 +19301,7 @@
         <v>77.25</v>
       </c>
       <c r="G532" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -19324,7 +19327,7 @@
         <v>77.9499969482422</v>
       </c>
       <c r="G533" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -19350,7 +19353,7 @@
         <v>79.4000015258789</v>
       </c>
       <c r="G534" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -19376,7 +19379,7 @@
         <v>76.5500030517578</v>
       </c>
       <c r="G535" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -19402,7 +19405,7 @@
         <v>75.3499984741211</v>
       </c>
       <c r="G536" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -19428,7 +19431,7 @@
         <v>73.4499969482422</v>
       </c>
       <c r="G537" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -19454,7 +19457,7 @@
         <v>75.6999969482422</v>
       </c>
       <c r="G538" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -19480,7 +19483,7 @@
         <v>74.0999984741211</v>
       </c>
       <c r="G539" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -19506,7 +19509,7 @@
         <v>69.5500030517578</v>
       </c>
       <c r="G540" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -19532,7 +19535,7 @@
         <v>71.1999969482422</v>
       </c>
       <c r="G541" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -19558,7 +19561,7 @@
         <v>71</v>
       </c>
       <c r="G542" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -19584,7 +19587,7 @@
         <v>70</v>
       </c>
       <c r="G543" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -19610,7 +19613,7 @@
         <v>70.4000015258789</v>
       </c>
       <c r="G544" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -19636,7 +19639,7 @@
         <v>71.3000030517578</v>
       </c>
       <c r="G545" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -19662,7 +19665,7 @@
         <v>69.9000015258789</v>
       </c>
       <c r="G546" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -19688,7 +19691,7 @@
         <v>69.5500030517578</v>
       </c>
       <c r="G547" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -19714,7 +19717,7 @@
         <v>69.8000030517578</v>
       </c>
       <c r="G548" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -19740,7 +19743,7 @@
         <v>69.6500015258789</v>
       </c>
       <c r="G549" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -19766,7 +19769,7 @@
         <v>69.75</v>
       </c>
       <c r="G550" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -19792,7 +19795,7 @@
         <v>69.4499969482422</v>
       </c>
       <c r="G551" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -19818,7 +19821,7 @@
         <v>68.5</v>
       </c>
       <c r="G552" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -19844,7 +19847,7 @@
         <v>67.4499969482422</v>
       </c>
       <c r="G553" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -19870,7 +19873,7 @@
         <v>66.4000015258789</v>
       </c>
       <c r="G554" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -19896,7 +19899,7 @@
         <v>66.0999984741211</v>
       </c>
       <c r="G555" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -19922,7 +19925,7 @@
         <v>67.3499984741211</v>
       </c>
       <c r="G556" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -19948,7 +19951,7 @@
         <v>68.4000015258789</v>
       </c>
       <c r="G557" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -19974,7 +19977,7 @@
         <v>70.5999984741211</v>
       </c>
       <c r="G558" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -20000,7 +20003,7 @@
         <v>73.5500030517578</v>
       </c>
       <c r="G559" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -20026,7 +20029,7 @@
         <v>74.75</v>
       </c>
       <c r="G560" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -20052,7 +20055,7 @@
         <v>73.8499984741211</v>
       </c>
       <c r="G561" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -20078,7 +20081,7 @@
         <v>74</v>
       </c>
       <c r="G562" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -20104,7 +20107,7 @@
         <v>72.9000015258789</v>
       </c>
       <c r="G563" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -20130,7 +20133,7 @@
         <v>73.0500030517578</v>
       </c>
       <c r="G564" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -20156,7 +20159,7 @@
         <v>72.1999969482422</v>
       </c>
       <c r="G565" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -20182,7 +20185,7 @@
         <v>71.8000030517578</v>
       </c>
       <c r="G566" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -20208,7 +20211,7 @@
         <v>72.0500030517578</v>
       </c>
       <c r="G567" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -20234,7 +20237,7 @@
         <v>72.5</v>
       </c>
       <c r="G568" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -20260,7 +20263,7 @@
         <v>72.6500015258789</v>
       </c>
       <c r="G569" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -20286,7 +20289,7 @@
         <v>71.6500015258789</v>
       </c>
       <c r="G570" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -20312,7 +20315,7 @@
         <v>70.3499984741211</v>
       </c>
       <c r="G571" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -20338,7 +20341,7 @@
         <v>72.6500015258789</v>
       </c>
       <c r="G572" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -20364,7 +20367,7 @@
         <v>72.9000015258789</v>
       </c>
       <c r="G573" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -20390,7 +20393,7 @@
         <v>73.0999984741211</v>
       </c>
       <c r="G574" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -20416,7 +20419,7 @@
         <v>72.5</v>
       </c>
       <c r="G575" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -20442,7 +20445,7 @@
         <v>71.75</v>
       </c>
       <c r="G576" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -20468,7 +20471,7 @@
         <v>72.25</v>
       </c>
       <c r="G577" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -20494,7 +20497,7 @@
         <v>73.8499984741211</v>
       </c>
       <c r="G578" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -20520,7 +20523,7 @@
         <v>73.0500030517578</v>
       </c>
       <c r="G579" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -20546,7 +20549,7 @@
         <v>73</v>
       </c>
       <c r="G580" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -20572,7 +20575,7 @@
         <v>72.0500030517578</v>
       </c>
       <c r="G581" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -20598,7 +20601,7 @@
         <v>73.5</v>
       </c>
       <c r="G582" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -20624,7 +20627,7 @@
         <v>73.5</v>
       </c>
       <c r="G583" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -20650,7 +20653,7 @@
         <v>75.3499984741211</v>
       </c>
       <c r="G584" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -20676,7 +20679,7 @@
         <v>75.5500030517578</v>
       </c>
       <c r="G585" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -20702,7 +20705,7 @@
         <v>77.5999984741211</v>
       </c>
       <c r="G586" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -20728,7 +20731,7 @@
         <v>74.75</v>
       </c>
       <c r="G587" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -20754,7 +20757,7 @@
         <v>74.5999984741211</v>
       </c>
       <c r="G588" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -20780,7 +20783,7 @@
         <v>76.1999969482422</v>
       </c>
       <c r="G589" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -20806,7 +20809,7 @@
         <v>78.4000015258789</v>
       </c>
       <c r="G590" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -20832,7 +20835,7 @@
         <v>77.3000030517578</v>
       </c>
       <c r="G591" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -20858,7 +20861,7 @@
         <v>78.1500015258789</v>
       </c>
       <c r="G592" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -20884,7 +20887,7 @@
         <v>78.4000015258789</v>
       </c>
       <c r="G593" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -20910,7 +20913,7 @@
         <v>78.3499984741211</v>
       </c>
       <c r="G594" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -20936,7 +20939,7 @@
         <v>78.6999969482422</v>
       </c>
       <c r="G595" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -20962,7 +20965,7 @@
         <v>78</v>
       </c>
       <c r="G596" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -20988,7 +20991,7 @@
         <v>78.6500015258789</v>
       </c>
       <c r="G597" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -21014,7 +21017,7 @@
         <v>79.1500015258789</v>
       </c>
       <c r="G598" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -21040,7 +21043,7 @@
         <v>78.3000030517578</v>
       </c>
       <c r="G599" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -21066,7 +21069,7 @@
         <v>80.4000015258789</v>
       </c>
       <c r="G600" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -21092,7 +21095,7 @@
         <v>81.5500030517578</v>
       </c>
       <c r="G601" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -21118,7 +21121,7 @@
         <v>80.1999969482422</v>
       </c>
       <c r="G602" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -21144,7 +21147,7 @@
         <v>81.3000030517578</v>
       </c>
       <c r="G603" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -21170,7 +21173,7 @@
         <v>81</v>
       </c>
       <c r="G604" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -21196,7 +21199,7 @@
         <v>81.1999969482422</v>
       </c>
       <c r="G605" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -21222,7 +21225,7 @@
         <v>82.6500015258789</v>
       </c>
       <c r="G606" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -21248,7 +21251,7 @@
         <v>81.4000015258789</v>
       </c>
       <c r="G607" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -21274,7 +21277,7 @@
         <v>81.25</v>
       </c>
       <c r="G608" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -21300,7 +21303,7 @@
         <v>81.9000015258789</v>
       </c>
       <c r="G609" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -21326,7 +21329,7 @@
         <v>80.6999969482422</v>
       </c>
       <c r="G610" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -21352,7 +21355,7 @@
         <v>82.0500030517578</v>
       </c>
       <c r="G611" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -21378,7 +21381,7 @@
         <v>84.1500015258789</v>
       </c>
       <c r="G612" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -21404,7 +21407,7 @@
         <v>83</v>
       </c>
       <c r="G613" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -21430,7 +21433,7 @@
         <v>81.1999969482422</v>
       </c>
       <c r="G614" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -21456,7 +21459,7 @@
         <v>84.5999984741211</v>
       </c>
       <c r="G615" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -21482,7 +21485,7 @@
         <v>82.5999984741211</v>
       </c>
       <c r="G616" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -21508,7 +21511,7 @@
         <v>85.5</v>
       </c>
       <c r="G617" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -21534,7 +21537,7 @@
         <v>87.5</v>
       </c>
       <c r="G618" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -21560,7 +21563,7 @@
         <v>88.25</v>
       </c>
       <c r="G619" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -21586,7 +21589,7 @@
         <v>88</v>
       </c>
       <c r="G620" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -21612,7 +21615,7 @@
         <v>88.4000015258789</v>
       </c>
       <c r="G621" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -21638,7 +21641,7 @@
         <v>87.9000015258789</v>
       </c>
       <c r="G622" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -21664,7 +21667,7 @@
         <v>88.9499969482422</v>
       </c>
       <c r="G623" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -21690,7 +21693,7 @@
         <v>91</v>
       </c>
       <c r="G624" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -21716,7 +21719,7 @@
         <v>92.4000015258789</v>
       </c>
       <c r="G625" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -21742,7 +21745,7 @@
         <v>93.3499984741211</v>
       </c>
       <c r="G626" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -21768,7 +21771,7 @@
         <v>93</v>
       </c>
       <c r="G627" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -21794,7 +21797,7 @@
         <v>92.3000030517578</v>
       </c>
       <c r="G628" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -21820,7 +21823,7 @@
         <v>90.9499969482422</v>
       </c>
       <c r="G629" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -21846,7 +21849,7 @@
         <v>89.5</v>
       </c>
       <c r="G630" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -21872,7 +21875,7 @@
         <v>89.1500015258789</v>
       </c>
       <c r="G631" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -21898,7 +21901,7 @@
         <v>96</v>
       </c>
       <c r="G632" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -21924,7 +21927,7 @@
         <v>95.0500030517578</v>
       </c>
       <c r="G633" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -21950,7 +21953,7 @@
         <v>95.6999969482422</v>
       </c>
       <c r="G634" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -21976,7 +21979,7 @@
         <v>97.3000030517578</v>
       </c>
       <c r="G635" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -22002,7 +22005,7 @@
         <v>96.3499984741211</v>
       </c>
       <c r="G636" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -22028,7 +22031,7 @@
         <v>97.6999969482422</v>
       </c>
       <c r="G637" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -22054,7 +22057,7 @@
         <v>96.3000030517578</v>
       </c>
       <c r="G638" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -22080,7 +22083,7 @@
         <v>97.5</v>
       </c>
       <c r="G639" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -22106,7 +22109,7 @@
         <v>96.4000015258789</v>
       </c>
       <c r="G640" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -22132,7 +22135,7 @@
         <v>95.5500030517578</v>
       </c>
       <c r="G641" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -22158,7 +22161,7 @@
         <v>96</v>
       </c>
       <c r="G642" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -22184,7 +22187,7 @@
         <v>95.8000030517578</v>
       </c>
       <c r="G643" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -22210,7 +22213,7 @@
         <v>95.9000015258789</v>
       </c>
       <c r="G644" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -22236,7 +22239,7 @@
         <v>96.1500015258789</v>
       </c>
       <c r="G645" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -22262,7 +22265,7 @@
         <v>98.1999969482422</v>
       </c>
       <c r="G646" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -22288,7 +22291,7 @@
         <v>97.6500015258789</v>
       </c>
       <c r="G647" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -22314,7 +22317,7 @@
         <v>97.9000015258789</v>
       </c>
       <c r="G648" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -22340,7 +22343,7 @@
         <v>96.5</v>
       </c>
       <c r="G649" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -22366,7 +22369,7 @@
         <v>95.9499969482422</v>
       </c>
       <c r="G650" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -22392,7 +22395,7 @@
         <v>96.75</v>
       </c>
       <c r="G651" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -22418,7 +22421,7 @@
         <v>96.4000015258789</v>
       </c>
       <c r="G652" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -22444,7 +22447,7 @@
         <v>94.5</v>
       </c>
       <c r="G653" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -22470,7 +22473,7 @@
         <v>94</v>
       </c>
       <c r="G654" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -22496,7 +22499,7 @@
         <v>94.3499984741211</v>
       </c>
       <c r="G655" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -22522,7 +22525,7 @@
         <v>92.4499969482422</v>
       </c>
       <c r="G656" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -22548,7 +22551,7 @@
         <v>93</v>
       </c>
       <c r="G657" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -22574,7 +22577,7 @@
         <v>92.5</v>
       </c>
       <c r="G658" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -22600,7 +22603,7 @@
         <v>91.8000030517578</v>
       </c>
       <c r="G659" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -22626,7 +22629,7 @@
         <v>93</v>
       </c>
       <c r="G660" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -22652,7 +22655,7 @@
         <v>85.0500030517578</v>
       </c>
       <c r="G661" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -22678,7 +22681,7 @@
         <v>87.3499984741211</v>
       </c>
       <c r="G662" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -22704,7 +22707,7 @@
         <v>87.5</v>
       </c>
       <c r="G663" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -22730,7 +22733,7 @@
         <v>88.75</v>
       </c>
       <c r="G664" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -22756,7 +22759,7 @@
         <v>87.8499984741211</v>
       </c>
       <c r="G665" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -22782,7 +22785,7 @@
         <v>88.0999984741211</v>
       </c>
       <c r="G666" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -22808,7 +22811,7 @@
         <v>87.8499984741211</v>
       </c>
       <c r="G667" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -22834,7 +22837,7 @@
         <v>86.9000015258789</v>
       </c>
       <c r="G668" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -22860,7 +22863,7 @@
         <v>88.1500015258789</v>
       </c>
       <c r="G669" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -22886,7 +22889,7 @@
         <v>86.5500030517578</v>
       </c>
       <c r="G670" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -22912,7 +22915,7 @@
         <v>86.8499984741211</v>
       </c>
       <c r="G671" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -22938,7 +22941,7 @@
         <v>93.1999969482422</v>
       </c>
       <c r="G672" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -22964,7 +22967,7 @@
         <v>93.75</v>
       </c>
       <c r="G673" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -22990,7 +22993,7 @@
         <v>91.5</v>
       </c>
       <c r="G674" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -23016,7 +23019,7 @@
         <v>91.8499984741211</v>
       </c>
       <c r="G675" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -23042,7 +23045,7 @@
         <v>91.5999984741211</v>
       </c>
       <c r="G676" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -23068,7 +23071,7 @@
         <v>91.1500015258789</v>
       </c>
       <c r="G677" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -23094,7 +23097,7 @@
         <v>91.6999969482422</v>
       </c>
       <c r="G678" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -23120,7 +23123,7 @@
         <v>92.9000015258789</v>
       </c>
       <c r="G679" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -23146,7 +23149,7 @@
         <v>93.8000030517578</v>
       </c>
       <c r="G680" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -23172,7 +23175,7 @@
         <v>93.8000030517578</v>
       </c>
       <c r="G681" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -23198,7 +23201,7 @@
         <v>92.4499969482422</v>
       </c>
       <c r="G682" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -23224,7 +23227,7 @@
         <v>92.3499984741211</v>
       </c>
       <c r="G683" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -23250,7 +23253,7 @@
         <v>89.4000015258789</v>
       </c>
       <c r="G684" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -23276,7 +23279,7 @@
         <v>89.6999969482422</v>
       </c>
       <c r="G685" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -23302,7 +23305,7 @@
         <v>87.9000015258789</v>
       </c>
       <c r="G686" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -23328,7 +23331,7 @@
         <v>88.9499969482422</v>
       </c>
       <c r="G687" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -23354,7 +23357,7 @@
         <v>88.4000015258789</v>
       </c>
       <c r="G688" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -23380,7 +23383,7 @@
         <v>88.6999969482422</v>
       </c>
       <c r="G689" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -23406,7 +23409,7 @@
         <v>89.5</v>
       </c>
       <c r="G690" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -23432,7 +23435,7 @@
         <v>89</v>
       </c>
       <c r="G691" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -23458,7 +23461,7 @@
         <v>90.6999969482422</v>
       </c>
       <c r="G692" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -23484,7 +23487,7 @@
         <v>93.75</v>
       </c>
       <c r="G693" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -23510,7 +23513,7 @@
         <v>95.8499984741211</v>
       </c>
       <c r="G694" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -23536,7 +23539,7 @@
         <v>97.1999969482422</v>
       </c>
       <c r="G695" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -23562,7 +23565,7 @@
         <v>92.25</v>
       </c>
       <c r="G696" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -23588,7 +23591,7 @@
         <v>91.5</v>
       </c>
       <c r="G697" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -23614,7 +23617,7 @@
         <v>93.0999984741211</v>
       </c>
       <c r="G698" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -23640,7 +23643,7 @@
         <v>92.9499969482422</v>
       </c>
       <c r="G699" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -23666,7 +23669,7 @@
         <v>91</v>
       </c>
       <c r="G700" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -23692,7 +23695,7 @@
         <v>90.5999984741211</v>
       </c>
       <c r="G701" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -23718,7 +23721,7 @@
         <v>91.3000030517578</v>
       </c>
       <c r="G702" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -23744,7 +23747,7 @@
         <v>91</v>
       </c>
       <c r="G703" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -23770,7 +23773,7 @@
         <v>90.5999984741211</v>
       </c>
       <c r="G704" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -23796,7 +23799,7 @@
         <v>89.1999969482422</v>
       </c>
       <c r="G705" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -23822,7 +23825,7 @@
         <v>86.8000030517578</v>
       </c>
       <c r="G706" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -23848,7 +23851,7 @@
         <v>82.3000030517578</v>
       </c>
       <c r="G707" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -23874,7 +23877,7 @@
         <v>81.5</v>
       </c>
       <c r="G708" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -23900,7 +23903,7 @@
         <v>80.3000030517578</v>
       </c>
       <c r="G709" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -23926,7 +23929,7 @@
         <v>79.6999969482422</v>
       </c>
       <c r="G710" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -23952,7 +23955,7 @@
         <v>81.9499969482422</v>
       </c>
       <c r="G711" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -23978,7 +23981,7 @@
         <v>79.5</v>
       </c>
       <c r="G712" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -24004,7 +24007,7 @@
         <v>79.8499984741211</v>
       </c>
       <c r="G713" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -24030,7 +24033,7 @@
         <v>81.5999984741211</v>
       </c>
       <c r="G714" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -24056,7 +24059,7 @@
         <v>82</v>
       </c>
       <c r="G715" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -24082,7 +24085,7 @@
         <v>82.4000015258789</v>
       </c>
       <c r="G716" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -24108,7 +24111,7 @@
         <v>83.6999969482422</v>
       </c>
       <c r="G717" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -24134,7 +24137,7 @@
         <v>79.75</v>
       </c>
       <c r="G718" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -24160,7 +24163,7 @@
         <v>80.5500030517578</v>
       </c>
       <c r="G719" t="s">
-        <v>501</v>
+        <v>407</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -24316,7 +24319,7 @@
         <v>86.9000015258789</v>
       </c>
       <c r="G725" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -24342,7 +24345,7 @@
         <v>86.5500030517578</v>
       </c>
       <c r="G726" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -24394,7 +24397,7 @@
         <v>86.8499984741211</v>
       </c>
       <c r="G728" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -24420,7 +24423,7 @@
         <v>81.5999984741211</v>
       </c>
       <c r="G729" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -24524,7 +24527,7 @@
         <v>82.3000030517578</v>
       </c>
       <c r="G733" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -24550,7 +24553,7 @@
         <v>81.5999984741211</v>
       </c>
       <c r="G734" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -24602,7 +24605,7 @@
         <v>81.1999969482422</v>
       </c>
       <c r="G736" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -61608,7 +61611,7 @@
     </row>
     <row r="2160">
       <c r="A2160" s="1" t="n">
-        <v>45469.6495833333</v>
+        <v>45469.2916666667</v>
       </c>
       <c r="B2160" t="n">
         <v>87667</v>
@@ -61629,6 +61632,32 @@
         <v>1706</v>
       </c>
       <c r="H2160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" s="1" t="n">
+        <v>45470.6494907407</v>
+      </c>
+      <c r="B2161" t="n">
+        <v>123502</v>
+      </c>
+      <c r="C2161" t="n">
+        <v>93.9800033569336</v>
+      </c>
+      <c r="D2161" t="n">
+        <v>92.5800018310547</v>
+      </c>
+      <c r="E2161" t="n">
+        <v>93.8399963378906</v>
+      </c>
+      <c r="F2161" t="n">
+        <v>93.4800033569336</v>
+      </c>
+      <c r="G2161" t="s">
+        <v>1707</v>
+      </c>
+      <c r="H2161" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DIA.MI.xlsx
+++ b/data/DIA.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="1711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="1712">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,46 +47,46 @@
     <t xml:space="preserve">43.8512992858887</t>
   </si>
   <si>
-    <t xml:space="preserve">43.5922470092773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.4761199951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3689270019531</t>
+    <t xml:space="preserve">43.5922508239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.4761276245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3689231872559</t>
   </si>
   <si>
     <t xml:space="preserve">42.6900329589844</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0116119384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2612648010254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8146209716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5104179382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.7779312133789</t>
+    <t xml:space="preserve">43.0116157531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2612571716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8146171569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5104141235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.7779273986816</t>
   </si>
   <si>
     <t xml:space="preserve">38.5630645751953</t>
   </si>
   <si>
-    <t xml:space="preserve">38.3218765258789</t>
+    <t xml:space="preserve">38.3218727111816</t>
   </si>
   <si>
     <t xml:space="preserve">38.1253509521484</t>
   </si>
   <si>
-    <t xml:space="preserve">39.4563407897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.769474029541</t>
+    <t xml:space="preserve">39.4563484191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7694702148438</t>
   </si>
   <si>
     <t xml:space="preserve">41.7878189086914</t>
@@ -98,13 +98,13 @@
     <t xml:space="preserve">41.8950119018555</t>
   </si>
   <si>
-    <t xml:space="preserve">43.3242683410645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.6190452575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5475883483887</t>
+    <t xml:space="preserve">43.3242645263672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.6190567016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5475807189941</t>
   </si>
   <si>
     <t xml:space="preserve">42.4131164550781</t>
@@ -113,16 +113,16 @@
     <t xml:space="preserve">41.7610168457031</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9208564758301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2414779663086</t>
+    <t xml:space="preserve">39.9208488464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2414855957031</t>
   </si>
   <si>
     <t xml:space="preserve">38.5005264282227</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0811653137207</t>
+    <t xml:space="preserve">39.081169128418</t>
   </si>
   <si>
     <t xml:space="preserve">39.0990295410156</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">40.6354789733887</t>
   </si>
   <si>
-    <t xml:space="preserve">40.9124031066895</t>
+    <t xml:space="preserve">40.9123954772949</t>
   </si>
   <si>
     <t xml:space="preserve">41.0106544494629</t>
@@ -143,16 +143,16 @@
     <t xml:space="preserve">41.9307403564453</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0920104980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.475643157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1366806030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.7619819641113</t>
+    <t xml:space="preserve">43.0920066833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.4756469726562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1366729736328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.7619743347168</t>
   </si>
   <si>
     <t xml:space="preserve">43.4493217468262</t>
@@ -161,28 +161,28 @@
     <t xml:space="preserve">43.7798347473145</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1009407043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3416481018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1902732849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.252799987793</t>
+    <t xml:space="preserve">43.100944519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3416557312012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1902770996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2528038024902</t>
   </si>
   <si>
     <t xml:space="preserve">43.3064002990723</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2786483764648</t>
+    <t xml:space="preserve">41.2786445617676</t>
   </si>
   <si>
     <t xml:space="preserve">40.8677368164062</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5193557739258</t>
+    <t xml:space="preserve">40.5193519592285</t>
   </si>
   <si>
     <t xml:space="preserve">41.6895523071289</t>
@@ -191,34 +191,34 @@
     <t xml:space="preserve">41.0910530090332</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6712112426758</t>
+    <t xml:space="preserve">40.6712074279785</t>
   </si>
   <si>
     <t xml:space="preserve">40.1263046264648</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6265525817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8051986694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3496284484863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6444129943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9838600158691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.664192199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.3341445922852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.8701210021973</t>
+    <t xml:space="preserve">40.6265487670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8052024841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3496246337891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6444091796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9838638305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6641845703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.334156036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.8701171875</t>
   </si>
   <si>
     <t xml:space="preserve">46.450756072998</t>
@@ -227,7 +227,7 @@
     <t xml:space="preserve">45.9594573974609</t>
   </si>
   <si>
-    <t xml:space="preserve">46.2721061706543</t>
+    <t xml:space="preserve">46.2720985412598</t>
   </si>
   <si>
     <t xml:space="preserve">47.4333686828613</t>
@@ -236,43 +236,43 @@
     <t xml:space="preserve">46.4954223632812</t>
   </si>
   <si>
-    <t xml:space="preserve">46.0041160583496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.7807960510254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4681510925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.512809753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.9147834777832</t>
+    <t xml:space="preserve">46.0041122436523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.7807998657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4681434631348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.5128135681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.9147911071777</t>
   </si>
   <si>
     <t xml:space="preserve">45.3788146972656</t>
   </si>
   <si>
-    <t xml:space="preserve">45.2894897460938</t>
+    <t xml:space="preserve">45.289493560791</t>
   </si>
   <si>
     <t xml:space="preserve">45.8254585266113</t>
   </si>
   <si>
-    <t xml:space="preserve">45.5574760437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4234809875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.3614349365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.2274398803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.4060935974121</t>
+    <t xml:space="preserve">45.5574722290039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4234771728516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.3614311218262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.2274360656738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.4061012268066</t>
   </si>
   <si>
     <t xml:space="preserve">46.8973999023438</t>
@@ -290,142 +290,142 @@
     <t xml:space="preserve">46.6740760803223</t>
   </si>
   <si>
-    <t xml:space="preserve">46.5847511291504</t>
+    <t xml:space="preserve">46.5847549438477</t>
   </si>
   <si>
     <t xml:space="preserve">48.0285758972168</t>
   </si>
   <si>
-    <t xml:space="preserve">48.1190299987793</t>
+    <t xml:space="preserve">48.119026184082</t>
   </si>
   <si>
     <t xml:space="preserve">47.7120056152344</t>
   </si>
   <si>
-    <t xml:space="preserve">48.526050567627</t>
+    <t xml:space="preserve">48.5260467529297</t>
   </si>
   <si>
     <t xml:space="preserve">48.7973976135254</t>
   </si>
   <si>
-    <t xml:space="preserve">49.7471160888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.204418182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.1993637084961</t>
+    <t xml:space="preserve">49.7471084594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.2044143676758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.1993560791016</t>
   </si>
   <si>
     <t xml:space="preserve">50.2898063659668</t>
   </si>
   <si>
-    <t xml:space="preserve">50.8777351379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.7018890380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.6063842773438</t>
+    <t xml:space="preserve">50.8777313232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.7018928527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.6063804626465</t>
   </si>
   <si>
     <t xml:space="preserve">49.7923393249512</t>
   </si>
   <si>
-    <t xml:space="preserve">50.3350372314453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.6114349365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.164249420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.3451461791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.214527130127</t>
+    <t xml:space="preserve">50.3350410461426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.6114387512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.1642532348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.3451499938965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.2145347595215</t>
   </si>
   <si>
     <t xml:space="preserve">47.5311050415039</t>
   </si>
   <si>
-    <t xml:space="preserve">48.7069473266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.9732360839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.7622909545898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.5864448547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.6266098022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.5209884643555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.380256652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.0586280822754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7521667480469</t>
+    <t xml:space="preserve">48.7069435119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.9732398986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.7622871398926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.5864486694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.6266136169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.5209922790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.3802604675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.0586242675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.7521705627441</t>
   </si>
   <si>
     <t xml:space="preserve">49.566219329834</t>
   </si>
   <si>
-    <t xml:space="preserve">50.4707069396973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.6566734313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.2395286560059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.872673034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.9179000854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.6013259887695</t>
+    <t xml:space="preserve">50.4707107543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.656665802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.2395248413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.8726692199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.917896270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.6013221740723</t>
   </si>
   <si>
     <t xml:space="preserve">51.5108757019043</t>
   </si>
   <si>
-    <t xml:space="preserve">52.2344703674316</t>
+    <t xml:space="preserve">52.2344741821289</t>
   </si>
   <si>
     <t xml:space="preserve">52.4605941772461</t>
   </si>
   <si>
-    <t xml:space="preserve">51.6465454101562</t>
+    <t xml:space="preserve">51.6465492248535</t>
   </si>
   <si>
     <t xml:space="preserve">51.4204254150391</t>
   </si>
   <si>
-    <t xml:space="preserve">50.9229583740234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.6968307495117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.5159301757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.8325119018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.2796897888184</t>
+    <t xml:space="preserve">50.9229507446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.6968231201172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.5159225463867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.8325157165527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.2796974182129</t>
   </si>
   <si>
     <t xml:space="preserve">54.2695808410645</t>
@@ -434,52 +434,52 @@
     <t xml:space="preserve">53.7721099853516</t>
   </si>
   <si>
-    <t xml:space="preserve">54.8575019836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.0383987426758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.0785636901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.8122673034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.7319374084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.3249244689941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.3299751281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0535697937012</t>
+    <t xml:space="preserve">54.8575057983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.0383911132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.0785675048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.8122749328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.7319412231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.3249168395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.3299789428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0535659790039</t>
   </si>
   <si>
     <t xml:space="preserve">51.2847480773926</t>
   </si>
   <si>
-    <t xml:space="preserve">52.912841796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.4153671264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0987892150879</t>
+    <t xml:space="preserve">52.9128379821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.4153709411621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0987930297852</t>
   </si>
   <si>
     <t xml:space="preserve">52.0083427429199</t>
   </si>
   <si>
-    <t xml:space="preserve">52.5510406494141</t>
+    <t xml:space="preserve">52.5510368347168</t>
   </si>
   <si>
     <t xml:space="preserve">51.737003326416</t>
   </si>
   <si>
-    <t xml:space="preserve">51.1038475036621</t>
+    <t xml:space="preserve">51.1038589477539</t>
   </si>
   <si>
     <t xml:space="preserve">50.1089096069336</t>
@@ -494,43 +494,43 @@
     <t xml:space="preserve">53.1841850280762</t>
   </si>
   <si>
-    <t xml:space="preserve">53.3650856018066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.1892433166504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.003288269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.2746391296387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.9580612182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.8625526428223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.3701477050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.827449798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.3751983642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.7872848510742</t>
+    <t xml:space="preserve">53.3650817871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.1892471313477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.0032920837402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.2746353149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.958065032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.862548828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.3701438903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.8274459838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.3752021789551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.787281036377</t>
   </si>
   <si>
     <t xml:space="preserve">51.5560989379883</t>
   </si>
   <si>
-    <t xml:space="preserve">50.651611328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.340087890625</t>
+    <t xml:space="preserve">50.6516075134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.3400917053223</t>
   </si>
   <si>
     <t xml:space="preserve">48.254695892334</t>
@@ -539,13 +539,13 @@
     <t xml:space="preserve">48.4355964660645</t>
   </si>
   <si>
-    <t xml:space="preserve">45.9030113220215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.3100395202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.1291427612305</t>
+    <t xml:space="preserve">45.903018951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.3100433349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.1291465759277</t>
   </si>
   <si>
     <t xml:space="preserve">46.988410949707</t>
@@ -554,82 +554,79 @@
     <t xml:space="preserve">47.2597541809082</t>
   </si>
   <si>
-    <t xml:space="preserve">46.8527412414551</t>
-  </si>
-  <si>
     <t xml:space="preserve">46.3552665710449</t>
   </si>
   <si>
     <t xml:space="preserve">46.7170639038086</t>
   </si>
   <si>
-    <t xml:space="preserve">47.1693077087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.033634185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.5813865661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.0386962890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.2648162841797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.1240844726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8979606628418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.8476753234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.0737991333008</t>
+    <t xml:space="preserve">47.1693115234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.0336380004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.5813789367676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.038688659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.264820098877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.124080657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8979568481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.8476791381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.073802947998</t>
   </si>
   <si>
     <t xml:space="preserve">49.8375625610352</t>
   </si>
   <si>
-    <t xml:space="preserve">51.0134010314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.8223876953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.1490669250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.4757652282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.2445831298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.465648651123</t>
+    <t xml:space="preserve">51.0134048461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.8223915100098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.1490783691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.4757690429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.2445869445801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.4656524658203</t>
   </si>
   <si>
     <t xml:space="preserve">51.7822227478027</t>
   </si>
   <si>
-    <t xml:space="preserve">52.8676147460938</t>
+    <t xml:space="preserve">52.8676109313965</t>
   </si>
   <si>
     <t xml:space="preserve">53.1389617919922</t>
   </si>
   <si>
-    <t xml:space="preserve">54.0434494018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.088680267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.1338996887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.3600234985352</t>
+    <t xml:space="preserve">54.04345703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.0886840820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.133903503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.3600273132324</t>
   </si>
   <si>
     <t xml:space="preserve">53.5912132263184</t>
@@ -644,10 +641,10 @@
     <t xml:space="preserve">55.4906387329102</t>
   </si>
   <si>
-    <t xml:space="preserve">56.3046836853027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.0333404541016</t>
+    <t xml:space="preserve">56.3046913146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.0333366394043</t>
   </si>
   <si>
     <t xml:space="preserve">56.214241027832</t>
@@ -656,82 +653,82 @@
     <t xml:space="preserve">56.9830551147461</t>
   </si>
   <si>
-    <t xml:space="preserve">56.8473777770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.349910736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.5257568359375</t>
+    <t xml:space="preserve">56.8473854064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.3499145507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.5257530212402</t>
   </si>
   <si>
     <t xml:space="preserve">57.2544021606445</t>
   </si>
   <si>
-    <t xml:space="preserve">57.7066497802734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.7971038818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.1588973999023</t>
+    <t xml:space="preserve">57.7066612243652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.7971000671387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.1589012145996</t>
   </si>
   <si>
     <t xml:space="preserve">58.0684432983398</t>
   </si>
   <si>
-    <t xml:space="preserve">58.7920379638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.6513061523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.7869834899902</t>
+    <t xml:space="preserve">58.7920455932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.6513023376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.7869873046875</t>
   </si>
   <si>
     <t xml:space="preserve">59.5156402587891</t>
   </si>
   <si>
-    <t xml:space="preserve">58.8372650146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.8875503540039</t>
+    <t xml:space="preserve">58.8372688293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.8875465393066</t>
   </si>
   <si>
     <t xml:space="preserve">58.1136741638184</t>
   </si>
   <si>
-    <t xml:space="preserve">59.3347320556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.781925201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.6965370178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.0583343505859</t>
+    <t xml:space="preserve">59.3347396850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.7819213867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.6965408325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.0583305358887</t>
   </si>
   <si>
     <t xml:space="preserve">61.0532760620117</t>
   </si>
   <si>
-    <t xml:space="preserve">62.2291107177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.2190017700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.9527053833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.4100074768066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.6813735961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.6310844421387</t>
+    <t xml:space="preserve">62.2291259765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.218994140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.9526977539062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.4100189208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.6813659667969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.6310768127441</t>
   </si>
   <si>
     <t xml:space="preserve">63.4954032897949</t>
@@ -740,64 +737,64 @@
     <t xml:space="preserve">63.1788330078125</t>
   </si>
   <si>
-    <t xml:space="preserve">63.5406303405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.3145141601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.6411895751953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.9628257751465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.7316360473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.4638175964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.7383842468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.8756637573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.1044769287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.3332824707031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.2807807922363</t>
+    <t xml:space="preserve">63.5406265258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.3145027160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.6411972045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.9628295898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.7316474914551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.4638214111328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.7383995056152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.8756675720215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.1044692993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.3332939147949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.2807769775391</t>
   </si>
   <si>
     <t xml:space="preserve">64.2484970092773</t>
   </si>
   <si>
-    <t xml:space="preserve">64.5688247680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.2942657470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.3925170898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.88916015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.6670989990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.3534927368164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.9739418029785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.8366470336914</t>
+    <t xml:space="preserve">64.5688400268555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.2942733764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.3925247192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.8891525268555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.6670913696289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.3535232543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.973934173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.8366432189941</t>
   </si>
   <si>
     <t xml:space="preserve">65.3467712402344</t>
@@ -806,7 +803,7 @@
     <t xml:space="preserve">64.7061157226562</t>
   </si>
   <si>
-    <t xml:space="preserve">65.2552642822266</t>
+    <t xml:space="preserve">65.2552337646484</t>
   </si>
   <si>
     <t xml:space="preserve">65.1179580688477</t>
@@ -815,109 +812,109 @@
     <t xml:space="preserve">64.9806747436523</t>
   </si>
   <si>
-    <t xml:space="preserve">66.5365524291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.8689308166504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.4045715332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.5486030578613</t>
+    <t xml:space="preserve">66.5365447998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.8689270019531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.4045791625977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.5485992431641</t>
   </si>
   <si>
     <t xml:space="preserve">60.9537010192871</t>
   </si>
   <si>
-    <t xml:space="preserve">61.5943565368652</t>
+    <t xml:space="preserve">61.594367980957</t>
   </si>
   <si>
     <t xml:space="preserve">61.3197937011719</t>
   </si>
   <si>
-    <t xml:space="preserve">60.4503402709961</t>
+    <t xml:space="preserve">60.4503364562988</t>
   </si>
   <si>
     <t xml:space="preserve">61.411319732666</t>
   </si>
   <si>
-    <t xml:space="preserve">62.2350082397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.1960029602051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.0196990966797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.3857879638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.202751159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.928165435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.0856857299805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.6348114013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.8568725585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.3602523803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.1772079467773</t>
+    <t xml:space="preserve">62.2350120544434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.1959915161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.0196914672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.3857803344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.2027359008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.9281692504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.085693359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.6348190307617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.8568801879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.3602676391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.1772155761719</t>
   </si>
   <si>
     <t xml:space="preserve">66.8111190795898</t>
   </si>
   <si>
-    <t xml:space="preserve">66.719596862793</t>
+    <t xml:space="preserve">66.7196044921875</t>
   </si>
   <si>
     <t xml:space="preserve">66.4450302124023</t>
   </si>
   <si>
-    <t xml:space="preserve">65.8501281738281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.0331802368164</t>
+    <t xml:space="preserve">65.8501434326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.0331878662109</t>
   </si>
   <si>
     <t xml:space="preserve">65.5755767822266</t>
   </si>
   <si>
-    <t xml:space="preserve">65.6213302612305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.4840545654297</t>
+    <t xml:space="preserve">65.621337890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.4840621948242</t>
   </si>
   <si>
     <t xml:space="preserve">65.3010101318359</t>
   </si>
   <si>
-    <t xml:space="preserve">64.7976379394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.111213684082</t>
+    <t xml:space="preserve">64.7976303100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.1112213134766</t>
   </si>
   <si>
     <t xml:space="preserve">66.2619857788086</t>
   </si>
   <si>
-    <t xml:space="preserve">66.3077392578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.1314468383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.4517822265625</t>
+    <t xml:space="preserve">66.307746887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.1314544677734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.451774597168</t>
   </si>
   <si>
     <t xml:space="preserve">67.3144912719727</t>
@@ -926,16 +923,16 @@
     <t xml:space="preserve">67.7263412475586</t>
   </si>
   <si>
-    <t xml:space="preserve">66.9026412963867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.2229614257812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.9551467895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.5433044433594</t>
+    <t xml:space="preserve">66.9026489257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.2229690551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.9551391601562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.5432968139648</t>
   </si>
   <si>
     <t xml:space="preserve">68.2754745483398</t>
@@ -944,46 +941,46 @@
     <t xml:space="preserve">69.4195022583008</t>
   </si>
   <si>
-    <t xml:space="preserve">69.0076522827148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.7330856323242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.8246002197266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.0534133911133</t>
+    <t xml:space="preserve">69.0076446533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.7330932617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.8245849609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.0534057617188</t>
   </si>
   <si>
     <t xml:space="preserve">70.0143966674805</t>
   </si>
   <si>
-    <t xml:space="preserve">71.2041778564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.2957000732422</t>
+    <t xml:space="preserve">71.2041854858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.2957077026367</t>
   </si>
   <si>
     <t xml:space="preserve">72.8973388671875</t>
   </si>
   <si>
-    <t xml:space="preserve">72.3024444580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.4397354125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.7533187866211</t>
+    <t xml:space="preserve">72.3024520874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.4397277832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.7533111572266</t>
   </si>
   <si>
     <t xml:space="preserve">72.0736465454102</t>
   </si>
   <si>
-    <t xml:space="preserve">73.7210388183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.7990646362305</t>
+    <t xml:space="preserve">73.7210464477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.7990798950195</t>
   </si>
   <si>
     <t xml:space="preserve">71.1584167480469</t>
@@ -992,16 +989,16 @@
     <t xml:space="preserve">71.2499389648438</t>
   </si>
   <si>
-    <t xml:space="preserve">71.432991027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.6617889404297</t>
+    <t xml:space="preserve">71.4329833984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.6618041992188</t>
   </si>
   <si>
     <t xml:space="preserve">71.7075424194336</t>
   </si>
   <si>
-    <t xml:space="preserve">71.3872222900391</t>
+    <t xml:space="preserve">71.3872299194336</t>
   </si>
   <si>
     <t xml:space="preserve">71.4787445068359</t>
@@ -1010,31 +1007,31 @@
     <t xml:space="preserve">72.2566833496094</t>
   </si>
   <si>
-    <t xml:space="preserve">71.3414535522461</t>
+    <t xml:space="preserve">71.3414611816406</t>
   </si>
   <si>
     <t xml:space="preserve">72.4854888916016</t>
   </si>
   <si>
-    <t xml:space="preserve">71.8905944824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.6160278320312</t>
+    <t xml:space="preserve">71.8906021118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.6160202026367</t>
   </si>
   <si>
     <t xml:space="preserve">65.9416656494141</t>
   </si>
   <si>
-    <t xml:space="preserve">66.3992614746094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.3212356567383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.6873245239258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.1516799926758</t>
+    <t xml:space="preserve">66.3992691040039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.3212432861328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.6873321533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.1516723632812</t>
   </si>
   <si>
     <t xml:space="preserve">70.9296188354492</t>
@@ -1046,16 +1043,16 @@
     <t xml:space="preserve">69.8771133422852</t>
   </si>
   <si>
-    <t xml:space="preserve">68.1839599609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.236457824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.9228744506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.0601654052734</t>
+    <t xml:space="preserve">68.183952331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.2364501953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.9228897094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.0601577758789</t>
   </si>
   <si>
     <t xml:space="preserve">70.8380889892578</t>
@@ -1064,10 +1061,10 @@
     <t xml:space="preserve">71.0669021606445</t>
   </si>
   <si>
-    <t xml:space="preserve">72.8058319091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.5379867553711</t>
+    <t xml:space="preserve">72.8058242797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.5380020141602</t>
   </si>
   <si>
     <t xml:space="preserve">70.7923355102539</t>
@@ -1076,43 +1073,43 @@
     <t xml:space="preserve">69.3737335205078</t>
   </si>
   <si>
-    <t xml:space="preserve">69.2822113037109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.1381912231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.504280090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.2889633178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.2634353637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.7142944335938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.53125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.8515853881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.9430999755859</t>
+    <t xml:space="preserve">69.2822189331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.1381988525391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.5042877197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.2889709472656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.263427734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.7142868041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.5312652587891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.8515701293945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.9430923461914</t>
   </si>
   <si>
     <t xml:space="preserve">72.6227722167969</t>
   </si>
   <si>
-    <t xml:space="preserve">72.3939743041992</t>
+    <t xml:space="preserve">72.3939666748047</t>
   </si>
   <si>
     <t xml:space="preserve">72.3482131958008</t>
   </si>
   <si>
-    <t xml:space="preserve">72.5770111083984</t>
+    <t xml:space="preserve">72.577018737793</t>
   </si>
   <si>
     <t xml:space="preserve">72.1651611328125</t>
@@ -1121,16 +1118,16 @@
     <t xml:space="preserve">70.700813293457</t>
   </si>
   <si>
-    <t xml:space="preserve">72.6685333251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.9618759155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.8178634643555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.6536140441895</t>
+    <t xml:space="preserve">72.6685409545898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.9618911743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.8178482055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.6536026000977</t>
   </si>
   <si>
     <t xml:space="preserve">65.1637191772461</t>
@@ -1142,40 +1139,43 @@
     <t xml:space="preserve">64.4315490722656</t>
   </si>
   <si>
-    <t xml:space="preserve">63.8824195861816</t>
+    <t xml:space="preserve">63.8824157714844</t>
   </si>
   <si>
     <t xml:space="preserve">63.7451362609863</t>
   </si>
   <si>
-    <t xml:space="preserve">63.5620956420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.6926383972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.7706680297852</t>
+    <t xml:space="preserve">63.5620880126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.6926193237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.7316513061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.7706604003906</t>
   </si>
   <si>
     <t xml:space="preserve">60.4960975646973</t>
   </si>
   <si>
-    <t xml:space="preserve">61.6401252746582</t>
+    <t xml:space="preserve">61.6401176452637</t>
   </si>
   <si>
     <t xml:space="preserve">62.6011047363281</t>
   </si>
   <si>
-    <t xml:space="preserve">64.6145858764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.4127655029297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.5890426635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.0789489746094</t>
+    <t xml:space="preserve">64.6145935058594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.4127578735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.5890579223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.0789337158203</t>
   </si>
   <si>
     <t xml:space="preserve">65.7128601074219</t>
@@ -1187,16 +1187,16 @@
     <t xml:space="preserve">66.1247100830078</t>
   </si>
   <si>
-    <t xml:space="preserve">67.2687225341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.1449356079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.0211334228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.7398300170898</t>
+    <t xml:space="preserve">67.2687301635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.1449432373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.0211410522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.7398223876953</t>
   </si>
   <si>
     <t xml:space="preserve">70.7465744018555</t>
@@ -1205,7 +1205,7 @@
     <t xml:space="preserve">71.5245056152344</t>
   </si>
   <si>
-    <t xml:space="preserve">72.0278701782227</t>
+    <t xml:space="preserve">72.0278778076172</t>
   </si>
   <si>
     <t xml:space="preserve">71.9821243286133</t>
@@ -1214,25 +1214,25 @@
     <t xml:space="preserve">73.5837554931641</t>
   </si>
   <si>
-    <t xml:space="preserve">74.6362609863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.4007034301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.4074554443359</t>
+    <t xml:space="preserve">74.6362533569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.4007110595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.4074478149414</t>
   </si>
   <si>
     <t xml:space="preserve">74.1328887939453</t>
   </si>
   <si>
-    <t xml:space="preserve">74.3159255981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.6429977416992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.4989852905273</t>
+    <t xml:space="preserve">74.3159332275391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.6430053710938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.4989776611328</t>
   </si>
   <si>
     <t xml:space="preserve">75.1463851928711</t>
@@ -1244,19 +1244,19 @@
     <t xml:space="preserve">74.6377029418945</t>
   </si>
   <si>
-    <t xml:space="preserve">75.8862991333008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.8285369873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.7649307250977</t>
+    <t xml:space="preserve">75.8863067626953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.8285293579102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.7649230957031</t>
   </si>
   <si>
     <t xml:space="preserve">75.1001434326172</t>
   </si>
   <si>
-    <t xml:space="preserve">78.244743347168</t>
+    <t xml:space="preserve">78.2447357177734</t>
   </si>
   <si>
     <t xml:space="preserve">76.3949737548828</t>
@@ -1268,13 +1268,13 @@
     <t xml:space="preserve">80.9268798828125</t>
   </si>
   <si>
-    <t xml:space="preserve">81.6205368041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.3893280029297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.7592697143555</t>
+    <t xml:space="preserve">81.6205520629883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.3893203735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.7592620849609</t>
   </si>
   <si>
     <t xml:space="preserve">81.2968292236328</t>
@@ -1283,7 +1283,7 @@
     <t xml:space="preserve">82.2679443359375</t>
   </si>
   <si>
-    <t xml:space="preserve">84.1639633178711</t>
+    <t xml:space="preserve">84.1639556884766</t>
   </si>
   <si>
     <t xml:space="preserve">85.4587860107422</t>
@@ -1292,112 +1292,112 @@
     <t xml:space="preserve">86.3374176025391</t>
   </si>
   <si>
-    <t xml:space="preserve">86.0137252807617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.3663101196289</t>
+    <t xml:space="preserve">86.0137176513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.3663024902344</t>
   </si>
   <si>
     <t xml:space="preserve">84.1177062988281</t>
   </si>
   <si>
-    <t xml:space="preserve">82.7766418457031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.4529342651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.7883453369141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.9097137451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.5108871459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.9906921386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.1120529174805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.3606491088867</t>
+    <t xml:space="preserve">82.7766494750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.4529418945312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.7883529663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.9097213745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.5108795166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.9906997680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.112060546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.3606414794922</t>
   </si>
   <si>
     <t xml:space="preserve">89.0658111572266</t>
   </si>
   <si>
-    <t xml:space="preserve">90.1756591796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.1583099365234</t>
+    <t xml:space="preserve">90.175666809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.1583023071289</t>
   </si>
   <si>
     <t xml:space="preserve">88.3721618652344</t>
   </si>
   <si>
-    <t xml:space="preserve">88.603385925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.6958618164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.9270935058594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.8230743408203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.3144073486328</t>
+    <t xml:space="preserve">88.6033782958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.6958694458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.9270782470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.8230819702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.3143997192383</t>
   </si>
   <si>
     <t xml:space="preserve">90.5456237792969</t>
   </si>
   <si>
-    <t xml:space="preserve">89.2507858276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.7421112060547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.4820175170898</t>
+    <t xml:space="preserve">89.2507934570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.7420959472656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.4820022583008</t>
   </si>
   <si>
     <t xml:space="preserve">87.4010238647461</t>
   </si>
   <si>
-    <t xml:space="preserve">86.938591003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.2622985839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.5050277709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.55126953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.9038619995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.6609268188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.7881393432617</t>
+    <t xml:space="preserve">86.9385986328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.2622833251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.5050430297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.5512771606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.9038696289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.6609344482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.7881546020508</t>
   </si>
   <si>
     <t xml:space="preserve">82.0829772949219</t>
   </si>
   <si>
-    <t xml:space="preserve">81.2505950927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.481819152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.371955871582</t>
+    <t xml:space="preserve">81.2505874633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.481803894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.3719635009766</t>
   </si>
   <si>
     <t xml:space="preserve">81.5280532836914</t>
@@ -1412,34 +1412,34 @@
     <t xml:space="preserve">86.1986846923828</t>
   </si>
   <si>
-    <t xml:space="preserve">86.7073669433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.6264038085938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.9500961303711</t>
+    <t xml:space="preserve">86.7073745727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.6263961791992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.9501037597656</t>
   </si>
   <si>
     <t xml:space="preserve">84.7188873291016</t>
   </si>
   <si>
-    <t xml:space="preserve">84.3026885986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.8113708496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.9212265014648</t>
+    <t xml:space="preserve">84.3027038574219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.8113632202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.9212341308594</t>
   </si>
   <si>
     <t xml:space="preserve">86.7536163330078</t>
   </si>
   <si>
-    <t xml:space="preserve">85.4125366210938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.6841506958008</t>
+    <t xml:space="preserve">85.4125442504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.6841583251953</t>
   </si>
   <si>
     <t xml:space="preserve">82.9616165161133</t>
@@ -1457,7 +1457,7 @@
     <t xml:space="preserve">88.6496200561523</t>
   </si>
   <si>
-    <t xml:space="preserve">89.8982009887695</t>
+    <t xml:space="preserve">89.8982086181641</t>
   </si>
   <si>
     <t xml:space="preserve">85.3200607299805</t>
@@ -1469,85 +1469,85 @@
     <t xml:space="preserve">85.9674682617188</t>
   </si>
   <si>
-    <t xml:space="preserve">83.7939910888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.4414215087891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.4991683959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.2794647216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.1175079345703</t>
+    <t xml:space="preserve">83.7940063476562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.4414291381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.4991760253906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.2794723510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.1175231933594</t>
   </si>
   <si>
     <t xml:space="preserve">75.3776092529297</t>
   </si>
   <si>
-    <t xml:space="preserve">74.2677536010742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.7128219604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.7938003540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.5278472900391</t>
+    <t xml:space="preserve">74.2677612304688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.7128295898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.7937927246094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.5278549194336</t>
   </si>
   <si>
     <t xml:space="preserve">73.8515625</t>
   </si>
   <si>
-    <t xml:space="preserve">75.4700927734375</t>
+    <t xml:space="preserve">75.470100402832</t>
   </si>
   <si>
     <t xml:space="preserve">75.8400497436523</t>
   </si>
   <si>
-    <t xml:space="preserve">76.2100067138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.4123382568359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.7590637207031</t>
+    <t xml:space="preserve">76.2099990844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.4123458862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.7590713500977</t>
   </si>
   <si>
     <t xml:space="preserve">74.7764434814453</t>
   </si>
   <si>
-    <t xml:space="preserve">73.2041397094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.915168762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.025016784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.5048217773438</t>
+    <t xml:space="preserve">73.2041473388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.9151763916016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.0250244140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.5048370361328</t>
   </si>
   <si>
     <t xml:space="preserve">80.9731292724609</t>
   </si>
   <si>
-    <t xml:space="preserve">76.3024978637695</t>
+    <t xml:space="preserve">76.3024826049805</t>
   </si>
   <si>
     <t xml:space="preserve">77.0886306762695</t>
   </si>
   <si>
-    <t xml:space="preserve">73.9902954101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.4468688964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.5856094360352</t>
+    <t xml:space="preserve">73.9902877807617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.4468765258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.5856170654297</t>
   </si>
   <si>
     <t xml:space="preserve">72.0018005371094</t>
@@ -1556,22 +1556,22 @@
     <t xml:space="preserve">72.8804321289062</t>
   </si>
   <si>
-    <t xml:space="preserve">74.0365371704102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.2503814697266</t>
+    <t xml:space="preserve">74.0365447998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.2503967285156</t>
   </si>
   <si>
     <t xml:space="preserve">71.95556640625</t>
   </si>
   <si>
-    <t xml:space="preserve">71.7705764770508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.4583892822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.3658981323242</t>
+    <t xml:space="preserve">71.7705841064453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.458381652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.3659133911133</t>
   </si>
   <si>
     <t xml:space="preserve">69.7358474731445</t>
@@ -1583,49 +1583,49 @@
     <t xml:space="preserve">67.6548767089844</t>
   </si>
   <si>
-    <t xml:space="preserve">68.2560424804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.7936096191406</t>
+    <t xml:space="preserve">68.2560348510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.7936019897461</t>
   </si>
   <si>
     <t xml:space="preserve">67.4698944091797</t>
   </si>
   <si>
-    <t xml:space="preserve">68.4410171508789</t>
+    <t xml:space="preserve">68.4410247802734</t>
   </si>
   <si>
     <t xml:space="preserve">67.7011184692383</t>
   </si>
   <si>
-    <t xml:space="preserve">66.3600387573242</t>
+    <t xml:space="preserve">66.3600463867188</t>
   </si>
   <si>
     <t xml:space="preserve">64.8339920043945</t>
   </si>
   <si>
-    <t xml:space="preserve">65.2501907348633</t>
+    <t xml:space="preserve">65.2502059936523</t>
   </si>
   <si>
     <t xml:space="preserve">65.111457824707</t>
   </si>
   <si>
-    <t xml:space="preserve">65.6201324462891</t>
+    <t xml:space="preserve">65.6201248168945</t>
   </si>
   <si>
     <t xml:space="preserve">67.007453918457</t>
   </si>
   <si>
-    <t xml:space="preserve">65.7744827270508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.0548782348633</t>
+    <t xml:space="preserve">65.7744750976562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.0548706054688</t>
   </si>
   <si>
     <t xml:space="preserve">67.5291061401367</t>
   </si>
   <si>
-    <t xml:space="preserve">67.1497268676758</t>
+    <t xml:space="preserve">67.1497344970703</t>
   </si>
   <si>
     <t xml:space="preserve">70.8960723876953</t>
@@ -1652,16 +1652,16 @@
     <t xml:space="preserve">71.7970886230469</t>
   </si>
   <si>
-    <t xml:space="preserve">73.5042877197266</t>
+    <t xml:space="preserve">73.5042953491211</t>
   </si>
   <si>
     <t xml:space="preserve">73.9785079956055</t>
   </si>
   <si>
-    <t xml:space="preserve">76.2073516845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.0650863647461</t>
+    <t xml:space="preserve">76.2073593139648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.0650787353516</t>
   </si>
   <si>
     <t xml:space="preserve">75.9228134155273</t>
@@ -1673,7 +1673,7 @@
     <t xml:space="preserve">76.0176620483398</t>
   </si>
   <si>
-    <t xml:space="preserve">76.254768371582</t>
+    <t xml:space="preserve">76.2547760009766</t>
   </si>
   <si>
     <t xml:space="preserve">75.6382751464844</t>
@@ -1688,7 +1688,7 @@
     <t xml:space="preserve">75.8279724121094</t>
   </si>
   <si>
-    <t xml:space="preserve">77.8671264648438</t>
+    <t xml:space="preserve">77.8671188354492</t>
   </si>
   <si>
     <t xml:space="preserve">77.9619598388672</t>
@@ -1697,16 +1697,16 @@
     <t xml:space="preserve">79.7165908813477</t>
   </si>
   <si>
-    <t xml:space="preserve">79.6217422485352</t>
+    <t xml:space="preserve">79.6217498779297</t>
   </si>
   <si>
     <t xml:space="preserve">80.7124481201172</t>
   </si>
   <si>
-    <t xml:space="preserve">80.2856597900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.6176071166992</t>
+    <t xml:space="preserve">80.2856521606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.6176147460938</t>
   </si>
   <si>
     <t xml:space="preserve">80.2382354736328</t>
@@ -1718,25 +1718,25 @@
     <t xml:space="preserve">80.8072891235352</t>
   </si>
   <si>
-    <t xml:space="preserve">81.0444030761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.0485458374023</t>
+    <t xml:space="preserve">81.0443954467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.0485382080078</t>
   </si>
   <si>
     <t xml:space="preserve">80.9021377563477</t>
   </si>
   <si>
-    <t xml:space="preserve">81.7083129882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.3289260864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.8031616210938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.0835571289062</t>
+    <t xml:space="preserve">81.7083053588867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.3289337158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.8031539916992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.0835647583008</t>
   </si>
   <si>
     <t xml:space="preserve">82.7516021728516</t>
@@ -1745,10 +1745,10 @@
     <t xml:space="preserve">82.4196472167969</t>
   </si>
   <si>
-    <t xml:space="preserve">82.3722229003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.2773818969727</t>
+    <t xml:space="preserve">82.3722305297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.2773742675781</t>
   </si>
   <si>
     <t xml:space="preserve">83.2732543945312</t>
@@ -1757,7 +1757,7 @@
     <t xml:space="preserve">82.1825408935547</t>
   </si>
   <si>
-    <t xml:space="preserve">81.3763580322266</t>
+    <t xml:space="preserve">81.3763656616211</t>
   </si>
   <si>
     <t xml:space="preserve">80.9969863891602</t>
@@ -1769,28 +1769,28 @@
     <t xml:space="preserve">83.5577850341797</t>
   </si>
   <si>
-    <t xml:space="preserve">84.0794219970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.3165283203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.9845886230469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.7433319091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.0319976806641</t>
+    <t xml:space="preserve">84.0794296264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.316535949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.9845733642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.7433242797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.0319900512695</t>
   </si>
   <si>
     <t xml:space="preserve">85.1227111816406</t>
   </si>
   <si>
-    <t xml:space="preserve">85.0752868652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.8814697265625</t>
+    <t xml:space="preserve">85.0752944946289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.881462097168</t>
   </si>
   <si>
     <t xml:space="preserve">86.877326965332</t>
@@ -1811,19 +1811,19 @@
     <t xml:space="preserve">86.3082656860352</t>
   </si>
   <si>
-    <t xml:space="preserve">86.2134017944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.7350463867188</t>
+    <t xml:space="preserve">86.2134094238281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.7350540161133</t>
   </si>
   <si>
     <t xml:space="preserve">83.1309814453125</t>
   </si>
   <si>
-    <t xml:space="preserve">80.7598724365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.2815170288086</t>
+    <t xml:space="preserve">80.7598648071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.2815093994141</t>
   </si>
   <si>
     <t xml:space="preserve">82.6093292236328</t>
@@ -1835,13 +1835,13 @@
     <t xml:space="preserve">84.8855972290039</t>
   </si>
   <si>
-    <t xml:space="preserve">85.2649688720703</t>
+    <t xml:space="preserve">85.2649765014648</t>
   </si>
   <si>
     <t xml:space="preserve">85.3598251342773</t>
   </si>
   <si>
-    <t xml:space="preserve">86.4030990600586</t>
+    <t xml:space="preserve">86.4031066894531</t>
   </si>
   <si>
     <t xml:space="preserve">89.2958602905273</t>
@@ -1859,31 +1859,31 @@
     <t xml:space="preserve">92.85693359375</t>
   </si>
   <si>
-    <t xml:space="preserve">92.3304138183594</t>
+    <t xml:space="preserve">92.3304214477539</t>
   </si>
   <si>
     <t xml:space="preserve">93.335578918457</t>
   </si>
   <si>
-    <t xml:space="preserve">92.7133407592773</t>
+    <t xml:space="preserve">92.7133331298828</t>
   </si>
   <si>
     <t xml:space="preserve">91.9953842163086</t>
   </si>
   <si>
-    <t xml:space="preserve">91.7560577392578</t>
+    <t xml:space="preserve">91.7560501098633</t>
   </si>
   <si>
     <t xml:space="preserve">90.3201217651367</t>
   </si>
   <si>
-    <t xml:space="preserve">89.4585647583008</t>
+    <t xml:space="preserve">89.4585571289062</t>
   </si>
   <si>
     <t xml:space="preserve">89.9372024536133</t>
   </si>
   <si>
-    <t xml:space="preserve">87.6397323608398</t>
+    <t xml:space="preserve">87.6397247314453</t>
   </si>
   <si>
     <t xml:space="preserve">91.2295532226562</t>
@@ -1901,22 +1901,22 @@
     <t xml:space="preserve">96.7818145751953</t>
   </si>
   <si>
-    <t xml:space="preserve">97.6433792114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.0108337402344</t>
+    <t xml:space="preserve">97.6433715820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.0108413696289</t>
   </si>
   <si>
     <t xml:space="preserve">98.3134765625</t>
   </si>
   <si>
-    <t xml:space="preserve">99.0793151855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.610969543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102.621276855469</t>
+    <t xml:space="preserve">99.0793075561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.610961914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102.621269226074</t>
   </si>
   <si>
     <t xml:space="preserve">99.9408721923828</t>
@@ -1928,25 +1928,25 @@
     <t xml:space="preserve">98.1220169067383</t>
   </si>
   <si>
-    <t xml:space="preserve">98.8878555297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.1647338867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.5476531982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.7390899658203</t>
+    <t xml:space="preserve">98.8878479003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.1647262573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.5476455688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.7390975952148</t>
   </si>
   <si>
     <t xml:space="preserve">98.5049362182617</t>
   </si>
   <si>
-    <t xml:space="preserve">98.2177429199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.802436828613</t>
+    <t xml:space="preserve">98.2177505493164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.802429199219</t>
   </si>
   <si>
     <t xml:space="preserve">99.5579528808594</t>
@@ -1970,16 +1970,16 @@
     <t xml:space="preserve">96.9732818603516</t>
   </si>
   <si>
-    <t xml:space="preserve">97.0690002441406</t>
+    <t xml:space="preserve">97.0690078735352</t>
   </si>
   <si>
     <t xml:space="preserve">96.6860885620117</t>
   </si>
   <si>
-    <t xml:space="preserve">98.0262908935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.387100219727</t>
+    <t xml:space="preserve">98.0262985229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.387107849121</t>
   </si>
   <si>
     <t xml:space="preserve">101.759719848633</t>
@@ -1991,7 +1991,7 @@
     <t xml:space="preserve">103.099922180176</t>
   </si>
   <si>
-    <t xml:space="preserve">101.951171875</t>
+    <t xml:space="preserve">101.951179504395</t>
   </si>
   <si>
     <t xml:space="preserve">101.376800537109</t>
@@ -2012,37 +2012,37 @@
     <t xml:space="preserve">103.482833862305</t>
   </si>
   <si>
-    <t xml:space="preserve">105.110229492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104.344398498535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101.28108215332</t>
+    <t xml:space="preserve">105.110237121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104.344390869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101.281074523926</t>
   </si>
   <si>
     <t xml:space="preserve">102.429817199707</t>
   </si>
   <si>
-    <t xml:space="preserve">103.004196166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105.014488220215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104.823043823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104.248664855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101.66397857666</t>
+    <t xml:space="preserve">103.004188537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105.014495849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104.823036193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104.248672485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101.663986206055</t>
   </si>
   <si>
     <t xml:space="preserve">99.8451385498047</t>
   </si>
   <si>
-    <t xml:space="preserve">97.9305572509766</t>
+    <t xml:space="preserve">97.9305725097656</t>
   </si>
   <si>
     <t xml:space="preserve">99.3665008544922</t>
@@ -2057,19 +2057,19 @@
     <t xml:space="preserve">101.568252563477</t>
   </si>
   <si>
-    <t xml:space="preserve">100.993881225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102.142631530762</t>
+    <t xml:space="preserve">100.99388885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102.142639160156</t>
   </si>
   <si>
     <t xml:space="preserve">100.898162841797</t>
   </si>
   <si>
-    <t xml:space="preserve">95.6330795288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.9202575683594</t>
+    <t xml:space="preserve">95.6330718994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.9202651977539</t>
   </si>
   <si>
     <t xml:space="preserve">95.058708190918</t>
@@ -2081,13 +2081,13 @@
     <t xml:space="preserve">95.4894866943359</t>
   </si>
   <si>
-    <t xml:space="preserve">95.8245391845703</t>
+    <t xml:space="preserve">95.8245315551758</t>
   </si>
   <si>
     <t xml:space="preserve">95.7288055419922</t>
   </si>
   <si>
-    <t xml:space="preserve">92.8090591430664</t>
+    <t xml:space="preserve">92.8090667724609</t>
   </si>
   <si>
     <t xml:space="preserve">93.5270385742188</t>
@@ -2105,7 +2105,7 @@
     <t xml:space="preserve">93.1919860839844</t>
   </si>
   <si>
-    <t xml:space="preserve">94.3407287597656</t>
+    <t xml:space="preserve">94.3407363891602</t>
   </si>
   <si>
     <t xml:space="preserve">96.5903549194336</t>
@@ -2117,7 +2117,7 @@
     <t xml:space="preserve">100.132316589355</t>
   </si>
   <si>
-    <t xml:space="preserve">99.1750335693359</t>
+    <t xml:space="preserve">99.1750411987305</t>
   </si>
   <si>
     <t xml:space="preserve">102.046897888184</t>
@@ -2126,7 +2126,7 @@
     <t xml:space="preserve">104.440124511719</t>
   </si>
   <si>
-    <t xml:space="preserve">105.971778869629</t>
+    <t xml:space="preserve">105.971786499023</t>
   </si>
   <si>
     <t xml:space="preserve">107.311981201172</t>
@@ -2141,7 +2141,7 @@
     <t xml:space="preserve">110.471038818359</t>
   </si>
   <si>
-    <t xml:space="preserve">114.013008117676</t>
+    <t xml:space="preserve">114.013000488281</t>
   </si>
   <si>
     <t xml:space="preserve">115.257484436035</t>
@@ -2150,7 +2150,7 @@
     <t xml:space="preserve">114.68310546875</t>
   </si>
   <si>
-    <t xml:space="preserve">114.970283508301</t>
+    <t xml:space="preserve">114.970291137695</t>
   </si>
   <si>
     <t xml:space="preserve">116.119041442871</t>
@@ -2162,7 +2162,7 @@
     <t xml:space="preserve">116.406219482422</t>
   </si>
   <si>
-    <t xml:space="preserve">117.459243774414</t>
+    <t xml:space="preserve">117.45923614502</t>
   </si>
   <si>
     <t xml:space="preserve">118.703712463379</t>
@@ -2171,16 +2171,16 @@
     <t xml:space="preserve">118.512260437012</t>
   </si>
   <si>
-    <t xml:space="preserve">116.78914642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.831855773926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.874565124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.045402526855</t>
+    <t xml:space="preserve">116.789138793945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.831848144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.874557495117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.04541015625</t>
   </si>
   <si>
     <t xml:space="preserve">112.672790527344</t>
@@ -2192,34 +2192,34 @@
     <t xml:space="preserve">111.71549987793</t>
   </si>
   <si>
-    <t xml:space="preserve">112.57706451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.151435852051</t>
+    <t xml:space="preserve">112.577072143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.151443481445</t>
   </si>
   <si>
     <t xml:space="preserve">112.481338500977</t>
   </si>
   <si>
-    <t xml:space="preserve">111.524055480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.236854553223</t>
+    <t xml:space="preserve">111.524047851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.236862182617</t>
   </si>
   <si>
     <t xml:space="preserve">109.896667480469</t>
   </si>
   <si>
-    <t xml:space="preserve">113.342903137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.72582244873</t>
+    <t xml:space="preserve">113.342910766602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.725814819336</t>
   </si>
   <si>
     <t xml:space="preserve">114.395919799805</t>
   </si>
   <si>
-    <t xml:space="preserve">112.289878845215</t>
+    <t xml:space="preserve">112.289886474609</t>
   </si>
   <si>
     <t xml:space="preserve">110.853958129883</t>
@@ -2228,7 +2228,7 @@
     <t xml:space="preserve">108.843643188477</t>
   </si>
   <si>
-    <t xml:space="preserve">111.90697479248</t>
+    <t xml:space="preserve">111.906967163086</t>
   </si>
   <si>
     <t xml:space="preserve">109.418022155762</t>
@@ -2240,10 +2240,10 @@
     <t xml:space="preserve">110.18384552002</t>
   </si>
   <si>
-    <t xml:space="preserve">107.790634155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.566757202148</t>
+    <t xml:space="preserve">107.790626525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.566764831543</t>
   </si>
   <si>
     <t xml:space="preserve">110.662490844727</t>
@@ -2255,13 +2255,13 @@
     <t xml:space="preserve">106.258972167969</t>
   </si>
   <si>
-    <t xml:space="preserve">107.120529174805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.130828857422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.800933837891</t>
+    <t xml:space="preserve">107.120544433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.130836486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.800918579102</t>
   </si>
   <si>
     <t xml:space="preserve">109.705200195312</t>
@@ -2270,7 +2270,7 @@
     <t xml:space="preserve">111.619781494141</t>
   </si>
   <si>
-    <t xml:space="preserve">115.736129760742</t>
+    <t xml:space="preserve">115.736122131348</t>
   </si>
   <si>
     <t xml:space="preserve">115.927574157715</t>
@@ -2282,7 +2282,7 @@
     <t xml:space="preserve">105.876052856445</t>
   </si>
   <si>
-    <t xml:space="preserve">100.036590576172</t>
+    <t xml:space="preserve">100.036598205566</t>
   </si>
   <si>
     <t xml:space="preserve">108.173553466797</t>
@@ -2291,10 +2291,10 @@
     <t xml:space="preserve">104.918769836426</t>
   </si>
   <si>
-    <t xml:space="preserve">103.195648193359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101.089614868164</t>
+    <t xml:space="preserve">103.195655822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101.08960723877</t>
   </si>
   <si>
     <t xml:space="preserve">109.513748168945</t>
@@ -2306,10 +2306,10 @@
     <t xml:space="preserve">111.811241149902</t>
   </si>
   <si>
-    <t xml:space="preserve">110.279579162598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107.886360168457</t>
+    <t xml:space="preserve">110.279571533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107.886352539062</t>
   </si>
   <si>
     <t xml:space="preserve">105.780326843262</t>
@@ -2324,22 +2324,22 @@
     <t xml:space="preserve">113.055717468262</t>
   </si>
   <si>
-    <t xml:space="preserve">119.565269470215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.873062133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">127.702209472656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.020324707031</t>
+    <t xml:space="preserve">119.565277099609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.873046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127.702224731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.02033996582</t>
   </si>
   <si>
     <t xml:space="preserve">143.401748657227</t>
   </si>
   <si>
-    <t xml:space="preserve">143.688934326172</t>
+    <t xml:space="preserve">143.688949584961</t>
   </si>
   <si>
     <t xml:space="preserve">138.328125</t>
@@ -2348,34 +2348,34 @@
     <t xml:space="preserve">146.943710327148</t>
   </si>
   <si>
-    <t xml:space="preserve">146.082153320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.952545166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152.304534912109</t>
+    <t xml:space="preserve">146.082168579102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.952529907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152.304550170898</t>
   </si>
   <si>
     <t xml:space="preserve">155.655029296875</t>
   </si>
   <si>
-    <t xml:space="preserve">159.771362304688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">159.962829589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.272094726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148.666839599609</t>
+    <t xml:space="preserve">159.771377563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159.962844848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.272109985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148.66682434082</t>
   </si>
   <si>
     <t xml:space="preserve">148.762542724609</t>
   </si>
   <si>
-    <t xml:space="preserve">148.379638671875</t>
+    <t xml:space="preserve">148.379653930664</t>
   </si>
   <si>
     <t xml:space="preserve">146.369338989258</t>
@@ -2387,34 +2387,34 @@
     <t xml:space="preserve">149.528381347656</t>
   </si>
   <si>
-    <t xml:space="preserve">155.559295654297</t>
+    <t xml:space="preserve">155.559280395508</t>
   </si>
   <si>
     <t xml:space="preserve">153.644729614258</t>
   </si>
   <si>
-    <t xml:space="preserve">165.132186889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">169.439987182617</t>
+    <t xml:space="preserve">165.132171630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">169.439971923828</t>
   </si>
   <si>
     <t xml:space="preserve">176.332458496094</t>
   </si>
   <si>
-    <t xml:space="preserve">176.906829833984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171.546020507812</t>
+    <t xml:space="preserve">176.906814575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171.545989990234</t>
   </si>
   <si>
     <t xml:space="preserve">181.118896484375</t>
   </si>
   <si>
-    <t xml:space="preserve">182.746276855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">194.138000488281</t>
+    <t xml:space="preserve">182.74626159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">194.13801574707</t>
   </si>
   <si>
     <t xml:space="preserve">200.456115722656</t>
@@ -2423,22 +2423,22 @@
     <t xml:space="preserve">188.585739135742</t>
   </si>
   <si>
-    <t xml:space="preserve">165.61083984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">174.034942626953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180.448791503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">173.747772216797</t>
+    <t xml:space="preserve">165.610824584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">174.034957885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180.448776245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173.747787475586</t>
   </si>
   <si>
     <t xml:space="preserve">171.258834838867</t>
   </si>
   <si>
-    <t xml:space="preserve">166.089477539062</t>
+    <t xml:space="preserve">166.089462280273</t>
   </si>
   <si>
     <t xml:space="preserve">166.759567260742</t>
@@ -2456,7 +2456,7 @@
     <t xml:space="preserve">156.995239257812</t>
   </si>
   <si>
-    <t xml:space="preserve">160.632949829102</t>
+    <t xml:space="preserve">160.632934570312</t>
   </si>
   <si>
     <t xml:space="preserve">159.867111206055</t>
@@ -2471,13 +2471,13 @@
     <t xml:space="preserve">163.958847045898</t>
   </si>
   <si>
-    <t xml:space="preserve">163.18864440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161.16682434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.343963623047</t>
+    <t xml:space="preserve">163.188629150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161.166809082031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.343948364258</t>
   </si>
   <si>
     <t xml:space="preserve">169.254043579102</t>
@@ -2492,7 +2492,7 @@
     <t xml:space="preserve">163.38117980957</t>
   </si>
   <si>
-    <t xml:space="preserve">164.055114746094</t>
+    <t xml:space="preserve">164.055130004883</t>
   </si>
   <si>
     <t xml:space="preserve">164.632781982422</t>
@@ -2501,7 +2501,7 @@
     <t xml:space="preserve">164.921615600586</t>
   </si>
   <si>
-    <t xml:space="preserve">164.729064941406</t>
+    <t xml:space="preserve">164.729049682617</t>
   </si>
   <si>
     <t xml:space="preserve">168.195007324219</t>
@@ -2525,13 +2525,13 @@
     <t xml:space="preserve">166.750869750977</t>
   </si>
   <si>
-    <t xml:space="preserve">171.468414306641</t>
+    <t xml:space="preserve">171.46842956543</t>
   </si>
   <si>
     <t xml:space="preserve">171.564682006836</t>
   </si>
   <si>
-    <t xml:space="preserve">174.164138793945</t>
+    <t xml:space="preserve">174.164154052734</t>
   </si>
   <si>
     <t xml:space="preserve">171.66096496582</t>
@@ -2543,13 +2543,13 @@
     <t xml:space="preserve">162.99609375</t>
   </si>
   <si>
-    <t xml:space="preserve">156.641845703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.247695922852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166.847137451172</t>
+    <t xml:space="preserve">156.641830444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.247680664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.847152709961</t>
   </si>
   <si>
     <t xml:space="preserve">161.263107299805</t>
@@ -2561,7 +2561,7 @@
     <t xml:space="preserve">154.620025634766</t>
   </si>
   <si>
-    <t xml:space="preserve">151.731719970703</t>
+    <t xml:space="preserve">151.731735229492</t>
   </si>
   <si>
     <t xml:space="preserve">148.650894165039</t>
@@ -2588,13 +2588,13 @@
     <t xml:space="preserve">156.73811340332</t>
   </si>
   <si>
-    <t xml:space="preserve">153.175888061523</t>
+    <t xml:space="preserve">153.175903320312</t>
   </si>
   <si>
     <t xml:space="preserve">156.160446166992</t>
   </si>
   <si>
-    <t xml:space="preserve">156.834396362305</t>
+    <t xml:space="preserve">156.834381103516</t>
   </si>
   <si>
     <t xml:space="preserve">156.930648803711</t>
@@ -2603,13 +2603,13 @@
     <t xml:space="preserve">157.412063598633</t>
   </si>
   <si>
-    <t xml:space="preserve">157.797149658203</t>
+    <t xml:space="preserve">157.797164916992</t>
   </si>
   <si>
     <t xml:space="preserve">161.455642700195</t>
   </si>
   <si>
-    <t xml:space="preserve">147.495574951172</t>
+    <t xml:space="preserve">147.495559692383</t>
   </si>
   <si>
     <t xml:space="preserve">140.371109008789</t>
@@ -2642,10 +2642,10 @@
     <t xml:space="preserve">145.088653564453</t>
   </si>
   <si>
-    <t xml:space="preserve">148.939727783203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149.613632202148</t>
+    <t xml:space="preserve">148.939712524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149.613647460938</t>
   </si>
   <si>
     <t xml:space="preserve">151.154083251953</t>
@@ -2654,16 +2654,16 @@
     <t xml:space="preserve">154.908843994141</t>
   </si>
   <si>
-    <t xml:space="preserve">152.309371948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163.092361450195</t>
+    <t xml:space="preserve">152.309387207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163.092346191406</t>
   </si>
   <si>
     <t xml:space="preserve">162.707244873047</t>
   </si>
   <si>
-    <t xml:space="preserve">164.151397705078</t>
+    <t xml:space="preserve">164.151412963867</t>
   </si>
   <si>
     <t xml:space="preserve">163.862564086914</t>
@@ -2687,28 +2687,28 @@
     <t xml:space="preserve">175.70458984375</t>
   </si>
   <si>
-    <t xml:space="preserve">180.999771118164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">183.021606445312</t>
+    <t xml:space="preserve">180.999786376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">183.021591186523</t>
   </si>
   <si>
     <t xml:space="preserve">180.518402099609</t>
   </si>
   <si>
-    <t xml:space="preserve">184.17692565918</t>
+    <t xml:space="preserve">184.176910400391</t>
   </si>
   <si>
     <t xml:space="preserve">181.962554931641</t>
   </si>
   <si>
-    <t xml:space="preserve">187.354049682617</t>
+    <t xml:space="preserve">187.354034423828</t>
   </si>
   <si>
     <t xml:space="preserve">186.39128112793</t>
   </si>
   <si>
-    <t xml:space="preserve">183.984359741211</t>
+    <t xml:space="preserve">183.984375</t>
   </si>
   <si>
     <t xml:space="preserve">187.642852783203</t>
@@ -2723,10 +2723,10 @@
     <t xml:space="preserve">181.577453613281</t>
   </si>
   <si>
-    <t xml:space="preserve">180.32585144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">181.481170654297</t>
+    <t xml:space="preserve">180.325836181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181.481155395508</t>
   </si>
   <si>
     <t xml:space="preserve">178.785415649414</t>
@@ -2756,10 +2756,10 @@
     <t xml:space="preserve">167.039688110352</t>
   </si>
   <si>
-    <t xml:space="preserve">166.173217773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">158.95246887207</t>
+    <t xml:space="preserve">166.173202514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158.952484130859</t>
   </si>
   <si>
     <t xml:space="preserve">162.899810791016</t>
@@ -2771,13 +2771,13 @@
     <t xml:space="preserve">170.024276733398</t>
   </si>
   <si>
-    <t xml:space="preserve">165.788101196289</t>
+    <t xml:space="preserve">165.7880859375</t>
   </si>
   <si>
     <t xml:space="preserve">163.670028686523</t>
   </si>
   <si>
-    <t xml:space="preserve">162.129577636719</t>
+    <t xml:space="preserve">162.129592895508</t>
   </si>
   <si>
     <t xml:space="preserve">164.825332641602</t>
@@ -2789,34 +2789,34 @@
     <t xml:space="preserve">161.359390258789</t>
   </si>
   <si>
-    <t xml:space="preserve">160.492874145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160.878005981445</t>
+    <t xml:space="preserve">160.492889404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160.878021240234</t>
   </si>
   <si>
     <t xml:space="preserve">165.306732177734</t>
   </si>
   <si>
-    <t xml:space="preserve">161.070556640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161.648193359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163.76628112793</t>
+    <t xml:space="preserve">161.070571899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161.648208618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163.766296386719</t>
   </si>
   <si>
     <t xml:space="preserve">163.284927368164</t>
   </si>
   <si>
-    <t xml:space="preserve">155.775360107422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154.812576293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153.464706420898</t>
+    <t xml:space="preserve">155.775344848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154.812591552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">153.464721679688</t>
   </si>
   <si>
     <t xml:space="preserve">157.604598999023</t>
@@ -2834,7 +2834,7 @@
     <t xml:space="preserve">173.008850097656</t>
   </si>
   <si>
-    <t xml:space="preserve">172.142364501953</t>
+    <t xml:space="preserve">172.142349243164</t>
   </si>
   <si>
     <t xml:space="preserve">181.288619995117</t>
@@ -2858,22 +2858,22 @@
     <t xml:space="preserve">169.63916015625</t>
   </si>
   <si>
-    <t xml:space="preserve">172.431198120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">176.089660644531</t>
+    <t xml:space="preserve">172.431182861328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176.08967590332</t>
   </si>
   <si>
     <t xml:space="preserve">175.415756225586</t>
   </si>
   <si>
-    <t xml:space="preserve">177.630126953125</t>
+    <t xml:space="preserve">177.630111694336</t>
   </si>
   <si>
     <t xml:space="preserve">178.689147949219</t>
   </si>
   <si>
-    <t xml:space="preserve">178.400329589844</t>
+    <t xml:space="preserve">178.400314331055</t>
   </si>
   <si>
     <t xml:space="preserve">179.459365844727</t>
@@ -2885,7 +2885,7 @@
     <t xml:space="preserve">158.182250976562</t>
   </si>
   <si>
-    <t xml:space="preserve">153.753540039062</t>
+    <t xml:space="preserve">153.753524780273</t>
   </si>
   <si>
     <t xml:space="preserve">157.989715576172</t>
@@ -2918,13 +2918,13 @@
     <t xml:space="preserve">136.808883666992</t>
   </si>
   <si>
-    <t xml:space="preserve">140.467391967773</t>
+    <t xml:space="preserve">140.467376708984</t>
   </si>
   <si>
     <t xml:space="preserve">136.712600708008</t>
   </si>
   <si>
-    <t xml:space="preserve">134.883346557617</t>
+    <t xml:space="preserve">134.883361816406</t>
   </si>
   <si>
     <t xml:space="preserve">137.77165222168</t>
@@ -2948,7 +2948,7 @@
     <t xml:space="preserve">132.187606811523</t>
   </si>
   <si>
-    <t xml:space="preserve">132.572723388672</t>
+    <t xml:space="preserve">132.572708129883</t>
   </si>
   <si>
     <t xml:space="preserve">131.706237792969</t>
@@ -2960,7 +2960,7 @@
     <t xml:space="preserve">137.193984985352</t>
   </si>
   <si>
-    <t xml:space="preserve">134.931488037109</t>
+    <t xml:space="preserve">134.93147277832</t>
   </si>
   <si>
     <t xml:space="preserve">147.351150512695</t>
@@ -2972,7 +2972,7 @@
     <t xml:space="preserve">143.596374511719</t>
   </si>
   <si>
-    <t xml:space="preserve">150.095016479492</t>
+    <t xml:space="preserve">150.095031738281</t>
   </si>
   <si>
     <t xml:space="preserve">149.950622558594</t>
@@ -2990,19 +2990,19 @@
     <t xml:space="preserve">138.734420776367</t>
   </si>
   <si>
-    <t xml:space="preserve">138.541854858398</t>
+    <t xml:space="preserve">138.541839599609</t>
   </si>
   <si>
     <t xml:space="preserve">135.027755737305</t>
   </si>
   <si>
-    <t xml:space="preserve">135.990539550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135.605422973633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135.9423828125</t>
+    <t xml:space="preserve">135.990524291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.605438232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.942398071289</t>
   </si>
   <si>
     <t xml:space="preserve">133.34294128418</t>
@@ -3020,7 +3020,7 @@
     <t xml:space="preserve">129.973251342773</t>
   </si>
   <si>
-    <t xml:space="preserve">133.150390625</t>
+    <t xml:space="preserve">133.150375366211</t>
   </si>
   <si>
     <t xml:space="preserve">132.861541748047</t>
@@ -3029,7 +3029,7 @@
     <t xml:space="preserve">136.375625610352</t>
   </si>
   <si>
-    <t xml:space="preserve">138.638122558594</t>
+    <t xml:space="preserve">138.638137817383</t>
   </si>
   <si>
     <t xml:space="preserve">138.78254699707</t>
@@ -5145,6 +5145,9 @@
   </si>
   <si>
     <t xml:space="preserve">98.3199996948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.8399963378906</t>
   </si>
 </sst>
 </file>
@@ -11432,7 +11435,7 @@
         <v>51.7999992370605</v>
       </c>
       <c r="G229" t="s">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -11484,7 +11487,7 @@
         <v>51.25</v>
       </c>
       <c r="G231" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -11510,7 +11513,7 @@
         <v>51.6500015258789</v>
       </c>
       <c r="G232" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -11536,7 +11539,7 @@
         <v>52.1500015258789</v>
       </c>
       <c r="G233" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -11562,7 +11565,7 @@
         <v>52</v>
       </c>
       <c r="G234" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -11588,7 +11591,7 @@
         <v>51.5</v>
       </c>
       <c r="G235" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -11614,7 +11617,7 @@
         <v>50.9000015258789</v>
       </c>
       <c r="G236" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -11640,7 +11643,7 @@
         <v>51.25</v>
       </c>
       <c r="G237" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -11666,7 +11669,7 @@
         <v>51.1500015258789</v>
       </c>
       <c r="G238" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -11692,7 +11695,7 @@
         <v>51.25</v>
       </c>
       <c r="G239" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -11744,7 +11747,7 @@
         <v>52.0999984741211</v>
       </c>
       <c r="G241" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -11770,7 +11773,7 @@
         <v>52.0999984741211</v>
       </c>
       <c r="G242" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -11796,7 +11799,7 @@
         <v>52.1500015258789</v>
       </c>
       <c r="G243" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -11848,7 +11851,7 @@
         <v>51.7999992370605</v>
       </c>
       <c r="G245" t="s">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -11874,7 +11877,7 @@
         <v>51.8499984741211</v>
       </c>
       <c r="G246" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -11900,7 +11903,7 @@
         <v>52.9000015258789</v>
       </c>
       <c r="G247" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -11926,7 +11929,7 @@
         <v>53.1500015258789</v>
       </c>
       <c r="G248" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -11978,7 +11981,7 @@
         <v>55.0999984741211</v>
       </c>
       <c r="G250" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -12082,7 +12085,7 @@
         <v>56.4000015258789</v>
       </c>
       <c r="G254" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -12290,7 +12293,7 @@
         <v>58.4000015258789</v>
       </c>
       <c r="G262" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -12368,7 +12371,7 @@
         <v>56.5499992370605</v>
       </c>
       <c r="G265" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -12654,7 +12657,7 @@
         <v>54.7000007629395</v>
       </c>
       <c r="G276" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -12680,7 +12683,7 @@
         <v>55.5499992370605</v>
       </c>
       <c r="G277" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -12784,7 +12787,7 @@
         <v>58.4000015258789</v>
       </c>
       <c r="G281" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -12914,7 +12917,7 @@
         <v>56.5499992370605</v>
       </c>
       <c r="G286" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -13070,7 +13073,7 @@
         <v>56.9000015258789</v>
       </c>
       <c r="G292" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -13122,7 +13125,7 @@
         <v>57.25</v>
       </c>
       <c r="G294" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -13200,7 +13203,7 @@
         <v>58.4500007629395</v>
       </c>
       <c r="G297" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -13226,7 +13229,7 @@
         <v>58.75</v>
       </c>
       <c r="G298" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -13252,7 +13255,7 @@
         <v>59.75</v>
       </c>
       <c r="G299" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -13304,7 +13307,7 @@
         <v>59.7999992370605</v>
       </c>
       <c r="G301" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -13330,7 +13333,7 @@
         <v>59.7999992370605</v>
       </c>
       <c r="G302" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -13356,7 +13359,7 @@
         <v>59.8499984741211</v>
       </c>
       <c r="G303" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -13382,7 +13385,7 @@
         <v>60.0999984741211</v>
       </c>
       <c r="G304" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -13434,7 +13437,7 @@
         <v>59.25</v>
       </c>
       <c r="G306" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -13460,7 +13463,7 @@
         <v>59.6500015258789</v>
       </c>
       <c r="G307" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -13512,7 +13515,7 @@
         <v>59.8499984741211</v>
       </c>
       <c r="G309" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -13538,7 +13541,7 @@
         <v>60.2999992370605</v>
       </c>
       <c r="G310" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -13564,7 +13567,7 @@
         <v>61.3499984741211</v>
       </c>
       <c r="G311" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -13590,7 +13593,7 @@
         <v>61.3499984741211</v>
       </c>
       <c r="G312" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -13616,7 +13619,7 @@
         <v>62.25</v>
       </c>
       <c r="G313" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -13642,7 +13645,7 @@
         <v>61.9500007629395</v>
       </c>
       <c r="G314" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -13668,7 +13671,7 @@
         <v>62.1500015258789</v>
       </c>
       <c r="G315" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -13694,7 +13697,7 @@
         <v>63</v>
       </c>
       <c r="G316" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -13720,7 +13723,7 @@
         <v>62.8499984741211</v>
       </c>
       <c r="G317" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -13746,7 +13749,7 @@
         <v>62.2999992370605</v>
       </c>
       <c r="G318" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -13772,7 +13775,7 @@
         <v>62.8499984741211</v>
       </c>
       <c r="G319" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -13798,7 +13801,7 @@
         <v>62.25</v>
       </c>
       <c r="G320" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -13824,7 +13827,7 @@
         <v>63.5999984741211</v>
       </c>
       <c r="G321" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -13850,7 +13853,7 @@
         <v>63.2999992370605</v>
       </c>
       <c r="G322" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -13876,7 +13879,7 @@
         <v>63.7999992370605</v>
       </c>
       <c r="G323" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -13902,7 +13905,7 @@
         <v>63.9000015258789</v>
       </c>
       <c r="G324" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -13928,7 +13931,7 @@
         <v>64.3000030517578</v>
       </c>
       <c r="G325" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -13954,7 +13957,7 @@
         <v>64.1999969482422</v>
       </c>
       <c r="G326" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -13980,7 +13983,7 @@
         <v>65</v>
       </c>
       <c r="G327" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -14006,7 +14009,7 @@
         <v>65.9499969482422</v>
       </c>
       <c r="G328" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -14032,7 +14035,7 @@
         <v>66.0999984741211</v>
       </c>
       <c r="G329" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -14058,7 +14061,7 @@
         <v>65.8000030517578</v>
       </c>
       <c r="G330" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -14084,7 +14087,7 @@
         <v>65.0500030517578</v>
       </c>
       <c r="G331" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -14110,7 +14113,7 @@
         <v>64</v>
       </c>
       <c r="G332" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -14136,7 +14139,7 @@
         <v>64.25</v>
       </c>
       <c r="G333" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -14162,7 +14165,7 @@
         <v>66.0999984741211</v>
       </c>
       <c r="G334" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -14188,7 +14191,7 @@
         <v>65.5999984741211</v>
       </c>
       <c r="G335" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -14214,7 +14217,7 @@
         <v>67.1999969482422</v>
       </c>
       <c r="G336" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -14240,7 +14243,7 @@
         <v>66</v>
       </c>
       <c r="G337" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -14266,7 +14269,7 @@
         <v>66.4000015258789</v>
       </c>
       <c r="G338" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -14292,7 +14295,7 @@
         <v>67.5</v>
       </c>
       <c r="G339" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -14318,7 +14321,7 @@
         <v>68.8000030517578</v>
       </c>
       <c r="G340" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -14344,7 +14347,7 @@
         <v>71</v>
       </c>
       <c r="G341" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -14370,7 +14373,7 @@
         <v>69.5999984741211</v>
       </c>
       <c r="G342" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -14396,7 +14399,7 @@
         <v>69</v>
       </c>
       <c r="G343" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -14422,7 +14425,7 @@
         <v>69.3000030517578</v>
       </c>
       <c r="G344" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -14448,7 +14451,7 @@
         <v>69.3000030517578</v>
       </c>
       <c r="G345" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -14474,7 +14477,7 @@
         <v>70.3499984741211</v>
       </c>
       <c r="G346" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -14500,7 +14503,7 @@
         <v>70.1999969482422</v>
       </c>
       <c r="G347" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -14526,7 +14529,7 @@
         <v>69.8499984741211</v>
       </c>
       <c r="G348" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -14552,7 +14555,7 @@
         <v>70.25</v>
       </c>
       <c r="G349" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -14578,7 +14581,7 @@
         <v>70</v>
       </c>
       <c r="G350" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -14604,7 +14607,7 @@
         <v>70</v>
       </c>
       <c r="G351" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -14630,7 +14633,7 @@
         <v>68.1500015258789</v>
       </c>
       <c r="G352" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -14656,7 +14659,7 @@
         <v>67.4000015258789</v>
       </c>
       <c r="G353" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -14682,7 +14685,7 @@
         <v>68.25</v>
       </c>
       <c r="G354" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -14708,7 +14711,7 @@
         <v>68.25</v>
       </c>
       <c r="G355" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -14734,7 +14737,7 @@
         <v>68.5500030517578</v>
       </c>
       <c r="G356" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -14760,7 +14763,7 @@
         <v>68.6999969482422</v>
       </c>
       <c r="G357" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -14786,7 +14789,7 @@
         <v>68.9499969482422</v>
       </c>
       <c r="G358" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -14812,7 +14815,7 @@
         <v>69.1999969482422</v>
       </c>
       <c r="G359" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -14838,7 +14841,7 @@
         <v>68.0500030517578</v>
       </c>
       <c r="G360" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -14864,7 +14867,7 @@
         <v>68.6999969482422</v>
       </c>
       <c r="G361" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -14890,7 +14893,7 @@
         <v>68.9499969482422</v>
       </c>
       <c r="G362" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -14916,7 +14919,7 @@
         <v>70.1999969482422</v>
       </c>
       <c r="G363" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -14942,7 +14945,7 @@
         <v>70.5500030517578</v>
       </c>
       <c r="G364" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -14968,7 +14971,7 @@
         <v>70.25</v>
       </c>
       <c r="G365" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -14994,7 +14997,7 @@
         <v>71.4499969482422</v>
       </c>
       <c r="G366" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -15020,7 +15023,7 @@
         <v>70.9000015258789</v>
       </c>
       <c r="G367" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -15046,7 +15049,7 @@
         <v>71.75</v>
       </c>
       <c r="G368" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -15072,7 +15075,7 @@
         <v>72.5</v>
       </c>
       <c r="G369" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -15098,7 +15101,7 @@
         <v>69.9000015258789</v>
       </c>
       <c r="G370" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -15124,7 +15127,7 @@
         <v>69.75</v>
       </c>
       <c r="G371" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -15150,7 +15153,7 @@
         <v>71.4000015258789</v>
       </c>
       <c r="G372" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -15176,7 +15179,7 @@
         <v>70.6999969482422</v>
       </c>
       <c r="G373" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -15202,7 +15205,7 @@
         <v>71.3000030517578</v>
       </c>
       <c r="G374" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -15228,7 +15231,7 @@
         <v>71.1500015258789</v>
       </c>
       <c r="G375" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -15254,7 +15257,7 @@
         <v>71</v>
       </c>
       <c r="G376" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -15280,7 +15283,7 @@
         <v>70.5500030517578</v>
       </c>
       <c r="G377" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -15306,7 +15309,7 @@
         <v>70.1999969482422</v>
       </c>
       <c r="G378" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -15332,7 +15335,7 @@
         <v>72.6999969482422</v>
       </c>
       <c r="G379" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -15358,7 +15361,7 @@
         <v>71.3000030517578</v>
       </c>
       <c r="G380" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -15384,7 +15387,7 @@
         <v>69.9000015258789</v>
       </c>
       <c r="G381" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -15410,7 +15413,7 @@
         <v>67.5999984741211</v>
       </c>
       <c r="G382" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -15436,7 +15439,7 @@
         <v>66</v>
       </c>
       <c r="G383" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -15462,7 +15465,7 @@
         <v>67.25</v>
       </c>
       <c r="G384" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -15488,7 +15491,7 @@
         <v>66.5999984741211</v>
       </c>
       <c r="G385" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -15514,7 +15517,7 @@
         <v>66.5999984741211</v>
       </c>
       <c r="G386" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -15540,7 +15543,7 @@
         <v>67.25</v>
       </c>
       <c r="G387" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -15566,7 +15569,7 @@
         <v>66.5999984741211</v>
       </c>
       <c r="G388" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -15592,7 +15595,7 @@
         <v>67.3000030517578</v>
       </c>
       <c r="G389" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -15618,7 +15621,7 @@
         <v>67</v>
       </c>
       <c r="G390" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -15644,7 +15647,7 @@
         <v>66.0500030517578</v>
       </c>
       <c r="G391" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -15670,7 +15673,7 @@
         <v>67</v>
       </c>
       <c r="G392" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -15696,7 +15699,7 @@
         <v>67.0999984741211</v>
       </c>
       <c r="G393" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -15722,7 +15725,7 @@
         <v>68</v>
       </c>
       <c r="G394" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -15748,7 +15751,7 @@
         <v>69.0500030517578</v>
       </c>
       <c r="G395" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -15774,7 +15777,7 @@
         <v>69.75</v>
       </c>
       <c r="G396" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -15800,7 +15803,7 @@
         <v>69.9499969482422</v>
       </c>
       <c r="G397" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -15826,7 +15829,7 @@
         <v>70.3499984741211</v>
       </c>
       <c r="G398" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -15852,7 +15855,7 @@
         <v>70.1500015258789</v>
       </c>
       <c r="G399" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -15878,7 +15881,7 @@
         <v>70.5500030517578</v>
       </c>
       <c r="G400" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -15904,7 +15907,7 @@
         <v>69.8499984741211</v>
       </c>
       <c r="G401" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -15930,7 +15933,7 @@
         <v>73.3000030517578</v>
       </c>
       <c r="G402" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -15956,7 +15959,7 @@
         <v>73.9000015258789</v>
       </c>
       <c r="G403" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -15982,7 +15985,7 @@
         <v>73.0500030517578</v>
       </c>
       <c r="G404" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -16008,7 +16011,7 @@
         <v>73.5999984741211</v>
       </c>
       <c r="G405" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -16034,7 +16037,7 @@
         <v>73.4000015258789</v>
       </c>
       <c r="G406" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -16060,7 +16063,7 @@
         <v>73</v>
       </c>
       <c r="G407" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -16086,7 +16089,7 @@
         <v>73.0500030517578</v>
       </c>
       <c r="G408" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -16112,7 +16115,7 @@
         <v>72.9000015258789</v>
       </c>
       <c r="G409" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -16138,7 +16141,7 @@
         <v>72.5999984741211</v>
       </c>
       <c r="G410" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -16164,7 +16167,7 @@
         <v>71.9499969482422</v>
       </c>
       <c r="G411" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -16190,7 +16193,7 @@
         <v>72.1500015258789</v>
       </c>
       <c r="G412" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -16216,7 +16219,7 @@
         <v>71.4000015258789</v>
       </c>
       <c r="G413" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -16242,7 +16245,7 @@
         <v>70.6999969482422</v>
       </c>
       <c r="G414" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -16268,7 +16271,7 @@
         <v>71.6500015258789</v>
       </c>
       <c r="G415" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -16294,7 +16297,7 @@
         <v>71.4000015258789</v>
       </c>
       <c r="G416" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -16320,7 +16323,7 @@
         <v>71.6999969482422</v>
       </c>
       <c r="G417" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -16346,7 +16349,7 @@
         <v>71.5500030517578</v>
       </c>
       <c r="G418" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -16372,7 +16375,7 @@
         <v>71.3499984741211</v>
       </c>
       <c r="G419" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -16398,7 +16401,7 @@
         <v>71.4000015258789</v>
       </c>
       <c r="G420" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -16424,7 +16427,7 @@
         <v>71.3499984741211</v>
       </c>
       <c r="G421" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -16450,7 +16453,7 @@
         <v>70.8000030517578</v>
       </c>
       <c r="G422" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -16476,7 +16479,7 @@
         <v>70.5500030517578</v>
       </c>
       <c r="G423" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -16502,7 +16505,7 @@
         <v>70.0500030517578</v>
       </c>
       <c r="G424" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -16528,7 +16531,7 @@
         <v>69.9499969482422</v>
       </c>
       <c r="G425" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -16554,7 +16557,7 @@
         <v>71.3499984741211</v>
       </c>
       <c r="G426" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -16580,7 +16583,7 @@
         <v>72.4000015258789</v>
       </c>
       <c r="G427" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -16606,7 +16609,7 @@
         <v>72.4499969482422</v>
       </c>
       <c r="G428" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -16632,7 +16635,7 @@
         <v>72.5</v>
       </c>
       <c r="G429" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -16658,7 +16661,7 @@
         <v>73</v>
       </c>
       <c r="G430" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -16684,7 +16687,7 @@
         <v>73.3499984741211</v>
       </c>
       <c r="G431" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -16710,7 +16713,7 @@
         <v>73.6999969482422</v>
       </c>
       <c r="G432" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -16736,7 +16739,7 @@
         <v>73.5500030517578</v>
       </c>
       <c r="G433" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -16762,7 +16765,7 @@
         <v>73.9000015258789</v>
       </c>
       <c r="G434" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -16788,7 +16791,7 @@
         <v>73</v>
       </c>
       <c r="G435" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -16814,7 +16817,7 @@
         <v>74</v>
       </c>
       <c r="G436" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -16840,7 +16843,7 @@
         <v>74</v>
       </c>
       <c r="G437" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -16866,7 +16869,7 @@
         <v>73.0999984741211</v>
       </c>
       <c r="G438" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -16892,7 +16895,7 @@
         <v>73.4499969482422</v>
       </c>
       <c r="G439" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -16918,7 +16921,7 @@
         <v>74</v>
       </c>
       <c r="G440" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -16944,7 +16947,7 @@
         <v>74.25</v>
       </c>
       <c r="G441" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -16970,7 +16973,7 @@
         <v>73.8000030517578</v>
       </c>
       <c r="G442" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -16996,7 +16999,7 @@
         <v>74.5999984741211</v>
       </c>
       <c r="G443" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -17022,7 +17025,7 @@
         <v>75.8499984741211</v>
       </c>
       <c r="G444" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -17048,7 +17051,7 @@
         <v>75.4000015258789</v>
       </c>
       <c r="G445" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -17074,7 +17077,7 @@
         <v>75.0999984741211</v>
       </c>
       <c r="G446" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -17100,7 +17103,7 @@
         <v>75.1999969482422</v>
       </c>
       <c r="G447" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -17126,7 +17129,7 @@
         <v>75.4499969482422</v>
       </c>
       <c r="G448" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -17152,7 +17155,7 @@
         <v>76.5</v>
       </c>
       <c r="G449" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -17178,7 +17181,7 @@
         <v>77.8000030517578</v>
       </c>
       <c r="G450" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -17204,7 +17207,7 @@
         <v>77.9000015258789</v>
       </c>
       <c r="G451" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -17230,7 +17233,7 @@
         <v>79.6500015258789</v>
       </c>
       <c r="G452" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -17256,7 +17259,7 @@
         <v>79</v>
       </c>
       <c r="G453" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -17282,7 +17285,7 @@
         <v>79.1500015258789</v>
       </c>
       <c r="G454" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -17308,7 +17311,7 @@
         <v>78.4000015258789</v>
       </c>
       <c r="G455" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -17334,7 +17337,7 @@
         <v>78.75</v>
       </c>
       <c r="G456" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -17360,7 +17363,7 @@
         <v>80.5500030517578</v>
       </c>
       <c r="G457" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -17386,7 +17389,7 @@
         <v>78.75</v>
       </c>
       <c r="G458" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -17412,7 +17415,7 @@
         <v>79</v>
       </c>
       <c r="G459" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -17438,7 +17441,7 @@
         <v>79</v>
       </c>
       <c r="G460" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -17464,7 +17467,7 @@
         <v>78.4499969482422</v>
       </c>
       <c r="G461" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -17490,7 +17493,7 @@
         <v>77.75</v>
       </c>
       <c r="G462" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -17516,7 +17519,7 @@
         <v>77.8499984741211</v>
       </c>
       <c r="G463" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -17542,7 +17545,7 @@
         <v>77.8000030517578</v>
       </c>
       <c r="G464" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -17568,7 +17571,7 @@
         <v>78.0500030517578</v>
       </c>
       <c r="G465" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -17594,7 +17597,7 @@
         <v>77.9000015258789</v>
       </c>
       <c r="G466" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -17620,7 +17623,7 @@
         <v>78.3000030517578</v>
       </c>
       <c r="G467" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -17646,7 +17649,7 @@
         <v>78.3499984741211</v>
       </c>
       <c r="G468" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -17672,7 +17675,7 @@
         <v>78</v>
       </c>
       <c r="G469" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -17698,7 +17701,7 @@
         <v>78.0999984741211</v>
       </c>
       <c r="G470" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -17724,7 +17727,7 @@
         <v>78.9499969482422</v>
       </c>
       <c r="G471" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -17750,7 +17753,7 @@
         <v>77.9499969482422</v>
       </c>
       <c r="G472" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -17776,7 +17779,7 @@
         <v>79.1999969482422</v>
       </c>
       <c r="G473" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -17802,7 +17805,7 @@
         <v>78.5500030517578</v>
       </c>
       <c r="G474" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -17828,7 +17831,7 @@
         <v>78.25</v>
       </c>
       <c r="G475" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -17854,7 +17857,7 @@
         <v>77.75</v>
       </c>
       <c r="G476" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -17880,7 +17883,7 @@
         <v>72.0500030517578</v>
       </c>
       <c r="G477" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -17906,7 +17909,7 @@
         <v>72.5500030517578</v>
       </c>
       <c r="G478" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -17932,7 +17935,7 @@
         <v>73.8000030517578</v>
       </c>
       <c r="G479" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -17958,7 +17961,7 @@
         <v>74.6500015258789</v>
       </c>
       <c r="G480" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -17984,7 +17987,7 @@
         <v>74</v>
       </c>
       <c r="G481" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -18010,7 +18013,7 @@
         <v>75.4000015258789</v>
       </c>
       <c r="G482" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -18036,7 +18039,7 @@
         <v>75.0500030517578</v>
       </c>
       <c r="G483" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -18062,7 +18065,7 @@
         <v>76.6500015258789</v>
       </c>
       <c r="G484" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -18088,7 +18091,7 @@
         <v>77.5</v>
       </c>
       <c r="G485" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -18114,7 +18117,7 @@
         <v>77.1999969482422</v>
       </c>
       <c r="G486" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -18140,7 +18143,7 @@
         <v>76.3499984741211</v>
       </c>
       <c r="G487" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -18166,7 +18169,7 @@
         <v>74.5</v>
       </c>
       <c r="G488" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -18192,7 +18195,7 @@
         <v>75.6500015258789</v>
       </c>
       <c r="G489" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -18218,7 +18221,7 @@
         <v>76.4000015258789</v>
       </c>
       <c r="G490" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -18244,7 +18247,7 @@
         <v>76.5500030517578</v>
       </c>
       <c r="G491" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -18270,7 +18273,7 @@
         <v>77.4000015258789</v>
       </c>
       <c r="G492" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -18296,7 +18299,7 @@
         <v>78.0500030517578</v>
       </c>
       <c r="G493" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -18322,7 +18325,7 @@
         <v>77.6500015258789</v>
       </c>
       <c r="G494" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -18348,7 +18351,7 @@
         <v>78.4000015258789</v>
       </c>
       <c r="G495" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -18374,7 +18377,7 @@
         <v>78.4499969482422</v>
       </c>
       <c r="G496" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -18400,7 +18403,7 @@
         <v>79.5500030517578</v>
       </c>
       <c r="G497" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -18426,7 +18429,7 @@
         <v>80.5500030517578</v>
       </c>
       <c r="G498" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -18452,7 +18455,7 @@
         <v>80.3499984741211</v>
       </c>
       <c r="G499" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -18478,7 +18481,7 @@
         <v>78.5500030517578</v>
       </c>
       <c r="G500" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -18504,7 +18507,7 @@
         <v>77.3499984741211</v>
       </c>
       <c r="G501" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -18530,7 +18533,7 @@
         <v>76.4000015258789</v>
       </c>
       <c r="G502" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -18556,7 +18559,7 @@
         <v>75.8000030517578</v>
       </c>
       <c r="G503" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -18582,7 +18585,7 @@
         <v>75.4000015258789</v>
       </c>
       <c r="G504" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -18608,7 +18611,7 @@
         <v>75.0500030517578</v>
       </c>
       <c r="G505" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -18634,7 +18637,7 @@
         <v>75.6999969482422</v>
       </c>
       <c r="G506" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -18660,7 +18663,7 @@
         <v>74.5999984741211</v>
       </c>
       <c r="G507" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -18686,7 +18689,7 @@
         <v>74.4499969482422</v>
       </c>
       <c r="G508" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -18712,7 +18715,7 @@
         <v>74.6500015258789</v>
       </c>
       <c r="G509" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -18738,7 +18741,7 @@
         <v>74.5999984741211</v>
       </c>
       <c r="G510" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -18764,7 +18767,7 @@
         <v>74</v>
       </c>
       <c r="G511" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -18790,7 +18793,7 @@
         <v>74.5</v>
       </c>
       <c r="G512" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -18816,7 +18819,7 @@
         <v>74.8499984741211</v>
       </c>
       <c r="G513" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -18842,7 +18845,7 @@
         <v>75.8499984741211</v>
       </c>
       <c r="G514" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -18868,7 +18871,7 @@
         <v>76.8000030517578</v>
       </c>
       <c r="G515" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -18894,7 +18897,7 @@
         <v>80.0500030517578</v>
       </c>
       <c r="G516" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -18920,7 +18923,7 @@
         <v>79.4499969482422</v>
       </c>
       <c r="G517" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -18946,7 +18949,7 @@
         <v>79.25</v>
       </c>
       <c r="G518" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -18972,7 +18975,7 @@
         <v>79.5999984741211</v>
       </c>
       <c r="G519" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -18998,7 +19001,7 @@
         <v>79.6999969482422</v>
       </c>
       <c r="G520" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -19024,7 +19027,7 @@
         <v>79.6500015258789</v>
       </c>
       <c r="G521" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -19050,7 +19053,7 @@
         <v>79.3499984741211</v>
       </c>
       <c r="G522" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -19076,7 +19079,7 @@
         <v>79.6500015258789</v>
       </c>
       <c r="G523" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -19102,7 +19105,7 @@
         <v>80.0500030517578</v>
       </c>
       <c r="G524" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -19128,7 +19131,7 @@
         <v>79.1500015258789</v>
       </c>
       <c r="G525" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -19154,7 +19157,7 @@
         <v>79.0999984741211</v>
       </c>
       <c r="G526" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -19180,7 +19183,7 @@
         <v>79.0500030517578</v>
       </c>
       <c r="G527" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -19206,7 +19209,7 @@
         <v>79</v>
       </c>
       <c r="G528" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -19232,7 +19235,7 @@
         <v>78.4000015258789</v>
       </c>
       <c r="G529" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -19258,7 +19261,7 @@
         <v>79.3000030517578</v>
       </c>
       <c r="G530" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -19284,7 +19287,7 @@
         <v>78.8499984741211</v>
       </c>
       <c r="G531" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -19310,7 +19313,7 @@
         <v>77.25</v>
       </c>
       <c r="G532" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -19336,7 +19339,7 @@
         <v>77.9499969482422</v>
       </c>
       <c r="G533" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -19362,7 +19365,7 @@
         <v>79.4000015258789</v>
       </c>
       <c r="G534" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -19388,7 +19391,7 @@
         <v>76.5500030517578</v>
       </c>
       <c r="G535" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -19414,7 +19417,7 @@
         <v>75.3499984741211</v>
       </c>
       <c r="G536" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -19440,7 +19443,7 @@
         <v>73.4499969482422</v>
       </c>
       <c r="G537" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -19466,7 +19469,7 @@
         <v>75.6999969482422</v>
       </c>
       <c r="G538" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -19492,7 +19495,7 @@
         <v>74.0999984741211</v>
       </c>
       <c r="G539" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -19518,7 +19521,7 @@
         <v>69.5500030517578</v>
       </c>
       <c r="G540" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -19544,7 +19547,7 @@
         <v>71.1999969482422</v>
       </c>
       <c r="G541" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -19570,7 +19573,7 @@
         <v>71</v>
       </c>
       <c r="G542" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -19596,7 +19599,7 @@
         <v>70</v>
       </c>
       <c r="G543" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -19622,7 +19625,7 @@
         <v>70.4000015258789</v>
       </c>
       <c r="G544" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -19648,7 +19651,7 @@
         <v>71.3000030517578</v>
       </c>
       <c r="G545" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -19674,7 +19677,7 @@
         <v>69.9000015258789</v>
       </c>
       <c r="G546" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -19700,7 +19703,7 @@
         <v>69.5500030517578</v>
       </c>
       <c r="G547" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -19726,7 +19729,7 @@
         <v>69.8000030517578</v>
       </c>
       <c r="G548" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -19752,7 +19755,7 @@
         <v>69.6500015258789</v>
       </c>
       <c r="G549" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -19778,7 +19781,7 @@
         <v>69.75</v>
       </c>
       <c r="G550" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -19804,7 +19807,7 @@
         <v>69.4499969482422</v>
       </c>
       <c r="G551" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -19830,7 +19833,7 @@
         <v>68.5</v>
       </c>
       <c r="G552" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -19856,7 +19859,7 @@
         <v>67.4499969482422</v>
       </c>
       <c r="G553" t="s">
-        <v>246</v>
+        <v>379</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -20012,7 +20015,7 @@
         <v>73.5500030517578</v>
       </c>
       <c r="G559" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -20090,7 +20093,7 @@
         <v>74</v>
       </c>
       <c r="G562" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -20116,7 +20119,7 @@
         <v>72.9000015258789</v>
       </c>
       <c r="G563" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -20142,7 +20145,7 @@
         <v>73.0500030517578</v>
       </c>
       <c r="G564" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -20220,7 +20223,7 @@
         <v>72.0500030517578</v>
       </c>
       <c r="G567" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -20246,7 +20249,7 @@
         <v>72.5</v>
       </c>
       <c r="G568" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -20298,7 +20301,7 @@
         <v>71.6500015258789</v>
       </c>
       <c r="G570" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -20324,7 +20327,7 @@
         <v>70.3499984741211</v>
       </c>
       <c r="G571" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -20376,7 +20379,7 @@
         <v>72.9000015258789</v>
       </c>
       <c r="G573" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -20402,7 +20405,7 @@
         <v>73.0999984741211</v>
       </c>
       <c r="G574" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -20428,7 +20431,7 @@
         <v>72.5</v>
       </c>
       <c r="G575" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -20454,7 +20457,7 @@
         <v>71.75</v>
       </c>
       <c r="G576" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -20532,7 +20535,7 @@
         <v>73.0500030517578</v>
       </c>
       <c r="G579" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -20558,7 +20561,7 @@
         <v>73</v>
       </c>
       <c r="G580" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -20584,7 +20587,7 @@
         <v>72.0500030517578</v>
       </c>
       <c r="G581" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -20662,7 +20665,7 @@
         <v>75.3499984741211</v>
       </c>
       <c r="G584" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -20766,7 +20769,7 @@
         <v>74.5999984741211</v>
       </c>
       <c r="G588" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -20818,7 +20821,7 @@
         <v>78.4000015258789</v>
       </c>
       <c r="G590" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -20896,7 +20899,7 @@
         <v>78.4000015258789</v>
       </c>
       <c r="G593" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -20922,7 +20925,7 @@
         <v>78.3499984741211</v>
       </c>
       <c r="G594" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -20974,7 +20977,7 @@
         <v>78</v>
       </c>
       <c r="G596" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -21026,7 +21029,7 @@
         <v>79.1500015258789</v>
       </c>
       <c r="G598" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -21052,7 +21055,7 @@
         <v>78.3000030517578</v>
       </c>
       <c r="G599" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -61750,7 +61753,7 @@
     </row>
     <row r="2165">
       <c r="A2165" s="1" t="n">
-        <v>45476.6495949074</v>
+        <v>45476.2916666667</v>
       </c>
       <c r="B2165" t="n">
         <v>205395</v>
@@ -61771,6 +61774,32 @@
         <v>1710</v>
       </c>
       <c r="H2165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" s="1" t="n">
+        <v>45477.6496412037</v>
+      </c>
+      <c r="B2166" t="n">
+        <v>103626</v>
+      </c>
+      <c r="C2166" t="n">
+        <v>100.349998474121</v>
+      </c>
+      <c r="D2166" t="n">
+        <v>98.3000030517578</v>
+      </c>
+      <c r="E2166" t="n">
+        <v>98.3199996948242</v>
+      </c>
+      <c r="F2166" t="n">
+        <v>99.8399963378906</v>
+      </c>
+      <c r="G2166" t="s">
+        <v>1711</v>
+      </c>
+      <c r="H2166" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DIA.MI.xlsx
+++ b/data/DIA.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="1712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="1713">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,25 +38,25 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0384101867676</t>
+    <t xml:space="preserve">43.0384140014648</t>
   </si>
   <si>
     <t xml:space="preserve">DIA.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8512992858887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5922508239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.4761276245117</t>
+    <t xml:space="preserve">43.8513031005859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5922470092773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.4761161804199</t>
   </si>
   <si>
     <t xml:space="preserve">43.3689231872559</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6900329589844</t>
+    <t xml:space="preserve">42.6900367736816</t>
   </si>
   <si>
     <t xml:space="preserve">43.0116157531738</t>
@@ -68,28 +68,28 @@
     <t xml:space="preserve">41.8146171569824</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5104141235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.7779273986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5630645751953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.3218727111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1253509521484</t>
+    <t xml:space="preserve">40.5104179382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.7779235839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5630531311035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.3218803405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1253547668457</t>
   </si>
   <si>
     <t xml:space="preserve">39.4563484191895</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7694702148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7878189086914</t>
+    <t xml:space="preserve">40.769474029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7878227233887</t>
   </si>
   <si>
     <t xml:space="preserve">42.5917701721191</t>
@@ -101,22 +101,22 @@
     <t xml:space="preserve">43.3242645263672</t>
   </si>
   <si>
-    <t xml:space="preserve">43.6190567016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5475807189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.4131164550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7610168457031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9208488464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2414855957031</t>
+    <t xml:space="preserve">43.6190528869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5475883483887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.4131126403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7610206604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9208526611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2414817810059</t>
   </si>
   <si>
     <t xml:space="preserve">38.5005264282227</t>
@@ -137,163 +137,163 @@
     <t xml:space="preserve">40.9123954772949</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0106544494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9307403564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0920066833496</t>
+    <t xml:space="preserve">41.0106582641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9307441711426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0920143127441</t>
   </si>
   <si>
     <t xml:space="preserve">42.4756469726562</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1366729736328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.7619743347168</t>
+    <t xml:space="preserve">43.1366767883301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.7619781494141</t>
   </si>
   <si>
     <t xml:space="preserve">43.4493217468262</t>
   </si>
   <si>
-    <t xml:space="preserve">43.7798347473145</t>
+    <t xml:space="preserve">43.779842376709</t>
   </si>
   <si>
     <t xml:space="preserve">43.100944519043</t>
   </si>
   <si>
-    <t xml:space="preserve">42.3416557312012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1902770996094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2528038024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3064002990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2786445617676</t>
+    <t xml:space="preserve">42.3416519165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1902694702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.252799987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3064041137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2786407470703</t>
   </si>
   <si>
     <t xml:space="preserve">40.8677368164062</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5193519592285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6895523071289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0910530090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6712074279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1263046264648</t>
+    <t xml:space="preserve">40.5193557739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6895561218262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0910568237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6712112426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1263084411621</t>
   </si>
   <si>
     <t xml:space="preserve">40.6265487670898</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8052024841309</t>
+    <t xml:space="preserve">40.8051986694336</t>
   </si>
   <si>
     <t xml:space="preserve">40.3496246337891</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6444091796875</t>
+    <t xml:space="preserve">40.644416809082</t>
   </si>
   <si>
     <t xml:space="preserve">40.9838638305664</t>
   </si>
   <si>
-    <t xml:space="preserve">44.6641845703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.334156036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.8701171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.450756072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.9594573974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.2720985412598</t>
+    <t xml:space="preserve">44.6641883850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.3341484069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.8701210021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.4507522583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.9594535827637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.272102355957</t>
   </si>
   <si>
     <t xml:space="preserve">47.4333686828613</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4954223632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.0041122436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.7807998657227</t>
+    <t xml:space="preserve">46.495418548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.0041160583496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.7807960510254</t>
   </si>
   <si>
     <t xml:space="preserve">45.4681434631348</t>
   </si>
   <si>
-    <t xml:space="preserve">45.5128135681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.9147911071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.3788146972656</t>
+    <t xml:space="preserve">45.512809753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.9147872924805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.3788185119629</t>
   </si>
   <si>
     <t xml:space="preserve">45.289493560791</t>
   </si>
   <si>
-    <t xml:space="preserve">45.8254585266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.5574722290039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4234771728516</t>
+    <t xml:space="preserve">45.8254547119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.5574760437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4234848022461</t>
   </si>
   <si>
     <t xml:space="preserve">46.3614311218262</t>
   </si>
   <si>
-    <t xml:space="preserve">46.2274360656738</t>
+    <t xml:space="preserve">46.2274284362793</t>
   </si>
   <si>
     <t xml:space="preserve">46.4061012268066</t>
   </si>
   <si>
-    <t xml:space="preserve">46.8973999023438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.7634010314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8527336120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.2100524902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.6740760803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.5847549438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.0285758972168</t>
+    <t xml:space="preserve">46.8973960876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.7634048461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8527374267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.2100486755371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.6740798950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.5847511291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.0285720825195</t>
   </si>
   <si>
     <t xml:space="preserve">48.119026184082</t>
@@ -302,97 +302,97 @@
     <t xml:space="preserve">47.7120056152344</t>
   </si>
   <si>
-    <t xml:space="preserve">48.5260467529297</t>
+    <t xml:space="preserve">48.5260543823242</t>
   </si>
   <si>
     <t xml:space="preserve">48.7973976135254</t>
   </si>
   <si>
-    <t xml:space="preserve">49.7471084594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.2044143676758</t>
+    <t xml:space="preserve">49.7471160888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.204418182373</t>
   </si>
   <si>
     <t xml:space="preserve">50.1993560791016</t>
   </si>
   <si>
-    <t xml:space="preserve">50.2898063659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.8777313232422</t>
+    <t xml:space="preserve">50.2898101806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.8777275085449</t>
   </si>
   <si>
     <t xml:space="preserve">49.7018928527832</t>
   </si>
   <si>
-    <t xml:space="preserve">50.6063804626465</t>
+    <t xml:space="preserve">50.6063842773438</t>
   </si>
   <si>
     <t xml:space="preserve">49.7923393249512</t>
   </si>
   <si>
-    <t xml:space="preserve">50.3350410461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.6114387512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.1642532348633</t>
+    <t xml:space="preserve">50.3350372314453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.6114349365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.1642456054688</t>
   </si>
   <si>
     <t xml:space="preserve">48.3451499938965</t>
   </si>
   <si>
-    <t xml:space="preserve">47.2145347595215</t>
+    <t xml:space="preserve">47.2145309448242</t>
   </si>
   <si>
     <t xml:space="preserve">47.5311050415039</t>
   </si>
   <si>
-    <t xml:space="preserve">48.7069435119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.9732398986816</t>
+    <t xml:space="preserve">48.7069396972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.9732322692871</t>
   </si>
   <si>
     <t xml:space="preserve">46.7622871398926</t>
   </si>
   <si>
-    <t xml:space="preserve">45.5864486694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.6266136169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.5209922790527</t>
+    <t xml:space="preserve">45.5864410400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.6266098022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.52099609375</t>
   </si>
   <si>
     <t xml:space="preserve">50.3802604675293</t>
   </si>
   <si>
-    <t xml:space="preserve">51.0586242675781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7521705627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.566219329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.4707107543945</t>
+    <t xml:space="preserve">51.0586280822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.7521667480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.5662155151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.470703125</t>
   </si>
   <si>
     <t xml:space="preserve">49.656665802002</t>
   </si>
   <si>
-    <t xml:space="preserve">51.2395248413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.8726692199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.917896270752</t>
+    <t xml:space="preserve">51.2395324707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.8726654052734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.9178924560547</t>
   </si>
   <si>
     <t xml:space="preserve">51.6013221740723</t>
@@ -401,49 +401,49 @@
     <t xml:space="preserve">51.5108757019043</t>
   </si>
   <si>
-    <t xml:space="preserve">52.2344741821289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.4605941772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.6465492248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.4204254150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.9229507446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.6968231201172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.5159225463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.8325157165527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.2796974182129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.2695808410645</t>
+    <t xml:space="preserve">52.2344703674316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.4605903625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.6465454101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.4204216003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.9229545593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.6968307495117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.5159301757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.8325042724609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.2796936035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.2695846557617</t>
   </si>
   <si>
     <t xml:space="preserve">53.7721099853516</t>
   </si>
   <si>
-    <t xml:space="preserve">54.8575057983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.0383911132812</t>
+    <t xml:space="preserve">54.8575019836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.0383949279785</t>
   </si>
   <si>
     <t xml:space="preserve">56.0785675048828</t>
   </si>
   <si>
-    <t xml:space="preserve">54.8122749328613</t>
+    <t xml:space="preserve">54.8122711181641</t>
   </si>
   <si>
     <t xml:space="preserve">52.7319412231445</t>
@@ -452,37 +452,37 @@
     <t xml:space="preserve">52.3249168395996</t>
   </si>
   <si>
-    <t xml:space="preserve">51.3299789428711</t>
+    <t xml:space="preserve">51.3299751281738</t>
   </si>
   <si>
     <t xml:space="preserve">52.0535659790039</t>
   </si>
   <si>
-    <t xml:space="preserve">51.2847480773926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.9128379821777</t>
+    <t xml:space="preserve">51.2847557067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.912841796875</t>
   </si>
   <si>
     <t xml:space="preserve">52.4153709411621</t>
   </si>
   <si>
-    <t xml:space="preserve">52.0987930297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0083427429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.5510368347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.737003326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.1038589477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.1089096069336</t>
+    <t xml:space="preserve">52.0987968444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0083503723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.5510406494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.7369995117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.1038513183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.1089134216309</t>
   </si>
   <si>
     <t xml:space="preserve">49.9280090332031</t>
@@ -491,25 +491,25 @@
     <t xml:space="preserve">52.6414909362793</t>
   </si>
   <si>
-    <t xml:space="preserve">53.1841850280762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.3650817871094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.1892471313477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.0032920837402</t>
+    <t xml:space="preserve">53.1841773986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.3650856018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.1892395019531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.003288269043</t>
   </si>
   <si>
     <t xml:space="preserve">53.2746353149414</t>
   </si>
   <si>
-    <t xml:space="preserve">52.958065032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.862548828125</t>
+    <t xml:space="preserve">52.9580612182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.8625526428223</t>
   </si>
   <si>
     <t xml:space="preserve">52.3701438903809</t>
@@ -524,91 +524,91 @@
     <t xml:space="preserve">50.787281036377</t>
   </si>
   <si>
-    <t xml:space="preserve">51.5560989379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.6516075134277</t>
+    <t xml:space="preserve">51.5561027526855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.651611328125</t>
   </si>
   <si>
     <t xml:space="preserve">49.3400917053223</t>
   </si>
   <si>
-    <t xml:space="preserve">48.254695892334</t>
+    <t xml:space="preserve">48.2546997070312</t>
   </si>
   <si>
     <t xml:space="preserve">48.4355964660645</t>
   </si>
   <si>
-    <t xml:space="preserve">45.903018951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.3100433349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.1291465759277</t>
+    <t xml:space="preserve">45.9030151367188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.3100395202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.1291427612305</t>
   </si>
   <si>
     <t xml:space="preserve">46.988410949707</t>
   </si>
   <si>
-    <t xml:space="preserve">47.2597541809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.3552665710449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.7170639038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.1693115234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.0336380004883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.5813789367676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.038688659668</t>
+    <t xml:space="preserve">47.2597579956055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.3552703857422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.7170600891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.1693077087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.033634185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.5813865661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.0386962890625</t>
   </si>
   <si>
     <t xml:space="preserve">46.264820098877</t>
   </si>
   <si>
-    <t xml:space="preserve">47.124080657959</t>
+    <t xml:space="preserve">47.1240844726562</t>
   </si>
   <si>
     <t xml:space="preserve">46.8979568481445</t>
   </si>
   <si>
-    <t xml:space="preserve">47.8476791381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.073802947998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.8375625610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.0134048461914</t>
+    <t xml:space="preserve">47.8476753234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.0738067626953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.8375587463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.0134010314941</t>
   </si>
   <si>
     <t xml:space="preserve">52.8223915100098</t>
   </si>
   <si>
-    <t xml:space="preserve">51.1490783691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.4757690429688</t>
+    <t xml:space="preserve">51.1490745544434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.4757652282715</t>
   </si>
   <si>
     <t xml:space="preserve">50.2445869445801</t>
   </si>
   <si>
-    <t xml:space="preserve">51.4656524658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.7822227478027</t>
+    <t xml:space="preserve">51.465648651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.7822265625</t>
   </si>
   <si>
     <t xml:space="preserve">52.8676109313965</t>
@@ -620,7 +620,7 @@
     <t xml:space="preserve">54.04345703125</t>
   </si>
   <si>
-    <t xml:space="preserve">54.0886840820312</t>
+    <t xml:space="preserve">54.0886764526367</t>
   </si>
   <si>
     <t xml:space="preserve">54.133903503418</t>
@@ -629,34 +629,34 @@
     <t xml:space="preserve">54.3600273132324</t>
   </si>
   <si>
-    <t xml:space="preserve">53.5912132263184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.9530029296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.5409278869629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.4906387329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.3046913146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.0333366394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.214241027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9830551147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.8473854064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.3499145507812</t>
+    <t xml:space="preserve">53.5912094116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.9530143737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.5409240722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.4906425476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.3046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.0333442687988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.2142372131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9830589294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.8473777770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.349910736084</t>
   </si>
   <si>
     <t xml:space="preserve">57.5257530212402</t>
@@ -665,151 +665,151 @@
     <t xml:space="preserve">57.2544021606445</t>
   </si>
   <si>
-    <t xml:space="preserve">57.7066612243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.7971000671387</t>
+    <t xml:space="preserve">57.7066497802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.7971076965332</t>
   </si>
   <si>
     <t xml:space="preserve">58.1589012145996</t>
   </si>
   <si>
-    <t xml:space="preserve">58.0684432983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.7920455932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.6513023376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.7869873046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.5156402587891</t>
+    <t xml:space="preserve">58.0684471130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.7920379638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.6513061523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.7869911193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.5156326293945</t>
   </si>
   <si>
     <t xml:space="preserve">58.8372688293457</t>
   </si>
   <si>
-    <t xml:space="preserve">57.8875465393066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.1136741638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.3347396850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.7819213867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.6965408325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.0583305358887</t>
+    <t xml:space="preserve">57.8875427246094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.1136779785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.3347358703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.7819290161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.6965370178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.0583343505859</t>
   </si>
   <si>
     <t xml:space="preserve">61.0532760620117</t>
   </si>
   <si>
-    <t xml:space="preserve">62.2291259765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.218994140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.9526977539062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.4100189208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.6813659667969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.6310768127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.4954032897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.1788330078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.5406265258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.3145027160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.6411972045898</t>
+    <t xml:space="preserve">62.229118347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.2190017700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.952709197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.4100303649902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.6813621520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.6310806274414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.4953956604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.178825378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.5406341552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.314510345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.6412010192871</t>
   </si>
   <si>
     <t xml:space="preserve">60.9628295898438</t>
   </si>
   <si>
-    <t xml:space="preserve">61.7316474914551</t>
+    <t xml:space="preserve">61.7316436767578</t>
   </si>
   <si>
     <t xml:space="preserve">62.4638214111328</t>
   </si>
   <si>
-    <t xml:space="preserve">62.7383995056152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.8756675720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.1044692993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.3332939147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.2807769775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.2484970092773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.5688400268555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.2942733764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.3925247192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.8891525268555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.6670913696289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.3535232543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.973934173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.8366432189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.3467712402344</t>
+    <t xml:space="preserve">62.7383880615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.8756637573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.1044769287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.3332824707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.2807846069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.2484893798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.5688323974609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.2942657470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.3925323486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.88916015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.6670989990234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.3535003662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.9739379882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.8366584777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.3467788696289</t>
   </si>
   <si>
     <t xml:space="preserve">64.7061157226562</t>
   </si>
   <si>
-    <t xml:space="preserve">65.2552337646484</t>
+    <t xml:space="preserve">65.255256652832</t>
   </si>
   <si>
     <t xml:space="preserve">65.1179580688477</t>
   </si>
   <si>
-    <t xml:space="preserve">64.9806747436523</t>
+    <t xml:space="preserve">64.9806823730469</t>
   </si>
   <si>
     <t xml:space="preserve">66.5365447998047</t>
@@ -818,37 +818,37 @@
     <t xml:space="preserve">61.8689270019531</t>
   </si>
   <si>
-    <t xml:space="preserve">60.4045791625977</t>
+    <t xml:space="preserve">60.4045753479004</t>
   </si>
   <si>
     <t xml:space="preserve">61.5485992431641</t>
   </si>
   <si>
-    <t xml:space="preserve">60.9537010192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.594367980957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.3197937011719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.4503364562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.411319732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.2350120544434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.1959915161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.0196914672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.3857803344727</t>
+    <t xml:space="preserve">60.9536972045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.5943565368652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.3197975158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.4503288269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.4113159179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.2350082397461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.1960029602051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.0196838378906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.3857879638672</t>
   </si>
   <si>
     <t xml:space="preserve">64.2027359008789</t>
@@ -857,7 +857,7 @@
     <t xml:space="preserve">63.9281692504883</t>
   </si>
   <si>
-    <t xml:space="preserve">67.085693359375</t>
+    <t xml:space="preserve">67.0856857299805</t>
   </si>
   <si>
     <t xml:space="preserve">67.6348190307617</t>
@@ -866,13 +866,13 @@
     <t xml:space="preserve">66.8568801879883</t>
   </si>
   <si>
-    <t xml:space="preserve">67.3602676391602</t>
+    <t xml:space="preserve">67.3602523803711</t>
   </si>
   <si>
     <t xml:space="preserve">67.1772155761719</t>
   </si>
   <si>
-    <t xml:space="preserve">66.8111190795898</t>
+    <t xml:space="preserve">66.8111267089844</t>
   </si>
   <si>
     <t xml:space="preserve">66.7196044921875</t>
@@ -890,16 +890,16 @@
     <t xml:space="preserve">65.5755767822266</t>
   </si>
   <si>
-    <t xml:space="preserve">65.621337890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.4840621948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.3010101318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.7976303100586</t>
+    <t xml:space="preserve">65.6213302612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.4840469360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.3010025024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.7976379394531</t>
   </si>
   <si>
     <t xml:space="preserve">64.1112213134766</t>
@@ -908,64 +908,64 @@
     <t xml:space="preserve">66.2619857788086</t>
   </si>
   <si>
-    <t xml:space="preserve">66.307746887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.1314544677734</t>
+    <t xml:space="preserve">66.3077392578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.1314392089844</t>
   </si>
   <si>
     <t xml:space="preserve">67.451774597168</t>
   </si>
   <si>
-    <t xml:space="preserve">67.3144912719727</t>
+    <t xml:space="preserve">67.3144989013672</t>
   </si>
   <si>
     <t xml:space="preserve">67.7263412475586</t>
   </si>
   <si>
-    <t xml:space="preserve">66.9026489257812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.2229690551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.9551391601562</t>
+    <t xml:space="preserve">66.9026336669922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.2229766845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.9551544189453</t>
   </si>
   <si>
     <t xml:space="preserve">67.5432968139648</t>
   </si>
   <si>
-    <t xml:space="preserve">68.2754745483398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.4195022583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.0076446533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.7330932617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.8245849609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.0534057617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.0143966674805</t>
+    <t xml:space="preserve">68.2754592895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.4194946289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.0076522827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.7330856323242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.8246002197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.0534133911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.0143890380859</t>
   </si>
   <si>
     <t xml:space="preserve">71.2041854858398</t>
   </si>
   <si>
-    <t xml:space="preserve">71.2957077026367</t>
+    <t xml:space="preserve">71.2957000732422</t>
   </si>
   <si>
     <t xml:space="preserve">72.8973388671875</t>
   </si>
   <si>
-    <t xml:space="preserve">72.3024520874023</t>
+    <t xml:space="preserve">72.3024444580078</t>
   </si>
   <si>
     <t xml:space="preserve">72.4397277832031</t>
@@ -974,22 +974,22 @@
     <t xml:space="preserve">71.7533111572266</t>
   </si>
   <si>
-    <t xml:space="preserve">72.0736465454102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.7210464477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.7990798950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.1584167480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.2499389648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.4329833984375</t>
+    <t xml:space="preserve">72.0736541748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.7210311889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.7990646362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.1584243774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.2499465942383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.432991027832</t>
   </si>
   <si>
     <t xml:space="preserve">71.6618041992188</t>
@@ -998,10 +998,10 @@
     <t xml:space="preserve">71.7075424194336</t>
   </si>
   <si>
-    <t xml:space="preserve">71.3872299194336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.4787445068359</t>
+    <t xml:space="preserve">71.3872222900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.4787521362305</t>
   </si>
   <si>
     <t xml:space="preserve">72.2566833496094</t>
@@ -1016,88 +1016,88 @@
     <t xml:space="preserve">71.8906021118164</t>
   </si>
   <si>
-    <t xml:space="preserve">71.6160202026367</t>
+    <t xml:space="preserve">71.6160354614258</t>
   </si>
   <si>
     <t xml:space="preserve">65.9416656494141</t>
   </si>
   <si>
-    <t xml:space="preserve">66.3992691040039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.3212432861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.6873321533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.1516723632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.9296188354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.6550445556641</t>
+    <t xml:space="preserve">66.3992767333984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.3212203979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.6873245239258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.1516799926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.9296112060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.655029296875</t>
   </si>
   <si>
     <t xml:space="preserve">69.8771133422852</t>
   </si>
   <si>
-    <t xml:space="preserve">68.183952331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.2364501953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.9228897094727</t>
+    <t xml:space="preserve">68.1839447021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.236457824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.9228820800781</t>
   </si>
   <si>
     <t xml:space="preserve">70.0601577758789</t>
   </si>
   <si>
-    <t xml:space="preserve">70.8380889892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.0669021606445</t>
+    <t xml:space="preserve">70.8380966186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.06689453125</t>
   </si>
   <si>
     <t xml:space="preserve">72.8058242797852</t>
   </si>
   <si>
-    <t xml:space="preserve">73.5380020141602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.7923355102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.3737335205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.2822189331055</t>
+    <t xml:space="preserve">73.5379943847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.7923431396484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.3737411499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.2822113037109</t>
   </si>
   <si>
     <t xml:space="preserve">68.1381988525391</t>
   </si>
   <si>
-    <t xml:space="preserve">68.5042877197266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.2889709472656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.263427734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.7142868041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.5312652587891</t>
+    <t xml:space="preserve">68.504280090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.2889633178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.2634353637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.7142944335938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.53125</t>
   </si>
   <si>
     <t xml:space="preserve">72.8515701293945</t>
   </si>
   <si>
-    <t xml:space="preserve">72.9430923461914</t>
+    <t xml:space="preserve">72.9430847167969</t>
   </si>
   <si>
     <t xml:space="preserve">72.6227722167969</t>
@@ -1106,13 +1106,13 @@
     <t xml:space="preserve">72.3939666748047</t>
   </si>
   <si>
-    <t xml:space="preserve">72.3482131958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.577018737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.1651611328125</t>
+    <t xml:space="preserve">72.3482055664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.5770034790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.165168762207</t>
   </si>
   <si>
     <t xml:space="preserve">70.700813293457</t>
@@ -1124,76 +1124,76 @@
     <t xml:space="preserve">68.9618911743164</t>
   </si>
   <si>
-    <t xml:space="preserve">67.8178482055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.6536026000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.1637191772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.0654525756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.4315490722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.8824157714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.7451362609863</t>
+    <t xml:space="preserve">67.8178634643555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.6536102294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.1637115478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.0654602050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.4315338134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.8824119567871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.7451438903809</t>
   </si>
   <si>
     <t xml:space="preserve">63.5620880126953</t>
   </si>
   <si>
-    <t xml:space="preserve">62.6926193237305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.7316513061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.7706604003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.4960975646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.6401176452637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.6011047363281</t>
+    <t xml:space="preserve">62.692626953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.7316398620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.7706642150879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.4961013793945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.6401214599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.6011085510254</t>
   </si>
   <si>
     <t xml:space="preserve">64.6145935058594</t>
   </si>
   <si>
-    <t xml:space="preserve">68.4127578735352</t>
+    <t xml:space="preserve">68.4127655029297</t>
   </si>
   <si>
     <t xml:space="preserve">67.5890579223633</t>
   </si>
   <si>
-    <t xml:space="preserve">66.0789337158203</t>
+    <t xml:space="preserve">66.0789413452148</t>
   </si>
   <si>
     <t xml:space="preserve">65.7128601074219</t>
   </si>
   <si>
-    <t xml:space="preserve">66.4907989501953</t>
+    <t xml:space="preserve">66.4907836914062</t>
   </si>
   <si>
     <t xml:space="preserve">66.1247100830078</t>
   </si>
   <si>
-    <t xml:space="preserve">67.2687301635742</t>
+    <t xml:space="preserve">67.2687377929688</t>
   </si>
   <si>
     <t xml:space="preserve">69.1449432373047</t>
   </si>
   <si>
-    <t xml:space="preserve">71.0211410522461</t>
+    <t xml:space="preserve">71.0211334228516</t>
   </si>
   <si>
     <t xml:space="preserve">69.7398223876953</t>
@@ -1202,43 +1202,43 @@
     <t xml:space="preserve">70.7465744018555</t>
   </si>
   <si>
-    <t xml:space="preserve">71.5245056152344</t>
+    <t xml:space="preserve">71.5245132446289</t>
   </si>
   <si>
     <t xml:space="preserve">72.0278778076172</t>
   </si>
   <si>
-    <t xml:space="preserve">71.9821243286133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.5837554931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.6362533569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.4007110595703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.4074478149414</t>
+    <t xml:space="preserve">71.9821166992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.5837631225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.6362686157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.4007034301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.4074554443359</t>
   </si>
   <si>
     <t xml:space="preserve">74.1328887939453</t>
   </si>
   <si>
-    <t xml:space="preserve">74.3159332275391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.6430053710938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.4989776611328</t>
+    <t xml:space="preserve">74.3159255981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.6429977416992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.4989852905273</t>
   </si>
   <si>
     <t xml:space="preserve">75.1463851928711</t>
   </si>
   <si>
-    <t xml:space="preserve">75.7475662231445</t>
+    <t xml:space="preserve">75.7475738525391</t>
   </si>
   <si>
     <t xml:space="preserve">74.6377029418945</t>
@@ -1247,7 +1247,7 @@
     <t xml:space="preserve">75.8863067626953</t>
   </si>
   <si>
-    <t xml:space="preserve">77.8285293579102</t>
+    <t xml:space="preserve">77.8285446166992</t>
   </si>
   <si>
     <t xml:space="preserve">76.7649230957031</t>
@@ -1259,28 +1259,28 @@
     <t xml:space="preserve">78.2447357177734</t>
   </si>
   <si>
-    <t xml:space="preserve">76.3949737548828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.0771255493164</t>
+    <t xml:space="preserve">76.3949890136719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.0771179199219</t>
   </si>
   <si>
     <t xml:space="preserve">80.9268798828125</t>
   </si>
   <si>
-    <t xml:space="preserve">81.6205520629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.3893203735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.7592620849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.2968292236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.2679443359375</t>
+    <t xml:space="preserve">81.6205368041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.3893280029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.7592697143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.2968368530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.267951965332</t>
   </si>
   <si>
     <t xml:space="preserve">84.1639556884766</t>
@@ -1289,49 +1289,49 @@
     <t xml:space="preserve">85.4587860107422</t>
   </si>
   <si>
-    <t xml:space="preserve">86.3374176025391</t>
+    <t xml:space="preserve">86.3374252319336</t>
   </si>
   <si>
     <t xml:space="preserve">86.0137176513672</t>
   </si>
   <si>
-    <t xml:space="preserve">85.3663024902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.1177062988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.7766494750977</t>
+    <t xml:space="preserve">85.3662948608398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.1177139282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.7766418457031</t>
   </si>
   <si>
     <t xml:space="preserve">82.4529418945312</t>
   </si>
   <si>
-    <t xml:space="preserve">88.7883529663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.9097213745117</t>
+    <t xml:space="preserve">88.7883453369141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.9097137451172</t>
   </si>
   <si>
     <t xml:space="preserve">88.5108795166016</t>
   </si>
   <si>
-    <t xml:space="preserve">89.9906997680664</t>
+    <t xml:space="preserve">89.9906921386719</t>
   </si>
   <si>
     <t xml:space="preserve">89.112060546875</t>
   </si>
   <si>
-    <t xml:space="preserve">90.3606414794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.0658111572266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.175666809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.1583023071289</t>
+    <t xml:space="preserve">90.3606491088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.0658187866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.1756744384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.1583099365234</t>
   </si>
   <si>
     <t xml:space="preserve">88.3721618652344</t>
@@ -1340,16 +1340,16 @@
     <t xml:space="preserve">88.6033782958984</t>
   </si>
   <si>
-    <t xml:space="preserve">88.6958694458008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.9270782470703</t>
+    <t xml:space="preserve">88.6958618164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.9270858764648</t>
   </si>
   <si>
     <t xml:space="preserve">90.8230819702148</t>
   </si>
   <si>
-    <t xml:space="preserve">90.3143997192383</t>
+    <t xml:space="preserve">90.3143920898438</t>
   </si>
   <si>
     <t xml:space="preserve">90.5456237792969</t>
@@ -1361,7 +1361,7 @@
     <t xml:space="preserve">88.7420959472656</t>
   </si>
   <si>
-    <t xml:space="preserve">89.4820022583008</t>
+    <t xml:space="preserve">89.4820098876953</t>
   </si>
   <si>
     <t xml:space="preserve">87.4010238647461</t>
@@ -1370,37 +1370,37 @@
     <t xml:space="preserve">86.9385986328125</t>
   </si>
   <si>
-    <t xml:space="preserve">87.2622833251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.5050430297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.5512771606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.9038696289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.6609344482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.7881546020508</t>
+    <t xml:space="preserve">87.2623062133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.5050201416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.55126953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.9038543701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.6609268188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.7881469726562</t>
   </si>
   <si>
     <t xml:space="preserve">82.0829772949219</t>
   </si>
   <si>
-    <t xml:space="preserve">81.2505874633789</t>
+    <t xml:space="preserve">81.2505798339844</t>
   </si>
   <si>
     <t xml:space="preserve">81.481803894043</t>
   </si>
   <si>
-    <t xml:space="preserve">80.3719635009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.5280532836914</t>
+    <t xml:space="preserve">80.3719482421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.5280609130859</t>
   </si>
   <si>
     <t xml:space="preserve">80.0482559204102</t>
@@ -1412,58 +1412,58 @@
     <t xml:space="preserve">86.1986846923828</t>
   </si>
   <si>
-    <t xml:space="preserve">86.7073745727539</t>
+    <t xml:space="preserve">86.7073822021484</t>
   </si>
   <si>
     <t xml:space="preserve">84.6263961791992</t>
   </si>
   <si>
-    <t xml:space="preserve">84.9501037597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.7188873291016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.3027038574219</t>
+    <t xml:space="preserve">84.9501113891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.718879699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.3026962280273</t>
   </si>
   <si>
     <t xml:space="preserve">84.8113632202148</t>
   </si>
   <si>
-    <t xml:space="preserve">85.9212341308594</t>
+    <t xml:space="preserve">85.9212188720703</t>
   </si>
   <si>
     <t xml:space="preserve">86.7536163330078</t>
   </si>
   <si>
-    <t xml:space="preserve">85.4125442504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.6841583251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.9616165161133</t>
+    <t xml:space="preserve">85.4125366210938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.6841506958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.9616088867188</t>
   </si>
   <si>
     <t xml:space="preserve">82.0367279052734</t>
   </si>
   <si>
-    <t xml:space="preserve">82.3141937255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.8864898681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.6496200561523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.8982086181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.3200607299805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.106201171875</t>
+    <t xml:space="preserve">82.314208984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.8864974975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.6496124267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.8982009887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.3200454711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.1061935424805</t>
   </si>
   <si>
     <t xml:space="preserve">85.9674682617188</t>
@@ -1472,34 +1472,34 @@
     <t xml:space="preserve">83.7940063476562</t>
   </si>
   <si>
-    <t xml:space="preserve">84.4414291381836</t>
+    <t xml:space="preserve">84.4414215087891</t>
   </si>
   <si>
     <t xml:space="preserve">82.4991760253906</t>
   </si>
   <si>
-    <t xml:space="preserve">80.2794723510742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.1175231933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.3776092529297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.2677612304688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.7128295898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.7937927246094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.5278549194336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.8515625</t>
+    <t xml:space="preserve">80.2794647216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.1175155639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.3776016235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.2677536010742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.7128219604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.7938079833984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.5278472900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.8515472412109</t>
   </si>
   <si>
     <t xml:space="preserve">75.470100402832</t>
@@ -1508,25 +1508,25 @@
     <t xml:space="preserve">75.8400497436523</t>
   </si>
   <si>
-    <t xml:space="preserve">76.2099990844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.4123458862305</t>
+    <t xml:space="preserve">76.2100067138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.4123382568359</t>
   </si>
   <si>
     <t xml:space="preserve">73.7590713500977</t>
   </si>
   <si>
-    <t xml:space="preserve">74.7764434814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.2041473388672</t>
+    <t xml:space="preserve">74.7764282226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.2041397094727</t>
   </si>
   <si>
     <t xml:space="preserve">74.9151763916016</t>
   </si>
   <si>
-    <t xml:space="preserve">76.0250244140625</t>
+    <t xml:space="preserve">76.025032043457</t>
   </si>
   <si>
     <t xml:space="preserve">77.5048370361328</t>
@@ -1535,43 +1535,43 @@
     <t xml:space="preserve">80.9731292724609</t>
   </si>
   <si>
-    <t xml:space="preserve">76.3024826049805</t>
+    <t xml:space="preserve">76.3024978637695</t>
   </si>
   <si>
     <t xml:space="preserve">77.0886306762695</t>
   </si>
   <si>
-    <t xml:space="preserve">73.9902877807617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.4468765258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.5856170654297</t>
+    <t xml:space="preserve">73.9903030395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.4468688964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.5856094360352</t>
   </si>
   <si>
     <t xml:space="preserve">72.0018005371094</t>
   </si>
   <si>
-    <t xml:space="preserve">72.8804321289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.0365447998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.2503967285156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.95556640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.7705841064453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.458381652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.3659133911133</t>
+    <t xml:space="preserve">72.8804473876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.0365371704102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.2503890991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.9555587768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.7705764770508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.4583892822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.3659057617188</t>
   </si>
   <si>
     <t xml:space="preserve">69.7358474731445</t>
@@ -1583,37 +1583,37 @@
     <t xml:space="preserve">67.6548767089844</t>
   </si>
   <si>
-    <t xml:space="preserve">68.2560348510742</t>
+    <t xml:space="preserve">68.2560577392578</t>
   </si>
   <si>
     <t xml:space="preserve">67.7936019897461</t>
   </si>
   <si>
-    <t xml:space="preserve">67.4698944091797</t>
+    <t xml:space="preserve">67.4699020385742</t>
   </si>
   <si>
     <t xml:space="preserve">68.4410247802734</t>
   </si>
   <si>
-    <t xml:space="preserve">67.7011184692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.3600463867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.8339920043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.2502059936523</t>
+    <t xml:space="preserve">67.7011260986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.3600387573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.833984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.2501907348633</t>
   </si>
   <si>
     <t xml:space="preserve">65.111457824707</t>
   </si>
   <si>
-    <t xml:space="preserve">65.6201248168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.007453918457</t>
+    <t xml:space="preserve">65.6201477050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.0074462890625</t>
   </si>
   <si>
     <t xml:space="preserve">65.7744750976562</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">67.5291061401367</t>
   </si>
   <si>
-    <t xml:space="preserve">67.1497344970703</t>
+    <t xml:space="preserve">67.1497268676758</t>
   </si>
   <si>
     <t xml:space="preserve">70.8960723876953</t>
@@ -1634,13 +1634,13 @@
     <t xml:space="preserve">70.3744201660156</t>
   </si>
   <si>
-    <t xml:space="preserve">70.0898971557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.5166854858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.6548233032227</t>
+    <t xml:space="preserve">70.0898895263672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.5167007446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.6548309326172</t>
   </si>
   <si>
     <t xml:space="preserve">71.0383377075195</t>
@@ -1655,31 +1655,31 @@
     <t xml:space="preserve">73.5042953491211</t>
   </si>
   <si>
-    <t xml:space="preserve">73.9785079956055</t>
+    <t xml:space="preserve">73.9785003662109</t>
   </si>
   <si>
     <t xml:space="preserve">76.2073593139648</t>
   </si>
   <si>
-    <t xml:space="preserve">76.0650787353516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.9228134155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.5434341430664</t>
+    <t xml:space="preserve">76.0650863647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.9228210449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.5434417724609</t>
   </si>
   <si>
     <t xml:space="preserve">76.0176620483398</t>
   </si>
   <si>
-    <t xml:space="preserve">76.2547760009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.6382751464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.5351715087891</t>
+    <t xml:space="preserve">76.254768371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.6382904052734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.5351791381836</t>
   </si>
   <si>
     <t xml:space="preserve">77.1083679199219</t>
@@ -1691,22 +1691,22 @@
     <t xml:space="preserve">77.8671188354492</t>
   </si>
   <si>
-    <t xml:space="preserve">77.9619598388672</t>
+    <t xml:space="preserve">77.9619674682617</t>
   </si>
   <si>
     <t xml:space="preserve">79.7165908813477</t>
   </si>
   <si>
-    <t xml:space="preserve">79.6217498779297</t>
+    <t xml:space="preserve">79.6217422485352</t>
   </si>
   <si>
     <t xml:space="preserve">80.7124481201172</t>
   </si>
   <si>
-    <t xml:space="preserve">80.2856521606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.6176147460938</t>
+    <t xml:space="preserve">80.28564453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.6175994873047</t>
   </si>
   <si>
     <t xml:space="preserve">80.2382354736328</t>
@@ -1715,22 +1715,22 @@
     <t xml:space="preserve">80.4279174804688</t>
   </si>
   <si>
-    <t xml:space="preserve">80.8072891235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.0443954467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.0485382080078</t>
+    <t xml:space="preserve">80.8072967529297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.0444107055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.0485458374023</t>
   </si>
   <si>
     <t xml:space="preserve">80.9021377563477</t>
   </si>
   <si>
-    <t xml:space="preserve">81.7083053588867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.3289337158203</t>
+    <t xml:space="preserve">81.7083206176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.3289489746094</t>
   </si>
   <si>
     <t xml:space="preserve">81.8031539916992</t>
@@ -1742,16 +1742,16 @@
     <t xml:space="preserve">82.7516021728516</t>
   </si>
   <si>
-    <t xml:space="preserve">82.4196472167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.3722305297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.2773742675781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.2732543945312</t>
+    <t xml:space="preserve">82.4196395874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.3722152709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.2773895263672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.2732467651367</t>
   </si>
   <si>
     <t xml:space="preserve">82.1825408935547</t>
@@ -1763,13 +1763,13 @@
     <t xml:space="preserve">80.9969863891602</t>
   </si>
   <si>
-    <t xml:space="preserve">83.320671081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.5577850341797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.0794296264648</t>
+    <t xml:space="preserve">83.3206558227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.5577697753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.0794143676758</t>
   </si>
   <si>
     <t xml:space="preserve">84.316535949707</t>
@@ -1778,16 +1778,16 @@
     <t xml:space="preserve">83.9845733642578</t>
   </si>
   <si>
-    <t xml:space="preserve">84.7433242797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.0319900512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.1227111816406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.0752944946289</t>
+    <t xml:space="preserve">84.7433395385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.0319976806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.1227035522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.0752792358398</t>
   </si>
   <si>
     <t xml:space="preserve">85.881462097168</t>
@@ -1796,10 +1796,10 @@
     <t xml:space="preserve">86.877326965332</t>
   </si>
   <si>
-    <t xml:space="preserve">87.9680328369141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.2567138671875</t>
+    <t xml:space="preserve">87.9680404663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.256706237793</t>
   </si>
   <si>
     <t xml:space="preserve">86.9247512817383</t>
@@ -1811,7 +1811,7 @@
     <t xml:space="preserve">86.3082656860352</t>
   </si>
   <si>
-    <t xml:space="preserve">86.2134094238281</t>
+    <t xml:space="preserve">86.2134170532227</t>
   </si>
   <si>
     <t xml:space="preserve">86.7350540161133</t>
@@ -1820,13 +1820,13 @@
     <t xml:space="preserve">83.1309814453125</t>
   </si>
   <si>
-    <t xml:space="preserve">80.7598648071289</t>
+    <t xml:space="preserve">80.7598724365234</t>
   </si>
   <si>
     <t xml:space="preserve">81.2815093994141</t>
   </si>
   <si>
-    <t xml:space="preserve">82.6093292236328</t>
+    <t xml:space="preserve">82.6093368530273</t>
   </si>
   <si>
     <t xml:space="preserve">82.8938674926758</t>
@@ -1835,46 +1835,46 @@
     <t xml:space="preserve">84.8855972290039</t>
   </si>
   <si>
-    <t xml:space="preserve">85.2649765014648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.3598251342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.4031066894531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.2958602905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.6236801147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.4257125854492</t>
+    <t xml:space="preserve">85.2649688720703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.3598175048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.4030990600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.2958526611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.6236877441406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92.4257049560547</t>
   </si>
   <si>
     <t xml:space="preserve">92.3782958984375</t>
   </si>
   <si>
-    <t xml:space="preserve">92.85693359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.3304214477539</t>
+    <t xml:space="preserve">92.8569412231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92.3304290771484</t>
   </si>
   <si>
     <t xml:space="preserve">93.335578918457</t>
   </si>
   <si>
-    <t xml:space="preserve">92.7133331298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91.9953842163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91.7560501098633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.3201217651367</t>
+    <t xml:space="preserve">92.7133407592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91.9953765869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91.7560577392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.3201293945312</t>
   </si>
   <si>
     <t xml:space="preserve">89.4585571289062</t>
@@ -1886,13 +1886,13 @@
     <t xml:space="preserve">87.6397247314453</t>
   </si>
   <si>
-    <t xml:space="preserve">91.2295532226562</t>
+    <t xml:space="preserve">91.2295608520508</t>
   </si>
   <si>
     <t xml:space="preserve">92.5218887329102</t>
   </si>
   <si>
-    <t xml:space="preserve">93.1441268920898</t>
+    <t xml:space="preserve">93.1441345214844</t>
   </si>
   <si>
     <t xml:space="preserve">94.2928695678711</t>
@@ -1904,7 +1904,7 @@
     <t xml:space="preserve">97.6433715820312</t>
   </si>
   <si>
-    <t xml:space="preserve">95.0108413696289</t>
+    <t xml:space="preserve">95.0108337402344</t>
   </si>
   <si>
     <t xml:space="preserve">98.3134765625</t>
@@ -1913,58 +1913,58 @@
     <t xml:space="preserve">99.0793075561523</t>
   </si>
   <si>
-    <t xml:space="preserve">100.610961914062</t>
+    <t xml:space="preserve">100.610969543457</t>
   </si>
   <si>
     <t xml:space="preserve">102.621269226074</t>
   </si>
   <si>
-    <t xml:space="preserve">99.9408721923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.515235900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.1220169067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.8878479003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.1647262573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.5476455688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.7390975952148</t>
+    <t xml:space="preserve">99.9408798217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.515243530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.1220245361328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.8878631591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.1647415161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.5476608276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.7391052246094</t>
   </si>
   <si>
     <t xml:space="preserve">98.5049362182617</t>
   </si>
   <si>
-    <t xml:space="preserve">98.2177505493164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.802429199219</t>
+    <t xml:space="preserve">98.2177429199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.802436828613</t>
   </si>
   <si>
     <t xml:space="preserve">99.5579528808594</t>
   </si>
   <si>
-    <t xml:space="preserve">98.6006622314453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.4622268676758</t>
+    <t xml:space="preserve">98.6006698608398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.4622344970703</t>
   </si>
   <si>
     <t xml:space="preserve">98.4092102050781</t>
   </si>
   <si>
-    <t xml:space="preserve">98.792121887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.4519271850586</t>
+    <t xml:space="preserve">98.7921142578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.4519348144531</t>
   </si>
   <si>
     <t xml:space="preserve">96.9732818603516</t>
@@ -1973,22 +1973,22 @@
     <t xml:space="preserve">97.0690078735352</t>
   </si>
   <si>
-    <t xml:space="preserve">96.6860885620117</t>
+    <t xml:space="preserve">96.6860961914062</t>
   </si>
   <si>
     <t xml:space="preserve">98.0262985229492</t>
   </si>
   <si>
-    <t xml:space="preserve">103.387107849121</t>
+    <t xml:space="preserve">103.387100219727</t>
   </si>
   <si>
     <t xml:space="preserve">101.759719848633</t>
   </si>
   <si>
-    <t xml:space="preserve">100.41951751709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.099922180176</t>
+    <t xml:space="preserve">100.419509887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.099914550781</t>
   </si>
   <si>
     <t xml:space="preserve">101.951179504395</t>
@@ -1997,25 +1997,25 @@
     <t xml:space="preserve">101.376800537109</t>
   </si>
   <si>
-    <t xml:space="preserve">101.185348510742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.6536712646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101.472526550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.674301147461</t>
+    <t xml:space="preserve">101.185340881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.653678894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101.472534179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.674293518066</t>
   </si>
   <si>
     <t xml:space="preserve">103.482833862305</t>
   </si>
   <si>
-    <t xml:space="preserve">105.110237121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104.344390869141</t>
+    <t xml:space="preserve">105.110229492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104.344398498535</t>
   </si>
   <si>
     <t xml:space="preserve">101.281074523926</t>
@@ -2024,10 +2024,10 @@
     <t xml:space="preserve">102.429817199707</t>
   </si>
   <si>
-    <t xml:space="preserve">103.004188537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105.014495849609</t>
+    <t xml:space="preserve">103.004180908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105.01448059082</t>
   </si>
   <si>
     <t xml:space="preserve">104.823036193848</t>
@@ -2036,10 +2036,10 @@
     <t xml:space="preserve">104.248672485352</t>
   </si>
   <si>
-    <t xml:space="preserve">101.663986206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.8451385498047</t>
+    <t xml:space="preserve">101.66397857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.8451461791992</t>
   </si>
   <si>
     <t xml:space="preserve">97.9305725097656</t>
@@ -2048,19 +2048,19 @@
     <t xml:space="preserve">99.3665008544922</t>
   </si>
   <si>
-    <t xml:space="preserve">100.323783874512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102.23836517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101.568252563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.99388885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102.142639160156</t>
+    <t xml:space="preserve">100.323791503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102.238372802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101.568260192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.993873596191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102.142623901367</t>
   </si>
   <si>
     <t xml:space="preserve">100.898162841797</t>
@@ -2069,7 +2069,7 @@
     <t xml:space="preserve">95.6330718994141</t>
   </si>
   <si>
-    <t xml:space="preserve">95.9202651977539</t>
+    <t xml:space="preserve">95.9202575683594</t>
   </si>
   <si>
     <t xml:space="preserve">95.058708190918</t>
@@ -2078,13 +2078,13 @@
     <t xml:space="preserve">95.2980270385742</t>
   </si>
   <si>
-    <t xml:space="preserve">95.4894866943359</t>
+    <t xml:space="preserve">95.4894790649414</t>
   </si>
   <si>
     <t xml:space="preserve">95.8245315551758</t>
   </si>
   <si>
-    <t xml:space="preserve">95.7288055419922</t>
+    <t xml:space="preserve">95.7287979125977</t>
   </si>
   <si>
     <t xml:space="preserve">92.8090667724609</t>
@@ -2093,7 +2093,7 @@
     <t xml:space="preserve">93.5270385742188</t>
   </si>
   <si>
-    <t xml:space="preserve">92.4740219116211</t>
+    <t xml:space="preserve">92.4740142822266</t>
   </si>
   <si>
     <t xml:space="preserve">93.4791793823242</t>
@@ -2105,10 +2105,10 @@
     <t xml:space="preserve">93.1919860839844</t>
   </si>
   <si>
-    <t xml:space="preserve">94.3407363891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.5903549194336</t>
+    <t xml:space="preserve">94.3407440185547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.5903625488281</t>
   </si>
   <si>
     <t xml:space="preserve">96.0159912109375</t>
@@ -2123,16 +2123,16 @@
     <t xml:space="preserve">102.046897888184</t>
   </si>
   <si>
-    <t xml:space="preserve">104.440124511719</t>
+    <t xml:space="preserve">104.440116882324</t>
   </si>
   <si>
     <t xml:space="preserve">105.971786499023</t>
   </si>
   <si>
-    <t xml:space="preserve">107.311981201172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.609474182129</t>
+    <t xml:space="preserve">107.311973571777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.609481811523</t>
   </si>
   <si>
     <t xml:space="preserve">109.035102844238</t>
@@ -2147,16 +2147,16 @@
     <t xml:space="preserve">115.257484436035</t>
   </si>
   <si>
-    <t xml:space="preserve">114.68310546875</t>
+    <t xml:space="preserve">114.683113098145</t>
   </si>
   <si>
     <t xml:space="preserve">114.970291137695</t>
   </si>
   <si>
-    <t xml:space="preserve">116.119041442871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.247169494629</t>
+    <t xml:space="preserve">116.119033813477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.247184753418</t>
   </si>
   <si>
     <t xml:space="preserve">116.406219482422</t>
@@ -2177,16 +2177,16 @@
     <t xml:space="preserve">115.831848144531</t>
   </si>
   <si>
-    <t xml:space="preserve">114.874557495117</t>
+    <t xml:space="preserve">114.874565124512</t>
   </si>
   <si>
     <t xml:space="preserve">111.04541015625</t>
   </si>
   <si>
-    <t xml:space="preserve">112.672790527344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.002700805664</t>
+    <t xml:space="preserve">112.672798156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.00269317627</t>
   </si>
   <si>
     <t xml:space="preserve">111.71549987793</t>
@@ -2201,25 +2201,25 @@
     <t xml:space="preserve">112.481338500977</t>
   </si>
   <si>
-    <t xml:space="preserve">111.524047851562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.236862182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.896667480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.342910766602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.725814819336</t>
+    <t xml:space="preserve">111.524063110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.236869812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.896675109863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.342895507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.72582244873</t>
   </si>
   <si>
     <t xml:space="preserve">114.395919799805</t>
   </si>
   <si>
-    <t xml:space="preserve">112.289886474609</t>
+    <t xml:space="preserve">112.289901733398</t>
   </si>
   <si>
     <t xml:space="preserve">110.853958129883</t>
@@ -2228,13 +2228,13 @@
     <t xml:space="preserve">108.843643188477</t>
   </si>
   <si>
-    <t xml:space="preserve">111.906967163086</t>
+    <t xml:space="preserve">111.90697479248</t>
   </si>
   <si>
     <t xml:space="preserve">109.418022155762</t>
   </si>
   <si>
-    <t xml:space="preserve">109.226554870605</t>
+    <t xml:space="preserve">109.2265625</t>
   </si>
   <si>
     <t xml:space="preserve">110.18384552002</t>
@@ -2246,22 +2246,22 @@
     <t xml:space="preserve">110.566764831543</t>
   </si>
   <si>
-    <t xml:space="preserve">110.662490844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.365005493164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106.258972167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107.120544433594</t>
+    <t xml:space="preserve">110.662498474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.36499786377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106.258979797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107.120536804199</t>
   </si>
   <si>
     <t xml:space="preserve">109.130836486816</t>
   </si>
   <si>
-    <t xml:space="preserve">109.800918579102</t>
+    <t xml:space="preserve">109.800926208496</t>
   </si>
   <si>
     <t xml:space="preserve">109.705200195312</t>
@@ -2273,7 +2273,7 @@
     <t xml:space="preserve">115.736122131348</t>
   </si>
   <si>
-    <t xml:space="preserve">115.927574157715</t>
+    <t xml:space="preserve">115.927581787109</t>
   </si>
   <si>
     <t xml:space="preserve">111.332595825195</t>
@@ -2285,7 +2285,7 @@
     <t xml:space="preserve">100.036598205566</t>
   </si>
   <si>
-    <t xml:space="preserve">108.173553466797</t>
+    <t xml:space="preserve">108.173545837402</t>
   </si>
   <si>
     <t xml:space="preserve">104.918769836426</t>
@@ -2294,22 +2294,22 @@
     <t xml:space="preserve">103.195655822754</t>
   </si>
   <si>
-    <t xml:space="preserve">101.08960723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.513748168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106.833335876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.811241149902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.279571533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107.886352539062</t>
+    <t xml:space="preserve">101.089614868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.51375579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106.833343505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.811248779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.279579162598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107.886360168457</t>
   </si>
   <si>
     <t xml:space="preserve">105.780326843262</t>
@@ -2321,25 +2321,25 @@
     <t xml:space="preserve">115.544662475586</t>
   </si>
   <si>
-    <t xml:space="preserve">113.055717468262</t>
+    <t xml:space="preserve">113.055709838867</t>
   </si>
   <si>
     <t xml:space="preserve">119.565277099609</t>
   </si>
   <si>
-    <t xml:space="preserve">123.873046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">127.702224731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.02033996582</t>
+    <t xml:space="preserve">123.873062133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127.702217102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.020309448242</t>
   </si>
   <si>
     <t xml:space="preserve">143.401748657227</t>
   </si>
   <si>
-    <t xml:space="preserve">143.688949584961</t>
+    <t xml:space="preserve">143.688934326172</t>
   </si>
   <si>
     <t xml:space="preserve">138.328125</t>
@@ -2351,43 +2351,43 @@
     <t xml:space="preserve">146.082168579102</t>
   </si>
   <si>
-    <t xml:space="preserve">157.952529907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152.304550170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.655029296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">159.771377563477</t>
+    <t xml:space="preserve">157.952514648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152.30451965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.655044555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159.771362304688</t>
   </si>
   <si>
     <t xml:space="preserve">159.962844848633</t>
   </si>
   <si>
-    <t xml:space="preserve">155.272109985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148.66682434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148.762542724609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148.379653930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146.369338989258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148.188186645508</t>
+    <t xml:space="preserve">155.272094726562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148.666839599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148.762557983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148.379638671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146.369323730469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148.188201904297</t>
   </si>
   <si>
     <t xml:space="preserve">149.528381347656</t>
   </si>
   <si>
-    <t xml:space="preserve">155.559280395508</t>
+    <t xml:space="preserve">155.559295654297</t>
   </si>
   <si>
     <t xml:space="preserve">153.644729614258</t>
@@ -2399,16 +2399,16 @@
     <t xml:space="preserve">169.439971923828</t>
   </si>
   <si>
-    <t xml:space="preserve">176.332458496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">176.906814575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171.545989990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">181.118896484375</t>
+    <t xml:space="preserve">176.332443237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176.906829833984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171.546005249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181.118881225586</t>
   </si>
   <si>
     <t xml:space="preserve">182.74626159668</t>
@@ -2417,7 +2417,7 @@
     <t xml:space="preserve">194.13801574707</t>
   </si>
   <si>
-    <t xml:space="preserve">200.456115722656</t>
+    <t xml:space="preserve">200.456100463867</t>
   </si>
   <si>
     <t xml:space="preserve">188.585739135742</t>
@@ -2432,22 +2432,22 @@
     <t xml:space="preserve">180.448776245117</t>
   </si>
   <si>
-    <t xml:space="preserve">173.747787475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171.258834838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166.089462280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166.759567260742</t>
+    <t xml:space="preserve">173.747772216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171.258819580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.089477539062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.759552001953</t>
   </si>
   <si>
     <t xml:space="preserve">158.909820556641</t>
   </si>
   <si>
-    <t xml:space="preserve">152.783172607422</t>
+    <t xml:space="preserve">152.783187866211</t>
   </si>
   <si>
     <t xml:space="preserve">154.602005004883</t>
@@ -2468,40 +2468,40 @@
     <t xml:space="preserve">164.440231323242</t>
   </si>
   <si>
-    <t xml:space="preserve">163.958847045898</t>
+    <t xml:space="preserve">163.958862304688</t>
   </si>
   <si>
     <t xml:space="preserve">163.188629150391</t>
   </si>
   <si>
-    <t xml:space="preserve">161.166809082031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.343948364258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">169.254043579102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166.558319091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.017868041992</t>
+    <t xml:space="preserve">161.16682434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.343933105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">169.254058837891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.558303833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.017883300781</t>
   </si>
   <si>
     <t xml:space="preserve">163.38117980957</t>
   </si>
   <si>
-    <t xml:space="preserve">164.055130004883</t>
+    <t xml:space="preserve">164.055099487305</t>
   </si>
   <si>
     <t xml:space="preserve">164.632781982422</t>
   </si>
   <si>
-    <t xml:space="preserve">164.921615600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.729049682617</t>
+    <t xml:space="preserve">164.921630859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.729064941406</t>
   </si>
   <si>
     <t xml:space="preserve">168.195007324219</t>
@@ -2510,10 +2510,10 @@
     <t xml:space="preserve">171.853515625</t>
   </si>
   <si>
-    <t xml:space="preserve">172.527435302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.114166259766</t>
+    <t xml:space="preserve">172.527450561523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.114181518555</t>
   </si>
   <si>
     <t xml:space="preserve">166.462036132812</t>
@@ -2522,25 +2522,25 @@
     <t xml:space="preserve">167.23225402832</t>
   </si>
   <si>
-    <t xml:space="preserve">166.750869750977</t>
+    <t xml:space="preserve">166.750854492188</t>
   </si>
   <si>
     <t xml:space="preserve">171.46842956543</t>
   </si>
   <si>
-    <t xml:space="preserve">171.564682006836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">174.164154052734</t>
+    <t xml:space="preserve">171.564697265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">174.164138793945</t>
   </si>
   <si>
     <t xml:space="preserve">171.66096496582</t>
   </si>
   <si>
-    <t xml:space="preserve">168.483856201172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">162.99609375</t>
+    <t xml:space="preserve">168.483840942383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162.996078491211</t>
   </si>
   <si>
     <t xml:space="preserve">156.641830444336</t>
@@ -2558,25 +2558,25 @@
     <t xml:space="preserve">159.818954467773</t>
   </si>
   <si>
-    <t xml:space="preserve">154.620025634766</t>
+    <t xml:space="preserve">154.620040893555</t>
   </si>
   <si>
     <t xml:space="preserve">151.731735229492</t>
   </si>
   <si>
-    <t xml:space="preserve">148.650894165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152.69450378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147.110458374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151.635467529297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154.234924316406</t>
+    <t xml:space="preserve">148.65087890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152.694519042969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147.110473632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151.635452270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154.234909057617</t>
   </si>
   <si>
     <t xml:space="preserve">153.560989379883</t>
@@ -2588,7 +2588,7 @@
     <t xml:space="preserve">156.73811340332</t>
   </si>
   <si>
-    <t xml:space="preserve">153.175903320312</t>
+    <t xml:space="preserve">153.175888061523</t>
   </si>
   <si>
     <t xml:space="preserve">156.160446166992</t>
@@ -2597,19 +2597,19 @@
     <t xml:space="preserve">156.834381103516</t>
   </si>
   <si>
-    <t xml:space="preserve">156.930648803711</t>
+    <t xml:space="preserve">156.9306640625</t>
   </si>
   <si>
     <t xml:space="preserve">157.412063598633</t>
   </si>
   <si>
-    <t xml:space="preserve">157.797164916992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161.455642700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147.495559692383</t>
+    <t xml:space="preserve">157.797134399414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161.455657958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147.495574951172</t>
   </si>
   <si>
     <t xml:space="preserve">140.371109008789</t>
@@ -2621,13 +2621,13 @@
     <t xml:space="preserve">146.436538696289</t>
   </si>
   <si>
-    <t xml:space="preserve">145.377502441406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137.290267944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136.520065307617</t>
+    <t xml:space="preserve">145.377487182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137.290283203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136.520050048828</t>
   </si>
   <si>
     <t xml:space="preserve">139.119522094727</t>
@@ -2636,73 +2636,73 @@
     <t xml:space="preserve">138.926971435547</t>
   </si>
   <si>
-    <t xml:space="preserve">146.629089355469</t>
+    <t xml:space="preserve">146.62907409668</t>
   </si>
   <si>
     <t xml:space="preserve">145.088653564453</t>
   </si>
   <si>
-    <t xml:space="preserve">148.939712524414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149.613647460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151.154083251953</t>
+    <t xml:space="preserve">148.939727783203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149.613632202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151.154067993164</t>
   </si>
   <si>
     <t xml:space="preserve">154.908843994141</t>
   </si>
   <si>
-    <t xml:space="preserve">152.309387207031</t>
+    <t xml:space="preserve">152.30940246582</t>
   </si>
   <si>
     <t xml:space="preserve">163.092346191406</t>
   </si>
   <si>
-    <t xml:space="preserve">162.707244873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.151412963867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163.862564086914</t>
+    <t xml:space="preserve">162.707260131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.151382446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163.862579345703</t>
   </si>
   <si>
     <t xml:space="preserve">165.499267578125</t>
   </si>
   <si>
-    <t xml:space="preserve">170.216827392578</t>
+    <t xml:space="preserve">170.216842651367</t>
   </si>
   <si>
     <t xml:space="preserve">177.148712158203</t>
   </si>
   <si>
-    <t xml:space="preserve">177.533828735352</t>
+    <t xml:space="preserve">177.533813476562</t>
   </si>
   <si>
     <t xml:space="preserve">179.940734863281</t>
   </si>
   <si>
-    <t xml:space="preserve">175.70458984375</t>
+    <t xml:space="preserve">175.704574584961</t>
   </si>
   <si>
     <t xml:space="preserve">180.999786376953</t>
   </si>
   <si>
-    <t xml:space="preserve">183.021591186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180.518402099609</t>
+    <t xml:space="preserve">183.021606445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180.51838684082</t>
   </si>
   <si>
     <t xml:space="preserve">184.176910400391</t>
   </si>
   <si>
-    <t xml:space="preserve">181.962554931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">187.354034423828</t>
+    <t xml:space="preserve">181.962539672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">187.354049682617</t>
   </si>
   <si>
     <t xml:space="preserve">186.39128112793</t>
@@ -2714,25 +2714,25 @@
     <t xml:space="preserve">187.642852783203</t>
   </si>
   <si>
-    <t xml:space="preserve">185.428512573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">183.888092041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">181.577453613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180.325836181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">181.481155395508</t>
+    <t xml:space="preserve">185.428497314453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">183.888076782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181.57746887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180.32585144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181.481170654297</t>
   </si>
   <si>
     <t xml:space="preserve">178.785415649414</t>
   </si>
   <si>
-    <t xml:space="preserve">180.13330078125</t>
+    <t xml:space="preserve">180.133316040039</t>
   </si>
   <si>
     <t xml:space="preserve">186.96891784668</t>
@@ -2747,28 +2747,28 @@
     <t xml:space="preserve">161.744491577148</t>
   </si>
   <si>
-    <t xml:space="preserve">165.980651855469</t>
+    <t xml:space="preserve">165.98063659668</t>
   </si>
   <si>
     <t xml:space="preserve">167.328521728516</t>
   </si>
   <si>
-    <t xml:space="preserve">167.039688110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166.173202514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">158.952484130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">162.899810791016</t>
+    <t xml:space="preserve">167.039703369141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.173217773438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158.952499389648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162.899795532227</t>
   </si>
   <si>
     <t xml:space="preserve">166.365768432617</t>
   </si>
   <si>
-    <t xml:space="preserve">170.024276733398</t>
+    <t xml:space="preserve">170.024291992188</t>
   </si>
   <si>
     <t xml:space="preserve">165.7880859375</t>
@@ -2786,37 +2786,37 @@
     <t xml:space="preserve">162.225875854492</t>
   </si>
   <si>
-    <t xml:space="preserve">161.359390258789</t>
+    <t xml:space="preserve">161.359405517578</t>
   </si>
   <si>
     <t xml:space="preserve">160.492889404297</t>
   </si>
   <si>
-    <t xml:space="preserve">160.878021240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.306732177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161.070571899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161.648208618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163.766296386719</t>
+    <t xml:space="preserve">160.878005981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.306716918945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161.070556640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161.648193359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163.766311645508</t>
   </si>
   <si>
     <t xml:space="preserve">163.284927368164</t>
   </si>
   <si>
-    <t xml:space="preserve">155.775344848633</t>
+    <t xml:space="preserve">155.775360107422</t>
   </si>
   <si>
     <t xml:space="preserve">154.812591552734</t>
   </si>
   <si>
-    <t xml:space="preserve">153.464721679688</t>
+    <t xml:space="preserve">153.464706420898</t>
   </si>
   <si>
     <t xml:space="preserve">157.604598999023</t>
@@ -2831,7 +2831,7 @@
     <t xml:space="preserve">160.011505126953</t>
   </si>
   <si>
-    <t xml:space="preserve">173.008850097656</t>
+    <t xml:space="preserve">173.008819580078</t>
   </si>
   <si>
     <t xml:space="preserve">172.142349243164</t>
@@ -2840,10 +2840,10 @@
     <t xml:space="preserve">181.288619995117</t>
   </si>
   <si>
-    <t xml:space="preserve">171.083312988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">173.87532043457</t>
+    <t xml:space="preserve">171.083297729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173.875335693359</t>
   </si>
   <si>
     <t xml:space="preserve">173.297668457031</t>
@@ -2864,37 +2864,37 @@
     <t xml:space="preserve">176.08967590332</t>
   </si>
   <si>
-    <t xml:space="preserve">175.415756225586</t>
+    <t xml:space="preserve">175.415725708008</t>
   </si>
   <si>
     <t xml:space="preserve">177.630111694336</t>
   </si>
   <si>
-    <t xml:space="preserve">178.689147949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">178.400314331055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179.459365844727</t>
+    <t xml:space="preserve">178.689163208008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">178.400329589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179.459350585938</t>
   </si>
   <si>
     <t xml:space="preserve">176.667343139648</t>
   </si>
   <si>
-    <t xml:space="preserve">158.182250976562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153.753524780273</t>
+    <t xml:space="preserve">158.182266235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">153.753540039062</t>
   </si>
   <si>
     <t xml:space="preserve">157.989715576172</t>
   </si>
   <si>
-    <t xml:space="preserve">156.353012084961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.893432617188</t>
+    <t xml:space="preserve">156.352996826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.893417358398</t>
   </si>
   <si>
     <t xml:space="preserve">159.14501953125</t>
@@ -2903,10 +2903,10 @@
     <t xml:space="preserve">155.967895507812</t>
   </si>
   <si>
-    <t xml:space="preserve">152.116836547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150.961532592773</t>
+    <t xml:space="preserve">152.116851806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150.961517333984</t>
   </si>
   <si>
     <t xml:space="preserve">149.035995483398</t>
@@ -2933,25 +2933,25 @@
     <t xml:space="preserve">134.979629516602</t>
   </si>
   <si>
-    <t xml:space="preserve">135.74983215332</t>
+    <t xml:space="preserve">135.749847412109</t>
   </si>
   <si>
     <t xml:space="preserve">134.787078857422</t>
   </si>
   <si>
-    <t xml:space="preserve">137.001419067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.824295043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.187606811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.572708129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131.706237792969</t>
+    <t xml:space="preserve">137.001434326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.824310302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.187622070312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.572723388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131.70622253418</t>
   </si>
   <si>
     <t xml:space="preserve">134.54638671875</t>
@@ -2960,31 +2960,31 @@
     <t xml:space="preserve">137.193984985352</t>
   </si>
   <si>
-    <t xml:space="preserve">134.93147277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147.351150512695</t>
+    <t xml:space="preserve">134.931488037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147.351165771484</t>
   </si>
   <si>
     <t xml:space="preserve">145.425628662109</t>
   </si>
   <si>
-    <t xml:space="preserve">143.596374511719</t>
+    <t xml:space="preserve">143.59635925293</t>
   </si>
   <si>
     <t xml:space="preserve">150.095031738281</t>
   </si>
   <si>
-    <t xml:space="preserve">149.950622558594</t>
+    <t xml:space="preserve">149.950637817383</t>
   </si>
   <si>
     <t xml:space="preserve">148.169494628906</t>
   </si>
   <si>
-    <t xml:space="preserve">146.869781494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146.725357055664</t>
+    <t xml:space="preserve">146.869766235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146.725341796875</t>
   </si>
   <si>
     <t xml:space="preserve">138.734420776367</t>
@@ -2993,19 +2993,19 @@
     <t xml:space="preserve">138.541839599609</t>
   </si>
   <si>
-    <t xml:space="preserve">135.027755737305</t>
+    <t xml:space="preserve">135.027770996094</t>
   </si>
   <si>
     <t xml:space="preserve">135.990524291992</t>
   </si>
   <si>
-    <t xml:space="preserve">135.605438232422</t>
+    <t xml:space="preserve">135.605422973633</t>
   </si>
   <si>
     <t xml:space="preserve">135.942398071289</t>
   </si>
   <si>
-    <t xml:space="preserve">133.34294128418</t>
+    <t xml:space="preserve">133.342926025391</t>
   </si>
   <si>
     <t xml:space="preserve">135.55729675293</t>
@@ -3032,10 +3032,10 @@
     <t xml:space="preserve">138.638137817383</t>
   </si>
   <si>
-    <t xml:space="preserve">138.78254699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138.734069824219</t>
+    <t xml:space="preserve">138.782531738281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138.734085083008</t>
   </si>
   <si>
     <t xml:space="preserve">138.491714477539</t>
@@ -3044,7 +3044,7 @@
     <t xml:space="preserve">139.60661315918</t>
   </si>
   <si>
-    <t xml:space="preserve">139.558120727539</t>
+    <t xml:space="preserve">139.558135986328</t>
   </si>
   <si>
     <t xml:space="preserve">139.848983764648</t>
@@ -3053,7 +3053,7 @@
     <t xml:space="preserve">140.236770629883</t>
   </si>
   <si>
-    <t xml:space="preserve">137.716110229492</t>
+    <t xml:space="preserve">137.716125488281</t>
   </si>
   <si>
     <t xml:space="preserve">134.759155273438</t>
@@ -3068,7 +3068,7 @@
     <t xml:space="preserve">137.958480834961</t>
   </si>
   <si>
-    <t xml:space="preserve">139.267303466797</t>
+    <t xml:space="preserve">139.267288208008</t>
   </si>
   <si>
     <t xml:space="preserve">140.430694580078</t>
@@ -3077,10 +3077,10 @@
     <t xml:space="preserve">140.963882446289</t>
   </si>
   <si>
-    <t xml:space="preserve">145.035766601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146.150665283203</t>
+    <t xml:space="preserve">145.035781860352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146.150680541992</t>
   </si>
   <si>
     <t xml:space="preserve">145.859817504883</t>
@@ -3089,34 +3089,34 @@
     <t xml:space="preserve">148.138137817383</t>
   </si>
   <si>
-    <t xml:space="preserve">147.653396606445</t>
+    <t xml:space="preserve">147.653381347656</t>
   </si>
   <si>
     <t xml:space="preserve">149.204559326172</t>
   </si>
   <si>
-    <t xml:space="preserve">148.719818115234</t>
+    <t xml:space="preserve">148.719802856445</t>
   </si>
   <si>
     <t xml:space="preserve">149.107620239258</t>
   </si>
   <si>
-    <t xml:space="preserve">145.22966003418</t>
+    <t xml:space="preserve">145.229675292969</t>
   </si>
   <si>
     <t xml:space="preserve">149.883224487305</t>
   </si>
   <si>
-    <t xml:space="preserve">151.337448120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152.209991455078</t>
+    <t xml:space="preserve">151.337463378906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152.209976196289</t>
   </si>
   <si>
     <t xml:space="preserve">155.021499633789</t>
   </si>
   <si>
-    <t xml:space="preserve">154.633728027344</t>
+    <t xml:space="preserve">154.633712768555</t>
   </si>
   <si>
     <t xml:space="preserve">152.694732666016</t>
@@ -3131,7 +3131,7 @@
     <t xml:space="preserve">155.845581054688</t>
   </si>
   <si>
-    <t xml:space="preserve">158.317779541016</t>
+    <t xml:space="preserve">158.317794799805</t>
   </si>
   <si>
     <t xml:space="preserve">154.342864990234</t>
@@ -3140,40 +3140,40 @@
     <t xml:space="preserve">155.748626708984</t>
   </si>
   <si>
-    <t xml:space="preserve">157.105911254883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.445236206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.008972167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.639129638672</t>
+    <t xml:space="preserve">157.105926513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.445220947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.00895690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.639144897461</t>
   </si>
   <si>
     <t xml:space="preserve">158.075408935547</t>
   </si>
   <si>
-    <t xml:space="preserve">160.935409545898</t>
+    <t xml:space="preserve">160.935394287109</t>
   </si>
   <si>
     <t xml:space="preserve">162.195739746094</t>
   </si>
   <si>
-    <t xml:space="preserve">164.280120849609</t>
+    <t xml:space="preserve">164.280151367188</t>
   </si>
   <si>
     <t xml:space="preserve">165.734375</t>
   </si>
   <si>
-    <t xml:space="preserve">167.091659545898</t>
+    <t xml:space="preserve">167.091674804688</t>
   </si>
   <si>
     <t xml:space="preserve">163.795394897461</t>
   </si>
   <si>
-    <t xml:space="preserve">162.971328735352</t>
+    <t xml:space="preserve">162.971343994141</t>
   </si>
   <si>
     <t xml:space="preserve">164.425582885742</t>
@@ -3185,13 +3185,13 @@
     <t xml:space="preserve">165.928268432617</t>
   </si>
   <si>
-    <t xml:space="preserve">171.06657409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166.703872680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170.290985107422</t>
+    <t xml:space="preserve">171.066558837891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.703857421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170.290969848633</t>
   </si>
   <si>
     <t xml:space="preserve">171.018096923828</t>
@@ -3200,13 +3200,13 @@
     <t xml:space="preserve">168.158096313477</t>
   </si>
   <si>
-    <t xml:space="preserve">170.824188232422</t>
+    <t xml:space="preserve">170.824203491211</t>
   </si>
   <si>
     <t xml:space="preserve">170.484893798828</t>
   </si>
   <si>
-    <t xml:space="preserve">171.212005615234</t>
+    <t xml:space="preserve">171.212020874023</t>
   </si>
   <si>
     <t xml:space="preserve">173.344879150391</t>
@@ -3215,7 +3215,7 @@
     <t xml:space="preserve">172.423873901367</t>
   </si>
   <si>
-    <t xml:space="preserve">173.538787841797</t>
+    <t xml:space="preserve">173.538772583008</t>
   </si>
   <si>
     <t xml:space="preserve">178.289260864258</t>
@@ -3224,13 +3224,13 @@
     <t xml:space="preserve">179.210296630859</t>
   </si>
   <si>
-    <t xml:space="preserve">179.404205322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">182.409606933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">181.827911376953</t>
+    <t xml:space="preserve">179.404190063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">182.409591674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181.827926635742</t>
   </si>
   <si>
     <t xml:space="preserve">180.325210571289</t>
@@ -3248,10 +3248,10 @@
     <t xml:space="preserve">185.075698852539</t>
   </si>
   <si>
-    <t xml:space="preserve">187.354019165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.443832397461</t>
+    <t xml:space="preserve">187.35400390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.44384765625</t>
   </si>
   <si>
     <t xml:space="preserve">194.867553710938</t>
@@ -3269,25 +3269,25 @@
     <t xml:space="preserve">199.424163818359</t>
   </si>
   <si>
-    <t xml:space="preserve">199.327224731445</t>
+    <t xml:space="preserve">199.327239990234</t>
   </si>
   <si>
     <t xml:space="preserve">199.908905029297</t>
   </si>
   <si>
-    <t xml:space="preserve">190.698760986328</t>
+    <t xml:space="preserve">190.698745727539</t>
   </si>
   <si>
     <t xml:space="preserve">195.643157958984</t>
   </si>
   <si>
-    <t xml:space="preserve">192.783157348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">194.479766845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">196.418762207031</t>
+    <t xml:space="preserve">192.783172607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">194.479782104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">196.418746948242</t>
   </si>
   <si>
     <t xml:space="preserve">198.35774230957</t>
@@ -3296,7 +3296,7 @@
     <t xml:space="preserve">197.000442504883</t>
   </si>
   <si>
-    <t xml:space="preserve">189.874710083008</t>
+    <t xml:space="preserve">189.874694824219</t>
   </si>
   <si>
     <t xml:space="preserve">182.845901489258</t>
@@ -3308,7 +3308,7 @@
     <t xml:space="preserve">176.301834106445</t>
   </si>
   <si>
-    <t xml:space="preserve">175.817092895508</t>
+    <t xml:space="preserve">175.817077636719</t>
   </si>
   <si>
     <t xml:space="preserve">169.806228637695</t>
@@ -3326,28 +3326,28 @@
     <t xml:space="preserve">165.491989135742</t>
   </si>
   <si>
-    <t xml:space="preserve">166.84928894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.183197021484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">168.642837524414</t>
+    <t xml:space="preserve">166.849304199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.183212280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">168.642852783203</t>
   </si>
   <si>
     <t xml:space="preserve">173.05403137207</t>
   </si>
   <si>
-    <t xml:space="preserve">173.441818237305</t>
+    <t xml:space="preserve">173.441802978516</t>
   </si>
   <si>
     <t xml:space="preserve">174.605224609375</t>
   </si>
   <si>
-    <t xml:space="preserve">173.87809753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175.962493896484</t>
+    <t xml:space="preserve">173.878112792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">175.962509155273</t>
   </si>
   <si>
     <t xml:space="preserve">179.985870361328</t>
@@ -3362,28 +3362,28 @@
     <t xml:space="preserve">185.221145629883</t>
   </si>
   <si>
-    <t xml:space="preserve">185.172668457031</t>
+    <t xml:space="preserve">185.172653198242</t>
   </si>
   <si>
     <t xml:space="preserve">181.634033203125</t>
   </si>
   <si>
-    <t xml:space="preserve">189.486907958984</t>
+    <t xml:space="preserve">189.486877441406</t>
   </si>
   <si>
     <t xml:space="preserve">189.389953613281</t>
   </si>
   <si>
-    <t xml:space="preserve">191.135025024414</t>
+    <t xml:space="preserve">191.135009765625</t>
   </si>
   <si>
     <t xml:space="preserve">191.619766235352</t>
   </si>
   <si>
-    <t xml:space="preserve">188.808242797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">187.160110473633</t>
+    <t xml:space="preserve">188.808258056641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">187.160125732422</t>
   </si>
   <si>
     <t xml:space="preserve">176.931991577148</t>
@@ -3392,13 +3392,13 @@
     <t xml:space="preserve">178.483184814453</t>
   </si>
   <si>
-    <t xml:space="preserve">177.804534912109</t>
+    <t xml:space="preserve">177.80451965332</t>
   </si>
   <si>
     <t xml:space="preserve">179.355728149414</t>
   </si>
   <si>
-    <t xml:space="preserve">182.264175415039</t>
+    <t xml:space="preserve">182.264190673828</t>
   </si>
   <si>
     <t xml:space="preserve">183.185195922852</t>
@@ -3413,10 +3413,10 @@
     <t xml:space="preserve">178.870971679688</t>
   </si>
   <si>
-    <t xml:space="preserve">178.046905517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">173.829635620117</t>
+    <t xml:space="preserve">178.046890258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173.829620361328</t>
   </si>
   <si>
     <t xml:space="preserve">172.036056518555</t>
@@ -3425,28 +3425,28 @@
     <t xml:space="preserve">181.585540771484</t>
   </si>
   <si>
-    <t xml:space="preserve">179.452667236328</t>
+    <t xml:space="preserve">179.452682495117</t>
   </si>
   <si>
     <t xml:space="preserve">182.991302490234</t>
   </si>
   <si>
-    <t xml:space="preserve">177.319793701172</t>
+    <t xml:space="preserve">177.319778442383</t>
   </si>
   <si>
     <t xml:space="preserve">172.472320556641</t>
   </si>
   <si>
-    <t xml:space="preserve">171.308929443359</t>
+    <t xml:space="preserve">171.308944702148</t>
   </si>
   <si>
     <t xml:space="preserve">167.043197631836</t>
   </si>
   <si>
-    <t xml:space="preserve">169.612350463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.569274902344</t>
+    <t xml:space="preserve">169.612335205078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.569290161133</t>
   </si>
   <si>
     <t xml:space="preserve">174.508270263672</t>
@@ -3458,16 +3458,16 @@
     <t xml:space="preserve">170.921157836914</t>
   </si>
   <si>
-    <t xml:space="preserve">174.993026733398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.714706420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154.003540039062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.651672363281</t>
+    <t xml:space="preserve">174.993011474609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.714691162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154.003555297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.65168762207</t>
   </si>
   <si>
     <t xml:space="preserve">155.36083984375</t>
@@ -3491,28 +3491,28 @@
     <t xml:space="preserve">158.220825195312</t>
   </si>
   <si>
-    <t xml:space="preserve">154.100479125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.603210449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150.077102661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">143.581527709961</t>
+    <t xml:space="preserve">154.100494384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.60319519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150.077117919922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143.58154296875</t>
   </si>
   <si>
     <t xml:space="preserve">145.617446899414</t>
   </si>
   <si>
-    <t xml:space="preserve">149.495422363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">143.193740844727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141.642547607422</t>
+    <t xml:space="preserve">149.495407104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143.193725585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141.642562866211</t>
   </si>
   <si>
     <t xml:space="preserve">143.726943969727</t>
@@ -3524,28 +3524,28 @@
     <t xml:space="preserve">140.72151184082</t>
   </si>
   <si>
-    <t xml:space="preserve">142.515090942383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130.590362548828</t>
+    <t xml:space="preserve">142.515075683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.590347290039</t>
   </si>
   <si>
     <t xml:space="preserve">128.505950927734</t>
   </si>
   <si>
-    <t xml:space="preserve">130.63883972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130.978164672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.723236083984</t>
+    <t xml:space="preserve">130.638824462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.978149414062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.723220825195</t>
   </si>
   <si>
     <t xml:space="preserve">132.820175170898</t>
   </si>
   <si>
-    <t xml:space="preserve">133.69270324707</t>
+    <t xml:space="preserve">133.692718505859</t>
   </si>
   <si>
     <t xml:space="preserve">129.330001831055</t>
@@ -3554,7 +3554,7 @@
     <t xml:space="preserve">127.584938049316</t>
   </si>
   <si>
-    <t xml:space="preserve">122.05884552002</t>
+    <t xml:space="preserve">122.058837890625</t>
   </si>
   <si>
     <t xml:space="preserve">120.943923950195</t>
@@ -3572,7 +3572,7 @@
     <t xml:space="preserve">116.096473693848</t>
   </si>
   <si>
-    <t xml:space="preserve">118.568672180176</t>
+    <t xml:space="preserve">118.56867980957</t>
   </si>
   <si>
     <t xml:space="preserve">118.035453796387</t>
@@ -3581,13 +3581,13 @@
     <t xml:space="preserve">117.065956115723</t>
   </si>
   <si>
-    <t xml:space="preserve">113.721221923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.866645812988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.696128845215</t>
+    <t xml:space="preserve">113.721229553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.866638183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.696136474609</t>
   </si>
   <si>
     <t xml:space="preserve">121.671043395996</t>
@@ -3605,7 +3605,7 @@
     <t xml:space="preserve">128.748336791992</t>
   </si>
   <si>
-    <t xml:space="preserve">125.355102539062</t>
+    <t xml:space="preserve">125.355110168457</t>
   </si>
   <si>
     <t xml:space="preserve">124.72492980957</t>
@@ -3614,7 +3614,7 @@
     <t xml:space="preserve">121.62255859375</t>
   </si>
   <si>
-    <t xml:space="preserve">123.803924560547</t>
+    <t xml:space="preserve">123.803909301758</t>
   </si>
   <si>
     <t xml:space="preserve">119.004943847656</t>
@@ -3626,7 +3626,7 @@
     <t xml:space="preserve">117.017486572266</t>
   </si>
   <si>
-    <t xml:space="preserve">119.101898193359</t>
+    <t xml:space="preserve">119.101890563965</t>
   </si>
   <si>
     <t xml:space="preserve">123.416130065918</t>
@@ -3635,7 +3635,7 @@
     <t xml:space="preserve">133.401885986328</t>
   </si>
   <si>
-    <t xml:space="preserve">133.98356628418</t>
+    <t xml:space="preserve">133.983551025391</t>
   </si>
   <si>
     <t xml:space="preserve">128.312057495117</t>
@@ -3644,28 +3644,28 @@
     <t xml:space="preserve">128.215087890625</t>
   </si>
   <si>
-    <t xml:space="preserve">126.857810974121</t>
+    <t xml:space="preserve">126.857833862305</t>
   </si>
   <si>
     <t xml:space="preserve">125.791374206543</t>
   </si>
   <si>
-    <t xml:space="preserve">127.051727294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135.534759521484</t>
+    <t xml:space="preserve">127.051719665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.534774780273</t>
   </si>
   <si>
     <t xml:space="preserve">137.473739624023</t>
   </si>
   <si>
-    <t xml:space="preserve">137.570678710938</t>
+    <t xml:space="preserve">137.570663452148</t>
   </si>
   <si>
     <t xml:space="preserve">141.109329223633</t>
   </si>
   <si>
-    <t xml:space="preserve">141.400161743164</t>
+    <t xml:space="preserve">141.400177001953</t>
   </si>
   <si>
     <t xml:space="preserve">143.920837402344</t>
@@ -3674,40 +3674,40 @@
     <t xml:space="preserve">140.818481445312</t>
   </si>
   <si>
-    <t xml:space="preserve">137.910003662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136.988983154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.322891235352</t>
+    <t xml:space="preserve">137.910018920898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136.988998413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.322906494141</t>
   </si>
   <si>
     <t xml:space="preserve">130.687301635742</t>
   </si>
   <si>
-    <t xml:space="preserve">130.735778808594</t>
+    <t xml:space="preserve">130.735794067383</t>
   </si>
   <si>
     <t xml:space="preserve">130.202560424805</t>
   </si>
   <si>
-    <t xml:space="preserve">130.05712890625</t>
+    <t xml:space="preserve">130.057113647461</t>
   </si>
   <si>
     <t xml:space="preserve">128.069686889648</t>
   </si>
   <si>
-    <t xml:space="preserve">126.130699157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.543579101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120.216804504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.726638793945</t>
+    <t xml:space="preserve">126.130706787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.543586730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120.216812133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.72664642334</t>
   </si>
   <si>
     <t xml:space="preserve">120.168327331543</t>
@@ -3716,7 +3716,7 @@
     <t xml:space="preserve">121.234771728516</t>
   </si>
   <si>
-    <t xml:space="preserve">119.683586120605</t>
+    <t xml:space="preserve">119.683578491211</t>
   </si>
   <si>
     <t xml:space="preserve">119.150367736816</t>
@@ -3725,7 +3725,7 @@
     <t xml:space="preserve">115.854103088379</t>
   </si>
   <si>
-    <t xml:space="preserve">116.290367126465</t>
+    <t xml:space="preserve">116.29035949707</t>
   </si>
   <si>
     <t xml:space="preserve">116.969017028809</t>
@@ -3743,7 +3743,7 @@
     <t xml:space="preserve">108.534439086914</t>
   </si>
   <si>
-    <t xml:space="preserve">115.466300964355</t>
+    <t xml:space="preserve">115.466293334961</t>
   </si>
   <si>
     <t xml:space="preserve">116.338844299316</t>
@@ -3752,7 +3752,7 @@
     <t xml:space="preserve">114.884605407715</t>
   </si>
   <si>
-    <t xml:space="preserve">111.976135253906</t>
+    <t xml:space="preserve">111.976142883301</t>
   </si>
   <si>
     <t xml:space="preserve">114.496810913086</t>
@@ -5148,6 +5148,9 @@
   </si>
   <si>
     <t xml:space="preserve">99.8399963378906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.4199981689453</t>
   </si>
 </sst>
 </file>
@@ -61779,7 +61782,7 @@
     </row>
     <row r="2166">
       <c r="A2166" s="1" t="n">
-        <v>45477.6496412037</v>
+        <v>45477.2916666667</v>
       </c>
       <c r="B2166" t="n">
         <v>103626</v>
@@ -61800,6 +61803,32 @@
         <v>1711</v>
       </c>
       <c r="H2166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" s="1" t="n">
+        <v>45478.6508217593</v>
+      </c>
+      <c r="B2167" t="n">
+        <v>82780</v>
+      </c>
+      <c r="C2167" t="n">
+        <v>100.550003051758</v>
+      </c>
+      <c r="D2167" t="n">
+        <v>99.0599975585938</v>
+      </c>
+      <c r="E2167" t="n">
+        <v>99.8199996948242</v>
+      </c>
+      <c r="F2167" t="n">
+        <v>99.4199981689453</v>
+      </c>
+      <c r="G2167" t="s">
+        <v>1712</v>
+      </c>
+      <c r="H2167" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DIA.MI.xlsx
+++ b/data/DIA.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="1724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="1725">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,19 +38,19 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0384178161621</t>
+    <t xml:space="preserve">43.0384101867676</t>
   </si>
   <si>
     <t xml:space="preserve">DIA.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8513031005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5922508239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.4761161804199</t>
+    <t xml:space="preserve">43.8513069152832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5922470092773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.4761199951172</t>
   </si>
   <si>
     <t xml:space="preserve">43.3689270019531</t>
@@ -59,7 +59,7 @@
     <t xml:space="preserve">42.6900329589844</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0116119384766</t>
+    <t xml:space="preserve">43.0116157531738</t>
   </si>
   <si>
     <t xml:space="preserve">42.2612571716309</t>
@@ -68,76 +68,76 @@
     <t xml:space="preserve">41.8146209716797</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5104217529297</t>
+    <t xml:space="preserve">40.5104179382324</t>
   </si>
   <si>
     <t xml:space="preserve">39.7779273986816</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5630645751953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.3218765258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1253547668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.4563407897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7694702148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7878189086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5917701721191</t>
+    <t xml:space="preserve">38.5630569458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.3218803405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1253471374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.4563446044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7694778442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7878150939941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5917778015137</t>
   </si>
   <si>
     <t xml:space="preserve">41.8950119018555</t>
   </si>
   <si>
-    <t xml:space="preserve">43.3242607116699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.6190490722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5475807189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.4131202697754</t>
+    <t xml:space="preserve">43.3242645263672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.6190528869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5475883483887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.4131164550781</t>
   </si>
   <si>
     <t xml:space="preserve">41.7610168457031</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9208488464355</t>
+    <t xml:space="preserve">39.9208526611328</t>
   </si>
   <si>
     <t xml:space="preserve">38.2414855957031</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5005264282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.0811614990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.0990371704102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8935775756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6354827880859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9124031066895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0106620788574</t>
+    <t xml:space="preserve">38.5005302429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.0811653137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.0990295410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8935813903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6354866027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9123992919922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0106544494629</t>
   </si>
   <si>
     <t xml:space="preserve">41.9307403564453</t>
@@ -146,7 +146,7 @@
     <t xml:space="preserve">43.0920104980469</t>
   </si>
   <si>
-    <t xml:space="preserve">42.475643157959</t>
+    <t xml:space="preserve">42.4756393432617</t>
   </si>
   <si>
     <t xml:space="preserve">43.1366729736328</t>
@@ -155,16 +155,16 @@
     <t xml:space="preserve">43.7619743347168</t>
   </si>
   <si>
-    <t xml:space="preserve">43.4493217468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.7798385620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1009483337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3416557312012</t>
+    <t xml:space="preserve">43.4493255615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.7798347473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1009407043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3416519165039</t>
   </si>
   <si>
     <t xml:space="preserve">43.1902694702148</t>
@@ -173,37 +173,37 @@
     <t xml:space="preserve">43.2528038024902</t>
   </si>
   <si>
-    <t xml:space="preserve">43.306396484375</t>
+    <t xml:space="preserve">43.3064002990723</t>
   </si>
   <si>
     <t xml:space="preserve">41.2786407470703</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8677291870117</t>
+    <t xml:space="preserve">40.8677368164062</t>
   </si>
   <si>
     <t xml:space="preserve">40.5193519592285</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6895484924316</t>
+    <t xml:space="preserve">41.6895523071289</t>
   </si>
   <si>
     <t xml:space="preserve">41.0910568237305</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6712074279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1263046264648</t>
+    <t xml:space="preserve">40.6712112426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1263084411621</t>
   </si>
   <si>
     <t xml:space="preserve">40.6265449523926</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8052062988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3496360778809</t>
+    <t xml:space="preserve">40.8052024841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3496246337891</t>
   </si>
   <si>
     <t xml:space="preserve">40.6444129943848</t>
@@ -212,7 +212,7 @@
     <t xml:space="preserve">40.9838600158691</t>
   </si>
   <si>
-    <t xml:space="preserve">44.664192199707</t>
+    <t xml:space="preserve">44.6641998291016</t>
   </si>
   <si>
     <t xml:space="preserve">45.334156036377</t>
@@ -221,43 +221,43 @@
     <t xml:space="preserve">45.8701248168945</t>
   </si>
   <si>
-    <t xml:space="preserve">46.450756072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.9594573974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.2721061706543</t>
+    <t xml:space="preserve">46.4507598876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.9594535827637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.2720985412598</t>
   </si>
   <si>
     <t xml:space="preserve">47.4333686828613</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4954223632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.0041122436523</t>
+    <t xml:space="preserve">46.4954261779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.0041160583496</t>
   </si>
   <si>
     <t xml:space="preserve">45.7807960510254</t>
   </si>
   <si>
-    <t xml:space="preserve">45.468147277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.512809753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.914794921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.3788146972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2894897460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.8254547119141</t>
+    <t xml:space="preserve">45.4681510925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.5128021240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.9147872924805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.3788223266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2894859313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.8254623413086</t>
   </si>
   <si>
     <t xml:space="preserve">45.5574760437012</t>
@@ -266,34 +266,34 @@
     <t xml:space="preserve">45.4234809875488</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3614311218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.2274436950684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.4060974121094</t>
+    <t xml:space="preserve">46.3614273071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.2274322509766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.4060935974121</t>
   </si>
   <si>
     <t xml:space="preserve">46.8973999023438</t>
   </si>
   <si>
-    <t xml:space="preserve">46.7634048461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8527374267578</t>
+    <t xml:space="preserve">46.7634086608887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8527336120605</t>
   </si>
   <si>
     <t xml:space="preserve">47.2100486755371</t>
   </si>
   <si>
-    <t xml:space="preserve">46.6740798950195</t>
+    <t xml:space="preserve">46.6740760803223</t>
   </si>
   <si>
     <t xml:space="preserve">46.5847549438477</t>
   </si>
   <si>
-    <t xml:space="preserve">48.0285720825195</t>
+    <t xml:space="preserve">48.0285797119141</t>
   </si>
   <si>
     <t xml:space="preserve">48.119026184082</t>
@@ -302,16 +302,16 @@
     <t xml:space="preserve">47.7120056152344</t>
   </si>
   <si>
-    <t xml:space="preserve">48.5260467529297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7973976135254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.7471160888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.2044219970703</t>
+    <t xml:space="preserve">48.5260429382324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.7973899841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.7471122741699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.204418182373</t>
   </si>
   <si>
     <t xml:space="preserve">50.1993598937988</t>
@@ -320,94 +320,94 @@
     <t xml:space="preserve">50.2898101806641</t>
   </si>
   <si>
-    <t xml:space="preserve">50.8777313232422</t>
+    <t xml:space="preserve">50.8777351379395</t>
   </si>
   <si>
     <t xml:space="preserve">49.7018928527832</t>
   </si>
   <si>
-    <t xml:space="preserve">50.6063842773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.7923316955566</t>
+    <t xml:space="preserve">50.6063804626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.7923393249512</t>
   </si>
   <si>
     <t xml:space="preserve">50.335033416748</t>
   </si>
   <si>
-    <t xml:space="preserve">49.6114349365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.1642532348633</t>
+    <t xml:space="preserve">49.6114387512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.164249420166</t>
   </si>
   <si>
     <t xml:space="preserve">48.3451499938965</t>
   </si>
   <si>
-    <t xml:space="preserve">47.2145309448242</t>
+    <t xml:space="preserve">47.2145347595215</t>
   </si>
   <si>
     <t xml:space="preserve">47.5311012268066</t>
   </si>
   <si>
-    <t xml:space="preserve">48.7069473266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.9732360839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.7622833251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.5864524841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.6266136169434</t>
+    <t xml:space="preserve">48.7069435119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.9732398986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.7622871398926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.5864448547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.6266098022461</t>
   </si>
   <si>
     <t xml:space="preserve">49.5209922790527</t>
   </si>
   <si>
-    <t xml:space="preserve">50.3802604675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.0586242675781</t>
+    <t xml:space="preserve">50.380256652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.0586280822754</t>
   </si>
   <si>
     <t xml:space="preserve">48.7521705627441</t>
   </si>
   <si>
-    <t xml:space="preserve">49.5662155151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.4707069396973</t>
+    <t xml:space="preserve">49.566219329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.470703125</t>
   </si>
   <si>
     <t xml:space="preserve">49.656665802002</t>
   </si>
   <si>
-    <t xml:space="preserve">51.2395324707031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.872673034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.9179000854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.6013259887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.5108757019043</t>
+    <t xml:space="preserve">51.2395286560059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.8726692199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.9178924560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.601318359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.5108680725098</t>
   </si>
   <si>
     <t xml:space="preserve">52.2344665527344</t>
   </si>
   <si>
-    <t xml:space="preserve">52.4605941772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.646541595459</t>
+    <t xml:space="preserve">52.4605903625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.6465454101562</t>
   </si>
   <si>
     <t xml:space="preserve">51.4204254150391</t>
@@ -416,85 +416,85 @@
     <t xml:space="preserve">50.9229545593262</t>
   </si>
   <si>
-    <t xml:space="preserve">50.6968307495117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.515926361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.8325042724609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.2796897888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.2695770263672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.7721061706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.8575019836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.0383949279785</t>
+    <t xml:space="preserve">50.696834564209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.5159301757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.8325119018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.2796936035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.2695732116699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.7721099853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.857494354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.0383911132812</t>
   </si>
   <si>
     <t xml:space="preserve">56.0785636901855</t>
   </si>
   <si>
-    <t xml:space="preserve">54.8122749328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.7319374084473</t>
+    <t xml:space="preserve">54.8122673034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.7319412231445</t>
   </si>
   <si>
     <t xml:space="preserve">52.3249168395996</t>
   </si>
   <si>
-    <t xml:space="preserve">51.3299789428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0535697937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.2847557067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.9128341674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.4153709411621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0987968444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0083465576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.5510368347168</t>
+    <t xml:space="preserve">51.3299751281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0535659790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.2847518920898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.9128379821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.4153671264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0987930297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0083503723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.5510444641113</t>
   </si>
   <si>
     <t xml:space="preserve">51.7369995117188</t>
   </si>
   <si>
-    <t xml:space="preserve">51.1038513183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.1089096069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.9280128479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.6414947509766</t>
+    <t xml:space="preserve">51.1038551330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.1089134216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.9280090332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.6414909362793</t>
   </si>
   <si>
     <t xml:space="preserve">53.1841850280762</t>
   </si>
   <si>
-    <t xml:space="preserve">53.3650817871094</t>
+    <t xml:space="preserve">53.3650894165039</t>
   </si>
   <si>
     <t xml:space="preserve">52.1892433166504</t>
@@ -506,187 +506,190 @@
     <t xml:space="preserve">53.2746391296387</t>
   </si>
   <si>
-    <t xml:space="preserve">52.958065032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.8625602722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.3701400756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.8274421691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.3751983642578</t>
+    <t xml:space="preserve">52.9580612182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.8625564575195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.3701438903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.8274459838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.3752059936523</t>
   </si>
   <si>
     <t xml:space="preserve">50.7872848510742</t>
   </si>
   <si>
-    <t xml:space="preserve">51.5561027526855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.651611328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.3400955200195</t>
+    <t xml:space="preserve">51.5560989379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.6515998840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.340087890625</t>
   </si>
   <si>
     <t xml:space="preserve">48.2546997070312</t>
   </si>
   <si>
-    <t xml:space="preserve">48.4356002807617</t>
+    <t xml:space="preserve">48.4355964660645</t>
   </si>
   <si>
     <t xml:space="preserve">45.9030227661133</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3100395202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.1291427612305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.9884147644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.2597541809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.3552665710449</t>
+    <t xml:space="preserve">46.3100357055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.1291389465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.9884071350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.2597503662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8527297973633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.3552627563477</t>
   </si>
   <si>
     <t xml:space="preserve">46.7170639038086</t>
   </si>
   <si>
-    <t xml:space="preserve">47.1693153381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.033634185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.5813827514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.0386924743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.2648162841797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.1240844726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8979530334473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.8476753234863</t>
+    <t xml:space="preserve">47.1693077087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.0336418151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.5813903808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.0386962890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.2648124694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.1240882873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8979606628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.8476829528809</t>
   </si>
   <si>
     <t xml:space="preserve">48.0738067626953</t>
   </si>
   <si>
-    <t xml:space="preserve">49.8375549316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.0134048461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.822395324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.1490745544434</t>
+    <t xml:space="preserve">49.8375663757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.0134086608887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.8223915100098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.1490783691406</t>
   </si>
   <si>
     <t xml:space="preserve">49.4757614135742</t>
   </si>
   <si>
-    <t xml:space="preserve">50.2445869445801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.465648651123</t>
+    <t xml:space="preserve">50.2445831298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.4656562805176</t>
   </si>
   <si>
     <t xml:space="preserve">51.7822189331055</t>
   </si>
   <si>
-    <t xml:space="preserve">52.8676109313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.1389694213867</t>
+    <t xml:space="preserve">52.8676147460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.1389617919922</t>
   </si>
   <si>
     <t xml:space="preserve">54.0434532165527</t>
   </si>
   <si>
-    <t xml:space="preserve">54.0886764526367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.1338996887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.3600234985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.5912055969238</t>
+    <t xml:space="preserve">54.0886840820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.1339073181152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.3600273132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.5912132263184</t>
   </si>
   <si>
     <t xml:space="preserve">53.9530067443848</t>
   </si>
   <si>
-    <t xml:space="preserve">54.5409278869629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.4906463623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.3046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.0333442687988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.2142372131348</t>
+    <t xml:space="preserve">54.5409240722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.4906425476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.3046836853027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.0333366394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.214241027832</t>
   </si>
   <si>
     <t xml:space="preserve">56.9830589294434</t>
   </si>
   <si>
-    <t xml:space="preserve">56.8473739624023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.3499145507812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.5257530212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.2544021606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.7066497802734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.7970962524414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.1589012145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.0684471130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.7920455932617</t>
+    <t xml:space="preserve">56.8473815917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.3499183654785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.525749206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.2544059753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.7066459655762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.7971000671387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.1588973999023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.0684432983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.7920379638672</t>
   </si>
   <si>
     <t xml:space="preserve">59.651309967041</t>
   </si>
   <si>
-    <t xml:space="preserve">59.7869834899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.5156326293945</t>
+    <t xml:space="preserve">59.7869911193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.5156440734863</t>
   </si>
   <si>
     <t xml:space="preserve">58.8372688293457</t>
@@ -698,22 +701,22 @@
     <t xml:space="preserve">58.1136703491211</t>
   </si>
   <si>
-    <t xml:space="preserve">59.3347434997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.7819213867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.696533203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.0583305358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.0532722473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.2291221618652</t>
+    <t xml:space="preserve">59.3347473144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.7819175720215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.6965293884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.0583343505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.053279876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.2291259765625</t>
   </si>
   <si>
     <t xml:space="preserve">64.2190017700195</t>
@@ -722,16 +725,16 @@
     <t xml:space="preserve">62.9527130126953</t>
   </si>
   <si>
-    <t xml:space="preserve">62.4100112915039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.6813735961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.6310768127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.4954032897949</t>
+    <t xml:space="preserve">62.4100151062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.6813507080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.6310844421387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.4954109191895</t>
   </si>
   <si>
     <t xml:space="preserve">63.1788330078125</t>
@@ -746,40 +749,40 @@
     <t xml:space="preserve">61.6411972045898</t>
   </si>
   <si>
-    <t xml:space="preserve">60.9628295898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.7316589355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.4638290405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.7383842468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.8756637573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.1044769287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.3332786560059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.2807884216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.2484970092773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.5688323974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.2942581176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.3925323486328</t>
+    <t xml:space="preserve">60.9628257751465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.7316398620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.4638175964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.7383918762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.8756713867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.1044692993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.3332824707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.2807846069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.2485046386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.5688247680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.2942657470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.3925247192383</t>
   </si>
   <si>
     <t xml:space="preserve">64.88916015625</t>
@@ -791,13 +794,13 @@
     <t xml:space="preserve">66.353515625</t>
   </si>
   <si>
-    <t xml:space="preserve">63.9739265441895</t>
+    <t xml:space="preserve">63.9739418029785</t>
   </si>
   <si>
     <t xml:space="preserve">63.8366470336914</t>
   </si>
   <si>
-    <t xml:space="preserve">65.3467712402344</t>
+    <t xml:space="preserve">65.3467636108398</t>
   </si>
   <si>
     <t xml:space="preserve">64.7061004638672</t>
@@ -812,49 +815,49 @@
     <t xml:space="preserve">64.9806823730469</t>
   </si>
   <si>
-    <t xml:space="preserve">66.5365447998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.8689346313477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.4045791625977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.5486106872559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.9537124633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.5943717956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.3197975158691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.4503402709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.4113082885742</t>
+    <t xml:space="preserve">66.5365524291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.8689270019531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.4045715332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.5486030578613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.9537010192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.5943641662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.3198013305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.4503326416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.4113159179688</t>
   </si>
   <si>
     <t xml:space="preserve">62.2350196838379</t>
   </si>
   <si>
-    <t xml:space="preserve">63.1959991455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.0196838378906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.3857727050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.202751159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.9281730651855</t>
+    <t xml:space="preserve">63.1959953308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.0196914672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.3857803344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.2027435302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.928165435791</t>
   </si>
   <si>
     <t xml:space="preserve">67.085693359375</t>
@@ -863,40 +866,40 @@
     <t xml:space="preserve">67.6348190307617</t>
   </si>
   <si>
-    <t xml:space="preserve">66.8568801879883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.3602523803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.1772003173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.8111114501953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.7196044921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.4450302124023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.8501281738281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.0331878662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.5755767822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.6213302612305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.4840469360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.3010101318359</t>
+    <t xml:space="preserve">66.8568878173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.3602447509766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.1772079467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.8111190795898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.7195892333984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.4450378417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.8501358032227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.0331802368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.5755844116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.6213226318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.4840545654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.3010025024414</t>
   </si>
   <si>
     <t xml:space="preserve">64.7976379394531</t>
@@ -908,10 +911,10 @@
     <t xml:space="preserve">66.2619934082031</t>
   </si>
   <si>
-    <t xml:space="preserve">66.307746887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.1314544677734</t>
+    <t xml:space="preserve">66.3077392578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.1314392089844</t>
   </si>
   <si>
     <t xml:space="preserve">67.451774597168</t>
@@ -923,25 +926,25 @@
     <t xml:space="preserve">67.7263488769531</t>
   </si>
   <si>
-    <t xml:space="preserve">66.9026336669922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.2229614257812</t>
+    <t xml:space="preserve">66.9026489257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.2229766845703</t>
   </si>
   <si>
     <t xml:space="preserve">67.9551391601562</t>
   </si>
   <si>
-    <t xml:space="preserve">67.5432891845703</t>
+    <t xml:space="preserve">67.5433044433594</t>
   </si>
   <si>
     <t xml:space="preserve">68.2754745483398</t>
   </si>
   <si>
-    <t xml:space="preserve">69.4194946289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.0076522827148</t>
+    <t xml:space="preserve">69.4195098876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.0076599121094</t>
   </si>
   <si>
     <t xml:space="preserve">68.7330856323242</t>
@@ -950,10 +953,10 @@
     <t xml:space="preserve">68.8246078491211</t>
   </si>
   <si>
-    <t xml:space="preserve">69.0534133911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.0143890380859</t>
+    <t xml:space="preserve">69.0534057617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.0143966674805</t>
   </si>
   <si>
     <t xml:space="preserve">71.2041854858398</t>
@@ -971,19 +974,19 @@
     <t xml:space="preserve">72.4397277832031</t>
   </si>
   <si>
-    <t xml:space="preserve">71.7533187866211</t>
+    <t xml:space="preserve">71.7533111572266</t>
   </si>
   <si>
     <t xml:space="preserve">72.0736389160156</t>
   </si>
   <si>
-    <t xml:space="preserve">73.7210464477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.799072265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.1584167480469</t>
+    <t xml:space="preserve">73.7210311889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.7990875244141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.1584243774414</t>
   </si>
   <si>
     <t xml:space="preserve">71.2499389648438</t>
@@ -992,79 +995,79 @@
     <t xml:space="preserve">71.4329833984375</t>
   </si>
   <si>
-    <t xml:space="preserve">71.6617965698242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.7075500488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.3872222900391</t>
+    <t xml:space="preserve">71.6618041992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.7075424194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.3872299194336</t>
   </si>
   <si>
     <t xml:space="preserve">71.4787445068359</t>
   </si>
   <si>
-    <t xml:space="preserve">72.2566909790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.3414459228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.4854965209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.8906021118164</t>
+    <t xml:space="preserve">72.2566833496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.3414535522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.4854888916016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.8906173706055</t>
   </si>
   <si>
     <t xml:space="preserve">71.6160354614258</t>
   </si>
   <si>
-    <t xml:space="preserve">65.9416732788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.3992767333984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.3212356567383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.6873245239258</t>
+    <t xml:space="preserve">65.9416656494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.3992691040039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.3212432861328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.6873321533203</t>
   </si>
   <si>
     <t xml:space="preserve">70.1516723632812</t>
   </si>
   <si>
-    <t xml:space="preserve">70.9296188354492</t>
+    <t xml:space="preserve">70.9296112060547</t>
   </si>
   <si>
     <t xml:space="preserve">70.6550445556641</t>
   </si>
   <si>
-    <t xml:space="preserve">69.8770980834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.1839599609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.236457824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.9228897094727</t>
+    <t xml:space="preserve">69.8771209716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.183952331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.2364654541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.9228744506836</t>
   </si>
   <si>
     <t xml:space="preserve">70.0601577758789</t>
   </si>
   <si>
-    <t xml:space="preserve">70.8380966186523</t>
+    <t xml:space="preserve">70.8380889892578</t>
   </si>
   <si>
     <t xml:space="preserve">71.06689453125</t>
   </si>
   <si>
-    <t xml:space="preserve">72.8058166503906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.5379791259766</t>
+    <t xml:space="preserve">72.8058090209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.5379943847656</t>
   </si>
   <si>
     <t xml:space="preserve">70.7923278808594</t>
@@ -1073,109 +1076,106 @@
     <t xml:space="preserve">69.3737411499023</t>
   </si>
   <si>
-    <t xml:space="preserve">69.2822189331055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.13818359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.5042877197266</t>
+    <t xml:space="preserve">69.2822113037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.1381912231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.504280090332</t>
   </si>
   <si>
     <t xml:space="preserve">70.2889633178711</t>
   </si>
   <si>
-    <t xml:space="preserve">73.263427734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.7143020629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.53125</t>
+    <t xml:space="preserve">73.2634353637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.7142944335938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.5312576293945</t>
   </si>
   <si>
     <t xml:space="preserve">72.8515853881836</t>
   </si>
   <si>
-    <t xml:space="preserve">72.9430923461914</t>
+    <t xml:space="preserve">72.9430999755859</t>
   </si>
   <si>
     <t xml:space="preserve">72.6227722167969</t>
   </si>
   <si>
-    <t xml:space="preserve">72.3939666748047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.3482055664062</t>
+    <t xml:space="preserve">72.3939590454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.3482131958008</t>
   </si>
   <si>
     <t xml:space="preserve">72.577018737793</t>
   </si>
   <si>
-    <t xml:space="preserve">72.165168762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.7008056640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.6685256958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.9618911743164</t>
+    <t xml:space="preserve">72.1651611328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.7008209228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.6685485839844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.9618988037109</t>
   </si>
   <si>
     <t xml:space="preserve">67.8178558349609</t>
   </si>
   <si>
-    <t xml:space="preserve">63.6536064147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.1637268066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.0654602050781</t>
+    <t xml:space="preserve">63.6536140441895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.1637191772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.0654525756836</t>
   </si>
   <si>
     <t xml:space="preserve">64.4315490722656</t>
   </si>
   <si>
-    <t xml:space="preserve">63.8824157714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.7451324462891</t>
+    <t xml:space="preserve">63.8824119567871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.7451248168945</t>
   </si>
   <si>
     <t xml:space="preserve">63.5620880126953</t>
   </si>
   <si>
-    <t xml:space="preserve">62.6926307678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.7316436767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.7706718444824</t>
+    <t xml:space="preserve">62.6926383972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.7706565856934</t>
   </si>
   <si>
     <t xml:space="preserve">60.49609375</t>
   </si>
   <si>
-    <t xml:space="preserve">61.6401290893555</t>
+    <t xml:space="preserve">61.6401214599609</t>
   </si>
   <si>
     <t xml:space="preserve">62.6011123657227</t>
   </si>
   <si>
-    <t xml:space="preserve">64.6145782470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.4127578735352</t>
+    <t xml:space="preserve">64.6145858764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.4127655029297</t>
   </si>
   <si>
     <t xml:space="preserve">67.5890502929688</t>
   </si>
   <si>
-    <t xml:space="preserve">66.0789413452148</t>
+    <t xml:space="preserve">66.0789260864258</t>
   </si>
   <si>
     <t xml:space="preserve">65.7128677368164</t>
@@ -1184,10 +1184,10 @@
     <t xml:space="preserve">66.4907913208008</t>
   </si>
   <si>
-    <t xml:space="preserve">66.1247024536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.2687301635742</t>
+    <t xml:space="preserve">66.1247177124023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.2687225341797</t>
   </si>
   <si>
     <t xml:space="preserve">69.1449356079102</t>
@@ -1196,16 +1196,16 @@
     <t xml:space="preserve">71.021125793457</t>
   </si>
   <si>
-    <t xml:space="preserve">69.7398147583008</t>
+    <t xml:space="preserve">69.7398300170898</t>
   </si>
   <si>
     <t xml:space="preserve">70.7465667724609</t>
   </si>
   <si>
-    <t xml:space="preserve">71.5245132446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.0278701782227</t>
+    <t xml:space="preserve">71.5245056152344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.0278778076172</t>
   </si>
   <si>
     <t xml:space="preserve">71.9821243286133</t>
@@ -1220,25 +1220,25 @@
     <t xml:space="preserve">73.4007110595703</t>
   </si>
   <si>
-    <t xml:space="preserve">74.4074630737305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.1328811645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.3159332275391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.6430053710938</t>
+    <t xml:space="preserve">74.4074554443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.1328887939453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.3159255981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.6430130004883</t>
   </si>
   <si>
     <t xml:space="preserve">74.4989624023438</t>
   </si>
   <si>
-    <t xml:space="preserve">75.1463928222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.74755859375</t>
+    <t xml:space="preserve">75.1463851928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.7475662231445</t>
   </si>
   <si>
     <t xml:space="preserve">74.6376953125</t>
@@ -1250,37 +1250,37 @@
     <t xml:space="preserve">77.8285369873047</t>
   </si>
   <si>
-    <t xml:space="preserve">76.7649230957031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.1001510620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.2447280883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.3949813842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.0771179199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.926872253418</t>
+    <t xml:space="preserve">76.7649307250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.1001434326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.2447357177734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.3949737548828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.0771255493164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.9268798828125</t>
   </si>
   <si>
     <t xml:space="preserve">81.6205444335938</t>
   </si>
   <si>
-    <t xml:space="preserve">81.3893203735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.7592697143555</t>
+    <t xml:space="preserve">81.3893280029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.7592620849609</t>
   </si>
   <si>
     <t xml:space="preserve">81.2968368530273</t>
   </si>
   <si>
-    <t xml:space="preserve">82.2679595947266</t>
+    <t xml:space="preserve">82.267951965332</t>
   </si>
   <si>
     <t xml:space="preserve">84.1639556884766</t>
@@ -1292,58 +1292,58 @@
     <t xml:space="preserve">86.3374252319336</t>
   </si>
   <si>
-    <t xml:space="preserve">86.0137176513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.3663024902344</t>
+    <t xml:space="preserve">86.0137252807617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.3662948608398</t>
   </si>
   <si>
     <t xml:space="preserve">84.1177139282227</t>
   </si>
   <si>
-    <t xml:space="preserve">82.7766265869141</t>
+    <t xml:space="preserve">82.7766418457031</t>
   </si>
   <si>
     <t xml:space="preserve">82.4529342651367</t>
   </si>
   <si>
-    <t xml:space="preserve">88.7883529663086</t>
+    <t xml:space="preserve">88.7883453369141</t>
   </si>
   <si>
     <t xml:space="preserve">87.9097213745117</t>
   </si>
   <si>
-    <t xml:space="preserve">88.5108795166016</t>
+    <t xml:space="preserve">88.5108871459961</t>
   </si>
   <si>
     <t xml:space="preserve">89.9906997680664</t>
   </si>
   <si>
-    <t xml:space="preserve">89.1120681762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.3606491088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.0658187866211</t>
+    <t xml:space="preserve">89.112060546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.3606414794922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.0658264160156</t>
   </si>
   <si>
     <t xml:space="preserve">90.175666809082</t>
   </si>
   <si>
-    <t xml:space="preserve">89.1583099365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.3721694946289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.6033782958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.6958618164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.9270858764648</t>
+    <t xml:space="preserve">89.1583023071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.3721542358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.603385925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.6958694458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.9270782470703</t>
   </si>
   <si>
     <t xml:space="preserve">90.8230743408203</t>
@@ -1352,7 +1352,7 @@
     <t xml:space="preserve">90.3143997192383</t>
   </si>
   <si>
-    <t xml:space="preserve">90.5456237792969</t>
+    <t xml:space="preserve">90.5456161499023</t>
   </si>
   <si>
     <t xml:space="preserve">89.2507934570312</t>
@@ -1364,16 +1364,16 @@
     <t xml:space="preserve">89.4820098876953</t>
   </si>
   <si>
-    <t xml:space="preserve">87.4010391235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.9385986328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.2623062133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.5050354003906</t>
+    <t xml:space="preserve">87.4010314941406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.938591003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.2622909545898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.5050277709961</t>
   </si>
   <si>
     <t xml:space="preserve">85.5512847900391</t>
@@ -1382,79 +1382,79 @@
     <t xml:space="preserve">84.9038619995117</t>
   </si>
   <si>
-    <t xml:space="preserve">78.6609268188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.7881393432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.0829772949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.2505798339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.481803894043</t>
+    <t xml:space="preserve">78.6609344482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.7881469726562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.0829849243164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.2505950927734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.4818115234375</t>
   </si>
   <si>
     <t xml:space="preserve">80.371955871582</t>
   </si>
   <si>
-    <t xml:space="preserve">81.5280532836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.0482482910156</t>
+    <t xml:space="preserve">81.5280609130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.0482406616211</t>
   </si>
   <si>
     <t xml:space="preserve">80.3257064819336</t>
   </si>
   <si>
-    <t xml:space="preserve">86.1986846923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.7073822021484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.6263885498047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.9500961303711</t>
+    <t xml:space="preserve">86.1986923217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.7073669433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.6263961791992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.9501037597656</t>
   </si>
   <si>
     <t xml:space="preserve">84.7188873291016</t>
   </si>
   <si>
-    <t xml:space="preserve">84.3026809692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.8113784790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.9212188720703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.7536239624023</t>
+    <t xml:space="preserve">84.3026962280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.8113708496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.9212265014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.7536163330078</t>
   </si>
   <si>
     <t xml:space="preserve">85.4125518798828</t>
   </si>
   <si>
-    <t xml:space="preserve">82.6841430664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.9616165161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.0367279052734</t>
+    <t xml:space="preserve">82.6841506958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.9616088867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.036735534668</t>
   </si>
   <si>
     <t xml:space="preserve">82.3142013549805</t>
   </si>
   <si>
-    <t xml:space="preserve">83.8864898681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.6496124267578</t>
+    <t xml:space="preserve">83.8864822387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.6496047973633</t>
   </si>
   <si>
     <t xml:space="preserve">89.8982086181641</t>
@@ -1463,43 +1463,43 @@
     <t xml:space="preserve">85.3200531005859</t>
   </si>
   <si>
-    <t xml:space="preserve">86.106201171875</t>
+    <t xml:space="preserve">86.1062088012695</t>
   </si>
   <si>
     <t xml:space="preserve">85.9674606323242</t>
   </si>
   <si>
-    <t xml:space="preserve">83.7940063476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.4414215087891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.4991683959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.2794647216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.1175155639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.3776092529297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.2677612304688</t>
+    <t xml:space="preserve">83.7939987182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.4414138793945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.4991607666016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.2794723510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.1175231933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.3776168823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.2677536010742</t>
   </si>
   <si>
     <t xml:space="preserve">73.7128219604492</t>
   </si>
   <si>
-    <t xml:space="preserve">75.7938003540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.5278549194336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.8515625</t>
+    <t xml:space="preserve">75.7938079833984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.5278472900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.8515548706055</t>
   </si>
   <si>
     <t xml:space="preserve">75.470100402832</t>
@@ -1508,70 +1508,70 @@
     <t xml:space="preserve">75.8400573730469</t>
   </si>
   <si>
-    <t xml:space="preserve">76.2099990844727</t>
+    <t xml:space="preserve">76.2100067138672</t>
   </si>
   <si>
     <t xml:space="preserve">77.4123382568359</t>
   </si>
   <si>
-    <t xml:space="preserve">73.7590789794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.4989776611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.7764434814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.2041397094727</t>
+    <t xml:space="preserve">73.7590713500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.4989700317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.7764358520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.2041473388672</t>
   </si>
   <si>
     <t xml:space="preserve">74.915168762207</t>
   </si>
   <si>
-    <t xml:space="preserve">76.025016784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.5048217773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.9731369018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.302490234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.0886383056641</t>
+    <t xml:space="preserve">76.0250244140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.5048294067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.9731216430664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.3024978637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.0886306762695</t>
   </si>
   <si>
     <t xml:space="preserve">73.9902877807617</t>
   </si>
   <si>
-    <t xml:space="preserve">71.4468688964844</t>
+    <t xml:space="preserve">71.4468841552734</t>
   </si>
   <si>
     <t xml:space="preserve">71.5856094360352</t>
   </si>
   <si>
-    <t xml:space="preserve">72.0018081665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.8804473876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.0365371704102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.2503967285156</t>
+    <t xml:space="preserve">72.0018005371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.8804321289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.0365447998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.2503890991211</t>
   </si>
   <si>
     <t xml:space="preserve">71.95556640625</t>
   </si>
   <si>
-    <t xml:space="preserve">71.7705841064453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.4583892822266</t>
+    <t xml:space="preserve">71.7705688476562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.458381652832</t>
   </si>
   <si>
     <t xml:space="preserve">69.3658981323242</t>
@@ -1580,43 +1580,43 @@
     <t xml:space="preserve">69.7358551025391</t>
   </si>
   <si>
-    <t xml:space="preserve">72.2330322265625</t>
+    <t xml:space="preserve">72.2330169677734</t>
   </si>
   <si>
     <t xml:space="preserve">67.6548767089844</t>
   </si>
   <si>
-    <t xml:space="preserve">68.2560501098633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.7936172485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.4699020385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.441032409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.7011260986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.3600387573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.833984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.2501907348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.1114654541016</t>
+    <t xml:space="preserve">68.2560577392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.7936096191406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.4698944091797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.4410247802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.7011108398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.3600463867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.8339920043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.2501983642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.1114501953125</t>
   </si>
   <si>
     <t xml:space="preserve">65.6201400756836</t>
   </si>
   <si>
-    <t xml:space="preserve">67.0074615478516</t>
+    <t xml:space="preserve">67.007453918457</t>
   </si>
   <si>
     <t xml:space="preserve">65.7744827270508</t>
@@ -1625,13 +1625,13 @@
     <t xml:space="preserve">67.0548782348633</t>
   </si>
   <si>
-    <t xml:space="preserve">67.5291061401367</t>
+    <t xml:space="preserve">67.5290985107422</t>
   </si>
   <si>
     <t xml:space="preserve">67.1497344970703</t>
   </si>
   <si>
-    <t xml:space="preserve">70.8960647583008</t>
+    <t xml:space="preserve">70.8960723876953</t>
   </si>
   <si>
     <t xml:space="preserve">70.3744201660156</t>
@@ -1649,49 +1649,49 @@
     <t xml:space="preserve">71.0383377075195</t>
   </si>
   <si>
-    <t xml:space="preserve">70.6589660644531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.7970962524414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.5042877197266</t>
+    <t xml:space="preserve">70.6589584350586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.7970886230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.504280090332</t>
   </si>
   <si>
     <t xml:space="preserve">73.9785079956055</t>
   </si>
   <si>
-    <t xml:space="preserve">76.2073440551758</t>
+    <t xml:space="preserve">76.2073516845703</t>
   </si>
   <si>
     <t xml:space="preserve">76.0650787353516</t>
   </si>
   <si>
-    <t xml:space="preserve">75.9228210449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.5434417724609</t>
+    <t xml:space="preserve">75.9228286743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.5434341430664</t>
   </si>
   <si>
     <t xml:space="preserve">76.0176696777344</t>
   </si>
   <si>
-    <t xml:space="preserve">76.254768371582</t>
+    <t xml:space="preserve">76.2547607421875</t>
   </si>
   <si>
     <t xml:space="preserve">75.6382827758789</t>
   </si>
   <si>
-    <t xml:space="preserve">77.53515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.1083755493164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.8279647827148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.8671188354492</t>
+    <t xml:space="preserve">77.5351638793945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.1083679199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.8279724121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.8671264648438</t>
   </si>
   <si>
     <t xml:space="preserve">77.9619674682617</t>
@@ -1700,7 +1700,7 @@
     <t xml:space="preserve">79.7165908813477</t>
   </si>
   <si>
-    <t xml:space="preserve">79.6217422485352</t>
+    <t xml:space="preserve">79.6217346191406</t>
   </si>
   <si>
     <t xml:space="preserve">80.7124481201172</t>
@@ -1721,31 +1721,31 @@
     <t xml:space="preserve">80.8072967529297</t>
   </si>
   <si>
-    <t xml:space="preserve">81.0443954467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.0485458374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.9021453857422</t>
+    <t xml:space="preserve">81.0444030761719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.0485382080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.9021377563477</t>
   </si>
   <si>
     <t xml:space="preserve">81.7083129882812</t>
   </si>
   <si>
-    <t xml:space="preserve">81.3289337158203</t>
+    <t xml:space="preserve">81.3289413452148</t>
   </si>
   <si>
     <t xml:space="preserve">81.8031539916992</t>
   </si>
   <si>
-    <t xml:space="preserve">83.0835647583008</t>
+    <t xml:space="preserve">83.0835571289062</t>
   </si>
   <si>
     <t xml:space="preserve">82.7516098022461</t>
   </si>
   <si>
-    <t xml:space="preserve">82.4196548461914</t>
+    <t xml:space="preserve">82.4196472167969</t>
   </si>
   <si>
     <t xml:space="preserve">82.3722229003906</t>
@@ -1754,7 +1754,7 @@
     <t xml:space="preserve">82.2773818969727</t>
   </si>
   <si>
-    <t xml:space="preserve">83.2732467651367</t>
+    <t xml:space="preserve">83.2732543945312</t>
   </si>
   <si>
     <t xml:space="preserve">82.1825332641602</t>
@@ -1763,34 +1763,34 @@
     <t xml:space="preserve">81.3763656616211</t>
   </si>
   <si>
-    <t xml:space="preserve">80.9969787597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.3206634521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.5577697753906</t>
+    <t xml:space="preserve">80.9969863891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.320671081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.5577774047852</t>
   </si>
   <si>
     <t xml:space="preserve">84.0794296264648</t>
   </si>
   <si>
-    <t xml:space="preserve">84.316535949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.9845809936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.7433319091797</t>
+    <t xml:space="preserve">84.3165283203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.9845886230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.7433242797852</t>
   </si>
   <si>
     <t xml:space="preserve">84.0320053100586</t>
   </si>
   <si>
-    <t xml:space="preserve">85.1227035522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.0752868652344</t>
+    <t xml:space="preserve">85.1227111816406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.0752792358398</t>
   </si>
   <si>
     <t xml:space="preserve">85.881462097168</t>
@@ -1799,58 +1799,58 @@
     <t xml:space="preserve">86.877326965332</t>
   </si>
   <si>
-    <t xml:space="preserve">87.9680404663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.256706237793</t>
+    <t xml:space="preserve">87.9680328369141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.2566986083984</t>
   </si>
   <si>
     <t xml:space="preserve">86.9247589111328</t>
   </si>
   <si>
-    <t xml:space="preserve">86.782470703125</t>
+    <t xml:space="preserve">86.7824783325195</t>
   </si>
   <si>
     <t xml:space="preserve">86.3082580566406</t>
   </si>
   <si>
-    <t xml:space="preserve">86.2134094238281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.7350616455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.130989074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.7598724365234</t>
+    <t xml:space="preserve">86.2134170532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.7350540161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.1309814453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.7598648071289</t>
   </si>
   <si>
     <t xml:space="preserve">81.2815170288086</t>
   </si>
   <si>
-    <t xml:space="preserve">82.6093292236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.8938598632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.8855895996094</t>
+    <t xml:space="preserve">82.6093368530273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.8938751220703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.8855972290039</t>
   </si>
   <si>
     <t xml:space="preserve">85.2649688720703</t>
   </si>
   <si>
-    <t xml:space="preserve">85.3598251342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.4030990600586</t>
+    <t xml:space="preserve">85.3598175048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.4030914306641</t>
   </si>
   <si>
     <t xml:space="preserve">89.2958526611328</t>
   </si>
   <si>
-    <t xml:space="preserve">90.6236801147461</t>
+    <t xml:space="preserve">90.6236724853516</t>
   </si>
   <si>
     <t xml:space="preserve">92.4257049560547</t>
@@ -1859,7 +1859,7 @@
     <t xml:space="preserve">92.3782958984375</t>
   </si>
   <si>
-    <t xml:space="preserve">92.8569412231445</t>
+    <t xml:space="preserve">92.85693359375</t>
   </si>
   <si>
     <t xml:space="preserve">92.3304290771484</t>
@@ -1868,16 +1868,16 @@
     <t xml:space="preserve">93.335578918457</t>
   </si>
   <si>
-    <t xml:space="preserve">92.7133483886719</t>
+    <t xml:space="preserve">92.7133407592773</t>
   </si>
   <si>
     <t xml:space="preserve">91.9953765869141</t>
   </si>
   <si>
-    <t xml:space="preserve">91.7560653686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.3201217651367</t>
+    <t xml:space="preserve">91.7560577392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.3201141357422</t>
   </si>
   <si>
     <t xml:space="preserve">89.4585647583008</t>
@@ -1892,16 +1892,16 @@
     <t xml:space="preserve">91.2295532226562</t>
   </si>
   <si>
-    <t xml:space="preserve">92.5218887329102</t>
+    <t xml:space="preserve">92.5218963623047</t>
   </si>
   <si>
     <t xml:space="preserve">93.1441268920898</t>
   </si>
   <si>
-    <t xml:space="preserve">94.2928695678711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.7818145751953</t>
+    <t xml:space="preserve">94.2928771972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.7818069458008</t>
   </si>
   <si>
     <t xml:space="preserve">97.6433715820312</t>
@@ -1910,25 +1910,25 @@
     <t xml:space="preserve">95.0108337402344</t>
   </si>
   <si>
-    <t xml:space="preserve">98.3134765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.0793075561523</t>
+    <t xml:space="preserve">98.3134841918945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.0792999267578</t>
   </si>
   <si>
     <t xml:space="preserve">100.610961914062</t>
   </si>
   <si>
-    <t xml:space="preserve">102.621276855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.9408645629883</t>
+    <t xml:space="preserve">102.621269226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.9408721923828</t>
   </si>
   <si>
     <t xml:space="preserve">100.515243530273</t>
   </si>
   <si>
-    <t xml:space="preserve">98.1220245361328</t>
+    <t xml:space="preserve">98.1220169067383</t>
   </si>
   <si>
     <t xml:space="preserve">98.8878555297852</t>
@@ -1937,13 +1937,13 @@
     <t xml:space="preserve">97.1647338867188</t>
   </si>
   <si>
-    <t xml:space="preserve">97.5476379394531</t>
+    <t xml:space="preserve">97.5476455688477</t>
   </si>
   <si>
     <t xml:space="preserve">97.7391052246094</t>
   </si>
   <si>
-    <t xml:space="preserve">98.5049362182617</t>
+    <t xml:space="preserve">98.5049438476562</t>
   </si>
   <si>
     <t xml:space="preserve">98.2177505493164</t>
@@ -1955,7 +1955,7 @@
     <t xml:space="preserve">99.5579528808594</t>
   </si>
   <si>
-    <t xml:space="preserve">98.6006622314453</t>
+    <t xml:space="preserve">98.6006698608398</t>
   </si>
   <si>
     <t xml:space="preserve">99.4622192382812</t>
@@ -1964,10 +1964,10 @@
     <t xml:space="preserve">98.4092102050781</t>
   </si>
   <si>
-    <t xml:space="preserve">98.792121887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.4519348144531</t>
+    <t xml:space="preserve">98.7921142578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.4519271850586</t>
   </si>
   <si>
     <t xml:space="preserve">96.9732818603516</t>
@@ -1976,10 +1976,10 @@
     <t xml:space="preserve">97.0690078735352</t>
   </si>
   <si>
-    <t xml:space="preserve">96.6860809326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.0262908935547</t>
+    <t xml:space="preserve">96.6860885620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.0262985229492</t>
   </si>
   <si>
     <t xml:space="preserve">103.387107849121</t>
@@ -2003,13 +2003,13 @@
     <t xml:space="preserve">101.185340881348</t>
   </si>
   <si>
-    <t xml:space="preserve">99.653678894043</t>
+    <t xml:space="preserve">99.6536865234375</t>
   </si>
   <si>
     <t xml:space="preserve">101.472526550293</t>
   </si>
   <si>
-    <t xml:space="preserve">103.674285888672</t>
+    <t xml:space="preserve">103.674293518066</t>
   </si>
   <si>
     <t xml:space="preserve">103.482833862305</t>
@@ -2021,13 +2021,13 @@
     <t xml:space="preserve">104.344398498535</t>
   </si>
   <si>
-    <t xml:space="preserve">101.281074523926</t>
+    <t xml:space="preserve">101.28108215332</t>
   </si>
   <si>
     <t xml:space="preserve">102.429824829102</t>
   </si>
   <si>
-    <t xml:space="preserve">103.004188537598</t>
+    <t xml:space="preserve">103.004180908203</t>
   </si>
   <si>
     <t xml:space="preserve">105.014495849609</t>
@@ -2036,31 +2036,31 @@
     <t xml:space="preserve">104.823036193848</t>
   </si>
   <si>
-    <t xml:space="preserve">104.248672485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101.663993835449</t>
+    <t xml:space="preserve">104.248664855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101.663986206055</t>
   </si>
   <si>
     <t xml:space="preserve">99.8451461791992</t>
   </si>
   <si>
-    <t xml:space="preserve">97.9305648803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.3665084838867</t>
+    <t xml:space="preserve">97.9305572509766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.3665008544922</t>
   </si>
   <si>
     <t xml:space="preserve">100.323783874512</t>
   </si>
   <si>
-    <t xml:space="preserve">102.238357543945</t>
+    <t xml:space="preserve">102.238372802734</t>
   </si>
   <si>
     <t xml:space="preserve">101.568260192871</t>
   </si>
   <si>
-    <t xml:space="preserve">100.993881225586</t>
+    <t xml:space="preserve">100.99388885498</t>
   </si>
   <si>
     <t xml:space="preserve">102.142623901367</t>
@@ -2072,10 +2072,10 @@
     <t xml:space="preserve">95.6330795288086</t>
   </si>
   <si>
-    <t xml:space="preserve">95.9202575683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.0587005615234</t>
+    <t xml:space="preserve">95.9202651977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.058708190918</t>
   </si>
   <si>
     <t xml:space="preserve">95.2980270385742</t>
@@ -2087,16 +2087,16 @@
     <t xml:space="preserve">95.8245315551758</t>
   </si>
   <si>
-    <t xml:space="preserve">95.7287979125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.8090667724609</t>
+    <t xml:space="preserve">95.7288055419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92.8090744018555</t>
   </si>
   <si>
     <t xml:space="preserve">93.5270385742188</t>
   </si>
   <si>
-    <t xml:space="preserve">92.4740142822266</t>
+    <t xml:space="preserve">92.4740219116211</t>
   </si>
   <si>
     <t xml:space="preserve">93.4791717529297</t>
@@ -2111,19 +2111,19 @@
     <t xml:space="preserve">94.3407363891602</t>
   </si>
   <si>
-    <t xml:space="preserve">96.5903701782227</t>
+    <t xml:space="preserve">96.5903625488281</t>
   </si>
   <si>
     <t xml:space="preserve">96.015983581543</t>
   </si>
   <si>
-    <t xml:space="preserve">100.13232421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.1750411987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102.046905517578</t>
+    <t xml:space="preserve">100.132331848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.1750335693359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102.046897888184</t>
   </si>
   <si>
     <t xml:space="preserve">104.440124511719</t>
@@ -2135,22 +2135,22 @@
     <t xml:space="preserve">107.311988830566</t>
   </si>
   <si>
-    <t xml:space="preserve">109.609481811523</t>
+    <t xml:space="preserve">109.609474182129</t>
   </si>
   <si>
     <t xml:space="preserve">109.035110473633</t>
   </si>
   <si>
-    <t xml:space="preserve">110.471046447754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.013000488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.257484436035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.683113098145</t>
+    <t xml:space="preserve">110.471038818359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.013008117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.257476806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.68310546875</t>
   </si>
   <si>
     <t xml:space="preserve">114.970291137695</t>
@@ -2159,7 +2159,7 @@
     <t xml:space="preserve">116.119041442871</t>
   </si>
   <si>
-    <t xml:space="preserve">113.247177124023</t>
+    <t xml:space="preserve">113.247184753418</t>
   </si>
   <si>
     <t xml:space="preserve">116.406219482422</t>
@@ -2168,28 +2168,28 @@
     <t xml:space="preserve">117.459243774414</t>
   </si>
   <si>
-    <t xml:space="preserve">118.703712463379</t>
+    <t xml:space="preserve">118.703720092773</t>
   </si>
   <si>
     <t xml:space="preserve">118.512268066406</t>
   </si>
   <si>
-    <t xml:space="preserve">116.789131164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.831840515137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.874549865723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.045417785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.672798156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.002708435059</t>
+    <t xml:space="preserve">116.789138793945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.831848144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.874557495117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.04541015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.672805786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.002700805664</t>
   </si>
   <si>
     <t xml:space="preserve">111.715515136719</t>
@@ -2198,13 +2198,13 @@
     <t xml:space="preserve">112.57706451416</t>
   </si>
   <si>
-    <t xml:space="preserve">113.151435852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.481346130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.524055480957</t>
+    <t xml:space="preserve">113.151443481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.481338500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.524063110352</t>
   </si>
   <si>
     <t xml:space="preserve">111.236869812012</t>
@@ -2216,7 +2216,7 @@
     <t xml:space="preserve">113.342903137207</t>
   </si>
   <si>
-    <t xml:space="preserve">113.72582244873</t>
+    <t xml:space="preserve">113.725814819336</t>
   </si>
   <si>
     <t xml:space="preserve">114.395919799805</t>
@@ -2228,7 +2228,7 @@
     <t xml:space="preserve">110.853958129883</t>
   </si>
   <si>
-    <t xml:space="preserve">108.843643188477</t>
+    <t xml:space="preserve">108.843650817871</t>
   </si>
   <si>
     <t xml:space="preserve">111.90697479248</t>
@@ -2243,13 +2243,13 @@
     <t xml:space="preserve">110.183853149414</t>
   </si>
   <si>
-    <t xml:space="preserve">107.790641784668</t>
+    <t xml:space="preserve">107.790634155273</t>
   </si>
   <si>
     <t xml:space="preserve">110.566772460938</t>
   </si>
   <si>
-    <t xml:space="preserve">110.662483215332</t>
+    <t xml:space="preserve">110.662490844727</t>
   </si>
   <si>
     <t xml:space="preserve">108.36499786377</t>
@@ -2270,7 +2270,7 @@
     <t xml:space="preserve">109.705207824707</t>
   </si>
   <si>
-    <t xml:space="preserve">111.619773864746</t>
+    <t xml:space="preserve">111.619781494141</t>
   </si>
   <si>
     <t xml:space="preserve">115.736122131348</t>
@@ -2279,13 +2279,13 @@
     <t xml:space="preserve">115.927581787109</t>
   </si>
   <si>
-    <t xml:space="preserve">111.33260345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105.87606048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.036605834961</t>
+    <t xml:space="preserve">111.332595825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105.876052856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.036598205566</t>
   </si>
   <si>
     <t xml:space="preserve">108.173553466797</t>
@@ -2297,19 +2297,19 @@
     <t xml:space="preserve">103.195648193359</t>
   </si>
   <si>
-    <t xml:space="preserve">101.08960723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.51375579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106.833351135254</t>
+    <t xml:space="preserve">101.089614868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.513748168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106.833343505859</t>
   </si>
   <si>
     <t xml:space="preserve">111.811241149902</t>
   </si>
   <si>
-    <t xml:space="preserve">110.279571533203</t>
+    <t xml:space="preserve">110.279579162598</t>
   </si>
   <si>
     <t xml:space="preserve">107.886360168457</t>
@@ -2318,7 +2318,7 @@
     <t xml:space="preserve">105.780326843262</t>
   </si>
   <si>
-    <t xml:space="preserve">103.865745544434</t>
+    <t xml:space="preserve">103.865753173828</t>
   </si>
   <si>
     <t xml:space="preserve">115.544662475586</t>
@@ -2327,16 +2327,16 @@
     <t xml:space="preserve">113.055717468262</t>
   </si>
   <si>
-    <t xml:space="preserve">119.565269470215</t>
+    <t xml:space="preserve">119.565277099609</t>
   </si>
   <si>
     <t xml:space="preserve">123.873062133789</t>
   </si>
   <si>
-    <t xml:space="preserve">127.702217102051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.02033996582</t>
+    <t xml:space="preserve">127.702201843262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.020324707031</t>
   </si>
   <si>
     <t xml:space="preserve">143.401748657227</t>
@@ -2345,25 +2345,25 @@
     <t xml:space="preserve">143.688949584961</t>
   </si>
   <si>
-    <t xml:space="preserve">138.328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146.943710327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146.082153320312</t>
+    <t xml:space="preserve">138.328140258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146.943695068359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146.082138061523</t>
   </si>
   <si>
     <t xml:space="preserve">157.952529907227</t>
   </si>
   <si>
-    <t xml:space="preserve">152.304534912109</t>
+    <t xml:space="preserve">152.30451965332</t>
   </si>
   <si>
     <t xml:space="preserve">155.655044555664</t>
   </si>
   <si>
-    <t xml:space="preserve">159.771362304688</t>
+    <t xml:space="preserve">159.771377563477</t>
   </si>
   <si>
     <t xml:space="preserve">159.962829589844</t>
@@ -2375,28 +2375,28 @@
     <t xml:space="preserve">148.66682434082</t>
   </si>
   <si>
-    <t xml:space="preserve">148.762542724609</t>
+    <t xml:space="preserve">148.762557983398</t>
   </si>
   <si>
     <t xml:space="preserve">148.379623413086</t>
   </si>
   <si>
-    <t xml:space="preserve">146.369338989258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148.188217163086</t>
+    <t xml:space="preserve">146.369323730469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148.188201904297</t>
   </si>
   <si>
     <t xml:space="preserve">149.528396606445</t>
   </si>
   <si>
-    <t xml:space="preserve">155.559310913086</t>
+    <t xml:space="preserve">155.559295654297</t>
   </si>
   <si>
     <t xml:space="preserve">153.644744873047</t>
   </si>
   <si>
-    <t xml:space="preserve">165.132202148438</t>
+    <t xml:space="preserve">165.132186889648</t>
   </si>
   <si>
     <t xml:space="preserve">169.439971923828</t>
@@ -2411,7 +2411,7 @@
     <t xml:space="preserve">171.546020507812</t>
   </si>
   <si>
-    <t xml:space="preserve">181.118896484375</t>
+    <t xml:space="preserve">181.118911743164</t>
   </si>
   <si>
     <t xml:space="preserve">182.746292114258</t>
@@ -2423,16 +2423,16 @@
     <t xml:space="preserve">200.456100463867</t>
   </si>
   <si>
-    <t xml:space="preserve">188.585739135742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.610809326172</t>
+    <t xml:space="preserve">188.585754394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.610824584961</t>
   </si>
   <si>
     <t xml:space="preserve">174.034973144531</t>
   </si>
   <si>
-    <t xml:space="preserve">180.448791503906</t>
+    <t xml:space="preserve">180.448806762695</t>
   </si>
   <si>
     <t xml:space="preserve">173.747756958008</t>
@@ -2441,22 +2441,22 @@
     <t xml:space="preserve">171.258834838867</t>
   </si>
   <si>
-    <t xml:space="preserve">166.089462280273</t>
+    <t xml:space="preserve">166.089477539062</t>
   </si>
   <si>
     <t xml:space="preserve">166.759567260742</t>
   </si>
   <si>
-    <t xml:space="preserve">158.909805297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152.783187866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154.602005004883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156.995223999023</t>
+    <t xml:space="preserve">158.909820556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152.783172607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154.602020263672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.995239257812</t>
   </si>
   <si>
     <t xml:space="preserve">160.632919311523</t>
@@ -2465,7 +2465,7 @@
     <t xml:space="preserve">159.867095947266</t>
   </si>
   <si>
-    <t xml:space="preserve">163.573745727539</t>
+    <t xml:space="preserve">163.57373046875</t>
   </si>
   <si>
     <t xml:space="preserve">164.440231323242</t>
@@ -2480,13 +2480,13 @@
     <t xml:space="preserve">161.16682434082</t>
   </si>
   <si>
-    <t xml:space="preserve">164.343948364258</t>
+    <t xml:space="preserve">164.343963623047</t>
   </si>
   <si>
     <t xml:space="preserve">169.254058837891</t>
   </si>
   <si>
-    <t xml:space="preserve">166.558303833008</t>
+    <t xml:space="preserve">166.558319091797</t>
   </si>
   <si>
     <t xml:space="preserve">165.017883300781</t>
@@ -2510,7 +2510,7 @@
     <t xml:space="preserve">168.195007324219</t>
   </si>
   <si>
-    <t xml:space="preserve">171.853515625</t>
+    <t xml:space="preserve">171.853500366211</t>
   </si>
   <si>
     <t xml:space="preserve">172.527465820312</t>
@@ -2528,7 +2528,7 @@
     <t xml:space="preserve">166.750869750977</t>
   </si>
   <si>
-    <t xml:space="preserve">171.468414306641</t>
+    <t xml:space="preserve">171.468399047852</t>
   </si>
   <si>
     <t xml:space="preserve">171.564697265625</t>
@@ -2540,10 +2540,10 @@
     <t xml:space="preserve">171.66096496582</t>
   </si>
   <si>
-    <t xml:space="preserve">168.483825683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">162.99609375</t>
+    <t xml:space="preserve">168.483840942383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162.996078491211</t>
   </si>
   <si>
     <t xml:space="preserve">156.641845703125</t>
@@ -2552,46 +2552,46 @@
     <t xml:space="preserve">164.247680664062</t>
   </si>
   <si>
-    <t xml:space="preserve">166.847152709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161.263107299805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">159.818954467773</t>
+    <t xml:space="preserve">166.847137451172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161.263092041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159.818969726562</t>
   </si>
   <si>
     <t xml:space="preserve">154.620025634766</t>
   </si>
   <si>
-    <t xml:space="preserve">151.731750488281</t>
+    <t xml:space="preserve">151.731735229492</t>
   </si>
   <si>
     <t xml:space="preserve">148.65087890625</t>
   </si>
   <si>
-    <t xml:space="preserve">152.69450378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147.110488891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151.635467529297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154.234939575195</t>
+    <t xml:space="preserve">152.694519042969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147.110473632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151.635452270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154.234924316406</t>
   </si>
   <si>
     <t xml:space="preserve">153.560989379883</t>
   </si>
   <si>
-    <t xml:space="preserve">150.287582397461</t>
+    <t xml:space="preserve">150.28759765625</t>
   </si>
   <si>
     <t xml:space="preserve">156.738098144531</t>
   </si>
   <si>
-    <t xml:space="preserve">153.175888061523</t>
+    <t xml:space="preserve">153.175872802734</t>
   </si>
   <si>
     <t xml:space="preserve">156.160446166992</t>
@@ -2606,13 +2606,13 @@
     <t xml:space="preserve">157.412048339844</t>
   </si>
   <si>
-    <t xml:space="preserve">157.797149658203</t>
+    <t xml:space="preserve">157.797164916992</t>
   </si>
   <si>
     <t xml:space="preserve">161.455657958984</t>
   </si>
   <si>
-    <t xml:space="preserve">147.495559692383</t>
+    <t xml:space="preserve">147.495574951172</t>
   </si>
   <si>
     <t xml:space="preserve">140.371109008789</t>
@@ -2630,10 +2630,10 @@
     <t xml:space="preserve">137.290267944336</t>
   </si>
   <si>
-    <t xml:space="preserve">136.520050048828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">139.119506835938</t>
+    <t xml:space="preserve">136.520065307617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">139.119522094727</t>
   </si>
   <si>
     <t xml:space="preserve">138.926956176758</t>
@@ -2645,10 +2645,10 @@
     <t xml:space="preserve">145.088653564453</t>
   </si>
   <si>
-    <t xml:space="preserve">148.939712524414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149.613632202148</t>
+    <t xml:space="preserve">148.939727783203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149.613647460938</t>
   </si>
   <si>
     <t xml:space="preserve">151.154067993164</t>
@@ -2657,16 +2657,16 @@
     <t xml:space="preserve">154.90885925293</t>
   </si>
   <si>
-    <t xml:space="preserve">152.30940246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163.092346191406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">162.707260131836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.151412963867</t>
+    <t xml:space="preserve">152.309387207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163.092361450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162.707244873047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.151397705078</t>
   </si>
   <si>
     <t xml:space="preserve">163.862564086914</t>
@@ -2681,7 +2681,7 @@
     <t xml:space="preserve">177.148727416992</t>
   </si>
   <si>
-    <t xml:space="preserve">177.533813476562</t>
+    <t xml:space="preserve">177.533828735352</t>
   </si>
   <si>
     <t xml:space="preserve">179.940734863281</t>
@@ -2690,7 +2690,7 @@
     <t xml:space="preserve">175.704574584961</t>
   </si>
   <si>
-    <t xml:space="preserve">180.999786376953</t>
+    <t xml:space="preserve">180.999771118164</t>
   </si>
   <si>
     <t xml:space="preserve">183.021621704102</t>
@@ -2699,10 +2699,10 @@
     <t xml:space="preserve">180.518402099609</t>
   </si>
   <si>
-    <t xml:space="preserve">184.176895141602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">181.962554931641</t>
+    <t xml:space="preserve">184.176910400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181.962539672852</t>
   </si>
   <si>
     <t xml:space="preserve">187.354049682617</t>
@@ -2714,31 +2714,31 @@
     <t xml:space="preserve">183.984359741211</t>
   </si>
   <si>
-    <t xml:space="preserve">187.642868041992</t>
+    <t xml:space="preserve">187.642852783203</t>
   </si>
   <si>
     <t xml:space="preserve">185.428512573242</t>
   </si>
   <si>
-    <t xml:space="preserve">183.888092041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">181.577438354492</t>
+    <t xml:space="preserve">183.888076782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181.577453613281</t>
   </si>
   <si>
     <t xml:space="preserve">180.32585144043</t>
   </si>
   <si>
-    <t xml:space="preserve">181.481155395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">178.785415649414</t>
+    <t xml:space="preserve">181.481170654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">178.785430908203</t>
   </si>
   <si>
     <t xml:space="preserve">180.13330078125</t>
   </si>
   <si>
-    <t xml:space="preserve">186.968933105469</t>
+    <t xml:space="preserve">186.968948364258</t>
   </si>
   <si>
     <t xml:space="preserve">192.264129638672</t>
@@ -2747,7 +2747,7 @@
     <t xml:space="preserve">193.708282470703</t>
   </si>
   <si>
-    <t xml:space="preserve">161.744476318359</t>
+    <t xml:space="preserve">161.744491577148</t>
   </si>
   <si>
     <t xml:space="preserve">165.980667114258</t>
@@ -2756,7 +2756,7 @@
     <t xml:space="preserve">167.328536987305</t>
   </si>
   <si>
-    <t xml:space="preserve">167.039688110352</t>
+    <t xml:space="preserve">167.039703369141</t>
   </si>
   <si>
     <t xml:space="preserve">166.173217773438</t>
@@ -2765,13 +2765,13 @@
     <t xml:space="preserve">158.95246887207</t>
   </si>
   <si>
-    <t xml:space="preserve">162.899810791016</t>
+    <t xml:space="preserve">162.899795532227</t>
   </si>
   <si>
     <t xml:space="preserve">166.365768432617</t>
   </si>
   <si>
-    <t xml:space="preserve">170.024261474609</t>
+    <t xml:space="preserve">170.024276733398</t>
   </si>
   <si>
     <t xml:space="preserve">165.788101196289</t>
@@ -2780,7 +2780,7 @@
     <t xml:space="preserve">163.670013427734</t>
   </si>
   <si>
-    <t xml:space="preserve">162.129592895508</t>
+    <t xml:space="preserve">162.129577636719</t>
   </si>
   <si>
     <t xml:space="preserve">164.825332641602</t>
@@ -2792,25 +2792,25 @@
     <t xml:space="preserve">161.359375</t>
   </si>
   <si>
-    <t xml:space="preserve">160.492874145508</t>
+    <t xml:space="preserve">160.492889404297</t>
   </si>
   <si>
     <t xml:space="preserve">160.878005981445</t>
   </si>
   <si>
-    <t xml:space="preserve">165.306716918945</t>
+    <t xml:space="preserve">165.306701660156</t>
   </si>
   <si>
     <t xml:space="preserve">161.070556640625</t>
   </si>
   <si>
-    <t xml:space="preserve">161.648208618164</t>
+    <t xml:space="preserve">161.648193359375</t>
   </si>
   <si>
     <t xml:space="preserve">163.766311645508</t>
   </si>
   <si>
-    <t xml:space="preserve">163.284896850586</t>
+    <t xml:space="preserve">163.284912109375</t>
   </si>
   <si>
     <t xml:space="preserve">155.775344848633</t>
@@ -2822,10 +2822,10 @@
     <t xml:space="preserve">153.464706420898</t>
   </si>
   <si>
-    <t xml:space="preserve">157.604614257812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156.449295043945</t>
+    <t xml:space="preserve">157.604598999023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.449279785156</t>
   </si>
   <si>
     <t xml:space="preserve">156.545562744141</t>
@@ -2834,7 +2834,7 @@
     <t xml:space="preserve">160.011505126953</t>
   </si>
   <si>
-    <t xml:space="preserve">173.008819580078</t>
+    <t xml:space="preserve">173.008834838867</t>
   </si>
   <si>
     <t xml:space="preserve">172.142349243164</t>
@@ -2843,19 +2843,19 @@
     <t xml:space="preserve">181.288619995117</t>
   </si>
   <si>
-    <t xml:space="preserve">171.083282470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">173.875335693359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">173.29768371582</t>
+    <t xml:space="preserve">171.083297729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173.875350952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173.297668457031</t>
   </si>
   <si>
     <t xml:space="preserve">172.720001220703</t>
   </si>
   <si>
-    <t xml:space="preserve">169.927993774414</t>
+    <t xml:space="preserve">169.928009033203</t>
   </si>
   <si>
     <t xml:space="preserve">169.63916015625</t>
@@ -2864,28 +2864,28 @@
     <t xml:space="preserve">172.431182861328</t>
   </si>
   <si>
-    <t xml:space="preserve">176.089691162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175.415740966797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">177.630096435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">178.689163208008</t>
+    <t xml:space="preserve">176.08967590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">175.415725708008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">177.630111694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">178.689147949219</t>
   </si>
   <si>
     <t xml:space="preserve">178.400314331055</t>
   </si>
   <si>
-    <t xml:space="preserve">179.459350585938</t>
+    <t xml:space="preserve">179.459365844727</t>
   </si>
   <si>
     <t xml:space="preserve">176.667343139648</t>
   </si>
   <si>
-    <t xml:space="preserve">158.182266235352</t>
+    <t xml:space="preserve">158.182250976562</t>
   </si>
   <si>
     <t xml:space="preserve">153.753540039062</t>
@@ -2897,10 +2897,10 @@
     <t xml:space="preserve">156.352996826172</t>
   </si>
   <si>
-    <t xml:space="preserve">157.893417358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">159.14501953125</t>
+    <t xml:space="preserve">157.893432617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159.145034790039</t>
   </si>
   <si>
     <t xml:space="preserve">155.967895507812</t>
@@ -2912,7 +2912,7 @@
     <t xml:space="preserve">150.961532592773</t>
   </si>
   <si>
-    <t xml:space="preserve">149.036010742188</t>
+    <t xml:space="preserve">149.035995483398</t>
   </si>
   <si>
     <t xml:space="preserve">134.401977539062</t>
@@ -2921,19 +2921,19 @@
     <t xml:space="preserve">136.808898925781</t>
   </si>
   <si>
-    <t xml:space="preserve">140.467376708984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136.712615966797</t>
+    <t xml:space="preserve">140.467391967773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136.712600708008</t>
   </si>
   <si>
     <t xml:space="preserve">134.883361816406</t>
   </si>
   <si>
-    <t xml:space="preserve">137.77165222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.979629516602</t>
+    <t xml:space="preserve">137.771636962891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.979614257812</t>
   </si>
   <si>
     <t xml:space="preserve">135.74983215332</t>
@@ -2945,16 +2945,16 @@
     <t xml:space="preserve">137.001434326172</t>
   </si>
   <si>
-    <t xml:space="preserve">133.824310302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.187622070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.572692871094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131.70622253418</t>
+    <t xml:space="preserve">133.824295043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.187591552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.572723388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131.706237792969</t>
   </si>
   <si>
     <t xml:space="preserve">134.54638671875</t>
@@ -2981,22 +2981,22 @@
     <t xml:space="preserve">149.950607299805</t>
   </si>
   <si>
-    <t xml:space="preserve">148.169509887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146.869766235352</t>
+    <t xml:space="preserve">148.169494628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146.869781494141</t>
   </si>
   <si>
     <t xml:space="preserve">146.725357055664</t>
   </si>
   <si>
-    <t xml:space="preserve">138.734420776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138.541839599609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135.027755737305</t>
+    <t xml:space="preserve">138.734405517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138.541854858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.027770996094</t>
   </si>
   <si>
     <t xml:space="preserve">135.990539550781</t>
@@ -3014,28 +3014,28 @@
     <t xml:space="preserve">135.557281494141</t>
   </si>
   <si>
-    <t xml:space="preserve">137.338409423828</t>
+    <t xml:space="preserve">137.338394165039</t>
   </si>
   <si>
     <t xml:space="preserve">133.102233886719</t>
   </si>
   <si>
-    <t xml:space="preserve">129.973236083984</t>
+    <t xml:space="preserve">129.973251342773</t>
   </si>
   <si>
     <t xml:space="preserve">133.150375366211</t>
   </si>
   <si>
-    <t xml:space="preserve">132.861557006836</t>
+    <t xml:space="preserve">132.861541748047</t>
   </si>
   <si>
     <t xml:space="preserve">136.375640869141</t>
   </si>
   <si>
-    <t xml:space="preserve">138.638137817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138.78254699707</t>
+    <t xml:space="preserve">138.638122558594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138.782531738281</t>
   </si>
   <si>
     <t xml:space="preserve">138.734085083008</t>
@@ -5184,6 +5184,9 @@
   </si>
   <si>
     <t xml:space="preserve">102.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.650001525879</t>
   </si>
 </sst>
 </file>
@@ -11471,7 +11474,7 @@
         <v>51.7999992370605</v>
       </c>
       <c r="G229" t="s">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="H229" t="s">
         <v>9</v>
@@ -11523,7 +11526,7 @@
         <v>51.25</v>
       </c>
       <c r="G231" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -11549,7 +11552,7 @@
         <v>51.6500015258789</v>
       </c>
       <c r="G232" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -11575,7 +11578,7 @@
         <v>52.1500015258789</v>
       </c>
       <c r="G233" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -11601,7 +11604,7 @@
         <v>52</v>
       </c>
       <c r="G234" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H234" t="s">
         <v>9</v>
@@ -11627,7 +11630,7 @@
         <v>51.5</v>
       </c>
       <c r="G235" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -11653,7 +11656,7 @@
         <v>50.9000015258789</v>
       </c>
       <c r="G236" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -11679,7 +11682,7 @@
         <v>51.25</v>
       </c>
       <c r="G237" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -11705,7 +11708,7 @@
         <v>51.1500015258789</v>
       </c>
       <c r="G238" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -11731,7 +11734,7 @@
         <v>51.25</v>
       </c>
       <c r="G239" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -11783,7 +11786,7 @@
         <v>52.0999984741211</v>
       </c>
       <c r="G241" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -11809,7 +11812,7 @@
         <v>52.0999984741211</v>
       </c>
       <c r="G242" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -11835,7 +11838,7 @@
         <v>52.1500015258789</v>
       </c>
       <c r="G243" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -11887,7 +11890,7 @@
         <v>51.7999992370605</v>
       </c>
       <c r="G245" t="s">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -11913,7 +11916,7 @@
         <v>51.8499984741211</v>
       </c>
       <c r="G246" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -11939,7 +11942,7 @@
         <v>52.9000015258789</v>
       </c>
       <c r="G247" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -11965,7 +11968,7 @@
         <v>53.1500015258789</v>
       </c>
       <c r="G248" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -12017,7 +12020,7 @@
         <v>55.0999984741211</v>
       </c>
       <c r="G250" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -12121,7 +12124,7 @@
         <v>56.4000015258789</v>
       </c>
       <c r="G254" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -12329,7 +12332,7 @@
         <v>58.4000015258789</v>
       </c>
       <c r="G262" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -12407,7 +12410,7 @@
         <v>56.5499992370605</v>
       </c>
       <c r="G265" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -12693,7 +12696,7 @@
         <v>54.7000007629395</v>
       </c>
       <c r="G276" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -12719,7 +12722,7 @@
         <v>55.5499992370605</v>
       </c>
       <c r="G277" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -12823,7 +12826,7 @@
         <v>58.4000015258789</v>
       </c>
       <c r="G281" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -12953,7 +12956,7 @@
         <v>56.5499992370605</v>
       </c>
       <c r="G286" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -13109,7 +13112,7 @@
         <v>56.9000015258789</v>
       </c>
       <c r="G292" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -13161,7 +13164,7 @@
         <v>57.25</v>
       </c>
       <c r="G294" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -13239,7 +13242,7 @@
         <v>58.4500007629395</v>
       </c>
       <c r="G297" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -13265,7 +13268,7 @@
         <v>58.75</v>
       </c>
       <c r="G298" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -13291,7 +13294,7 @@
         <v>59.75</v>
       </c>
       <c r="G299" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -13343,7 +13346,7 @@
         <v>59.7999992370605</v>
       </c>
       <c r="G301" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -13369,7 +13372,7 @@
         <v>59.7999992370605</v>
       </c>
       <c r="G302" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -13395,7 +13398,7 @@
         <v>59.8499984741211</v>
       </c>
       <c r="G303" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -13421,7 +13424,7 @@
         <v>60.0999984741211</v>
       </c>
       <c r="G304" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -13473,7 +13476,7 @@
         <v>59.25</v>
       </c>
       <c r="G306" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -13499,7 +13502,7 @@
         <v>59.6500015258789</v>
       </c>
       <c r="G307" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -13551,7 +13554,7 @@
         <v>59.8499984741211</v>
       </c>
       <c r="G309" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -13577,7 +13580,7 @@
         <v>60.2999992370605</v>
       </c>
       <c r="G310" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -13603,7 +13606,7 @@
         <v>61.3499984741211</v>
       </c>
       <c r="G311" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -13629,7 +13632,7 @@
         <v>61.3499984741211</v>
       </c>
       <c r="G312" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -13655,7 +13658,7 @@
         <v>62.25</v>
       </c>
       <c r="G313" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -13681,7 +13684,7 @@
         <v>61.9500007629395</v>
       </c>
       <c r="G314" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -13707,7 +13710,7 @@
         <v>62.1500015258789</v>
       </c>
       <c r="G315" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -13733,7 +13736,7 @@
         <v>63</v>
       </c>
       <c r="G316" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -13759,7 +13762,7 @@
         <v>62.8499984741211</v>
       </c>
       <c r="G317" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -13785,7 +13788,7 @@
         <v>62.2999992370605</v>
       </c>
       <c r="G318" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -13811,7 +13814,7 @@
         <v>62.8499984741211</v>
       </c>
       <c r="G319" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -13837,7 +13840,7 @@
         <v>62.25</v>
       </c>
       <c r="G320" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -13863,7 +13866,7 @@
         <v>63.5999984741211</v>
       </c>
       <c r="G321" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -13889,7 +13892,7 @@
         <v>63.2999992370605</v>
       </c>
       <c r="G322" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -13915,7 +13918,7 @@
         <v>63.7999992370605</v>
       </c>
       <c r="G323" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -13941,7 +13944,7 @@
         <v>63.9000015258789</v>
       </c>
       <c r="G324" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -13967,7 +13970,7 @@
         <v>64.3000030517578</v>
       </c>
       <c r="G325" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -13993,7 +13996,7 @@
         <v>64.1999969482422</v>
       </c>
       <c r="G326" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -14019,7 +14022,7 @@
         <v>65</v>
       </c>
       <c r="G327" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -14045,7 +14048,7 @@
         <v>65.9499969482422</v>
       </c>
       <c r="G328" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -14071,7 +14074,7 @@
         <v>66.0999984741211</v>
       </c>
       <c r="G329" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -14097,7 +14100,7 @@
         <v>65.8000030517578</v>
       </c>
       <c r="G330" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -14123,7 +14126,7 @@
         <v>65.0500030517578</v>
       </c>
       <c r="G331" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -14149,7 +14152,7 @@
         <v>64</v>
       </c>
       <c r="G332" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -14175,7 +14178,7 @@
         <v>64.25</v>
       </c>
       <c r="G333" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -14201,7 +14204,7 @@
         <v>66.0999984741211</v>
       </c>
       <c r="G334" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -14227,7 +14230,7 @@
         <v>65.5999984741211</v>
       </c>
       <c r="G335" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -14253,7 +14256,7 @@
         <v>67.1999969482422</v>
       </c>
       <c r="G336" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -14279,7 +14282,7 @@
         <v>66</v>
       </c>
       <c r="G337" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -14305,7 +14308,7 @@
         <v>66.4000015258789</v>
       </c>
       <c r="G338" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -14331,7 +14334,7 @@
         <v>67.5</v>
       </c>
       <c r="G339" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -14357,7 +14360,7 @@
         <v>68.8000030517578</v>
       </c>
       <c r="G340" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -14383,7 +14386,7 @@
         <v>71</v>
       </c>
       <c r="G341" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -14409,7 +14412,7 @@
         <v>69.5999984741211</v>
       </c>
       <c r="G342" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -14435,7 +14438,7 @@
         <v>69</v>
       </c>
       <c r="G343" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -14461,7 +14464,7 @@
         <v>69.3000030517578</v>
       </c>
       <c r="G344" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -14487,7 +14490,7 @@
         <v>69.3000030517578</v>
       </c>
       <c r="G345" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -14513,7 +14516,7 @@
         <v>70.3499984741211</v>
       </c>
       <c r="G346" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -14539,7 +14542,7 @@
         <v>70.1999969482422</v>
       </c>
       <c r="G347" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -14565,7 +14568,7 @@
         <v>69.8499984741211</v>
       </c>
       <c r="G348" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -14591,7 +14594,7 @@
         <v>70.25</v>
       </c>
       <c r="G349" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -14617,7 +14620,7 @@
         <v>70</v>
       </c>
       <c r="G350" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -14643,7 +14646,7 @@
         <v>70</v>
       </c>
       <c r="G351" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -14669,7 +14672,7 @@
         <v>68.1500015258789</v>
       </c>
       <c r="G352" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -14695,7 +14698,7 @@
         <v>67.4000015258789</v>
       </c>
       <c r="G353" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -14721,7 +14724,7 @@
         <v>68.25</v>
       </c>
       <c r="G354" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -14747,7 +14750,7 @@
         <v>68.25</v>
       </c>
       <c r="G355" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -14773,7 +14776,7 @@
         <v>68.5500030517578</v>
       </c>
       <c r="G356" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -14799,7 +14802,7 @@
         <v>68.6999969482422</v>
       </c>
       <c r="G357" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -14825,7 +14828,7 @@
         <v>68.9499969482422</v>
       </c>
       <c r="G358" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -14851,7 +14854,7 @@
         <v>69.1999969482422</v>
       </c>
       <c r="G359" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -14877,7 +14880,7 @@
         <v>68.0500030517578</v>
       </c>
       <c r="G360" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -14903,7 +14906,7 @@
         <v>68.6999969482422</v>
       </c>
       <c r="G361" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -14929,7 +14932,7 @@
         <v>68.9499969482422</v>
       </c>
       <c r="G362" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -14955,7 +14958,7 @@
         <v>70.1999969482422</v>
       </c>
       <c r="G363" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -14981,7 +14984,7 @@
         <v>70.5500030517578</v>
       </c>
       <c r="G364" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -15007,7 +15010,7 @@
         <v>70.25</v>
       </c>
       <c r="G365" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -15033,7 +15036,7 @@
         <v>71.4499969482422</v>
       </c>
       <c r="G366" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -15059,7 +15062,7 @@
         <v>70.9000015258789</v>
       </c>
       <c r="G367" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -15085,7 +15088,7 @@
         <v>71.75</v>
       </c>
       <c r="G368" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -15111,7 +15114,7 @@
         <v>72.5</v>
       </c>
       <c r="G369" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -15137,7 +15140,7 @@
         <v>69.9000015258789</v>
       </c>
       <c r="G370" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -15163,7 +15166,7 @@
         <v>69.75</v>
       </c>
       <c r="G371" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -15189,7 +15192,7 @@
         <v>71.4000015258789</v>
       </c>
       <c r="G372" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -15215,7 +15218,7 @@
         <v>70.6999969482422</v>
       </c>
       <c r="G373" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -15241,7 +15244,7 @@
         <v>71.3000030517578</v>
       </c>
       <c r="G374" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -15267,7 +15270,7 @@
         <v>71.1500015258789</v>
       </c>
       <c r="G375" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -15293,7 +15296,7 @@
         <v>71</v>
       </c>
       <c r="G376" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -15319,7 +15322,7 @@
         <v>70.5500030517578</v>
       </c>
       <c r="G377" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -15345,7 +15348,7 @@
         <v>70.1999969482422</v>
       </c>
       <c r="G378" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -15371,7 +15374,7 @@
         <v>72.6999969482422</v>
       </c>
       <c r="G379" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -15397,7 +15400,7 @@
         <v>71.3000030517578</v>
       </c>
       <c r="G380" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -15423,7 +15426,7 @@
         <v>69.9000015258789</v>
       </c>
       <c r="G381" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -15449,7 +15452,7 @@
         <v>67.5999984741211</v>
       </c>
       <c r="G382" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -15475,7 +15478,7 @@
         <v>66</v>
       </c>
       <c r="G383" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -15501,7 +15504,7 @@
         <v>67.25</v>
       </c>
       <c r="G384" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -15527,7 +15530,7 @@
         <v>66.5999984741211</v>
       </c>
       <c r="G385" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -15553,7 +15556,7 @@
         <v>66.5999984741211</v>
       </c>
       <c r="G386" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -15579,7 +15582,7 @@
         <v>67.25</v>
       </c>
       <c r="G387" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -15605,7 +15608,7 @@
         <v>66.5999984741211</v>
       </c>
       <c r="G388" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -15631,7 +15634,7 @@
         <v>67.3000030517578</v>
       </c>
       <c r="G389" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -15657,7 +15660,7 @@
         <v>67</v>
       </c>
       <c r="G390" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -15683,7 +15686,7 @@
         <v>66.0500030517578</v>
       </c>
       <c r="G391" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -15709,7 +15712,7 @@
         <v>67</v>
       </c>
       <c r="G392" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -15735,7 +15738,7 @@
         <v>67.0999984741211</v>
       </c>
       <c r="G393" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -15761,7 +15764,7 @@
         <v>68</v>
       </c>
       <c r="G394" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -15787,7 +15790,7 @@
         <v>69.0500030517578</v>
       </c>
       <c r="G395" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -15813,7 +15816,7 @@
         <v>69.75</v>
       </c>
       <c r="G396" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -15839,7 +15842,7 @@
         <v>69.9499969482422</v>
       </c>
       <c r="G397" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -15865,7 +15868,7 @@
         <v>70.3499984741211</v>
       </c>
       <c r="G398" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -15891,7 +15894,7 @@
         <v>70.1500015258789</v>
       </c>
       <c r="G399" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -15917,7 +15920,7 @@
         <v>70.5500030517578</v>
       </c>
       <c r="G400" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -15943,7 +15946,7 @@
         <v>69.8499984741211</v>
       </c>
       <c r="G401" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -15969,7 +15972,7 @@
         <v>73.3000030517578</v>
       </c>
       <c r="G402" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -15995,7 +15998,7 @@
         <v>73.9000015258789</v>
       </c>
       <c r="G403" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -16021,7 +16024,7 @@
         <v>73.0500030517578</v>
       </c>
       <c r="G404" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -16047,7 +16050,7 @@
         <v>73.5999984741211</v>
       </c>
       <c r="G405" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -16073,7 +16076,7 @@
         <v>73.4000015258789</v>
       </c>
       <c r="G406" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -16099,7 +16102,7 @@
         <v>73</v>
       </c>
       <c r="G407" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -16125,7 +16128,7 @@
         <v>73.0500030517578</v>
       </c>
       <c r="G408" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -16151,7 +16154,7 @@
         <v>72.9000015258789</v>
       </c>
       <c r="G409" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -16177,7 +16180,7 @@
         <v>72.5999984741211</v>
       </c>
       <c r="G410" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -16203,7 +16206,7 @@
         <v>71.9499969482422</v>
       </c>
       <c r="G411" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -16229,7 +16232,7 @@
         <v>72.1500015258789</v>
       </c>
       <c r="G412" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -16255,7 +16258,7 @@
         <v>71.4000015258789</v>
       </c>
       <c r="G413" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -16281,7 +16284,7 @@
         <v>70.6999969482422</v>
       </c>
       <c r="G414" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -16307,7 +16310,7 @@
         <v>71.6500015258789</v>
       </c>
       <c r="G415" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -16333,7 +16336,7 @@
         <v>71.4000015258789</v>
       </c>
       <c r="G416" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -16359,7 +16362,7 @@
         <v>71.6999969482422</v>
       </c>
       <c r="G417" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -16385,7 +16388,7 @@
         <v>71.5500030517578</v>
       </c>
       <c r="G418" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -16411,7 +16414,7 @@
         <v>71.3499984741211</v>
       </c>
       <c r="G419" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -16437,7 +16440,7 @@
         <v>71.4000015258789</v>
       </c>
       <c r="G420" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -16463,7 +16466,7 @@
         <v>71.3499984741211</v>
       </c>
       <c r="G421" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -16489,7 +16492,7 @@
         <v>70.8000030517578</v>
       </c>
       <c r="G422" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -16515,7 +16518,7 @@
         <v>70.5500030517578</v>
       </c>
       <c r="G423" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -16541,7 +16544,7 @@
         <v>70.0500030517578</v>
       </c>
       <c r="G424" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -16567,7 +16570,7 @@
         <v>69.9499969482422</v>
       </c>
       <c r="G425" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -16593,7 +16596,7 @@
         <v>71.3499984741211</v>
       </c>
       <c r="G426" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -16619,7 +16622,7 @@
         <v>72.4000015258789</v>
       </c>
       <c r="G427" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -16645,7 +16648,7 @@
         <v>72.4499969482422</v>
       </c>
       <c r="G428" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -16671,7 +16674,7 @@
         <v>72.5</v>
       </c>
       <c r="G429" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -16697,7 +16700,7 @@
         <v>73</v>
       </c>
       <c r="G430" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -16723,7 +16726,7 @@
         <v>73.3499984741211</v>
       </c>
       <c r="G431" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -16749,7 +16752,7 @@
         <v>73.6999969482422</v>
       </c>
       <c r="G432" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -16775,7 +16778,7 @@
         <v>73.5500030517578</v>
       </c>
       <c r="G433" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -16801,7 +16804,7 @@
         <v>73.9000015258789</v>
       </c>
       <c r="G434" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -16827,7 +16830,7 @@
         <v>73</v>
       </c>
       <c r="G435" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -16853,7 +16856,7 @@
         <v>74</v>
       </c>
       <c r="G436" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -16879,7 +16882,7 @@
         <v>74</v>
       </c>
       <c r="G437" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -16905,7 +16908,7 @@
         <v>73.0999984741211</v>
       </c>
       <c r="G438" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -16931,7 +16934,7 @@
         <v>73.4499969482422</v>
       </c>
       <c r="G439" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -16957,7 +16960,7 @@
         <v>74</v>
       </c>
       <c r="G440" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -16983,7 +16986,7 @@
         <v>74.25</v>
       </c>
       <c r="G441" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -17009,7 +17012,7 @@
         <v>73.8000030517578</v>
       </c>
       <c r="G442" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -17035,7 +17038,7 @@
         <v>74.5999984741211</v>
       </c>
       <c r="G443" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -17061,7 +17064,7 @@
         <v>75.8499984741211</v>
       </c>
       <c r="G444" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -17087,7 +17090,7 @@
         <v>75.4000015258789</v>
       </c>
       <c r="G445" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -17113,7 +17116,7 @@
         <v>75.0999984741211</v>
       </c>
       <c r="G446" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -17139,7 +17142,7 @@
         <v>75.1999969482422</v>
       </c>
       <c r="G447" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -17165,7 +17168,7 @@
         <v>75.4499969482422</v>
       </c>
       <c r="G448" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -17191,7 +17194,7 @@
         <v>76.5</v>
       </c>
       <c r="G449" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -17217,7 +17220,7 @@
         <v>77.8000030517578</v>
       </c>
       <c r="G450" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -17243,7 +17246,7 @@
         <v>77.9000015258789</v>
       </c>
       <c r="G451" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -17269,7 +17272,7 @@
         <v>79.6500015258789</v>
       </c>
       <c r="G452" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -17295,7 +17298,7 @@
         <v>79</v>
       </c>
       <c r="G453" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -17321,7 +17324,7 @@
         <v>79.1500015258789</v>
       </c>
       <c r="G454" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -17347,7 +17350,7 @@
         <v>78.4000015258789</v>
       </c>
       <c r="G455" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -17373,7 +17376,7 @@
         <v>78.75</v>
       </c>
       <c r="G456" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -17399,7 +17402,7 @@
         <v>80.5500030517578</v>
       </c>
       <c r="G457" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -17425,7 +17428,7 @@
         <v>78.75</v>
       </c>
       <c r="G458" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -17451,7 +17454,7 @@
         <v>79</v>
       </c>
       <c r="G459" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -17477,7 +17480,7 @@
         <v>79</v>
       </c>
       <c r="G460" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -17503,7 +17506,7 @@
         <v>78.4499969482422</v>
       </c>
       <c r="G461" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -17529,7 +17532,7 @@
         <v>77.75</v>
       </c>
       <c r="G462" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -17555,7 +17558,7 @@
         <v>77.8499984741211</v>
       </c>
       <c r="G463" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -17581,7 +17584,7 @@
         <v>77.8000030517578</v>
       </c>
       <c r="G464" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -17607,7 +17610,7 @@
         <v>78.0500030517578</v>
       </c>
       <c r="G465" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -17633,7 +17636,7 @@
         <v>77.9000015258789</v>
       </c>
       <c r="G466" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -17659,7 +17662,7 @@
         <v>78.3000030517578</v>
       </c>
       <c r="G467" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -17685,7 +17688,7 @@
         <v>78.3499984741211</v>
       </c>
       <c r="G468" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -17711,7 +17714,7 @@
         <v>78</v>
       </c>
       <c r="G469" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -17737,7 +17740,7 @@
         <v>78.0999984741211</v>
       </c>
       <c r="G470" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -17763,7 +17766,7 @@
         <v>78.9499969482422</v>
       </c>
       <c r="G471" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -17789,7 +17792,7 @@
         <v>77.9499969482422</v>
       </c>
       <c r="G472" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -17815,7 +17818,7 @@
         <v>79.1999969482422</v>
       </c>
       <c r="G473" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -17841,7 +17844,7 @@
         <v>78.5500030517578</v>
       </c>
       <c r="G474" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -17867,7 +17870,7 @@
         <v>78.25</v>
       </c>
       <c r="G475" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -17893,7 +17896,7 @@
         <v>77.75</v>
       </c>
       <c r="G476" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -17919,7 +17922,7 @@
         <v>72.0500030517578</v>
       </c>
       <c r="G477" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -17945,7 +17948,7 @@
         <v>72.5500030517578</v>
       </c>
       <c r="G478" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -17971,7 +17974,7 @@
         <v>73.8000030517578</v>
       </c>
       <c r="G479" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -17997,7 +18000,7 @@
         <v>74.6500015258789</v>
       </c>
       <c r="G480" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -18023,7 +18026,7 @@
         <v>74</v>
       </c>
       <c r="G481" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -18049,7 +18052,7 @@
         <v>75.4000015258789</v>
       </c>
       <c r="G482" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -18075,7 +18078,7 @@
         <v>75.0500030517578</v>
       </c>
       <c r="G483" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -18101,7 +18104,7 @@
         <v>76.6500015258789</v>
       </c>
       <c r="G484" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -18127,7 +18130,7 @@
         <v>77.5</v>
       </c>
       <c r="G485" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -18153,7 +18156,7 @@
         <v>77.1999969482422</v>
       </c>
       <c r="G486" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -18179,7 +18182,7 @@
         <v>76.3499984741211</v>
       </c>
       <c r="G487" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -18205,7 +18208,7 @@
         <v>74.5</v>
       </c>
       <c r="G488" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -18231,7 +18234,7 @@
         <v>75.6500015258789</v>
       </c>
       <c r="G489" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -18257,7 +18260,7 @@
         <v>76.4000015258789</v>
       </c>
       <c r="G490" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -18283,7 +18286,7 @@
         <v>76.5500030517578</v>
       </c>
       <c r="G491" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -18309,7 +18312,7 @@
         <v>77.4000015258789</v>
       </c>
       <c r="G492" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -18335,7 +18338,7 @@
         <v>78.0500030517578</v>
       </c>
       <c r="G493" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -18361,7 +18364,7 @@
         <v>77.6500015258789</v>
       </c>
       <c r="G494" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -18387,7 +18390,7 @@
         <v>78.4000015258789</v>
       </c>
       <c r="G495" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -18413,7 +18416,7 @@
         <v>78.4499969482422</v>
       </c>
       <c r="G496" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -18439,7 +18442,7 @@
         <v>79.5500030517578</v>
       </c>
       <c r="G497" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -18465,7 +18468,7 @@
         <v>80.5500030517578</v>
       </c>
       <c r="G498" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -18491,7 +18494,7 @@
         <v>80.3499984741211</v>
       </c>
       <c r="G499" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -18517,7 +18520,7 @@
         <v>78.5500030517578</v>
       </c>
       <c r="G500" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -18543,7 +18546,7 @@
         <v>77.3499984741211</v>
       </c>
       <c r="G501" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -18569,7 +18572,7 @@
         <v>76.4000015258789</v>
       </c>
       <c r="G502" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -18595,7 +18598,7 @@
         <v>75.8000030517578</v>
       </c>
       <c r="G503" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -18621,7 +18624,7 @@
         <v>75.4000015258789</v>
       </c>
       <c r="G504" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -18647,7 +18650,7 @@
         <v>75.0500030517578</v>
       </c>
       <c r="G505" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -18673,7 +18676,7 @@
         <v>75.6999969482422</v>
       </c>
       <c r="G506" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -18699,7 +18702,7 @@
         <v>74.5999984741211</v>
       </c>
       <c r="G507" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -18725,7 +18728,7 @@
         <v>74.4499969482422</v>
       </c>
       <c r="G508" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -18751,7 +18754,7 @@
         <v>74.6500015258789</v>
       </c>
       <c r="G509" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -18777,7 +18780,7 @@
         <v>74.5999984741211</v>
       </c>
       <c r="G510" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -18803,7 +18806,7 @@
         <v>74</v>
       </c>
       <c r="G511" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -18829,7 +18832,7 @@
         <v>74.5</v>
       </c>
       <c r="G512" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -18855,7 +18858,7 @@
         <v>74.8499984741211</v>
       </c>
       <c r="G513" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -18881,7 +18884,7 @@
         <v>75.8499984741211</v>
       </c>
       <c r="G514" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -18907,7 +18910,7 @@
         <v>76.8000030517578</v>
       </c>
       <c r="G515" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -18933,7 +18936,7 @@
         <v>80.0500030517578</v>
       </c>
       <c r="G516" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -18959,7 +18962,7 @@
         <v>79.4499969482422</v>
       </c>
       <c r="G517" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -18985,7 +18988,7 @@
         <v>79.25</v>
       </c>
       <c r="G518" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -19011,7 +19014,7 @@
         <v>79.5999984741211</v>
       </c>
       <c r="G519" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -19037,7 +19040,7 @@
         <v>79.6999969482422</v>
       </c>
       <c r="G520" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -19063,7 +19066,7 @@
         <v>79.6500015258789</v>
       </c>
       <c r="G521" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -19089,7 +19092,7 @@
         <v>79.3499984741211</v>
       </c>
       <c r="G522" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -19115,7 +19118,7 @@
         <v>79.6500015258789</v>
       </c>
       <c r="G523" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -19141,7 +19144,7 @@
         <v>80.0500030517578</v>
       </c>
       <c r="G524" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -19167,7 +19170,7 @@
         <v>79.1500015258789</v>
       </c>
       <c r="G525" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -19193,7 +19196,7 @@
         <v>79.0999984741211</v>
       </c>
       <c r="G526" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -19219,7 +19222,7 @@
         <v>79.0500030517578</v>
       </c>
       <c r="G527" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -19245,7 +19248,7 @@
         <v>79</v>
       </c>
       <c r="G528" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -19271,7 +19274,7 @@
         <v>78.4000015258789</v>
       </c>
       <c r="G529" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -19297,7 +19300,7 @@
         <v>79.3000030517578</v>
       </c>
       <c r="G530" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -19323,7 +19326,7 @@
         <v>78.8499984741211</v>
       </c>
       <c r="G531" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -19349,7 +19352,7 @@
         <v>77.25</v>
       </c>
       <c r="G532" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -19375,7 +19378,7 @@
         <v>77.9499969482422</v>
       </c>
       <c r="G533" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -19401,7 +19404,7 @@
         <v>79.4000015258789</v>
       </c>
       <c r="G534" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -19427,7 +19430,7 @@
         <v>76.5500030517578</v>
       </c>
       <c r="G535" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -19453,7 +19456,7 @@
         <v>75.3499984741211</v>
       </c>
       <c r="G536" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -19479,7 +19482,7 @@
         <v>73.4499969482422</v>
       </c>
       <c r="G537" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -19505,7 +19508,7 @@
         <v>75.6999969482422</v>
       </c>
       <c r="G538" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -19531,7 +19534,7 @@
         <v>74.0999984741211</v>
       </c>
       <c r="G539" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -19557,7 +19560,7 @@
         <v>69.5500030517578</v>
       </c>
       <c r="G540" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -19583,7 +19586,7 @@
         <v>71.1999969482422</v>
       </c>
       <c r="G541" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -19609,7 +19612,7 @@
         <v>71</v>
       </c>
       <c r="G542" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -19635,7 +19638,7 @@
         <v>70</v>
       </c>
       <c r="G543" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -19661,7 +19664,7 @@
         <v>70.4000015258789</v>
       </c>
       <c r="G544" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -19687,7 +19690,7 @@
         <v>71.3000030517578</v>
       </c>
       <c r="G545" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -19713,7 +19716,7 @@
         <v>69.9000015258789</v>
       </c>
       <c r="G546" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -19739,7 +19742,7 @@
         <v>69.5500030517578</v>
       </c>
       <c r="G547" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -19765,7 +19768,7 @@
         <v>69.8000030517578</v>
       </c>
       <c r="G548" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -19791,7 +19794,7 @@
         <v>69.6500015258789</v>
       </c>
       <c r="G549" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -19817,7 +19820,7 @@
         <v>69.75</v>
       </c>
       <c r="G550" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -19843,7 +19846,7 @@
         <v>69.4499969482422</v>
       </c>
       <c r="G551" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -19869,7 +19872,7 @@
         <v>68.5</v>
       </c>
       <c r="G552" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -19895,7 +19898,7 @@
         <v>67.4499969482422</v>
       </c>
       <c r="G553" t="s">
-        <v>379</v>
+        <v>246</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -20051,7 +20054,7 @@
         <v>73.5500030517578</v>
       </c>
       <c r="G559" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -20129,7 +20132,7 @@
         <v>74</v>
       </c>
       <c r="G562" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -20155,7 +20158,7 @@
         <v>72.9000015258789</v>
       </c>
       <c r="G563" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -20181,7 +20184,7 @@
         <v>73.0500030517578</v>
       </c>
       <c r="G564" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -20259,7 +20262,7 @@
         <v>72.0500030517578</v>
       </c>
       <c r="G567" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -20285,7 +20288,7 @@
         <v>72.5</v>
       </c>
       <c r="G568" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -20337,7 +20340,7 @@
         <v>71.6500015258789</v>
       </c>
       <c r="G570" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -20363,7 +20366,7 @@
         <v>70.3499984741211</v>
       </c>
       <c r="G571" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -20415,7 +20418,7 @@
         <v>72.9000015258789</v>
       </c>
       <c r="G573" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -20441,7 +20444,7 @@
         <v>73.0999984741211</v>
       </c>
       <c r="G574" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -20467,7 +20470,7 @@
         <v>72.5</v>
       </c>
       <c r="G575" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -20493,7 +20496,7 @@
         <v>71.75</v>
       </c>
       <c r="G576" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -20571,7 +20574,7 @@
         <v>73.0500030517578</v>
       </c>
       <c r="G579" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -20597,7 +20600,7 @@
         <v>73</v>
       </c>
       <c r="G580" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -20623,7 +20626,7 @@
         <v>72.0500030517578</v>
       </c>
       <c r="G581" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -20701,7 +20704,7 @@
         <v>75.3499984741211</v>
       </c>
       <c r="G584" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -20805,7 +20808,7 @@
         <v>74.5999984741211</v>
       </c>
       <c r="G588" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -20857,7 +20860,7 @@
         <v>78.4000015258789</v>
       </c>
       <c r="G590" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -20935,7 +20938,7 @@
         <v>78.4000015258789</v>
       </c>
       <c r="G593" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -20961,7 +20964,7 @@
         <v>78.3499984741211</v>
       </c>
       <c r="G594" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -21013,7 +21016,7 @@
         <v>78</v>
       </c>
       <c r="G596" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -21065,7 +21068,7 @@
         <v>79.1500015258789</v>
       </c>
       <c r="G598" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -21091,7 +21094,7 @@
         <v>78.3000030517578</v>
       </c>
       <c r="G599" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -62101,13 +62104,13 @@
     </row>
     <row r="2177">
       <c r="A2177" s="1" t="n">
-        <v>45492.6505671296</v>
+        <v>45492.2916666667</v>
       </c>
       <c r="B2177" t="n">
         <v>123330</v>
       </c>
       <c r="C2177" t="n">
-        <v>102.599998474121</v>
+        <v>102.75</v>
       </c>
       <c r="D2177" t="n">
         <v>100.099998474121</v>
@@ -62122,6 +62125,32 @@
         <v>1723</v>
       </c>
       <c r="H2177" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" s="1" t="n">
+        <v>45495.6494212963</v>
+      </c>
+      <c r="B2178" t="n">
+        <v>206960</v>
+      </c>
+      <c r="C2178" t="n">
+        <v>105.199996948242</v>
+      </c>
+      <c r="D2178" t="n">
+        <v>102.75</v>
+      </c>
+      <c r="E2178" t="n">
+        <v>103</v>
+      </c>
+      <c r="F2178" t="n">
+        <v>103.650001525879</v>
+      </c>
+      <c r="G2178" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H2178" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DIA.MI.xlsx
+++ b/data/DIA.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="1728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="1729">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,37 +38,37 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0384178161621</t>
+    <t xml:space="preserve">43.0384140014648</t>
   </si>
   <si>
     <t xml:space="preserve">DIA.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8513069152832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5922508239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.4761276245117</t>
+    <t xml:space="preserve">43.8513031005859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5922470092773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.4761238098145</t>
   </si>
   <si>
     <t xml:space="preserve">43.3689270019531</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6900291442871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0116195678711</t>
+    <t xml:space="preserve">42.6900329589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0116157531738</t>
   </si>
   <si>
     <t xml:space="preserve">42.2612609863281</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8146171569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5104179382324</t>
+    <t xml:space="preserve">41.8146133422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5104217529297</t>
   </si>
   <si>
     <t xml:space="preserve">39.7779312133789</t>
@@ -77,25 +77,25 @@
     <t xml:space="preserve">38.5630569458008</t>
   </si>
   <si>
-    <t xml:space="preserve">38.3218727111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1253471374512</t>
+    <t xml:space="preserve">38.3218765258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1253509521484</t>
   </si>
   <si>
     <t xml:space="preserve">39.4563407897949</t>
   </si>
   <si>
-    <t xml:space="preserve">40.769474029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7878112792969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5917739868164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8950157165527</t>
+    <t xml:space="preserve">40.7694664001465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7878227233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5917701721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8950119018555</t>
   </si>
   <si>
     <t xml:space="preserve">43.3242607116699</t>
@@ -104,34 +104,34 @@
     <t xml:space="preserve">43.6190490722656</t>
   </si>
   <si>
-    <t xml:space="preserve">43.5475883483887</t>
+    <t xml:space="preserve">43.5475845336914</t>
   </si>
   <si>
     <t xml:space="preserve">42.4131164550781</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7610168457031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9208488464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2414855957031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5005302429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.0811576843262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.0990371704102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8935737609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6354789733887</t>
+    <t xml:space="preserve">41.7610206604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9208526611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2414817810059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5005264282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.081169128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.0990409851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8935813903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6354904174805</t>
   </si>
   <si>
     <t xml:space="preserve">40.9123992919922</t>
@@ -140,28 +140,28 @@
     <t xml:space="preserve">41.0106582641602</t>
   </si>
   <si>
-    <t xml:space="preserve">41.930736541748</t>
+    <t xml:space="preserve">41.9307403564453</t>
   </si>
   <si>
     <t xml:space="preserve">43.0920104980469</t>
   </si>
   <si>
-    <t xml:space="preserve">42.4756469726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1366691589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.7619705200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.4493217468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.7798347473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.100944519043</t>
+    <t xml:space="preserve">42.475643157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1366767883301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.7619743347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.4493255615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.7798385620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1009483337402</t>
   </si>
   <si>
     <t xml:space="preserve">42.3416519165039</t>
@@ -170,28 +170,28 @@
     <t xml:space="preserve">43.1902694702148</t>
   </si>
   <si>
-    <t xml:space="preserve">43.252799987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.306396484375</t>
+    <t xml:space="preserve">43.2528038024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3064002990723</t>
   </si>
   <si>
     <t xml:space="preserve">41.2786445617676</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8677368164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5193481445312</t>
+    <t xml:space="preserve">40.8677291870117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.519359588623</t>
   </si>
   <si>
     <t xml:space="preserve">41.6895484924316</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0910606384277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6712074279785</t>
+    <t xml:space="preserve">41.0910568237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6712112426758</t>
   </si>
   <si>
     <t xml:space="preserve">40.1263046264648</t>
@@ -203,46 +203,46 @@
     <t xml:space="preserve">40.8052024841309</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3496322631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6444091796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9838676452637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.664192199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.3341484069824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.8701210021973</t>
+    <t xml:space="preserve">40.3496284484863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6444129943848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9838638305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6641883850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.3341522216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.8701248168945</t>
   </si>
   <si>
     <t xml:space="preserve">46.450756072998</t>
   </si>
   <si>
-    <t xml:space="preserve">45.9594573974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.2721061706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.4333648681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.495418548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.0041160583496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.7807960510254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.468147277832</t>
+    <t xml:space="preserve">45.9594535827637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.272102355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.4333724975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.4954261779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.0041122436523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.7807998657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4681510925293</t>
   </si>
   <si>
     <t xml:space="preserve">45.5128135681152</t>
@@ -254,76 +254,76 @@
     <t xml:space="preserve">45.3788185119629</t>
   </si>
   <si>
-    <t xml:space="preserve">45.2894859313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.8254585266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.5574760437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4234771728516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.3614349365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.2274322509766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.4060859680176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8973960876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.7634048461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8527336120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.2100524902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.6740837097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.5847549438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.0285720825195</t>
+    <t xml:space="preserve">45.2894897460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.8254547119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.5574722290039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4234809875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.3614311218262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.2274398803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.4060935974121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8974075317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.7634010314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8527412414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.2100486755371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.6740798950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.5847587585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.0285758972168</t>
   </si>
   <si>
     <t xml:space="preserve">48.1190223693848</t>
   </si>
   <si>
-    <t xml:space="preserve">47.7120056152344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.5260543823242</t>
+    <t xml:space="preserve">47.7120018005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.526050567627</t>
   </si>
   <si>
     <t xml:space="preserve">48.7973976135254</t>
   </si>
   <si>
-    <t xml:space="preserve">49.7471122741699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.204418182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.1993637084961</t>
+    <t xml:space="preserve">49.7471084594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.2044219970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.1993675231934</t>
   </si>
   <si>
     <t xml:space="preserve">50.2898101806641</t>
   </si>
   <si>
-    <t xml:space="preserve">50.8777389526367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.7018928527832</t>
+    <t xml:space="preserve">50.8777313232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.7018890380859</t>
   </si>
   <si>
     <t xml:space="preserve">50.6063804626465</t>
@@ -332,7 +332,7 @@
     <t xml:space="preserve">49.7923355102539</t>
   </si>
   <si>
-    <t xml:space="preserve">50.335033416748</t>
+    <t xml:space="preserve">50.3350296020508</t>
   </si>
   <si>
     <t xml:space="preserve">49.6114387512207</t>
@@ -347,13 +347,13 @@
     <t xml:space="preserve">47.2145347595215</t>
   </si>
   <si>
-    <t xml:space="preserve">47.5311050415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7069396972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.9732322692871</t>
+    <t xml:space="preserve">47.5311012268066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.7069435119629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.9732360839844</t>
   </si>
   <si>
     <t xml:space="preserve">46.7622833251953</t>
@@ -362,7 +362,7 @@
     <t xml:space="preserve">45.5864448547363</t>
   </si>
   <si>
-    <t xml:space="preserve">46.6266136169434</t>
+    <t xml:space="preserve">46.6266174316406</t>
   </si>
   <si>
     <t xml:space="preserve">49.52099609375</t>
@@ -371,16 +371,16 @@
     <t xml:space="preserve">50.380256652832</t>
   </si>
   <si>
-    <t xml:space="preserve">51.0586242675781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7521705627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.566219329834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.4707069396973</t>
+    <t xml:space="preserve">51.0586280822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.7521667480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.5662155151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.470703125</t>
   </si>
   <si>
     <t xml:space="preserve">49.6566696166992</t>
@@ -389,19 +389,19 @@
     <t xml:space="preserve">51.2395286560059</t>
   </si>
   <si>
-    <t xml:space="preserve">51.8726692199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.917896270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.6013221740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.5108795166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.2344627380371</t>
+    <t xml:space="preserve">51.8726654052734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.9179000854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.6013259887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.5108757019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.2344703674316</t>
   </si>
   <si>
     <t xml:space="preserve">52.4605941772461</t>
@@ -410,31 +410,31 @@
     <t xml:space="preserve">51.6465492248535</t>
   </si>
   <si>
-    <t xml:space="preserve">51.4204292297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.9229545593262</t>
+    <t xml:space="preserve">51.4204254150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.9229507446289</t>
   </si>
   <si>
     <t xml:space="preserve">50.6968269348145</t>
   </si>
   <si>
-    <t xml:space="preserve">50.515926361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.8325080871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.2796936035156</t>
+    <t xml:space="preserve">50.5159301757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.8325119018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.2796897888184</t>
   </si>
   <si>
     <t xml:space="preserve">54.2695770263672</t>
   </si>
   <si>
-    <t xml:space="preserve">53.7721061706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.8575019836426</t>
+    <t xml:space="preserve">53.7721099853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.8574981689453</t>
   </si>
   <si>
     <t xml:space="preserve">55.0383949279785</t>
@@ -446,22 +446,22 @@
     <t xml:space="preserve">54.8122787475586</t>
   </si>
   <si>
-    <t xml:space="preserve">52.7319374084473</t>
+    <t xml:space="preserve">52.7319412231445</t>
   </si>
   <si>
     <t xml:space="preserve">52.3249168395996</t>
   </si>
   <si>
-    <t xml:space="preserve">51.3299713134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0535697937012</t>
+    <t xml:space="preserve">51.3299789428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0535659790039</t>
   </si>
   <si>
     <t xml:space="preserve">51.2847557067871</t>
   </si>
   <si>
-    <t xml:space="preserve">52.9128379821777</t>
+    <t xml:space="preserve">52.9128341674805</t>
   </si>
   <si>
     <t xml:space="preserve">52.4153709411621</t>
@@ -470,46 +470,46 @@
     <t xml:space="preserve">52.0987968444824</t>
   </si>
   <si>
-    <t xml:space="preserve">52.0083465576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.5510368347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.7369995117188</t>
+    <t xml:space="preserve">52.0083503723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.5510406494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.7369956970215</t>
   </si>
   <si>
     <t xml:space="preserve">51.1038513183594</t>
   </si>
   <si>
-    <t xml:space="preserve">50.1089134216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.9280090332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.641487121582</t>
+    <t xml:space="preserve">50.1089096069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.9280128479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.6414985656738</t>
   </si>
   <si>
     <t xml:space="preserve">53.1841850280762</t>
   </si>
   <si>
-    <t xml:space="preserve">53.3650894165039</t>
+    <t xml:space="preserve">53.3650817871094</t>
   </si>
   <si>
     <t xml:space="preserve">52.1892433166504</t>
   </si>
   <si>
-    <t xml:space="preserve">53.0032844543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.2746391296387</t>
+    <t xml:space="preserve">53.003288269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.2746429443359</t>
   </si>
   <si>
     <t xml:space="preserve">52.958065032959</t>
   </si>
   <si>
-    <t xml:space="preserve">53.8625526428223</t>
+    <t xml:space="preserve">53.8625564575195</t>
   </si>
   <si>
     <t xml:space="preserve">52.3701400756836</t>
@@ -518,16 +518,16 @@
     <t xml:space="preserve">51.8274459838867</t>
   </si>
   <si>
-    <t xml:space="preserve">51.3751983642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.787281036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.5561027526855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.6515998840332</t>
+    <t xml:space="preserve">51.3752021789551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.7872848510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.5560989379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.6516075134277</t>
   </si>
   <si>
     <t xml:space="preserve">49.3400917053223</t>
@@ -536,40 +536,40 @@
     <t xml:space="preserve">48.2546997070312</t>
   </si>
   <si>
-    <t xml:space="preserve">48.4355964660645</t>
+    <t xml:space="preserve">48.4356002807617</t>
   </si>
   <si>
     <t xml:space="preserve">45.903018951416</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3100433349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.1291427612305</t>
+    <t xml:space="preserve">46.3100395202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.1291389465332</t>
   </si>
   <si>
     <t xml:space="preserve">46.988410949707</t>
   </si>
   <si>
-    <t xml:space="preserve">47.2597579956055</t>
+    <t xml:space="preserve">47.2597541809082</t>
   </si>
   <si>
     <t xml:space="preserve">46.8527374267578</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3552627563477</t>
+    <t xml:space="preserve">46.3552665710449</t>
   </si>
   <si>
     <t xml:space="preserve">46.7170639038086</t>
   </si>
   <si>
-    <t xml:space="preserve">47.1693115234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.033634185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.5813903808594</t>
+    <t xml:space="preserve">47.1693153381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.0336380004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.5813865661621</t>
   </si>
   <si>
     <t xml:space="preserve">46.0386962890625</t>
@@ -581,73 +581,73 @@
     <t xml:space="preserve">47.1240844726562</t>
   </si>
   <si>
-    <t xml:space="preserve">46.8979606628418</t>
+    <t xml:space="preserve">46.8979530334473</t>
   </si>
   <si>
     <t xml:space="preserve">47.8476791381836</t>
   </si>
   <si>
-    <t xml:space="preserve">48.0737991333008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.8375549316406</t>
+    <t xml:space="preserve">48.073802947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.8375625610352</t>
   </si>
   <si>
     <t xml:space="preserve">51.0134048461914</t>
   </si>
   <si>
-    <t xml:space="preserve">52.822395324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.1490783691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.4757652282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.2445831298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.4656524658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.7822227478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.8676147460938</t>
+    <t xml:space="preserve">52.8223915100098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.1490707397461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.4757614135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.2445907592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.465648651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.7822189331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.8676071166992</t>
   </si>
   <si>
     <t xml:space="preserve">53.1389617919922</t>
   </si>
   <si>
-    <t xml:space="preserve">54.04345703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.088680267334</t>
+    <t xml:space="preserve">54.0434494018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.0886764526367</t>
   </si>
   <si>
     <t xml:space="preserve">54.133903503418</t>
   </si>
   <si>
-    <t xml:space="preserve">54.3600273132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.5912055969238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.9530029296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.5409202575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.4906463623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.3046798706055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.0333404541016</t>
+    <t xml:space="preserve">54.3600234985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.5912094116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.9530067443848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.5409240722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.4906425476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.3046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.0333442687988</t>
   </si>
   <si>
     <t xml:space="preserve">56.214241027832</t>
@@ -656,13 +656,13 @@
     <t xml:space="preserve">56.9830551147461</t>
   </si>
   <si>
-    <t xml:space="preserve">56.8473854064941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.349910736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.525749206543</t>
+    <t xml:space="preserve">56.8473739624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.3499183654785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.5257530212402</t>
   </si>
   <si>
     <t xml:space="preserve">57.2544059753418</t>
@@ -671,37 +671,37 @@
     <t xml:space="preserve">57.7066459655762</t>
   </si>
   <si>
-    <t xml:space="preserve">57.7971000671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.1588973999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.0684547424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.7920417785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.6513061523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.7869873046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.5156364440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.8372650146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.8875503540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.1136703491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.3347396850586</t>
+    <t xml:space="preserve">57.7971076965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.1589012145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.0684471130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.7920455932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.651309967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.7869911193848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.5156326293945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.8372688293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.8875465393066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.1136741638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.3347358703613</t>
   </si>
   <si>
     <t xml:space="preserve">60.7819213867188</t>
@@ -710,28 +710,28 @@
     <t xml:space="preserve">59.6965408325195</t>
   </si>
   <si>
-    <t xml:space="preserve">60.0583343505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.0532875061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.2291259765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.2190093994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.9527053833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.4100227355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.6813621520996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.6310768127441</t>
+    <t xml:space="preserve">60.0583305358887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.0532722473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.2291145324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.2190017700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.9526977539062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.4100189208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.6813735961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.6310844421387</t>
   </si>
   <si>
     <t xml:space="preserve">63.4954032897949</t>
@@ -740,7 +740,7 @@
     <t xml:space="preserve">63.178840637207</t>
   </si>
   <si>
-    <t xml:space="preserve">63.5406303405762</t>
+    <t xml:space="preserve">63.5406379699707</t>
   </si>
   <si>
     <t xml:space="preserve">63.3144989013672</t>
@@ -749,31 +749,31 @@
     <t xml:space="preserve">61.6411972045898</t>
   </si>
   <si>
-    <t xml:space="preserve">60.9628295898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.7316474914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.4638175964355</t>
+    <t xml:space="preserve">60.9628257751465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.7316436767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.4638137817383</t>
   </si>
   <si>
     <t xml:space="preserve">62.7383842468262</t>
   </si>
   <si>
-    <t xml:space="preserve">62.8756675720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.1044769287109</t>
+    <t xml:space="preserve">62.8756637573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.1044692993164</t>
   </si>
   <si>
     <t xml:space="preserve">63.3332786560059</t>
   </si>
   <si>
-    <t xml:space="preserve">62.2807846069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.2485046386719</t>
+    <t xml:space="preserve">62.2807884216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.2484970092773</t>
   </si>
   <si>
     <t xml:space="preserve">64.5688323974609</t>
@@ -782,7 +782,7 @@
     <t xml:space="preserve">64.2942733764648</t>
   </si>
   <si>
-    <t xml:space="preserve">65.3925323486328</t>
+    <t xml:space="preserve">65.3925247192383</t>
   </si>
   <si>
     <t xml:space="preserve">64.8891525268555</t>
@@ -797,34 +797,34 @@
     <t xml:space="preserve">63.9739418029785</t>
   </si>
   <si>
-    <t xml:space="preserve">63.8366470336914</t>
+    <t xml:space="preserve">63.8366546630859</t>
   </si>
   <si>
     <t xml:space="preserve">65.3467712402344</t>
   </si>
   <si>
-    <t xml:space="preserve">64.7061004638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.2552642822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.1179580688477</t>
+    <t xml:space="preserve">64.7061157226562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.2552490234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.1179656982422</t>
   </si>
   <si>
     <t xml:space="preserve">64.9806823730469</t>
   </si>
   <si>
-    <t xml:space="preserve">66.5365524291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.8689270019531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.4045791625977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.5486030578613</t>
+    <t xml:space="preserve">66.5365447998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.8689308166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.4045829772949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.5486106872559</t>
   </si>
   <si>
     <t xml:space="preserve">60.9537048339844</t>
@@ -833,127 +833,127 @@
     <t xml:space="preserve">61.5943641662598</t>
   </si>
   <si>
-    <t xml:space="preserve">61.3198013305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.4503440856934</t>
+    <t xml:space="preserve">61.3197898864746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.4503364562988</t>
   </si>
   <si>
     <t xml:space="preserve">61.4113159179688</t>
   </si>
   <si>
-    <t xml:space="preserve">62.2350120544434</t>
+    <t xml:space="preserve">62.2350196838379</t>
   </si>
   <si>
     <t xml:space="preserve">63.1959991455078</t>
   </si>
   <si>
-    <t xml:space="preserve">64.0196914672852</t>
+    <t xml:space="preserve">64.0196838378906</t>
   </si>
   <si>
     <t xml:space="preserve">64.3857879638672</t>
   </si>
   <si>
-    <t xml:space="preserve">64.2027435302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.928165435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.085693359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.6348266601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.8568954467773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.3602523803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.1772155761719</t>
+    <t xml:space="preserve">64.202751159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.9281806945801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.0856857299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.6348190307617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.8568801879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.3602600097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.1772003173828</t>
   </si>
   <si>
     <t xml:space="preserve">66.8111190795898</t>
   </si>
   <si>
-    <t xml:space="preserve">66.719596862793</t>
+    <t xml:space="preserve">66.719612121582</t>
   </si>
   <si>
     <t xml:space="preserve">66.4450302124023</t>
   </si>
   <si>
-    <t xml:space="preserve">65.8501205444336</t>
+    <t xml:space="preserve">65.8501358032227</t>
   </si>
   <si>
     <t xml:space="preserve">66.0331802368164</t>
   </si>
   <si>
-    <t xml:space="preserve">65.5755767822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.6213302612305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.4840545654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.3010101318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.7976303100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.1112289428711</t>
+    <t xml:space="preserve">65.5755844116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.6213226318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.4840469360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.3010025024414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.7976455688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.111213684082</t>
   </si>
   <si>
     <t xml:space="preserve">66.2619857788086</t>
   </si>
   <si>
-    <t xml:space="preserve">66.307746887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.1314544677734</t>
+    <t xml:space="preserve">66.3077545166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.131462097168</t>
   </si>
   <si>
     <t xml:space="preserve">67.4517822265625</t>
   </si>
   <si>
-    <t xml:space="preserve">67.3144989013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.7263565063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.9026412963867</t>
+    <t xml:space="preserve">67.3144912719727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.7263488769531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.9026260375977</t>
   </si>
   <si>
     <t xml:space="preserve">67.2229614257812</t>
   </si>
   <si>
-    <t xml:space="preserve">67.9551544189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.5433044433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.2754669189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.4194946289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.0076599121094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.7330856323242</t>
+    <t xml:space="preserve">67.9551391601562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.5432968139648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.2754745483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.4195022583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.0076522827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.7330932617188</t>
   </si>
   <si>
     <t xml:space="preserve">68.8246002197266</t>
   </si>
   <si>
-    <t xml:space="preserve">69.0534057617188</t>
+    <t xml:space="preserve">69.0534210205078</t>
   </si>
   <si>
     <t xml:space="preserve">70.0143966674805</t>
@@ -965,16 +965,16 @@
     <t xml:space="preserve">71.2957077026367</t>
   </si>
   <si>
-    <t xml:space="preserve">72.897346496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.3024520874023</t>
+    <t xml:space="preserve">72.8973388671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.3024597167969</t>
   </si>
   <si>
     <t xml:space="preserve">72.4397277832031</t>
   </si>
   <si>
-    <t xml:space="preserve">71.7533111572266</t>
+    <t xml:space="preserve">71.753303527832</t>
   </si>
   <si>
     <t xml:space="preserve">72.0736312866211</t>
@@ -986,34 +986,34 @@
     <t xml:space="preserve">71.7990646362305</t>
   </si>
   <si>
-    <t xml:space="preserve">71.1584243774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.2499389648438</t>
+    <t xml:space="preserve">71.1584320068359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.2499465942383</t>
   </si>
   <si>
     <t xml:space="preserve">71.432991027832</t>
   </si>
   <si>
-    <t xml:space="preserve">71.6618041992188</t>
+    <t xml:space="preserve">71.6617965698242</t>
   </si>
   <si>
     <t xml:space="preserve">71.7075500488281</t>
   </si>
   <si>
-    <t xml:space="preserve">71.3872222900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.4787521362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.2566757202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.3414611816406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.4854965209961</t>
+    <t xml:space="preserve">71.3872146606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.4787445068359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.2566909790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.3414535522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.485481262207</t>
   </si>
   <si>
     <t xml:space="preserve">71.8906021118164</t>
@@ -1022,10 +1022,10 @@
     <t xml:space="preserve">71.6160354614258</t>
   </si>
   <si>
-    <t xml:space="preserve">65.941650390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.3992767333984</t>
+    <t xml:space="preserve">65.9416732788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.399284362793</t>
   </si>
   <si>
     <t xml:space="preserve">68.3212280273438</t>
@@ -1037,13 +1037,13 @@
     <t xml:space="preserve">70.1516799926758</t>
   </si>
   <si>
-    <t xml:space="preserve">70.9296264648438</t>
+    <t xml:space="preserve">70.9296188354492</t>
   </si>
   <si>
     <t xml:space="preserve">70.6550445556641</t>
   </si>
   <si>
-    <t xml:space="preserve">69.8771209716797</t>
+    <t xml:space="preserve">69.8771133422852</t>
   </si>
   <si>
     <t xml:space="preserve">68.183952331543</t>
@@ -1052,10 +1052,10 @@
     <t xml:space="preserve">69.2364501953125</t>
   </si>
   <si>
-    <t xml:space="preserve">69.9228744506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.0601654052734</t>
+    <t xml:space="preserve">69.9228820800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.0601577758789</t>
   </si>
   <si>
     <t xml:space="preserve">70.8380966186523</t>
@@ -1064,37 +1064,37 @@
     <t xml:space="preserve">71.06689453125</t>
   </si>
   <si>
-    <t xml:space="preserve">72.8058242797852</t>
+    <t xml:space="preserve">72.8058166503906</t>
   </si>
   <si>
     <t xml:space="preserve">73.5379943847656</t>
   </si>
   <si>
-    <t xml:space="preserve">70.7923202514648</t>
+    <t xml:space="preserve">70.7923278808594</t>
   </si>
   <si>
     <t xml:space="preserve">69.3737335205078</t>
   </si>
   <si>
-    <t xml:space="preserve">69.2822189331055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.1381988525391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.504280090332</t>
+    <t xml:space="preserve">69.2822036743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.13818359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.5042877197266</t>
   </si>
   <si>
     <t xml:space="preserve">70.2889633178711</t>
   </si>
   <si>
-    <t xml:space="preserve">73.2634353637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.7142944335938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.5312576293945</t>
+    <t xml:space="preserve">73.263427734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.7143020629883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.5312423706055</t>
   </si>
   <si>
     <t xml:space="preserve">72.8515777587891</t>
@@ -1103,13 +1103,13 @@
     <t xml:space="preserve">72.9430999755859</t>
   </si>
   <si>
-    <t xml:space="preserve">72.6227798461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.3939590454102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.3482055664062</t>
+    <t xml:space="preserve">72.6227722167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.3939666748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.3482131958008</t>
   </si>
   <si>
     <t xml:space="preserve">72.577018737793</t>
@@ -1118,10 +1118,10 @@
     <t xml:space="preserve">72.1651611328125</t>
   </si>
   <si>
-    <t xml:space="preserve">70.700798034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.6685409545898</t>
+    <t xml:space="preserve">70.700813293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.6685333251953</t>
   </si>
   <si>
     <t xml:space="preserve">68.9618835449219</t>
@@ -1133,25 +1133,28 @@
     <t xml:space="preserve">63.6536140441895</t>
   </si>
   <si>
-    <t xml:space="preserve">65.1637268066406</t>
+    <t xml:space="preserve">65.1637191772461</t>
   </si>
   <si>
     <t xml:space="preserve">64.0654525756836</t>
   </si>
   <si>
-    <t xml:space="preserve">64.4315567016602</t>
+    <t xml:space="preserve">64.4315414428711</t>
   </si>
   <si>
     <t xml:space="preserve">63.8824157714844</t>
   </si>
   <si>
-    <t xml:space="preserve">63.7451210021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.5620803833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.6926307678223</t>
+    <t xml:space="preserve">63.7451324462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.5620956420898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.6926345825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.7316513061523</t>
   </si>
   <si>
     <t xml:space="preserve">60.7706642150879</t>
@@ -1160,19 +1163,19 @@
     <t xml:space="preserve">60.4960975646973</t>
   </si>
   <si>
-    <t xml:space="preserve">61.6401290893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.6011085510254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.6145858764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.4127578735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.5890502929688</t>
+    <t xml:space="preserve">61.6401214599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.6011047363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.6145782470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.4127655029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.5890579223633</t>
   </si>
   <si>
     <t xml:space="preserve">66.0789413452148</t>
@@ -1187,70 +1190,70 @@
     <t xml:space="preserve">66.1247024536133</t>
   </si>
   <si>
-    <t xml:space="preserve">67.2687301635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.1449356079102</t>
+    <t xml:space="preserve">67.2687377929688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.1449432373047</t>
   </si>
   <si>
     <t xml:space="preserve">71.0211334228516</t>
   </si>
   <si>
-    <t xml:space="preserve">69.7398300170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.7465744018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.5245056152344</t>
+    <t xml:space="preserve">69.7398223876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.7465667724609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.5245132446289</t>
   </si>
   <si>
     <t xml:space="preserve">72.0278778076172</t>
   </si>
   <si>
-    <t xml:space="preserve">71.9821243286133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.5837554931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.6362533569336</t>
+    <t xml:space="preserve">71.9821319580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.5837631225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.6362686157227</t>
   </si>
   <si>
     <t xml:space="preserve">73.4007110595703</t>
   </si>
   <si>
-    <t xml:space="preserve">74.4074554443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.1328887939453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.3159255981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.6430053710938</t>
+    <t xml:space="preserve">74.4074630737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.1328811645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.3159332275391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.6429977416992</t>
   </si>
   <si>
     <t xml:space="preserve">74.4989700317383</t>
   </si>
   <si>
-    <t xml:space="preserve">75.1463928222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.7475662231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.6376953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.8862991333008</t>
+    <t xml:space="preserve">75.1463851928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.74755859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.6377029418945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.8862915039062</t>
   </si>
   <si>
     <t xml:space="preserve">77.8285369873047</t>
   </si>
   <si>
-    <t xml:space="preserve">76.7649307250977</t>
+    <t xml:space="preserve">76.7649230957031</t>
   </si>
   <si>
     <t xml:space="preserve">75.1001434326172</t>
@@ -1262,10 +1265,10 @@
     <t xml:space="preserve">76.3949737548828</t>
   </si>
   <si>
-    <t xml:space="preserve">79.0771102905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.9268798828125</t>
+    <t xml:space="preserve">79.0771179199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.926872253418</t>
   </si>
   <si>
     <t xml:space="preserve">81.6205444335938</t>
@@ -1274,34 +1277,34 @@
     <t xml:space="preserve">81.3893203735352</t>
   </si>
   <si>
-    <t xml:space="preserve">81.7592697143555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.2968368530273</t>
+    <t xml:space="preserve">81.7592620849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.2968444824219</t>
   </si>
   <si>
     <t xml:space="preserve">82.2679595947266</t>
   </si>
   <si>
-    <t xml:space="preserve">84.1639556884766</t>
+    <t xml:space="preserve">84.1639633178711</t>
   </si>
   <si>
     <t xml:space="preserve">85.4587936401367</t>
   </si>
   <si>
-    <t xml:space="preserve">86.3374252319336</t>
+    <t xml:space="preserve">86.3374328613281</t>
   </si>
   <si>
     <t xml:space="preserve">86.0137176513672</t>
   </si>
   <si>
-    <t xml:space="preserve">85.3662948608398</t>
+    <t xml:space="preserve">85.3663024902344</t>
   </si>
   <si>
     <t xml:space="preserve">84.1177139282227</t>
   </si>
   <si>
-    <t xml:space="preserve">82.7766418457031</t>
+    <t xml:space="preserve">82.7766342163086</t>
   </si>
   <si>
     <t xml:space="preserve">82.4529342651367</t>
@@ -1310,7 +1313,7 @@
     <t xml:space="preserve">88.7883453369141</t>
   </si>
   <si>
-    <t xml:space="preserve">87.9097137451172</t>
+    <t xml:space="preserve">87.9097213745117</t>
   </si>
   <si>
     <t xml:space="preserve">88.5108795166016</t>
@@ -1322,16 +1325,16 @@
     <t xml:space="preserve">89.1120681762695</t>
   </si>
   <si>
-    <t xml:space="preserve">90.3606491088867</t>
+    <t xml:space="preserve">90.3606414794922</t>
   </si>
   <si>
     <t xml:space="preserve">89.0658264160156</t>
   </si>
   <si>
-    <t xml:space="preserve">90.175666809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.1583023071289</t>
+    <t xml:space="preserve">90.1756744384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.1583099365234</t>
   </si>
   <si>
     <t xml:space="preserve">88.3721618652344</t>
@@ -1340,34 +1343,34 @@
     <t xml:space="preserve">88.6033782958984</t>
   </si>
   <si>
-    <t xml:space="preserve">88.6958694458008</t>
+    <t xml:space="preserve">88.6958618164062</t>
   </si>
   <si>
     <t xml:space="preserve">88.9270858764648</t>
   </si>
   <si>
-    <t xml:space="preserve">90.8230743408203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.3143997192383</t>
+    <t xml:space="preserve">90.8230819702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.3143920898438</t>
   </si>
   <si>
     <t xml:space="preserve">90.5456161499023</t>
   </si>
   <si>
-    <t xml:space="preserve">89.2507858276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.7421035766602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.4820022583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.4010391235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.9385986328125</t>
+    <t xml:space="preserve">89.2507934570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.7420959472656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.4820098876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.4010314941406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.938591003418</t>
   </si>
   <si>
     <t xml:space="preserve">87.2623062133789</t>
@@ -1382,16 +1385,16 @@
     <t xml:space="preserve">84.9038619995117</t>
   </si>
   <si>
-    <t xml:space="preserve">78.6609268188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.7881469726562</t>
+    <t xml:space="preserve">78.6609344482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.7881393432617</t>
   </si>
   <si>
     <t xml:space="preserve">82.0829772949219</t>
   </si>
   <si>
-    <t xml:space="preserve">81.2505874633789</t>
+    <t xml:space="preserve">81.2505798339844</t>
   </si>
   <si>
     <t xml:space="preserve">81.4818115234375</t>
@@ -1406,10 +1409,10 @@
     <t xml:space="preserve">80.0482482910156</t>
   </si>
   <si>
-    <t xml:space="preserve">80.3257141113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.1986770629883</t>
+    <t xml:space="preserve">80.3256988525391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.1986923217773</t>
   </si>
   <si>
     <t xml:space="preserve">86.7073745727539</t>
@@ -1418,16 +1421,16 @@
     <t xml:space="preserve">84.6263961791992</t>
   </si>
   <si>
-    <t xml:space="preserve">84.9500961303711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.7188949584961</t>
+    <t xml:space="preserve">84.9501037597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.7188873291016</t>
   </si>
   <si>
     <t xml:space="preserve">84.3026885986328</t>
   </si>
   <si>
-    <t xml:space="preserve">84.8113632202148</t>
+    <t xml:space="preserve">84.8113784790039</t>
   </si>
   <si>
     <t xml:space="preserve">85.9212188720703</t>
@@ -1436,22 +1439,22 @@
     <t xml:space="preserve">86.7536239624023</t>
   </si>
   <si>
-    <t xml:space="preserve">85.4125442504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.6841430664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.9616241455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.0367431640625</t>
+    <t xml:space="preserve">85.4125518798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.6841506958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.9616088867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.0367279052734</t>
   </si>
   <si>
     <t xml:space="preserve">82.3142013549805</t>
   </si>
   <si>
-    <t xml:space="preserve">83.8864974975586</t>
+    <t xml:space="preserve">83.8864822387695</t>
   </si>
   <si>
     <t xml:space="preserve">88.6496124267578</t>
@@ -1460,31 +1463,31 @@
     <t xml:space="preserve">89.8982086181641</t>
   </si>
   <si>
-    <t xml:space="preserve">85.3200454711914</t>
+    <t xml:space="preserve">85.3200531005859</t>
   </si>
   <si>
     <t xml:space="preserve">86.1062088012695</t>
   </si>
   <si>
-    <t xml:space="preserve">85.9674606323242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.7940139770508</t>
+    <t xml:space="preserve">85.9674530029297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.7939987182617</t>
   </si>
   <si>
     <t xml:space="preserve">84.4414215087891</t>
   </si>
   <si>
-    <t xml:space="preserve">82.4991760253906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.2794723510742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.1175155639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.3776092529297</t>
+    <t xml:space="preserve">82.4991683959961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.2794570922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.1175231933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.3776168823242</t>
   </si>
   <si>
     <t xml:space="preserve">74.2677612304688</t>
@@ -1499,43 +1502,40 @@
     <t xml:space="preserve">73.5278549194336</t>
   </si>
   <si>
-    <t xml:space="preserve">73.8515548706055</t>
+    <t xml:space="preserve">73.8515625</t>
   </si>
   <si>
     <t xml:space="preserve">75.470100402832</t>
   </si>
   <si>
-    <t xml:space="preserve">75.8400573730469</t>
+    <t xml:space="preserve">75.8400497436523</t>
   </si>
   <si>
     <t xml:space="preserve">76.2099990844727</t>
   </si>
   <si>
-    <t xml:space="preserve">77.4123458862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.7590713500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.4989776611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.7764358520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.2041473388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.9151840209961</t>
+    <t xml:space="preserve">77.4123306274414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.7590789794922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.7764434814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.2041397094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.915168762207</t>
   </si>
   <si>
     <t xml:space="preserve">76.025016784668</t>
   </si>
   <si>
-    <t xml:space="preserve">77.5048294067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.9731292724609</t>
+    <t xml:space="preserve">77.5048217773438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.9731216430664</t>
   </si>
   <si>
     <t xml:space="preserve">76.302490234375</t>
@@ -1553,115 +1553,115 @@
     <t xml:space="preserve">71.5856094360352</t>
   </si>
   <si>
-    <t xml:space="preserve">72.0018005371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.8804321289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.0365447998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.2503967285156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.9555587768555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.7705764770508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.458381652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.3658905029297</t>
+    <t xml:space="preserve">72.0018081665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.8804473876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.0365371704102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.2503890991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.95556640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.7705841064453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.4583892822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.3658981323242</t>
   </si>
   <si>
     <t xml:space="preserve">69.7358551025391</t>
   </si>
   <si>
-    <t xml:space="preserve">72.233024597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.6548690795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.2560501098633</t>
+    <t xml:space="preserve">72.2330322265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.6548843383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.2560577392578</t>
   </si>
   <si>
     <t xml:space="preserve">67.7936096191406</t>
   </si>
   <si>
-    <t xml:space="preserve">67.4699020385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.4410247802734</t>
+    <t xml:space="preserve">67.4698944091797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.441032409668</t>
   </si>
   <si>
     <t xml:space="preserve">67.7011184692383</t>
   </si>
   <si>
-    <t xml:space="preserve">66.3600387573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.8339920043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.2501983642578</t>
+    <t xml:space="preserve">66.3600463867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.833984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.2501907348633</t>
   </si>
   <si>
     <t xml:space="preserve">65.1114654541016</t>
   </si>
   <si>
-    <t xml:space="preserve">65.6201477050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.0074615478516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.7744750976562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.0548782348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.5291061401367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.1497268676758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.8960647583008</t>
+    <t xml:space="preserve">65.6201400756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.0074691772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.7744827270508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.0548858642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.5290908813477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.1497344970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.8960723876953</t>
   </si>
   <si>
     <t xml:space="preserve">70.3744201660156</t>
   </si>
   <si>
-    <t xml:space="preserve">70.0899047851562</t>
+    <t xml:space="preserve">70.0898971557617</t>
   </si>
   <si>
     <t xml:space="preserve">70.5166931152344</t>
   </si>
   <si>
-    <t xml:space="preserve">71.6548233032227</t>
+    <t xml:space="preserve">71.6548309326172</t>
   </si>
   <si>
     <t xml:space="preserve">71.0383377075195</t>
   </si>
   <si>
-    <t xml:space="preserve">70.6589660644531</t>
+    <t xml:space="preserve">70.6589584350586</t>
   </si>
   <si>
     <t xml:space="preserve">71.7970962524414</t>
   </si>
   <si>
-    <t xml:space="preserve">73.5042953491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.9785079956055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.2073516845703</t>
+    <t xml:space="preserve">73.504280090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.9785003662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.2073440551758</t>
   </si>
   <si>
     <t xml:space="preserve">76.0650787353516</t>
@@ -1676,19 +1676,19 @@
     <t xml:space="preserve">76.0176696777344</t>
   </si>
   <si>
-    <t xml:space="preserve">76.254768371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.6382827758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.53515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.1083755493164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.8279647827148</t>
+    <t xml:space="preserve">76.2547607421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.6382904052734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.5351638793945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.1083679199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.8279724121094</t>
   </si>
   <si>
     <t xml:space="preserve">77.8671188354492</t>
@@ -1703,7 +1703,7 @@
     <t xml:space="preserve">79.6217422485352</t>
   </si>
   <si>
-    <t xml:space="preserve">80.7124557495117</t>
+    <t xml:space="preserve">80.7124481201172</t>
   </si>
   <si>
     <t xml:space="preserve">80.28564453125</t>
@@ -1718,31 +1718,31 @@
     <t xml:space="preserve">80.4279251098633</t>
   </si>
   <si>
-    <t xml:space="preserve">80.8072891235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.0444030761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.0485458374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.9021453857422</t>
+    <t xml:space="preserve">80.8072967529297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.0443954467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.0485382080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.9021377563477</t>
   </si>
   <si>
     <t xml:space="preserve">81.7083129882812</t>
   </si>
   <si>
-    <t xml:space="preserve">81.3289413452148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.8031539916992</t>
+    <t xml:space="preserve">81.3289337158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.8031616210938</t>
   </si>
   <si>
     <t xml:space="preserve">83.0835571289062</t>
   </si>
   <si>
-    <t xml:space="preserve">82.7516021728516</t>
+    <t xml:space="preserve">82.7516098022461</t>
   </si>
   <si>
     <t xml:space="preserve">82.4196548461914</t>
@@ -1751,16 +1751,16 @@
     <t xml:space="preserve">82.3722229003906</t>
   </si>
   <si>
-    <t xml:space="preserve">82.2773818969727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.2732543945312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.1825408935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.3763656616211</t>
+    <t xml:space="preserve">82.2773742675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.2732467651367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.1825332641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.3763580322266</t>
   </si>
   <si>
     <t xml:space="preserve">80.9969863891602</t>
@@ -1790,7 +1790,7 @@
     <t xml:space="preserve">85.1227035522461</t>
   </si>
   <si>
-    <t xml:space="preserve">85.0752868652344</t>
+    <t xml:space="preserve">85.0752792358398</t>
   </si>
   <si>
     <t xml:space="preserve">85.881462097168</t>
@@ -1799,10 +1799,10 @@
     <t xml:space="preserve">86.877326965332</t>
   </si>
   <si>
-    <t xml:space="preserve">87.9680404663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.2566986083984</t>
+    <t xml:space="preserve">87.9680328369141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.256706237793</t>
   </si>
   <si>
     <t xml:space="preserve">86.9247589111328</t>
@@ -1811,19 +1811,19 @@
     <t xml:space="preserve">86.7824783325195</t>
   </si>
   <si>
-    <t xml:space="preserve">86.3082580566406</t>
+    <t xml:space="preserve">86.3082656860352</t>
   </si>
   <si>
     <t xml:space="preserve">86.2134094238281</t>
   </si>
   <si>
-    <t xml:space="preserve">86.7350616455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.130989074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.7598724365234</t>
+    <t xml:space="preserve">86.7350540161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.1309814453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.7598648071289</t>
   </si>
   <si>
     <t xml:space="preserve">81.2815170288086</t>
@@ -1832,16 +1832,16 @@
     <t xml:space="preserve">82.6093368530273</t>
   </si>
   <si>
-    <t xml:space="preserve">82.8938598632812</t>
+    <t xml:space="preserve">82.8938674926758</t>
   </si>
   <si>
     <t xml:space="preserve">84.8855972290039</t>
   </si>
   <si>
-    <t xml:space="preserve">85.2649688720703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.3598175048828</t>
+    <t xml:space="preserve">85.2649612426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.3598251342773</t>
   </si>
   <si>
     <t xml:space="preserve">86.4030990600586</t>
@@ -1850,16 +1850,16 @@
     <t xml:space="preserve">89.2958526611328</t>
   </si>
   <si>
-    <t xml:space="preserve">90.6236801147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.4257049560547</t>
+    <t xml:space="preserve">90.6236724853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92.4257125854492</t>
   </si>
   <si>
     <t xml:space="preserve">92.3782958984375</t>
   </si>
   <si>
-    <t xml:space="preserve">92.8569412231445</t>
+    <t xml:space="preserve">92.85693359375</t>
   </si>
   <si>
     <t xml:space="preserve">92.3304290771484</t>
@@ -1868,13 +1868,13 @@
     <t xml:space="preserve">93.335578918457</t>
   </si>
   <si>
-    <t xml:space="preserve">92.7133483886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91.9953765869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91.7560653686523</t>
+    <t xml:space="preserve">92.7133407592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91.9953842163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91.7560577392578</t>
   </si>
   <si>
     <t xml:space="preserve">90.3201217651367</t>
@@ -1883,7 +1883,7 @@
     <t xml:space="preserve">89.4585647583008</t>
   </si>
   <si>
-    <t xml:space="preserve">89.9372024536133</t>
+    <t xml:space="preserve">89.9371948242188</t>
   </si>
   <si>
     <t xml:space="preserve">87.6397171020508</t>
@@ -1898,7 +1898,7 @@
     <t xml:space="preserve">93.1441268920898</t>
   </si>
   <si>
-    <t xml:space="preserve">94.2928695678711</t>
+    <t xml:space="preserve">94.2928771972656</t>
   </si>
   <si>
     <t xml:space="preserve">96.7818145751953</t>
@@ -1919,10 +1919,10 @@
     <t xml:space="preserve">100.610961914062</t>
   </si>
   <si>
-    <t xml:space="preserve">102.621276855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.9408645629883</t>
+    <t xml:space="preserve">102.621269226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.9408721923828</t>
   </si>
   <si>
     <t xml:space="preserve">100.515243530273</t>
@@ -1937,19 +1937,19 @@
     <t xml:space="preserve">97.1647338867188</t>
   </si>
   <si>
-    <t xml:space="preserve">97.5476379394531</t>
+    <t xml:space="preserve">97.5476455688477</t>
   </si>
   <si>
     <t xml:space="preserve">97.7391052246094</t>
   </si>
   <si>
-    <t xml:space="preserve">98.5049362182617</t>
+    <t xml:space="preserve">98.5049438476562</t>
   </si>
   <si>
     <t xml:space="preserve">98.2177505493164</t>
   </si>
   <si>
-    <t xml:space="preserve">100.802436828613</t>
+    <t xml:space="preserve">100.802429199219</t>
   </si>
   <si>
     <t xml:space="preserve">99.5579528808594</t>
@@ -1958,16 +1958,16 @@
     <t xml:space="preserve">98.6006622314453</t>
   </si>
   <si>
-    <t xml:space="preserve">99.4622192382812</t>
+    <t xml:space="preserve">99.4622268676758</t>
   </si>
   <si>
     <t xml:space="preserve">98.4092102050781</t>
   </si>
   <si>
-    <t xml:space="preserve">98.792121887207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.4519348144531</t>
+    <t xml:space="preserve">98.7921142578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.4519271850586</t>
   </si>
   <si>
     <t xml:space="preserve">96.9732818603516</t>
@@ -1976,10 +1976,10 @@
     <t xml:space="preserve">97.0690078735352</t>
   </si>
   <si>
-    <t xml:space="preserve">96.6860809326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.0262908935547</t>
+    <t xml:space="preserve">96.6860885620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.0262985229492</t>
   </si>
   <si>
     <t xml:space="preserve">103.387107849121</t>
@@ -1994,7 +1994,7 @@
     <t xml:space="preserve">103.099922180176</t>
   </si>
   <si>
-    <t xml:space="preserve">101.951171875</t>
+    <t xml:space="preserve">101.951179504395</t>
   </si>
   <si>
     <t xml:space="preserve">101.376800537109</t>
@@ -2012,7 +2012,7 @@
     <t xml:space="preserve">103.674285888672</t>
   </si>
   <si>
-    <t xml:space="preserve">103.482833862305</t>
+    <t xml:space="preserve">103.48282623291</t>
   </si>
   <si>
     <t xml:space="preserve">105.110229492188</t>
@@ -2039,10 +2039,10 @@
     <t xml:space="preserve">104.248672485352</t>
   </si>
   <si>
-    <t xml:space="preserve">101.663993835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.8451461791992</t>
+    <t xml:space="preserve">101.663986206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.8451385498047</t>
   </si>
   <si>
     <t xml:space="preserve">97.9305648803711</t>
@@ -2054,13 +2054,13 @@
     <t xml:space="preserve">100.323783874512</t>
   </si>
   <si>
-    <t xml:space="preserve">102.238357543945</t>
+    <t xml:space="preserve">102.23836517334</t>
   </si>
   <si>
     <t xml:space="preserve">101.568260192871</t>
   </si>
   <si>
-    <t xml:space="preserve">100.993881225586</t>
+    <t xml:space="preserve">100.99388885498</t>
   </si>
   <si>
     <t xml:space="preserve">102.142623901367</t>
@@ -2069,13 +2069,13 @@
     <t xml:space="preserve">100.898162841797</t>
   </si>
   <si>
-    <t xml:space="preserve">95.6330795288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.9202575683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.0587005615234</t>
+    <t xml:space="preserve">95.6330718994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.9202651977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.058708190918</t>
   </si>
   <si>
     <t xml:space="preserve">95.2980270385742</t>
@@ -2096,7 +2096,7 @@
     <t xml:space="preserve">93.5270385742188</t>
   </si>
   <si>
-    <t xml:space="preserve">92.4740142822266</t>
+    <t xml:space="preserve">92.4740219116211</t>
   </si>
   <si>
     <t xml:space="preserve">93.4791717529297</t>
@@ -2111,13 +2111,13 @@
     <t xml:space="preserve">94.3407363891602</t>
   </si>
   <si>
-    <t xml:space="preserve">96.5903701782227</t>
+    <t xml:space="preserve">96.5903625488281</t>
   </si>
   <si>
     <t xml:space="preserve">96.015983581543</t>
   </si>
   <si>
-    <t xml:space="preserve">100.13232421875</t>
+    <t xml:space="preserve">100.132331848145</t>
   </si>
   <si>
     <t xml:space="preserve">99.1750411987305</t>
@@ -2135,16 +2135,16 @@
     <t xml:space="preserve">107.311988830566</t>
   </si>
   <si>
-    <t xml:space="preserve">109.609481811523</t>
+    <t xml:space="preserve">109.609474182129</t>
   </si>
   <si>
     <t xml:space="preserve">109.035110473633</t>
   </si>
   <si>
-    <t xml:space="preserve">110.471046447754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.013000488281</t>
+    <t xml:space="preserve">110.471038818359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.013008117676</t>
   </si>
   <si>
     <t xml:space="preserve">115.257484436035</t>
@@ -2153,7 +2153,7 @@
     <t xml:space="preserve">114.683113098145</t>
   </si>
   <si>
-    <t xml:space="preserve">114.970291137695</t>
+    <t xml:space="preserve">114.97029876709</t>
   </si>
   <si>
     <t xml:space="preserve">116.119041442871</t>
@@ -2165,43 +2165,43 @@
     <t xml:space="preserve">116.406219482422</t>
   </si>
   <si>
-    <t xml:space="preserve">117.459243774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.703712463379</t>
+    <t xml:space="preserve">117.45923614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.703720092773</t>
   </si>
   <si>
     <t xml:space="preserve">118.512268066406</t>
   </si>
   <si>
-    <t xml:space="preserve">116.789131164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.831840515137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.874549865723</t>
+    <t xml:space="preserve">116.789138793945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.831848144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.874557495117</t>
   </si>
   <si>
     <t xml:space="preserve">111.045417785645</t>
   </si>
   <si>
-    <t xml:space="preserve">112.672798156738</t>
+    <t xml:space="preserve">112.672805786133</t>
   </si>
   <si>
     <t xml:space="preserve">112.002708435059</t>
   </si>
   <si>
-    <t xml:space="preserve">111.715515136719</t>
+    <t xml:space="preserve">111.715522766113</t>
   </si>
   <si>
     <t xml:space="preserve">112.57706451416</t>
   </si>
   <si>
-    <t xml:space="preserve">113.151435852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.481346130371</t>
+    <t xml:space="preserve">113.151443481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.481338500977</t>
   </si>
   <si>
     <t xml:space="preserve">111.524055480957</t>
@@ -2210,7 +2210,7 @@
     <t xml:space="preserve">111.236869812012</t>
   </si>
   <si>
-    <t xml:space="preserve">109.896659851074</t>
+    <t xml:space="preserve">109.896667480469</t>
   </si>
   <si>
     <t xml:space="preserve">113.342903137207</t>
@@ -2228,7 +2228,7 @@
     <t xml:space="preserve">110.853958129883</t>
   </si>
   <si>
-    <t xml:space="preserve">108.843643188477</t>
+    <t xml:space="preserve">108.843650817871</t>
   </si>
   <si>
     <t xml:space="preserve">111.90697479248</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">109.130836486816</t>
   </si>
   <si>
-    <t xml:space="preserve">109.800933837891</t>
+    <t xml:space="preserve">109.800941467285</t>
   </si>
   <si>
     <t xml:space="preserve">109.705207824707</t>
@@ -2276,10 +2276,10 @@
     <t xml:space="preserve">115.736122131348</t>
   </si>
   <si>
-    <t xml:space="preserve">115.927581787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.33260345459</t>
+    <t xml:space="preserve">115.927589416504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.332595825195</t>
   </si>
   <si>
     <t xml:space="preserve">105.87606048584</t>
@@ -2297,10 +2297,10 @@
     <t xml:space="preserve">103.195648193359</t>
   </si>
   <si>
-    <t xml:space="preserve">101.08960723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.51375579834</t>
+    <t xml:space="preserve">101.089614868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.513748168945</t>
   </si>
   <si>
     <t xml:space="preserve">106.833351135254</t>
@@ -2318,16 +2318,16 @@
     <t xml:space="preserve">105.780326843262</t>
   </si>
   <si>
-    <t xml:space="preserve">103.865745544434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.544662475586</t>
+    <t xml:space="preserve">103.865753173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.544654846191</t>
   </si>
   <si>
     <t xml:space="preserve">113.055717468262</t>
   </si>
   <si>
-    <t xml:space="preserve">119.565269470215</t>
+    <t xml:space="preserve">119.565277099609</t>
   </si>
   <si>
     <t xml:space="preserve">123.873062133789</t>
@@ -2336,7 +2336,7 @@
     <t xml:space="preserve">127.702217102051</t>
   </si>
   <si>
-    <t xml:space="preserve">134.02033996582</t>
+    <t xml:space="preserve">134.020324707031</t>
   </si>
   <si>
     <t xml:space="preserve">143.401748657227</t>
@@ -2351,13 +2351,13 @@
     <t xml:space="preserve">146.943710327148</t>
   </si>
   <si>
-    <t xml:space="preserve">146.082153320312</t>
+    <t xml:space="preserve">146.082138061523</t>
   </si>
   <si>
     <t xml:space="preserve">157.952529907227</t>
   </si>
   <si>
-    <t xml:space="preserve">152.304534912109</t>
+    <t xml:space="preserve">152.30451965332</t>
   </si>
   <si>
     <t xml:space="preserve">155.655044555664</t>
@@ -2369,28 +2369,28 @@
     <t xml:space="preserve">159.962829589844</t>
   </si>
   <si>
-    <t xml:space="preserve">155.272109985352</t>
+    <t xml:space="preserve">155.272125244141</t>
   </si>
   <si>
     <t xml:space="preserve">148.66682434082</t>
   </si>
   <si>
-    <t xml:space="preserve">148.762542724609</t>
+    <t xml:space="preserve">148.762557983398</t>
   </si>
   <si>
     <t xml:space="preserve">148.379623413086</t>
   </si>
   <si>
-    <t xml:space="preserve">146.369338989258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148.188217163086</t>
+    <t xml:space="preserve">146.369323730469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148.188201904297</t>
   </si>
   <si>
     <t xml:space="preserve">149.528396606445</t>
   </si>
   <si>
-    <t xml:space="preserve">155.559310913086</t>
+    <t xml:space="preserve">155.559295654297</t>
   </si>
   <si>
     <t xml:space="preserve">153.644744873047</t>
@@ -2423,16 +2423,16 @@
     <t xml:space="preserve">200.456100463867</t>
   </si>
   <si>
-    <t xml:space="preserve">188.585739135742</t>
+    <t xml:space="preserve">188.585754394531</t>
   </si>
   <si>
     <t xml:space="preserve">165.610809326172</t>
   </si>
   <si>
-    <t xml:space="preserve">174.034973144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180.448791503906</t>
+    <t xml:space="preserve">174.034957885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180.448806762695</t>
   </si>
   <si>
     <t xml:space="preserve">173.747756958008</t>
@@ -2447,19 +2447,19 @@
     <t xml:space="preserve">166.759567260742</t>
   </si>
   <si>
-    <t xml:space="preserve">158.909805297852</t>
+    <t xml:space="preserve">158.909820556641</t>
   </si>
   <si>
     <t xml:space="preserve">152.783187866211</t>
   </si>
   <si>
-    <t xml:space="preserve">154.602005004883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156.995223999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160.632919311523</t>
+    <t xml:space="preserve">154.602020263672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.995239257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160.632934570312</t>
   </si>
   <si>
     <t xml:space="preserve">159.867095947266</t>
@@ -2474,16 +2474,16 @@
     <t xml:space="preserve">163.958847045898</t>
   </si>
   <si>
-    <t xml:space="preserve">163.18864440918</t>
+    <t xml:space="preserve">163.188629150391</t>
   </si>
   <si>
     <t xml:space="preserve">161.16682434082</t>
   </si>
   <si>
-    <t xml:space="preserve">164.343948364258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">169.254058837891</t>
+    <t xml:space="preserve">164.343963623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">169.25407409668</t>
   </si>
   <si>
     <t xml:space="preserve">166.558303833008</t>
@@ -2492,16 +2492,16 @@
     <t xml:space="preserve">165.017883300781</t>
   </si>
   <si>
-    <t xml:space="preserve">163.381195068359</t>
+    <t xml:space="preserve">163.381210327148</t>
   </si>
   <si>
     <t xml:space="preserve">164.055130004883</t>
   </si>
   <si>
-    <t xml:space="preserve">164.632781982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.921615600586</t>
+    <t xml:space="preserve">164.632766723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.921600341797</t>
   </si>
   <si>
     <t xml:space="preserve">164.729064941406</t>
@@ -2516,7 +2516,7 @@
     <t xml:space="preserve">172.527465820312</t>
   </si>
   <si>
-    <t xml:space="preserve">165.114166259766</t>
+    <t xml:space="preserve">165.114151000977</t>
   </si>
   <si>
     <t xml:space="preserve">166.462020874023</t>
@@ -2543,22 +2543,22 @@
     <t xml:space="preserve">168.483825683594</t>
   </si>
   <si>
-    <t xml:space="preserve">162.99609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156.641845703125</t>
+    <t xml:space="preserve">162.996078491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.641830444336</t>
   </si>
   <si>
     <t xml:space="preserve">164.247680664062</t>
   </si>
   <si>
-    <t xml:space="preserve">166.847152709961</t>
+    <t xml:space="preserve">166.847137451172</t>
   </si>
   <si>
     <t xml:space="preserve">161.263107299805</t>
   </si>
   <si>
-    <t xml:space="preserve">159.818954467773</t>
+    <t xml:space="preserve">159.818969726562</t>
   </si>
   <si>
     <t xml:space="preserve">154.620025634766</t>
@@ -2573,7 +2573,7 @@
     <t xml:space="preserve">152.69450378418</t>
   </si>
   <si>
-    <t xml:space="preserve">147.110488891602</t>
+    <t xml:space="preserve">147.110473632812</t>
   </si>
   <si>
     <t xml:space="preserve">151.635467529297</t>
@@ -2582,19 +2582,19 @@
     <t xml:space="preserve">154.234939575195</t>
   </si>
   <si>
-    <t xml:space="preserve">153.560989379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150.287582397461</t>
+    <t xml:space="preserve">153.561004638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150.28759765625</t>
   </si>
   <si>
     <t xml:space="preserve">156.738098144531</t>
   </si>
   <si>
-    <t xml:space="preserve">153.175888061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156.160446166992</t>
+    <t xml:space="preserve">153.175872802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.160461425781</t>
   </si>
   <si>
     <t xml:space="preserve">156.834396362305</t>
@@ -2606,13 +2606,13 @@
     <t xml:space="preserve">157.412048339844</t>
   </si>
   <si>
-    <t xml:space="preserve">157.797149658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161.455657958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147.495559692383</t>
+    <t xml:space="preserve">157.797164916992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161.455673217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147.495574951172</t>
   </si>
   <si>
     <t xml:space="preserve">140.371109008789</t>
@@ -2624,7 +2624,7 @@
     <t xml:space="preserve">146.436538696289</t>
   </si>
   <si>
-    <t xml:space="preserve">145.377502441406</t>
+    <t xml:space="preserve">145.377487182617</t>
   </si>
   <si>
     <t xml:space="preserve">137.290267944336</t>
@@ -2648,7 +2648,7 @@
     <t xml:space="preserve">148.939712524414</t>
   </si>
   <si>
-    <t xml:space="preserve">149.613632202148</t>
+    <t xml:space="preserve">149.613647460938</t>
   </si>
   <si>
     <t xml:space="preserve">151.154067993164</t>
@@ -2678,10 +2678,10 @@
     <t xml:space="preserve">170.216812133789</t>
   </si>
   <si>
-    <t xml:space="preserve">177.148727416992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">177.533813476562</t>
+    <t xml:space="preserve">177.148742675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">177.533828735352</t>
   </si>
   <si>
     <t xml:space="preserve">179.940734863281</t>
@@ -2690,10 +2690,10 @@
     <t xml:space="preserve">175.704574584961</t>
   </si>
   <si>
-    <t xml:space="preserve">180.999786376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">183.021621704102</t>
+    <t xml:space="preserve">180.999771118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">183.021606445312</t>
   </si>
   <si>
     <t xml:space="preserve">180.518402099609</t>
@@ -2702,7 +2702,7 @@
     <t xml:space="preserve">184.176895141602</t>
   </si>
   <si>
-    <t xml:space="preserve">181.962554931641</t>
+    <t xml:space="preserve">181.962539672852</t>
   </si>
   <si>
     <t xml:space="preserve">187.354049682617</t>
@@ -2720,7 +2720,7 @@
     <t xml:space="preserve">185.428512573242</t>
   </si>
   <si>
-    <t xml:space="preserve">183.888092041016</t>
+    <t xml:space="preserve">183.888076782227</t>
   </si>
   <si>
     <t xml:space="preserve">181.577438354492</t>
@@ -2729,7 +2729,7 @@
     <t xml:space="preserve">180.32585144043</t>
   </si>
   <si>
-    <t xml:space="preserve">181.481155395508</t>
+    <t xml:space="preserve">181.481170654297</t>
   </si>
   <si>
     <t xml:space="preserve">178.785415649414</t>
@@ -2747,13 +2747,13 @@
     <t xml:space="preserve">193.708282470703</t>
   </si>
   <si>
-    <t xml:space="preserve">161.744476318359</t>
+    <t xml:space="preserve">161.744491577148</t>
   </si>
   <si>
     <t xml:space="preserve">165.980667114258</t>
   </si>
   <si>
-    <t xml:space="preserve">167.328536987305</t>
+    <t xml:space="preserve">167.328552246094</t>
   </si>
   <si>
     <t xml:space="preserve">167.039688110352</t>
@@ -2765,13 +2765,13 @@
     <t xml:space="preserve">158.95246887207</t>
   </si>
   <si>
-    <t xml:space="preserve">162.899810791016</t>
+    <t xml:space="preserve">162.899795532227</t>
   </si>
   <si>
     <t xml:space="preserve">166.365768432617</t>
   </si>
   <si>
-    <t xml:space="preserve">170.024261474609</t>
+    <t xml:space="preserve">170.024276733398</t>
   </si>
   <si>
     <t xml:space="preserve">165.788101196289</t>
@@ -2792,7 +2792,7 @@
     <t xml:space="preserve">161.359375</t>
   </si>
   <si>
-    <t xml:space="preserve">160.492874145508</t>
+    <t xml:space="preserve">160.492889404297</t>
   </si>
   <si>
     <t xml:space="preserve">160.878005981445</t>
@@ -2810,7 +2810,7 @@
     <t xml:space="preserve">163.766311645508</t>
   </si>
   <si>
-    <t xml:space="preserve">163.284896850586</t>
+    <t xml:space="preserve">163.284912109375</t>
   </si>
   <si>
     <t xml:space="preserve">155.775344848633</t>
@@ -2825,7 +2825,7 @@
     <t xml:space="preserve">157.604614257812</t>
   </si>
   <si>
-    <t xml:space="preserve">156.449295043945</t>
+    <t xml:space="preserve">156.449279785156</t>
   </si>
   <si>
     <t xml:space="preserve">156.545562744141</t>
@@ -2846,7 +2846,7 @@
     <t xml:space="preserve">171.083282470703</t>
   </si>
   <si>
-    <t xml:space="preserve">173.875335693359</t>
+    <t xml:space="preserve">173.875350952148</t>
   </si>
   <si>
     <t xml:space="preserve">173.29768371582</t>
@@ -2855,16 +2855,16 @@
     <t xml:space="preserve">172.720001220703</t>
   </si>
   <si>
-    <t xml:space="preserve">169.927993774414</t>
+    <t xml:space="preserve">169.928009033203</t>
   </si>
   <si>
     <t xml:space="preserve">169.63916015625</t>
   </si>
   <si>
-    <t xml:space="preserve">172.431182861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">176.089691162109</t>
+    <t xml:space="preserve">172.431167602539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176.08967590332</t>
   </si>
   <si>
     <t xml:space="preserve">175.415740966797</t>
@@ -2873,13 +2873,13 @@
     <t xml:space="preserve">177.630096435547</t>
   </si>
   <si>
-    <t xml:space="preserve">178.689163208008</t>
+    <t xml:space="preserve">178.689147949219</t>
   </si>
   <si>
     <t xml:space="preserve">178.400314331055</t>
   </si>
   <si>
-    <t xml:space="preserve">179.459350585938</t>
+    <t xml:space="preserve">179.459365844727</t>
   </si>
   <si>
     <t xml:space="preserve">176.667343139648</t>
@@ -2897,7 +2897,7 @@
     <t xml:space="preserve">156.352996826172</t>
   </si>
   <si>
-    <t xml:space="preserve">157.893417358398</t>
+    <t xml:space="preserve">157.893432617188</t>
   </si>
   <si>
     <t xml:space="preserve">159.14501953125</t>
@@ -2912,7 +2912,7 @@
     <t xml:space="preserve">150.961532592773</t>
   </si>
   <si>
-    <t xml:space="preserve">149.036010742188</t>
+    <t xml:space="preserve">149.035995483398</t>
   </si>
   <si>
     <t xml:space="preserve">134.401977539062</t>
@@ -2924,7 +2924,7 @@
     <t xml:space="preserve">140.467376708984</t>
   </si>
   <si>
-    <t xml:space="preserve">136.712615966797</t>
+    <t xml:space="preserve">136.712600708008</t>
   </si>
   <si>
     <t xml:space="preserve">134.883361816406</t>
@@ -2933,7 +2933,7 @@
     <t xml:space="preserve">137.77165222168</t>
   </si>
   <si>
-    <t xml:space="preserve">134.979629516602</t>
+    <t xml:space="preserve">134.979614257812</t>
   </si>
   <si>
     <t xml:space="preserve">135.74983215332</t>
@@ -2948,13 +2948,13 @@
     <t xml:space="preserve">133.824310302734</t>
   </si>
   <si>
-    <t xml:space="preserve">132.187622070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.572692871094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131.70622253418</t>
+    <t xml:space="preserve">132.187606811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.572708129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131.706237792969</t>
   </si>
   <si>
     <t xml:space="preserve">134.54638671875</t>
@@ -2981,22 +2981,22 @@
     <t xml:space="preserve">149.950607299805</t>
   </si>
   <si>
-    <t xml:space="preserve">148.169509887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146.869766235352</t>
+    <t xml:space="preserve">148.169494628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146.869781494141</t>
   </si>
   <si>
     <t xml:space="preserve">146.725357055664</t>
   </si>
   <si>
-    <t xml:space="preserve">138.734420776367</t>
+    <t xml:space="preserve">138.734405517578</t>
   </si>
   <si>
     <t xml:space="preserve">138.541839599609</t>
   </si>
   <si>
-    <t xml:space="preserve">135.027755737305</t>
+    <t xml:space="preserve">135.027770996094</t>
   </si>
   <si>
     <t xml:space="preserve">135.990539550781</t>
@@ -3011,25 +3011,25 @@
     <t xml:space="preserve">133.342926025391</t>
   </si>
   <si>
-    <t xml:space="preserve">135.557281494141</t>
+    <t xml:space="preserve">135.55729675293</t>
   </si>
   <si>
     <t xml:space="preserve">137.338409423828</t>
   </si>
   <si>
-    <t xml:space="preserve">133.102233886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129.973236083984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.150375366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.861557006836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136.375640869141</t>
+    <t xml:space="preserve">133.102249145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129.973251342773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.150360107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.861541748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136.375625610352</t>
   </si>
   <si>
     <t xml:space="preserve">138.638137817383</t>
@@ -5196,6 +5196,9 @@
   </si>
   <si>
     <t xml:space="preserve">104.400001525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.3600006103516</t>
   </si>
 </sst>
 </file>
@@ -19907,7 +19910,7 @@
         <v>67.4499969482422</v>
       </c>
       <c r="G553" t="s">
-        <v>246</v>
+        <v>380</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -19933,7 +19936,7 @@
         <v>66.4000015258789</v>
       </c>
       <c r="G554" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -19959,7 +19962,7 @@
         <v>66.0999984741211</v>
       </c>
       <c r="G555" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -19985,7 +19988,7 @@
         <v>67.3499984741211</v>
       </c>
       <c r="G556" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -20011,7 +20014,7 @@
         <v>68.4000015258789</v>
       </c>
       <c r="G557" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -20037,7 +20040,7 @@
         <v>70.5999984741211</v>
       </c>
       <c r="G558" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -20089,7 +20092,7 @@
         <v>74.75</v>
       </c>
       <c r="G560" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -20115,7 +20118,7 @@
         <v>73.8499984741211</v>
       </c>
       <c r="G561" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -20219,7 +20222,7 @@
         <v>72.1999969482422</v>
       </c>
       <c r="G565" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -20245,7 +20248,7 @@
         <v>71.8000030517578</v>
       </c>
       <c r="G566" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -20323,7 +20326,7 @@
         <v>72.6500015258789</v>
       </c>
       <c r="G569" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -20401,7 +20404,7 @@
         <v>72.6500015258789</v>
       </c>
       <c r="G572" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -20531,7 +20534,7 @@
         <v>72.25</v>
       </c>
       <c r="G577" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -20557,7 +20560,7 @@
         <v>73.8499984741211</v>
       </c>
       <c r="G578" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -20661,7 +20664,7 @@
         <v>73.5</v>
       </c>
       <c r="G582" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -20687,7 +20690,7 @@
         <v>73.5</v>
       </c>
       <c r="G583" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -20739,7 +20742,7 @@
         <v>75.5500030517578</v>
       </c>
       <c r="G585" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -20765,7 +20768,7 @@
         <v>77.5999984741211</v>
       </c>
       <c r="G586" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -20791,7 +20794,7 @@
         <v>74.75</v>
       </c>
       <c r="G587" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -20843,7 +20846,7 @@
         <v>76.1999969482422</v>
       </c>
       <c r="G589" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -20895,7 +20898,7 @@
         <v>77.3000030517578</v>
       </c>
       <c r="G591" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -20921,7 +20924,7 @@
         <v>78.1500015258789</v>
       </c>
       <c r="G592" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -20999,7 +21002,7 @@
         <v>78.6999969482422</v>
       </c>
       <c r="G595" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -21051,7 +21054,7 @@
         <v>78.6500015258789</v>
       </c>
       <c r="G597" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -21129,7 +21132,7 @@
         <v>80.4000015258789</v>
       </c>
       <c r="G600" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -21155,7 +21158,7 @@
         <v>81.5500030517578</v>
       </c>
       <c r="G601" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -21181,7 +21184,7 @@
         <v>80.1999969482422</v>
       </c>
       <c r="G602" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -21207,7 +21210,7 @@
         <v>81.3000030517578</v>
       </c>
       <c r="G603" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -21233,7 +21236,7 @@
         <v>81</v>
       </c>
       <c r="G604" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -21259,7 +21262,7 @@
         <v>81.1999969482422</v>
       </c>
       <c r="G605" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -21285,7 +21288,7 @@
         <v>82.6500015258789</v>
       </c>
       <c r="G606" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -21311,7 +21314,7 @@
         <v>81.4000015258789</v>
       </c>
       <c r="G607" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -21337,7 +21340,7 @@
         <v>81.25</v>
       </c>
       <c r="G608" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -21363,7 +21366,7 @@
         <v>81.9000015258789</v>
       </c>
       <c r="G609" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -21389,7 +21392,7 @@
         <v>80.6999969482422</v>
       </c>
       <c r="G610" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -21415,7 +21418,7 @@
         <v>82.0500030517578</v>
       </c>
       <c r="G611" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -21441,7 +21444,7 @@
         <v>84.1500015258789</v>
       </c>
       <c r="G612" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -21467,7 +21470,7 @@
         <v>83</v>
       </c>
       <c r="G613" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -21493,7 +21496,7 @@
         <v>81.1999969482422</v>
       </c>
       <c r="G614" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -21519,7 +21522,7 @@
         <v>84.5999984741211</v>
       </c>
       <c r="G615" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -21545,7 +21548,7 @@
         <v>82.5999984741211</v>
       </c>
       <c r="G616" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -21571,7 +21574,7 @@
         <v>85.5</v>
       </c>
       <c r="G617" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -21597,7 +21600,7 @@
         <v>87.5</v>
       </c>
       <c r="G618" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -21623,7 +21626,7 @@
         <v>88.25</v>
       </c>
       <c r="G619" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -21649,7 +21652,7 @@
         <v>88</v>
       </c>
       <c r="G620" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -21675,7 +21678,7 @@
         <v>88.4000015258789</v>
       </c>
       <c r="G621" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -21701,7 +21704,7 @@
         <v>87.9000015258789</v>
       </c>
       <c r="G622" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -21727,7 +21730,7 @@
         <v>88.9499969482422</v>
       </c>
       <c r="G623" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -21753,7 +21756,7 @@
         <v>91</v>
       </c>
       <c r="G624" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -21779,7 +21782,7 @@
         <v>92.4000015258789</v>
       </c>
       <c r="G625" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -21805,7 +21808,7 @@
         <v>93.3499984741211</v>
       </c>
       <c r="G626" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -21831,7 +21834,7 @@
         <v>93</v>
       </c>
       <c r="G627" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -21857,7 +21860,7 @@
         <v>92.3000030517578</v>
       </c>
       <c r="G628" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -21883,7 +21886,7 @@
         <v>90.9499969482422</v>
       </c>
       <c r="G629" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -21909,7 +21912,7 @@
         <v>89.5</v>
       </c>
       <c r="G630" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -21935,7 +21938,7 @@
         <v>89.1500015258789</v>
       </c>
       <c r="G631" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -21961,7 +21964,7 @@
         <v>96</v>
       </c>
       <c r="G632" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -21987,7 +21990,7 @@
         <v>95.0500030517578</v>
       </c>
       <c r="G633" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -22013,7 +22016,7 @@
         <v>95.6999969482422</v>
       </c>
       <c r="G634" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -22039,7 +22042,7 @@
         <v>97.3000030517578</v>
       </c>
       <c r="G635" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -22065,7 +22068,7 @@
         <v>96.3499984741211</v>
       </c>
       <c r="G636" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -22091,7 +22094,7 @@
         <v>97.6999969482422</v>
       </c>
       <c r="G637" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -22117,7 +22120,7 @@
         <v>96.3000030517578</v>
       </c>
       <c r="G638" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -22143,7 +22146,7 @@
         <v>97.5</v>
       </c>
       <c r="G639" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -22169,7 +22172,7 @@
         <v>96.4000015258789</v>
       </c>
       <c r="G640" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -22195,7 +22198,7 @@
         <v>95.5500030517578</v>
       </c>
       <c r="G641" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -22221,7 +22224,7 @@
         <v>96</v>
       </c>
       <c r="G642" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -22247,7 +22250,7 @@
         <v>95.8000030517578</v>
       </c>
       <c r="G643" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -22273,7 +22276,7 @@
         <v>95.9000015258789</v>
       </c>
       <c r="G644" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -22299,7 +22302,7 @@
         <v>96.1500015258789</v>
       </c>
       <c r="G645" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -22325,7 +22328,7 @@
         <v>98.1999969482422</v>
       </c>
       <c r="G646" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -22351,7 +22354,7 @@
         <v>97.6500015258789</v>
       </c>
       <c r="G647" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -22377,7 +22380,7 @@
         <v>97.9000015258789</v>
       </c>
       <c r="G648" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -22403,7 +22406,7 @@
         <v>96.5</v>
       </c>
       <c r="G649" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -22429,7 +22432,7 @@
         <v>95.9499969482422</v>
       </c>
       <c r="G650" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -22455,7 +22458,7 @@
         <v>96.75</v>
       </c>
       <c r="G651" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -22481,7 +22484,7 @@
         <v>96.4000015258789</v>
       </c>
       <c r="G652" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -22507,7 +22510,7 @@
         <v>94.5</v>
       </c>
       <c r="G653" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -22533,7 +22536,7 @@
         <v>94</v>
       </c>
       <c r="G654" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -22559,7 +22562,7 @@
         <v>94.3499984741211</v>
       </c>
       <c r="G655" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -22585,7 +22588,7 @@
         <v>92.4499969482422</v>
       </c>
       <c r="G656" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -22611,7 +22614,7 @@
         <v>93</v>
       </c>
       <c r="G657" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -22637,7 +22640,7 @@
         <v>92.5</v>
       </c>
       <c r="G658" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -22663,7 +22666,7 @@
         <v>91.8000030517578</v>
       </c>
       <c r="G659" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -22689,7 +22692,7 @@
         <v>93</v>
       </c>
       <c r="G660" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -22715,7 +22718,7 @@
         <v>85.0500030517578</v>
       </c>
       <c r="G661" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -22741,7 +22744,7 @@
         <v>87.3499984741211</v>
       </c>
       <c r="G662" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -22767,7 +22770,7 @@
         <v>87.5</v>
       </c>
       <c r="G663" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -22793,7 +22796,7 @@
         <v>88.75</v>
       </c>
       <c r="G664" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -22819,7 +22822,7 @@
         <v>87.8499984741211</v>
       </c>
       <c r="G665" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -22845,7 +22848,7 @@
         <v>88.0999984741211</v>
       </c>
       <c r="G666" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -22871,7 +22874,7 @@
         <v>87.8499984741211</v>
       </c>
       <c r="G667" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -22897,7 +22900,7 @@
         <v>86.9000015258789</v>
       </c>
       <c r="G668" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -22923,7 +22926,7 @@
         <v>88.1500015258789</v>
       </c>
       <c r="G669" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -22949,7 +22952,7 @@
         <v>86.5500030517578</v>
       </c>
       <c r="G670" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -22975,7 +22978,7 @@
         <v>86.8499984741211</v>
       </c>
       <c r="G671" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -23001,7 +23004,7 @@
         <v>93.1999969482422</v>
       </c>
       <c r="G672" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -23027,7 +23030,7 @@
         <v>93.75</v>
       </c>
       <c r="G673" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -23053,7 +23056,7 @@
         <v>91.5</v>
       </c>
       <c r="G674" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -23079,7 +23082,7 @@
         <v>91.8499984741211</v>
       </c>
       <c r="G675" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -23105,7 +23108,7 @@
         <v>91.5999984741211</v>
       </c>
       <c r="G676" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -23131,7 +23134,7 @@
         <v>91.1500015258789</v>
       </c>
       <c r="G677" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -23157,7 +23160,7 @@
         <v>91.6999969482422</v>
       </c>
       <c r="G678" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -23183,7 +23186,7 @@
         <v>92.9000015258789</v>
       </c>
       <c r="G679" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -23209,7 +23212,7 @@
         <v>93.8000030517578</v>
       </c>
       <c r="G680" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -23235,7 +23238,7 @@
         <v>93.8000030517578</v>
       </c>
       <c r="G681" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -23261,7 +23264,7 @@
         <v>92.4499969482422</v>
       </c>
       <c r="G682" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -23287,7 +23290,7 @@
         <v>92.3499984741211</v>
       </c>
       <c r="G683" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -23313,7 +23316,7 @@
         <v>89.4000015258789</v>
       </c>
       <c r="G684" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -23339,7 +23342,7 @@
         <v>89.6999969482422</v>
       </c>
       <c r="G685" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -23365,7 +23368,7 @@
         <v>87.9000015258789</v>
       </c>
       <c r="G686" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -23391,7 +23394,7 @@
         <v>88.9499969482422</v>
       </c>
       <c r="G687" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -23417,7 +23420,7 @@
         <v>88.4000015258789</v>
       </c>
       <c r="G688" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -23443,7 +23446,7 @@
         <v>88.6999969482422</v>
       </c>
       <c r="G689" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -23469,7 +23472,7 @@
         <v>89.5</v>
       </c>
       <c r="G690" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -23495,7 +23498,7 @@
         <v>89</v>
       </c>
       <c r="G691" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -23521,7 +23524,7 @@
         <v>90.6999969482422</v>
       </c>
       <c r="G692" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -23547,7 +23550,7 @@
         <v>93.75</v>
       </c>
       <c r="G693" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -23573,7 +23576,7 @@
         <v>95.8499984741211</v>
       </c>
       <c r="G694" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -23599,7 +23602,7 @@
         <v>97.1999969482422</v>
       </c>
       <c r="G695" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -23625,7 +23628,7 @@
         <v>92.25</v>
       </c>
       <c r="G696" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -23651,7 +23654,7 @@
         <v>91.5</v>
       </c>
       <c r="G697" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -23677,7 +23680,7 @@
         <v>93.0999984741211</v>
       </c>
       <c r="G698" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -23703,7 +23706,7 @@
         <v>92.9499969482422</v>
       </c>
       <c r="G699" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -23729,7 +23732,7 @@
         <v>91</v>
       </c>
       <c r="G700" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -23755,7 +23758,7 @@
         <v>90.5999984741211</v>
       </c>
       <c r="G701" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -23781,7 +23784,7 @@
         <v>91.3000030517578</v>
       </c>
       <c r="G702" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -23807,7 +23810,7 @@
         <v>91</v>
       </c>
       <c r="G703" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -23833,7 +23836,7 @@
         <v>90.5999984741211</v>
       </c>
       <c r="G704" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -23859,7 +23862,7 @@
         <v>89.1999969482422</v>
       </c>
       <c r="G705" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -23885,7 +23888,7 @@
         <v>86.8000030517578</v>
       </c>
       <c r="G706" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -23911,7 +23914,7 @@
         <v>82.3000030517578</v>
       </c>
       <c r="G707" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -23937,7 +23940,7 @@
         <v>81.5</v>
       </c>
       <c r="G708" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -23963,7 +23966,7 @@
         <v>80.3000030517578</v>
       </c>
       <c r="G709" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -23989,7 +23992,7 @@
         <v>79.6999969482422</v>
       </c>
       <c r="G710" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -24015,7 +24018,7 @@
         <v>81.9499969482422</v>
       </c>
       <c r="G711" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -24041,7 +24044,7 @@
         <v>79.5</v>
       </c>
       <c r="G712" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -24067,7 +24070,7 @@
         <v>79.8499984741211</v>
       </c>
       <c r="G713" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -24093,7 +24096,7 @@
         <v>81.5999984741211</v>
       </c>
       <c r="G714" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -24119,7 +24122,7 @@
         <v>82</v>
       </c>
       <c r="G715" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -24145,7 +24148,7 @@
         <v>82.4000015258789</v>
       </c>
       <c r="G716" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -24171,7 +24174,7 @@
         <v>83.6999969482422</v>
       </c>
       <c r="G717" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -24197,7 +24200,7 @@
         <v>79.75</v>
       </c>
       <c r="G718" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -24223,7 +24226,7 @@
         <v>80.5500030517578</v>
       </c>
       <c r="G719" t="s">
-        <v>501</v>
+        <v>407</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -24379,7 +24382,7 @@
         <v>86.9000015258789</v>
       </c>
       <c r="G725" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -24405,7 +24408,7 @@
         <v>86.5500030517578</v>
       </c>
       <c r="G726" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -24457,7 +24460,7 @@
         <v>86.8499984741211</v>
       </c>
       <c r="G728" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -24483,7 +24486,7 @@
         <v>81.5999984741211</v>
       </c>
       <c r="G729" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -24587,7 +24590,7 @@
         <v>82.3000030517578</v>
       </c>
       <c r="G733" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -24613,7 +24616,7 @@
         <v>81.5999984741211</v>
       </c>
       <c r="G734" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -24665,7 +24668,7 @@
         <v>81.1999969482422</v>
       </c>
       <c r="G736" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -62269,7 +62272,7 @@
     </row>
     <row r="2183">
       <c r="A2183" s="1" t="n">
-        <v>45502.6517708333</v>
+        <v>45502.2916666667</v>
       </c>
       <c r="B2183" t="n">
         <v>325208</v>
@@ -62290,6 +62293,32 @@
         <v>1727</v>
       </c>
       <c r="H2183" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" s="1" t="n">
+        <v>45503.6494791667</v>
+      </c>
+      <c r="B2184" t="n">
+        <v>332602</v>
+      </c>
+      <c r="C2184" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="D2184" t="n">
+        <v>97.1600036621094</v>
+      </c>
+      <c r="E2184" t="n">
+        <v>103.400001525879</v>
+      </c>
+      <c r="F2184" t="n">
+        <v>98.3600006103516</v>
+      </c>
+      <c r="G2184" t="s">
+        <v>1728</v>
+      </c>
+      <c r="H2184" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DIA.MI.xlsx
+++ b/data/DIA.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="1729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="1730">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -50,28 +50,28 @@
     <t xml:space="preserve">43.5922470092773</t>
   </si>
   <si>
-    <t xml:space="preserve">43.4761238098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3689270019531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6900329589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0116157531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2612609863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8146133422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5104217529297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.7779312133789</t>
+    <t xml:space="preserve">43.4761199951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3689346313477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6900367736816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0116119384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2612648010254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8146209716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5104141235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.7779273986816</t>
   </si>
   <si>
     <t xml:space="preserve">38.5630569458008</t>
@@ -80,16 +80,16 @@
     <t xml:space="preserve">38.3218765258789</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1253509521484</t>
+    <t xml:space="preserve">38.1253433227539</t>
   </si>
   <si>
     <t xml:space="preserve">39.4563407897949</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7694664001465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7878227233887</t>
+    <t xml:space="preserve">40.769474029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7878112792969</t>
   </si>
   <si>
     <t xml:space="preserve">42.5917701721191</t>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">41.8950119018555</t>
   </si>
   <si>
-    <t xml:space="preserve">43.3242607116699</t>
+    <t xml:space="preserve">43.3242645263672</t>
   </si>
   <si>
     <t xml:space="preserve">43.6190490722656</t>
@@ -107,31 +107,31 @@
     <t xml:space="preserve">43.5475845336914</t>
   </si>
   <si>
-    <t xml:space="preserve">42.4131164550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7610206604004</t>
+    <t xml:space="preserve">42.4131126403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7610168457031</t>
   </si>
   <si>
     <t xml:space="preserve">39.9208526611328</t>
   </si>
   <si>
-    <t xml:space="preserve">38.2414817810059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5005264282227</t>
+    <t xml:space="preserve">38.2414779663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5005302429199</t>
   </si>
   <si>
     <t xml:space="preserve">39.081169128418</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0990409851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8935813903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6354904174805</t>
+    <t xml:space="preserve">39.0990295410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8935775756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6354789733887</t>
   </si>
   <si>
     <t xml:space="preserve">40.9123992919922</t>
@@ -140,7 +140,7 @@
     <t xml:space="preserve">41.0106582641602</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9307403564453</t>
+    <t xml:space="preserve">41.930736541748</t>
   </si>
   <si>
     <t xml:space="preserve">43.0920104980469</t>
@@ -149,46 +149,46 @@
     <t xml:space="preserve">42.475643157959</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1366767883301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.7619743347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.4493255615234</t>
+    <t xml:space="preserve">43.1366729736328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.7619705200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.4493217468262</t>
   </si>
   <si>
     <t xml:space="preserve">43.7798385620117</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1009483337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3416519165039</t>
+    <t xml:space="preserve">43.100944519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3416557312012</t>
   </si>
   <si>
     <t xml:space="preserve">43.1902694702148</t>
   </si>
   <si>
-    <t xml:space="preserve">43.2528038024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3064002990723</t>
+    <t xml:space="preserve">43.252799987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3063926696777</t>
   </si>
   <si>
     <t xml:space="preserve">41.2786445617676</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8677291870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.519359588623</t>
+    <t xml:space="preserve">40.867733001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5193557739258</t>
   </si>
   <si>
     <t xml:space="preserve">41.6895484924316</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0910568237305</t>
+    <t xml:space="preserve">41.0910530090332</t>
   </si>
   <si>
     <t xml:space="preserve">40.6712112426758</t>
@@ -197,7 +197,7 @@
     <t xml:space="preserve">40.1263046264648</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6265449523926</t>
+    <t xml:space="preserve">40.6265487670898</t>
   </si>
   <si>
     <t xml:space="preserve">40.8052024841309</t>
@@ -206,13 +206,13 @@
     <t xml:space="preserve">40.3496284484863</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6444129943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9838638305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.6641883850098</t>
+    <t xml:space="preserve">40.6444091796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9838600158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.664192199707</t>
   </si>
   <si>
     <t xml:space="preserve">45.3341522216797</t>
@@ -221,52 +221,52 @@
     <t xml:space="preserve">45.8701248168945</t>
   </si>
   <si>
-    <t xml:space="preserve">46.450756072998</t>
+    <t xml:space="preserve">46.4507598876953</t>
   </si>
   <si>
     <t xml:space="preserve">45.9594535827637</t>
   </si>
   <si>
-    <t xml:space="preserve">46.272102355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.4333724975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.4954261779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.0041122436523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.7807998657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4681510925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.5128135681152</t>
+    <t xml:space="preserve">46.2720985412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.4333686828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.4954223632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.0041160583496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.7807884216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.468147277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.512809753418</t>
   </si>
   <si>
     <t xml:space="preserve">45.9147872924805</t>
   </si>
   <si>
-    <t xml:space="preserve">45.3788185119629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.2894897460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.8254547119141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.5574722290039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4234809875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.3614311218262</t>
+    <t xml:space="preserve">45.3788223266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.2894859313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.8254623413086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.5574760437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4234771728516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.3614273071289</t>
   </si>
   <si>
     <t xml:space="preserve">46.2274398803711</t>
@@ -275,52 +275,52 @@
     <t xml:space="preserve">46.4060935974121</t>
   </si>
   <si>
-    <t xml:space="preserve">46.8974075317383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.7634010314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8527412414551</t>
+    <t xml:space="preserve">46.8973999023438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.7634048461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8527374267578</t>
   </si>
   <si>
     <t xml:space="preserve">47.2100486755371</t>
   </si>
   <si>
-    <t xml:space="preserve">46.6740798950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.5847587585449</t>
+    <t xml:space="preserve">46.6740760803223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.5847511291504</t>
   </si>
   <si>
     <t xml:space="preserve">48.0285758972168</t>
   </si>
   <si>
-    <t xml:space="preserve">48.1190223693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.7120018005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.526050567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7973976135254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.7471084594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.2044219970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.1993675231934</t>
+    <t xml:space="preserve">48.1190299987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.7120056152344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.5260467529297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.7973937988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.7471122741699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.2044258117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.1993560791016</t>
   </si>
   <si>
     <t xml:space="preserve">50.2898101806641</t>
   </si>
   <si>
-    <t xml:space="preserve">50.8777313232422</t>
+    <t xml:space="preserve">50.8777275085449</t>
   </si>
   <si>
     <t xml:space="preserve">49.7018890380859</t>
@@ -329,28 +329,28 @@
     <t xml:space="preserve">50.6063804626465</t>
   </si>
   <si>
-    <t xml:space="preserve">49.7923355102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.3350296020508</t>
+    <t xml:space="preserve">49.7923393249512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.335033416748</t>
   </si>
   <si>
     <t xml:space="preserve">49.6114387512207</t>
   </si>
   <si>
-    <t xml:space="preserve">48.1642532348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.3451499938965</t>
+    <t xml:space="preserve">48.1642456054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.3451538085938</t>
   </si>
   <si>
     <t xml:space="preserve">47.2145347595215</t>
   </si>
   <si>
-    <t xml:space="preserve">47.5311012268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7069435119629</t>
+    <t xml:space="preserve">47.5311050415039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.7069473266602</t>
   </si>
   <si>
     <t xml:space="preserve">49.9732360839844</t>
@@ -359,46 +359,46 @@
     <t xml:space="preserve">46.7622833251953</t>
   </si>
   <si>
-    <t xml:space="preserve">45.5864448547363</t>
+    <t xml:space="preserve">45.5864486694336</t>
   </si>
   <si>
     <t xml:space="preserve">46.6266174316406</t>
   </si>
   <si>
-    <t xml:space="preserve">49.52099609375</t>
+    <t xml:space="preserve">49.5209884643555</t>
   </si>
   <si>
     <t xml:space="preserve">50.380256652832</t>
   </si>
   <si>
-    <t xml:space="preserve">51.0586280822754</t>
+    <t xml:space="preserve">51.0586318969727</t>
   </si>
   <si>
     <t xml:space="preserve">48.7521667480469</t>
   </si>
   <si>
-    <t xml:space="preserve">49.5662155151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.470703125</t>
+    <t xml:space="preserve">49.5662231445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.4707107543945</t>
   </si>
   <si>
     <t xml:space="preserve">49.6566696166992</t>
   </si>
   <si>
-    <t xml:space="preserve">51.2395286560059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.8726654052734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.9179000854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.6013259887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.5108757019043</t>
+    <t xml:space="preserve">51.2395210266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.8726692199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.9178924560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.6013221740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.5108795166016</t>
   </si>
   <si>
     <t xml:space="preserve">52.2344703674316</t>
@@ -407,22 +407,22 @@
     <t xml:space="preserve">52.4605941772461</t>
   </si>
   <si>
-    <t xml:space="preserve">51.6465492248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.4204254150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.9229507446289</t>
+    <t xml:space="preserve">51.6465454101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.4204292297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.9229545593262</t>
   </si>
   <si>
     <t xml:space="preserve">50.6968269348145</t>
   </si>
   <si>
-    <t xml:space="preserve">50.5159301757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.8325119018555</t>
+    <t xml:space="preserve">50.515926361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.8325080871582</t>
   </si>
   <si>
     <t xml:space="preserve">52.2796897888184</t>
@@ -431,94 +431,94 @@
     <t xml:space="preserve">54.2695770263672</t>
   </si>
   <si>
-    <t xml:space="preserve">53.7721099853516</t>
+    <t xml:space="preserve">53.7721061706543</t>
   </si>
   <si>
     <t xml:space="preserve">54.8574981689453</t>
   </si>
   <si>
-    <t xml:space="preserve">55.0383949279785</t>
+    <t xml:space="preserve">55.0383911132812</t>
   </si>
   <si>
     <t xml:space="preserve">56.0785675048828</t>
   </si>
   <si>
-    <t xml:space="preserve">54.8122787475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.7319412231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.3249168395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.3299789428711</t>
+    <t xml:space="preserve">54.8122749328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.7319374084473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.3249244689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.3299713134766</t>
   </si>
   <si>
     <t xml:space="preserve">52.0535659790039</t>
   </si>
   <si>
-    <t xml:space="preserve">51.2847557067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.9128341674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.4153709411621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0987968444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0083503723145</t>
+    <t xml:space="preserve">51.2847518920898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.9128379821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.4153633117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0987930297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0083465576172</t>
   </si>
   <si>
     <t xml:space="preserve">52.5510406494141</t>
   </si>
   <si>
-    <t xml:space="preserve">51.7369956970215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.1038513183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.1089096069336</t>
+    <t xml:space="preserve">51.7369995117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.1038551330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.1089134216309</t>
   </si>
   <si>
     <t xml:space="preserve">49.9280128479004</t>
   </si>
   <si>
-    <t xml:space="preserve">52.6414985656738</t>
+    <t xml:space="preserve">52.6414947509766</t>
   </si>
   <si>
     <t xml:space="preserve">53.1841850280762</t>
   </si>
   <si>
-    <t xml:space="preserve">53.3650817871094</t>
+    <t xml:space="preserve">53.3650856018066</t>
   </si>
   <si>
     <t xml:space="preserve">52.1892433166504</t>
   </si>
   <si>
-    <t xml:space="preserve">53.003288269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.2746429443359</t>
+    <t xml:space="preserve">53.0032844543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.2746391296387</t>
   </si>
   <si>
     <t xml:space="preserve">52.958065032959</t>
   </si>
   <si>
-    <t xml:space="preserve">53.8625564575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.3701400756836</t>
+    <t xml:space="preserve">53.8625602722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.3701438903809</t>
   </si>
   <si>
     <t xml:space="preserve">51.8274459838867</t>
   </si>
   <si>
-    <t xml:space="preserve">51.3752021789551</t>
+    <t xml:space="preserve">51.3751983642578</t>
   </si>
   <si>
     <t xml:space="preserve">50.7872848510742</t>
@@ -527,16 +527,16 @@
     <t xml:space="preserve">51.5560989379883</t>
   </si>
   <si>
-    <t xml:space="preserve">50.6516075134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.3400917053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.2546997070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.4356002807617</t>
+    <t xml:space="preserve">50.6516036987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.340087890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.2547035217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.4355964660645</t>
   </si>
   <si>
     <t xml:space="preserve">45.903018951416</t>
@@ -545,7 +545,7 @@
     <t xml:space="preserve">46.3100395202637</t>
   </si>
   <si>
-    <t xml:space="preserve">46.1291389465332</t>
+    <t xml:space="preserve">46.1291427612305</t>
   </si>
   <si>
     <t xml:space="preserve">46.988410949707</t>
@@ -554,16 +554,16 @@
     <t xml:space="preserve">47.2597541809082</t>
   </si>
   <si>
-    <t xml:space="preserve">46.8527374267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.3552665710449</t>
+    <t xml:space="preserve">46.8527336120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.3552589416504</t>
   </si>
   <si>
     <t xml:space="preserve">46.7170639038086</t>
   </si>
   <si>
-    <t xml:space="preserve">47.1693153381348</t>
+    <t xml:space="preserve">47.1693077087402</t>
   </si>
   <si>
     <t xml:space="preserve">47.0336380004883</t>
@@ -572,16 +572,16 @@
     <t xml:space="preserve">46.5813865661621</t>
   </si>
   <si>
-    <t xml:space="preserve">46.0386962890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.2648162841797</t>
+    <t xml:space="preserve">46.0386924743652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.264820098877</t>
   </si>
   <si>
     <t xml:space="preserve">47.1240844726562</t>
   </si>
   <si>
-    <t xml:space="preserve">46.8979530334473</t>
+    <t xml:space="preserve">46.8979568481445</t>
   </si>
   <si>
     <t xml:space="preserve">47.8476791381836</t>
@@ -590,28 +590,28 @@
     <t xml:space="preserve">48.073802947998</t>
   </si>
   <si>
-    <t xml:space="preserve">49.8375625610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.0134048461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.8223915100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.1490707397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.4757614135742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.2445907592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.465648651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.7822189331055</t>
+    <t xml:space="preserve">49.8375549316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.0133972167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.822395324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.1490821838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.475757598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.2445869445801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.4656524658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.7822227478027</t>
   </si>
   <si>
     <t xml:space="preserve">52.8676071166992</t>
@@ -620,10 +620,10 @@
     <t xml:space="preserve">53.1389617919922</t>
   </si>
   <si>
-    <t xml:space="preserve">54.0434494018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.0886764526367</t>
+    <t xml:space="preserve">54.0434532165527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.088680267334</t>
   </si>
   <si>
     <t xml:space="preserve">54.133903503418</t>
@@ -632,13 +632,13 @@
     <t xml:space="preserve">54.3600234985352</t>
   </si>
   <si>
-    <t xml:space="preserve">53.5912094116211</t>
+    <t xml:space="preserve">53.5912055969238</t>
   </si>
   <si>
     <t xml:space="preserve">53.9530067443848</t>
   </si>
   <si>
-    <t xml:space="preserve">54.5409240722656</t>
+    <t xml:space="preserve">54.5409317016602</t>
   </si>
   <si>
     <t xml:space="preserve">55.4906425476074</t>
@@ -647,67 +647,67 @@
     <t xml:space="preserve">56.3046875</t>
   </si>
   <si>
-    <t xml:space="preserve">56.0333442687988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.214241027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9830551147461</t>
+    <t xml:space="preserve">56.033332824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.2142372131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9830589294434</t>
   </si>
   <si>
     <t xml:space="preserve">56.8473739624023</t>
   </si>
   <si>
-    <t xml:space="preserve">56.3499183654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.5257530212402</t>
+    <t xml:space="preserve">56.349910736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.525749206543</t>
   </si>
   <si>
     <t xml:space="preserve">57.2544059753418</t>
   </si>
   <si>
-    <t xml:space="preserve">57.7066459655762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.7971076965332</t>
+    <t xml:space="preserve">57.7066497802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.7971038818359</t>
   </si>
   <si>
     <t xml:space="preserve">58.1589012145996</t>
   </si>
   <si>
-    <t xml:space="preserve">58.0684471130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.7920455932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.651309967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.7869911193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.5156326293945</t>
+    <t xml:space="preserve">58.0684432983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.7920379638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.6513023376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.7869873046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.5156402587891</t>
   </si>
   <si>
     <t xml:space="preserve">58.8372688293457</t>
   </si>
   <si>
-    <t xml:space="preserve">57.8875465393066</t>
+    <t xml:space="preserve">57.8875503540039</t>
   </si>
   <si>
     <t xml:space="preserve">58.1136741638184</t>
   </si>
   <si>
-    <t xml:space="preserve">59.3347358703613</t>
+    <t xml:space="preserve">59.3347434997559</t>
   </si>
   <si>
     <t xml:space="preserve">60.7819213867188</t>
   </si>
   <si>
-    <t xml:space="preserve">59.6965408325195</t>
+    <t xml:space="preserve">59.6965370178223</t>
   </si>
   <si>
     <t xml:space="preserve">60.0583305358887</t>
@@ -716,61 +716,61 @@
     <t xml:space="preserve">61.0532722473145</t>
   </si>
   <si>
-    <t xml:space="preserve">62.2291145324707</t>
+    <t xml:space="preserve">62.229118347168</t>
   </si>
   <si>
     <t xml:space="preserve">64.2190017700195</t>
   </si>
   <si>
-    <t xml:space="preserve">62.9526977539062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.4100189208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.6813735961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.6310844421387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.4954032897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.178840637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.5406379699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.3144989013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.6411972045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.9628257751465</t>
+    <t xml:space="preserve">62.952709197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.4100151062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.6813621520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.6310768127441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.4953994750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.1788291931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.5406341552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.3145027160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.6412010192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.962833404541</t>
   </si>
   <si>
     <t xml:space="preserve">61.7316436767578</t>
   </si>
   <si>
-    <t xml:space="preserve">62.4638137817383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.7383842468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.8756637573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.1044692993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.3332786560059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.2807884216309</t>
+    <t xml:space="preserve">62.4638214111328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.7383918762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.875675201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.1044807434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.3332710266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.2807846069336</t>
   </si>
   <si>
     <t xml:space="preserve">64.2484970092773</t>
@@ -779,163 +779,163 @@
     <t xml:space="preserve">64.5688323974609</t>
   </si>
   <si>
-    <t xml:space="preserve">64.2942733764648</t>
+    <t xml:space="preserve">64.2942657470703</t>
   </si>
   <si>
     <t xml:space="preserve">65.3925247192383</t>
   </si>
   <si>
-    <t xml:space="preserve">64.8891525268555</t>
+    <t xml:space="preserve">64.8891677856445</t>
   </si>
   <si>
     <t xml:space="preserve">65.6670989990234</t>
   </si>
   <si>
-    <t xml:space="preserve">66.3535079956055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.9739418029785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.8366546630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.3467712402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.7061157226562</t>
+    <t xml:space="preserve">66.3535232543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.9739379882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.8366622924805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.3467788696289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.7060928344727</t>
   </si>
   <si>
     <t xml:space="preserve">65.2552490234375</t>
   </si>
   <si>
-    <t xml:space="preserve">65.1179656982422</t>
+    <t xml:space="preserve">65.1179504394531</t>
   </si>
   <si>
     <t xml:space="preserve">64.9806823730469</t>
   </si>
   <si>
-    <t xml:space="preserve">66.5365447998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.8689308166504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.4045829772949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.5486106872559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.9537048339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.5943641662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.3197898864746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.4503364562988</t>
+    <t xml:space="preserve">66.5365524291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.8689231872559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.4045753479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.5485916137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.9537010192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.594367980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.3197975158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.4503326416016</t>
   </si>
   <si>
     <t xml:space="preserve">61.4113159179688</t>
   </si>
   <si>
-    <t xml:space="preserve">62.2350196838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.1959991455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.0196838378906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.3857879638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.202751159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.9281806945801</t>
+    <t xml:space="preserve">62.2350158691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.1960029602051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.0196914672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.3857803344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.2027359008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.9281692504883</t>
   </si>
   <si>
     <t xml:space="preserve">67.0856857299805</t>
   </si>
   <si>
-    <t xml:space="preserve">67.6348190307617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.8568801879883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.3602600097656</t>
+    <t xml:space="preserve">67.6348266601562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.8568954467773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.3602447509766</t>
   </si>
   <si>
     <t xml:space="preserve">67.1772003173828</t>
   </si>
   <si>
-    <t xml:space="preserve">66.8111190795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.719612121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.4450302124023</t>
+    <t xml:space="preserve">66.8111267089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.7196044921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.4450225830078</t>
   </si>
   <si>
     <t xml:space="preserve">65.8501358032227</t>
   </si>
   <si>
-    <t xml:space="preserve">66.0331802368164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.5755844116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.6213226318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.4840469360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.3010025024414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.7976455688477</t>
+    <t xml:space="preserve">66.0331878662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.5755767822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.621337890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.4840545654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.3009948730469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.7976379394531</t>
   </si>
   <si>
     <t xml:space="preserve">64.111213684082</t>
   </si>
   <si>
-    <t xml:space="preserve">66.2619857788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.3077545166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.131462097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.4517822265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.3144912719727</t>
+    <t xml:space="preserve">66.2620010375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.3077392578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.1314468383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.451774597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.3144989013672</t>
   </si>
   <si>
     <t xml:space="preserve">67.7263488769531</t>
   </si>
   <si>
-    <t xml:space="preserve">66.9026260375977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.2229614257812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.9551391601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.5432968139648</t>
+    <t xml:space="preserve">66.9026412963867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.2229690551758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.9551467895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.5433120727539</t>
   </si>
   <si>
     <t xml:space="preserve">68.2754745483398</t>
@@ -944,7 +944,7 @@
     <t xml:space="preserve">69.4195022583008</t>
   </si>
   <si>
-    <t xml:space="preserve">69.0076522827148</t>
+    <t xml:space="preserve">69.0076599121094</t>
   </si>
   <si>
     <t xml:space="preserve">68.7330932617188</t>
@@ -953,10 +953,10 @@
     <t xml:space="preserve">68.8246002197266</t>
   </si>
   <si>
-    <t xml:space="preserve">69.0534210205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.0143966674805</t>
+    <t xml:space="preserve">69.0534133911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.014404296875</t>
   </si>
   <si>
     <t xml:space="preserve">71.2041854858398</t>
@@ -968,133 +968,133 @@
     <t xml:space="preserve">72.8973388671875</t>
   </si>
   <si>
-    <t xml:space="preserve">72.3024597167969</t>
+    <t xml:space="preserve">72.3024368286133</t>
   </si>
   <si>
     <t xml:space="preserve">72.4397277832031</t>
   </si>
   <si>
-    <t xml:space="preserve">71.753303527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.0736312866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.7210464477539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.7990646362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.1584320068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.2499465942383</t>
+    <t xml:space="preserve">71.7533187866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.0736465454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.7210388183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.7990798950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.1584167480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.2499389648438</t>
   </si>
   <si>
     <t xml:space="preserve">71.432991027832</t>
   </si>
   <si>
-    <t xml:space="preserve">71.6617965698242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.7075500488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.3872146606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.4787445068359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.2566909790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.3414535522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.485481262207</t>
+    <t xml:space="preserve">71.6617889404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.7075424194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.3872299194336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.4787521362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.2566833496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.3414611816406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.4854888916016</t>
   </si>
   <si>
     <t xml:space="preserve">71.8906021118164</t>
   </si>
   <si>
-    <t xml:space="preserve">71.6160354614258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.9416732788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.399284362793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.3212280273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.6873245239258</t>
+    <t xml:space="preserve">71.6160278320312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.9416656494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.3992691040039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.3212432861328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.6873321533203</t>
   </si>
   <si>
     <t xml:space="preserve">70.1516799926758</t>
   </si>
   <si>
-    <t xml:space="preserve">70.9296188354492</t>
+    <t xml:space="preserve">70.9296035766602</t>
   </si>
   <si>
     <t xml:space="preserve">70.6550445556641</t>
   </si>
   <si>
-    <t xml:space="preserve">69.8771133422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.183952331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.2364501953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.9228820800781</t>
+    <t xml:space="preserve">69.8771209716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.1839447021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.236457824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.9228744506836</t>
   </si>
   <si>
     <t xml:space="preserve">70.0601577758789</t>
   </si>
   <si>
-    <t xml:space="preserve">70.8380966186523</t>
+    <t xml:space="preserve">70.8380889892578</t>
   </si>
   <si>
     <t xml:space="preserve">71.06689453125</t>
   </si>
   <si>
-    <t xml:space="preserve">72.8058166503906</t>
+    <t xml:space="preserve">72.8058242797852</t>
   </si>
   <si>
     <t xml:space="preserve">73.5379943847656</t>
   </si>
   <si>
-    <t xml:space="preserve">70.7923278808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.3737335205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.2822036743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.13818359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.5042877197266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.2889633178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.263427734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.7143020629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.5312423706055</t>
+    <t xml:space="preserve">70.7923355102539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.3737487792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.2822189331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.1381912231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.5042724609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.2889556884766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.2634353637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.7142791748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.5312576293945</t>
   </si>
   <si>
     <t xml:space="preserve">72.8515777587891</t>
@@ -1109,13 +1109,13 @@
     <t xml:space="preserve">72.3939666748047</t>
   </si>
   <si>
-    <t xml:space="preserve">72.3482131958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.577018737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.1651611328125</t>
+    <t xml:space="preserve">72.3482055664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.5770111083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.165168762207</t>
   </si>
   <si>
     <t xml:space="preserve">70.700813293457</t>
@@ -1124,16 +1124,16 @@
     <t xml:space="preserve">72.6685333251953</t>
   </si>
   <si>
-    <t xml:space="preserve">68.9618835449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.8178634643555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.6536140441895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.1637191772461</t>
+    <t xml:space="preserve">68.9618759155273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.8178558349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.6536064147949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.1637268066406</t>
   </si>
   <si>
     <t xml:space="preserve">64.0654525756836</t>
@@ -1142,37 +1142,34 @@
     <t xml:space="preserve">64.4315414428711</t>
   </si>
   <si>
-    <t xml:space="preserve">63.8824157714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.7451324462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.5620956420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.6926345825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.7316513061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.7706642150879</t>
+    <t xml:space="preserve">63.8824234008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.7451286315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.562084197998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.6926307678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.7706604003906</t>
   </si>
   <si>
     <t xml:space="preserve">60.4960975646973</t>
   </si>
   <si>
-    <t xml:space="preserve">61.6401214599609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.6011047363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.6145782470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.4127655029297</t>
+    <t xml:space="preserve">61.6401252746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.6011009216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.6145935058594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.4127578735352</t>
   </si>
   <si>
     <t xml:space="preserve">67.5890579223633</t>
@@ -1181,58 +1178,58 @@
     <t xml:space="preserve">66.0789413452148</t>
   </si>
   <si>
-    <t xml:space="preserve">65.7128601074219</t>
+    <t xml:space="preserve">65.7128448486328</t>
   </si>
   <si>
     <t xml:space="preserve">66.4907913208008</t>
   </si>
   <si>
-    <t xml:space="preserve">66.1247024536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.2687377929688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.1449432373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.0211334228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.7398223876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.7465667724609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.5245132446289</t>
+    <t xml:space="preserve">66.1247100830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.2687301635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.1449356079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.021125793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.7398300170898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.74658203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.5245056152344</t>
   </si>
   <si>
     <t xml:space="preserve">72.0278778076172</t>
   </si>
   <si>
-    <t xml:space="preserve">71.9821319580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.5837631225586</t>
+    <t xml:space="preserve">71.9821090698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.5837554931641</t>
   </si>
   <si>
     <t xml:space="preserve">74.6362686157227</t>
   </si>
   <si>
-    <t xml:space="preserve">73.4007110595703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.4074630737305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.1328811645508</t>
+    <t xml:space="preserve">73.4007034301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.407470703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.1328887939453</t>
   </si>
   <si>
     <t xml:space="preserve">74.3159332275391</t>
   </si>
   <si>
-    <t xml:space="preserve">75.6429977416992</t>
+    <t xml:space="preserve">75.6430130004883</t>
   </si>
   <si>
     <t xml:space="preserve">74.4989700317383</t>
@@ -1250,7 +1247,7 @@
     <t xml:space="preserve">75.8862915039062</t>
   </si>
   <si>
-    <t xml:space="preserve">77.8285369873047</t>
+    <t xml:space="preserve">77.8285446166992</t>
   </si>
   <si>
     <t xml:space="preserve">76.7649230957031</t>
@@ -1259,85 +1256,85 @@
     <t xml:space="preserve">75.1001434326172</t>
   </si>
   <si>
-    <t xml:space="preserve">78.2447280883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.3949737548828</t>
+    <t xml:space="preserve">78.2447357177734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.3949813842773</t>
   </si>
   <si>
     <t xml:space="preserve">79.0771179199219</t>
   </si>
   <si>
-    <t xml:space="preserve">80.926872253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.6205444335938</t>
+    <t xml:space="preserve">80.926887512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.6205368041992</t>
   </si>
   <si>
     <t xml:space="preserve">81.3893203735352</t>
   </si>
   <si>
-    <t xml:space="preserve">81.7592620849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.2968444824219</t>
+    <t xml:space="preserve">81.7592697143555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.2968292236328</t>
   </si>
   <si>
     <t xml:space="preserve">82.2679595947266</t>
   </si>
   <si>
-    <t xml:space="preserve">84.1639633178711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.4587936401367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.3374328613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.0137176513672</t>
+    <t xml:space="preserve">84.163948059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.4587860107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.3374176025391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.0137252807617</t>
   </si>
   <si>
     <t xml:space="preserve">85.3663024902344</t>
   </si>
   <si>
-    <t xml:space="preserve">84.1177139282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.7766342163086</t>
+    <t xml:space="preserve">84.1177062988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.7766418457031</t>
   </si>
   <si>
     <t xml:space="preserve">82.4529342651367</t>
   </si>
   <si>
-    <t xml:space="preserve">88.7883453369141</t>
+    <t xml:space="preserve">88.7883529663086</t>
   </si>
   <si>
     <t xml:space="preserve">87.9097213745117</t>
   </si>
   <si>
-    <t xml:space="preserve">88.5108795166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.9906997680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.1120681762695</t>
+    <t xml:space="preserve">88.5108947753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.9906921386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.112060546875</t>
   </si>
   <si>
     <t xml:space="preserve">90.3606414794922</t>
   </si>
   <si>
-    <t xml:space="preserve">89.0658264160156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.1756744384766</t>
+    <t xml:space="preserve">89.0658187866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.175666809082</t>
   </si>
   <si>
     <t xml:space="preserve">89.1583099365234</t>
   </si>
   <si>
-    <t xml:space="preserve">88.3721618652344</t>
+    <t xml:space="preserve">88.3721542358398</t>
   </si>
   <si>
     <t xml:space="preserve">88.6033782958984</t>
@@ -1346,49 +1343,49 @@
     <t xml:space="preserve">88.6958618164062</t>
   </si>
   <si>
-    <t xml:space="preserve">88.9270858764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.8230819702148</t>
+    <t xml:space="preserve">88.9270706176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.8230743408203</t>
   </si>
   <si>
     <t xml:space="preserve">90.3143920898438</t>
   </si>
   <si>
-    <t xml:space="preserve">90.5456161499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.2507934570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88.7420959472656</t>
+    <t xml:space="preserve">90.5456237792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.2507858276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88.7421035766602</t>
   </si>
   <si>
     <t xml:space="preserve">89.4820098876953</t>
   </si>
   <si>
-    <t xml:space="preserve">87.4010314941406</t>
+    <t xml:space="preserve">87.4010391235352</t>
   </si>
   <si>
     <t xml:space="preserve">86.938591003418</t>
   </si>
   <si>
-    <t xml:space="preserve">87.2623062133789</t>
+    <t xml:space="preserve">87.2622985839844</t>
   </si>
   <si>
     <t xml:space="preserve">85.5050354003906</t>
   </si>
   <si>
-    <t xml:space="preserve">85.5512847900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.9038619995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.6609344482422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.7881393432617</t>
+    <t xml:space="preserve">85.55126953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.9038543701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78.6609268188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.7881546020508</t>
   </si>
   <si>
     <t xml:space="preserve">82.0829772949219</t>
@@ -1403,13 +1400,13 @@
     <t xml:space="preserve">80.371955871582</t>
   </si>
   <si>
-    <t xml:space="preserve">81.5280532836914</t>
+    <t xml:space="preserve">81.5280609130859</t>
   </si>
   <si>
     <t xml:space="preserve">80.0482482910156</t>
   </si>
   <si>
-    <t xml:space="preserve">80.3256988525391</t>
+    <t xml:space="preserve">80.3257141113281</t>
   </si>
   <si>
     <t xml:space="preserve">86.1986923217773</t>
@@ -1421,37 +1418,37 @@
     <t xml:space="preserve">84.6263961791992</t>
   </si>
   <si>
-    <t xml:space="preserve">84.9501037597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84.7188873291016</t>
+    <t xml:space="preserve">84.9500961303711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84.7188949584961</t>
   </si>
   <si>
     <t xml:space="preserve">84.3026885986328</t>
   </si>
   <si>
-    <t xml:space="preserve">84.8113784790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.9212188720703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.7536239624023</t>
+    <t xml:space="preserve">84.8113708496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.9212341308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.7536087036133</t>
   </si>
   <si>
     <t xml:space="preserve">85.4125518798828</t>
   </si>
   <si>
-    <t xml:space="preserve">82.6841506958008</t>
+    <t xml:space="preserve">82.6841430664062</t>
   </si>
   <si>
     <t xml:space="preserve">82.9616088867188</t>
   </si>
   <si>
-    <t xml:space="preserve">82.0367279052734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.3142013549805</t>
+    <t xml:space="preserve">82.0367202758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.3141937255859</t>
   </si>
   <si>
     <t xml:space="preserve">83.8864822387695</t>
@@ -1460,16 +1457,16 @@
     <t xml:space="preserve">88.6496124267578</t>
   </si>
   <si>
-    <t xml:space="preserve">89.8982086181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.3200531005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.1062088012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.9674530029297</t>
+    <t xml:space="preserve">89.8982009887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.3200607299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.106201171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.9674606323242</t>
   </si>
   <si>
     <t xml:space="preserve">83.7939987182617</t>
@@ -1481,16 +1478,16 @@
     <t xml:space="preserve">82.4991683959961</t>
   </si>
   <si>
-    <t xml:space="preserve">80.2794570922852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.1175231933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.3776168823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.2677612304688</t>
+    <t xml:space="preserve">80.2794647216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.1175079345703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.3776092529297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.2677383422852</t>
   </si>
   <si>
     <t xml:space="preserve">73.7128219604492</t>
@@ -1499,64 +1496,67 @@
     <t xml:space="preserve">75.7938003540039</t>
   </si>
   <si>
-    <t xml:space="preserve">73.5278549194336</t>
+    <t xml:space="preserve">73.5278472900391</t>
   </si>
   <si>
     <t xml:space="preserve">73.8515625</t>
   </si>
   <si>
-    <t xml:space="preserve">75.470100402832</t>
+    <t xml:space="preserve">75.470085144043</t>
   </si>
   <si>
     <t xml:space="preserve">75.8400497436523</t>
   </si>
   <si>
-    <t xml:space="preserve">76.2099990844727</t>
+    <t xml:space="preserve">76.2099914550781</t>
   </si>
   <si>
     <t xml:space="preserve">77.4123306274414</t>
   </si>
   <si>
-    <t xml:space="preserve">73.7590789794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.7764434814453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.2041397094727</t>
+    <t xml:space="preserve">73.7590713500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.4989776611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.7764358520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.2041473388672</t>
   </si>
   <si>
     <t xml:space="preserve">74.915168762207</t>
   </si>
   <si>
-    <t xml:space="preserve">76.025016784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.5048217773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.9731216430664</t>
+    <t xml:space="preserve">76.0250244140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.5048294067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.9731292724609</t>
   </si>
   <si>
     <t xml:space="preserve">76.302490234375</t>
   </si>
   <si>
-    <t xml:space="preserve">77.0886383056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.9902877807617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.4468688964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.5856094360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.0018081665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.8804473876953</t>
+    <t xml:space="preserve">77.0886306762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.9902954101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.4468841552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.5856170654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.0018005371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.8804321289062</t>
   </si>
   <si>
     <t xml:space="preserve">74.0365371704102</t>
@@ -1565,16 +1565,16 @@
     <t xml:space="preserve">73.2503890991211</t>
   </si>
   <si>
-    <t xml:space="preserve">71.95556640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.7705841064453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.4583892822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.3658981323242</t>
+    <t xml:space="preserve">71.9555740356445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.7705764770508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.4583969116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.3659057617188</t>
   </si>
   <si>
     <t xml:space="preserve">69.7358551025391</t>
@@ -1583,7 +1583,7 @@
     <t xml:space="preserve">72.2330322265625</t>
   </si>
   <si>
-    <t xml:space="preserve">67.6548843383789</t>
+    <t xml:space="preserve">67.6548767089844</t>
   </si>
   <si>
     <t xml:space="preserve">68.2560577392578</t>
@@ -1592,10 +1592,10 @@
     <t xml:space="preserve">67.7936096191406</t>
   </si>
   <si>
-    <t xml:space="preserve">67.4698944091797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.441032409668</t>
+    <t xml:space="preserve">67.4699020385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.4410247802734</t>
   </si>
   <si>
     <t xml:space="preserve">67.7011184692383</t>
@@ -1604,61 +1604,61 @@
     <t xml:space="preserve">66.3600463867188</t>
   </si>
   <si>
-    <t xml:space="preserve">64.833984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.2501907348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.1114654541016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.6201400756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.0074691772461</t>
+    <t xml:space="preserve">64.8339996337891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.2501983642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.111457824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.6201477050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.007453918457</t>
   </si>
   <si>
     <t xml:space="preserve">65.7744827270508</t>
   </si>
   <si>
-    <t xml:space="preserve">67.0548858642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.5290908813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.1497344970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.8960723876953</t>
+    <t xml:space="preserve">67.0548782348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.5290985107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.1497268676758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.8960647583008</t>
   </si>
   <si>
     <t xml:space="preserve">70.3744201660156</t>
   </si>
   <si>
-    <t xml:space="preserve">70.0898971557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.5166931152344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.6548309326172</t>
+    <t xml:space="preserve">70.0899047851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.5167083740234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.6548233032227</t>
   </si>
   <si>
     <t xml:space="preserve">71.0383377075195</t>
   </si>
   <si>
-    <t xml:space="preserve">70.6589584350586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.7970962524414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.504280090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.9785003662109</t>
+    <t xml:space="preserve">70.6589660644531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.7970886230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.5042877197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.9785079956055</t>
   </si>
   <si>
     <t xml:space="preserve">76.2073440551758</t>
@@ -1667,85 +1667,85 @@
     <t xml:space="preserve">76.0650787353516</t>
   </si>
   <si>
-    <t xml:space="preserve">75.9228210449219</t>
+    <t xml:space="preserve">75.9228286743164</t>
   </si>
   <si>
     <t xml:space="preserve">75.5434417724609</t>
   </si>
   <si>
-    <t xml:space="preserve">76.0176696777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.2547607421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.6382904052734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77.5351638793945</t>
+    <t xml:space="preserve">76.0176620483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76.254768371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.6382827758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77.5351715087891</t>
   </si>
   <si>
     <t xml:space="preserve">77.1083679199219</t>
   </si>
   <si>
-    <t xml:space="preserve">75.8279724121094</t>
+    <t xml:space="preserve">75.8279647827148</t>
   </si>
   <si>
     <t xml:space="preserve">77.8671188354492</t>
   </si>
   <si>
-    <t xml:space="preserve">77.9619674682617</t>
+    <t xml:space="preserve">77.9619598388672</t>
   </si>
   <si>
     <t xml:space="preserve">79.7165908813477</t>
   </si>
   <si>
-    <t xml:space="preserve">79.6217422485352</t>
+    <t xml:space="preserve">79.6217346191406</t>
   </si>
   <si>
     <t xml:space="preserve">80.7124481201172</t>
   </si>
   <si>
-    <t xml:space="preserve">80.28564453125</t>
+    <t xml:space="preserve">80.2856597900391</t>
   </si>
   <si>
     <t xml:space="preserve">80.6176071166992</t>
   </si>
   <si>
-    <t xml:space="preserve">80.2382278442383</t>
+    <t xml:space="preserve">80.2382354736328</t>
   </si>
   <si>
     <t xml:space="preserve">80.4279251098633</t>
   </si>
   <si>
-    <t xml:space="preserve">80.8072967529297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.0443954467773</t>
+    <t xml:space="preserve">80.8072891235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.0444030761719</t>
   </si>
   <si>
     <t xml:space="preserve">80.0485382080078</t>
   </si>
   <si>
-    <t xml:space="preserve">80.9021377563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.7083129882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.3289337158203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.8031616210938</t>
+    <t xml:space="preserve">80.9021453857422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.7083206176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.3289413452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.8031539916992</t>
   </si>
   <si>
     <t xml:space="preserve">83.0835571289062</t>
   </si>
   <si>
-    <t xml:space="preserve">82.7516098022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.4196548461914</t>
+    <t xml:space="preserve">82.751594543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.4196395874023</t>
   </si>
   <si>
     <t xml:space="preserve">82.3722229003906</t>
@@ -1760,19 +1760,19 @@
     <t xml:space="preserve">82.1825332641602</t>
   </si>
   <si>
-    <t xml:space="preserve">81.3763580322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80.9969863891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83.3206634521484</t>
+    <t xml:space="preserve">81.3763656616211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80.9969787597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.320671081543</t>
   </si>
   <si>
     <t xml:space="preserve">83.5577774047852</t>
   </si>
   <si>
-    <t xml:space="preserve">84.0794296264648</t>
+    <t xml:space="preserve">84.0794219970703</t>
   </si>
   <si>
     <t xml:space="preserve">84.316535949707</t>
@@ -1784,10 +1784,10 @@
     <t xml:space="preserve">84.7433319091797</t>
   </si>
   <si>
-    <t xml:space="preserve">84.0320053100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.1227035522461</t>
+    <t xml:space="preserve">84.031982421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.1227111816406</t>
   </si>
   <si>
     <t xml:space="preserve">85.0752792358398</t>
@@ -1796,67 +1796,67 @@
     <t xml:space="preserve">85.881462097168</t>
   </si>
   <si>
-    <t xml:space="preserve">86.877326965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.9680328369141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.256706237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.9247589111328</t>
+    <t xml:space="preserve">86.8773345947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.9680404663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.2566909790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.9247512817383</t>
   </si>
   <si>
     <t xml:space="preserve">86.7824783325195</t>
   </si>
   <si>
-    <t xml:space="preserve">86.3082656860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.2134094238281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.7350540161133</t>
+    <t xml:space="preserve">86.3082580566406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.2134170532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.7350463867188</t>
   </si>
   <si>
     <t xml:space="preserve">83.1309814453125</t>
   </si>
   <si>
-    <t xml:space="preserve">80.7598648071289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">81.2815170288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.6093368530273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82.8938674926758</t>
+    <t xml:space="preserve">80.7598724365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81.2815093994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.6093292236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.8938751220703</t>
   </si>
   <si>
     <t xml:space="preserve">84.8855972290039</t>
   </si>
   <si>
-    <t xml:space="preserve">85.2649612426758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.3598251342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.4030990600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89.2958526611328</t>
+    <t xml:space="preserve">85.2649765014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.3598175048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.4031066894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.2958602905273</t>
   </si>
   <si>
     <t xml:space="preserve">90.6236724853516</t>
   </si>
   <si>
-    <t xml:space="preserve">92.4257125854492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.3782958984375</t>
+    <t xml:space="preserve">92.4257049560547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92.378288269043</t>
   </si>
   <si>
     <t xml:space="preserve">92.85693359375</t>
@@ -1865,16 +1865,16 @@
     <t xml:space="preserve">92.3304290771484</t>
   </si>
   <si>
-    <t xml:space="preserve">93.335578918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.7133407592773</t>
+    <t xml:space="preserve">93.3355865478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92.7133483886719</t>
   </si>
   <si>
     <t xml:space="preserve">91.9953842163086</t>
   </si>
   <si>
-    <t xml:space="preserve">91.7560577392578</t>
+    <t xml:space="preserve">91.7560501098633</t>
   </si>
   <si>
     <t xml:space="preserve">90.3201217651367</t>
@@ -1883,28 +1883,28 @@
     <t xml:space="preserve">89.4585647583008</t>
   </si>
   <si>
-    <t xml:space="preserve">89.9371948242188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.6397171020508</t>
+    <t xml:space="preserve">89.9372177124023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.6397247314453</t>
   </si>
   <si>
     <t xml:space="preserve">91.2295532226562</t>
   </si>
   <si>
-    <t xml:space="preserve">92.5218887329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93.1441268920898</t>
+    <t xml:space="preserve">92.5218963623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93.1441345214844</t>
   </si>
   <si>
     <t xml:space="preserve">94.2928771972656</t>
   </si>
   <si>
-    <t xml:space="preserve">96.7818145751953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.6433715820312</t>
+    <t xml:space="preserve">96.7818069458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.6433792114258</t>
   </si>
   <si>
     <t xml:space="preserve">95.0108337402344</t>
@@ -1913,10 +1913,10 @@
     <t xml:space="preserve">98.3134765625</t>
   </si>
   <si>
-    <t xml:space="preserve">99.0793075561523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.610961914062</t>
+    <t xml:space="preserve">99.0792999267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.610969543457</t>
   </si>
   <si>
     <t xml:space="preserve">102.621269226074</t>
@@ -1925,10 +1925,10 @@
     <t xml:space="preserve">99.9408721923828</t>
   </si>
   <si>
-    <t xml:space="preserve">100.515243530273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.1220245361328</t>
+    <t xml:space="preserve">100.515235900879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.1220169067383</t>
   </si>
   <si>
     <t xml:space="preserve">98.8878555297852</t>
@@ -1937,7 +1937,7 @@
     <t xml:space="preserve">97.1647338867188</t>
   </si>
   <si>
-    <t xml:space="preserve">97.5476455688477</t>
+    <t xml:space="preserve">97.5476608276367</t>
   </si>
   <si>
     <t xml:space="preserve">97.7391052246094</t>
@@ -1946,16 +1946,16 @@
     <t xml:space="preserve">98.5049438476562</t>
   </si>
   <si>
-    <t xml:space="preserve">98.2177505493164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.802429199219</t>
+    <t xml:space="preserve">98.2177581787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.802444458008</t>
   </si>
   <si>
     <t xml:space="preserve">99.5579528808594</t>
   </si>
   <si>
-    <t xml:space="preserve">98.6006622314453</t>
+    <t xml:space="preserve">98.6006698608398</t>
   </si>
   <si>
     <t xml:space="preserve">99.4622268676758</t>
@@ -1967,13 +1967,13 @@
     <t xml:space="preserve">98.7921142578125</t>
   </si>
   <si>
-    <t xml:space="preserve">97.4519271850586</t>
+    <t xml:space="preserve">97.4519119262695</t>
   </si>
   <si>
     <t xml:space="preserve">96.9732818603516</t>
   </si>
   <si>
-    <t xml:space="preserve">97.0690078735352</t>
+    <t xml:space="preserve">97.0690155029297</t>
   </si>
   <si>
     <t xml:space="preserve">96.6860885620117</t>
@@ -1991,7 +1991,7 @@
     <t xml:space="preserve">100.419509887695</t>
   </si>
   <si>
-    <t xml:space="preserve">103.099922180176</t>
+    <t xml:space="preserve">103.099914550781</t>
   </si>
   <si>
     <t xml:space="preserve">101.951179504395</t>
@@ -2003,16 +2003,16 @@
     <t xml:space="preserve">101.185340881348</t>
   </si>
   <si>
-    <t xml:space="preserve">99.653678894043</t>
+    <t xml:space="preserve">99.6536865234375</t>
   </si>
   <si>
     <t xml:space="preserve">101.472526550293</t>
   </si>
   <si>
-    <t xml:space="preserve">103.674285888672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.48282623291</t>
+    <t xml:space="preserve">103.674301147461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.482833862305</t>
   </si>
   <si>
     <t xml:space="preserve">105.110229492188</t>
@@ -2024,7 +2024,7 @@
     <t xml:space="preserve">101.281074523926</t>
   </si>
   <si>
-    <t xml:space="preserve">102.429824829102</t>
+    <t xml:space="preserve">102.429832458496</t>
   </si>
   <si>
     <t xml:space="preserve">103.004188537598</t>
@@ -2033,25 +2033,25 @@
     <t xml:space="preserve">105.014495849609</t>
   </si>
   <si>
-    <t xml:space="preserve">104.823036193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104.248672485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101.663986206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99.8451385498047</t>
+    <t xml:space="preserve">104.823043823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104.248664855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101.66397857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.8451538085938</t>
   </si>
   <si>
     <t xml:space="preserve">97.9305648803711</t>
   </si>
   <si>
-    <t xml:space="preserve">99.3665084838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.323783874512</t>
+    <t xml:space="preserve">99.3664932250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.323791503906</t>
   </si>
   <si>
     <t xml:space="preserve">102.23836517334</t>
@@ -2060,64 +2060,64 @@
     <t xml:space="preserve">101.568260192871</t>
   </si>
   <si>
-    <t xml:space="preserve">100.99388885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102.142623901367</t>
+    <t xml:space="preserve">100.993881225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102.142631530762</t>
   </si>
   <si>
     <t xml:space="preserve">100.898162841797</t>
   </si>
   <si>
-    <t xml:space="preserve">95.6330718994141</t>
+    <t xml:space="preserve">95.6330795288086</t>
   </si>
   <si>
     <t xml:space="preserve">95.9202651977539</t>
   </si>
   <si>
-    <t xml:space="preserve">95.058708190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.2980270385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.4894866943359</t>
+    <t xml:space="preserve">95.0587005615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.2980346679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.4894790649414</t>
   </si>
   <si>
     <t xml:space="preserve">95.8245315551758</t>
   </si>
   <si>
-    <t xml:space="preserve">95.7287979125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.8090667724609</t>
+    <t xml:space="preserve">95.7288055419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92.8090744018555</t>
   </si>
   <si>
     <t xml:space="preserve">93.5270385742188</t>
   </si>
   <si>
-    <t xml:space="preserve">92.4740219116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93.4791717529297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.9048080444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93.1919860839844</t>
+    <t xml:space="preserve">92.4740142822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93.4791793823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92.9048004150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93.1919937133789</t>
   </si>
   <si>
     <t xml:space="preserve">94.3407363891602</t>
   </si>
   <si>
-    <t xml:space="preserve">96.5903625488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.015983581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.132331848145</t>
+    <t xml:space="preserve">96.5903701782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.0159912109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.13232421875</t>
   </si>
   <si>
     <t xml:space="preserve">99.1750411987305</t>
@@ -2126,16 +2126,16 @@
     <t xml:space="preserve">102.046905517578</t>
   </si>
   <si>
-    <t xml:space="preserve">104.440124511719</t>
+    <t xml:space="preserve">104.440116882324</t>
   </si>
   <si>
     <t xml:space="preserve">105.971786499023</t>
   </si>
   <si>
-    <t xml:space="preserve">107.311988830566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.609474182129</t>
+    <t xml:space="preserve">107.311981201172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.609481811523</t>
   </si>
   <si>
     <t xml:space="preserve">109.035110473633</t>
@@ -2147,16 +2147,16 @@
     <t xml:space="preserve">114.013008117676</t>
   </si>
   <si>
-    <t xml:space="preserve">115.257484436035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.683113098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.97029876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.119041442871</t>
+    <t xml:space="preserve">115.257469177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.68310546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.970283508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.119033813477</t>
   </si>
   <si>
     <t xml:space="preserve">113.247177124023</t>
@@ -2168,31 +2168,31 @@
     <t xml:space="preserve">117.45923614502</t>
   </si>
   <si>
-    <t xml:space="preserve">118.703720092773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.512268066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.789138793945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.831848144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.874557495117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.045417785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.672805786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.002708435059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.715522766113</t>
+    <t xml:space="preserve">118.703712463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.512260437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.78914642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.831855773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.874565124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.045402526855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.672798156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.00269317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.71549987793</t>
   </si>
   <si>
     <t xml:space="preserve">112.57706451416</t>
@@ -2201,19 +2201,19 @@
     <t xml:space="preserve">113.151443481445</t>
   </si>
   <si>
-    <t xml:space="preserve">112.481338500977</t>
+    <t xml:space="preserve">112.481346130371</t>
   </si>
   <si>
     <t xml:space="preserve">111.524055480957</t>
   </si>
   <si>
-    <t xml:space="preserve">111.236869812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.896667480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.342903137207</t>
+    <t xml:space="preserve">111.236862182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.896659851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.342895507812</t>
   </si>
   <si>
     <t xml:space="preserve">113.72582244873</t>
@@ -2222,34 +2222,34 @@
     <t xml:space="preserve">114.395919799805</t>
   </si>
   <si>
-    <t xml:space="preserve">112.289878845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.853958129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.843650817871</t>
+    <t xml:space="preserve">112.289894104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.853965759277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.843643188477</t>
   </si>
   <si>
     <t xml:space="preserve">111.90697479248</t>
   </si>
   <si>
-    <t xml:space="preserve">109.418029785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.2265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.183853149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107.790641784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.566772460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.662483215332</t>
+    <t xml:space="preserve">109.418014526367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.226570129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.183860778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107.790626525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.566764831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.662498474121</t>
   </si>
   <si>
     <t xml:space="preserve">108.36499786377</t>
@@ -2264,52 +2264,52 @@
     <t xml:space="preserve">109.130836486816</t>
   </si>
   <si>
-    <t xml:space="preserve">109.800941467285</t>
+    <t xml:space="preserve">109.800926208496</t>
   </si>
   <si>
     <t xml:space="preserve">109.705207824707</t>
   </si>
   <si>
-    <t xml:space="preserve">111.619773864746</t>
+    <t xml:space="preserve">111.619781494141</t>
   </si>
   <si>
     <t xml:space="preserve">115.736122131348</t>
   </si>
   <si>
-    <t xml:space="preserve">115.927589416504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.332595825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105.87606048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.036605834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.173553466797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104.918769836426</t>
+    <t xml:space="preserve">115.927574157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.33260345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105.876045227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.036590576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.173545837402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104.918762207031</t>
   </si>
   <si>
     <t xml:space="preserve">103.195648193359</t>
   </si>
   <si>
-    <t xml:space="preserve">101.089614868164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.513748168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106.833351135254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.811241149902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.279571533203</t>
+    <t xml:space="preserve">101.089622497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.51375579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106.833335876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.811256408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.279579162598</t>
   </si>
   <si>
     <t xml:space="preserve">107.886360168457</t>
@@ -2321,19 +2321,19 @@
     <t xml:space="preserve">103.865753173828</t>
   </si>
   <si>
-    <t xml:space="preserve">115.544654846191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.055717468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119.565277099609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.873062133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">127.702217102051</t>
+    <t xml:space="preserve">115.544662475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.055709838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.565284729004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.873069763184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127.702209472656</t>
   </si>
   <si>
     <t xml:space="preserve">134.020324707031</t>
@@ -2342,7 +2342,7 @@
     <t xml:space="preserve">143.401748657227</t>
   </si>
   <si>
-    <t xml:space="preserve">143.688949584961</t>
+    <t xml:space="preserve">143.688934326172</t>
   </si>
   <si>
     <t xml:space="preserve">138.328125</t>
@@ -2351,94 +2351,94 @@
     <t xml:space="preserve">146.943710327148</t>
   </si>
   <si>
-    <t xml:space="preserve">146.082138061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.952529907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152.30451965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.655044555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">159.771362304688</t>
+    <t xml:space="preserve">146.082153320312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.952514648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152.304534912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.655029296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">159.771377563477</t>
   </si>
   <si>
     <t xml:space="preserve">159.962829589844</t>
   </si>
   <si>
-    <t xml:space="preserve">155.272125244141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148.66682434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148.762557983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148.379623413086</t>
+    <t xml:space="preserve">155.272109985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148.666839599609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148.762542724609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148.379638671875</t>
   </si>
   <si>
     <t xml:space="preserve">146.369323730469</t>
   </si>
   <si>
-    <t xml:space="preserve">148.188201904297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149.528396606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.559295654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153.644744873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.132202148438</t>
+    <t xml:space="preserve">148.188186645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149.528381347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.559310913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">153.644729614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.132171630859</t>
   </si>
   <si>
     <t xml:space="preserve">169.439971923828</t>
   </si>
   <si>
-    <t xml:space="preserve">176.332458496094</t>
+    <t xml:space="preserve">176.332473754883</t>
   </si>
   <si>
     <t xml:space="preserve">176.906829833984</t>
   </si>
   <si>
-    <t xml:space="preserve">171.546020507812</t>
+    <t xml:space="preserve">171.545989990234</t>
   </si>
   <si>
     <t xml:space="preserve">181.118896484375</t>
   </si>
   <si>
-    <t xml:space="preserve">182.746292114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">194.13801574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200.456100463867</t>
+    <t xml:space="preserve">182.746276855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">194.138031005859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200.456115722656</t>
   </si>
   <si>
     <t xml:space="preserve">188.585754394531</t>
   </si>
   <si>
-    <t xml:space="preserve">165.610809326172</t>
+    <t xml:space="preserve">165.61083984375</t>
   </si>
   <si>
     <t xml:space="preserve">174.034957885742</t>
   </si>
   <si>
-    <t xml:space="preserve">180.448806762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">173.747756958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171.258834838867</t>
+    <t xml:space="preserve">180.448791503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173.747772216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171.258804321289</t>
   </si>
   <si>
     <t xml:space="preserve">166.089462280273</t>
@@ -2447,10 +2447,10 @@
     <t xml:space="preserve">166.759567260742</t>
   </si>
   <si>
-    <t xml:space="preserve">158.909820556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152.783187866211</t>
+    <t xml:space="preserve">158.909805297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152.783157348633</t>
   </si>
   <si>
     <t xml:space="preserve">154.602020263672</t>
@@ -2465,7 +2465,7 @@
     <t xml:space="preserve">159.867095947266</t>
   </si>
   <si>
-    <t xml:space="preserve">163.573745727539</t>
+    <t xml:space="preserve">163.57373046875</t>
   </si>
   <si>
     <t xml:space="preserve">164.440231323242</t>
@@ -2474,7 +2474,7 @@
     <t xml:space="preserve">163.958847045898</t>
   </si>
   <si>
-    <t xml:space="preserve">163.188629150391</t>
+    <t xml:space="preserve">163.18864440918</t>
   </si>
   <si>
     <t xml:space="preserve">161.16682434082</t>
@@ -2483,25 +2483,25 @@
     <t xml:space="preserve">164.343963623047</t>
   </si>
   <si>
-    <t xml:space="preserve">169.25407409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166.558303833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.017883300781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163.381210327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.055130004883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.632766723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.921600341797</t>
+    <t xml:space="preserve">169.254043579102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.558319091797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.017868041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163.38117980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.055114746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.632781982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.921615600586</t>
   </si>
   <si>
     <t xml:space="preserve">164.729064941406</t>
@@ -2513,16 +2513,16 @@
     <t xml:space="preserve">171.853515625</t>
   </si>
   <si>
-    <t xml:space="preserve">172.527465820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.114151000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166.462020874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">167.232238769531</t>
+    <t xml:space="preserve">172.527435302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.114166259766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.462036132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">167.23225402832</t>
   </si>
   <si>
     <t xml:space="preserve">166.750869750977</t>
@@ -2531,25 +2531,25 @@
     <t xml:space="preserve">171.468414306641</t>
   </si>
   <si>
-    <t xml:space="preserve">171.564697265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">174.164154052734</t>
+    <t xml:space="preserve">171.564682006836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">174.164138793945</t>
   </si>
   <si>
     <t xml:space="preserve">171.66096496582</t>
   </si>
   <si>
-    <t xml:space="preserve">168.483825683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">162.996078491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156.641830444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.247680664062</t>
+    <t xml:space="preserve">168.483856201172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162.99609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.641845703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.247695922852</t>
   </si>
   <si>
     <t xml:space="preserve">166.847137451172</t>
@@ -2558,58 +2558,58 @@
     <t xml:space="preserve">161.263107299805</t>
   </si>
   <si>
-    <t xml:space="preserve">159.818969726562</t>
+    <t xml:space="preserve">159.818954467773</t>
   </si>
   <si>
     <t xml:space="preserve">154.620025634766</t>
   </si>
   <si>
-    <t xml:space="preserve">151.731750488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148.65087890625</t>
+    <t xml:space="preserve">151.731719970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148.650894165039</t>
   </si>
   <si>
     <t xml:space="preserve">152.69450378418</t>
   </si>
   <si>
-    <t xml:space="preserve">147.110473632812</t>
+    <t xml:space="preserve">147.110458374023</t>
   </si>
   <si>
     <t xml:space="preserve">151.635467529297</t>
   </si>
   <si>
-    <t xml:space="preserve">154.234939575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153.561004638672</t>
+    <t xml:space="preserve">154.234924316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">153.560989379883</t>
   </si>
   <si>
     <t xml:space="preserve">150.28759765625</t>
   </si>
   <si>
-    <t xml:space="preserve">156.738098144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153.175872802734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156.160461425781</t>
+    <t xml:space="preserve">156.73811340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">153.175888061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.160446166992</t>
   </si>
   <si>
     <t xml:space="preserve">156.834396362305</t>
   </si>
   <si>
-    <t xml:space="preserve">156.9306640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.412048339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.797164916992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161.455673217773</t>
+    <t xml:space="preserve">156.930648803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.412063598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.797149658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161.455642700195</t>
   </si>
   <si>
     <t xml:space="preserve">147.495574951172</t>
@@ -2624,49 +2624,49 @@
     <t xml:space="preserve">146.436538696289</t>
   </si>
   <si>
-    <t xml:space="preserve">145.377487182617</t>
+    <t xml:space="preserve">145.377502441406</t>
   </si>
   <si>
     <t xml:space="preserve">137.290267944336</t>
   </si>
   <si>
-    <t xml:space="preserve">136.520050048828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">139.119506835938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138.926956176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146.62907409668</t>
+    <t xml:space="preserve">136.520065307617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">139.119522094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138.926971435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146.629089355469</t>
   </si>
   <si>
     <t xml:space="preserve">145.088653564453</t>
   </si>
   <si>
-    <t xml:space="preserve">148.939712524414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149.613647460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151.154067993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154.90885925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152.30940246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163.092346191406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">162.707260131836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164.151412963867</t>
+    <t xml:space="preserve">148.939727783203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149.613632202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151.154083251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154.908843994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152.309371948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163.092361450195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162.707244873047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164.151397705078</t>
   </si>
   <si>
     <t xml:space="preserve">163.862564086914</t>
@@ -2675,10 +2675,10 @@
     <t xml:space="preserve">165.499267578125</t>
   </si>
   <si>
-    <t xml:space="preserve">170.216812133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">177.148742675781</t>
+    <t xml:space="preserve">170.216827392578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">177.148712158203</t>
   </si>
   <si>
     <t xml:space="preserve">177.533828735352</t>
@@ -2687,7 +2687,7 @@
     <t xml:space="preserve">179.940734863281</t>
   </si>
   <si>
-    <t xml:space="preserve">175.704574584961</t>
+    <t xml:space="preserve">175.70458984375</t>
   </si>
   <si>
     <t xml:space="preserve">180.999771118164</t>
@@ -2699,10 +2699,10 @@
     <t xml:space="preserve">180.518402099609</t>
   </si>
   <si>
-    <t xml:space="preserve">184.176895141602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">181.962539672852</t>
+    <t xml:space="preserve">184.17692565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181.962554931641</t>
   </si>
   <si>
     <t xml:space="preserve">187.354049682617</t>
@@ -2714,16 +2714,16 @@
     <t xml:space="preserve">183.984359741211</t>
   </si>
   <si>
-    <t xml:space="preserve">187.642868041992</t>
+    <t xml:space="preserve">187.642852783203</t>
   </si>
   <si>
     <t xml:space="preserve">185.428512573242</t>
   </si>
   <si>
-    <t xml:space="preserve">183.888076782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">181.577438354492</t>
+    <t xml:space="preserve">183.888092041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181.577453613281</t>
   </si>
   <si>
     <t xml:space="preserve">180.32585144043</t>
@@ -2738,22 +2738,22 @@
     <t xml:space="preserve">180.13330078125</t>
   </si>
   <si>
-    <t xml:space="preserve">186.968933105469</t>
+    <t xml:space="preserve">186.96891784668</t>
   </si>
   <si>
     <t xml:space="preserve">192.264129638672</t>
   </si>
   <si>
-    <t xml:space="preserve">193.708282470703</t>
+    <t xml:space="preserve">193.708267211914</t>
   </si>
   <si>
     <t xml:space="preserve">161.744491577148</t>
   </si>
   <si>
-    <t xml:space="preserve">165.980667114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">167.328552246094</t>
+    <t xml:space="preserve">165.980651855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">167.328521728516</t>
   </si>
   <si>
     <t xml:space="preserve">167.039688110352</t>
@@ -2765,7 +2765,7 @@
     <t xml:space="preserve">158.95246887207</t>
   </si>
   <si>
-    <t xml:space="preserve">162.899795532227</t>
+    <t xml:space="preserve">162.899810791016</t>
   </si>
   <si>
     <t xml:space="preserve">166.365768432617</t>
@@ -2777,10 +2777,10 @@
     <t xml:space="preserve">165.788101196289</t>
   </si>
   <si>
-    <t xml:space="preserve">163.670013427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">162.129592895508</t>
+    <t xml:space="preserve">163.670028686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162.129577636719</t>
   </si>
   <si>
     <t xml:space="preserve">164.825332641602</t>
@@ -2789,43 +2789,43 @@
     <t xml:space="preserve">162.225875854492</t>
   </si>
   <si>
-    <t xml:space="preserve">161.359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160.492889404297</t>
+    <t xml:space="preserve">161.359390258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160.492874145508</t>
   </si>
   <si>
     <t xml:space="preserve">160.878005981445</t>
   </si>
   <si>
-    <t xml:space="preserve">165.306716918945</t>
+    <t xml:space="preserve">165.306732177734</t>
   </si>
   <si>
     <t xml:space="preserve">161.070556640625</t>
   </si>
   <si>
-    <t xml:space="preserve">161.648208618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163.766311645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163.284912109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155.775344848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154.812561035156</t>
+    <t xml:space="preserve">161.648193359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163.76628112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163.284927368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155.775360107422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154.812576293945</t>
   </si>
   <si>
     <t xml:space="preserve">153.464706420898</t>
   </si>
   <si>
-    <t xml:space="preserve">157.604614257812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156.449279785156</t>
+    <t xml:space="preserve">157.604598999023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.449295043945</t>
   </si>
   <si>
     <t xml:space="preserve">156.545562744141</t>
@@ -2834,49 +2834,49 @@
     <t xml:space="preserve">160.011505126953</t>
   </si>
   <si>
-    <t xml:space="preserve">173.008819580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.142349243164</t>
+    <t xml:space="preserve">173.008850097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.142364501953</t>
   </si>
   <si>
     <t xml:space="preserve">181.288619995117</t>
   </si>
   <si>
-    <t xml:space="preserve">171.083282470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">173.875350952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">173.29768371582</t>
+    <t xml:space="preserve">171.083312988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173.87532043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">173.297668457031</t>
   </si>
   <si>
     <t xml:space="preserve">172.720001220703</t>
   </si>
   <si>
-    <t xml:space="preserve">169.928009033203</t>
+    <t xml:space="preserve">169.927993774414</t>
   </si>
   <si>
     <t xml:space="preserve">169.63916015625</t>
   </si>
   <si>
-    <t xml:space="preserve">172.431167602539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">176.08967590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175.415740966797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">177.630096435547</t>
+    <t xml:space="preserve">172.431198120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176.089660644531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">175.415756225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">177.630126953125</t>
   </si>
   <si>
     <t xml:space="preserve">178.689147949219</t>
   </si>
   <si>
-    <t xml:space="preserve">178.400314331055</t>
+    <t xml:space="preserve">178.400329589844</t>
   </si>
   <si>
     <t xml:space="preserve">179.459365844727</t>
@@ -2885,16 +2885,16 @@
     <t xml:space="preserve">176.667343139648</t>
   </si>
   <si>
-    <t xml:space="preserve">158.182266235352</t>
+    <t xml:space="preserve">158.182250976562</t>
   </si>
   <si>
     <t xml:space="preserve">153.753540039062</t>
   </si>
   <si>
-    <t xml:space="preserve">157.989700317383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156.352996826172</t>
+    <t xml:space="preserve">157.989715576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.353012084961</t>
   </si>
   <si>
     <t xml:space="preserve">157.893432617188</t>
@@ -2918,22 +2918,22 @@
     <t xml:space="preserve">134.401977539062</t>
   </si>
   <si>
-    <t xml:space="preserve">136.808898925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140.467376708984</t>
+    <t xml:space="preserve">136.808883666992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140.467391967773</t>
   </si>
   <si>
     <t xml:space="preserve">136.712600708008</t>
   </si>
   <si>
-    <t xml:space="preserve">134.883361816406</t>
+    <t xml:space="preserve">134.883346557617</t>
   </si>
   <si>
     <t xml:space="preserve">137.77165222168</t>
   </si>
   <si>
-    <t xml:space="preserve">134.979614257812</t>
+    <t xml:space="preserve">134.979629516602</t>
   </si>
   <si>
     <t xml:space="preserve">135.74983215332</t>
@@ -2942,16 +2942,16 @@
     <t xml:space="preserve">134.787078857422</t>
   </si>
   <si>
-    <t xml:space="preserve">137.001434326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.824310302734</t>
+    <t xml:space="preserve">137.001419067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.824295043945</t>
   </si>
   <si>
     <t xml:space="preserve">132.187606811523</t>
   </si>
   <si>
-    <t xml:space="preserve">132.572708129883</t>
+    <t xml:space="preserve">132.572723388672</t>
   </si>
   <si>
     <t xml:space="preserve">131.706237792969</t>
@@ -2972,13 +2972,13 @@
     <t xml:space="preserve">145.425628662109</t>
   </si>
   <si>
-    <t xml:space="preserve">143.59635925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150.095031738281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149.950607299805</t>
+    <t xml:space="preserve">143.596374511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150.095016479492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149.950622558594</t>
   </si>
   <si>
     <t xml:space="preserve">148.169494628906</t>
@@ -2990,13 +2990,13 @@
     <t xml:space="preserve">146.725357055664</t>
   </si>
   <si>
-    <t xml:space="preserve">138.734405517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138.541839599609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135.027770996094</t>
+    <t xml:space="preserve">138.734420776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138.541854858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.027755737305</t>
   </si>
   <si>
     <t xml:space="preserve">135.990539550781</t>
@@ -3008,22 +3008,22 @@
     <t xml:space="preserve">135.9423828125</t>
   </si>
   <si>
-    <t xml:space="preserve">133.342926025391</t>
+    <t xml:space="preserve">133.34294128418</t>
   </si>
   <si>
     <t xml:space="preserve">135.55729675293</t>
   </si>
   <si>
-    <t xml:space="preserve">137.338409423828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.102249145508</t>
+    <t xml:space="preserve">137.338394165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.102233886719</t>
   </si>
   <si>
     <t xml:space="preserve">129.973251342773</t>
   </si>
   <si>
-    <t xml:space="preserve">133.150360107422</t>
+    <t xml:space="preserve">133.150390625</t>
   </si>
   <si>
     <t xml:space="preserve">132.861541748047</t>
@@ -3032,28 +3032,28 @@
     <t xml:space="preserve">136.375625610352</t>
   </si>
   <si>
-    <t xml:space="preserve">138.638137817383</t>
+    <t xml:space="preserve">138.638122558594</t>
   </si>
   <si>
     <t xml:space="preserve">138.78254699707</t>
   </si>
   <si>
-    <t xml:space="preserve">138.734085083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138.49169921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">139.606628417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">139.558135986328</t>
+    <t xml:space="preserve">138.734069824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138.491714477539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">139.60661315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">139.558120727539</t>
   </si>
   <si>
     <t xml:space="preserve">139.848983764648</t>
   </si>
   <si>
-    <t xml:space="preserve">140.236785888672</t>
+    <t xml:space="preserve">140.236770629883</t>
   </si>
   <si>
     <t xml:space="preserve">137.716110229492</t>
@@ -3071,28 +3071,28 @@
     <t xml:space="preserve">137.958480834961</t>
   </si>
   <si>
-    <t xml:space="preserve">139.267288208008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140.430679321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140.963897705078</t>
+    <t xml:space="preserve">139.267303466797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140.430694580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140.963882446289</t>
   </si>
   <si>
     <t xml:space="preserve">145.035766601562</t>
   </si>
   <si>
-    <t xml:space="preserve">146.150680541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145.859832763672</t>
+    <t xml:space="preserve">146.150665283203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145.859817504883</t>
   </si>
   <si>
     <t xml:space="preserve">148.138137817383</t>
   </si>
   <si>
-    <t xml:space="preserve">147.653381347656</t>
+    <t xml:space="preserve">147.653396606445</t>
   </si>
   <si>
     <t xml:space="preserve">149.204559326172</t>
@@ -3107,7 +3107,7 @@
     <t xml:space="preserve">145.22966003418</t>
   </si>
   <si>
-    <t xml:space="preserve">149.883209228516</t>
+    <t xml:space="preserve">149.883224487305</t>
   </si>
   <si>
     <t xml:space="preserve">151.337448120117</t>
@@ -3122,7 +3122,7 @@
     <t xml:space="preserve">154.633728027344</t>
   </si>
   <si>
-    <t xml:space="preserve">152.694747924805</t>
+    <t xml:space="preserve">152.694732666016</t>
   </si>
   <si>
     <t xml:space="preserve">153.470336914062</t>
@@ -3131,7 +3131,7 @@
     <t xml:space="preserve">151.822204589844</t>
   </si>
   <si>
-    <t xml:space="preserve">155.845565795898</t>
+    <t xml:space="preserve">155.845581054688</t>
   </si>
   <si>
     <t xml:space="preserve">158.317779541016</t>
@@ -3140,7 +3140,7 @@
     <t xml:space="preserve">154.342864990234</t>
   </si>
   <si>
-    <t xml:space="preserve">155.748611450195</t>
+    <t xml:space="preserve">155.748626708984</t>
   </si>
   <si>
     <t xml:space="preserve">157.105911254883</t>
@@ -3149,22 +3149,22 @@
     <t xml:space="preserve">157.445236206055</t>
   </si>
   <si>
-    <t xml:space="preserve">157.00895690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.639144897461</t>
+    <t xml:space="preserve">157.008972167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.639129638672</t>
   </si>
   <si>
     <t xml:space="preserve">158.075408935547</t>
   </si>
   <si>
-    <t xml:space="preserve">160.935394287109</t>
+    <t xml:space="preserve">160.935409545898</t>
   </si>
   <si>
     <t xml:space="preserve">162.195739746094</t>
   </si>
   <si>
-    <t xml:space="preserve">164.280136108398</t>
+    <t xml:space="preserve">164.280120849609</t>
   </si>
   <si>
     <t xml:space="preserve">165.734375</t>
@@ -3179,7 +3179,7 @@
     <t xml:space="preserve">162.971328735352</t>
   </si>
   <si>
-    <t xml:space="preserve">164.425552368164</t>
+    <t xml:space="preserve">164.425582885742</t>
   </si>
   <si>
     <t xml:space="preserve">167.188613891602</t>
@@ -3194,7 +3194,7 @@
     <t xml:space="preserve">166.703872680664</t>
   </si>
   <si>
-    <t xml:space="preserve">170.290969848633</t>
+    <t xml:space="preserve">170.290985107422</t>
   </si>
   <si>
     <t xml:space="preserve">171.018096923828</t>
@@ -3203,7 +3203,7 @@
     <t xml:space="preserve">168.158096313477</t>
   </si>
   <si>
-    <t xml:space="preserve">170.824203491211</t>
+    <t xml:space="preserve">170.824188232422</t>
   </si>
   <si>
     <t xml:space="preserve">170.484893798828</t>
@@ -3218,37 +3218,37 @@
     <t xml:space="preserve">172.423873901367</t>
   </si>
   <si>
-    <t xml:space="preserve">173.538772583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">178.289276123047</t>
+    <t xml:space="preserve">173.538787841797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">178.289260864258</t>
   </si>
   <si>
     <t xml:space="preserve">179.210296630859</t>
   </si>
   <si>
-    <t xml:space="preserve">179.404190063477</t>
+    <t xml:space="preserve">179.404205322266</t>
   </si>
   <si>
     <t xml:space="preserve">182.409606933594</t>
   </si>
   <si>
-    <t xml:space="preserve">181.827926635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180.325225830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179.743499755859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180.082824707031</t>
+    <t xml:space="preserve">181.827911376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180.325210571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179.743515014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180.08283996582</t>
   </si>
   <si>
     <t xml:space="preserve">183.669952392578</t>
   </si>
   <si>
-    <t xml:space="preserve">185.075714111328</t>
+    <t xml:space="preserve">185.075698852539</t>
   </si>
   <si>
     <t xml:space="preserve">187.354019165039</t>
@@ -3257,37 +3257,37 @@
     <t xml:space="preserve">192.443832397461</t>
   </si>
   <si>
-    <t xml:space="preserve">194.867568969727</t>
+    <t xml:space="preserve">194.867553710938</t>
   </si>
   <si>
     <t xml:space="preserve">195.740097045898</t>
   </si>
   <si>
-    <t xml:space="preserve">198.06689453125</t>
+    <t xml:space="preserve">198.066879272461</t>
   </si>
   <si>
     <t xml:space="preserve">194.09196472168</t>
   </si>
   <si>
-    <t xml:space="preserve">199.424179077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">199.327239990234</t>
+    <t xml:space="preserve">199.424163818359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">199.327224731445</t>
   </si>
   <si>
     <t xml:space="preserve">199.908905029297</t>
   </si>
   <si>
-    <t xml:space="preserve">190.698745727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">195.643173217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.783172607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">194.479782104492</t>
+    <t xml:space="preserve">190.698760986328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">195.643157958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.783157348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">194.479766845703</t>
   </si>
   <si>
     <t xml:space="preserve">196.418762207031</t>
@@ -3299,10 +3299,10 @@
     <t xml:space="preserve">197.000442504883</t>
   </si>
   <si>
-    <t xml:space="preserve">189.874694824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">182.845886230469</t>
+    <t xml:space="preserve">189.874710083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">182.845901489258</t>
   </si>
   <si>
     <t xml:space="preserve">177.222839355469</t>
@@ -3326,16 +3326,16 @@
     <t xml:space="preserve">164.861846923828</t>
   </si>
   <si>
-    <t xml:space="preserve">165.492004394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">166.849304199219</t>
+    <t xml:space="preserve">165.491989135742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">166.84928894043</t>
   </si>
   <si>
     <t xml:space="preserve">164.183197021484</t>
   </si>
   <si>
-    <t xml:space="preserve">168.642852783203</t>
+    <t xml:space="preserve">168.642837524414</t>
   </si>
   <si>
     <t xml:space="preserve">173.05403137207</t>
@@ -3347,22 +3347,22 @@
     <t xml:space="preserve">174.605224609375</t>
   </si>
   <si>
-    <t xml:space="preserve">173.878112792969</t>
+    <t xml:space="preserve">173.87809753418</t>
   </si>
   <si>
     <t xml:space="preserve">175.962493896484</t>
   </si>
   <si>
-    <t xml:space="preserve">179.985885620117</t>
+    <t xml:space="preserve">179.985870361328</t>
   </si>
   <si>
     <t xml:space="preserve">183.766906738281</t>
   </si>
   <si>
-    <t xml:space="preserve">183.136734008789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">185.221130371094</t>
+    <t xml:space="preserve">183.13671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">185.221145629883</t>
   </si>
   <si>
     <t xml:space="preserve">185.172668457031</t>
@@ -3383,25 +3383,25 @@
     <t xml:space="preserve">191.619766235352</t>
   </si>
   <si>
-    <t xml:space="preserve">188.808258056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">187.160125732422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">176.931976318359</t>
+    <t xml:space="preserve">188.808242797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">187.160110473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176.931991577148</t>
   </si>
   <si>
     <t xml:space="preserve">178.483184814453</t>
   </si>
   <si>
-    <t xml:space="preserve">177.80451965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179.355712890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">182.264205932617</t>
+    <t xml:space="preserve">177.804534912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179.355728149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">182.264175415039</t>
   </si>
   <si>
     <t xml:space="preserve">183.185195922852</t>
@@ -3413,7 +3413,7 @@
     <t xml:space="preserve">178.143859863281</t>
   </si>
   <si>
-    <t xml:space="preserve">178.870956420898</t>
+    <t xml:space="preserve">178.870971679688</t>
   </si>
   <si>
     <t xml:space="preserve">178.046905517578</t>
@@ -3425,7 +3425,7 @@
     <t xml:space="preserve">172.036056518555</t>
   </si>
   <si>
-    <t xml:space="preserve">181.585556030273</t>
+    <t xml:space="preserve">181.585540771484</t>
   </si>
   <si>
     <t xml:space="preserve">179.452667236328</t>
@@ -3434,40 +3434,40 @@
     <t xml:space="preserve">182.991302490234</t>
   </si>
   <si>
-    <t xml:space="preserve">177.319778442383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.47233581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">171.308944702148</t>
+    <t xml:space="preserve">177.319793701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.472320556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171.308929443359</t>
   </si>
   <si>
     <t xml:space="preserve">167.043197631836</t>
   </si>
   <si>
-    <t xml:space="preserve">169.612335205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.569290161133</t>
+    <t xml:space="preserve">169.612350463867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.569274902344</t>
   </si>
   <si>
     <t xml:space="preserve">174.508270263672</t>
   </si>
   <si>
-    <t xml:space="preserve">175.138442993164</t>
+    <t xml:space="preserve">175.138427734375</t>
   </si>
   <si>
     <t xml:space="preserve">170.921157836914</t>
   </si>
   <si>
-    <t xml:space="preserve">174.993011474609</t>
+    <t xml:space="preserve">174.993026733398</t>
   </si>
   <si>
     <t xml:space="preserve">172.714706420898</t>
   </si>
   <si>
-    <t xml:space="preserve">154.003555297852</t>
+    <t xml:space="preserve">154.003540039062</t>
   </si>
   <si>
     <t xml:space="preserve">155.651672363281</t>
@@ -3476,7 +3476,7 @@
     <t xml:space="preserve">155.36083984375</t>
   </si>
   <si>
-    <t xml:space="preserve">156.912017822266</t>
+    <t xml:space="preserve">156.912033081055</t>
   </si>
   <si>
     <t xml:space="preserve">156.718109130859</t>
@@ -3494,13 +3494,13 @@
     <t xml:space="preserve">158.220825195312</t>
   </si>
   <si>
-    <t xml:space="preserve">154.100494384766</t>
+    <t xml:space="preserve">154.100479125977</t>
   </si>
   <si>
     <t xml:space="preserve">155.603210449219</t>
   </si>
   <si>
-    <t xml:space="preserve">150.077117919922</t>
+    <t xml:space="preserve">150.077102661133</t>
   </si>
   <si>
     <t xml:space="preserve">143.581527709961</t>
@@ -3509,13 +3509,13 @@
     <t xml:space="preserve">145.617446899414</t>
   </si>
   <si>
-    <t xml:space="preserve">149.495407104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">143.193725585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141.642562866211</t>
+    <t xml:space="preserve">149.495422363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143.193740844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141.642547607422</t>
   </si>
   <si>
     <t xml:space="preserve">143.726943969727</t>
@@ -3530,7 +3530,7 @@
     <t xml:space="preserve">142.515090942383</t>
   </si>
   <si>
-    <t xml:space="preserve">130.590347290039</t>
+    <t xml:space="preserve">130.590362548828</t>
   </si>
   <si>
     <t xml:space="preserve">128.505950927734</t>
@@ -3539,25 +3539,25 @@
     <t xml:space="preserve">130.63883972168</t>
   </si>
   <si>
-    <t xml:space="preserve">130.978149414062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.723220825195</t>
+    <t xml:space="preserve">130.978164672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.723236083984</t>
   </si>
   <si>
     <t xml:space="preserve">132.820175170898</t>
   </si>
   <si>
-    <t xml:space="preserve">133.692718505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129.330017089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">127.584930419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.058837890625</t>
+    <t xml:space="preserve">133.69270324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129.330001831055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127.584938049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.05884552002</t>
   </si>
   <si>
     <t xml:space="preserve">120.943923950195</t>
@@ -3569,7 +3569,7 @@
     <t xml:space="preserve">122.204261779785</t>
   </si>
   <si>
-    <t xml:space="preserve">119.441215515137</t>
+    <t xml:space="preserve">119.441207885742</t>
   </si>
   <si>
     <t xml:space="preserve">116.096473693848</t>
@@ -3581,7 +3581,7 @@
     <t xml:space="preserve">118.035453796387</t>
   </si>
   <si>
-    <t xml:space="preserve">117.065963745117</t>
+    <t xml:space="preserve">117.065956115723</t>
   </si>
   <si>
     <t xml:space="preserve">113.721221923828</t>
@@ -3590,7 +3590,7 @@
     <t xml:space="preserve">113.866645812988</t>
   </si>
   <si>
-    <t xml:space="preserve">117.696136474609</t>
+    <t xml:space="preserve">117.696128845215</t>
   </si>
   <si>
     <t xml:space="preserve">121.671043395996</t>
@@ -3599,13 +3599,13 @@
     <t xml:space="preserve">124.676467895508</t>
   </si>
   <si>
-    <t xml:space="preserve">124.434089660645</t>
+    <t xml:space="preserve">124.434097290039</t>
   </si>
   <si>
     <t xml:space="preserve">129.572387695312</t>
   </si>
   <si>
-    <t xml:space="preserve">128.748321533203</t>
+    <t xml:space="preserve">128.748336791992</t>
   </si>
   <si>
     <t xml:space="preserve">125.355102539062</t>
@@ -3617,16 +3617,16 @@
     <t xml:space="preserve">121.62255859375</t>
   </si>
   <si>
-    <t xml:space="preserve">123.803916931152</t>
+    <t xml:space="preserve">123.803924560547</t>
   </si>
   <si>
     <t xml:space="preserve">119.004943847656</t>
   </si>
   <si>
-    <t xml:space="preserve">122.349685668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.017478942871</t>
+    <t xml:space="preserve">122.349678039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.017486572266</t>
   </si>
   <si>
     <t xml:space="preserve">119.101898193359</t>
@@ -3635,34 +3635,34 @@
     <t xml:space="preserve">123.416130065918</t>
   </si>
   <si>
-    <t xml:space="preserve">133.401870727539</t>
+    <t xml:space="preserve">133.401885986328</t>
   </si>
   <si>
     <t xml:space="preserve">133.98356628418</t>
   </si>
   <si>
-    <t xml:space="preserve">128.312042236328</t>
+    <t xml:space="preserve">128.312057495117</t>
   </si>
   <si>
     <t xml:space="preserve">128.215087890625</t>
   </si>
   <si>
-    <t xml:space="preserve">126.85782623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125.791381835938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">127.051719665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135.534744262695</t>
+    <t xml:space="preserve">126.857810974121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.791374206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127.051727294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.534759521484</t>
   </si>
   <si>
     <t xml:space="preserve">137.473739624023</t>
   </si>
   <si>
-    <t xml:space="preserve">137.570693969727</t>
+    <t xml:space="preserve">137.570678710938</t>
   </si>
   <si>
     <t xml:space="preserve">141.109329223633</t>
@@ -3671,25 +3671,25 @@
     <t xml:space="preserve">141.400161743164</t>
   </si>
   <si>
-    <t xml:space="preserve">143.920852661133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140.818466186523</t>
+    <t xml:space="preserve">143.920837402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140.818481445312</t>
   </si>
   <si>
     <t xml:space="preserve">137.910003662109</t>
   </si>
   <si>
-    <t xml:space="preserve">136.988998413086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.322906494141</t>
+    <t xml:space="preserve">136.988983154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.322891235352</t>
   </si>
   <si>
     <t xml:space="preserve">130.687301635742</t>
   </si>
   <si>
-    <t xml:space="preserve">130.735794067383</t>
+    <t xml:space="preserve">130.735778808594</t>
   </si>
   <si>
     <t xml:space="preserve">130.202560424805</t>
@@ -3701,7 +3701,7 @@
     <t xml:space="preserve">128.069686889648</t>
   </si>
   <si>
-    <t xml:space="preserve">126.130706787109</t>
+    <t xml:space="preserve">126.130699157715</t>
   </si>
   <si>
     <t xml:space="preserve">122.543579101562</t>
@@ -3710,7 +3710,7 @@
     <t xml:space="preserve">120.216804504395</t>
   </si>
   <si>
-    <t xml:space="preserve">116.72664642334</t>
+    <t xml:space="preserve">116.726638793945</t>
   </si>
   <si>
     <t xml:space="preserve">120.168327331543</t>
@@ -3722,40 +3722,40 @@
     <t xml:space="preserve">119.683586120605</t>
   </si>
   <si>
-    <t xml:space="preserve">119.150375366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.854095458984</t>
+    <t xml:space="preserve">119.150367736816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.854103088379</t>
   </si>
   <si>
     <t xml:space="preserve">116.290367126465</t>
   </si>
   <si>
-    <t xml:space="preserve">116.969009399414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.667320251465</t>
+    <t xml:space="preserve">116.969017028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.667327880859</t>
   </si>
   <si>
     <t xml:space="preserve">107.952751159668</t>
   </si>
   <si>
-    <t xml:space="preserve">111.055122375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.534446716309</t>
+    <t xml:space="preserve">111.055130004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.534439086914</t>
   </si>
   <si>
     <t xml:space="preserve">115.466300964355</t>
   </si>
   <si>
-    <t xml:space="preserve">116.338836669922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.884613037109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.976142883301</t>
+    <t xml:space="preserve">116.338844299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.884605407715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.976135253906</t>
   </si>
   <si>
     <t xml:space="preserve">114.496810913086</t>
@@ -3773,7 +3773,7 @@
     <t xml:space="preserve">113.362937927246</t>
   </si>
   <si>
-    <t xml:space="preserve">114.830108642578</t>
+    <t xml:space="preserve">114.830101013184</t>
   </si>
   <si>
     <t xml:space="preserve">118.791442871094</t>
@@ -3782,19 +3782,19 @@
     <t xml:space="preserve">119.91626739502</t>
   </si>
   <si>
-    <t xml:space="preserve">119.818466186523</t>
+    <t xml:space="preserve">119.818458557129</t>
   </si>
   <si>
     <t xml:space="preserve">118.253486633301</t>
   </si>
   <si>
-    <t xml:space="preserve">121.334533691406</t>
+    <t xml:space="preserve">121.334541320801</t>
   </si>
   <si>
     <t xml:space="preserve">117.764434814453</t>
   </si>
   <si>
-    <t xml:space="preserve">119.769554138184</t>
+    <t xml:space="preserve">119.769546508789</t>
   </si>
   <si>
     <t xml:space="preserve">119.231597900391</t>
@@ -3806,7 +3806,7 @@
     <t xml:space="preserve">116.541793823242</t>
   </si>
   <si>
-    <t xml:space="preserve">113.21622467041</t>
+    <t xml:space="preserve">113.216217041016</t>
   </si>
   <si>
     <t xml:space="preserve">112.335914611816</t>
@@ -3818,7 +3818,7 @@
     <t xml:space="preserve">114.096519470215</t>
   </si>
   <si>
-    <t xml:space="preserve">111.308906555176</t>
+    <t xml:space="preserve">111.30891418457</t>
   </si>
   <si>
     <t xml:space="preserve">116.150550842285</t>
@@ -3833,22 +3833,22 @@
     <t xml:space="preserve">114.976821899414</t>
   </si>
   <si>
-    <t xml:space="preserve">121.725776672363</t>
+    <t xml:space="preserve">121.725769042969</t>
   </si>
   <si>
     <t xml:space="preserve">124.953536987305</t>
   </si>
   <si>
-    <t xml:space="preserve">124.366668701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124.171051025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.410461425781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.459358215332</t>
+    <t xml:space="preserve">124.366676330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.171043395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.410453796387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.459350585938</t>
   </si>
   <si>
     <t xml:space="preserve">123.584182739258</t>
@@ -3872,16 +3872,16 @@
     <t xml:space="preserve">133.218566894531</t>
   </si>
   <si>
-    <t xml:space="preserve">127.203193664551</t>
+    <t xml:space="preserve">127.203201293945</t>
   </si>
   <si>
     <t xml:space="preserve">129.599563598633</t>
   </si>
   <si>
-    <t xml:space="preserve">126.567413330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129.550659179688</t>
+    <t xml:space="preserve">126.567405700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129.550643920898</t>
   </si>
   <si>
     <t xml:space="preserve">129.306121826172</t>
@@ -3905,19 +3905,19 @@
     <t xml:space="preserve">130.430969238281</t>
   </si>
   <si>
-    <t xml:space="preserve">127.545532226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131.89811706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132.631698608398</t>
+    <t xml:space="preserve">127.545516967773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131.898132324219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132.631713867188</t>
   </si>
   <si>
     <t xml:space="preserve">132.533889770508</t>
   </si>
   <si>
-    <t xml:space="preserve">130.284240722656</t>
+    <t xml:space="preserve">130.284225463867</t>
   </si>
   <si>
     <t xml:space="preserve">131.800308227539</t>
@@ -3929,16 +3929,16 @@
     <t xml:space="preserve">133.903228759766</t>
   </si>
   <si>
-    <t xml:space="preserve">132.582794189453</t>
+    <t xml:space="preserve">132.582809448242</t>
   </si>
   <si>
     <t xml:space="preserve">133.609817504883</t>
   </si>
   <si>
-    <t xml:space="preserve">136.83757019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134.587921142578</t>
+    <t xml:space="preserve">136.837554931641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134.587936401367</t>
   </si>
   <si>
     <t xml:space="preserve">133.463088989258</t>
@@ -3947,28 +3947,28 @@
     <t xml:space="preserve">132.484985351562</t>
   </si>
   <si>
-    <t xml:space="preserve">133.707626342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.169662475586</t>
+    <t xml:space="preserve">133.707611083984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.169647216797</t>
   </si>
   <si>
     <t xml:space="preserve">134.001052856445</t>
   </si>
   <si>
-    <t xml:space="preserve">128.132385253906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129.501754760742</t>
+    <t xml:space="preserve">128.132400512695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129.501739501953</t>
   </si>
   <si>
     <t xml:space="preserve">128.083480834961</t>
   </si>
   <si>
-    <t xml:space="preserve">127.496620178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130.822189331055</t>
+    <t xml:space="preserve">127.496635437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.822204589844</t>
   </si>
   <si>
     <t xml:space="preserve">129.697387695312</t>
@@ -3983,16 +3983,16 @@
     <t xml:space="preserve">130.773284912109</t>
   </si>
   <si>
-    <t xml:space="preserve">131.653594970703</t>
+    <t xml:space="preserve">131.653610229492</t>
   </si>
   <si>
     <t xml:space="preserve">133.658706665039</t>
   </si>
   <si>
-    <t xml:space="preserve">126.714134216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125.05135345459</t>
+    <t xml:space="preserve">126.714141845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.051345825195</t>
   </si>
   <si>
     <t xml:space="preserve">122.94841003418</t>
@@ -4010,19 +4010,19 @@
     <t xml:space="preserve">113.900894165039</t>
   </si>
   <si>
-    <t xml:space="preserve">113.069496154785</t>
+    <t xml:space="preserve">113.06950378418</t>
   </si>
   <si>
     <t xml:space="preserve">112.23811340332</t>
   </si>
   <si>
-    <t xml:space="preserve">109.157066345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.287017822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.504531860352</t>
+    <t xml:space="preserve">109.15705871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.28702545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.504524230957</t>
   </si>
   <si>
     <t xml:space="preserve">115.270248413086</t>
@@ -4031,16 +4031,16 @@
     <t xml:space="preserve">112.727165222168</t>
   </si>
   <si>
-    <t xml:space="preserve">109.890647888184</t>
+    <t xml:space="preserve">109.890640258789</t>
   </si>
   <si>
     <t xml:space="preserve">110.526420593262</t>
   </si>
   <si>
-    <t xml:space="preserve">116.443992614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">125.344772338867</t>
+    <t xml:space="preserve">116.443984985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125.344779968262</t>
   </si>
   <si>
     <t xml:space="preserve">123.241844177246</t>
@@ -4049,7 +4049,7 @@
     <t xml:space="preserve">126.176177978516</t>
   </si>
   <si>
-    <t xml:space="preserve">127.252098083496</t>
+    <t xml:space="preserve">127.252105712891</t>
   </si>
   <si>
     <t xml:space="preserve">133.267471313477</t>
@@ -4064,16 +4064,16 @@
     <t xml:space="preserve">126.273994445801</t>
   </si>
   <si>
-    <t xml:space="preserve">129.403930664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128.279113769531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.518524169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.877616882324</t>
+    <t xml:space="preserve">129.403945922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128.279098510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.518516540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.877624511719</t>
   </si>
   <si>
     <t xml:space="preserve">126.371795654297</t>
@@ -4082,7 +4082,7 @@
     <t xml:space="preserve">126.616317749023</t>
   </si>
   <si>
-    <t xml:space="preserve">130.235336303711</t>
+    <t xml:space="preserve">130.235321044922</t>
   </si>
   <si>
     <t xml:space="preserve">133.756530761719</t>
@@ -4091,7 +4091,7 @@
     <t xml:space="preserve">135.223693847656</t>
   </si>
   <si>
-    <t xml:space="preserve">132.436080932617</t>
+    <t xml:space="preserve">132.436065673828</t>
   </si>
   <si>
     <t xml:space="preserve">129.941909790039</t>
@@ -4103,7 +4103,7 @@
     <t xml:space="preserve">129.844085693359</t>
   </si>
   <si>
-    <t xml:space="preserve">128.670349121094</t>
+    <t xml:space="preserve">128.670364379883</t>
   </si>
   <si>
     <t xml:space="preserve">126.07836151123</t>
@@ -4112,25 +4112,25 @@
     <t xml:space="preserve">128.865982055664</t>
   </si>
   <si>
-    <t xml:space="preserve">130.96891784668</t>
+    <t xml:space="preserve">130.968902587891</t>
   </si>
   <si>
     <t xml:space="preserve">129.795181274414</t>
   </si>
   <si>
-    <t xml:space="preserve">126.860855102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131.164535522461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.365280151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136.152908325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131.506881713867</t>
+    <t xml:space="preserve">126.860847473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131.16455078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.365295410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136.152893066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131.506866455078</t>
   </si>
   <si>
     <t xml:space="preserve">126.665229797363</t>
@@ -4139,7 +4139,7 @@
     <t xml:space="preserve">121.823593139648</t>
   </si>
   <si>
-    <t xml:space="preserve">125.00244140625</t>
+    <t xml:space="preserve">125.002449035645</t>
   </si>
   <si>
     <t xml:space="preserve">123.339653015137</t>
@@ -4148,7 +4148,7 @@
     <t xml:space="preserve">125.100257873535</t>
   </si>
   <si>
-    <t xml:space="preserve">124.611198425293</t>
+    <t xml:space="preserve">124.611206054688</t>
   </si>
   <si>
     <t xml:space="preserve">124.219955444336</t>
@@ -4160,19 +4160,19 @@
     <t xml:space="preserve">126.469612121582</t>
   </si>
   <si>
-    <t xml:space="preserve">127.00757598877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124.415580749512</t>
+    <t xml:space="preserve">127.007583618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.415573120117</t>
   </si>
   <si>
     <t xml:space="preserve">123.730903625488</t>
   </si>
   <si>
-    <t xml:space="preserve">124.806823730469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.437469482422</t>
+    <t xml:space="preserve">124.806816101074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.437461853027</t>
   </si>
   <si>
     <t xml:space="preserve">123.779815673828</t>
@@ -4190,7 +4190,7 @@
     <t xml:space="preserve">122.557174682617</t>
   </si>
   <si>
-    <t xml:space="preserve">122.019203186035</t>
+    <t xml:space="preserve">122.01921081543</t>
   </si>
   <si>
     <t xml:space="preserve">120.9921875</t>
@@ -4217,7 +4217,7 @@
     <t xml:space="preserve">119.280494689941</t>
   </si>
   <si>
-    <t xml:space="preserve">118.400199890137</t>
+    <t xml:space="preserve">118.400207519531</t>
   </si>
   <si>
     <t xml:space="preserve">115.710403442383</t>
@@ -4226,10 +4226,10 @@
     <t xml:space="preserve">113.851997375488</t>
   </si>
   <si>
-    <t xml:space="preserve">114.683380126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.754180908203</t>
+    <t xml:space="preserve">114.683387756348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.754188537598</t>
   </si>
   <si>
     <t xml:space="preserve">113.998710632324</t>
@@ -4241,7 +4241,7 @@
     <t xml:space="preserve">110.819854736328</t>
   </si>
   <si>
-    <t xml:space="preserve">112.482643127441</t>
+    <t xml:space="preserve">112.482635498047</t>
   </si>
   <si>
     <t xml:space="preserve">111.651245117188</t>
@@ -4250,16 +4250,16 @@
     <t xml:space="preserve">108.570198059082</t>
   </si>
   <si>
-    <t xml:space="preserve">107.543182373047</t>
+    <t xml:space="preserve">107.543174743652</t>
   </si>
   <si>
     <t xml:space="preserve">110.03736114502</t>
   </si>
   <si>
-    <t xml:space="preserve">110.232986450195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.499404907227</t>
+    <t xml:space="preserve">110.232978820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.499397277832</t>
   </si>
   <si>
     <t xml:space="preserve">109.10816192627</t>
@@ -4280,22 +4280,22 @@
     <t xml:space="preserve">105.000091552734</t>
   </si>
   <si>
-    <t xml:space="preserve">103.386215209961</t>
+    <t xml:space="preserve">103.386207580566</t>
   </si>
   <si>
     <t xml:space="preserve">98.9847183227539</t>
   </si>
   <si>
-    <t xml:space="preserve">100.207359313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.838005065918</t>
+    <t xml:space="preserve">100.20735168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.8380126953125</t>
   </si>
   <si>
     <t xml:space="preserve">96.3438262939453</t>
   </si>
   <si>
-    <t xml:space="preserve">99.8161163330078</t>
+    <t xml:space="preserve">99.8161239624023</t>
   </si>
   <si>
     <t xml:space="preserve">95.8547668457031</t>
@@ -4307,46 +4307,46 @@
     <t xml:space="preserve">95.8743286132812</t>
   </si>
   <si>
-    <t xml:space="preserve">96.2851409912109</t>
+    <t xml:space="preserve">96.2851333618164</t>
   </si>
   <si>
     <t xml:space="preserve">94.9353485107422</t>
   </si>
   <si>
-    <t xml:space="preserve">94.8766555786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.4393157958984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.0089340209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.9306945800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.1896591186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94.7201614379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.1700897216797</t>
+    <t xml:space="preserve">94.8766632080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.4393081665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.0089416503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.9306869506836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.1896514892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94.7201538085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.1700973510742</t>
   </si>
   <si>
     <t xml:space="preserve">95.2483367919922</t>
   </si>
   <si>
-    <t xml:space="preserve">95.0331573486328</t>
+    <t xml:space="preserve">95.0331649780273</t>
   </si>
   <si>
     <t xml:space="preserve">96.7546310424805</t>
   </si>
   <si>
-    <t xml:space="preserve">97.1850051879883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.3852691650391</t>
+    <t xml:space="preserve">97.1849975585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.3852767944336</t>
   </si>
   <si>
     <t xml:space="preserve">94.3484802246094</t>
@@ -4355,7 +4355,7 @@
     <t xml:space="preserve">96.3242645263672</t>
   </si>
   <si>
-    <t xml:space="preserve">95.5809020996094</t>
+    <t xml:space="preserve">95.5808944702148</t>
   </si>
   <si>
     <t xml:space="preserve">95.8156433105469</t>
@@ -4367,16 +4367,16 @@
     <t xml:space="preserve">102.16357421875</t>
   </si>
   <si>
-    <t xml:space="preserve">99.9628295898438</t>
+    <t xml:space="preserve">99.9628219604492</t>
   </si>
   <si>
     <t xml:space="preserve">102.457008361816</t>
   </si>
   <si>
-    <t xml:space="preserve">103.28840637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102.750442504883</t>
+    <t xml:space="preserve">103.288398742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102.750450134277</t>
   </si>
   <si>
     <t xml:space="preserve">99.3270645141602</t>
@@ -5199,6 +5199,9 @@
   </si>
   <si>
     <t xml:space="preserve">98.3600006103516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101</t>
   </si>
 </sst>
 </file>
@@ -19910,7 +19913,7 @@
         <v>67.4499969482422</v>
       </c>
       <c r="G553" t="s">
-        <v>380</v>
+        <v>246</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -19936,7 +19939,7 @@
         <v>66.4000015258789</v>
       </c>
       <c r="G554" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -19962,7 +19965,7 @@
         <v>66.0999984741211</v>
       </c>
       <c r="G555" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -19988,7 +19991,7 @@
         <v>67.3499984741211</v>
       </c>
       <c r="G556" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -20014,7 +20017,7 @@
         <v>68.4000015258789</v>
       </c>
       <c r="G557" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -20040,7 +20043,7 @@
         <v>70.5999984741211</v>
       </c>
       <c r="G558" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -20092,7 +20095,7 @@
         <v>74.75</v>
       </c>
       <c r="G560" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -20118,7 +20121,7 @@
         <v>73.8499984741211</v>
       </c>
       <c r="G561" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -20222,7 +20225,7 @@
         <v>72.1999969482422</v>
       </c>
       <c r="G565" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -20248,7 +20251,7 @@
         <v>71.8000030517578</v>
       </c>
       <c r="G566" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -20326,7 +20329,7 @@
         <v>72.6500015258789</v>
       </c>
       <c r="G569" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -20404,7 +20407,7 @@
         <v>72.6500015258789</v>
       </c>
       <c r="G572" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -20534,7 +20537,7 @@
         <v>72.25</v>
       </c>
       <c r="G577" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -20560,7 +20563,7 @@
         <v>73.8499984741211</v>
       </c>
       <c r="G578" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -20664,7 +20667,7 @@
         <v>73.5</v>
       </c>
       <c r="G582" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -20690,7 +20693,7 @@
         <v>73.5</v>
       </c>
       <c r="G583" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -20742,7 +20745,7 @@
         <v>75.5500030517578</v>
       </c>
       <c r="G585" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -20768,7 +20771,7 @@
         <v>77.5999984741211</v>
       </c>
       <c r="G586" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -20794,7 +20797,7 @@
         <v>74.75</v>
       </c>
       <c r="G587" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -20846,7 +20849,7 @@
         <v>76.1999969482422</v>
       </c>
       <c r="G589" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -20898,7 +20901,7 @@
         <v>77.3000030517578</v>
       </c>
       <c r="G591" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -20924,7 +20927,7 @@
         <v>78.1500015258789</v>
       </c>
       <c r="G592" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -21002,7 +21005,7 @@
         <v>78.6999969482422</v>
       </c>
       <c r="G595" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -21054,7 +21057,7 @@
         <v>78.6500015258789</v>
       </c>
       <c r="G597" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -21132,7 +21135,7 @@
         <v>80.4000015258789</v>
       </c>
       <c r="G600" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -21158,7 +21161,7 @@
         <v>81.5500030517578</v>
       </c>
       <c r="G601" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -21184,7 +21187,7 @@
         <v>80.1999969482422</v>
       </c>
       <c r="G602" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -21210,7 +21213,7 @@
         <v>81.3000030517578</v>
       </c>
       <c r="G603" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -21236,7 +21239,7 @@
         <v>81</v>
       </c>
       <c r="G604" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -21262,7 +21265,7 @@
         <v>81.1999969482422</v>
       </c>
       <c r="G605" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -21288,7 +21291,7 @@
         <v>82.6500015258789</v>
       </c>
       <c r="G606" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -21314,7 +21317,7 @@
         <v>81.4000015258789</v>
       </c>
       <c r="G607" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -21340,7 +21343,7 @@
         <v>81.25</v>
       </c>
       <c r="G608" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -21366,7 +21369,7 @@
         <v>81.9000015258789</v>
       </c>
       <c r="G609" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -21392,7 +21395,7 @@
         <v>80.6999969482422</v>
       </c>
       <c r="G610" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -21418,7 +21421,7 @@
         <v>82.0500030517578</v>
       </c>
       <c r="G611" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -21444,7 +21447,7 @@
         <v>84.1500015258789</v>
       </c>
       <c r="G612" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -21470,7 +21473,7 @@
         <v>83</v>
       </c>
       <c r="G613" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -21496,7 +21499,7 @@
         <v>81.1999969482422</v>
       </c>
       <c r="G614" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -21522,7 +21525,7 @@
         <v>84.5999984741211</v>
       </c>
       <c r="G615" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -21548,7 +21551,7 @@
         <v>82.5999984741211</v>
       </c>
       <c r="G616" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -21574,7 +21577,7 @@
         <v>85.5</v>
       </c>
       <c r="G617" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -21600,7 +21603,7 @@
         <v>87.5</v>
       </c>
       <c r="G618" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -21626,7 +21629,7 @@
         <v>88.25</v>
       </c>
       <c r="G619" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -21652,7 +21655,7 @@
         <v>88</v>
       </c>
       <c r="G620" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -21678,7 +21681,7 @@
         <v>88.4000015258789</v>
       </c>
       <c r="G621" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -21704,7 +21707,7 @@
         <v>87.9000015258789</v>
       </c>
       <c r="G622" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -21730,7 +21733,7 @@
         <v>88.9499969482422</v>
       </c>
       <c r="G623" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -21756,7 +21759,7 @@
         <v>91</v>
       </c>
       <c r="G624" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -21782,7 +21785,7 @@
         <v>92.4000015258789</v>
       </c>
       <c r="G625" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -21808,7 +21811,7 @@
         <v>93.3499984741211</v>
       </c>
       <c r="G626" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -21834,7 +21837,7 @@
         <v>93</v>
       </c>
       <c r="G627" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -21860,7 +21863,7 @@
         <v>92.3000030517578</v>
       </c>
       <c r="G628" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -21886,7 +21889,7 @@
         <v>90.9499969482422</v>
       </c>
       <c r="G629" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -21912,7 +21915,7 @@
         <v>89.5</v>
       </c>
       <c r="G630" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -21938,7 +21941,7 @@
         <v>89.1500015258789</v>
       </c>
       <c r="G631" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -21964,7 +21967,7 @@
         <v>96</v>
       </c>
       <c r="G632" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -21990,7 +21993,7 @@
         <v>95.0500030517578</v>
       </c>
       <c r="G633" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -22016,7 +22019,7 @@
         <v>95.6999969482422</v>
       </c>
       <c r="G634" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -22042,7 +22045,7 @@
         <v>97.3000030517578</v>
       </c>
       <c r="G635" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -22068,7 +22071,7 @@
         <v>96.3499984741211</v>
       </c>
       <c r="G636" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -22094,7 +22097,7 @@
         <v>97.6999969482422</v>
       </c>
       <c r="G637" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -22120,7 +22123,7 @@
         <v>96.3000030517578</v>
       </c>
       <c r="G638" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -22146,7 +22149,7 @@
         <v>97.5</v>
       </c>
       <c r="G639" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -22172,7 +22175,7 @@
         <v>96.4000015258789</v>
       </c>
       <c r="G640" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -22198,7 +22201,7 @@
         <v>95.5500030517578</v>
       </c>
       <c r="G641" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -22224,7 +22227,7 @@
         <v>96</v>
       </c>
       <c r="G642" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -22250,7 +22253,7 @@
         <v>95.8000030517578</v>
       </c>
       <c r="G643" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -22276,7 +22279,7 @@
         <v>95.9000015258789</v>
       </c>
       <c r="G644" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -22302,7 +22305,7 @@
         <v>96.1500015258789</v>
       </c>
       <c r="G645" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -22328,7 +22331,7 @@
         <v>98.1999969482422</v>
       </c>
       <c r="G646" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -22354,7 +22357,7 @@
         <v>97.6500015258789</v>
       </c>
       <c r="G647" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -22380,7 +22383,7 @@
         <v>97.9000015258789</v>
       </c>
       <c r="G648" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -22406,7 +22409,7 @@
         <v>96.5</v>
       </c>
       <c r="G649" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -22432,7 +22435,7 @@
         <v>95.9499969482422</v>
       </c>
       <c r="G650" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -22458,7 +22461,7 @@
         <v>96.75</v>
       </c>
       <c r="G651" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -22484,7 +22487,7 @@
         <v>96.4000015258789</v>
       </c>
       <c r="G652" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -22510,7 +22513,7 @@
         <v>94.5</v>
       </c>
       <c r="G653" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -22536,7 +22539,7 @@
         <v>94</v>
       </c>
       <c r="G654" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -22562,7 +22565,7 @@
         <v>94.3499984741211</v>
       </c>
       <c r="G655" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -22588,7 +22591,7 @@
         <v>92.4499969482422</v>
       </c>
       <c r="G656" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -22614,7 +22617,7 @@
         <v>93</v>
       </c>
       <c r="G657" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -22640,7 +22643,7 @@
         <v>92.5</v>
       </c>
       <c r="G658" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -22666,7 +22669,7 @@
         <v>91.8000030517578</v>
       </c>
       <c r="G659" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -22692,7 +22695,7 @@
         <v>93</v>
       </c>
       <c r="G660" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -22718,7 +22721,7 @@
         <v>85.0500030517578</v>
       </c>
       <c r="G661" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -22744,7 +22747,7 @@
         <v>87.3499984741211</v>
       </c>
       <c r="G662" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -22770,7 +22773,7 @@
         <v>87.5</v>
       </c>
       <c r="G663" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -22796,7 +22799,7 @@
         <v>88.75</v>
       </c>
       <c r="G664" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -22822,7 +22825,7 @@
         <v>87.8499984741211</v>
       </c>
       <c r="G665" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -22848,7 +22851,7 @@
         <v>88.0999984741211</v>
       </c>
       <c r="G666" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -22874,7 +22877,7 @@
         <v>87.8499984741211</v>
       </c>
       <c r="G667" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -22900,7 +22903,7 @@
         <v>86.9000015258789</v>
       </c>
       <c r="G668" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -22926,7 +22929,7 @@
         <v>88.1500015258789</v>
       </c>
       <c r="G669" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -22952,7 +22955,7 @@
         <v>86.5500030517578</v>
       </c>
       <c r="G670" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -22978,7 +22981,7 @@
         <v>86.8499984741211</v>
       </c>
       <c r="G671" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -23004,7 +23007,7 @@
         <v>93.1999969482422</v>
       </c>
       <c r="G672" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -23030,7 +23033,7 @@
         <v>93.75</v>
       </c>
       <c r="G673" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -23056,7 +23059,7 @@
         <v>91.5</v>
       </c>
       <c r="G674" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -23082,7 +23085,7 @@
         <v>91.8499984741211</v>
       </c>
       <c r="G675" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -23108,7 +23111,7 @@
         <v>91.5999984741211</v>
       </c>
       <c r="G676" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -23134,7 +23137,7 @@
         <v>91.1500015258789</v>
       </c>
       <c r="G677" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -23160,7 +23163,7 @@
         <v>91.6999969482422</v>
       </c>
       <c r="G678" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -23186,7 +23189,7 @@
         <v>92.9000015258789</v>
       </c>
       <c r="G679" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -23212,7 +23215,7 @@
         <v>93.8000030517578</v>
       </c>
       <c r="G680" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -23238,7 +23241,7 @@
         <v>93.8000030517578</v>
       </c>
       <c r="G681" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -23264,7 +23267,7 @@
         <v>92.4499969482422</v>
       </c>
       <c r="G682" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -23290,7 +23293,7 @@
         <v>92.3499984741211</v>
       </c>
       <c r="G683" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -23316,7 +23319,7 @@
         <v>89.4000015258789</v>
       </c>
       <c r="G684" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -23342,7 +23345,7 @@
         <v>89.6999969482422</v>
       </c>
       <c r="G685" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -23368,7 +23371,7 @@
         <v>87.9000015258789</v>
       </c>
       <c r="G686" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -23394,7 +23397,7 @@
         <v>88.9499969482422</v>
       </c>
       <c r="G687" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -23420,7 +23423,7 @@
         <v>88.4000015258789</v>
       </c>
       <c r="G688" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -23446,7 +23449,7 @@
         <v>88.6999969482422</v>
       </c>
       <c r="G689" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -23472,7 +23475,7 @@
         <v>89.5</v>
       </c>
       <c r="G690" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -23498,7 +23501,7 @@
         <v>89</v>
       </c>
       <c r="G691" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -23524,7 +23527,7 @@
         <v>90.6999969482422</v>
       </c>
       <c r="G692" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -23550,7 +23553,7 @@
         <v>93.75</v>
       </c>
       <c r="G693" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -23576,7 +23579,7 @@
         <v>95.8499984741211</v>
       </c>
       <c r="G694" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -23602,7 +23605,7 @@
         <v>97.1999969482422</v>
       </c>
       <c r="G695" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -23628,7 +23631,7 @@
         <v>92.25</v>
       </c>
       <c r="G696" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -23654,7 +23657,7 @@
         <v>91.5</v>
       </c>
       <c r="G697" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -23680,7 +23683,7 @@
         <v>93.0999984741211</v>
       </c>
       <c r="G698" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -23706,7 +23709,7 @@
         <v>92.9499969482422</v>
       </c>
       <c r="G699" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -23732,7 +23735,7 @@
         <v>91</v>
       </c>
       <c r="G700" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -23758,7 +23761,7 @@
         <v>90.5999984741211</v>
       </c>
       <c r="G701" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -23784,7 +23787,7 @@
         <v>91.3000030517578</v>
       </c>
       <c r="G702" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -23810,7 +23813,7 @@
         <v>91</v>
       </c>
       <c r="G703" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -23836,7 +23839,7 @@
         <v>90.5999984741211</v>
       </c>
       <c r="G704" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -23862,7 +23865,7 @@
         <v>89.1999969482422</v>
       </c>
       <c r="G705" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -23888,7 +23891,7 @@
         <v>86.8000030517578</v>
       </c>
       <c r="G706" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -23914,7 +23917,7 @@
         <v>82.3000030517578</v>
       </c>
       <c r="G707" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -23940,7 +23943,7 @@
         <v>81.5</v>
       </c>
       <c r="G708" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -23966,7 +23969,7 @@
         <v>80.3000030517578</v>
       </c>
       <c r="G709" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -23992,7 +23995,7 @@
         <v>79.6999969482422</v>
       </c>
       <c r="G710" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -24018,7 +24021,7 @@
         <v>81.9499969482422</v>
       </c>
       <c r="G711" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -24044,7 +24047,7 @@
         <v>79.5</v>
       </c>
       <c r="G712" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -24070,7 +24073,7 @@
         <v>79.8499984741211</v>
       </c>
       <c r="G713" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -24096,7 +24099,7 @@
         <v>81.5999984741211</v>
       </c>
       <c r="G714" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -24122,7 +24125,7 @@
         <v>82</v>
       </c>
       <c r="G715" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -24148,7 +24151,7 @@
         <v>82.4000015258789</v>
       </c>
       <c r="G716" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -24174,7 +24177,7 @@
         <v>83.6999969482422</v>
       </c>
       <c r="G717" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -24200,7 +24203,7 @@
         <v>79.75</v>
       </c>
       <c r="G718" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -24226,7 +24229,7 @@
         <v>80.5500030517578</v>
       </c>
       <c r="G719" t="s">
-        <v>407</v>
+        <v>501</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -24382,7 +24385,7 @@
         <v>86.9000015258789</v>
       </c>
       <c r="G725" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -24408,7 +24411,7 @@
         <v>86.5500030517578</v>
       </c>
       <c r="G726" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -24460,7 +24463,7 @@
         <v>86.8499984741211</v>
       </c>
       <c r="G728" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -24486,7 +24489,7 @@
         <v>81.5999984741211</v>
       </c>
       <c r="G729" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -24590,7 +24593,7 @@
         <v>82.3000030517578</v>
       </c>
       <c r="G733" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -24616,7 +24619,7 @@
         <v>81.5999984741211</v>
       </c>
       <c r="G734" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -24668,7 +24671,7 @@
         <v>81.1999969482422</v>
       </c>
       <c r="G736" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -62298,7 +62301,7 @@
     </row>
     <row r="2184">
       <c r="A2184" s="1" t="n">
-        <v>45503.6494791667</v>
+        <v>45503.2916666667</v>
       </c>
       <c r="B2184" t="n">
         <v>332602</v>
@@ -62319,6 +62322,32 @@
         <v>1728</v>
       </c>
       <c r="H2184" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" s="1" t="n">
+        <v>45504.6495717593</v>
+      </c>
+      <c r="B2185" t="n">
+        <v>197484</v>
+      </c>
+      <c r="C2185" t="n">
+        <v>101.150001525879</v>
+      </c>
+      <c r="D2185" t="n">
+        <v>98.7600021362305</v>
+      </c>
+      <c r="E2185" t="n">
+        <v>99</v>
+      </c>
+      <c r="F2185" t="n">
+        <v>101</v>
+      </c>
+      <c r="G2185" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H2185" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/DIA.MI.xlsx
+++ b/data/DIA.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="1737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="1739">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">43.8512992858887</t>
   </si>
   <si>
-    <t xml:space="preserve">43.5922470092773</t>
+    <t xml:space="preserve">43.5922431945801</t>
   </si>
   <si>
     <t xml:space="preserve">43.4761238098145</t>
@@ -56,7 +56,7 @@
     <t xml:space="preserve">43.3689308166504</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6900329589844</t>
+    <t xml:space="preserve">42.6900253295898</t>
   </si>
   <si>
     <t xml:space="preserve">43.0116157531738</t>
@@ -68,121 +68,121 @@
     <t xml:space="preserve">41.8146209716797</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5104141235352</t>
+    <t xml:space="preserve">40.5104179382324</t>
   </si>
   <si>
     <t xml:space="preserve">39.7779312133789</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5630683898926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.3218765258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1253547668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.4563484191895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.769474029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7878189086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5917701721191</t>
+    <t xml:space="preserve">38.5630569458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.3218841552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1253471374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.4563446044922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7694702148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7878112792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5917663574219</t>
   </si>
   <si>
     <t xml:space="preserve">41.8950080871582</t>
   </si>
   <si>
-    <t xml:space="preserve">43.3242607116699</t>
+    <t xml:space="preserve">43.3242683410645</t>
   </si>
   <si>
     <t xml:space="preserve">43.6190490722656</t>
   </si>
   <si>
-    <t xml:space="preserve">43.5475921630859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.4131202697754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7610206604004</t>
+    <t xml:space="preserve">43.5475845336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.4131164550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7610168457031</t>
   </si>
   <si>
     <t xml:space="preserve">39.9208526611328</t>
   </si>
   <si>
-    <t xml:space="preserve">38.2414779663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5005264282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.0811614990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.0990333557129</t>
+    <t xml:space="preserve">38.2414817810059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5005302429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.081169128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.0990295410156</t>
   </si>
   <si>
     <t xml:space="preserve">38.8935775756836</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6354827880859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9124031066895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0106506347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9307403564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0920143127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.4756469726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1366806030273</t>
+    <t xml:space="preserve">40.6354789733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9123916625977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0106620788574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9307441711426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0920104980469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.475643157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1366729736328</t>
   </si>
   <si>
     <t xml:space="preserve">43.7619743347168</t>
   </si>
   <si>
-    <t xml:space="preserve">43.4493293762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.7798347473145</t>
+    <t xml:space="preserve">43.4493255615234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.7798385620117</t>
   </si>
   <si>
     <t xml:space="preserve">43.100944519043</t>
   </si>
   <si>
-    <t xml:space="preserve">42.3416557312012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1902732849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2527961730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3064002990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2786483764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.867733001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5193557739258</t>
+    <t xml:space="preserve">42.3416481018066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1902694702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.252799987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3063888549805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2786445617676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8677368164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5193519592285</t>
   </si>
   <si>
     <t xml:space="preserve">41.6895523071289</t>
@@ -191,10 +191,10 @@
     <t xml:space="preserve">41.0910491943359</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6712112426758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1263046264648</t>
+    <t xml:space="preserve">40.671215057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1263084411621</t>
   </si>
   <si>
     <t xml:space="preserve">40.6265449523926</t>
@@ -203,43 +203,43 @@
     <t xml:space="preserve">40.8052024841309</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3496284484863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.644416809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9838638305664</t>
+    <t xml:space="preserve">40.3496246337891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6444091796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9838600158691</t>
   </si>
   <si>
     <t xml:space="preserve">44.664192199707</t>
   </si>
   <si>
-    <t xml:space="preserve">45.3341484069824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.8701248168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.4507637023926</t>
+    <t xml:space="preserve">45.334156036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.8701171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.450756072998</t>
   </si>
   <si>
     <t xml:space="preserve">45.9594535827637</t>
   </si>
   <si>
-    <t xml:space="preserve">46.2720985412598</t>
+    <t xml:space="preserve">46.2720947265625</t>
   </si>
   <si>
     <t xml:space="preserve">47.4333648681641</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4954223632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.0041198730469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.7807998657227</t>
+    <t xml:space="preserve">46.4954261779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.0041160583496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.7807922363281</t>
   </si>
   <si>
     <t xml:space="preserve">45.468147277832</t>
@@ -248,34 +248,34 @@
     <t xml:space="preserve">45.512809753418</t>
   </si>
   <si>
-    <t xml:space="preserve">45.9147872924805</t>
+    <t xml:space="preserve">45.9147911071777</t>
   </si>
   <si>
     <t xml:space="preserve">45.3788108825684</t>
   </si>
   <si>
-    <t xml:space="preserve">45.289493560791</t>
+    <t xml:space="preserve">45.2894859313965</t>
   </si>
   <si>
     <t xml:space="preserve">45.8254623413086</t>
   </si>
   <si>
-    <t xml:space="preserve">45.5574760437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4234848022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.3614311218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.2274322509766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.4060897827148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8973999023438</t>
+    <t xml:space="preserve">45.5574684143066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4234809875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.3614273071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.2274398803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.4060974121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8973960876465</t>
   </si>
   <si>
     <t xml:space="preserve">46.7634048461914</t>
@@ -284,7 +284,7 @@
     <t xml:space="preserve">46.8527374267578</t>
   </si>
   <si>
-    <t xml:space="preserve">47.2100524902344</t>
+    <t xml:space="preserve">47.2100486755371</t>
   </si>
   <si>
     <t xml:space="preserve">46.6740798950195</t>
@@ -293,58 +293,58 @@
     <t xml:space="preserve">46.5847549438477</t>
   </si>
   <si>
-    <t xml:space="preserve">48.0285758972168</t>
+    <t xml:space="preserve">48.0285682678223</t>
   </si>
   <si>
     <t xml:space="preserve">48.1190299987793</t>
   </si>
   <si>
-    <t xml:space="preserve">47.7120018005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.5260543823242</t>
+    <t xml:space="preserve">47.7120056152344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.5260467529297</t>
   </si>
   <si>
     <t xml:space="preserve">48.7974014282227</t>
   </si>
   <si>
-    <t xml:space="preserve">49.7471122741699</t>
+    <t xml:space="preserve">49.7471160888672</t>
   </si>
   <si>
     <t xml:space="preserve">49.204418182373</t>
   </si>
   <si>
-    <t xml:space="preserve">50.1993598937988</t>
+    <t xml:space="preserve">50.1993560791016</t>
   </si>
   <si>
     <t xml:space="preserve">50.2898063659668</t>
   </si>
   <si>
-    <t xml:space="preserve">50.8777313232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.7018890380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.606388092041</t>
+    <t xml:space="preserve">50.8777275085449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.7018928527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.6063842773438</t>
   </si>
   <si>
     <t xml:space="preserve">49.7923316955566</t>
   </si>
   <si>
-    <t xml:space="preserve">50.3350372314453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.6114349365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.1642532348633</t>
+    <t xml:space="preserve">50.3350410461426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.6114387512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.1642570495605</t>
   </si>
   <si>
     <t xml:space="preserve">48.3451499938965</t>
   </si>
   <si>
-    <t xml:space="preserve">47.2145385742188</t>
+    <t xml:space="preserve">47.2145347595215</t>
   </si>
   <si>
     <t xml:space="preserve">47.5311050415039</t>
@@ -353,25 +353,25 @@
     <t xml:space="preserve">48.7069435119629</t>
   </si>
   <si>
-    <t xml:space="preserve">49.9732360839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.7622947692871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.5864524841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.6266059875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.5209884643555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.380256652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.0586280822754</t>
+    <t xml:space="preserve">49.9732398986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.7622871398926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.5864448547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.6266136169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.5209846496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.3802528381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.0586318969727</t>
   </si>
   <si>
     <t xml:space="preserve">48.7521743774414</t>
@@ -380,37 +380,37 @@
     <t xml:space="preserve">49.5662155151367</t>
   </si>
   <si>
-    <t xml:space="preserve">50.470703125</t>
+    <t xml:space="preserve">50.4707069396973</t>
   </si>
   <si>
     <t xml:space="preserve">49.6566696166992</t>
   </si>
   <si>
-    <t xml:space="preserve">51.2395248413086</t>
+    <t xml:space="preserve">51.2395324707031</t>
   </si>
   <si>
     <t xml:space="preserve">51.872673034668</t>
   </si>
   <si>
-    <t xml:space="preserve">51.9178924560547</t>
+    <t xml:space="preserve">51.9179000854492</t>
   </si>
   <si>
     <t xml:space="preserve">51.6013221740723</t>
   </si>
   <si>
-    <t xml:space="preserve">51.5108757019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.2344741821289</t>
+    <t xml:space="preserve">51.5108833312988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.2344703674316</t>
   </si>
   <si>
     <t xml:space="preserve">52.4605903625488</t>
   </si>
   <si>
-    <t xml:space="preserve">51.6465492248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.4204254150391</t>
+    <t xml:space="preserve">51.6465454101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.4204216003418</t>
   </si>
   <si>
     <t xml:space="preserve">50.9229545593262</t>
@@ -419,31 +419,31 @@
     <t xml:space="preserve">50.6968269348145</t>
   </si>
   <si>
-    <t xml:space="preserve">50.5159301757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.8325080871582</t>
+    <t xml:space="preserve">50.5159339904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.8325042724609</t>
   </si>
   <si>
     <t xml:space="preserve">52.2796936035156</t>
   </si>
   <si>
-    <t xml:space="preserve">54.2695808410645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.7721099853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.8574981689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.0383987426758</t>
+    <t xml:space="preserve">54.2695732116699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.772102355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.857494354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.0383949279785</t>
   </si>
   <si>
     <t xml:space="preserve">56.0785675048828</t>
   </si>
   <si>
-    <t xml:space="preserve">54.8122634887695</t>
+    <t xml:space="preserve">54.8122673034668</t>
   </si>
   <si>
     <t xml:space="preserve">52.73193359375</t>
@@ -452,7 +452,7 @@
     <t xml:space="preserve">52.3249168395996</t>
   </si>
   <si>
-    <t xml:space="preserve">51.3299751281738</t>
+    <t xml:space="preserve">51.3299827575684</t>
   </si>
   <si>
     <t xml:space="preserve">52.0535697937012</t>
@@ -461,31 +461,31 @@
     <t xml:space="preserve">51.2847518920898</t>
   </si>
   <si>
-    <t xml:space="preserve">52.912841796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.4153633117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0987968444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0083427429199</t>
+    <t xml:space="preserve">52.9128341674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.4153671264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0987930297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0083465576172</t>
   </si>
   <si>
     <t xml:space="preserve">52.5510406494141</t>
   </si>
   <si>
-    <t xml:space="preserve">51.737003326416</t>
+    <t xml:space="preserve">51.7369956970215</t>
   </si>
   <si>
     <t xml:space="preserve">51.1038513183594</t>
   </si>
   <si>
-    <t xml:space="preserve">50.1089172363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.9280090332031</t>
+    <t xml:space="preserve">50.1089134216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.9280128479004</t>
   </si>
   <si>
     <t xml:space="preserve">52.6414947509766</t>
@@ -500,43 +500,43 @@
     <t xml:space="preserve">52.1892433166504</t>
   </si>
   <si>
-    <t xml:space="preserve">53.0032844543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.2746391296387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.958065032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.8625602722168</t>
+    <t xml:space="preserve">53.003288269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.2746353149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.9580612182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.8625526428223</t>
   </si>
   <si>
     <t xml:space="preserve">52.3701477050781</t>
   </si>
   <si>
-    <t xml:space="preserve">51.8274421691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.3751983642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.787281036377</t>
+    <t xml:space="preserve">51.827449798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.3751945495605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.7872848510742</t>
   </si>
   <si>
     <t xml:space="preserve">51.556095123291</t>
   </si>
   <si>
-    <t xml:space="preserve">50.6515998840332</t>
+    <t xml:space="preserve">50.6516075134277</t>
   </si>
   <si>
     <t xml:space="preserve">49.3400917053223</t>
   </si>
   <si>
-    <t xml:space="preserve">48.2546920776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.4355926513672</t>
+    <t xml:space="preserve">48.2546997070312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.4355964660645</t>
   </si>
   <si>
     <t xml:space="preserve">45.903018951416</t>
@@ -545,37 +545,37 @@
     <t xml:space="preserve">46.3100395202637</t>
   </si>
   <si>
-    <t xml:space="preserve">46.1291465759277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.9884071350098</t>
+    <t xml:space="preserve">46.1291389465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.988410949707</t>
   </si>
   <si>
     <t xml:space="preserve">47.2597579956055</t>
   </si>
   <si>
-    <t xml:space="preserve">46.8527336120605</t>
+    <t xml:space="preserve">46.8527297973633</t>
   </si>
   <si>
     <t xml:space="preserve">46.3552627563477</t>
   </si>
   <si>
-    <t xml:space="preserve">46.7170677185059</t>
+    <t xml:space="preserve">46.7170639038086</t>
   </si>
   <si>
     <t xml:space="preserve">47.1693115234375</t>
   </si>
   <si>
-    <t xml:space="preserve">47.0336380004883</t>
+    <t xml:space="preserve">47.033634185791</t>
   </si>
   <si>
     <t xml:space="preserve">46.5813865661621</t>
   </si>
   <si>
-    <t xml:space="preserve">46.0386924743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.264820098877</t>
+    <t xml:space="preserve">46.0386962890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.2648162841797</t>
   </si>
   <si>
     <t xml:space="preserve">47.1240768432617</t>
@@ -590,7 +590,7 @@
     <t xml:space="preserve">48.0738067626953</t>
   </si>
   <si>
-    <t xml:space="preserve">49.8375587463379</t>
+    <t xml:space="preserve">49.8375549316406</t>
   </si>
   <si>
     <t xml:space="preserve">51.0134086608887</t>
@@ -599,10 +599,10 @@
     <t xml:space="preserve">52.8223915100098</t>
   </si>
   <si>
-    <t xml:space="preserve">51.1490745544434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.4757614135742</t>
+    <t xml:space="preserve">51.1490783691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.4757690429688</t>
   </si>
   <si>
     <t xml:space="preserve">50.2445831298828</t>
@@ -611,16 +611,16 @@
     <t xml:space="preserve">51.4656524658203</t>
   </si>
   <si>
-    <t xml:space="preserve">51.7822265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.8676147460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.1389617919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.0434532165527</t>
+    <t xml:space="preserve">51.7822227478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.867618560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.1389656066895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.04345703125</t>
   </si>
   <si>
     <t xml:space="preserve">54.088680267334</t>
@@ -632,31 +632,31 @@
     <t xml:space="preserve">54.3600196838379</t>
   </si>
   <si>
-    <t xml:space="preserve">53.5912055969238</t>
+    <t xml:space="preserve">53.5912132263184</t>
   </si>
   <si>
     <t xml:space="preserve">53.9530067443848</t>
   </si>
   <si>
-    <t xml:space="preserve">54.5409278869629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.4906425476074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.3046913146973</t>
+    <t xml:space="preserve">54.5409240722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.4906387329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.3046875</t>
   </si>
   <si>
     <t xml:space="preserve">56.0333366394043</t>
   </si>
   <si>
-    <t xml:space="preserve">56.2142448425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.9830589294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.8473739624023</t>
+    <t xml:space="preserve">56.2142372131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9830627441406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.8473777770996</t>
   </si>
   <si>
     <t xml:space="preserve">56.349910736084</t>
@@ -668,40 +668,40 @@
     <t xml:space="preserve">57.2544021606445</t>
   </si>
   <si>
-    <t xml:space="preserve">57.7066535949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.7971038818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.1588973999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.0684432983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.7920417785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.6513061523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.786979675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.5156364440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.8372688293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.8875465393066</t>
+    <t xml:space="preserve">57.7066497802734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.7971000671387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.1589050292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.0684471130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.7920379638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.6513023376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.7869873046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.5156440734863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58.8372764587402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.8875503540039</t>
   </si>
   <si>
     <t xml:space="preserve">58.1136703491211</t>
   </si>
   <si>
-    <t xml:space="preserve">59.3347358703613</t>
+    <t xml:space="preserve">59.3347396850586</t>
   </si>
   <si>
     <t xml:space="preserve">60.7819213867188</t>
@@ -716,118 +716,118 @@
     <t xml:space="preserve">61.0532760620117</t>
   </si>
   <si>
-    <t xml:space="preserve">62.2291259765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.2190017700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.9527015686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.4100151062012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.6813545227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.6310768127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.4953994750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.1788291931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.540641784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.314510345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.6411972045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.9628257751465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.7316513061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.4638290405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.7383842468262</t>
+    <t xml:space="preserve">62.229118347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.2190093994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.9527053833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.4100227355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.6813659667969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.6310729980469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.4953956604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.178840637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.5406265258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.3145179748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.6411933898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.9628295898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.7316474914551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.4638252258301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62.7383918762207</t>
   </si>
   <si>
     <t xml:space="preserve">62.8756675720215</t>
   </si>
   <si>
-    <t xml:space="preserve">63.1044769287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.3332824707031</t>
+    <t xml:space="preserve">63.1044616699219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.3332672119141</t>
   </si>
   <si>
     <t xml:space="preserve">62.2807807922363</t>
   </si>
   <si>
-    <t xml:space="preserve">64.2484970092773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.5688323974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.2942733764648</t>
+    <t xml:space="preserve">64.2485046386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.5688400268555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.2942657470703</t>
   </si>
   <si>
     <t xml:space="preserve">65.3925323486328</t>
   </si>
   <si>
-    <t xml:space="preserve">64.88916015625</t>
+    <t xml:space="preserve">64.8891525268555</t>
   </si>
   <si>
     <t xml:space="preserve">65.6670989990234</t>
   </si>
   <si>
-    <t xml:space="preserve">66.3535079956055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.9739379882812</t>
+    <t xml:space="preserve">66.353515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.973934173584</t>
   </si>
   <si>
     <t xml:space="preserve">63.8366584777832</t>
   </si>
   <si>
-    <t xml:space="preserve">65.3467712402344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.7061157226562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.255241394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.1179656982422</t>
+    <t xml:space="preserve">65.3467636108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.7061080932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.255256652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.1179580688477</t>
   </si>
   <si>
     <t xml:space="preserve">64.9806823730469</t>
   </si>
   <si>
-    <t xml:space="preserve">66.5365524291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.8689193725586</t>
+    <t xml:space="preserve">66.5365371704102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.8689270019531</t>
   </si>
   <si>
     <t xml:space="preserve">60.4045753479004</t>
   </si>
   <si>
-    <t xml:space="preserve">61.5486030578613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.9537048339844</t>
+    <t xml:space="preserve">61.5485992431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.9537010192871</t>
   </si>
   <si>
     <t xml:space="preserve">61.594367980957</t>
@@ -836,19 +836,19 @@
     <t xml:space="preserve">61.3197937011719</t>
   </si>
   <si>
-    <t xml:space="preserve">60.4503402709961</t>
+    <t xml:space="preserve">60.4503440856934</t>
   </si>
   <si>
     <t xml:space="preserve">61.411319732666</t>
   </si>
   <si>
-    <t xml:space="preserve">62.2350234985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.1959953308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.0196914672852</t>
+    <t xml:space="preserve">62.2350158691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.1960067749023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.0196762084961</t>
   </si>
   <si>
     <t xml:space="preserve">64.3857803344727</t>
@@ -857,28 +857,28 @@
     <t xml:space="preserve">64.2027435302734</t>
   </si>
   <si>
-    <t xml:space="preserve">63.9281692504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.0857009887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.6348266601562</t>
+    <t xml:space="preserve">63.9281768798828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.085693359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.6348190307617</t>
   </si>
   <si>
     <t xml:space="preserve">66.8568878173828</t>
   </si>
   <si>
-    <t xml:space="preserve">67.3602523803711</t>
+    <t xml:space="preserve">67.3602600097656</t>
   </si>
   <si>
     <t xml:space="preserve">67.1772079467773</t>
   </si>
   <si>
-    <t xml:space="preserve">66.8111114501953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.7196044921875</t>
+    <t xml:space="preserve">66.8111267089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.719596862793</t>
   </si>
   <si>
     <t xml:space="preserve">66.4450378417969</t>
@@ -887,7 +887,7 @@
     <t xml:space="preserve">65.8501358032227</t>
   </si>
   <si>
-    <t xml:space="preserve">66.0331878662109</t>
+    <t xml:space="preserve">66.0331802368164</t>
   </si>
   <si>
     <t xml:space="preserve">65.5755767822266</t>
@@ -896,49 +896,49 @@
     <t xml:space="preserve">65.6213302612305</t>
   </si>
   <si>
-    <t xml:space="preserve">65.4840545654297</t>
+    <t xml:space="preserve">65.4840469360352</t>
   </si>
   <si>
     <t xml:space="preserve">65.3010025024414</t>
   </si>
   <si>
-    <t xml:space="preserve">64.7976379394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.111213684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.2619857788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.3077545166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.1314544677734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.4517669677734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.3144836425781</t>
+    <t xml:space="preserve">64.7976455688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.1112289428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.2619934082031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.307746887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.1314392089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.4517593383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.3144912719727</t>
   </si>
   <si>
     <t xml:space="preserve">67.7263412475586</t>
   </si>
   <si>
-    <t xml:space="preserve">66.9026412963867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.2229690551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.9551544189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.5432968139648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.2754821777344</t>
+    <t xml:space="preserve">66.9026336669922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.2229766845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.9551467895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.5433044433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.2754745483398</t>
   </si>
   <si>
     <t xml:space="preserve">69.4194946289062</t>
@@ -956,31 +956,31 @@
     <t xml:space="preserve">69.0534057617188</t>
   </si>
   <si>
-    <t xml:space="preserve">70.014404296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.2041931152344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.2957077026367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.8973388671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.3024520874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.4397201538086</t>
+    <t xml:space="preserve">70.0143890380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.2041854858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.2957000732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.897346496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.3024444580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.4397277832031</t>
   </si>
   <si>
     <t xml:space="preserve">71.7533264160156</t>
   </si>
   <si>
-    <t xml:space="preserve">72.0736541748047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.7210311889648</t>
+    <t xml:space="preserve">72.0736465454102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.7210464477539</t>
   </si>
   <si>
     <t xml:space="preserve">71.7990646362305</t>
@@ -989,94 +989,94 @@
     <t xml:space="preserve">71.1584167480469</t>
   </si>
   <si>
-    <t xml:space="preserve">71.2499465942383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.432991027832</t>
+    <t xml:space="preserve">71.2499313354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.4329833984375</t>
   </si>
   <si>
     <t xml:space="preserve">71.6617889404297</t>
   </si>
   <si>
-    <t xml:space="preserve">71.7075576782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.3872299194336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71.4787368774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.2566909790039</t>
+    <t xml:space="preserve">71.7075500488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.3872222900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71.4787521362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.2566757202148</t>
   </si>
   <si>
     <t xml:space="preserve">71.3414611816406</t>
   </si>
   <si>
-    <t xml:space="preserve">72.4854888916016</t>
+    <t xml:space="preserve">72.485481262207</t>
   </si>
   <si>
     <t xml:space="preserve">71.8906021118164</t>
   </si>
   <si>
-    <t xml:space="preserve">71.6160354614258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.9416580200195</t>
+    <t xml:space="preserve">71.6160278320312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.9416732788086</t>
   </si>
   <si>
     <t xml:space="preserve">66.3992691040039</t>
   </si>
   <si>
-    <t xml:space="preserve">68.3212280273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.6873397827148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.1516723632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.9296188354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.6550369262695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.8771133422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.183952331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.2364501953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.9228744506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.0601577758789</t>
+    <t xml:space="preserve">68.3212356567383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.6873245239258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.1516799926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.9296112060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.6550521850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.8771057128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.1839447021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.236457824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.9228820800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.0601654052734</t>
   </si>
   <si>
     <t xml:space="preserve">70.8380966186523</t>
   </si>
   <si>
-    <t xml:space="preserve">71.0669021606445</t>
+    <t xml:space="preserve">71.06689453125</t>
   </si>
   <si>
     <t xml:space="preserve">72.8058242797852</t>
   </si>
   <si>
-    <t xml:space="preserve">73.5379943847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.7923278808594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.3737411499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.2822113037109</t>
+    <t xml:space="preserve">73.5379867553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.7923355102539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.3737487792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.2822036743164</t>
   </si>
   <si>
     <t xml:space="preserve">68.1381912231445</t>
@@ -1085,43 +1085,43 @@
     <t xml:space="preserve">68.504280090332</t>
   </si>
   <si>
-    <t xml:space="preserve">70.2889556884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.2634353637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.7142868041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.53125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.8515625</t>
+    <t xml:space="preserve">70.2889633178711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.2634201049805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.7142791748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.5312576293945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.8515777587891</t>
   </si>
   <si>
     <t xml:space="preserve">72.9430923461914</t>
   </si>
   <si>
-    <t xml:space="preserve">72.6227798461914</t>
+    <t xml:space="preserve">72.6227722167969</